--- a/Energy - Orçado x Realizado.xlsx
+++ b/Energy - Orçado x Realizado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Controle Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD28182-508E-407E-94D6-22C516565AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF9396D-1ED6-4073-B9FC-ED058D540ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
   </bookViews>
@@ -323,9 +323,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -338,6 +335,9 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,7 +678,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -764,12 +764,12 @@
       </c>
     </row>
     <row r="2" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="15">
         <v>45566</v>
       </c>
@@ -985,7 +985,7 @@
       </c>
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="9">
@@ -1282,7 +1282,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>0</v>
       </c>
       <c r="D5" s="7">
@@ -1567,11 +1567,11 @@
       </c>
     </row>
     <row r="6" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="23"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="2">
         <v>106211.933472</v>
       </c>
@@ -1779,7 +1779,7 @@
       </c>
     </row>
     <row r="7" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="9"/>
@@ -2266,7 +2266,7 @@
       </c>
     </row>
     <row r="9" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="9">
@@ -2362,7 +2362,7 @@
       <c r="BU9" s="2"/>
     </row>
     <row r="10" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="9">
@@ -2457,7 +2457,7 @@
       <c r="BU10" s="2"/>
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="9">
@@ -4638,7 +4638,7 @@
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
-      <c r="W31" s="24"/>
+      <c r="W31" s="23"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
@@ -6567,7 +6567,7 @@
         <v>31</v>
       </c>
       <c r="B46" s="6"/>
-      <c r="C46" s="23"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="2">
         <v>-3058.9036839936002</v>
       </c>

--- a/Energy - Orçado x Realizado.xlsx
+++ b/Energy - Orçado x Realizado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Controle Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF9396D-1ED6-4073-B9FC-ED058D540ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB18391E-16E0-4782-9A28-619AEC21D9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
+    <workbookView xWindow="30060" yWindow="705" windowWidth="26805" windowHeight="15405" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Receita Bruta</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Impostos</t>
-  </si>
-  <si>
-    <t>OPEX</t>
   </si>
   <si>
     <t>Despesas</t>
@@ -165,6 +162,12 @@
   </si>
   <si>
     <t>Aporte</t>
+  </si>
+  <si>
+    <t>OPEX ADM</t>
+  </si>
+  <si>
+    <t>OPEX OPERACIONAL</t>
   </si>
 </sst>
 </file>
@@ -286,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,6 +340,9 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,13 +678,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E0C361-DC00-4C96-A388-FAD64E248995}">
-  <dimension ref="A1:BW51"/>
+  <dimension ref="A1:BW52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -700,72 +706,72 @@
   <sheetData>
     <row r="1" spans="1:73" x14ac:dyDescent="0.25">
       <c r="C1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="I1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="M1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="O1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Q1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="S1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="U1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="W1" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.25">
@@ -1279,7 +1285,7 @@
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="21">
@@ -1977,7 +1983,7 @@
     </row>
     <row r="8" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="7">
@@ -2267,7 +2273,7 @@
     </row>
     <row r="9" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="9">
         <f>SUM(C9:BU9)</f>
@@ -2363,7 +2369,7 @@
     </row>
     <row r="10" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="9">
         <f t="shared" ref="B10" si="6">SUM(C10:BU10)</f>
@@ -2458,7 +2464,7 @@
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="9">
         <f>SUM(C11:BU11)</f>
@@ -2546,48 +2552,48 @@
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="12">
-        <f>C14+C37+C45</f>
+        <f>C14+C38+C46+C24</f>
         <v>-88500.33</v>
       </c>
       <c r="D13" s="7">
-        <f>D14-D37-D45</f>
-        <v>-156662.64828806912</v>
+        <f>D14-D38-D46</f>
+        <v>-91009.140647318447</v>
       </c>
       <c r="E13" s="12">
-        <f t="shared" ref="E13:J13" si="7">E14+E37+E45</f>
-        <v>-92598.19</v>
+        <f t="shared" ref="E13:J13" si="7">E14+E38+E46</f>
+        <v>-84389.159999999989</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="7"/>
-        <v>-474404.22120041715</v>
+        <v>-408527.40230918775</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="7"/>
-        <v>-175296.1</v>
+        <v>-113301.18000000001</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="7"/>
-        <v>-475392.8370976788</v>
+        <v>-409516.0182064494</v>
       </c>
       <c r="I13" s="12">
         <f t="shared" si="7"/>
-        <v>-126643.36</v>
+        <v>-109848.45</v>
       </c>
       <c r="J13" s="7">
         <f t="shared" si="7"/>
-        <v>-371184.53360600607</v>
+        <v>-305118.589039805</v>
       </c>
       <c r="K13" s="12">
-        <f t="shared" ref="K13:M13" si="8">K14+K37+K45</f>
-        <v>-7684.3000000000011</v>
+        <f t="shared" ref="K13:M13" si="8">K14+K38+K46</f>
+        <v>-5784.3</v>
       </c>
       <c r="L13" s="7">
-        <f t="shared" ref="L13:AB13" si="9">L14+L37+L45</f>
-        <v>-371418.63485214819</v>
+        <f t="shared" ref="L13:AB13" si="9">L14+L38+L46</f>
+        <v>-305163.02165031742</v>
       </c>
       <c r="M13" s="12">
         <f t="shared" si="8"/>
@@ -2595,7 +2601,7 @@
       </c>
       <c r="N13" s="7">
         <f t="shared" si="9"/>
-        <v>-366397.80609453114</v>
+        <v>-305207.5818223544</v>
       </c>
       <c r="O13" s="12">
         <f t="shared" si="9"/>
@@ -2603,525 +2609,525 @@
       </c>
       <c r="P13" s="7">
         <f t="shared" si="9"/>
-        <v>-303185.94305337442</v>
+        <v>-282184.56565269525</v>
       </c>
       <c r="Q13" s="12">
-        <f>Q14+Q37+Q45</f>
+        <f>Q14+Q38+Q46</f>
         <v>-186366.61</v>
       </c>
       <c r="R13" s="7">
         <f t="shared" si="9"/>
-        <v>-34717.066852908407</v>
+        <v>-13655.396624750776</v>
       </c>
       <c r="S13" s="12">
-        <f>S14+S37+S45</f>
-        <v>-10543.46</v>
+        <f>S14+S38+S46</f>
+        <v>-8643.4600000000009</v>
       </c>
       <c r="T13" s="7">
         <f t="shared" si="9"/>
-        <v>-34822.477833104676</v>
+        <v>-13700.341682867411</v>
       </c>
       <c r="U13" s="12">
-        <f>U14+U37+U45</f>
+        <f>U14+U38+U46</f>
         <v>-139150.71</v>
       </c>
       <c r="V13" s="7">
         <f t="shared" si="9"/>
-        <v>-34928.191437548965</v>
+        <v>-13745.41577369382</v>
       </c>
       <c r="W13" s="12">
-        <f>W14+W37+W45</f>
-        <v>-592343.25999999989</v>
+        <f>W14+W38+W46</f>
+        <v>-137983.25999999998</v>
       </c>
       <c r="X13" s="7">
         <f t="shared" si="9"/>
-        <v>-35034.208535044832</v>
+        <v>-13790.619267669847</v>
       </c>
       <c r="Y13" s="7">
         <f t="shared" si="9"/>
-        <v>-76186.001949449244</v>
+        <v>-13835.952536298828</v>
       </c>
       <c r="Z13" s="7">
         <f t="shared" si="9"/>
-        <v>-35164.01181007312</v>
+        <v>-13881.415952150646</v>
       </c>
       <c r="AA13" s="7">
         <f t="shared" si="9"/>
-        <v>-35270.705923974405</v>
+        <v>-13927.009888864799</v>
       </c>
       <c r="AB13" s="7">
         <f t="shared" si="9"/>
-        <v>-35377.706345870625</v>
+        <v>-13972.734721153462</v>
       </c>
       <c r="AC13" s="7">
-        <f t="shared" ref="AC13:BU13" si="10">AC14-AC37-AC45</f>
-        <v>-7447.8323055318651</v>
+        <f t="shared" ref="AC13:BU13" si="10">AC14-AC38-AC46</f>
+        <v>14018.590824804574</v>
       </c>
       <c r="AD13" s="7">
         <f t="shared" si="10"/>
-        <v>-7463.4724803195641</v>
+        <v>14064.578576684915</v>
       </c>
       <c r="AE13" s="7">
         <f t="shared" si="10"/>
-        <v>-7479.1575564650248</v>
+        <v>14110.698354743226</v>
       </c>
       <c r="AF13" s="7">
         <f t="shared" si="10"/>
-        <v>-7494.8876628754988</v>
+        <v>14156.95053801329</v>
       </c>
       <c r="AG13" s="7">
         <f t="shared" si="10"/>
-        <v>-7510.6629288283166</v>
+        <v>14203.335506617061</v>
       </c>
       <c r="AH13" s="7">
         <f t="shared" si="10"/>
-        <v>-7526.4834839719497</v>
+        <v>14249.853641767777</v>
       </c>
       <c r="AI13" s="7">
         <f t="shared" si="10"/>
-        <v>-7542.3494583270858</v>
+        <v>14296.505325773111</v>
       </c>
       <c r="AJ13" s="7">
         <f t="shared" si="10"/>
-        <v>-7558.2609822876711</v>
+        <v>14343.290942038298</v>
       </c>
       <c r="AK13" s="7">
         <f t="shared" si="10"/>
-        <v>-50056.281657520733</v>
+        <v>14390.210875069293</v>
       </c>
       <c r="AL13" s="7">
         <f t="shared" si="10"/>
-        <v>-7547.1937235492078</v>
+        <v>14437.265510475925</v>
       </c>
       <c r="AM13" s="7">
         <f t="shared" si="10"/>
-        <v>-7563.1191549046125</v>
+        <v>14484.455234975074</v>
       </c>
       <c r="AN13" s="7">
         <f t="shared" si="10"/>
-        <v>-7579.0903065604962</v>
+        <v>14531.780436393839</v>
       </c>
       <c r="AO13" s="7">
         <f t="shared" si="10"/>
-        <v>-7595.1073097752123</v>
+        <v>14579.241503672736</v>
       </c>
       <c r="AP13" s="7">
         <f t="shared" si="10"/>
-        <v>-7611.1702961839419</v>
+        <v>14626.838826868892</v>
       </c>
       <c r="AQ13" s="7">
         <f t="shared" si="10"/>
-        <v>-7627.279397799779</v>
+        <v>14674.572797159242</v>
       </c>
       <c r="AR13" s="7">
         <f t="shared" si="10"/>
-        <v>-7643.4347470148077</v>
+        <v>14722.443806843758</v>
       </c>
       <c r="AS13" s="7">
         <f t="shared" si="10"/>
-        <v>-7659.6364766012048</v>
+        <v>14770.452249348658</v>
       </c>
       <c r="AT13" s="7">
         <f t="shared" si="10"/>
-        <v>-7675.8847197123214</v>
+        <v>14818.598519229647</v>
       </c>
       <c r="AU13" s="7">
         <f t="shared" si="10"/>
-        <v>-7692.1796098837713</v>
+        <v>14866.883012175169</v>
       </c>
       <c r="AV13" s="7">
         <f t="shared" si="10"/>
-        <v>-7708.5212810345383</v>
+        <v>14915.306125009638</v>
       </c>
       <c r="AW13" s="7">
         <f t="shared" si="10"/>
-        <v>-51693.845559848247</v>
+        <v>14963.868255696718</v>
       </c>
       <c r="AX13" s="7">
         <f t="shared" si="10"/>
-        <v>-7696.8120631864258</v>
+        <v>15012.56980334258</v>
       </c>
       <c r="AY13" s="7">
         <f t="shared" si="10"/>
-        <v>-7713.1670336414427</v>
+        <v>15061.411168199204</v>
       </c>
       <c r="AZ13" s="7">
         <f t="shared" si="10"/>
-        <v>-7729.5689575601973</v>
+        <v>15110.392751667627</v>
       </c>
       <c r="BA13" s="7">
         <f t="shared" si="10"/>
-        <v>-7746.0179697413187</v>
+        <v>15159.514956301286</v>
       </c>
       <c r="BB13" s="7">
         <f t="shared" si="10"/>
-        <v>-7762.5142053704421</v>
+        <v>15208.778185809309</v>
       </c>
       <c r="BC13" s="7">
         <f t="shared" si="10"/>
-        <v>-7779.0578000212972</v>
+        <v>15258.182845059824</v>
       </c>
       <c r="BD13" s="7">
         <f t="shared" si="10"/>
-        <v>-7795.6488896568553</v>
+        <v>15307.729340083293</v>
       </c>
       <c r="BE13" s="7">
         <f t="shared" si="10"/>
-        <v>-7812.2876106303847</v>
+        <v>15357.418078075865</v>
       </c>
       <c r="BF13" s="7">
         <f t="shared" si="10"/>
-        <v>-7828.9740996866512</v>
+        <v>15407.249467402691</v>
       </c>
       <c r="BG13" s="7">
         <f t="shared" si="10"/>
-        <v>-7845.7084939629713</v>
+        <v>15457.223917601306</v>
       </c>
       <c r="BH13" s="7">
         <f t="shared" si="10"/>
-        <v>-7862.4909309903869</v>
+        <v>15507.341839384981</v>
       </c>
       <c r="BI13" s="7">
         <f t="shared" si="10"/>
-        <v>-53387.169990308248</v>
+        <v>15557.603644646108</v>
       </c>
       <c r="BJ13" s="7">
         <f t="shared" si="10"/>
-        <v>-7850.1083742869087</v>
+        <v>15608.009746459578</v>
       </c>
       <c r="BK13" s="7">
         <f t="shared" si="10"/>
-        <v>-7866.9034429251042</v>
+        <v>15658.560559086181</v>
       </c>
       <c r="BL13" s="7">
         <f t="shared" si="10"/>
-        <v>-7883.7467285043458</v>
+        <v>15709.256497975995</v>
       </c>
       <c r="BM13" s="7">
         <f t="shared" si="10"/>
-        <v>-7900.6383694505785</v>
+        <v>15760.097979771836</v>
       </c>
       <c r="BN13" s="7">
         <f t="shared" si="10"/>
-        <v>-7917.5785045871726</v>
+        <v>15811.085422312635</v>
       </c>
       <c r="BO13" s="7">
         <f t="shared" si="10"/>
-        <v>-7934.5672731360264</v>
+        <v>15862.219244636921</v>
       </c>
       <c r="BP13" s="7">
         <f t="shared" si="10"/>
-        <v>-7951.604814718743</v>
+        <v>15913.499866986218</v>
       </c>
       <c r="BQ13" s="7">
         <f t="shared" si="10"/>
-        <v>-7968.6912693577724</v>
+        <v>15964.927710808526</v>
       </c>
       <c r="BR13" s="7">
         <f t="shared" si="10"/>
-        <v>-7985.8267774775377</v>
+        <v>16016.503198761791</v>
       </c>
       <c r="BS13" s="7">
         <f t="shared" si="10"/>
-        <v>-8003.01147990561</v>
+        <v>16068.226754717358</v>
       </c>
       <c r="BT13" s="7">
         <f t="shared" si="10"/>
-        <v>-8020.2455178738746</v>
+        <v>16120.09880376346</v>
       </c>
       <c r="BU13" s="7">
         <f t="shared" si="10"/>
-        <v>-55138.152170089634</v>
+        <v>16172.119772208731</v>
       </c>
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="12">
-        <f>SUM(C15:C35)</f>
-        <v>-10149.549999999999</v>
-      </c>
-      <c r="D14" s="7">
-        <f>SUM(D15:D35)</f>
-        <v>-170095.24222155072</v>
+        <f>SUM(C15:C22)</f>
+        <v>-67</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" ref="D14:BO14" si="11">SUM(D15:D22)</f>
+        <v>-104441.73458080005</v>
       </c>
       <c r="E14" s="12">
-        <f>SUM(E15:E35)</f>
-        <v>-10061.150000000001</v>
-      </c>
-      <c r="F14" s="7">
-        <f t="shared" ref="F14:BU14" si="11">SUM(F15:F35)</f>
-        <v>-170318.55347202945</v>
+        <f t="shared" si="11"/>
+        <v>-1852.12</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="11"/>
+        <v>-104441.73458080005</v>
       </c>
       <c r="G14" s="12">
-        <f t="shared" ref="G14" si="12">SUM(G15:G35)</f>
-        <v>-66558.8</v>
-      </c>
-      <c r="H14" s="7">
         <f t="shared" si="11"/>
-        <v>-170318.55347202945</v>
+        <v>-4563.88</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="11"/>
+        <v>-104441.73458080005</v>
       </c>
       <c r="I14" s="12">
-        <f>SUM(I15:I35)</f>
-        <v>-21381.22</v>
-      </c>
-      <c r="J14" s="7">
         <f t="shared" si="11"/>
-        <v>-66065.944566201084</v>
+        <v>-4586.3100000000004</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="K14" s="12">
-        <f t="shared" ref="K14" si="13">SUM(K15:K35)</f>
-        <v>-5469.9400000000005</v>
-      </c>
-      <c r="L14" s="7">
         <f t="shared" si="11"/>
-        <v>-66255.613201830784</v>
+        <v>-3569.94</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="M14" s="12">
         <f t="shared" si="11"/>
         <v>-3672.54</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="12">
         <f t="shared" si="11"/>
-        <v>-61190.224272176725</v>
+        <v>0</v>
       </c>
       <c r="O14" s="12">
-        <f t="shared" ref="O14" si="14">SUM(O15:O35)</f>
+        <f t="shared" si="11"/>
         <v>-3497.54</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="12">
         <f t="shared" si="11"/>
-        <v>-21001.377400679175</v>
-      </c>
-      <c r="Q14" s="7">
-        <f t="shared" ref="Q14" si="15">SUM(Q15:Q35)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="12">
+        <f t="shared" si="11"/>
         <v>-3695.1800000000003</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="12">
         <f t="shared" si="11"/>
-        <v>-21061.670228157629</v>
-      </c>
-      <c r="S14" s="7">
-        <f t="shared" ref="S14" si="16">SUM(S15:S35)</f>
-        <v>-5789.4</v>
-      </c>
-      <c r="T14" s="7">
+        <v>0</v>
+      </c>
+      <c r="S14" s="12">
         <f t="shared" si="11"/>
-        <v>-21122.136150237264</v>
-      </c>
-      <c r="U14" s="7">
-        <f t="shared" ref="U14" si="17">SUM(U15:U35)</f>
+        <v>-3889.4</v>
+      </c>
+      <c r="T14" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="12">
+        <f t="shared" si="11"/>
         <v>-4751.5199999999995</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="12">
         <f t="shared" si="11"/>
-        <v>-21182.775663855144</v>
-      </c>
-      <c r="W14" s="7">
-        <f>SUM(W15:W35)</f>
-        <v>-458267.33999999997</v>
-      </c>
-      <c r="X14" s="7">
+        <v>0</v>
+      </c>
+      <c r="W14" s="12">
         <f t="shared" si="11"/>
-        <v>-21243.589267374988</v>
-      </c>
-      <c r="Y14" s="7">
+        <v>-3907.34</v>
+      </c>
+      <c r="X14" s="12">
         <f t="shared" si="11"/>
-        <v>-62350.049413150409</v>
-      </c>
-      <c r="Z14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="12">
         <f t="shared" si="11"/>
-        <v>-21282.595857922472</v>
-      </c>
-      <c r="AA14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="12">
         <f t="shared" si="11"/>
-        <v>-21343.696035109606</v>
-      </c>
-      <c r="AB14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="12">
         <f t="shared" si="11"/>
-        <v>-21404.971624717167</v>
-      </c>
-      <c r="AC14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="12">
         <f t="shared" si="11"/>
-        <v>-21466.423130336439</v>
-      </c>
-      <c r="AD14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="12">
         <f t="shared" si="11"/>
-        <v>-21528.051057004479</v>
-      </c>
-      <c r="AE14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="12">
         <f t="shared" si="11"/>
-        <v>-21589.855911208251</v>
-      </c>
-      <c r="AF14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="12">
         <f t="shared" si="11"/>
-        <v>-21651.838200888789</v>
-      </c>
-      <c r="AG14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="12">
         <f t="shared" si="11"/>
-        <v>-21713.998435445377</v>
-      </c>
-      <c r="AH14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="12">
         <f t="shared" si="11"/>
-        <v>-21776.337125739727</v>
-      </c>
-      <c r="AI14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="12">
         <f t="shared" si="11"/>
-        <v>-21838.854784100196</v>
-      </c>
-      <c r="AJ14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="12">
         <f t="shared" si="11"/>
-        <v>-21901.55192432597</v>
-      </c>
-      <c r="AK14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="12">
         <f t="shared" si="11"/>
-        <v>-64446.492532590026</v>
-      </c>
-      <c r="AL14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="12">
         <f t="shared" si="11"/>
-        <v>-21984.459234025133</v>
-      </c>
-      <c r="AM14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="12">
         <f t="shared" si="11"/>
-        <v>-22047.574389879686</v>
-      </c>
-      <c r="AN14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="12">
         <f t="shared" si="11"/>
-        <v>-22110.870742954336</v>
-      </c>
-      <c r="AO14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="12">
         <f t="shared" si="11"/>
-        <v>-22174.348813447948</v>
-      </c>
-      <c r="AP14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="12">
         <f t="shared" si="11"/>
-        <v>-22238.009123052834</v>
-      </c>
-      <c r="AQ14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="12">
         <f t="shared" si="11"/>
-        <v>-22301.852194959021</v>
-      </c>
-      <c r="AR14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="12">
         <f t="shared" si="11"/>
-        <v>-22365.878553858565</v>
-      </c>
-      <c r="AS14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="12">
         <f t="shared" si="11"/>
-        <v>-22430.088725949863</v>
-      </c>
-      <c r="AT14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="12">
         <f t="shared" si="11"/>
-        <v>-22494.483238941968</v>
-      </c>
-      <c r="AU14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="12">
         <f t="shared" si="11"/>
-        <v>-22559.06262205894</v>
-      </c>
-      <c r="AV14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="12">
         <f t="shared" si="11"/>
-        <v>-22623.827406044176</v>
-      </c>
-      <c r="AW14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="12">
         <f t="shared" si="11"/>
-        <v>-66657.713815544965</v>
-      </c>
-      <c r="AX14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="12">
         <f t="shared" si="11"/>
-        <v>-22709.381866529005</v>
-      </c>
-      <c r="AY14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="12">
         <f t="shared" si="11"/>
-        <v>-22774.578201840646</v>
-      </c>
-      <c r="AZ14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="12">
         <f t="shared" si="11"/>
-        <v>-22839.961709227824</v>
-      </c>
-      <c r="BA14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="12">
         <f t="shared" si="11"/>
-        <v>-22905.532926042604</v>
-      </c>
-      <c r="BB14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="12">
         <f t="shared" si="11"/>
-        <v>-22971.292391179752</v>
-      </c>
-      <c r="BC14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="12">
         <f t="shared" si="11"/>
-        <v>-23037.240645081121</v>
-      </c>
-      <c r="BD14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="12">
         <f t="shared" si="11"/>
-        <v>-23103.378229740149</v>
-      </c>
-      <c r="BE14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="12">
         <f t="shared" si="11"/>
-        <v>-23169.70568870625</v>
-      </c>
-      <c r="BF14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="12">
         <f t="shared" si="11"/>
-        <v>-23236.223567089342</v>
-      </c>
-      <c r="BG14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="12">
         <f t="shared" si="11"/>
-        <v>-23302.932411564278</v>
-      </c>
-      <c r="BH14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="12">
         <f t="shared" si="11"/>
-        <v>-23369.832770375368</v>
-      </c>
-      <c r="BI14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="12">
         <f t="shared" si="11"/>
-        <v>-68944.773634954356</v>
-      </c>
-      <c r="BJ14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="12">
         <f t="shared" si="11"/>
-        <v>-23458.118120746487</v>
-      </c>
-      <c r="BK14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="12">
         <f t="shared" si="11"/>
-        <v>-23525.464002011286</v>
-      </c>
-      <c r="BL14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="12">
         <f t="shared" si="11"/>
-        <v>-23593.003226480341</v>
-      </c>
-      <c r="BM14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="12">
         <f t="shared" si="11"/>
-        <v>-23660.736349222414</v>
-      </c>
-      <c r="BN14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM14" s="12">
         <f t="shared" si="11"/>
-        <v>-23728.663926899808</v>
-      </c>
-      <c r="BO14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BN14" s="12">
         <f t="shared" si="11"/>
-        <v>-23796.786517772947</v>
-      </c>
-      <c r="BP14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BO14" s="12">
         <f t="shared" si="11"/>
-        <v>-23865.104681704961</v>
-      </c>
-      <c r="BQ14" s="7">
-        <f t="shared" si="11"/>
-        <v>-23933.618980166299</v>
-      </c>
-      <c r="BR14" s="7">
-        <f t="shared" si="11"/>
-        <v>-24002.329976239329</v>
-      </c>
-      <c r="BS14" s="7">
-        <f t="shared" si="11"/>
-        <v>-24071.238234622968</v>
-      </c>
-      <c r="BT14" s="7">
-        <f t="shared" si="11"/>
-        <v>-24140.344321637334</v>
-      </c>
-      <c r="BU14" s="7">
-        <f t="shared" si="11"/>
-        <v>-71310.271942298365</v>
+        <v>0</v>
+      </c>
+      <c r="BP14" s="12">
+        <f t="shared" ref="BP14:BU14" si="12">SUM(BP15:BP22)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ14" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BR14" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BS14" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BT14" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BU14" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:73" x14ac:dyDescent="0.25">
@@ -3337,7 +3343,7 @@
     </row>
     <row r="16" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -3434,7 +3440,7 @@
     </row>
     <row r="17" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
@@ -3511,19 +3517,18 @@
     </row>
     <row r="18" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="12">
-        <f>-262.55</f>
-        <v>-262.55</v>
-      </c>
+      <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="I18" s="12">
+        <v>-99.36</v>
+      </c>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
@@ -3533,7 +3538,10 @@
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
+      <c r="S18" s="12">
+        <f>-95.11-99.03</f>
+        <v>-194.14</v>
+      </c>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
@@ -3591,7 +3599,7 @@
     </row>
     <row r="19" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="14"/>
@@ -3685,7 +3693,7 @@
     </row>
     <row r="20" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
@@ -3785,7 +3793,7 @@
     </row>
     <row r="21" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
@@ -3872,35 +3880,59 @@
     </row>
     <row r="22" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
+      <c r="C22" s="12">
+        <f>-67</f>
+        <v>-67</v>
+      </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="12">
+        <f>-67</f>
+        <v>-67</v>
+      </c>
       <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="G22" s="12">
+        <f>-67-12.3-8.91</f>
+        <v>-88.21</v>
+      </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12">
-        <v>-99.36</v>
+        <f>-67</f>
+        <v>-67</v>
       </c>
       <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="K22" s="12">
+        <v>-67</v>
+      </c>
       <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="M22" s="12">
+        <v>-68.400000000000006</v>
+      </c>
       <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
+      <c r="O22" s="12">
+        <v>-68.400000000000006</v>
+      </c>
       <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
+      <c r="Q22" s="12">
+        <v>-68.400000000000006</v>
+      </c>
       <c r="R22" s="12"/>
       <c r="S22" s="12">
-        <f>-95.11-99.03</f>
-        <v>-194.14</v>
+        <f>-68.4-10</f>
+        <v>-78.400000000000006</v>
       </c>
       <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
+      <c r="U22" s="12">
+        <f>-68.4-3.46</f>
+        <v>-71.86</v>
+      </c>
       <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
+      <c r="W22" s="12">
+        <f>-(58.4+20+30)</f>
+        <v>-108.4</v>
+      </c>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
@@ -3953,13 +3985,9 @@
       <c r="BU22" s="12"/>
     </row>
     <row r="23" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="A23" s="11"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="12">
-        <v>-3584.26</v>
-      </c>
+      <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -4031,109 +4059,316 @@
       <c r="BT23" s="12"/>
       <c r="BU23" s="12"/>
     </row>
-    <row r="24" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="11"/>
+    <row r="24" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="12">
-        <v>-5745.31</v>
-      </c>
-      <c r="D24" s="12"/>
+        <f>SUM(C25:C32)</f>
+        <v>-10082.550000000001</v>
+      </c>
+      <c r="D24" s="12">
+        <f>D34</f>
+        <v>-65653.507640750671</v>
+      </c>
       <c r="E24" s="12">
-        <v>-5745.31</v>
-      </c>
-      <c r="F24" s="12"/>
+        <f t="shared" ref="D24:BO24" si="13">SUM(E25:E32)</f>
+        <v>-8209.0300000000007</v>
+      </c>
+      <c r="F24" s="12">
+        <f>F34</f>
+        <v>-65876.818891229414</v>
+      </c>
       <c r="G24" s="12">
-        <v>-16794.919999999998</v>
-      </c>
-      <c r="H24" s="12"/>
+        <f t="shared" si="13"/>
+        <v>-61994.92</v>
+      </c>
+      <c r="H24" s="12">
+        <f>H34</f>
+        <v>-65876.818891229414</v>
+      </c>
       <c r="I24" s="12">
+        <f t="shared" si="13"/>
         <v>-16794.91</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="12"/>
-      <c r="AI24" s="12"/>
-      <c r="AJ24" s="12"/>
-      <c r="AK24" s="12"/>
-      <c r="AL24" s="12"/>
-      <c r="AM24" s="12"/>
-      <c r="AN24" s="12"/>
-      <c r="AO24" s="12"/>
-      <c r="AP24" s="12"/>
-      <c r="AQ24" s="12"/>
-      <c r="AR24" s="12"/>
-      <c r="AS24" s="12"/>
-      <c r="AT24" s="12"/>
-      <c r="AU24" s="12"/>
-      <c r="AV24" s="12"/>
-      <c r="AW24" s="12"/>
-      <c r="AX24" s="12"/>
-      <c r="AY24" s="12"/>
-      <c r="AZ24" s="12"/>
-      <c r="BA24" s="12"/>
-      <c r="BB24" s="12"/>
-      <c r="BC24" s="12"/>
-      <c r="BD24" s="12"/>
-      <c r="BE24" s="12"/>
-      <c r="BF24" s="12"/>
-      <c r="BG24" s="12"/>
-      <c r="BH24" s="12"/>
-      <c r="BI24" s="12"/>
-      <c r="BJ24" s="12"/>
-      <c r="BK24" s="12"/>
-      <c r="BL24" s="12"/>
-      <c r="BM24" s="12"/>
-      <c r="BN24" s="12"/>
-      <c r="BO24" s="12"/>
-      <c r="BP24" s="12"/>
-      <c r="BQ24" s="12"/>
-      <c r="BR24" s="12"/>
-      <c r="BS24" s="12"/>
-      <c r="BT24" s="12"/>
-      <c r="BU24" s="12"/>
+      <c r="J24" s="12">
+        <f>J34</f>
+        <v>-66065.944566201084</v>
+      </c>
+      <c r="K24" s="12">
+        <f t="shared" si="13"/>
+        <v>-1900</v>
+      </c>
+      <c r="L24" s="12">
+        <f>L34</f>
+        <v>-66255.613201830784</v>
+      </c>
+      <c r="M24" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="12">
+        <f>N34</f>
+        <v>-61190.224272176725</v>
+      </c>
+      <c r="O24" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="12">
+        <f>SUM(P34:P36)</f>
+        <v>-21001.377400679175</v>
+      </c>
+      <c r="Q24" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="12">
+        <f>SUM(R34:R36)</f>
+        <v>-21061.670228157629</v>
+      </c>
+      <c r="S24" s="12">
+        <f t="shared" si="13"/>
+        <v>-1900</v>
+      </c>
+      <c r="T24" s="12">
+        <f>SUM(T34:T36)</f>
+        <v>-21122.136150237264</v>
+      </c>
+      <c r="U24" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="12">
+        <f>SUM(V34:V36)</f>
+        <v>-21182.775663855144</v>
+      </c>
+      <c r="W24" s="12">
+        <f t="shared" si="13"/>
+        <v>-237000</v>
+      </c>
+      <c r="X24" s="12">
+        <f>SUM(X34:X36)</f>
+        <v>-21243.589267374988</v>
+      </c>
+      <c r="Y24" s="12">
+        <f t="shared" ref="Y24:BU24" si="14">SUM(Y34:Y36)</f>
+        <v>-62350.049413150409</v>
+      </c>
+      <c r="Z24" s="12">
+        <f t="shared" si="14"/>
+        <v>-21282.595857922472</v>
+      </c>
+      <c r="AA24" s="12">
+        <f t="shared" si="14"/>
+        <v>-21343.696035109606</v>
+      </c>
+      <c r="AB24" s="12">
+        <f t="shared" si="14"/>
+        <v>-21404.971624717167</v>
+      </c>
+      <c r="AC24" s="12">
+        <f t="shared" si="14"/>
+        <v>-21466.423130336439</v>
+      </c>
+      <c r="AD24" s="12">
+        <f t="shared" si="14"/>
+        <v>-21528.051057004479</v>
+      </c>
+      <c r="AE24" s="12">
+        <f t="shared" si="14"/>
+        <v>-21589.855911208251</v>
+      </c>
+      <c r="AF24" s="12">
+        <f t="shared" si="14"/>
+        <v>-21651.838200888789</v>
+      </c>
+      <c r="AG24" s="12">
+        <f t="shared" si="14"/>
+        <v>-21713.998435445377</v>
+      </c>
+      <c r="AH24" s="12">
+        <f t="shared" si="14"/>
+        <v>-21776.337125739727</v>
+      </c>
+      <c r="AI24" s="12">
+        <f t="shared" si="14"/>
+        <v>-21838.854784100196</v>
+      </c>
+      <c r="AJ24" s="12">
+        <f t="shared" si="14"/>
+        <v>-21901.55192432597</v>
+      </c>
+      <c r="AK24" s="12">
+        <f t="shared" si="14"/>
+        <v>-64446.492532590026</v>
+      </c>
+      <c r="AL24" s="12">
+        <f t="shared" si="14"/>
+        <v>-21984.459234025133</v>
+      </c>
+      <c r="AM24" s="12">
+        <f t="shared" si="14"/>
+        <v>-22047.574389879686</v>
+      </c>
+      <c r="AN24" s="12">
+        <f t="shared" si="14"/>
+        <v>-22110.870742954336</v>
+      </c>
+      <c r="AO24" s="12">
+        <f t="shared" si="14"/>
+        <v>-22174.348813447948</v>
+      </c>
+      <c r="AP24" s="12">
+        <f t="shared" si="14"/>
+        <v>-22238.009123052834</v>
+      </c>
+      <c r="AQ24" s="12">
+        <f t="shared" si="14"/>
+        <v>-22301.852194959021</v>
+      </c>
+      <c r="AR24" s="12">
+        <f t="shared" si="14"/>
+        <v>-22365.878553858565</v>
+      </c>
+      <c r="AS24" s="12">
+        <f t="shared" si="14"/>
+        <v>-22430.088725949863</v>
+      </c>
+      <c r="AT24" s="12">
+        <f t="shared" si="14"/>
+        <v>-22494.483238941968</v>
+      </c>
+      <c r="AU24" s="12">
+        <f t="shared" si="14"/>
+        <v>-22559.06262205894</v>
+      </c>
+      <c r="AV24" s="12">
+        <f t="shared" si="14"/>
+        <v>-22623.827406044176</v>
+      </c>
+      <c r="AW24" s="12">
+        <f t="shared" si="14"/>
+        <v>-66657.713815544965</v>
+      </c>
+      <c r="AX24" s="12">
+        <f t="shared" si="14"/>
+        <v>-22709.381866529005</v>
+      </c>
+      <c r="AY24" s="12">
+        <f t="shared" si="14"/>
+        <v>-22774.578201840646</v>
+      </c>
+      <c r="AZ24" s="12">
+        <f t="shared" si="14"/>
+        <v>-22839.961709227824</v>
+      </c>
+      <c r="BA24" s="12">
+        <f t="shared" si="14"/>
+        <v>-22905.532926042604</v>
+      </c>
+      <c r="BB24" s="12">
+        <f t="shared" si="14"/>
+        <v>-22971.292391179752</v>
+      </c>
+      <c r="BC24" s="12">
+        <f t="shared" si="14"/>
+        <v>-23037.240645081121</v>
+      </c>
+      <c r="BD24" s="12">
+        <f t="shared" si="14"/>
+        <v>-23103.378229740149</v>
+      </c>
+      <c r="BE24" s="12">
+        <f t="shared" si="14"/>
+        <v>-23169.70568870625</v>
+      </c>
+      <c r="BF24" s="12">
+        <f t="shared" si="14"/>
+        <v>-23236.223567089342</v>
+      </c>
+      <c r="BG24" s="12">
+        <f t="shared" si="14"/>
+        <v>-23302.932411564278</v>
+      </c>
+      <c r="BH24" s="12">
+        <f t="shared" si="14"/>
+        <v>-23369.832770375368</v>
+      </c>
+      <c r="BI24" s="12">
+        <f t="shared" si="14"/>
+        <v>-68944.773634954356</v>
+      </c>
+      <c r="BJ24" s="12">
+        <f t="shared" si="14"/>
+        <v>-23458.118120746487</v>
+      </c>
+      <c r="BK24" s="12">
+        <f t="shared" si="14"/>
+        <v>-23525.464002011286</v>
+      </c>
+      <c r="BL24" s="12">
+        <f t="shared" si="14"/>
+        <v>-23593.003226480341</v>
+      </c>
+      <c r="BM24" s="12">
+        <f t="shared" si="14"/>
+        <v>-23660.736349222414</v>
+      </c>
+      <c r="BN24" s="12">
+        <f t="shared" si="14"/>
+        <v>-23728.663926899808</v>
+      </c>
+      <c r="BO24" s="12">
+        <f t="shared" si="14"/>
+        <v>-23796.786517772947</v>
+      </c>
+      <c r="BP24" s="12">
+        <f t="shared" si="14"/>
+        <v>-23865.104681704961</v>
+      </c>
+      <c r="BQ24" s="12">
+        <f t="shared" si="14"/>
+        <v>-23933.618980166299</v>
+      </c>
+      <c r="BR24" s="12">
+        <f t="shared" si="14"/>
+        <v>-24002.329976239329</v>
+      </c>
+      <c r="BS24" s="12">
+        <f t="shared" si="14"/>
+        <v>-24071.238234622968</v>
+      </c>
+      <c r="BT24" s="12">
+        <f t="shared" si="14"/>
+        <v>-24140.344321637334</v>
+      </c>
+      <c r="BU24" s="12">
+        <f t="shared" si="14"/>
+        <v>-71310.271942298365</v>
+      </c>
     </row>
     <row r="25" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="12">
-        <f>-(752.98)</f>
-        <v>-752.98</v>
+        <v>-5745.31</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12">
-        <f>-(1664.29+536.88)</f>
-        <v>-2201.17</v>
+        <v>-5745.31</v>
       </c>
       <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="G25" s="12">
+        <v>-16794.919999999998</v>
+      </c>
       <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+      <c r="I25" s="12">
+        <v>-16794.91</v>
+      </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
@@ -4201,12 +4436,18 @@
     </row>
     <row r="26" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
+      <c r="C26" s="12">
+        <f>-(752.98)</f>
+        <v>-752.98</v>
+      </c>
       <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="12">
+        <f>-(1664.29+536.88)</f>
+        <v>-2201.17</v>
+      </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
@@ -4224,9 +4465,7 @@
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
-      <c r="W26" s="12">
-        <v>-57000</v>
-      </c>
+      <c r="W26" s="12"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
@@ -4280,17 +4519,14 @@
     </row>
     <row r="27" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="12">
-        <f>-45200</f>
-        <v>-45200</v>
-      </c>
+      <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -4307,8 +4543,7 @@
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
       <c r="W27" s="12">
-        <f>-(143000+37000)</f>
-        <v>-180000</v>
+        <v>-57000</v>
       </c>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
@@ -4363,58 +4598,35 @@
     </row>
     <row r="28" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B28" s="11"/>
-      <c r="C28" s="12">
-        <f>-67</f>
-        <v>-67</v>
-      </c>
+      <c r="C28" s="12"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="12">
-        <f>-67</f>
-        <v>-67</v>
-      </c>
+      <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12">
-        <f>-67-12.3-8.91</f>
-        <v>-88.21</v>
+        <f>-45200</f>
+        <v>-45200</v>
       </c>
       <c r="H28" s="12"/>
-      <c r="I28" s="12">
-        <f>-67</f>
-        <v>-67</v>
-      </c>
+      <c r="I28" s="12"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="12">
-        <v>-67</v>
-      </c>
+      <c r="K28" s="12"/>
       <c r="L28" s="12"/>
-      <c r="M28" s="12">
-        <v>-68.400000000000006</v>
-      </c>
+      <c r="M28" s="12"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="12">
-        <v>-68.400000000000006</v>
-      </c>
+      <c r="O28" s="12"/>
       <c r="P28" s="12"/>
-      <c r="Q28" s="12">
-        <v>-68.400000000000006</v>
-      </c>
+      <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
-      <c r="S28" s="12">
-        <f>-68.4-10</f>
-        <v>-78.400000000000006</v>
-      </c>
+      <c r="S28" s="12"/>
       <c r="T28" s="12"/>
-      <c r="U28" s="12">
-        <f>-68.4-3.46</f>
-        <v>-71.86</v>
-      </c>
+      <c r="U28" s="12"/>
       <c r="V28" s="12"/>
       <c r="W28" s="12">
-        <f>-(58.4+20+30)</f>
-        <v>-108.4</v>
+        <f>-(143000+37000)</f>
+        <v>-180000</v>
       </c>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
@@ -4469,15 +4681,20 @@
     </row>
     <row r="29" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12">
+        <v>-3584.26</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
-      <c r="K29" s="12">
-        <v>-1900</v>
-      </c>
+      <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
@@ -4485,9 +4702,7 @@
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
-      <c r="S29" s="12">
-        <v>-1900</v>
-      </c>
+      <c r="S29" s="12"/>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
       <c r="V29" s="12"/>
@@ -4544,12 +4759,16 @@
       <c r="BU29" s="12"/>
     </row>
     <row r="30" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="12"/>
+      <c r="A30" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
+      <c r="K30" s="12">
+        <v>-1900</v>
+      </c>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
@@ -4557,7 +4776,9 @@
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
+      <c r="S30" s="12">
+        <v>-1900</v>
+      </c>
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
@@ -4615,12 +4836,15 @@
     </row>
     <row r="31" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="12">
+        <f>-262.55</f>
+        <v>-262.55</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -4638,7 +4862,7 @@
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
-      <c r="W31" s="23"/>
+      <c r="W31" s="12"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
@@ -4690,491 +4914,358 @@
       <c r="BT31" s="12"/>
       <c r="BU31" s="12"/>
     </row>
-    <row r="32" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+    <row r="32" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="2"/>
+      <c r="H32" s="12"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="2"/>
+      <c r="J32" s="12"/>
       <c r="K32" s="12"/>
-      <c r="L32" s="2"/>
+      <c r="L32" s="12"/>
       <c r="M32" s="12"/>
-      <c r="N32" s="2"/>
+      <c r="N32" s="12"/>
       <c r="O32" s="12"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
-      <c r="AH32" s="2"/>
-      <c r="AI32" s="2"/>
-      <c r="AJ32" s="2"/>
-      <c r="AK32" s="2"/>
-      <c r="AL32" s="2"/>
-      <c r="AM32" s="2"/>
-      <c r="AN32" s="2"/>
-      <c r="AO32" s="2"/>
-      <c r="AP32" s="2"/>
-      <c r="AQ32" s="2"/>
-      <c r="AR32" s="2"/>
-      <c r="AS32" s="2"/>
-      <c r="AT32" s="2"/>
-      <c r="AU32" s="2"/>
-      <c r="AV32" s="2"/>
-      <c r="AW32" s="2"/>
-      <c r="AX32" s="2"/>
-      <c r="AY32" s="2"/>
-      <c r="AZ32" s="2"/>
-      <c r="BA32" s="2"/>
-      <c r="BB32" s="2"/>
-      <c r="BC32" s="2"/>
-      <c r="BD32" s="2"/>
-      <c r="BE32" s="2"/>
-      <c r="BF32" s="2"/>
-      <c r="BG32" s="2"/>
-      <c r="BH32" s="2"/>
-      <c r="BI32" s="2"/>
-      <c r="BJ32" s="2"/>
-      <c r="BK32" s="2"/>
-      <c r="BL32" s="2"/>
-      <c r="BM32" s="2"/>
-      <c r="BN32" s="2"/>
-      <c r="BO32" s="2"/>
-      <c r="BP32" s="2"/>
-      <c r="BQ32" s="2"/>
-      <c r="BR32" s="2"/>
-      <c r="BS32" s="2"/>
-      <c r="BT32" s="2"/>
-      <c r="BU32" s="2"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="12"/>
+      <c r="AO32" s="12"/>
+      <c r="AP32" s="12"/>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="12"/>
+      <c r="AS32" s="12"/>
+      <c r="AT32" s="12"/>
+      <c r="AU32" s="12"/>
+      <c r="AV32" s="12"/>
+      <c r="AW32" s="12"/>
+      <c r="AX32" s="12"/>
+      <c r="AY32" s="12"/>
+      <c r="AZ32" s="12"/>
+      <c r="BA32" s="12"/>
+      <c r="BB32" s="12"/>
+      <c r="BC32" s="12"/>
+      <c r="BD32" s="12"/>
+      <c r="BE32" s="12"/>
+      <c r="BF32" s="12"/>
+      <c r="BG32" s="12"/>
+      <c r="BH32" s="12"/>
+      <c r="BI32" s="12"/>
+      <c r="BJ32" s="12"/>
+      <c r="BK32" s="12"/>
+      <c r="BL32" s="12"/>
+      <c r="BM32" s="12"/>
+      <c r="BN32" s="12"/>
+      <c r="BO32" s="12"/>
+      <c r="BP32" s="12"/>
+      <c r="BQ32" s="12"/>
+      <c r="BR32" s="12"/>
+      <c r="BS32" s="12"/>
+      <c r="BT32" s="12"/>
+      <c r="BU32" s="12"/>
     </row>
     <row r="33" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="6"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2">
-        <v>-65653.507640750671</v>
-      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2">
-        <v>-65876.818891229414</v>
-      </c>
+      <c r="F33" s="2"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="2">
-        <v>-65876.818891229414</v>
-      </c>
+      <c r="H33" s="2"/>
       <c r="I33" s="12"/>
-      <c r="J33" s="2">
-        <v>-66065.944566201084</v>
-      </c>
+      <c r="J33" s="2"/>
       <c r="K33" s="12"/>
-      <c r="L33" s="2">
-        <v>-66255.613201830784</v>
-      </c>
+      <c r="L33" s="2"/>
       <c r="M33" s="12"/>
-      <c r="N33" s="2">
-        <v>-61190.224272176725</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="12"/>
-      <c r="P33" s="2">
-        <v>-1225.9044755676</v>
-      </c>
+      <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="2">
-        <v>-1229.4239231562174</v>
-      </c>
+      <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-      <c r="T33" s="2">
-        <v>-1232.9534747224088</v>
-      </c>
+      <c r="T33" s="2"/>
       <c r="U33" s="2"/>
-      <c r="V33" s="2">
-        <v>-1236.4931592736705</v>
-      </c>
+      <c r="V33" s="2"/>
       <c r="W33" s="2"/>
-      <c r="X33" s="2">
-        <v>-1240.0430059007761</v>
-      </c>
-      <c r="Y33" s="2">
-        <v>-1243.6030437780166</v>
-      </c>
-      <c r="Z33" s="2">
-        <v>-1164.0284153525429</v>
-      </c>
-      <c r="AA33" s="2">
-        <v>-1167.3702230391473</v>
-      </c>
-      <c r="AB33" s="2">
-        <v>-1170.7216247171586</v>
-      </c>
-      <c r="AC33" s="2">
-        <v>-1174.0826479299544</v>
-      </c>
-      <c r="AD33" s="2">
-        <v>-1177.4533202999867</v>
-      </c>
-      <c r="AE33" s="2">
-        <v>-1180.8336695290086</v>
-      </c>
-      <c r="AF33" s="2">
-        <v>-1184.2237233983019</v>
-      </c>
-      <c r="AG33" s="2">
-        <v>-1187.6235097689064</v>
-      </c>
-      <c r="AH33" s="2">
-        <v>-1191.0330565818472</v>
-      </c>
-      <c r="AI33" s="2">
-        <v>-1194.4523918583661</v>
-      </c>
-      <c r="AJ33" s="2">
-        <v>-1197.8815437001504</v>
-      </c>
-      <c r="AK33" s="2">
-        <v>-1201.3205402895646</v>
-      </c>
-      <c r="AL33" s="2">
-        <v>-1161.7419309652439</v>
-      </c>
-      <c r="AM33" s="2">
-        <v>-1165.0771743867494</v>
-      </c>
-      <c r="AN33" s="2">
-        <v>-1168.4219929543217</v>
-      </c>
-      <c r="AO33" s="2">
-        <v>-1171.7764141572352</v>
-      </c>
-      <c r="AP33" s="2">
-        <v>-1175.1404655636834</v>
-      </c>
-      <c r="AQ33" s="2">
-        <v>-1178.5141748210051</v>
-      </c>
-      <c r="AR33" s="2">
-        <v>-1181.8975696559123</v>
-      </c>
-      <c r="AS33" s="2">
-        <v>-1185.2906778747174</v>
-      </c>
-      <c r="AT33" s="2">
-        <v>-1188.6935273635615</v>
-      </c>
-      <c r="AU33" s="2">
-        <v>-1192.1061460886442</v>
-      </c>
-      <c r="AV33" s="2">
-        <v>-1195.5285620964537</v>
-      </c>
-      <c r="AW33" s="2">
-        <v>-1198.9608035139959</v>
-      </c>
-      <c r="AX33" s="2">
-        <v>-1157.8694578620261</v>
-      </c>
-      <c r="AY33" s="2">
-        <v>-1161.1935838054603</v>
-      </c>
-      <c r="AZ33" s="2">
-        <v>-1164.5272529778074</v>
-      </c>
-      <c r="BA33" s="2">
-        <v>-1167.8704927767112</v>
-      </c>
-      <c r="BB33" s="2">
-        <v>-1171.2233306784713</v>
-      </c>
-      <c r="BC33" s="2">
-        <v>-1174.5857942382688</v>
-      </c>
-      <c r="BD33" s="2">
-        <v>-1177.9579110903931</v>
-      </c>
-      <c r="BE33" s="2">
-        <v>-1181.3397089484688</v>
-      </c>
-      <c r="BF33" s="2">
-        <v>-1184.7312156056832</v>
-      </c>
-      <c r="BG33" s="2">
-        <v>-1188.1324589350158</v>
-      </c>
-      <c r="BH33" s="2">
-        <v>-1191.5434668894657</v>
-      </c>
-      <c r="BI33" s="2">
-        <v>-1194.9642675022828</v>
-      </c>
-      <c r="BJ33" s="2">
-        <v>-1152.3027777761515</v>
-      </c>
-      <c r="BK33" s="2">
-        <v>-1155.6109223448575</v>
-      </c>
-      <c r="BL33" s="2">
-        <v>-1158.9285642615682</v>
-      </c>
-      <c r="BM33" s="2">
-        <v>-1162.2557307922082</v>
-      </c>
-      <c r="BN33" s="2">
-        <v>-1165.5924492809788</v>
-      </c>
-      <c r="BO33" s="2">
-        <v>-1168.9387471505852</v>
-      </c>
-      <c r="BP33" s="2">
-        <v>-1172.2946519024588</v>
-      </c>
-      <c r="BQ33" s="2">
-        <v>-1175.660191116986</v>
-      </c>
-      <c r="BR33" s="2">
-        <v>-1179.0353924537333</v>
-      </c>
-      <c r="BS33" s="2">
-        <v>-1182.4202836516747</v>
-      </c>
-      <c r="BT33" s="2">
-        <v>-1185.8148925294206</v>
-      </c>
-      <c r="BU33" s="2">
-        <v>-1189.2192469854454</v>
-      </c>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="2"/>
+      <c r="BK33" s="2"/>
+      <c r="BL33" s="2"/>
+      <c r="BM33" s="2"/>
+      <c r="BN33" s="2"/>
+      <c r="BO33" s="2"/>
+      <c r="BP33" s="2"/>
+      <c r="BQ33" s="2"/>
+      <c r="BR33" s="2"/>
+      <c r="BS33" s="2"/>
+      <c r="BT33" s="2"/>
+      <c r="BU33" s="2"/>
     </row>
     <row r="34" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2">
-        <v>0</v>
+        <v>-65653.507640750671</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="12">
-        <v>0</v>
-      </c>
+        <v>-65876.818891229414</v>
+      </c>
+      <c r="G34" s="12"/>
       <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="12">
-        <v>0</v>
-      </c>
+        <v>-65876.818891229414</v>
+      </c>
+      <c r="I34" s="12"/>
       <c r="J34" s="2">
-        <v>0</v>
-      </c>
-      <c r="K34" s="12">
-        <v>0</v>
-      </c>
+        <v>-66065.944566201084</v>
+      </c>
+      <c r="K34" s="12"/>
       <c r="L34" s="2">
-        <v>0</v>
-      </c>
-      <c r="M34" s="12">
-        <v>0</v>
-      </c>
+        <v>-66255.613201830784</v>
+      </c>
+      <c r="M34" s="12"/>
       <c r="N34" s="2">
-        <v>0</v>
-      </c>
-      <c r="O34" s="12">
-        <v>0</v>
-      </c>
+        <v>-61190.224272176725</v>
+      </c>
+      <c r="O34" s="12"/>
       <c r="P34" s="2">
-        <v>-19775.472925111575</v>
+        <v>-1225.9044755676</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2">
-        <v>-19832.246305001412</v>
+        <v>-1229.4239231562174</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2">
-        <v>-19889.182675514854</v>
+        <v>-1232.9534747224088</v>
       </c>
       <c r="U34" s="2"/>
       <c r="V34" s="2">
-        <v>-19946.282504581472</v>
-      </c>
-      <c r="W34" s="2">
-        <f>-(150000+67360)</f>
-        <v>-217360</v>
-      </c>
+        <v>-1236.4931592736705</v>
+      </c>
+      <c r="W34" s="2"/>
       <c r="X34" s="2">
-        <v>-20003.54626147421</v>
+        <v>-1240.0430059007761</v>
       </c>
       <c r="Y34" s="2">
-        <v>-20060.974416813271</v>
+        <v>-1243.6030437780166</v>
       </c>
       <c r="Z34" s="2">
-        <v>-20118.567442569929</v>
+        <v>-1164.0284153525429</v>
       </c>
       <c r="AA34" s="2">
-        <v>-20176.32581207046</v>
+        <v>-1167.3702230391473</v>
       </c>
       <c r="AB34" s="2">
-        <v>-20234.250000000007</v>
+        <v>-1170.7216247171586</v>
       </c>
       <c r="AC34" s="2">
-        <v>-20292.340482406486</v>
+        <v>-1174.0826479299544</v>
       </c>
       <c r="AD34" s="2">
-        <v>-20350.597736704491</v>
+        <v>-1177.4533202999867</v>
       </c>
       <c r="AE34" s="2">
-        <v>-20409.022241679242</v>
+        <v>-1180.8336695290086</v>
       </c>
       <c r="AF34" s="2">
-        <v>-20467.614477490486</v>
+        <v>-1184.2237233983019</v>
       </c>
       <c r="AG34" s="2">
-        <v>-20526.374925676471</v>
+        <v>-1187.6235097689064</v>
       </c>
       <c r="AH34" s="2">
-        <v>-20585.304069157879</v>
+        <v>-1191.0330565818472</v>
       </c>
       <c r="AI34" s="2">
-        <v>-20644.402392241831</v>
+        <v>-1194.4523918583661</v>
       </c>
       <c r="AJ34" s="2">
-        <v>-20703.670380625819</v>
+        <v>-1197.8815437001504</v>
       </c>
       <c r="AK34" s="2">
-        <v>-20763.108521401744</v>
+        <v>-1201.3205402895646</v>
       </c>
       <c r="AL34" s="2">
-        <v>-20822.71730305989</v>
+        <v>-1161.7419309652439</v>
       </c>
       <c r="AM34" s="2">
-        <v>-20882.497215492938</v>
+        <v>-1165.0771743867494</v>
       </c>
       <c r="AN34" s="2">
-        <v>-20942.448750000014</v>
+        <v>-1168.4219929543217</v>
       </c>
       <c r="AO34" s="2">
-        <v>-21002.572399290715</v>
+        <v>-1171.7764141572352</v>
       </c>
       <c r="AP34" s="2">
-        <v>-21062.868657489151</v>
+        <v>-1175.1404655636834</v>
       </c>
       <c r="AQ34" s="2">
-        <v>-21123.338020138017</v>
+        <v>-1178.5141748210051</v>
       </c>
       <c r="AR34" s="2">
-        <v>-21183.980984202652</v>
+        <v>-1181.8975696559123</v>
       </c>
       <c r="AS34" s="2">
-        <v>-21244.798048075147</v>
+        <v>-1185.2906778747174</v>
       </c>
       <c r="AT34" s="2">
-        <v>-21305.789711578407</v>
+        <v>-1188.6935273635615</v>
       </c>
       <c r="AU34" s="2">
-        <v>-21366.956475970295</v>
+        <v>-1192.1061460886442</v>
       </c>
       <c r="AV34" s="2">
-        <v>-21428.298843947723</v>
+        <v>-1195.5285620964537</v>
       </c>
       <c r="AW34" s="2">
-        <v>-21489.817319650803</v>
+        <v>-1198.9608035139959</v>
       </c>
       <c r="AX34" s="2">
-        <v>-21551.512408666978</v>
+        <v>-1157.8694578620261</v>
       </c>
       <c r="AY34" s="2">
-        <v>-21613.384618035187</v>
+        <v>-1161.1935838054603</v>
       </c>
       <c r="AZ34" s="2">
-        <v>-21675.434456250016</v>
+        <v>-1164.5272529778074</v>
       </c>
       <c r="BA34" s="2">
-        <v>-21737.662433265894</v>
+        <v>-1167.8704927767112</v>
       </c>
       <c r="BB34" s="2">
-        <v>-21800.069060501279</v>
+        <v>-1171.2233306784713</v>
       </c>
       <c r="BC34" s="2">
-        <v>-21862.654850842853</v>
+        <v>-1174.5857942382688</v>
       </c>
       <c r="BD34" s="2">
-        <v>-21925.420318649754</v>
+        <v>-1177.9579110903931</v>
       </c>
       <c r="BE34" s="2">
-        <v>-21988.365979757782</v>
+        <v>-1181.3397089484688</v>
       </c>
       <c r="BF34" s="2">
-        <v>-22051.492351483659</v>
+        <v>-1184.7312156056832</v>
       </c>
       <c r="BG34" s="2">
-        <v>-22114.799952629262</v>
+        <v>-1188.1324589350158</v>
       </c>
       <c r="BH34" s="2">
-        <v>-22178.289303485901</v>
+        <v>-1191.5434668894657</v>
       </c>
       <c r="BI34" s="2">
-        <v>-22241.96092583859</v>
+        <v>-1194.9642675022828</v>
       </c>
       <c r="BJ34" s="2">
-        <v>-22305.815342970334</v>
+        <v>-1152.3027777761515</v>
       </c>
       <c r="BK34" s="2">
-        <v>-22369.853079666427</v>
+        <v>-1155.6109223448575</v>
       </c>
       <c r="BL34" s="2">
-        <v>-22434.074662218773</v>
+        <v>-1158.9285642615682</v>
       </c>
       <c r="BM34" s="2">
-        <v>-22498.480618430207</v>
+        <v>-1162.2557307922082</v>
       </c>
       <c r="BN34" s="2">
-        <v>-22563.071477618829</v>
+        <v>-1165.5924492809788</v>
       </c>
       <c r="BO34" s="2">
-        <v>-22627.84777062236</v>
+        <v>-1168.9387471505852</v>
       </c>
       <c r="BP34" s="2">
-        <v>-22692.810029802502</v>
+        <v>-1172.2946519024588</v>
       </c>
       <c r="BQ34" s="2">
-        <v>-22757.958789049313</v>
+        <v>-1175.660191116986</v>
       </c>
       <c r="BR34" s="2">
-        <v>-22823.294583785595</v>
+        <v>-1179.0353924537333</v>
       </c>
       <c r="BS34" s="2">
-        <v>-22888.817950971294</v>
+        <v>-1182.4202836516747</v>
       </c>
       <c r="BT34" s="2">
-        <v>-22954.529429107915</v>
+        <v>-1185.8148925294206</v>
       </c>
       <c r="BU34" s="2">
-        <v>-23020.429558242948</v>
+        <v>-1189.2192469854454</v>
       </c>
     </row>
     <row r="35" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="2"/>
@@ -5213,610 +5304,737 @@
         <v>0</v>
       </c>
       <c r="P35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>0</v>
-      </c>
+        <v>-19775.472925111575</v>
+      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" s="2">
-        <v>0</v>
-      </c>
-      <c r="S35" s="2">
-        <v>0</v>
-      </c>
+        <v>-19832.246305001412</v>
+      </c>
+      <c r="S35" s="2"/>
       <c r="T35" s="2">
-        <v>0</v>
-      </c>
-      <c r="U35" s="2">
-        <v>0</v>
-      </c>
+        <v>-19889.182675514854</v>
+      </c>
+      <c r="U35" s="2"/>
       <c r="V35" s="2">
-        <v>0</v>
+        <v>-19946.282504581472</v>
       </c>
       <c r="W35" s="2">
-        <v>0</v>
+        <f>-(150000+67360)</f>
+        <v>-217360</v>
       </c>
       <c r="X35" s="2">
-        <v>0</v>
+        <v>-20003.54626147421</v>
       </c>
       <c r="Y35" s="2">
-        <v>-41045.471952559121</v>
+        <v>-20060.974416813271</v>
       </c>
       <c r="Z35" s="2">
-        <v>0</v>
+        <v>-20118.567442569929</v>
       </c>
       <c r="AA35" s="2">
-        <v>0</v>
+        <v>-20176.32581207046</v>
       </c>
       <c r="AB35" s="2">
-        <v>0</v>
+        <v>-20234.250000000007</v>
       </c>
       <c r="AC35" s="2">
-        <v>0</v>
+        <v>-20292.340482406486</v>
       </c>
       <c r="AD35" s="2">
-        <v>0</v>
+        <v>-20350.597736704491</v>
       </c>
       <c r="AE35" s="2">
-        <v>0</v>
+        <v>-20409.022241679242</v>
       </c>
       <c r="AF35" s="2">
-        <v>0</v>
+        <v>-20467.614477490486</v>
       </c>
       <c r="AG35" s="2">
-        <v>0</v>
+        <v>-20526.374925676471</v>
       </c>
       <c r="AH35" s="2">
-        <v>0</v>
+        <v>-20585.304069157879</v>
       </c>
       <c r="AI35" s="2">
-        <v>0</v>
+        <v>-20644.402392241831</v>
       </c>
       <c r="AJ35" s="2">
-        <v>0</v>
+        <v>-20703.670380625819</v>
       </c>
       <c r="AK35" s="2">
-        <v>-42482.063470898713</v>
+        <v>-20763.108521401744</v>
       </c>
       <c r="AL35" s="2">
-        <v>0</v>
+        <v>-20822.71730305989</v>
       </c>
       <c r="AM35" s="2">
-        <v>0</v>
+        <v>-20882.497215492938</v>
       </c>
       <c r="AN35" s="2">
-        <v>0</v>
+        <v>-20942.448750000014</v>
       </c>
       <c r="AO35" s="2">
-        <v>0</v>
+        <v>-21002.572399290715</v>
       </c>
       <c r="AP35" s="2">
-        <v>0</v>
+        <v>-21062.868657489151</v>
       </c>
       <c r="AQ35" s="2">
-        <v>0</v>
+        <v>-21123.338020138017</v>
       </c>
       <c r="AR35" s="2">
-        <v>0</v>
+        <v>-21183.980984202652</v>
       </c>
       <c r="AS35" s="2">
-        <v>0</v>
+        <v>-21244.798048075147</v>
       </c>
       <c r="AT35" s="2">
-        <v>0</v>
+        <v>-21305.789711578407</v>
       </c>
       <c r="AU35" s="2">
-        <v>0</v>
+        <v>-21366.956475970295</v>
       </c>
       <c r="AV35" s="2">
-        <v>0</v>
+        <v>-21428.298843947723</v>
       </c>
       <c r="AW35" s="2">
-        <v>-43968.935692380161</v>
+        <v>-21489.817319650803</v>
       </c>
       <c r="AX35" s="2">
-        <v>0</v>
+        <v>-21551.512408666978</v>
       </c>
       <c r="AY35" s="2">
-        <v>0</v>
+        <v>-21613.384618035187</v>
       </c>
       <c r="AZ35" s="2">
-        <v>0</v>
+        <v>-21675.434456250016</v>
       </c>
       <c r="BA35" s="2">
-        <v>0</v>
+        <v>-21737.662433265894</v>
       </c>
       <c r="BB35" s="2">
-        <v>0</v>
+        <v>-21800.069060501279</v>
       </c>
       <c r="BC35" s="2">
-        <v>0</v>
+        <v>-21862.654850842853</v>
       </c>
       <c r="BD35" s="2">
-        <v>0</v>
+        <v>-21925.420318649754</v>
       </c>
       <c r="BE35" s="2">
-        <v>0</v>
+        <v>-21988.365979757782</v>
       </c>
       <c r="BF35" s="2">
-        <v>0</v>
+        <v>-22051.492351483659</v>
       </c>
       <c r="BG35" s="2">
-        <v>0</v>
+        <v>-22114.799952629262</v>
       </c>
       <c r="BH35" s="2">
-        <v>0</v>
+        <v>-22178.289303485901</v>
       </c>
       <c r="BI35" s="2">
-        <v>-45507.848441613482</v>
+        <v>-22241.96092583859</v>
       </c>
       <c r="BJ35" s="2">
-        <v>0</v>
+        <v>-22305.815342970334</v>
       </c>
       <c r="BK35" s="2">
-        <v>0</v>
+        <v>-22369.853079666427</v>
       </c>
       <c r="BL35" s="2">
-        <v>0</v>
+        <v>-22434.074662218773</v>
       </c>
       <c r="BM35" s="2">
-        <v>0</v>
+        <v>-22498.480618430207</v>
       </c>
       <c r="BN35" s="2">
-        <v>0</v>
+        <v>-22563.071477618829</v>
       </c>
       <c r="BO35" s="2">
-        <v>0</v>
+        <v>-22627.84777062236</v>
       </c>
       <c r="BP35" s="2">
-        <v>0</v>
+        <v>-22692.810029802502</v>
       </c>
       <c r="BQ35" s="2">
-        <v>0</v>
+        <v>-22757.958789049313</v>
       </c>
       <c r="BR35" s="2">
-        <v>0</v>
+        <v>-22823.294583785595</v>
       </c>
       <c r="BS35" s="2">
-        <v>0</v>
+        <v>-22888.817950971294</v>
       </c>
       <c r="BT35" s="2">
-        <v>0</v>
+        <v>-22954.529429107915</v>
       </c>
       <c r="BU35" s="2">
-        <v>-47100.623137069968</v>
+        <v>-23020.429558242948</v>
       </c>
     </row>
     <row r="36" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="6"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
-      <c r="AH36" s="2"/>
-      <c r="AI36" s="2"/>
-      <c r="AJ36" s="2"/>
-      <c r="AK36" s="2"/>
-      <c r="AL36" s="2"/>
-      <c r="AM36" s="2"/>
-      <c r="AN36" s="2"/>
-      <c r="AO36" s="2"/>
-      <c r="AP36" s="2"/>
-      <c r="AQ36" s="2"/>
-      <c r="AR36" s="2"/>
-      <c r="AS36" s="2"/>
-      <c r="AT36" s="2"/>
-      <c r="AU36" s="2"/>
-      <c r="AV36" s="2"/>
-      <c r="AW36" s="2"/>
-      <c r="AX36" s="2"/>
-      <c r="AY36" s="2"/>
-      <c r="AZ36" s="2"/>
-      <c r="BA36" s="2"/>
-      <c r="BB36" s="2"/>
-      <c r="BC36" s="2"/>
-      <c r="BD36" s="2"/>
-      <c r="BE36" s="2"/>
-      <c r="BF36" s="2"/>
-      <c r="BG36" s="2"/>
-      <c r="BH36" s="2"/>
-      <c r="BI36" s="2"/>
-      <c r="BJ36" s="2"/>
-      <c r="BK36" s="2"/>
-      <c r="BL36" s="2"/>
-      <c r="BM36" s="2"/>
-      <c r="BN36" s="2"/>
-      <c r="BO36" s="2"/>
-      <c r="BP36" s="2"/>
-      <c r="BQ36" s="2"/>
-      <c r="BR36" s="2"/>
-      <c r="BS36" s="2"/>
-      <c r="BT36" s="2"/>
-      <c r="BU36" s="2"/>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="12">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="12">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="12">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2">
+        <v>0</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>-41045.471952559121</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="2">
+        <v>-42482.063470898713</v>
+      </c>
+      <c r="AL36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="2">
+        <v>-43968.935692380161</v>
+      </c>
+      <c r="AX36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI36" s="2">
+        <v>-45507.848441613482</v>
+      </c>
+      <c r="BJ36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU36" s="2">
+        <v>-47100.623137069968</v>
+      </c>
     </row>
     <row r="37" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="2">
-        <f>SUM(C38:C43)</f>
-        <v>-78350.78</v>
-      </c>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2">
-        <f>SUM(E38:E43)</f>
-        <v>-82537.039999999994</v>
-      </c>
-      <c r="F37" s="2">
-        <v>-290653.07379490609</v>
-      </c>
-      <c r="G37" s="12">
-        <f>SUM(G38:G43)</f>
-        <v>-108528.08</v>
-      </c>
-      <c r="H37" s="2">
-        <v>-291641.68969216774</v>
-      </c>
-      <c r="I37" s="12">
-        <f>SUM(I38:I43)</f>
-        <v>-104346.46</v>
-      </c>
-      <c r="J37" s="2">
-        <v>-291641.68969216774</v>
-      </c>
-      <c r="K37" s="12">
-        <f>SUM(K38:K43)</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="2">
-        <v>-291641.68969216774</v>
-      </c>
-      <c r="M37" s="12">
-        <f>SUM(M38:M43)</f>
-        <v>-152130.95000000001</v>
-      </c>
-      <c r="N37" s="2">
-        <v>-291641.68969216774</v>
-      </c>
-      <c r="O37" s="12">
-        <f>SUM(O38:O43)</f>
-        <v>-336714.29</v>
-      </c>
-      <c r="P37" s="2">
-        <v>-268573.98542273074</v>
-      </c>
-      <c r="Q37" s="12">
-        <f>SUM(Q38:Q43)</f>
-        <v>-180529.02</v>
-      </c>
-      <c r="R37" s="2">
-        <v>0</v>
-      </c>
-      <c r="S37" s="12">
-        <f>SUM(S38:S43)</f>
-        <v>0</v>
-      </c>
-      <c r="T37" s="2">
-        <v>0</v>
-      </c>
-      <c r="U37" s="12">
-        <f>SUM(U38:U43)</f>
-        <v>-128227.34</v>
-      </c>
-      <c r="V37" s="2">
-        <v>0</v>
-      </c>
-      <c r="W37" s="12">
-        <f>SUM(W38:W43)</f>
-        <v>-132108.59</v>
-      </c>
-      <c r="X37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BS37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU37" s="2">
-        <v>0</v>
-      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="2"/>
+      <c r="AV37" s="2"/>
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="2"/>
+      <c r="AZ37" s="2"/>
+      <c r="BA37" s="2"/>
+      <c r="BB37" s="2"/>
+      <c r="BC37" s="2"/>
+      <c r="BD37" s="2"/>
+      <c r="BE37" s="2"/>
+      <c r="BF37" s="2"/>
+      <c r="BG37" s="2"/>
+      <c r="BH37" s="2"/>
+      <c r="BI37" s="2"/>
+      <c r="BJ37" s="2"/>
+      <c r="BK37" s="2"/>
+      <c r="BL37" s="2"/>
+      <c r="BM37" s="2"/>
+      <c r="BN37" s="2"/>
+      <c r="BO37" s="2"/>
+      <c r="BP37" s="2"/>
+      <c r="BQ37" s="2"/>
+      <c r="BR37" s="2"/>
+      <c r="BS37" s="2"/>
+      <c r="BT37" s="2"/>
+      <c r="BU37" s="2"/>
     </row>
     <row r="38" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="A38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="2">
+        <f>SUM(C39:C44)</f>
+        <v>-78350.78</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2">
+        <f>SUM(E39:E44)</f>
+        <v>-82537.039999999994</v>
+      </c>
+      <c r="F38" s="2">
+        <v>-290653.07379490609</v>
+      </c>
       <c r="G38" s="12">
+        <f>SUM(G39:G44)</f>
+        <v>-108528.08</v>
+      </c>
+      <c r="H38" s="2">
+        <v>-291641.68969216774</v>
+      </c>
+      <c r="I38" s="12">
+        <f>SUM(I39:I44)</f>
         <v>-104346.46</v>
       </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12">
-        <v>-104346.46</v>
-      </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="2"/>
+      <c r="J38" s="2">
+        <v>-291641.68969216774</v>
+      </c>
+      <c r="K38" s="12">
+        <f>SUM(K39:K44)</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>-291641.68969216774</v>
+      </c>
       <c r="M38" s="12">
-        <f>-(116631.88+18772.57)</f>
-        <v>-135404.45000000001</v>
-      </c>
-      <c r="N38" s="2"/>
+        <f>SUM(M39:M44)</f>
+        <v>-152130.95000000001</v>
+      </c>
+      <c r="N38" s="2">
+        <v>-291641.68969216774</v>
+      </c>
       <c r="O38" s="12">
-        <f>-(24467.06+152007.6+18772.56+116631.87)</f>
-        <v>-311879.08999999997</v>
-      </c>
-      <c r="P38" s="2"/>
+        <f>SUM(O39:O44)</f>
+        <v>-336714.29</v>
+      </c>
+      <c r="P38" s="2">
+        <v>-268573.98542273074</v>
+      </c>
       <c r="Q38" s="12">
-        <f>-(152007.6+24467.06)</f>
-        <v>-176474.66</v>
-      </c>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
+        <f>SUM(Q39:Q44)</f>
+        <v>-180529.02</v>
+      </c>
+      <c r="R38" s="2">
+        <v>0</v>
+      </c>
+      <c r="S38" s="12">
+        <v>0</v>
+      </c>
+      <c r="T38" s="2">
+        <v>0</v>
+      </c>
       <c r="U38" s="12">
-        <f>-110449.55-17777.79</f>
+        <f>SUM(U39:U44)</f>
         <v>-128227.34</v>
       </c>
-      <c r="V38" s="2"/>
+      <c r="V38" s="2">
+        <v>0</v>
+      </c>
       <c r="W38" s="12">
-        <f>-(17777.79+110449.55)</f>
-        <v>-128227.34</v>
-      </c>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="2"/>
-      <c r="AI38" s="2"/>
-      <c r="AJ38" s="2"/>
-      <c r="AK38" s="2"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38" s="2"/>
-      <c r="AN38" s="2"/>
-      <c r="AO38" s="2"/>
-      <c r="AP38" s="2"/>
-      <c r="AQ38" s="2"/>
-      <c r="AR38" s="2"/>
-      <c r="AS38" s="2"/>
-      <c r="AT38" s="2"/>
-      <c r="AU38" s="2"/>
-      <c r="AV38" s="2"/>
-      <c r="AW38" s="2"/>
-      <c r="AX38" s="2"/>
-      <c r="AY38" s="2"/>
-      <c r="AZ38" s="2"/>
-      <c r="BA38" s="2"/>
-      <c r="BB38" s="2"/>
-      <c r="BC38" s="2"/>
-      <c r="BD38" s="2"/>
-      <c r="BE38" s="2"/>
-      <c r="BF38" s="2"/>
-      <c r="BG38" s="2"/>
-      <c r="BH38" s="2"/>
-      <c r="BI38" s="2"/>
-      <c r="BJ38" s="2"/>
-      <c r="BK38" s="2"/>
-      <c r="BL38" s="2"/>
-      <c r="BM38" s="2"/>
-      <c r="BN38" s="2"/>
-      <c r="BO38" s="2"/>
-      <c r="BP38" s="2"/>
-      <c r="BQ38" s="2"/>
-      <c r="BR38" s="2"/>
-      <c r="BS38" s="2"/>
-      <c r="BT38" s="2"/>
-      <c r="BU38" s="2"/>
+        <f>SUM(W39:W44)</f>
+        <v>-132108.59</v>
+      </c>
+      <c r="X38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU38" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="12"/>
+      <c r="G39" s="12">
+        <v>-104346.46</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12">
+        <v>-104346.46</v>
+      </c>
       <c r="J39" s="2"/>
       <c r="K39" s="12"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="12"/>
+      <c r="M39" s="12">
+        <f>-(116631.88+18772.57)</f>
+        <v>-135404.45000000001</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" s="12">
-        <f>-(4054.35+4054.35)</f>
-        <v>-8108.7</v>
+        <f>-(24467.06+152007.6+18772.56+116631.87)</f>
+        <v>-311879.08999999997</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="12">
-        <v>-4054.36</v>
+        <f>-(152007.6+24467.06)</f>
+        <v>-176474.66</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="12"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="12">
+        <f>-110449.55-17777.79</f>
+        <v>-128227.34</v>
+      </c>
       <c r="V39" s="2"/>
-      <c r="W39" s="12"/>
+      <c r="W39" s="12">
+        <f>-(17777.79+110449.55)</f>
+        <v>-128227.34</v>
+      </c>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
@@ -5870,17 +6088,13 @@
     </row>
     <row r="40" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B40" s="11"/>
-      <c r="C40" s="12">
-        <v>-35690.699999999997</v>
-      </c>
+      <c r="C40" s="12"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="12">
-        <v>-35690.699999999997</v>
-      </c>
-      <c r="F40" s="2"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="2"/>
       <c r="I40" s="12"/>
@@ -5889,11 +6103,16 @@
       <c r="L40" s="2"/>
       <c r="M40" s="12"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="12"/>
+      <c r="O40" s="12">
+        <f>-(4054.35+4054.35)</f>
+        <v>-8108.7</v>
+      </c>
       <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
+      <c r="Q40" s="12">
+        <v>-4054.36</v>
+      </c>
       <c r="R40" s="2"/>
-      <c r="S40" s="12"/>
+      <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="12"/>
       <c r="V40" s="2"/>
@@ -5951,7 +6170,7 @@
     </row>
     <row r="41" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="12">
@@ -6032,12 +6251,16 @@
     </row>
     <row r="42" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
+      <c r="C42" s="12">
+        <v>-35690.699999999997</v>
+      </c>
       <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+      <c r="E42" s="12">
+        <v>-35690.699999999997</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="12"/>
       <c r="H42" s="2"/>
@@ -6055,9 +6278,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="12"/>
       <c r="V42" s="2"/>
-      <c r="W42" s="12">
-        <v>-3881.25</v>
-      </c>
+      <c r="W42" s="12"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
@@ -6111,35 +6332,22 @@
     </row>
     <row r="43" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B43" s="11"/>
-      <c r="C43" s="12">
-        <v>-6969.38</v>
-      </c>
+      <c r="C43" s="12"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="12">
-        <f>-(4181.63+6974.01)</f>
-        <v>-11155.64</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12">
-        <v>-4181.62</v>
-      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="12"/>
       <c r="H43" s="2"/>
       <c r="I43" s="12"/>
       <c r="J43" s="2"/>
       <c r="K43" s="12"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="12">
-        <f>-(8363.25+8363.25)</f>
-        <v>-16726.5</v>
-      </c>
+      <c r="M43" s="12"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="12">
-        <f>-(8363.25+8363.25)</f>
-        <v>-16726.5</v>
-      </c>
+      <c r="O43" s="12"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -6147,7 +6355,9 @@
       <c r="T43" s="2"/>
       <c r="U43" s="12"/>
       <c r="V43" s="2"/>
-      <c r="W43" s="12"/>
+      <c r="W43" s="12">
+        <v>-3881.25</v>
+      </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
@@ -6200,29 +6410,44 @@
       <c r="BU43" s="2"/>
     </row>
     <row r="44" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="12"/>
+      <c r="A44" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12">
+        <v>-6969.38</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12">
+        <f>-(4181.63+6974.01)</f>
+        <v>-11155.64</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12">
+        <v>-4181.62</v>
+      </c>
       <c r="H44" s="2"/>
       <c r="I44" s="12"/>
       <c r="J44" s="2"/>
       <c r="K44" s="12"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="12"/>
+      <c r="M44" s="12">
+        <f>-(8363.25+8363.25)</f>
+        <v>-16726.5</v>
+      </c>
       <c r="N44" s="2"/>
-      <c r="O44" s="12"/>
+      <c r="O44" s="12">
+        <f>-(8363.25+8363.25)</f>
+        <v>-16726.5</v>
+      </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
+      <c r="S44" s="12"/>
       <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
+      <c r="U44" s="12"/>
       <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
+      <c r="W44" s="12"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
@@ -6275,1196 +6500,1196 @@
       <c r="BU44" s="2"/>
     </row>
     <row r="45" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="7">
-        <v>0</v>
-      </c>
-      <c r="D45" s="7">
-        <f>SUM(D46:D49)</f>
-        <v>-13432.593933481601</v>
-      </c>
-      <c r="E45" s="7">
-        <v>0</v>
-      </c>
-      <c r="F45" s="7">
-        <f t="shared" ref="F45:BU45" si="18">SUM(F46:F49)</f>
-        <v>-13432.593933481601</v>
-      </c>
-      <c r="G45" s="17">
-        <f t="shared" ref="G45" si="19">SUM(G46:G49)</f>
-        <v>-209.22</v>
-      </c>
-      <c r="H45" s="7">
-        <f t="shared" si="18"/>
-        <v>-13432.593933481601</v>
-      </c>
-      <c r="I45" s="17">
-        <f t="shared" ref="I45:K45" si="20">SUM(I46:I49)</f>
-        <v>-915.68000000000006</v>
-      </c>
-      <c r="J45" s="7">
-        <f t="shared" si="18"/>
-        <v>-13476.899347637262</v>
-      </c>
-      <c r="K45" s="17">
-        <f t="shared" si="20"/>
-        <v>-2214.36</v>
-      </c>
-      <c r="L45" s="7">
-        <f t="shared" si="18"/>
-        <v>-13521.331958149671</v>
-      </c>
-      <c r="M45" s="17">
-        <f t="shared" si="18"/>
-        <v>-1460.26</v>
-      </c>
-      <c r="N45" s="7">
-        <f t="shared" si="18"/>
-        <v>-13565.892130186689</v>
-      </c>
-      <c r="O45" s="17">
-        <f t="shared" ref="O45" si="21">SUM(O46:O49)</f>
-        <v>-1975.37</v>
-      </c>
-      <c r="P45" s="7">
-        <f t="shared" si="18"/>
-        <v>-13610.580229964526</v>
-      </c>
-      <c r="Q45" s="7">
-        <f t="shared" ref="Q45" si="22">SUM(Q46:Q49)</f>
-        <v>-2142.41</v>
-      </c>
-      <c r="R45" s="7">
-        <f t="shared" si="18"/>
-        <v>-13655.396624750776</v>
-      </c>
-      <c r="S45" s="7">
-        <f t="shared" ref="S45" si="23">SUM(S46:S49)</f>
-        <v>-4754.0600000000004</v>
-      </c>
-      <c r="T45" s="7">
-        <f t="shared" si="18"/>
-        <v>-13700.341682867411</v>
-      </c>
-      <c r="U45" s="7">
-        <f t="shared" ref="U45:W45" si="24">SUM(U46:U49)</f>
-        <v>-6171.85</v>
-      </c>
-      <c r="V45" s="7">
-        <f t="shared" si="18"/>
-        <v>-13745.41577369382</v>
-      </c>
-      <c r="W45" s="7">
-        <f t="shared" si="24"/>
-        <v>-1967.33</v>
-      </c>
-      <c r="X45" s="7">
-        <f t="shared" si="18"/>
-        <v>-13790.619267669847</v>
-      </c>
-      <c r="Y45" s="7">
-        <f t="shared" si="18"/>
-        <v>-13835.952536298828</v>
-      </c>
-      <c r="Z45" s="7">
-        <f t="shared" si="18"/>
-        <v>-13881.415952150646</v>
-      </c>
-      <c r="AA45" s="7">
-        <f t="shared" si="18"/>
-        <v>-13927.009888864799</v>
-      </c>
-      <c r="AB45" s="7">
-        <f t="shared" si="18"/>
-        <v>-13972.734721153462</v>
-      </c>
-      <c r="AC45" s="7">
-        <f t="shared" si="18"/>
-        <v>-14018.590824804574</v>
-      </c>
-      <c r="AD45" s="7">
-        <f t="shared" si="18"/>
-        <v>-14064.578576684915</v>
-      </c>
-      <c r="AE45" s="7">
-        <f t="shared" si="18"/>
-        <v>-14110.698354743226</v>
-      </c>
-      <c r="AF45" s="7">
-        <f t="shared" si="18"/>
-        <v>-14156.95053801329</v>
-      </c>
-      <c r="AG45" s="7">
-        <f t="shared" si="18"/>
-        <v>-14203.335506617061</v>
-      </c>
-      <c r="AH45" s="7">
-        <f t="shared" si="18"/>
-        <v>-14249.853641767777</v>
-      </c>
-      <c r="AI45" s="7">
-        <f t="shared" si="18"/>
-        <v>-14296.505325773111</v>
-      </c>
-      <c r="AJ45" s="7">
-        <f t="shared" si="18"/>
-        <v>-14343.290942038298</v>
-      </c>
-      <c r="AK45" s="7">
-        <f t="shared" si="18"/>
-        <v>-14390.210875069293</v>
-      </c>
-      <c r="AL45" s="7">
-        <f t="shared" si="18"/>
-        <v>-14437.265510475925</v>
-      </c>
-      <c r="AM45" s="7">
-        <f t="shared" si="18"/>
-        <v>-14484.455234975074</v>
-      </c>
-      <c r="AN45" s="7">
-        <f t="shared" si="18"/>
-        <v>-14531.780436393839</v>
-      </c>
-      <c r="AO45" s="7">
-        <f t="shared" si="18"/>
-        <v>-14579.241503672736</v>
-      </c>
-      <c r="AP45" s="7">
-        <f t="shared" si="18"/>
-        <v>-14626.838826868892</v>
-      </c>
-      <c r="AQ45" s="7">
-        <f t="shared" si="18"/>
-        <v>-14674.572797159242</v>
-      </c>
-      <c r="AR45" s="7">
-        <f t="shared" si="18"/>
-        <v>-14722.443806843758</v>
-      </c>
-      <c r="AS45" s="7">
-        <f t="shared" si="18"/>
-        <v>-14770.452249348658</v>
-      </c>
-      <c r="AT45" s="7">
-        <f t="shared" si="18"/>
-        <v>-14818.598519229647</v>
-      </c>
-      <c r="AU45" s="7">
-        <f t="shared" si="18"/>
-        <v>-14866.883012175169</v>
-      </c>
-      <c r="AV45" s="7">
-        <f t="shared" si="18"/>
-        <v>-14915.306125009638</v>
-      </c>
-      <c r="AW45" s="7">
-        <f t="shared" si="18"/>
-        <v>-14963.868255696718</v>
-      </c>
-      <c r="AX45" s="7">
-        <f t="shared" si="18"/>
-        <v>-15012.56980334258</v>
-      </c>
-      <c r="AY45" s="7">
-        <f t="shared" si="18"/>
-        <v>-15061.411168199204</v>
-      </c>
-      <c r="AZ45" s="7">
-        <f t="shared" si="18"/>
-        <v>-15110.392751667627</v>
-      </c>
-      <c r="BA45" s="7">
-        <f t="shared" si="18"/>
-        <v>-15159.514956301286</v>
-      </c>
-      <c r="BB45" s="7">
-        <f t="shared" si="18"/>
-        <v>-15208.778185809309</v>
-      </c>
-      <c r="BC45" s="7">
-        <f t="shared" si="18"/>
-        <v>-15258.182845059824</v>
-      </c>
-      <c r="BD45" s="7">
-        <f t="shared" si="18"/>
-        <v>-15307.729340083293</v>
-      </c>
-      <c r="BE45" s="7">
-        <f t="shared" si="18"/>
-        <v>-15357.418078075865</v>
-      </c>
-      <c r="BF45" s="7">
-        <f t="shared" si="18"/>
-        <v>-15407.249467402691</v>
-      </c>
-      <c r="BG45" s="7">
-        <f t="shared" si="18"/>
-        <v>-15457.223917601306</v>
-      </c>
-      <c r="BH45" s="7">
-        <f t="shared" si="18"/>
-        <v>-15507.341839384981</v>
-      </c>
-      <c r="BI45" s="7">
-        <f t="shared" si="18"/>
-        <v>-15557.603644646108</v>
-      </c>
-      <c r="BJ45" s="7">
-        <f t="shared" si="18"/>
-        <v>-15608.009746459578</v>
-      </c>
-      <c r="BK45" s="7">
-        <f t="shared" si="18"/>
-        <v>-15658.560559086181</v>
-      </c>
-      <c r="BL45" s="7">
-        <f t="shared" si="18"/>
-        <v>-15709.256497975995</v>
-      </c>
-      <c r="BM45" s="7">
-        <f t="shared" si="18"/>
-        <v>-15760.097979771836</v>
-      </c>
-      <c r="BN45" s="7">
-        <f t="shared" si="18"/>
-        <v>-15811.085422312635</v>
-      </c>
-      <c r="BO45" s="7">
-        <f t="shared" si="18"/>
-        <v>-15862.219244636921</v>
-      </c>
-      <c r="BP45" s="7">
-        <f t="shared" si="18"/>
-        <v>-15913.499866986218</v>
-      </c>
-      <c r="BQ45" s="7">
-        <f t="shared" si="18"/>
-        <v>-15964.927710808526</v>
-      </c>
-      <c r="BR45" s="7">
-        <f t="shared" si="18"/>
-        <v>-16016.503198761791</v>
-      </c>
-      <c r="BS45" s="7">
-        <f t="shared" si="18"/>
-        <v>-16068.226754717358</v>
-      </c>
-      <c r="BT45" s="7">
-        <f t="shared" si="18"/>
-        <v>-16120.09880376346</v>
-      </c>
-      <c r="BU45" s="7">
-        <f t="shared" si="18"/>
-        <v>-16172.119772208731</v>
-      </c>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
+      <c r="AM45" s="2"/>
+      <c r="AN45" s="2"/>
+      <c r="AO45" s="2"/>
+      <c r="AP45" s="2"/>
+      <c r="AQ45" s="2"/>
+      <c r="AR45" s="2"/>
+      <c r="AS45" s="2"/>
+      <c r="AT45" s="2"/>
+      <c r="AU45" s="2"/>
+      <c r="AV45" s="2"/>
+      <c r="AW45" s="2"/>
+      <c r="AX45" s="2"/>
+      <c r="AY45" s="2"/>
+      <c r="AZ45" s="2"/>
+      <c r="BA45" s="2"/>
+      <c r="BB45" s="2"/>
+      <c r="BC45" s="2"/>
+      <c r="BD45" s="2"/>
+      <c r="BE45" s="2"/>
+      <c r="BF45" s="2"/>
+      <c r="BG45" s="2"/>
+      <c r="BH45" s="2"/>
+      <c r="BI45" s="2"/>
+      <c r="BJ45" s="2"/>
+      <c r="BK45" s="2"/>
+      <c r="BL45" s="2"/>
+      <c r="BM45" s="2"/>
+      <c r="BN45" s="2"/>
+      <c r="BO45" s="2"/>
+      <c r="BP45" s="2"/>
+      <c r="BQ45" s="2"/>
+      <c r="BR45" s="2"/>
+      <c r="BS45" s="2"/>
+      <c r="BT45" s="2"/>
+      <c r="BU45" s="2"/>
     </row>
     <row r="46" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="2">
-        <v>-3058.9036839936002</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2">
-        <v>-3058.9036839936002</v>
-      </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="2">
-        <v>-3058.9036839936002</v>
-      </c>
-      <c r="I46" s="12">
-        <v>-496.03</v>
-      </c>
-      <c r="J46" s="2">
-        <v>-3067.6854866617559</v>
-      </c>
-      <c r="K46" s="12">
-        <v>-1382.21</v>
-      </c>
-      <c r="L46" s="2">
-        <v>-3076.4925009959429</v>
-      </c>
-      <c r="M46" s="12"/>
-      <c r="N46" s="2">
-        <v>-3085.3247993763016</v>
-      </c>
-      <c r="O46" s="12">
+      <c r="A46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7">
+        <f>SUM(D47:D50)</f>
+        <v>-13432.593933481601</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <f t="shared" ref="F46:BU46" si="15">SUM(F47:F50)</f>
+        <v>-13432.593933481601</v>
+      </c>
+      <c r="G46" s="17">
+        <f t="shared" ref="G46" si="16">SUM(G47:G50)</f>
+        <v>-209.22</v>
+      </c>
+      <c r="H46" s="7">
+        <f t="shared" si="15"/>
+        <v>-13432.593933481601</v>
+      </c>
+      <c r="I46" s="17">
+        <f t="shared" ref="I46:K46" si="17">SUM(I47:I50)</f>
+        <v>-915.68000000000006</v>
+      </c>
+      <c r="J46" s="7">
+        <f t="shared" si="15"/>
+        <v>-13476.899347637262</v>
+      </c>
+      <c r="K46" s="17">
+        <f t="shared" si="17"/>
+        <v>-2214.36</v>
+      </c>
+      <c r="L46" s="7">
+        <f t="shared" si="15"/>
+        <v>-13521.331958149671</v>
+      </c>
+      <c r="M46" s="17">
+        <f t="shared" si="15"/>
+        <v>-1460.26</v>
+      </c>
+      <c r="N46" s="7">
+        <f t="shared" si="15"/>
+        <v>-13565.892130186689</v>
+      </c>
+      <c r="O46" s="17">
+        <f t="shared" ref="O46" si="18">SUM(O47:O50)</f>
         <v>-1975.37</v>
       </c>
-      <c r="P46" s="2">
-        <v>-3094.1824543907665</v>
-      </c>
-      <c r="Q46" s="12">
+      <c r="P46" s="7">
+        <f t="shared" si="15"/>
+        <v>-13610.580229964526</v>
+      </c>
+      <c r="Q46" s="7">
+        <f t="shared" ref="Q46" si="19">SUM(Q47:Q50)</f>
         <v>-2142.41</v>
       </c>
-      <c r="R46" s="2">
-        <v>-3103.0655388356668</v>
-      </c>
-      <c r="S46" s="12">
-        <v>-1407.76</v>
-      </c>
-      <c r="T46" s="2">
-        <v>-3111.9741257163209</v>
-      </c>
-      <c r="U46" s="12"/>
-      <c r="V46" s="2">
-        <v>-3120.9082882476396</v>
-      </c>
-      <c r="W46" s="12"/>
-      <c r="X46" s="2">
-        <v>-3129.8680998547252</v>
-      </c>
-      <c r="Y46" s="2">
-        <v>-3138.8536341734775</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>-3147.8649650511952</v>
-      </c>
-      <c r="AA46" s="2">
-        <v>-3156.9021665471864</v>
-      </c>
-      <c r="AB46" s="2">
-        <v>-3165.9653129333774</v>
-      </c>
-      <c r="AC46" s="2">
-        <v>-3175.054478694919</v>
-      </c>
-      <c r="AD46" s="2">
-        <v>-3184.1697385308025</v>
-      </c>
-      <c r="AE46" s="2">
-        <v>-3193.3111673544731</v>
-      </c>
-      <c r="AF46" s="2">
-        <v>-3202.4788402944446</v>
-      </c>
-      <c r="AG46" s="2">
-        <v>-3211.6728326949165</v>
-      </c>
-      <c r="AH46" s="2">
-        <v>-3220.8932201163934</v>
-      </c>
-      <c r="AI46" s="2">
-        <v>-3230.1400783363083</v>
-      </c>
-      <c r="AJ46" s="2">
-        <v>-3239.4134833496423</v>
-      </c>
-      <c r="AK46" s="2">
-        <v>-3248.7135113695504</v>
-      </c>
-      <c r="AL46" s="2">
-        <v>-3258.0402388279881</v>
-      </c>
-      <c r="AM46" s="2">
-        <v>-3267.3937423763396</v>
-      </c>
-      <c r="AN46" s="2">
-        <v>-3276.7740988860464</v>
-      </c>
-      <c r="AO46" s="2">
-        <v>-3286.1813854492416</v>
-      </c>
-      <c r="AP46" s="2">
-        <v>-3295.6156793793812</v>
-      </c>
-      <c r="AQ46" s="2">
-        <v>-3305.0770582118798</v>
-      </c>
-      <c r="AR46" s="2">
-        <v>-3314.5655997047502</v>
-      </c>
-      <c r="AS46" s="2">
-        <v>-3324.0813818392385</v>
-      </c>
-      <c r="AT46" s="2">
-        <v>-3333.6244828204667</v>
-      </c>
-      <c r="AU46" s="2">
-        <v>-3343.1949810780793</v>
-      </c>
-      <c r="AV46" s="2">
-        <v>-3352.7929552668793</v>
-      </c>
-      <c r="AW46" s="2">
-        <v>-3362.418484267484</v>
-      </c>
-      <c r="AX46" s="2">
-        <v>-3372.0716471869673</v>
-      </c>
-      <c r="AY46" s="2">
-        <v>-3381.7525233595115</v>
-      </c>
-      <c r="AZ46" s="2">
-        <v>-3391.4611923470588</v>
-      </c>
-      <c r="BA46" s="2">
-        <v>-3401.1977339399659</v>
-      </c>
-      <c r="BB46" s="2">
-        <v>-3410.9622281576608</v>
-      </c>
-      <c r="BC46" s="2">
-        <v>-3420.754755249297</v>
-      </c>
-      <c r="BD46" s="2">
-        <v>-3430.5753956944177</v>
-      </c>
-      <c r="BE46" s="2">
-        <v>-3440.4242302036128</v>
-      </c>
-      <c r="BF46" s="2">
-        <v>-3450.3013397191839</v>
-      </c>
-      <c r="BG46" s="2">
-        <v>-3460.2068054158126</v>
-      </c>
-      <c r="BH46" s="2">
-        <v>-3470.1407087012212</v>
-      </c>
-      <c r="BI46" s="2">
-        <v>-3480.103131216847</v>
-      </c>
-      <c r="BJ46" s="2">
-        <v>-3490.0941548385122</v>
-      </c>
-      <c r="BK46" s="2">
-        <v>-3500.1138616770959</v>
-      </c>
-      <c r="BL46" s="2">
-        <v>-3510.1623340792062</v>
-      </c>
-      <c r="BM46" s="2">
-        <v>-3520.2396546278655</v>
-      </c>
-      <c r="BN46" s="2">
-        <v>-3530.3459061431795</v>
-      </c>
-      <c r="BO46" s="2">
-        <v>-3540.4811716830236</v>
-      </c>
-      <c r="BP46" s="2">
-        <v>-3550.6455345437234</v>
-      </c>
-      <c r="BQ46" s="2">
-        <v>-3560.8390782607403</v>
-      </c>
-      <c r="BR46" s="2">
-        <v>-3571.0618866093573</v>
-      </c>
-      <c r="BS46" s="2">
-        <v>-3581.3140436053673</v>
-      </c>
-      <c r="BT46" s="2">
-        <v>-3591.5956335057654</v>
-      </c>
-      <c r="BU46" s="2">
-        <v>-3601.9067408094384</v>
+      <c r="R46" s="7">
+        <f t="shared" si="15"/>
+        <v>-13655.396624750776</v>
+      </c>
+      <c r="S46" s="7">
+        <f t="shared" ref="S46" si="20">SUM(S47:S50)</f>
+        <v>-4754.0600000000004</v>
+      </c>
+      <c r="T46" s="7">
+        <f t="shared" si="15"/>
+        <v>-13700.341682867411</v>
+      </c>
+      <c r="U46" s="7">
+        <f t="shared" ref="U46:W46" si="21">SUM(U47:U50)</f>
+        <v>-6171.85</v>
+      </c>
+      <c r="V46" s="7">
+        <f t="shared" si="15"/>
+        <v>-13745.41577369382</v>
+      </c>
+      <c r="W46" s="7">
+        <f t="shared" si="21"/>
+        <v>-1967.33</v>
+      </c>
+      <c r="X46" s="7">
+        <f t="shared" si="15"/>
+        <v>-13790.619267669847</v>
+      </c>
+      <c r="Y46" s="7">
+        <f t="shared" si="15"/>
+        <v>-13835.952536298828</v>
+      </c>
+      <c r="Z46" s="7">
+        <f t="shared" si="15"/>
+        <v>-13881.415952150646</v>
+      </c>
+      <c r="AA46" s="7">
+        <f t="shared" si="15"/>
+        <v>-13927.009888864799</v>
+      </c>
+      <c r="AB46" s="7">
+        <f t="shared" si="15"/>
+        <v>-13972.734721153462</v>
+      </c>
+      <c r="AC46" s="7">
+        <f t="shared" si="15"/>
+        <v>-14018.590824804574</v>
+      </c>
+      <c r="AD46" s="7">
+        <f t="shared" si="15"/>
+        <v>-14064.578576684915</v>
+      </c>
+      <c r="AE46" s="7">
+        <f t="shared" si="15"/>
+        <v>-14110.698354743226</v>
+      </c>
+      <c r="AF46" s="7">
+        <f t="shared" si="15"/>
+        <v>-14156.95053801329</v>
+      </c>
+      <c r="AG46" s="7">
+        <f t="shared" si="15"/>
+        <v>-14203.335506617061</v>
+      </c>
+      <c r="AH46" s="7">
+        <f t="shared" si="15"/>
+        <v>-14249.853641767777</v>
+      </c>
+      <c r="AI46" s="7">
+        <f t="shared" si="15"/>
+        <v>-14296.505325773111</v>
+      </c>
+      <c r="AJ46" s="7">
+        <f t="shared" si="15"/>
+        <v>-14343.290942038298</v>
+      </c>
+      <c r="AK46" s="7">
+        <f t="shared" si="15"/>
+        <v>-14390.210875069293</v>
+      </c>
+      <c r="AL46" s="7">
+        <f t="shared" si="15"/>
+        <v>-14437.265510475925</v>
+      </c>
+      <c r="AM46" s="7">
+        <f t="shared" si="15"/>
+        <v>-14484.455234975074</v>
+      </c>
+      <c r="AN46" s="7">
+        <f t="shared" si="15"/>
+        <v>-14531.780436393839</v>
+      </c>
+      <c r="AO46" s="7">
+        <f t="shared" si="15"/>
+        <v>-14579.241503672736</v>
+      </c>
+      <c r="AP46" s="7">
+        <f t="shared" si="15"/>
+        <v>-14626.838826868892</v>
+      </c>
+      <c r="AQ46" s="7">
+        <f t="shared" si="15"/>
+        <v>-14674.572797159242</v>
+      </c>
+      <c r="AR46" s="7">
+        <f t="shared" si="15"/>
+        <v>-14722.443806843758</v>
+      </c>
+      <c r="AS46" s="7">
+        <f t="shared" si="15"/>
+        <v>-14770.452249348658</v>
+      </c>
+      <c r="AT46" s="7">
+        <f t="shared" si="15"/>
+        <v>-14818.598519229647</v>
+      </c>
+      <c r="AU46" s="7">
+        <f t="shared" si="15"/>
+        <v>-14866.883012175169</v>
+      </c>
+      <c r="AV46" s="7">
+        <f t="shared" si="15"/>
+        <v>-14915.306125009638</v>
+      </c>
+      <c r="AW46" s="7">
+        <f t="shared" si="15"/>
+        <v>-14963.868255696718</v>
+      </c>
+      <c r="AX46" s="7">
+        <f t="shared" si="15"/>
+        <v>-15012.56980334258</v>
+      </c>
+      <c r="AY46" s="7">
+        <f t="shared" si="15"/>
+        <v>-15061.411168199204</v>
+      </c>
+      <c r="AZ46" s="7">
+        <f t="shared" si="15"/>
+        <v>-15110.392751667627</v>
+      </c>
+      <c r="BA46" s="7">
+        <f t="shared" si="15"/>
+        <v>-15159.514956301286</v>
+      </c>
+      <c r="BB46" s="7">
+        <f t="shared" si="15"/>
+        <v>-15208.778185809309</v>
+      </c>
+      <c r="BC46" s="7">
+        <f t="shared" si="15"/>
+        <v>-15258.182845059824</v>
+      </c>
+      <c r="BD46" s="7">
+        <f t="shared" si="15"/>
+        <v>-15307.729340083293</v>
+      </c>
+      <c r="BE46" s="7">
+        <f t="shared" si="15"/>
+        <v>-15357.418078075865</v>
+      </c>
+      <c r="BF46" s="7">
+        <f t="shared" si="15"/>
+        <v>-15407.249467402691</v>
+      </c>
+      <c r="BG46" s="7">
+        <f t="shared" si="15"/>
+        <v>-15457.223917601306</v>
+      </c>
+      <c r="BH46" s="7">
+        <f t="shared" si="15"/>
+        <v>-15507.341839384981</v>
+      </c>
+      <c r="BI46" s="7">
+        <f t="shared" si="15"/>
+        <v>-15557.603644646108</v>
+      </c>
+      <c r="BJ46" s="7">
+        <f t="shared" si="15"/>
+        <v>-15608.009746459578</v>
+      </c>
+      <c r="BK46" s="7">
+        <f t="shared" si="15"/>
+        <v>-15658.560559086181</v>
+      </c>
+      <c r="BL46" s="7">
+        <f t="shared" si="15"/>
+        <v>-15709.256497975995</v>
+      </c>
+      <c r="BM46" s="7">
+        <f t="shared" si="15"/>
+        <v>-15760.097979771836</v>
+      </c>
+      <c r="BN46" s="7">
+        <f t="shared" si="15"/>
+        <v>-15811.085422312635</v>
+      </c>
+      <c r="BO46" s="7">
+        <f t="shared" si="15"/>
+        <v>-15862.219244636921</v>
+      </c>
+      <c r="BP46" s="7">
+        <f t="shared" si="15"/>
+        <v>-15913.499866986218</v>
+      </c>
+      <c r="BQ46" s="7">
+        <f t="shared" si="15"/>
+        <v>-15964.927710808526</v>
+      </c>
+      <c r="BR46" s="7">
+        <f t="shared" si="15"/>
+        <v>-16016.503198761791</v>
+      </c>
+      <c r="BS46" s="7">
+        <f t="shared" si="15"/>
+        <v>-16068.226754717358</v>
+      </c>
+      <c r="BT46" s="7">
+        <f t="shared" si="15"/>
+        <v>-16120.09880376346</v>
+      </c>
+      <c r="BU46" s="7">
+        <f t="shared" si="15"/>
+        <v>-16172.119772208731</v>
       </c>
     </row>
     <row r="47" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B47" s="6"/>
-      <c r="C47" s="2"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="2">
-        <v>-6496.9546777600008</v>
+        <v>-3058.9036839936002</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2">
-        <v>-6496.9546777600008</v>
+        <v>-3058.9036839936002</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="2">
-        <v>-6496.9546777600008</v>
-      </c>
-      <c r="I47" s="12"/>
+        <v>-3058.9036839936002</v>
+      </c>
+      <c r="I47" s="12">
+        <v>-496.03</v>
+      </c>
       <c r="J47" s="2">
-        <v>-6521.3485740604337</v>
-      </c>
-      <c r="K47" s="12"/>
+        <v>-3067.6854866617559</v>
+      </c>
+      <c r="K47" s="12">
+        <v>-1382.21</v>
+      </c>
       <c r="L47" s="2">
-        <v>-6545.8125027665083</v>
-      </c>
-      <c r="M47" s="12">
-        <f>-(136.34+123.69)</f>
-        <v>-260.02999999999997</v>
-      </c>
+        <v>-3076.4925009959429</v>
+      </c>
+      <c r="M47" s="12"/>
       <c r="N47" s="2">
-        <v>-6570.3466649341717</v>
-      </c>
-      <c r="O47" s="12"/>
+        <v>-3085.3247993763016</v>
+      </c>
+      <c r="O47" s="12">
+        <v>-1975.37</v>
+      </c>
       <c r="P47" s="2">
-        <v>-6594.9512621965732</v>
-      </c>
-      <c r="Q47" s="12"/>
+        <v>-3094.1824543907665</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>-2142.41</v>
+      </c>
       <c r="R47" s="2">
-        <v>-6619.6264967657407</v>
+        <v>-3103.0655388356668</v>
       </c>
       <c r="S47" s="12">
-        <v>-1938.54</v>
+        <v>-1407.76</v>
       </c>
       <c r="T47" s="2">
-        <v>-6644.3725714342254</v>
-      </c>
-      <c r="U47" s="12">
-        <v>-2835.46</v>
-      </c>
+        <v>-3111.9741257163209</v>
+      </c>
+      <c r="U47" s="12"/>
       <c r="V47" s="2">
-        <v>-6669.1896895767768</v>
-      </c>
-      <c r="W47" s="12">
-        <v>-1616.98</v>
-      </c>
+        <v>-3120.9082882476396</v>
+      </c>
+      <c r="W47" s="12"/>
       <c r="X47" s="2">
-        <v>-6694.0780551520147</v>
+        <v>-3129.8680998547252</v>
       </c>
       <c r="Y47" s="2">
-        <v>-6719.0378727041043</v>
+        <v>-3138.8536341734775</v>
       </c>
       <c r="Z47" s="2">
-        <v>-6744.0693473644315</v>
+        <v>-3147.8649650511952</v>
       </c>
       <c r="AA47" s="2">
-        <v>-6769.1726848532962</v>
+        <v>-3156.9021665471864</v>
       </c>
       <c r="AB47" s="2">
-        <v>-6794.3480914816046</v>
+        <v>-3165.9653129333774</v>
       </c>
       <c r="AC47" s="2">
-        <v>-6819.5957741525526</v>
+        <v>-3175.054478694919</v>
       </c>
       <c r="AD47" s="2">
-        <v>-6844.9159403633403</v>
+        <v>-3184.1697385308025</v>
       </c>
       <c r="AE47" s="2">
-        <v>-6870.3087982068701</v>
+        <v>-3193.3111673544731</v>
       </c>
       <c r="AF47" s="2">
-        <v>-6895.774556373457</v>
+        <v>-3202.4788402944446</v>
       </c>
       <c r="AG47" s="2">
-        <v>-6921.3134241525458</v>
+        <v>-3211.6728326949165</v>
       </c>
       <c r="AH47" s="2">
-        <v>-6946.9256114344262</v>
+        <v>-3220.8932201163934</v>
       </c>
       <c r="AI47" s="2">
-        <v>-6972.6113287119679</v>
+        <v>-3230.1400783363083</v>
       </c>
       <c r="AJ47" s="2">
-        <v>-6998.37078708234</v>
+        <v>-3239.4134833496423</v>
       </c>
       <c r="AK47" s="2">
-        <v>-7024.2041982487517</v>
+        <v>-3248.7135113695504</v>
       </c>
       <c r="AL47" s="2">
-        <v>-7050.1117745221891</v>
+        <v>-3258.0402388279881</v>
       </c>
       <c r="AM47" s="2">
-        <v>-7076.0937288231653</v>
+        <v>-3267.3937423763396</v>
       </c>
       <c r="AN47" s="2">
-        <v>-7102.1502746834631</v>
+        <v>-3276.7740988860464</v>
       </c>
       <c r="AO47" s="2">
-        <v>-7128.2816262478937</v>
+        <v>-3286.1813854492416</v>
       </c>
       <c r="AP47" s="2">
-        <v>-7154.4879982760594</v>
+        <v>-3295.6156793793812</v>
       </c>
       <c r="AQ47" s="2">
-        <v>-7180.7696061441111</v>
+        <v>-3305.0770582118798</v>
       </c>
       <c r="AR47" s="2">
-        <v>-7207.1266658465283</v>
+        <v>-3314.5655997047502</v>
       </c>
       <c r="AS47" s="2">
-        <v>-7233.5593939978844</v>
+        <v>-3324.0813818392385</v>
       </c>
       <c r="AT47" s="2">
-        <v>-7260.0680078346304</v>
+        <v>-3333.6244828204667</v>
       </c>
       <c r="AU47" s="2">
-        <v>-7286.6527252168871</v>
+        <v>-3343.1949810780793</v>
       </c>
       <c r="AV47" s="2">
-        <v>-7313.3137646302202</v>
+        <v>-3352.7929552668793</v>
       </c>
       <c r="AW47" s="2">
-        <v>-7340.0513451874558</v>
+        <v>-3362.418484267484</v>
       </c>
       <c r="AX47" s="2">
-        <v>-7366.8656866304646</v>
+        <v>-3372.0716471869673</v>
       </c>
       <c r="AY47" s="2">
-        <v>-7393.7570093319773</v>
+        <v>-3381.7525233595115</v>
       </c>
       <c r="AZ47" s="2">
-        <v>-7420.7255342973858</v>
+        <v>-3391.4611923470588</v>
       </c>
       <c r="BA47" s="2">
-        <v>-7447.7714831665726</v>
+        <v>-3401.1977339399659</v>
       </c>
       <c r="BB47" s="2">
-        <v>-7474.8950782157244</v>
+        <v>-3410.9622281576608</v>
       </c>
       <c r="BC47" s="2">
-        <v>-7502.0965423591588</v>
+        <v>-3420.754755249297</v>
       </c>
       <c r="BD47" s="2">
-        <v>-7529.3760991511608</v>
+        <v>-3430.5753956944177</v>
       </c>
       <c r="BE47" s="2">
-        <v>-7556.7339727878134</v>
+        <v>-3440.4242302036128</v>
       </c>
       <c r="BF47" s="2">
-        <v>-7584.1703881088451</v>
+        <v>-3450.3013397191839</v>
       </c>
       <c r="BG47" s="2">
-        <v>-7611.6855705994803</v>
+        <v>-3460.2068054158126</v>
       </c>
       <c r="BH47" s="2">
-        <v>-7639.2797463922816</v>
+        <v>-3470.1407087012212</v>
       </c>
       <c r="BI47" s="2">
-        <v>-7666.9531422690197</v>
+        <v>-3480.103131216847</v>
       </c>
       <c r="BJ47" s="2">
-        <v>-7694.7059856625347</v>
+        <v>-3490.0941548385122</v>
       </c>
       <c r="BK47" s="2">
-        <v>-7722.5385046585998</v>
+        <v>-3500.1138616770959</v>
       </c>
       <c r="BL47" s="2">
-        <v>-7750.4509279977956</v>
+        <v>-3510.1623340792062</v>
       </c>
       <c r="BM47" s="2">
-        <v>-7778.4434850774051</v>
+        <v>-3520.2396546278655</v>
       </c>
       <c r="BN47" s="2">
-        <v>-7806.5164059532763</v>
+        <v>-3530.3459061431795</v>
       </c>
       <c r="BO47" s="2">
-        <v>-7834.6699213417323</v>
+        <v>-3540.4811716830236</v>
       </c>
       <c r="BP47" s="2">
-        <v>-7862.9042626214541</v>
+        <v>-3550.6455345437234</v>
       </c>
       <c r="BQ47" s="2">
-        <v>-7891.2196618353901</v>
+        <v>-3560.8390782607403</v>
       </c>
       <c r="BR47" s="2">
-        <v>-7919.616351692659</v>
+        <v>-3571.0618866093573</v>
       </c>
       <c r="BS47" s="2">
-        <v>-7948.0945655704654</v>
+        <v>-3581.3140436053673</v>
       </c>
       <c r="BT47" s="2">
-        <v>-7976.6545375160149</v>
+        <v>-3591.5956335057654</v>
       </c>
       <c r="BU47" s="2">
-        <v>-8005.2965022484404</v>
+        <v>-3601.9067408094384</v>
       </c>
     </row>
     <row r="48" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2">
-        <v>-690.37756756800002</v>
+        <v>-6496.9546777600008</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2">
-        <v>-690.37756756800002</v>
-      </c>
-      <c r="G48" s="12">
-        <v>-37.22</v>
-      </c>
+        <v>-6496.9546777600008</v>
+      </c>
+      <c r="G48" s="12"/>
       <c r="H48" s="2">
-        <v>-690.37756756800002</v>
-      </c>
-      <c r="I48" s="12">
-        <v>-74.73</v>
-      </c>
+        <v>-6496.9546777600008</v>
+      </c>
+      <c r="I48" s="12"/>
       <c r="J48" s="2">
-        <v>-692.35957164241017</v>
+        <v>-6521.3485740604337</v>
       </c>
       <c r="K48" s="12"/>
       <c r="L48" s="2">
-        <v>-694.34726584977886</v>
+        <v>-6545.8125027665083</v>
       </c>
       <c r="M48" s="12">
-        <v>-629.34</v>
+        <f>-(136.34+123.69)</f>
+        <v>-260.02999999999997</v>
       </c>
       <c r="N48" s="2">
-        <v>-696.34066652590138</v>
+        <v>-6570.3466649341717</v>
       </c>
       <c r="O48" s="12"/>
       <c r="P48" s="2">
-        <v>-698.33979005347157</v>
+        <v>-6594.9512621965732</v>
       </c>
       <c r="Q48" s="12"/>
       <c r="R48" s="2">
-        <v>-700.34465286221644</v>
-      </c>
-      <c r="S48" s="12"/>
+        <v>-6619.6264967657407</v>
+      </c>
+      <c r="S48" s="12">
+        <v>-1938.54</v>
+      </c>
       <c r="T48" s="2">
-        <v>-702.35527142903072</v>
+        <v>-6644.3725714342254</v>
       </c>
       <c r="U48" s="12">
-        <v>-614.35</v>
+        <v>-2835.46</v>
       </c>
       <c r="V48" s="2">
-        <v>-704.37166227811304</v>
+        <v>-6669.1896895767768</v>
       </c>
       <c r="W48" s="12">
-        <v>-350.35</v>
+        <v>-1616.98</v>
       </c>
       <c r="X48" s="2">
-        <v>-706.3938419811011</v>
+        <v>-6694.0780551520147</v>
       </c>
       <c r="Y48" s="2">
-        <v>-708.42182715720833</v>
+        <v>-6719.0378727041043</v>
       </c>
       <c r="Z48" s="2">
-        <v>-710.45563447335996</v>
+        <v>-6744.0693473644315</v>
       </c>
       <c r="AA48" s="2">
-        <v>-712.49528064433025</v>
+        <v>-6769.1726848532962</v>
       </c>
       <c r="AB48" s="2">
-        <v>-714.54078243288029</v>
+        <v>-6794.3480914816046</v>
       </c>
       <c r="AC48" s="2">
-        <v>-716.59215664989483</v>
+        <v>-6819.5957741525526</v>
       </c>
       <c r="AD48" s="2">
-        <v>-718.64942015452141</v>
+        <v>-6844.9159403633403</v>
       </c>
       <c r="AE48" s="2">
-        <v>-720.71258985430813</v>
+        <v>-6870.3087982068701</v>
       </c>
       <c r="AF48" s="2">
-        <v>-722.78168270534331</v>
+        <v>-6895.774556373457</v>
       </c>
       <c r="AG48" s="2">
-        <v>-724.85671571239425</v>
+        <v>-6921.3134241525458</v>
       </c>
       <c r="AH48" s="2">
-        <v>-726.93770592904707</v>
+        <v>-6946.9256114344262</v>
       </c>
       <c r="AI48" s="2">
-        <v>-729.02467045784726</v>
+        <v>-6972.6113287119679</v>
       </c>
       <c r="AJ48" s="2">
-        <v>-731.11762645043996</v>
+        <v>-6998.37078708234</v>
       </c>
       <c r="AK48" s="2">
-        <v>-733.216591107711</v>
+        <v>-7024.2041982487517</v>
       </c>
       <c r="AL48" s="2">
-        <v>-735.32158167992782</v>
+        <v>-7050.1117745221891</v>
       </c>
       <c r="AM48" s="2">
-        <v>-737.43261546688223</v>
+        <v>-7076.0937288231653</v>
       </c>
       <c r="AN48" s="2">
-        <v>-739.54970981803137</v>
+        <v>-7102.1502746834631</v>
       </c>
       <c r="AO48" s="2">
-        <v>-741.67288213264135</v>
+        <v>-7128.2816262478937</v>
       </c>
       <c r="AP48" s="2">
-        <v>-743.80214985992973</v>
+        <v>-7154.4879982760594</v>
       </c>
       <c r="AQ48" s="2">
-        <v>-745.93753049920906</v>
+        <v>-7180.7696061441111</v>
       </c>
       <c r="AR48" s="2">
-        <v>-748.07904160003045</v>
+        <v>-7207.1266658465283</v>
       </c>
       <c r="AS48" s="2">
-        <v>-750.22670076232805</v>
+        <v>-7233.5593939978844</v>
       </c>
       <c r="AT48" s="2">
-        <v>-752.38052563656368</v>
+        <v>-7260.0680078346304</v>
       </c>
       <c r="AU48" s="2">
-        <v>-754.54053392387198</v>
+        <v>-7286.6527252168871</v>
       </c>
       <c r="AV48" s="2">
-        <v>-756.7067433762054</v>
+        <v>-7313.3137646302202</v>
       </c>
       <c r="AW48" s="2">
-        <v>-758.8791717964807</v>
+        <v>-7340.0513451874558</v>
       </c>
       <c r="AX48" s="2">
-        <v>-761.05783703872521</v>
+        <v>-7366.8656866304646</v>
       </c>
       <c r="AY48" s="2">
-        <v>-763.24275700822307</v>
+        <v>-7393.7570093319773</v>
       </c>
       <c r="AZ48" s="2">
-        <v>-765.4339496616625</v>
+        <v>-7420.7255342973858</v>
       </c>
       <c r="BA48" s="2">
-        <v>-767.63143300728393</v>
+        <v>-7447.7714831665726</v>
       </c>
       <c r="BB48" s="2">
-        <v>-769.83522510502746</v>
+        <v>-7474.8950782157244</v>
       </c>
       <c r="BC48" s="2">
-        <v>-772.04534406668165</v>
+        <v>-7502.0965423591588</v>
       </c>
       <c r="BD48" s="2">
-        <v>-774.26180805603167</v>
+        <v>-7529.3760991511608</v>
       </c>
       <c r="BE48" s="2">
-        <v>-776.4846352890097</v>
+        <v>-7556.7339727878134</v>
       </c>
       <c r="BF48" s="2">
-        <v>-778.71384403384366</v>
+        <v>-7584.1703881088451</v>
       </c>
       <c r="BG48" s="2">
-        <v>-780.94945261120768</v>
+        <v>-7611.6855705994803</v>
       </c>
       <c r="BH48" s="2">
-        <v>-783.19147939437278</v>
+        <v>-7639.2797463922816</v>
       </c>
       <c r="BI48" s="2">
-        <v>-785.43994280935783</v>
+        <v>-7666.9531422690197</v>
       </c>
       <c r="BJ48" s="2">
-        <v>-787.69486133508087</v>
+        <v>-7694.7059856625347</v>
       </c>
       <c r="BK48" s="2">
-        <v>-789.95625350351111</v>
+        <v>-7722.5385046585998</v>
       </c>
       <c r="BL48" s="2">
-        <v>-792.2241378998209</v>
+        <v>-7750.4509279977956</v>
       </c>
       <c r="BM48" s="2">
-        <v>-794.49853316253905</v>
+        <v>-7778.4434850774051</v>
       </c>
       <c r="BN48" s="2">
-        <v>-796.77945798370365</v>
+        <v>-7806.5164059532763</v>
       </c>
       <c r="BO48" s="2">
-        <v>-799.06693110901563</v>
+        <v>-7834.6699213417323</v>
       </c>
       <c r="BP48" s="2">
-        <v>-801.36097133799308</v>
+        <v>-7862.9042626214541</v>
       </c>
       <c r="BQ48" s="2">
-        <v>-803.66159752412534</v>
+        <v>-7891.2196618353901</v>
       </c>
       <c r="BR48" s="2">
-        <v>-805.96882857502851</v>
+        <v>-7919.616351692659</v>
       </c>
       <c r="BS48" s="2">
-        <v>-808.28268345260028</v>
+        <v>-7948.0945655704654</v>
       </c>
       <c r="BT48" s="2">
-        <v>-810.60318117317604</v>
+        <v>-7976.6545375160149</v>
       </c>
       <c r="BU48" s="2">
-        <v>-812.93034080768575</v>
+        <v>-8005.2965022484404</v>
       </c>
     </row>
     <row r="49" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2">
-        <v>-3186.3580041599998</v>
+        <v>-690.37756756800002</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2">
-        <v>-3186.3580041599998</v>
+        <v>-690.37756756800002</v>
       </c>
       <c r="G49" s="12">
-        <v>-172</v>
+        <v>-37.22</v>
       </c>
       <c r="H49" s="2">
-        <v>-3186.3580041599998</v>
+        <v>-690.37756756800002</v>
       </c>
       <c r="I49" s="12">
-        <v>-344.92</v>
+        <v>-74.73</v>
       </c>
       <c r="J49" s="2">
-        <v>-3195.5057152726622</v>
-      </c>
-      <c r="K49" s="12">
-        <v>-832.15</v>
-      </c>
+        <v>-692.35957164241017</v>
+      </c>
+      <c r="K49" s="12"/>
       <c r="L49" s="2">
-        <v>-3204.6796885374406</v>
+        <v>-694.34726584977886</v>
       </c>
       <c r="M49" s="12">
-        <v>-570.89</v>
+        <v>-629.34</v>
       </c>
       <c r="N49" s="2">
-        <v>-3213.8799993503139</v>
+        <v>-696.34066652590138</v>
       </c>
       <c r="O49" s="12"/>
       <c r="P49" s="2">
-        <v>-3223.106723323715</v>
+        <v>-698.33979005347157</v>
       </c>
       <c r="Q49" s="12"/>
       <c r="R49" s="2">
-        <v>-3232.3599362871523</v>
-      </c>
-      <c r="S49" s="12">
-        <v>-1407.76</v>
-      </c>
+        <v>-700.34465286221644</v>
+      </c>
+      <c r="S49" s="12"/>
       <c r="T49" s="2">
-        <v>-3241.6397142878341</v>
+        <v>-702.35527142903072</v>
       </c>
       <c r="U49" s="12">
-        <v>-2722.04</v>
+        <v>-614.35</v>
       </c>
       <c r="V49" s="2">
-        <v>-3250.9461335912911</v>
-      </c>
-      <c r="W49" s="12"/>
+        <v>-704.37166227811304</v>
+      </c>
+      <c r="W49" s="12">
+        <v>-350.35</v>
+      </c>
       <c r="X49" s="2">
-        <v>-3260.2792706820051</v>
+        <v>-706.3938419811011</v>
       </c>
       <c r="Y49" s="2">
-        <v>-3269.6392022640384</v>
+        <v>-708.42182715720833</v>
       </c>
       <c r="Z49" s="2">
-        <v>-3279.0260052616613</v>
+        <v>-710.45563447335996</v>
       </c>
       <c r="AA49" s="2">
-        <v>-3288.4397568199856</v>
+        <v>-712.49528064433025</v>
       </c>
       <c r="AB49" s="2">
-        <v>-3297.8805343056015</v>
+        <v>-714.54078243288029</v>
       </c>
       <c r="AC49" s="2">
-        <v>-3307.3484153072072</v>
+        <v>-716.59215664989483</v>
       </c>
       <c r="AD49" s="2">
-        <v>-3316.8434776362528</v>
+        <v>-718.64942015452141</v>
       </c>
       <c r="AE49" s="2">
-        <v>-3326.365799327576</v>
+        <v>-720.71258985430813</v>
       </c>
       <c r="AF49" s="2">
-        <v>-3335.9154586400459</v>
+        <v>-722.78168270534331</v>
       </c>
       <c r="AG49" s="2">
-        <v>-3345.4925340572045</v>
+        <v>-724.85671571239425</v>
       </c>
       <c r="AH49" s="2">
-        <v>-3355.0971042879096</v>
+        <v>-726.93770592904707</v>
       </c>
       <c r="AI49" s="2">
-        <v>-3364.7292482669877</v>
+        <v>-729.02467045784726</v>
       </c>
       <c r="AJ49" s="2">
-        <v>-3374.3890451558768</v>
+        <v>-731.11762645043996</v>
       </c>
       <c r="AK49" s="2">
-        <v>-3384.0765743432812</v>
+        <v>-733.216591107711</v>
       </c>
       <c r="AL49" s="2">
-        <v>-3393.7919154458209</v>
+        <v>-735.32158167992782</v>
       </c>
       <c r="AM49" s="2">
-        <v>-3403.535148308687</v>
+        <v>-737.43261546688223</v>
       </c>
       <c r="AN49" s="2">
-        <v>-3413.3063530062987</v>
+        <v>-739.54970981803137</v>
       </c>
       <c r="AO49" s="2">
-        <v>-3423.1056098429603</v>
+        <v>-741.67288213264135</v>
       </c>
       <c r="AP49" s="2">
-        <v>-3432.9329993535216</v>
+        <v>-743.80214985992973</v>
       </c>
       <c r="AQ49" s="2">
-        <v>-3442.7886023040419</v>
+        <v>-745.93753049920906</v>
       </c>
       <c r="AR49" s="2">
-        <v>-3452.6724996924481</v>
+        <v>-748.07904160003045</v>
       </c>
       <c r="AS49" s="2">
-        <v>-3462.5847727492064</v>
+        <v>-750.22670076232805</v>
       </c>
       <c r="AT49" s="2">
-        <v>-3472.5255029379864</v>
+        <v>-752.38052563656368</v>
       </c>
       <c r="AU49" s="2">
-        <v>-3482.494771956332</v>
+        <v>-754.54053392387198</v>
       </c>
       <c r="AV49" s="2">
-        <v>-3492.4926617363326</v>
+        <v>-756.7067433762054</v>
       </c>
       <c r="AW49" s="2">
-        <v>-3502.5192544452957</v>
+        <v>-758.8791717964807</v>
       </c>
       <c r="AX49" s="2">
-        <v>-3512.574632486424</v>
+        <v>-761.05783703872521</v>
       </c>
       <c r="AY49" s="2">
-        <v>-3522.658878499491</v>
+        <v>-763.24275700822307</v>
       </c>
       <c r="AZ49" s="2">
-        <v>-3532.7720753615195</v>
+        <v>-765.4339496616625</v>
       </c>
       <c r="BA49" s="2">
-        <v>-3542.9143061874643</v>
+        <v>-767.63143300728393</v>
       </c>
       <c r="BB49" s="2">
-        <v>-3553.0856543308964</v>
+        <v>-769.83522510502746</v>
       </c>
       <c r="BC49" s="2">
-        <v>-3563.2862033846845</v>
+        <v>-772.04534406668165</v>
       </c>
       <c r="BD49" s="2">
-        <v>-3573.5160371816846</v>
+        <v>-774.26180805603167</v>
       </c>
       <c r="BE49" s="2">
-        <v>-3583.7752397954296</v>
+        <v>-776.4846352890097</v>
       </c>
       <c r="BF49" s="2">
-        <v>-3594.0638955408172</v>
+        <v>-778.71384403384366</v>
       </c>
       <c r="BG49" s="2">
-        <v>-3604.3820889748049</v>
+        <v>-780.94945261120768</v>
       </c>
       <c r="BH49" s="2">
-        <v>-3614.7299048971054</v>
+        <v>-783.19147939437278</v>
       </c>
       <c r="BI49" s="2">
-        <v>-3625.1074283508824</v>
+        <v>-785.43994280935783</v>
       </c>
       <c r="BJ49" s="2">
-        <v>-3635.51474462345</v>
+        <v>-787.69486133508087</v>
       </c>
       <c r="BK49" s="2">
-        <v>-3645.9519392469742</v>
+        <v>-789.95625350351111</v>
       </c>
       <c r="BL49" s="2">
-        <v>-3656.4190979991736</v>
+        <v>-792.2241378998209</v>
       </c>
       <c r="BM49" s="2">
-        <v>-3666.9163069040264</v>
+        <v>-794.49853316253905</v>
       </c>
       <c r="BN49" s="2">
-        <v>-3677.4436522324781</v>
+        <v>-796.77945798370365</v>
       </c>
       <c r="BO49" s="2">
-        <v>-3688.0012205031494</v>
+        <v>-799.06693110901563</v>
       </c>
       <c r="BP49" s="2">
-        <v>-3698.5890984830453</v>
+        <v>-801.36097133799308</v>
       </c>
       <c r="BQ49" s="2">
-        <v>-3709.2073731882706</v>
+        <v>-803.66159752412534</v>
       </c>
       <c r="BR49" s="2">
-        <v>-3719.8561318847469</v>
+        <v>-805.96882857502851</v>
       </c>
       <c r="BS49" s="2">
-        <v>-3730.5354620889243</v>
+        <v>-808.28268345260028</v>
       </c>
       <c r="BT49" s="2">
-        <v>-3741.2454515685049</v>
+        <v>-810.60318117317604</v>
       </c>
       <c r="BU49" s="2">
-        <v>-3751.9861883431649</v>
-      </c>
-      <c r="BV49" s="2"/>
-      <c r="BW49" s="2"/>
+        <v>-812.93034080768575</v>
+      </c>
     </row>
     <row r="50" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="6"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="D50" s="2">
+        <v>-3186.3580041599998</v>
+      </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="2"/>
+      <c r="F50" s="2">
+        <v>-3186.3580041599998</v>
+      </c>
+      <c r="G50" s="12">
+        <v>-172</v>
+      </c>
+      <c r="H50" s="2">
+        <v>-3186.3580041599998</v>
+      </c>
+      <c r="I50" s="12">
+        <v>-344.92</v>
+      </c>
+      <c r="J50" s="2">
+        <v>-3195.5057152726622</v>
+      </c>
+      <c r="K50" s="12">
+        <v>-832.15</v>
+      </c>
+      <c r="L50" s="2">
+        <v>-3204.6796885374406</v>
+      </c>
+      <c r="M50" s="12">
+        <v>-570.89</v>
+      </c>
+      <c r="N50" s="2">
+        <v>-3213.8799993503139</v>
+      </c>
       <c r="O50" s="12"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
-      <c r="AB50" s="2"/>
-      <c r="AC50" s="2"/>
-      <c r="AD50" s="2"/>
-      <c r="AE50" s="2"/>
-      <c r="AF50" s="2"/>
-      <c r="AG50" s="2"/>
-      <c r="AH50" s="2"/>
-      <c r="AI50" s="2"/>
-      <c r="AJ50" s="2"/>
-      <c r="AK50" s="2"/>
-      <c r="AL50" s="2"/>
-      <c r="AM50" s="2"/>
-      <c r="AN50" s="2"/>
-      <c r="AO50" s="2"/>
-      <c r="AP50" s="2"/>
-      <c r="AQ50" s="2"/>
-      <c r="AR50" s="2"/>
-      <c r="AS50" s="2"/>
-      <c r="AT50" s="2"/>
-      <c r="AU50" s="2"/>
-      <c r="AV50" s="2"/>
-      <c r="AW50" s="2"/>
-      <c r="AX50" s="2"/>
-      <c r="AY50" s="2"/>
-      <c r="AZ50" s="2"/>
-      <c r="BA50" s="2"/>
-      <c r="BB50" s="2"/>
-      <c r="BC50" s="2"/>
-      <c r="BD50" s="2"/>
-      <c r="BE50" s="2"/>
-      <c r="BF50" s="2"/>
-      <c r="BG50" s="2"/>
-      <c r="BH50" s="2"/>
-      <c r="BI50" s="2"/>
-      <c r="BJ50" s="2"/>
-      <c r="BK50" s="2"/>
-      <c r="BL50" s="2"/>
-      <c r="BM50" s="2"/>
-      <c r="BN50" s="2"/>
-      <c r="BO50" s="2"/>
-      <c r="BP50" s="2"/>
-      <c r="BQ50" s="2"/>
-      <c r="BR50" s="2"/>
-      <c r="BS50" s="2"/>
-      <c r="BT50" s="2"/>
-      <c r="BU50" s="2"/>
+      <c r="P50" s="2">
+        <v>-3223.106723323715</v>
+      </c>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="2">
+        <v>-3232.3599362871523</v>
+      </c>
+      <c r="S50" s="12">
+        <v>-1407.76</v>
+      </c>
+      <c r="T50" s="2">
+        <v>-3241.6397142878341</v>
+      </c>
+      <c r="U50" s="12">
+        <v>-2722.04</v>
+      </c>
+      <c r="V50" s="2">
+        <v>-3250.9461335912911</v>
+      </c>
+      <c r="W50" s="12"/>
+      <c r="X50" s="2">
+        <v>-3260.2792706820051</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>-3269.6392022640384</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>-3279.0260052616613</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>-3288.4397568199856</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>-3297.8805343056015</v>
+      </c>
+      <c r="AC50" s="2">
+        <v>-3307.3484153072072</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>-3316.8434776362528</v>
+      </c>
+      <c r="AE50" s="2">
+        <v>-3326.365799327576</v>
+      </c>
+      <c r="AF50" s="2">
+        <v>-3335.9154586400459</v>
+      </c>
+      <c r="AG50" s="2">
+        <v>-3345.4925340572045</v>
+      </c>
+      <c r="AH50" s="2">
+        <v>-3355.0971042879096</v>
+      </c>
+      <c r="AI50" s="2">
+        <v>-3364.7292482669877</v>
+      </c>
+      <c r="AJ50" s="2">
+        <v>-3374.3890451558768</v>
+      </c>
+      <c r="AK50" s="2">
+        <v>-3384.0765743432812</v>
+      </c>
+      <c r="AL50" s="2">
+        <v>-3393.7919154458209</v>
+      </c>
+      <c r="AM50" s="2">
+        <v>-3403.535148308687</v>
+      </c>
+      <c r="AN50" s="2">
+        <v>-3413.3063530062987</v>
+      </c>
+      <c r="AO50" s="2">
+        <v>-3423.1056098429603</v>
+      </c>
+      <c r="AP50" s="2">
+        <v>-3432.9329993535216</v>
+      </c>
+      <c r="AQ50" s="2">
+        <v>-3442.7886023040419</v>
+      </c>
+      <c r="AR50" s="2">
+        <v>-3452.6724996924481</v>
+      </c>
+      <c r="AS50" s="2">
+        <v>-3462.5847727492064</v>
+      </c>
+      <c r="AT50" s="2">
+        <v>-3472.5255029379864</v>
+      </c>
+      <c r="AU50" s="2">
+        <v>-3482.494771956332</v>
+      </c>
+      <c r="AV50" s="2">
+        <v>-3492.4926617363326</v>
+      </c>
+      <c r="AW50" s="2">
+        <v>-3502.5192544452957</v>
+      </c>
+      <c r="AX50" s="2">
+        <v>-3512.574632486424</v>
+      </c>
+      <c r="AY50" s="2">
+        <v>-3522.658878499491</v>
+      </c>
+      <c r="AZ50" s="2">
+        <v>-3532.7720753615195</v>
+      </c>
+      <c r="BA50" s="2">
+        <v>-3542.9143061874643</v>
+      </c>
+      <c r="BB50" s="2">
+        <v>-3553.0856543308964</v>
+      </c>
+      <c r="BC50" s="2">
+        <v>-3563.2862033846845</v>
+      </c>
+      <c r="BD50" s="2">
+        <v>-3573.5160371816846</v>
+      </c>
+      <c r="BE50" s="2">
+        <v>-3583.7752397954296</v>
+      </c>
+      <c r="BF50" s="2">
+        <v>-3594.0638955408172</v>
+      </c>
+      <c r="BG50" s="2">
+        <v>-3604.3820889748049</v>
+      </c>
+      <c r="BH50" s="2">
+        <v>-3614.7299048971054</v>
+      </c>
+      <c r="BI50" s="2">
+        <v>-3625.1074283508824</v>
+      </c>
+      <c r="BJ50" s="2">
+        <v>-3635.51474462345</v>
+      </c>
+      <c r="BK50" s="2">
+        <v>-3645.9519392469742</v>
+      </c>
+      <c r="BL50" s="2">
+        <v>-3656.4190979991736</v>
+      </c>
+      <c r="BM50" s="2">
+        <v>-3666.9163069040264</v>
+      </c>
+      <c r="BN50" s="2">
+        <v>-3677.4436522324781</v>
+      </c>
+      <c r="BO50" s="2">
+        <v>-3688.0012205031494</v>
+      </c>
+      <c r="BP50" s="2">
+        <v>-3698.5890984830453</v>
+      </c>
+      <c r="BQ50" s="2">
+        <v>-3709.2073731882706</v>
+      </c>
+      <c r="BR50" s="2">
+        <v>-3719.8561318847469</v>
+      </c>
+      <c r="BS50" s="2">
+        <v>-3730.5354620889243</v>
+      </c>
+      <c r="BT50" s="2">
+        <v>-3741.2454515685049</v>
+      </c>
+      <c r="BU50" s="2">
+        <v>-3751.9861883431649</v>
+      </c>
       <c r="BV50" s="2"/>
       <c r="BW50" s="2"/>
     </row>
@@ -7540,10 +7765,85 @@
       <c r="BS51" s="2"/>
       <c r="BT51" s="2"/>
       <c r="BU51" s="2"/>
+      <c r="BV51" s="2"/>
+      <c r="BW51" s="2"/>
+    </row>
+    <row r="52" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="2"/>
+      <c r="AK52" s="2"/>
+      <c r="AL52" s="2"/>
+      <c r="AM52" s="2"/>
+      <c r="AN52" s="2"/>
+      <c r="AO52" s="2"/>
+      <c r="AP52" s="2"/>
+      <c r="AQ52" s="2"/>
+      <c r="AR52" s="2"/>
+      <c r="AS52" s="2"/>
+      <c r="AT52" s="2"/>
+      <c r="AU52" s="2"/>
+      <c r="AV52" s="2"/>
+      <c r="AW52" s="2"/>
+      <c r="AX52" s="2"/>
+      <c r="AY52" s="2"/>
+      <c r="AZ52" s="2"/>
+      <c r="BA52" s="2"/>
+      <c r="BB52" s="2"/>
+      <c r="BC52" s="2"/>
+      <c r="BD52" s="2"/>
+      <c r="BE52" s="2"/>
+      <c r="BF52" s="2"/>
+      <c r="BG52" s="2"/>
+      <c r="BH52" s="2"/>
+      <c r="BI52" s="2"/>
+      <c r="BJ52" s="2"/>
+      <c r="BK52" s="2"/>
+      <c r="BL52" s="2"/>
+      <c r="BM52" s="2"/>
+      <c r="BN52" s="2"/>
+      <c r="BO52" s="2"/>
+      <c r="BP52" s="2"/>
+      <c r="BQ52" s="2"/>
+      <c r="BR52" s="2"/>
+      <c r="BS52" s="2"/>
+      <c r="BT52" s="2"/>
+      <c r="BU52" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:BW31">
-    <sortCondition ref="A18:A31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:BW32">
+    <sortCondition ref="A18:A32"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B2:B3"/>

--- a/Energy - Orçado x Realizado.xlsx
+++ b/Energy - Orçado x Realizado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Controle Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB18391E-16E0-4782-9A28-619AEC21D9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB5FB29-CD0F-49B6-85B8-01ACB8F0F443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30060" yWindow="705" windowWidth="26805" windowHeight="15405" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>Receita Bruta</t>
   </si>
@@ -169,16 +169,21 @@
   <si>
     <t>OPEX OPERACIONAL</t>
   </si>
+  <si>
+    <t>INSTALAÇÕES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\);\-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\);\-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +261,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -286,10 +298,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,9 +357,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -678,13 +693,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E0C361-DC00-4C96-A388-FAD64E248995}">
-  <dimension ref="A1:BW52"/>
+  <dimension ref="A1:BX55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -701,10 +716,10 @@
     <col min="13" max="13" width="11.7109375" style="13" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="11.7109375" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="11.7109375" style="13" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="73" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="74" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
       <c r="C1" s="16" t="s">
         <v>22</v>
       </c>
@@ -768,13 +783,15 @@
       <c r="W1" s="16" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B3" s="24"/>
       <c r="C3" s="15">
         <v>45566</v>
@@ -840,162 +857,165 @@
         <v>45870</v>
       </c>
       <c r="X3" s="15">
-        <v>46204</v>
+        <v>45962</v>
       </c>
       <c r="Y3" s="15">
+        <v>45962</v>
+      </c>
+      <c r="Z3" s="15">
         <v>46235</v>
       </c>
-      <c r="Z3" s="15">
+      <c r="AA3" s="15">
         <v>46266</v>
       </c>
-      <c r="AA3" s="15">
+      <c r="AB3" s="15">
         <v>46296</v>
       </c>
-      <c r="AB3" s="15">
+      <c r="AC3" s="15">
         <v>46327</v>
       </c>
-      <c r="AC3" s="15">
+      <c r="AD3" s="15">
         <v>46357</v>
       </c>
-      <c r="AD3" s="15">
+      <c r="AE3" s="15">
         <v>46388</v>
       </c>
-      <c r="AE3" s="15">
+      <c r="AF3" s="15">
         <v>46419</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AG3" s="15">
         <v>46447</v>
       </c>
-      <c r="AG3" s="15">
+      <c r="AH3" s="15">
         <v>46478</v>
       </c>
-      <c r="AH3" s="15">
+      <c r="AI3" s="15">
         <v>46508</v>
       </c>
-      <c r="AI3" s="15">
+      <c r="AJ3" s="15">
         <v>46539</v>
       </c>
-      <c r="AJ3" s="15">
+      <c r="AK3" s="15">
         <v>46569</v>
       </c>
-      <c r="AK3" s="15">
+      <c r="AL3" s="15">
         <v>46600</v>
       </c>
-      <c r="AL3" s="15">
+      <c r="AM3" s="15">
         <v>46631</v>
       </c>
-      <c r="AM3" s="15">
+      <c r="AN3" s="15">
         <v>46661</v>
       </c>
-      <c r="AN3" s="15">
+      <c r="AO3" s="15">
         <v>46692</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AP3" s="15">
         <v>46722</v>
       </c>
-      <c r="AP3" s="15">
+      <c r="AQ3" s="15">
         <v>46753</v>
       </c>
-      <c r="AQ3" s="15">
+      <c r="AR3" s="15">
         <v>46784</v>
       </c>
-      <c r="AR3" s="15">
+      <c r="AS3" s="15">
         <v>46813</v>
       </c>
-      <c r="AS3" s="15">
+      <c r="AT3" s="15">
         <v>46844</v>
       </c>
-      <c r="AT3" s="15">
+      <c r="AU3" s="15">
         <v>46874</v>
       </c>
-      <c r="AU3" s="15">
+      <c r="AV3" s="15">
         <v>46905</v>
       </c>
-      <c r="AV3" s="15">
+      <c r="AW3" s="15">
         <v>46935</v>
       </c>
-      <c r="AW3" s="15">
+      <c r="AX3" s="15">
         <v>46966</v>
       </c>
-      <c r="AX3" s="15">
+      <c r="AY3" s="15">
         <v>46997</v>
       </c>
-      <c r="AY3" s="15">
+      <c r="AZ3" s="15">
         <v>47027</v>
       </c>
-      <c r="AZ3" s="15">
+      <c r="BA3" s="15">
         <v>47058</v>
       </c>
-      <c r="BA3" s="15">
+      <c r="BB3" s="15">
         <v>47088</v>
       </c>
-      <c r="BB3" s="15">
+      <c r="BC3" s="15">
         <v>47119</v>
       </c>
-      <c r="BC3" s="15">
+      <c r="BD3" s="15">
         <v>47150</v>
       </c>
-      <c r="BD3" s="15">
+      <c r="BE3" s="15">
         <v>47178</v>
       </c>
-      <c r="BE3" s="15">
+      <c r="BF3" s="15">
         <v>47209</v>
       </c>
-      <c r="BF3" s="15">
+      <c r="BG3" s="15">
         <v>47239</v>
       </c>
-      <c r="BG3" s="15">
+      <c r="BH3" s="15">
         <v>47270</v>
       </c>
-      <c r="BH3" s="15">
+      <c r="BI3" s="15">
         <v>47300</v>
       </c>
-      <c r="BI3" s="15">
+      <c r="BJ3" s="15">
         <v>47331</v>
       </c>
-      <c r="BJ3" s="15">
+      <c r="BK3" s="15">
         <v>47362</v>
       </c>
-      <c r="BK3" s="15">
+      <c r="BL3" s="15">
         <v>47392</v>
       </c>
-      <c r="BL3" s="15">
+      <c r="BM3" s="15">
         <v>47423</v>
       </c>
-      <c r="BM3" s="15">
+      <c r="BN3" s="15">
         <v>47453</v>
       </c>
-      <c r="BN3" s="15">
+      <c r="BO3" s="15">
         <v>47484</v>
       </c>
-      <c r="BO3" s="15">
+      <c r="BP3" s="15">
         <v>47515</v>
       </c>
-      <c r="BP3" s="15">
+      <c r="BQ3" s="15">
         <v>47543</v>
       </c>
-      <c r="BQ3" s="15">
+      <c r="BR3" s="15">
         <v>47574</v>
       </c>
-      <c r="BR3" s="15">
+      <c r="BS3" s="15">
         <v>47604</v>
       </c>
-      <c r="BS3" s="15">
+      <c r="BT3" s="15">
         <v>47635</v>
       </c>
-      <c r="BT3" s="15">
+      <c r="BU3" s="15">
         <v>47665</v>
       </c>
-      <c r="BU3" s="15">
+      <c r="BV3" s="15">
         <v>47696</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="9">
-        <f>SUM(C4:BU4)</f>
+        <f>SUM(C4:BV4)</f>
         <v>11193527.343598809</v>
       </c>
       <c r="C4" s="7">
@@ -1007,7 +1027,7 @@
         <v>2006615.5435777036</v>
       </c>
       <c r="E4" s="7">
-        <f t="shared" ref="E4:BP4" si="0">E5+E8</f>
+        <f t="shared" ref="E4:BQ4" si="0">E5+E8</f>
         <v>0</v>
       </c>
       <c r="F4" s="7">
@@ -1087,203 +1107,207 @@
         <v>110275.34581702357</v>
       </c>
       <c r="Y4" s="7">
+        <f t="shared" ref="Y4" si="1">Y5+Y8</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="7">
         <f t="shared" si="0"/>
         <v>110997.94907147787</v>
       </c>
-      <c r="Z4" s="7">
+      <c r="AA4" s="7">
         <f t="shared" si="0"/>
         <v>111500.81807781129</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AB4" s="7">
         <f t="shared" si="0"/>
         <v>112231.19461044938</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AC4" s="7">
         <f t="shared" si="0"/>
         <v>112955.55421269746</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AD4" s="7">
         <f t="shared" si="0"/>
         <v>113488.68408053627</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AE4" s="7">
         <f t="shared" si="0"/>
         <v>114022.34594505926</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AF4" s="7">
         <f t="shared" si="0"/>
         <v>114557.3798253882</v>
       </c>
-      <c r="AF4" s="7">
+      <c r="AG4" s="7">
         <f t="shared" si="0"/>
         <v>115093.79314638168</v>
       </c>
-      <c r="AG4" s="7">
+      <c r="AH4" s="7">
         <f t="shared" si="0"/>
         <v>115631.58971258732</v>
       </c>
-      <c r="AH4" s="7">
+      <c r="AI4" s="7">
         <f t="shared" si="0"/>
         <v>116170.77332340677</v>
       </c>
-      <c r="AI4" s="7">
+      <c r="AJ4" s="7">
         <f t="shared" si="0"/>
         <v>116711.34778889181</v>
       </c>
-      <c r="AJ4" s="7">
+      <c r="AK4" s="7">
         <f t="shared" si="0"/>
         <v>117253.31692984366</v>
       </c>
-      <c r="AK4" s="7">
+      <c r="AL4" s="7">
         <f t="shared" si="0"/>
         <v>117796.68457784381</v>
       </c>
-      <c r="AL4" s="7">
+      <c r="AM4" s="7">
         <f t="shared" si="0"/>
         <v>118295.08799702271</v>
       </c>
-      <c r="AM4" s="7">
+      <c r="AN4" s="7">
         <f t="shared" si="0"/>
         <v>118841.05812756054</v>
       </c>
-      <c r="AN4" s="7">
+      <c r="AO4" s="7">
         <f t="shared" si="0"/>
         <v>119388.63976029815</v>
       </c>
-      <c r="AO4" s="7">
+      <c r="AP4" s="7">
         <f t="shared" si="0"/>
         <v>119937.6363443998</v>
       </c>
-      <c r="AP4" s="7">
+      <c r="AQ4" s="7">
         <f t="shared" si="0"/>
         <v>120488.05089229152</v>
       </c>
-      <c r="AQ4" s="7">
+      <c r="AR4" s="7">
         <f t="shared" si="0"/>
         <v>121039.88729760991</v>
       </c>
-      <c r="AR4" s="7">
+      <c r="AS4" s="7">
         <f t="shared" si="0"/>
         <v>121593.14946878582</v>
       </c>
-      <c r="AS4" s="7">
+      <c r="AT4" s="7">
         <f t="shared" si="0"/>
         <v>122147.84132529711</v>
       </c>
-      <c r="AT4" s="7">
+      <c r="AU4" s="7">
         <f t="shared" si="0"/>
         <v>122703.96679768368</v>
       </c>
-      <c r="AU4" s="7">
+      <c r="AV4" s="7">
         <f t="shared" si="0"/>
         <v>123261.52982757895</v>
       </c>
-      <c r="AV4" s="7">
+      <c r="AW4" s="7">
         <f t="shared" si="0"/>
         <v>123820.53436774146</v>
       </c>
-      <c r="AW4" s="7">
+      <c r="AX4" s="7">
         <f t="shared" si="0"/>
         <v>124380.98438208665</v>
       </c>
-      <c r="AX4" s="7">
+      <c r="AY4" s="7">
         <f t="shared" si="0"/>
         <v>124894.89443721721</v>
       </c>
-      <c r="AY4" s="7">
+      <c r="AZ4" s="7">
         <f t="shared" si="0"/>
         <v>125458.03405444659</v>
       </c>
-      <c r="AZ4" s="7">
+      <c r="BA4" s="7">
         <f t="shared" si="0"/>
         <v>126022.83959052119</v>
       </c>
-      <c r="BA4" s="7">
+      <c r="BB4" s="7">
         <f t="shared" si="0"/>
         <v>126589.10761355137</v>
       </c>
-      <c r="BB4" s="7">
+      <c r="BC4" s="7">
         <f t="shared" si="0"/>
         <v>127156.84123962262</v>
       </c>
-      <c r="BC4" s="7">
+      <c r="BD4" s="7">
         <f t="shared" si="0"/>
         <v>127726.04449687258</v>
       </c>
-      <c r="BD4" s="7">
+      <c r="BE4" s="7">
         <f t="shared" si="0"/>
         <v>128296.72142875013</v>
       </c>
-      <c r="BE4" s="7">
+      <c r="BF4" s="7">
         <f t="shared" si="0"/>
         <v>128868.87609013708</v>
       </c>
-      <c r="BF4" s="7">
+      <c r="BG4" s="7">
         <f t="shared" si="0"/>
         <v>129442.51254736367</v>
       </c>
-      <c r="BG4" s="7">
+      <c r="BH4" s="7">
         <f t="shared" si="0"/>
         <v>129968.9979181941</v>
       </c>
-      <c r="BH4" s="7">
+      <c r="BI4" s="7">
         <f t="shared" si="0"/>
         <v>130478.76360789448</v>
       </c>
-      <c r="BI4" s="7">
+      <c r="BJ4" s="7">
         <f t="shared" si="0"/>
         <v>130989.42291756609</v>
       </c>
-      <c r="BJ4" s="7">
+      <c r="BK4" s="7">
         <f t="shared" si="0"/>
         <v>131501.07479386276</v>
       </c>
-      <c r="BK4" s="7">
+      <c r="BL4" s="7">
         <f t="shared" si="0"/>
         <v>132013.72261231358</v>
       </c>
-      <c r="BL4" s="7">
+      <c r="BM4" s="7">
         <f t="shared" si="0"/>
         <v>132527.36923503783</v>
       </c>
-      <c r="BM4" s="7">
+      <c r="BN4" s="7">
         <f t="shared" si="0"/>
         <v>133042.01752951712</v>
       </c>
-      <c r="BN4" s="7">
+      <c r="BO4" s="7">
         <f t="shared" si="0"/>
         <v>133557.67037144973</v>
       </c>
-      <c r="BO4" s="7">
+      <c r="BP4" s="7">
         <f t="shared" si="0"/>
         <v>134074.33064478962</v>
       </c>
-      <c r="BP4" s="7">
+      <c r="BQ4" s="7">
         <f t="shared" si="0"/>
         <v>134592.00124177034</v>
       </c>
-      <c r="BQ4" s="7">
-        <f t="shared" ref="BQ4:BU4" si="1">BQ5+BQ8</f>
+      <c r="BR4" s="7">
+        <f t="shared" ref="BR4:BV4" si="2">BR5+BR8</f>
         <v>135110.68506292874</v>
       </c>
-      <c r="BR4" s="7">
-        <f t="shared" si="1"/>
+      <c r="BS4" s="7">
+        <f t="shared" si="2"/>
         <v>135630.38501712884</v>
       </c>
-      <c r="BS4" s="7">
-        <f t="shared" si="1"/>
+      <c r="BT4" s="7">
+        <f t="shared" si="2"/>
         <v>136151.1040215856</v>
       </c>
-      <c r="BT4" s="7">
-        <f t="shared" si="1"/>
+      <c r="BU4" s="7">
+        <f t="shared" si="2"/>
         <v>136672.84500188916</v>
       </c>
-      <c r="BU4" s="7">
-        <f t="shared" si="1"/>
+      <c r="BV4" s="7">
+        <f t="shared" si="2"/>
         <v>125066.2062781055</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
@@ -1296,283 +1320,287 @@
         <v>106615.54357770366</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" ref="E5:BP5" si="2">SUM(E6:E7)</f>
+        <f t="shared" ref="E5:BQ5" si="3">SUM(E6:E7)</f>
         <v>0</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106615.54357770366</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16376.69</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106593.93710049389</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106899.95749797703</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20916.34</v>
       </c>
       <c r="L5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>107206.85644902731</v>
       </c>
       <c r="M5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18116.34</v>
       </c>
       <c r="N5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>107514.63647588308</v>
       </c>
       <c r="O5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29064.35</v>
       </c>
       <c r="P5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>107823.30010802369</v>
       </c>
       <c r="Q5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>108132.84988219042</v>
       </c>
       <c r="S5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>89978.67</v>
       </c>
       <c r="T5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>108842.82003705943</v>
       </c>
       <c r="U5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51312.25</v>
       </c>
       <c r="V5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>109556.97743247374</v>
       </c>
       <c r="W5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>68758.320000000007</v>
       </c>
       <c r="X5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110275.34581702357</v>
       </c>
       <c r="Y5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Y5" si="4">SUM(Y6:Y7)</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7">
+        <f t="shared" si="3"/>
         <v>110997.94907147787</v>
       </c>
-      <c r="Z5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AA5" s="7">
+        <f t="shared" si="3"/>
         <v>111500.81807781129</v>
       </c>
-      <c r="AA5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AB5" s="7">
+        <f t="shared" si="3"/>
         <v>112231.19461044938</v>
       </c>
-      <c r="AB5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AC5" s="7">
+        <f t="shared" si="3"/>
         <v>112955.55421269746</v>
       </c>
-      <c r="AC5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AD5" s="7">
+        <f t="shared" si="3"/>
         <v>113488.68408053627</v>
       </c>
-      <c r="AD5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AE5" s="7">
+        <f t="shared" si="3"/>
         <v>114022.34594505926</v>
       </c>
-      <c r="AE5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AF5" s="7">
+        <f t="shared" si="3"/>
         <v>114557.3798253882</v>
       </c>
-      <c r="AF5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AG5" s="7">
+        <f t="shared" si="3"/>
         <v>115093.79314638168</v>
       </c>
-      <c r="AG5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AH5" s="7">
+        <f t="shared" si="3"/>
         <v>115631.58971258732</v>
       </c>
-      <c r="AH5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AI5" s="7">
+        <f t="shared" si="3"/>
         <v>116170.77332340677</v>
       </c>
-      <c r="AI5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AJ5" s="7">
+        <f t="shared" si="3"/>
         <v>116711.34778889181</v>
       </c>
-      <c r="AJ5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AK5" s="7">
+        <f t="shared" si="3"/>
         <v>117253.31692984366</v>
       </c>
-      <c r="AK5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AL5" s="7">
+        <f t="shared" si="3"/>
         <v>117796.68457784381</v>
       </c>
-      <c r="AL5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AM5" s="7">
+        <f t="shared" si="3"/>
         <v>118295.08799702271</v>
       </c>
-      <c r="AM5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AN5" s="7">
+        <f t="shared" si="3"/>
         <v>118841.05812756054</v>
       </c>
-      <c r="AN5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AO5" s="7">
+        <f t="shared" si="3"/>
         <v>119388.63976029815</v>
       </c>
-      <c r="AO5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AP5" s="7">
+        <f t="shared" si="3"/>
         <v>119937.6363443998</v>
       </c>
-      <c r="AP5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AQ5" s="7">
+        <f t="shared" si="3"/>
         <v>120488.05089229152</v>
       </c>
-      <c r="AQ5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AR5" s="7">
+        <f t="shared" si="3"/>
         <v>121039.88729760991</v>
       </c>
-      <c r="AR5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AS5" s="7">
+        <f t="shared" si="3"/>
         <v>121593.14946878582</v>
       </c>
-      <c r="AS5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AT5" s="7">
+        <f t="shared" si="3"/>
         <v>122147.84132529711</v>
       </c>
-      <c r="AT5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AU5" s="7">
+        <f t="shared" si="3"/>
         <v>122703.96679768368</v>
       </c>
-      <c r="AU5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AV5" s="7">
+        <f t="shared" si="3"/>
         <v>123261.52982757895</v>
       </c>
-      <c r="AV5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AW5" s="7">
+        <f t="shared" si="3"/>
         <v>123820.53436774146</v>
       </c>
-      <c r="AW5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AX5" s="7">
+        <f t="shared" si="3"/>
         <v>124380.98438208665</v>
       </c>
-      <c r="AX5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AY5" s="7">
+        <f t="shared" si="3"/>
         <v>124894.89443721721</v>
       </c>
-      <c r="AY5" s="7">
-        <f t="shared" si="2"/>
+      <c r="AZ5" s="7">
+        <f t="shared" si="3"/>
         <v>125458.03405444659</v>
       </c>
-      <c r="AZ5" s="7">
-        <f t="shared" si="2"/>
+      <c r="BA5" s="7">
+        <f t="shared" si="3"/>
         <v>126022.83959052119</v>
       </c>
-      <c r="BA5" s="7">
-        <f t="shared" si="2"/>
+      <c r="BB5" s="7">
+        <f t="shared" si="3"/>
         <v>126589.10761355137</v>
       </c>
-      <c r="BB5" s="7">
-        <f t="shared" si="2"/>
+      <c r="BC5" s="7">
+        <f t="shared" si="3"/>
         <v>127156.84123962262</v>
       </c>
-      <c r="BC5" s="7">
-        <f t="shared" si="2"/>
+      <c r="BD5" s="7">
+        <f t="shared" si="3"/>
         <v>127726.04449687258</v>
       </c>
-      <c r="BD5" s="7">
-        <f t="shared" si="2"/>
+      <c r="BE5" s="7">
+        <f t="shared" si="3"/>
         <v>128296.72142875013</v>
       </c>
-      <c r="BE5" s="7">
-        <f t="shared" si="2"/>
+      <c r="BF5" s="7">
+        <f t="shared" si="3"/>
         <v>128868.87609013708</v>
       </c>
-      <c r="BF5" s="7">
-        <f t="shared" si="2"/>
+      <c r="BG5" s="7">
+        <f t="shared" si="3"/>
         <v>129442.51254736367</v>
       </c>
-      <c r="BG5" s="7">
-        <f t="shared" si="2"/>
+      <c r="BH5" s="7">
+        <f t="shared" si="3"/>
         <v>129968.9979181941</v>
       </c>
-      <c r="BH5" s="7">
-        <f t="shared" si="2"/>
+      <c r="BI5" s="7">
+        <f t="shared" si="3"/>
         <v>130478.76360789448</v>
       </c>
-      <c r="BI5" s="7">
-        <f t="shared" si="2"/>
+      <c r="BJ5" s="7">
+        <f t="shared" si="3"/>
         <v>130989.42291756609</v>
       </c>
-      <c r="BJ5" s="7">
-        <f t="shared" si="2"/>
+      <c r="BK5" s="7">
+        <f t="shared" si="3"/>
         <v>131501.07479386276</v>
       </c>
-      <c r="BK5" s="7">
-        <f t="shared" si="2"/>
+      <c r="BL5" s="7">
+        <f t="shared" si="3"/>
         <v>132013.72261231358</v>
       </c>
-      <c r="BL5" s="7">
-        <f t="shared" si="2"/>
+      <c r="BM5" s="7">
+        <f t="shared" si="3"/>
         <v>132527.36923503783</v>
       </c>
-      <c r="BM5" s="7">
-        <f t="shared" si="2"/>
+      <c r="BN5" s="7">
+        <f t="shared" si="3"/>
         <v>133042.01752951712</v>
       </c>
-      <c r="BN5" s="7">
-        <f t="shared" si="2"/>
+      <c r="BO5" s="7">
+        <f t="shared" si="3"/>
         <v>133557.67037144973</v>
       </c>
-      <c r="BO5" s="7">
-        <f t="shared" si="2"/>
+      <c r="BP5" s="7">
+        <f t="shared" si="3"/>
         <v>134074.33064478962</v>
       </c>
-      <c r="BP5" s="7">
-        <f t="shared" si="2"/>
+      <c r="BQ5" s="7">
+        <f t="shared" si="3"/>
         <v>134592.00124177034</v>
       </c>
-      <c r="BQ5" s="7">
-        <f t="shared" ref="BQ5:BU5" si="3">SUM(BQ6:BQ7)</f>
+      <c r="BR5" s="7">
+        <f t="shared" ref="BR5:BV5" si="5">SUM(BR6:BR7)</f>
         <v>135110.68506292874</v>
       </c>
-      <c r="BR5" s="7">
-        <f t="shared" si="3"/>
+      <c r="BS5" s="7">
+        <f t="shared" si="5"/>
         <v>135630.38501712884</v>
       </c>
-      <c r="BS5" s="7">
-        <f t="shared" si="3"/>
+      <c r="BT5" s="7">
+        <f t="shared" si="5"/>
         <v>136151.1040215856</v>
       </c>
-      <c r="BT5" s="7">
-        <f t="shared" si="3"/>
+      <c r="BU5" s="7">
+        <f t="shared" si="5"/>
         <v>136672.84500188916</v>
       </c>
-      <c r="BU5" s="7">
-        <f t="shared" si="3"/>
+      <c r="BV5" s="7">
+        <f t="shared" si="5"/>
         <v>125066.2062781055</v>
       </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
@@ -1636,155 +1664,156 @@
       <c r="X6" s="2">
         <v>108675.97568940018</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="2">
         <v>108987.97340880129</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="AA6" s="2">
         <v>109300.86684205539</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AB6" s="2">
         <v>109614.6585606662</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AC6" s="2">
         <v>109929.35114352005</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AD6" s="2">
         <v>110244.94717690691</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AE6" s="2">
         <v>110561.44925454176</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AF6" s="2">
         <v>110878.85997758587</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AG6" s="2">
         <v>111197.18195466821</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AH6" s="2">
         <v>111516.41780190682</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AI6" s="2">
         <v>111836.57014293033</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AJ6" s="2">
         <v>112157.64160889959</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AK6" s="2">
         <v>112479.63483852924</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AL6" s="2">
         <v>112802.55247810938</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AM6" s="2">
         <v>113126.39718152737</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AN6" s="2">
         <v>113451.17161028957</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AO6" s="2">
         <v>113776.87843354329</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AP6" s="2">
         <v>114103.52032809868</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="AQ6" s="2">
         <v>114431.09997845073</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="AR6" s="2">
         <v>114759.6200768014</v>
       </c>
-      <c r="AR6" s="2">
+      <c r="AS6" s="2">
         <v>115089.08332308161</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AT6" s="2">
         <v>115419.49242497355</v>
       </c>
-      <c r="AT6" s="2">
+      <c r="AU6" s="2">
         <v>115750.85009793288</v>
       </c>
-      <c r="AU6" s="2">
+      <c r="AV6" s="2">
         <v>116083.15906521108</v>
       </c>
-      <c r="AV6" s="2">
+      <c r="AW6" s="2">
         <v>116416.42205787776</v>
       </c>
-      <c r="AW6" s="2">
+      <c r="AX6" s="2">
         <v>116750.6418148432</v>
       </c>
-      <c r="AX6" s="2">
+      <c r="AY6" s="2">
         <v>117085.82108288081</v>
       </c>
-      <c r="AY6" s="2">
+      <c r="AZ6" s="2">
         <v>117421.9626166497</v>
       </c>
-      <c r="AZ6" s="2">
+      <c r="BA6" s="2">
         <v>117759.06917871731</v>
       </c>
-      <c r="BA6" s="2">
+      <c r="BB6" s="2">
         <v>118097.14353958215</v>
       </c>
-      <c r="BB6" s="2">
+      <c r="BC6" s="2">
         <v>118436.18847769655</v>
       </c>
-      <c r="BC6" s="2">
+      <c r="BD6" s="2">
         <v>118776.20677948948</v>
       </c>
-      <c r="BD6" s="2">
+      <c r="BE6" s="2">
         <v>119117.2012393895</v>
       </c>
-      <c r="BE6" s="2">
+      <c r="BF6" s="2">
         <v>119459.17465984766</v>
       </c>
-      <c r="BF6" s="2">
+      <c r="BG6" s="2">
         <v>119802.12985136057</v>
       </c>
-      <c r="BG6" s="2">
+      <c r="BH6" s="2">
         <v>120146.0696324935</v>
       </c>
-      <c r="BH6" s="2">
+      <c r="BI6" s="2">
         <v>120490.99682990351</v>
       </c>
-      <c r="BI6" s="2">
+      <c r="BJ6" s="2">
         <v>120836.91427836275</v>
       </c>
-      <c r="BJ6" s="2">
+      <c r="BK6" s="2">
         <v>121183.82482078168</v>
       </c>
-      <c r="BK6" s="2">
+      <c r="BL6" s="2">
         <v>121531.73130823248</v>
       </c>
-      <c r="BL6" s="2">
+      <c r="BM6" s="2">
         <v>121880.63659997245</v>
       </c>
-      <c r="BM6" s="2">
+      <c r="BN6" s="2">
         <v>122230.54356346755</v>
       </c>
-      <c r="BN6" s="2">
+      <c r="BO6" s="2">
         <v>122581.45507441595</v>
       </c>
-      <c r="BO6" s="2">
+      <c r="BP6" s="2">
         <v>122933.37401677165</v>
       </c>
-      <c r="BP6" s="2">
+      <c r="BQ6" s="2">
         <v>123286.30328276817</v>
       </c>
-      <c r="BQ6" s="2">
+      <c r="BR6" s="2">
         <v>123640.24577294236</v>
       </c>
-      <c r="BR6" s="2">
+      <c r="BS6" s="2">
         <v>123995.20439615824</v>
       </c>
-      <c r="BS6" s="2">
+      <c r="BT6" s="2">
         <v>124351.18206963081</v>
       </c>
-      <c r="BT6" s="2">
+      <c r="BU6" s="2">
         <v>124708.18171895017</v>
       </c>
-      <c r="BU6" s="2">
+      <c r="BV6" s="2">
         <v>125066.2062781055</v>
       </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
@@ -1833,155 +1862,155 @@
       <c r="X7" s="2">
         <v>1599.3701276233955</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>2009.975662676575</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>2199.9512357558933</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>2616.5360497831916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>3026.2030691774053</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>3243.736903629368</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>3460.8966905174989</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>3678.5198478023194</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AG7" s="2">
         <v>3896.6111917134726</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AH7" s="2">
         <v>4115.1719106805022</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AI7" s="2">
         <v>4334.2031804764392</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AJ7" s="2">
         <v>4553.7061799922249</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AK7" s="2">
         <v>4773.6820913144138</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AL7" s="2">
         <v>4994.1320997344374</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AM7" s="2">
         <v>5168.6908154953417</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AN7" s="2">
         <v>5389.8865172709584</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AO7" s="2">
         <v>5611.7613267548541</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AP7" s="2">
         <v>5834.1160163011245</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="AQ7" s="2">
         <v>6056.9509138407848</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="AR7" s="2">
         <v>6280.2672208085205</v>
       </c>
-      <c r="AR7" s="2">
+      <c r="AS7" s="2">
         <v>6504.0661457042106</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AT7" s="2">
         <v>6728.3489003235554</v>
       </c>
-      <c r="AT7" s="2">
+      <c r="AU7" s="2">
         <v>6953.1166997507917</v>
       </c>
-      <c r="AU7" s="2">
+      <c r="AV7" s="2">
         <v>7178.3707623678711</v>
       </c>
-      <c r="AV7" s="2">
+      <c r="AW7" s="2">
         <v>7404.1123098637072</v>
       </c>
-      <c r="AW7" s="2">
+      <c r="AX7" s="2">
         <v>7630.3425672434551</v>
       </c>
-      <c r="AX7" s="2">
+      <c r="AY7" s="2">
         <v>7809.0733543363986</v>
       </c>
-      <c r="AY7" s="2">
+      <c r="AZ7" s="2">
         <v>8036.0714377968825</v>
       </c>
-      <c r="AZ7" s="2">
+      <c r="BA7" s="2">
         <v>8263.7704118038819</v>
       </c>
-      <c r="BA7" s="2">
+      <c r="BB7" s="2">
         <v>8491.9640739692313</v>
       </c>
-      <c r="BB7" s="2">
+      <c r="BC7" s="2">
         <v>8720.6527619260814</v>
       </c>
-      <c r="BC7" s="2">
+      <c r="BD7" s="2">
         <v>8949.8377173830977</v>
       </c>
-      <c r="BD7" s="2">
+      <c r="BE7" s="2">
         <v>9179.5201893606336</v>
       </c>
-      <c r="BE7" s="2">
+      <c r="BF7" s="2">
         <v>9409.7014302894295</v>
       </c>
-      <c r="BF7" s="2">
+      <c r="BG7" s="2">
         <v>9640.3826960030947</v>
       </c>
-      <c r="BG7" s="2">
+      <c r="BH7" s="2">
         <v>9822.9282857006074</v>
       </c>
-      <c r="BH7" s="2">
+      <c r="BI7" s="2">
         <v>9987.766777990968</v>
       </c>
-      <c r="BI7" s="2">
+      <c r="BJ7" s="2">
         <v>10152.508639203334</v>
       </c>
-      <c r="BJ7" s="2">
+      <c r="BK7" s="2">
         <v>10317.249973081094</v>
       </c>
-      <c r="BK7" s="2">
+      <c r="BL7" s="2">
         <v>10481.991304081086</v>
       </c>
-      <c r="BL7" s="2">
+      <c r="BM7" s="2">
         <v>10646.732635065375</v>
       </c>
-      <c r="BM7" s="2">
+      <c r="BN7" s="2">
         <v>10811.473966049576</v>
       </c>
-      <c r="BN7" s="2">
+      <c r="BO7" s="2">
         <v>10976.215297033777</v>
       </c>
-      <c r="BO7" s="2">
+      <c r="BP7" s="2">
         <v>11140.956628017979</v>
       </c>
-      <c r="BP7" s="2">
+      <c r="BQ7" s="2">
         <v>11305.69795900218</v>
       </c>
-      <c r="BQ7" s="2">
+      <c r="BR7" s="2">
         <v>11470.439289986381</v>
       </c>
-      <c r="BR7" s="2">
+      <c r="BS7" s="2">
         <v>11635.180620970583</v>
       </c>
-      <c r="BS7" s="2">
+      <c r="BT7" s="2">
         <v>11799.921951954784</v>
       </c>
-      <c r="BT7" s="2">
+      <c r="BU7" s="2">
         <v>11964.663282938986</v>
       </c>
-      <c r="BU7" s="2">
+      <c r="BV7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
@@ -1991,292 +2020,296 @@
         <v>0</v>
       </c>
       <c r="D8" s="7">
-        <f t="shared" ref="D8:BO8" si="4">SUM(D9:D11)</f>
+        <f t="shared" ref="D8:BP8" si="6">SUM(D9:D11)</f>
         <v>1900000</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>150000</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>107225</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10000</v>
       </c>
       <c r="L8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>124868.75</v>
       </c>
       <c r="N8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>320000</v>
       </c>
       <c r="P8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>180000</v>
       </c>
       <c r="R8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37807</v>
       </c>
       <c r="V8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>802883.6</v>
       </c>
       <c r="X8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="Y8" si="7">SUM(Y9:Y11)</f>
         <v>0</v>
       </c>
       <c r="Z8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AJ8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AK8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AN8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AO8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AP8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AQ8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AR8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AS8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AT8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AU8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AW8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AX8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AY8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BA8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BB8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BC8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BE8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BG8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BH8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BK8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BL8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BN8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BO8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BP8" s="7">
-        <f t="shared" ref="BP8:BU8" si="5">SUM(BP9:BP11)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BQ8" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="BQ8:BV8" si="8">SUM(BQ9:BQ11)</f>
         <v>0</v>
       </c>
       <c r="BR8" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BS8" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BT8" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BU8" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BV8" s="7">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="9">
-        <f>SUM(C9:BU9)</f>
+        <f>SUM(C9:BV9)</f>
         <v>694784.35</v>
       </c>
       <c r="C9" s="2"/>
@@ -2317,7 +2350,7 @@
         <v>175883.6</v>
       </c>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="12"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -2366,13 +2399,14 @@
       <c r="BS9" s="2"/>
       <c r="BT9" s="2"/>
       <c r="BU9" s="2"/>
+      <c r="BV9" s="2"/>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="9">
-        <f t="shared" ref="B10" si="6">SUM(C10:BU10)</f>
+        <f t="shared" ref="B10" si="9">SUM(C10:BV10)</f>
         <v>1681000</v>
       </c>
       <c r="C10" s="2"/>
@@ -2412,7 +2446,7 @@
         <v>130000</v>
       </c>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="12"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -2461,13 +2495,14 @@
       <c r="BS10" s="2"/>
       <c r="BT10" s="2"/>
       <c r="BU10" s="2"/>
+      <c r="BV10" s="2"/>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="9">
-        <f>SUM(C11:BU11)</f>
+        <f>SUM(C11:BV11)</f>
         <v>1257000</v>
       </c>
       <c r="C11" s="2"/>
@@ -2496,7 +2531,7 @@
         <v>497000</v>
       </c>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="12"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
@@ -2545,12 +2580,13 @@
       <c r="BS11" s="2"/>
       <c r="BT11" s="2"/>
       <c r="BU11" s="2"/>
+      <c r="BV11" s="2"/>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
       <c r="C12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -2564,51 +2600,51 @@
         <v>-91009.140647318447</v>
       </c>
       <c r="E13" s="12">
-        <f t="shared" ref="E13:J13" si="7">E14+E38+E46</f>
+        <f t="shared" ref="E13:J13" si="10">E14+E38+E46</f>
         <v>-84389.159999999989</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-408527.40230918775</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-113301.18000000001</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-409516.0182064494</v>
       </c>
       <c r="I13" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-109848.45</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-305118.589039805</v>
       </c>
       <c r="K13" s="12">
-        <f t="shared" ref="K13:M13" si="8">K14+K38+K46</f>
+        <f t="shared" ref="K13:M13" si="11">K14+K38+K46</f>
         <v>-5784.3</v>
       </c>
       <c r="L13" s="7">
-        <f t="shared" ref="L13:AB13" si="9">L14+L38+L46</f>
+        <f t="shared" ref="L13:AC13" si="12">L14+L38+L46</f>
         <v>-305163.02165031742</v>
       </c>
       <c r="M13" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-157263.75000000003</v>
       </c>
       <c r="N13" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-305207.5818223544</v>
       </c>
       <c r="O13" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-342187.19999999995</v>
       </c>
       <c r="P13" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-282184.56565269525</v>
       </c>
       <c r="Q13" s="12">
@@ -2616,7 +2652,7 @@
         <v>-186366.61</v>
       </c>
       <c r="R13" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-13655.396624750776</v>
       </c>
       <c r="S13" s="12">
@@ -2624,7 +2660,7 @@
         <v>-8643.4600000000009</v>
       </c>
       <c r="T13" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-13700.341682867411</v>
       </c>
       <c r="U13" s="12">
@@ -2632,7 +2668,7 @@
         <v>-139150.71</v>
       </c>
       <c r="V13" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-13745.41577369382</v>
       </c>
       <c r="W13" s="12">
@@ -2640,207 +2676,211 @@
         <v>-137983.25999999998</v>
       </c>
       <c r="X13" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-13790.619267669847</v>
       </c>
-      <c r="Y13" s="7">
-        <f t="shared" si="9"/>
+      <c r="Y13" s="12">
+        <f>Y14+Y38+Y46</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="7">
+        <f t="shared" si="12"/>
         <v>-13835.952536298828</v>
       </c>
-      <c r="Z13" s="7">
-        <f t="shared" si="9"/>
+      <c r="AA13" s="7">
+        <f t="shared" si="12"/>
         <v>-13881.415952150646</v>
       </c>
-      <c r="AA13" s="7">
-        <f t="shared" si="9"/>
+      <c r="AB13" s="7">
+        <f t="shared" si="12"/>
         <v>-13927.009888864799</v>
       </c>
-      <c r="AB13" s="7">
-        <f t="shared" si="9"/>
+      <c r="AC13" s="7">
+        <f t="shared" si="12"/>
         <v>-13972.734721153462</v>
       </c>
-      <c r="AC13" s="7">
-        <f t="shared" ref="AC13:BU13" si="10">AC14-AC38-AC46</f>
+      <c r="AD13" s="7">
+        <f t="shared" ref="AD13:BV13" si="13">AD14-AD38-AD46</f>
         <v>14018.590824804574</v>
       </c>
-      <c r="AD13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AE13" s="7">
+        <f t="shared" si="13"/>
         <v>14064.578576684915</v>
       </c>
-      <c r="AE13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AF13" s="7">
+        <f t="shared" si="13"/>
         <v>14110.698354743226</v>
       </c>
-      <c r="AF13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AG13" s="7">
+        <f t="shared" si="13"/>
         <v>14156.95053801329</v>
       </c>
-      <c r="AG13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AH13" s="7">
+        <f t="shared" si="13"/>
         <v>14203.335506617061</v>
       </c>
-      <c r="AH13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AI13" s="7">
+        <f t="shared" si="13"/>
         <v>14249.853641767777</v>
       </c>
-      <c r="AI13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AJ13" s="7">
+        <f t="shared" si="13"/>
         <v>14296.505325773111</v>
       </c>
-      <c r="AJ13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AK13" s="7">
+        <f t="shared" si="13"/>
         <v>14343.290942038298</v>
       </c>
-      <c r="AK13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AL13" s="7">
+        <f t="shared" si="13"/>
         <v>14390.210875069293</v>
       </c>
-      <c r="AL13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AM13" s="7">
+        <f t="shared" si="13"/>
         <v>14437.265510475925</v>
       </c>
-      <c r="AM13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AN13" s="7">
+        <f t="shared" si="13"/>
         <v>14484.455234975074</v>
       </c>
-      <c r="AN13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AO13" s="7">
+        <f t="shared" si="13"/>
         <v>14531.780436393839</v>
       </c>
-      <c r="AO13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AP13" s="7">
+        <f t="shared" si="13"/>
         <v>14579.241503672736</v>
       </c>
-      <c r="AP13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AQ13" s="7">
+        <f t="shared" si="13"/>
         <v>14626.838826868892</v>
       </c>
-      <c r="AQ13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AR13" s="7">
+        <f t="shared" si="13"/>
         <v>14674.572797159242</v>
       </c>
-      <c r="AR13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AS13" s="7">
+        <f t="shared" si="13"/>
         <v>14722.443806843758</v>
       </c>
-      <c r="AS13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AT13" s="7">
+        <f t="shared" si="13"/>
         <v>14770.452249348658</v>
       </c>
-      <c r="AT13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AU13" s="7">
+        <f t="shared" si="13"/>
         <v>14818.598519229647</v>
       </c>
-      <c r="AU13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AV13" s="7">
+        <f t="shared" si="13"/>
         <v>14866.883012175169</v>
       </c>
-      <c r="AV13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AW13" s="7">
+        <f t="shared" si="13"/>
         <v>14915.306125009638</v>
       </c>
-      <c r="AW13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AX13" s="7">
+        <f t="shared" si="13"/>
         <v>14963.868255696718</v>
       </c>
-      <c r="AX13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AY13" s="7">
+        <f t="shared" si="13"/>
         <v>15012.56980334258</v>
       </c>
-      <c r="AY13" s="7">
-        <f t="shared" si="10"/>
+      <c r="AZ13" s="7">
+        <f t="shared" si="13"/>
         <v>15061.411168199204</v>
       </c>
-      <c r="AZ13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BA13" s="7">
+        <f t="shared" si="13"/>
         <v>15110.392751667627</v>
       </c>
-      <c r="BA13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BB13" s="7">
+        <f t="shared" si="13"/>
         <v>15159.514956301286</v>
       </c>
-      <c r="BB13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BC13" s="7">
+        <f t="shared" si="13"/>
         <v>15208.778185809309</v>
       </c>
-      <c r="BC13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BD13" s="7">
+        <f t="shared" si="13"/>
         <v>15258.182845059824</v>
       </c>
-      <c r="BD13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BE13" s="7">
+        <f t="shared" si="13"/>
         <v>15307.729340083293</v>
       </c>
-      <c r="BE13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BF13" s="7">
+        <f t="shared" si="13"/>
         <v>15357.418078075865</v>
       </c>
-      <c r="BF13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BG13" s="7">
+        <f t="shared" si="13"/>
         <v>15407.249467402691</v>
       </c>
-      <c r="BG13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BH13" s="7">
+        <f t="shared" si="13"/>
         <v>15457.223917601306</v>
       </c>
-      <c r="BH13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BI13" s="7">
+        <f t="shared" si="13"/>
         <v>15507.341839384981</v>
       </c>
-      <c r="BI13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BJ13" s="7">
+        <f t="shared" si="13"/>
         <v>15557.603644646108</v>
       </c>
-      <c r="BJ13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BK13" s="7">
+        <f t="shared" si="13"/>
         <v>15608.009746459578</v>
       </c>
-      <c r="BK13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BL13" s="7">
+        <f t="shared" si="13"/>
         <v>15658.560559086181</v>
       </c>
-      <c r="BL13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BM13" s="7">
+        <f t="shared" si="13"/>
         <v>15709.256497975995</v>
       </c>
-      <c r="BM13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BN13" s="7">
+        <f t="shared" si="13"/>
         <v>15760.097979771836</v>
       </c>
-      <c r="BN13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BO13" s="7">
+        <f t="shared" si="13"/>
         <v>15811.085422312635</v>
       </c>
-      <c r="BO13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BP13" s="7">
+        <f t="shared" si="13"/>
         <v>15862.219244636921</v>
       </c>
-      <c r="BP13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BQ13" s="7">
+        <f t="shared" si="13"/>
         <v>15913.499866986218</v>
       </c>
-      <c r="BQ13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BR13" s="7">
+        <f t="shared" si="13"/>
         <v>15964.927710808526</v>
       </c>
-      <c r="BR13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BS13" s="7">
+        <f t="shared" si="13"/>
         <v>16016.503198761791</v>
       </c>
-      <c r="BS13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BT13" s="7">
+        <f t="shared" si="13"/>
         <v>16068.226754717358</v>
       </c>
-      <c r="BT13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BU13" s="7">
+        <f t="shared" si="13"/>
         <v>16120.09880376346</v>
       </c>
-      <c r="BU13" s="7">
-        <f t="shared" si="10"/>
+      <c r="BV13" s="7">
+        <f t="shared" si="13"/>
         <v>16172.119772208731</v>
       </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
@@ -2850,287 +2890,288 @@
         <v>-67</v>
       </c>
       <c r="D14" s="12">
-        <f t="shared" ref="D14:BO14" si="11">SUM(D15:D22)</f>
+        <f t="shared" ref="D14:BP14" si="14">SUM(D15:D22)</f>
         <v>-104441.73458080005</v>
       </c>
       <c r="E14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1852.12</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-104441.73458080005</v>
       </c>
       <c r="G14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-4563.88</v>
       </c>
       <c r="H14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-104441.73458080005</v>
       </c>
       <c r="I14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-4586.3100000000004</v>
       </c>
       <c r="J14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-3569.94</v>
       </c>
       <c r="L14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-3672.54</v>
       </c>
       <c r="N14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-3497.54</v>
       </c>
       <c r="P14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-3695.1800000000003</v>
       </c>
       <c r="R14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-3889.4</v>
       </c>
       <c r="T14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-4751.5199999999995</v>
       </c>
       <c r="V14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-3907.34</v>
       </c>
       <c r="X14" s="12">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="12">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="12"/>
       <c r="Z14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AG14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AO14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AP14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AQ14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AR14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AS14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AT14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AU14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AV14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AW14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AX14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AY14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BA14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BB14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BC14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BD14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BE14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BF14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BG14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BH14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BI14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BJ14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BK14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BL14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BM14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BN14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BO14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BP14" s="12">
-        <f t="shared" ref="BP14:BU14" si="12">SUM(BP15:BP22)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BQ14" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="BQ14:BV14" si="15">SUM(BQ15:BQ22)</f>
         <v>0</v>
       </c>
       <c r="BR14" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BS14" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BT14" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BU14" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV14" s="12">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
@@ -3193,9 +3234,7 @@
       <c r="X15" s="2">
         <v>0</v>
       </c>
-      <c r="Y15" s="2">
-        <v>0</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2">
         <v>0</v>
       </c>
@@ -3340,8 +3379,11 @@
       <c r="BU15" s="2">
         <v>0</v>
       </c>
+      <c r="BV15" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>11</v>
       </c>
@@ -3437,8 +3479,9 @@
       <c r="BS16" s="12"/>
       <c r="BT16" s="12"/>
       <c r="BU16" s="12"/>
+      <c r="BV16" s="12"/>
     </row>
-    <row r="17" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>12</v>
       </c>
@@ -3514,8 +3557,9 @@
       <c r="BS17" s="12"/>
       <c r="BT17" s="12"/>
       <c r="BU17" s="12"/>
+      <c r="BV17" s="12"/>
     </row>
-    <row r="18" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>32</v>
       </c>
@@ -3596,8 +3640,9 @@
       <c r="BS18" s="12"/>
       <c r="BT18" s="12"/>
       <c r="BU18" s="12"/>
+      <c r="BV18" s="12"/>
     </row>
-    <row r="19" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>14</v>
       </c>
@@ -3641,10 +3686,10 @@
         <v>-175</v>
       </c>
       <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
+      <c r="Y19" s="12"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
-      <c r="AB19" s="12"/>
+      <c r="AB19" s="14"/>
       <c r="AC19" s="12"/>
       <c r="AD19" s="12"/>
       <c r="AE19" s="12"/>
@@ -3690,8 +3735,9 @@
       <c r="BS19" s="12"/>
       <c r="BT19" s="12"/>
       <c r="BU19" s="12"/>
+      <c r="BV19" s="12"/>
     </row>
-    <row r="20" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>13</v>
       </c>
@@ -3790,8 +3836,9 @@
       <c r="BS20" s="12"/>
       <c r="BT20" s="12"/>
       <c r="BU20" s="12"/>
+      <c r="BV20" s="12"/>
     </row>
-    <row r="21" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>31</v>
       </c>
@@ -3877,8 +3924,9 @@
       <c r="BS21" s="12"/>
       <c r="BT21" s="12"/>
       <c r="BU21" s="12"/>
+      <c r="BV21" s="12"/>
     </row>
-    <row r="22" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>16</v>
       </c>
@@ -3983,8 +4031,9 @@
       <c r="BS22" s="12"/>
       <c r="BT22" s="12"/>
       <c r="BU22" s="12"/>
+      <c r="BV22" s="12"/>
     </row>
-    <row r="23" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -4058,8 +4107,9 @@
       <c r="BS23" s="12"/>
       <c r="BT23" s="12"/>
       <c r="BU23" s="12"/>
+      <c r="BV23" s="12"/>
     </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>43</v>
       </c>
@@ -4073,7 +4123,7 @@
         <v>-65653.507640750671</v>
       </c>
       <c r="E24" s="12">
-        <f t="shared" ref="D24:BO24" si="13">SUM(E25:E32)</f>
+        <f t="shared" ref="E24:Y24" si="16">SUM(E25:E32)</f>
         <v>-8209.0300000000007</v>
       </c>
       <c r="F24" s="12">
@@ -4081,7 +4131,7 @@
         <v>-65876.818891229414</v>
       </c>
       <c r="G24" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-61994.92</v>
       </c>
       <c r="H24" s="12">
@@ -4089,7 +4139,7 @@
         <v>-65876.818891229414</v>
       </c>
       <c r="I24" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-16794.91</v>
       </c>
       <c r="J24" s="12">
@@ -4097,7 +4147,7 @@
         <v>-66065.944566201084</v>
       </c>
       <c r="K24" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1900</v>
       </c>
       <c r="L24" s="12">
@@ -4105,7 +4155,7 @@
         <v>-66255.613201830784</v>
       </c>
       <c r="M24" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N24" s="12">
@@ -4113,7 +4163,7 @@
         <v>-61190.224272176725</v>
       </c>
       <c r="O24" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P24" s="12">
@@ -4121,7 +4171,7 @@
         <v>-21001.377400679175</v>
       </c>
       <c r="Q24" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R24" s="12">
@@ -4129,7 +4179,7 @@
         <v>-21061.670228157629</v>
       </c>
       <c r="S24" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1900</v>
       </c>
       <c r="T24" s="12">
@@ -4137,7 +4187,7 @@
         <v>-21122.136150237264</v>
       </c>
       <c r="U24" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V24" s="12">
@@ -4145,7 +4195,7 @@
         <v>-21182.775663855144</v>
       </c>
       <c r="W24" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-237000</v>
       </c>
       <c r="X24" s="12">
@@ -4153,203 +4203,207 @@
         <v>-21243.589267374988</v>
       </c>
       <c r="Y24" s="12">
-        <f t="shared" ref="Y24:BU24" si="14">SUM(Y34:Y36)</f>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="12">
+        <f t="shared" ref="Z24:BV24" si="17">SUM(Z34:Z36)</f>
         <v>-62350.049413150409</v>
       </c>
-      <c r="Z24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AA24" s="12">
+        <f t="shared" si="17"/>
         <v>-21282.595857922472</v>
       </c>
-      <c r="AA24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AB24" s="12">
+        <f t="shared" si="17"/>
         <v>-21343.696035109606</v>
       </c>
-      <c r="AB24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AC24" s="12">
+        <f t="shared" si="17"/>
         <v>-21404.971624717167</v>
       </c>
-      <c r="AC24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AD24" s="12">
+        <f t="shared" si="17"/>
         <v>-21466.423130336439</v>
       </c>
-      <c r="AD24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AE24" s="12">
+        <f t="shared" si="17"/>
         <v>-21528.051057004479</v>
       </c>
-      <c r="AE24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AF24" s="12">
+        <f t="shared" si="17"/>
         <v>-21589.855911208251</v>
       </c>
-      <c r="AF24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AG24" s="12">
+        <f t="shared" si="17"/>
         <v>-21651.838200888789</v>
       </c>
-      <c r="AG24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AH24" s="12">
+        <f t="shared" si="17"/>
         <v>-21713.998435445377</v>
       </c>
-      <c r="AH24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AI24" s="12">
+        <f t="shared" si="17"/>
         <v>-21776.337125739727</v>
       </c>
-      <c r="AI24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AJ24" s="12">
+        <f t="shared" si="17"/>
         <v>-21838.854784100196</v>
       </c>
-      <c r="AJ24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AK24" s="12">
+        <f t="shared" si="17"/>
         <v>-21901.55192432597</v>
       </c>
-      <c r="AK24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AL24" s="12">
+        <f t="shared" si="17"/>
         <v>-64446.492532590026</v>
       </c>
-      <c r="AL24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AM24" s="12">
+        <f t="shared" si="17"/>
         <v>-21984.459234025133</v>
       </c>
-      <c r="AM24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AN24" s="12">
+        <f t="shared" si="17"/>
         <v>-22047.574389879686</v>
       </c>
-      <c r="AN24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AO24" s="12">
+        <f t="shared" si="17"/>
         <v>-22110.870742954336</v>
       </c>
-      <c r="AO24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AP24" s="12">
+        <f t="shared" si="17"/>
         <v>-22174.348813447948</v>
       </c>
-      <c r="AP24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AQ24" s="12">
+        <f t="shared" si="17"/>
         <v>-22238.009123052834</v>
       </c>
-      <c r="AQ24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AR24" s="12">
+        <f t="shared" si="17"/>
         <v>-22301.852194959021</v>
       </c>
-      <c r="AR24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AS24" s="12">
+        <f t="shared" si="17"/>
         <v>-22365.878553858565</v>
       </c>
-      <c r="AS24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AT24" s="12">
+        <f t="shared" si="17"/>
         <v>-22430.088725949863</v>
       </c>
-      <c r="AT24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AU24" s="12">
+        <f t="shared" si="17"/>
         <v>-22494.483238941968</v>
       </c>
-      <c r="AU24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AV24" s="12">
+        <f t="shared" si="17"/>
         <v>-22559.06262205894</v>
       </c>
-      <c r="AV24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AW24" s="12">
+        <f t="shared" si="17"/>
         <v>-22623.827406044176</v>
       </c>
-      <c r="AW24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AX24" s="12">
+        <f t="shared" si="17"/>
         <v>-66657.713815544965</v>
       </c>
-      <c r="AX24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY24" s="12">
+        <f t="shared" si="17"/>
         <v>-22709.381866529005</v>
       </c>
-      <c r="AY24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AZ24" s="12">
+        <f t="shared" si="17"/>
         <v>-22774.578201840646</v>
       </c>
-      <c r="AZ24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BA24" s="12">
+        <f t="shared" si="17"/>
         <v>-22839.961709227824</v>
       </c>
-      <c r="BA24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BB24" s="12">
+        <f t="shared" si="17"/>
         <v>-22905.532926042604</v>
       </c>
-      <c r="BB24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BC24" s="12">
+        <f t="shared" si="17"/>
         <v>-22971.292391179752</v>
       </c>
-      <c r="BC24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BD24" s="12">
+        <f t="shared" si="17"/>
         <v>-23037.240645081121</v>
       </c>
-      <c r="BD24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BE24" s="12">
+        <f t="shared" si="17"/>
         <v>-23103.378229740149</v>
       </c>
-      <c r="BE24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BF24" s="12">
+        <f t="shared" si="17"/>
         <v>-23169.70568870625</v>
       </c>
-      <c r="BF24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BG24" s="12">
+        <f t="shared" si="17"/>
         <v>-23236.223567089342</v>
       </c>
-      <c r="BG24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BH24" s="12">
+        <f t="shared" si="17"/>
         <v>-23302.932411564278</v>
       </c>
-      <c r="BH24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BI24" s="12">
+        <f t="shared" si="17"/>
         <v>-23369.832770375368</v>
       </c>
-      <c r="BI24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BJ24" s="12">
+        <f t="shared" si="17"/>
         <v>-68944.773634954356</v>
       </c>
-      <c r="BJ24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BK24" s="12">
+        <f t="shared" si="17"/>
         <v>-23458.118120746487</v>
       </c>
-      <c r="BK24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BL24" s="12">
+        <f t="shared" si="17"/>
         <v>-23525.464002011286</v>
       </c>
-      <c r="BL24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BM24" s="12">
+        <f t="shared" si="17"/>
         <v>-23593.003226480341</v>
       </c>
-      <c r="BM24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BN24" s="12">
+        <f t="shared" si="17"/>
         <v>-23660.736349222414</v>
       </c>
-      <c r="BN24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BO24" s="12">
+        <f t="shared" si="17"/>
         <v>-23728.663926899808</v>
       </c>
-      <c r="BO24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BP24" s="12">
+        <f t="shared" si="17"/>
         <v>-23796.786517772947</v>
       </c>
-      <c r="BP24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BQ24" s="12">
+        <f t="shared" si="17"/>
         <v>-23865.104681704961</v>
       </c>
-      <c r="BQ24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BR24" s="12">
+        <f t="shared" si="17"/>
         <v>-23933.618980166299</v>
       </c>
-      <c r="BR24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BS24" s="12">
+        <f t="shared" si="17"/>
         <v>-24002.329976239329</v>
       </c>
-      <c r="BS24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BT24" s="12">
+        <f t="shared" si="17"/>
         <v>-24071.238234622968</v>
       </c>
-      <c r="BT24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BU24" s="12">
+        <f t="shared" si="17"/>
         <v>-24140.344321637334</v>
       </c>
-      <c r="BU24" s="12">
-        <f t="shared" si="14"/>
+      <c r="BV24" s="12">
+        <f t="shared" si="17"/>
         <v>-71310.271942298365</v>
       </c>
     </row>
-    <row r="25" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -4433,8 +4487,9 @@
       <c r="BS25" s="12"/>
       <c r="BT25" s="12"/>
       <c r="BU25" s="12"/>
+      <c r="BV25" s="12"/>
     </row>
-    <row r="26" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>15</v>
       </c>
@@ -4516,8 +4571,9 @@
       <c r="BS26" s="12"/>
       <c r="BT26" s="12"/>
       <c r="BU26" s="12"/>
+      <c r="BV26" s="12"/>
     </row>
-    <row r="27" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>37</v>
       </c>
@@ -4595,8 +4651,9 @@
       <c r="BS27" s="12"/>
       <c r="BT27" s="12"/>
       <c r="BU27" s="12"/>
+      <c r="BV27" s="12"/>
     </row>
-    <row r="28" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>38</v>
       </c>
@@ -4678,8 +4735,9 @@
       <c r="BS28" s="12"/>
       <c r="BT28" s="12"/>
       <c r="BU28" s="12"/>
+      <c r="BV28" s="12"/>
     </row>
-    <row r="29" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>18</v>
       </c>
@@ -4757,8 +4815,9 @@
       <c r="BS29" s="12"/>
       <c r="BT29" s="12"/>
       <c r="BU29" s="12"/>
+      <c r="BV29" s="12"/>
     </row>
-    <row r="30" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>33</v>
       </c>
@@ -4833,8 +4892,9 @@
       <c r="BS30" s="12"/>
       <c r="BT30" s="12"/>
       <c r="BU30" s="12"/>
+      <c r="BV30" s="12"/>
     </row>
-    <row r="31" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>17</v>
       </c>
@@ -4913,8 +4973,9 @@
       <c r="BS31" s="12"/>
       <c r="BT31" s="12"/>
       <c r="BU31" s="12"/>
+      <c r="BV31" s="12"/>
     </row>
-    <row r="32" spans="1:73" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>39</v>
       </c>
@@ -4941,7 +5002,7 @@
       <c r="V32" s="12"/>
       <c r="W32" s="23"/>
       <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
+      <c r="Y32" s="23"/>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
@@ -4990,8 +5051,9 @@
       <c r="BS32" s="12"/>
       <c r="BT32" s="12"/>
       <c r="BU32" s="12"/>
+      <c r="BV32" s="12"/>
     </row>
-    <row r="33" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="2"/>
@@ -5065,8 +5127,9 @@
       <c r="BS33" s="2"/>
       <c r="BT33" s="2"/>
       <c r="BU33" s="2"/>
+      <c r="BV33" s="2"/>
     </row>
-    <row r="34" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>2</v>
       </c>
@@ -5115,155 +5178,156 @@
       <c r="X34" s="2">
         <v>-1240.0430059007761</v>
       </c>
-      <c r="Y34" s="2">
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2">
         <v>-1243.6030437780166</v>
       </c>
-      <c r="Z34" s="2">
+      <c r="AA34" s="2">
         <v>-1164.0284153525429</v>
       </c>
-      <c r="AA34" s="2">
+      <c r="AB34" s="2">
         <v>-1167.3702230391473</v>
       </c>
-      <c r="AB34" s="2">
+      <c r="AC34" s="2">
         <v>-1170.7216247171586</v>
       </c>
-      <c r="AC34" s="2">
+      <c r="AD34" s="2">
         <v>-1174.0826479299544</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AE34" s="2">
         <v>-1177.4533202999867</v>
       </c>
-      <c r="AE34" s="2">
+      <c r="AF34" s="2">
         <v>-1180.8336695290086</v>
       </c>
-      <c r="AF34" s="2">
+      <c r="AG34" s="2">
         <v>-1184.2237233983019</v>
       </c>
-      <c r="AG34" s="2">
+      <c r="AH34" s="2">
         <v>-1187.6235097689064</v>
       </c>
-      <c r="AH34" s="2">
+      <c r="AI34" s="2">
         <v>-1191.0330565818472</v>
       </c>
-      <c r="AI34" s="2">
+      <c r="AJ34" s="2">
         <v>-1194.4523918583661</v>
       </c>
-      <c r="AJ34" s="2">
+      <c r="AK34" s="2">
         <v>-1197.8815437001504</v>
       </c>
-      <c r="AK34" s="2">
+      <c r="AL34" s="2">
         <v>-1201.3205402895646</v>
       </c>
-      <c r="AL34" s="2">
+      <c r="AM34" s="2">
         <v>-1161.7419309652439</v>
       </c>
-      <c r="AM34" s="2">
+      <c r="AN34" s="2">
         <v>-1165.0771743867494</v>
       </c>
-      <c r="AN34" s="2">
+      <c r="AO34" s="2">
         <v>-1168.4219929543217</v>
       </c>
-      <c r="AO34" s="2">
+      <c r="AP34" s="2">
         <v>-1171.7764141572352</v>
       </c>
-      <c r="AP34" s="2">
+      <c r="AQ34" s="2">
         <v>-1175.1404655636834</v>
       </c>
-      <c r="AQ34" s="2">
+      <c r="AR34" s="2">
         <v>-1178.5141748210051</v>
       </c>
-      <c r="AR34" s="2">
+      <c r="AS34" s="2">
         <v>-1181.8975696559123</v>
       </c>
-      <c r="AS34" s="2">
+      <c r="AT34" s="2">
         <v>-1185.2906778747174</v>
       </c>
-      <c r="AT34" s="2">
+      <c r="AU34" s="2">
         <v>-1188.6935273635615</v>
       </c>
-      <c r="AU34" s="2">
+      <c r="AV34" s="2">
         <v>-1192.1061460886442</v>
       </c>
-      <c r="AV34" s="2">
+      <c r="AW34" s="2">
         <v>-1195.5285620964537</v>
       </c>
-      <c r="AW34" s="2">
+      <c r="AX34" s="2">
         <v>-1198.9608035139959</v>
       </c>
-      <c r="AX34" s="2">
+      <c r="AY34" s="2">
         <v>-1157.8694578620261</v>
       </c>
-      <c r="AY34" s="2">
+      <c r="AZ34" s="2">
         <v>-1161.1935838054603</v>
       </c>
-      <c r="AZ34" s="2">
+      <c r="BA34" s="2">
         <v>-1164.5272529778074</v>
       </c>
-      <c r="BA34" s="2">
+      <c r="BB34" s="2">
         <v>-1167.8704927767112</v>
       </c>
-      <c r="BB34" s="2">
+      <c r="BC34" s="2">
         <v>-1171.2233306784713</v>
       </c>
-      <c r="BC34" s="2">
+      <c r="BD34" s="2">
         <v>-1174.5857942382688</v>
       </c>
-      <c r="BD34" s="2">
+      <c r="BE34" s="2">
         <v>-1177.9579110903931</v>
       </c>
-      <c r="BE34" s="2">
+      <c r="BF34" s="2">
         <v>-1181.3397089484688</v>
       </c>
-      <c r="BF34" s="2">
+      <c r="BG34" s="2">
         <v>-1184.7312156056832</v>
       </c>
-      <c r="BG34" s="2">
+      <c r="BH34" s="2">
         <v>-1188.1324589350158</v>
       </c>
-      <c r="BH34" s="2">
+      <c r="BI34" s="2">
         <v>-1191.5434668894657</v>
       </c>
-      <c r="BI34" s="2">
+      <c r="BJ34" s="2">
         <v>-1194.9642675022828</v>
       </c>
-      <c r="BJ34" s="2">
+      <c r="BK34" s="2">
         <v>-1152.3027777761515</v>
       </c>
-      <c r="BK34" s="2">
+      <c r="BL34" s="2">
         <v>-1155.6109223448575</v>
       </c>
-      <c r="BL34" s="2">
+      <c r="BM34" s="2">
         <v>-1158.9285642615682</v>
       </c>
-      <c r="BM34" s="2">
+      <c r="BN34" s="2">
         <v>-1162.2557307922082</v>
       </c>
-      <c r="BN34" s="2">
+      <c r="BO34" s="2">
         <v>-1165.5924492809788</v>
       </c>
-      <c r="BO34" s="2">
+      <c r="BP34" s="2">
         <v>-1168.9387471505852</v>
       </c>
-      <c r="BP34" s="2">
+      <c r="BQ34" s="2">
         <v>-1172.2946519024588</v>
       </c>
-      <c r="BQ34" s="2">
+      <c r="BR34" s="2">
         <v>-1175.660191116986</v>
       </c>
-      <c r="BR34" s="2">
+      <c r="BS34" s="2">
         <v>-1179.0353924537333</v>
       </c>
-      <c r="BS34" s="2">
+      <c r="BT34" s="2">
         <v>-1182.4202836516747</v>
       </c>
-      <c r="BT34" s="2">
+      <c r="BU34" s="2">
         <v>-1185.8148925294206</v>
       </c>
-      <c r="BU34" s="2">
+      <c r="BV34" s="2">
         <v>-1189.2192469854454</v>
       </c>
     </row>
-    <row r="35" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>3</v>
       </c>
@@ -5326,154 +5390,158 @@
         <v>-20003.54626147421</v>
       </c>
       <c r="Y35" s="2">
+        <f>-(150000+67360)</f>
+        <v>-217360</v>
+      </c>
+      <c r="Z35" s="2">
         <v>-20060.974416813271</v>
       </c>
-      <c r="Z35" s="2">
+      <c r="AA35" s="2">
         <v>-20118.567442569929</v>
       </c>
-      <c r="AA35" s="2">
+      <c r="AB35" s="2">
         <v>-20176.32581207046</v>
       </c>
-      <c r="AB35" s="2">
+      <c r="AC35" s="2">
         <v>-20234.250000000007</v>
       </c>
-      <c r="AC35" s="2">
+      <c r="AD35" s="2">
         <v>-20292.340482406486</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AE35" s="2">
         <v>-20350.597736704491</v>
       </c>
-      <c r="AE35" s="2">
+      <c r="AF35" s="2">
         <v>-20409.022241679242</v>
       </c>
-      <c r="AF35" s="2">
+      <c r="AG35" s="2">
         <v>-20467.614477490486</v>
       </c>
-      <c r="AG35" s="2">
+      <c r="AH35" s="2">
         <v>-20526.374925676471</v>
       </c>
-      <c r="AH35" s="2">
+      <c r="AI35" s="2">
         <v>-20585.304069157879</v>
       </c>
-      <c r="AI35" s="2">
+      <c r="AJ35" s="2">
         <v>-20644.402392241831</v>
       </c>
-      <c r="AJ35" s="2">
+      <c r="AK35" s="2">
         <v>-20703.670380625819</v>
       </c>
-      <c r="AK35" s="2">
+      <c r="AL35" s="2">
         <v>-20763.108521401744</v>
       </c>
-      <c r="AL35" s="2">
+      <c r="AM35" s="2">
         <v>-20822.71730305989</v>
       </c>
-      <c r="AM35" s="2">
+      <c r="AN35" s="2">
         <v>-20882.497215492938</v>
       </c>
-      <c r="AN35" s="2">
+      <c r="AO35" s="2">
         <v>-20942.448750000014</v>
       </c>
-      <c r="AO35" s="2">
+      <c r="AP35" s="2">
         <v>-21002.572399290715</v>
       </c>
-      <c r="AP35" s="2">
+      <c r="AQ35" s="2">
         <v>-21062.868657489151</v>
       </c>
-      <c r="AQ35" s="2">
+      <c r="AR35" s="2">
         <v>-21123.338020138017</v>
       </c>
-      <c r="AR35" s="2">
+      <c r="AS35" s="2">
         <v>-21183.980984202652</v>
       </c>
-      <c r="AS35" s="2">
+      <c r="AT35" s="2">
         <v>-21244.798048075147</v>
       </c>
-      <c r="AT35" s="2">
+      <c r="AU35" s="2">
         <v>-21305.789711578407</v>
       </c>
-      <c r="AU35" s="2">
+      <c r="AV35" s="2">
         <v>-21366.956475970295</v>
       </c>
-      <c r="AV35" s="2">
+      <c r="AW35" s="2">
         <v>-21428.298843947723</v>
       </c>
-      <c r="AW35" s="2">
+      <c r="AX35" s="2">
         <v>-21489.817319650803</v>
       </c>
-      <c r="AX35" s="2">
+      <c r="AY35" s="2">
         <v>-21551.512408666978</v>
       </c>
-      <c r="AY35" s="2">
+      <c r="AZ35" s="2">
         <v>-21613.384618035187</v>
       </c>
-      <c r="AZ35" s="2">
+      <c r="BA35" s="2">
         <v>-21675.434456250016</v>
       </c>
-      <c r="BA35" s="2">
+      <c r="BB35" s="2">
         <v>-21737.662433265894</v>
       </c>
-      <c r="BB35" s="2">
+      <c r="BC35" s="2">
         <v>-21800.069060501279</v>
       </c>
-      <c r="BC35" s="2">
+      <c r="BD35" s="2">
         <v>-21862.654850842853</v>
       </c>
-      <c r="BD35" s="2">
+      <c r="BE35" s="2">
         <v>-21925.420318649754</v>
       </c>
-      <c r="BE35" s="2">
+      <c r="BF35" s="2">
         <v>-21988.365979757782</v>
       </c>
-      <c r="BF35" s="2">
+      <c r="BG35" s="2">
         <v>-22051.492351483659</v>
       </c>
-      <c r="BG35" s="2">
+      <c r="BH35" s="2">
         <v>-22114.799952629262</v>
       </c>
-      <c r="BH35" s="2">
+      <c r="BI35" s="2">
         <v>-22178.289303485901</v>
       </c>
-      <c r="BI35" s="2">
+      <c r="BJ35" s="2">
         <v>-22241.96092583859</v>
       </c>
-      <c r="BJ35" s="2">
+      <c r="BK35" s="2">
         <v>-22305.815342970334</v>
       </c>
-      <c r="BK35" s="2">
+      <c r="BL35" s="2">
         <v>-22369.853079666427</v>
       </c>
-      <c r="BL35" s="2">
+      <c r="BM35" s="2">
         <v>-22434.074662218773</v>
       </c>
-      <c r="BM35" s="2">
+      <c r="BN35" s="2">
         <v>-22498.480618430207</v>
       </c>
-      <c r="BN35" s="2">
+      <c r="BO35" s="2">
         <v>-22563.071477618829</v>
       </c>
-      <c r="BO35" s="2">
+      <c r="BP35" s="2">
         <v>-22627.84777062236</v>
       </c>
-      <c r="BP35" s="2">
+      <c r="BQ35" s="2">
         <v>-22692.810029802502</v>
       </c>
-      <c r="BQ35" s="2">
+      <c r="BR35" s="2">
         <v>-22757.958789049313</v>
       </c>
-      <c r="BR35" s="2">
+      <c r="BS35" s="2">
         <v>-22823.294583785595</v>
       </c>
-      <c r="BS35" s="2">
+      <c r="BT35" s="2">
         <v>-22888.817950971294</v>
       </c>
-      <c r="BT35" s="2">
+      <c r="BU35" s="2">
         <v>-22954.529429107915</v>
       </c>
-      <c r="BU35" s="2">
+      <c r="BV35" s="2">
         <v>-23020.429558242948</v>
       </c>
     </row>
-    <row r="36" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>4</v>
       </c>
@@ -5541,11 +5609,11 @@
         <v>0</v>
       </c>
       <c r="Y36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="2">
         <v>-41045.471952559121</v>
       </c>
-      <c r="Z36" s="2">
-        <v>0</v>
-      </c>
       <c r="AA36" s="2">
         <v>0</v>
       </c>
@@ -5577,11 +5645,11 @@
         <v>0</v>
       </c>
       <c r="AK36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="2">
         <v>-42482.063470898713</v>
       </c>
-      <c r="AL36" s="2">
-        <v>0</v>
-      </c>
       <c r="AM36" s="2">
         <v>0</v>
       </c>
@@ -5613,11 +5681,11 @@
         <v>0</v>
       </c>
       <c r="AW36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX36" s="2">
         <v>-43968.935692380161</v>
       </c>
-      <c r="AX36" s="2">
-        <v>0</v>
-      </c>
       <c r="AY36" s="2">
         <v>0</v>
       </c>
@@ -5649,11 +5717,11 @@
         <v>0</v>
       </c>
       <c r="BI36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ36" s="2">
         <v>-45507.848441613482</v>
       </c>
-      <c r="BJ36" s="2">
-        <v>0</v>
-      </c>
       <c r="BK36" s="2">
         <v>0</v>
       </c>
@@ -5685,10 +5753,13 @@
         <v>0</v>
       </c>
       <c r="BU36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV36" s="2">
         <v>-47100.623137069968</v>
       </c>
     </row>
-    <row r="37" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="2"/>
@@ -5713,7 +5784,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="12"/>
       <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
+      <c r="Y37" s="12"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
@@ -5762,8 +5833,9 @@
       <c r="BS37" s="2"/>
       <c r="BT37" s="2"/>
       <c r="BU37" s="2"/>
+      <c r="BV37" s="2"/>
     </row>
-    <row r="38" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -5842,9 +5914,7 @@
       <c r="X38" s="2">
         <v>0</v>
       </c>
-      <c r="Y38" s="2">
-        <v>0</v>
-      </c>
+      <c r="Y38" s="12"/>
       <c r="Z38" s="2">
         <v>0</v>
       </c>
@@ -5989,8 +6059,11 @@
       <c r="BU38" s="2">
         <v>0</v>
       </c>
+      <c r="BV38" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>25</v>
       </c>
@@ -6036,7 +6109,7 @@
         <v>-128227.34</v>
       </c>
       <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
+      <c r="Y39" s="12"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
@@ -6085,8 +6158,9 @@
       <c r="BS39" s="2"/>
       <c r="BT39" s="2"/>
       <c r="BU39" s="2"/>
+      <c r="BV39" s="2"/>
     </row>
-    <row r="40" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>34</v>
       </c>
@@ -6118,7 +6192,7 @@
       <c r="V40" s="2"/>
       <c r="W40" s="12"/>
       <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
+      <c r="Y40" s="12"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
@@ -6167,8 +6241,9 @@
       <c r="BS40" s="2"/>
       <c r="BT40" s="2"/>
       <c r="BU40" s="2"/>
+      <c r="BV40" s="2"/>
     </row>
-    <row r="41" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>20</v>
       </c>
@@ -6199,7 +6274,7 @@
       <c r="V41" s="2"/>
       <c r="W41" s="12"/>
       <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
+      <c r="Y41" s="12"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
@@ -6248,8 +6323,9 @@
       <c r="BS41" s="2"/>
       <c r="BT41" s="2"/>
       <c r="BU41" s="2"/>
+      <c r="BV41" s="2"/>
     </row>
-    <row r="42" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>20</v>
       </c>
@@ -6280,7 +6356,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="12"/>
       <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
+      <c r="Y42" s="12"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
@@ -6329,8 +6405,9 @@
       <c r="BS42" s="2"/>
       <c r="BT42" s="2"/>
       <c r="BU42" s="2"/>
+      <c r="BV42" s="2"/>
     </row>
-    <row r="43" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>36</v>
       </c>
@@ -6359,7 +6436,7 @@
         <v>-3881.25</v>
       </c>
       <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
+      <c r="Y43" s="12"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
@@ -6408,8 +6485,9 @@
       <c r="BS43" s="2"/>
       <c r="BT43" s="2"/>
       <c r="BU43" s="2"/>
+      <c r="BV43" s="2"/>
     </row>
-    <row r="44" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>19</v>
       </c>
@@ -6449,7 +6527,7 @@
       <c r="V44" s="2"/>
       <c r="W44" s="12"/>
       <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
+      <c r="Y44" s="12"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
@@ -6498,8 +6576,9 @@
       <c r="BS44" s="2"/>
       <c r="BT44" s="2"/>
       <c r="BU44" s="2"/>
+      <c r="BV44" s="2"/>
     </row>
-    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="2"/>
@@ -6573,8 +6652,9 @@
       <c r="BS45" s="2"/>
       <c r="BT45" s="2"/>
       <c r="BU45" s="2"/>
+      <c r="BV45" s="2"/>
     </row>
-    <row r="46" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>9</v>
       </c>
@@ -6590,279 +6670,283 @@
         <v>0</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" ref="F46:BU46" si="15">SUM(F47:F50)</f>
+        <f t="shared" ref="F46:BV46" si="18">SUM(F47:F50)</f>
         <v>-13432.593933481601</v>
       </c>
       <c r="G46" s="17">
-        <f t="shared" ref="G46" si="16">SUM(G47:G50)</f>
+        <f t="shared" ref="G46" si="19">SUM(G47:G50)</f>
         <v>-209.22</v>
       </c>
       <c r="H46" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-13432.593933481601</v>
       </c>
       <c r="I46" s="17">
-        <f t="shared" ref="I46:K46" si="17">SUM(I47:I50)</f>
+        <f t="shared" ref="I46:K46" si="20">SUM(I47:I50)</f>
         <v>-915.68000000000006</v>
       </c>
       <c r="J46" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-13476.899347637262</v>
       </c>
       <c r="K46" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-2214.36</v>
       </c>
       <c r="L46" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-13521.331958149671</v>
       </c>
       <c r="M46" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1460.26</v>
       </c>
       <c r="N46" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-13565.892130186689</v>
       </c>
       <c r="O46" s="17">
-        <f t="shared" ref="O46" si="18">SUM(O47:O50)</f>
+        <f t="shared" ref="O46" si="21">SUM(O47:O50)</f>
         <v>-1975.37</v>
       </c>
       <c r="P46" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-13610.580229964526</v>
       </c>
       <c r="Q46" s="7">
-        <f t="shared" ref="Q46" si="19">SUM(Q47:Q50)</f>
+        <f t="shared" ref="Q46" si="22">SUM(Q47:Q50)</f>
         <v>-2142.41</v>
       </c>
       <c r="R46" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-13655.396624750776</v>
       </c>
       <c r="S46" s="7">
-        <f t="shared" ref="S46" si="20">SUM(S47:S50)</f>
+        <f t="shared" ref="S46" si="23">SUM(S47:S50)</f>
         <v>-4754.0600000000004</v>
       </c>
       <c r="T46" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-13700.341682867411</v>
       </c>
       <c r="U46" s="7">
-        <f t="shared" ref="U46:W46" si="21">SUM(U47:U50)</f>
+        <f t="shared" ref="U46:W46" si="24">SUM(U47:U50)</f>
         <v>-6171.85</v>
       </c>
       <c r="V46" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-13745.41577369382</v>
       </c>
       <c r="W46" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-1967.33</v>
       </c>
       <c r="X46" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-13790.619267669847</v>
       </c>
       <c r="Y46" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="7">
+        <f t="shared" si="18"/>
         <v>-13835.952536298828</v>
       </c>
-      <c r="Z46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AA46" s="7">
+        <f t="shared" si="18"/>
         <v>-13881.415952150646</v>
       </c>
-      <c r="AA46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AB46" s="7">
+        <f t="shared" si="18"/>
         <v>-13927.009888864799</v>
       </c>
-      <c r="AB46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AC46" s="7">
+        <f t="shared" si="18"/>
         <v>-13972.734721153462</v>
       </c>
-      <c r="AC46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AD46" s="7">
+        <f t="shared" si="18"/>
         <v>-14018.590824804574</v>
       </c>
-      <c r="AD46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AE46" s="7">
+        <f t="shared" si="18"/>
         <v>-14064.578576684915</v>
       </c>
-      <c r="AE46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AF46" s="7">
+        <f t="shared" si="18"/>
         <v>-14110.698354743226</v>
       </c>
-      <c r="AF46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AG46" s="7">
+        <f t="shared" si="18"/>
         <v>-14156.95053801329</v>
       </c>
-      <c r="AG46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AH46" s="7">
+        <f t="shared" si="18"/>
         <v>-14203.335506617061</v>
       </c>
-      <c r="AH46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AI46" s="7">
+        <f t="shared" si="18"/>
         <v>-14249.853641767777</v>
       </c>
-      <c r="AI46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AJ46" s="7">
+        <f t="shared" si="18"/>
         <v>-14296.505325773111</v>
       </c>
-      <c r="AJ46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AK46" s="7">
+        <f t="shared" si="18"/>
         <v>-14343.290942038298</v>
       </c>
-      <c r="AK46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AL46" s="7">
+        <f t="shared" si="18"/>
         <v>-14390.210875069293</v>
       </c>
-      <c r="AL46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AM46" s="7">
+        <f t="shared" si="18"/>
         <v>-14437.265510475925</v>
       </c>
-      <c r="AM46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AN46" s="7">
+        <f t="shared" si="18"/>
         <v>-14484.455234975074</v>
       </c>
-      <c r="AN46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AO46" s="7">
+        <f t="shared" si="18"/>
         <v>-14531.780436393839</v>
       </c>
-      <c r="AO46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AP46" s="7">
+        <f t="shared" si="18"/>
         <v>-14579.241503672736</v>
       </c>
-      <c r="AP46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AQ46" s="7">
+        <f t="shared" si="18"/>
         <v>-14626.838826868892</v>
       </c>
-      <c r="AQ46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AR46" s="7">
+        <f t="shared" si="18"/>
         <v>-14674.572797159242</v>
       </c>
-      <c r="AR46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AS46" s="7">
+        <f t="shared" si="18"/>
         <v>-14722.443806843758</v>
       </c>
-      <c r="AS46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AT46" s="7">
+        <f t="shared" si="18"/>
         <v>-14770.452249348658</v>
       </c>
-      <c r="AT46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AU46" s="7">
+        <f t="shared" si="18"/>
         <v>-14818.598519229647</v>
       </c>
-      <c r="AU46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AV46" s="7">
+        <f t="shared" si="18"/>
         <v>-14866.883012175169</v>
       </c>
-      <c r="AV46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AW46" s="7">
+        <f t="shared" si="18"/>
         <v>-14915.306125009638</v>
       </c>
-      <c r="AW46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AX46" s="7">
+        <f t="shared" si="18"/>
         <v>-14963.868255696718</v>
       </c>
-      <c r="AX46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AY46" s="7">
+        <f t="shared" si="18"/>
         <v>-15012.56980334258</v>
       </c>
-      <c r="AY46" s="7">
-        <f t="shared" si="15"/>
+      <c r="AZ46" s="7">
+        <f t="shared" si="18"/>
         <v>-15061.411168199204</v>
       </c>
-      <c r="AZ46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BA46" s="7">
+        <f t="shared" si="18"/>
         <v>-15110.392751667627</v>
       </c>
-      <c r="BA46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BB46" s="7">
+        <f t="shared" si="18"/>
         <v>-15159.514956301286</v>
       </c>
-      <c r="BB46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BC46" s="7">
+        <f t="shared" si="18"/>
         <v>-15208.778185809309</v>
       </c>
-      <c r="BC46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BD46" s="7">
+        <f t="shared" si="18"/>
         <v>-15258.182845059824</v>
       </c>
-      <c r="BD46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BE46" s="7">
+        <f t="shared" si="18"/>
         <v>-15307.729340083293</v>
       </c>
-      <c r="BE46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BF46" s="7">
+        <f t="shared" si="18"/>
         <v>-15357.418078075865</v>
       </c>
-      <c r="BF46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BG46" s="7">
+        <f t="shared" si="18"/>
         <v>-15407.249467402691</v>
       </c>
-      <c r="BG46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BH46" s="7">
+        <f t="shared" si="18"/>
         <v>-15457.223917601306</v>
       </c>
-      <c r="BH46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BI46" s="7">
+        <f t="shared" si="18"/>
         <v>-15507.341839384981</v>
       </c>
-      <c r="BI46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BJ46" s="7">
+        <f t="shared" si="18"/>
         <v>-15557.603644646108</v>
       </c>
-      <c r="BJ46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BK46" s="7">
+        <f t="shared" si="18"/>
         <v>-15608.009746459578</v>
       </c>
-      <c r="BK46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BL46" s="7">
+        <f t="shared" si="18"/>
         <v>-15658.560559086181</v>
       </c>
-      <c r="BL46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BM46" s="7">
+        <f t="shared" si="18"/>
         <v>-15709.256497975995</v>
       </c>
-      <c r="BM46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BN46" s="7">
+        <f t="shared" si="18"/>
         <v>-15760.097979771836</v>
       </c>
-      <c r="BN46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BO46" s="7">
+        <f t="shared" si="18"/>
         <v>-15811.085422312635</v>
       </c>
-      <c r="BO46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BP46" s="7">
+        <f t="shared" si="18"/>
         <v>-15862.219244636921</v>
       </c>
-      <c r="BP46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BQ46" s="7">
+        <f t="shared" si="18"/>
         <v>-15913.499866986218</v>
       </c>
-      <c r="BQ46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BR46" s="7">
+        <f t="shared" si="18"/>
         <v>-15964.927710808526</v>
       </c>
-      <c r="BR46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BS46" s="7">
+        <f t="shared" si="18"/>
         <v>-16016.503198761791</v>
       </c>
-      <c r="BS46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BT46" s="7">
+        <f t="shared" si="18"/>
         <v>-16068.226754717358</v>
       </c>
-      <c r="BT46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BU46" s="7">
+        <f t="shared" si="18"/>
         <v>-16120.09880376346</v>
       </c>
-      <c r="BU46" s="7">
-        <f t="shared" si="15"/>
+      <c r="BV46" s="7">
+        <f t="shared" si="18"/>
         <v>-16172.119772208731</v>
       </c>
     </row>
-    <row r="47" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>30</v>
       </c>
@@ -6921,155 +7005,156 @@
       <c r="X47" s="2">
         <v>-3129.8680998547252</v>
       </c>
-      <c r="Y47" s="2">
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="2">
         <v>-3138.8536341734775</v>
       </c>
-      <c r="Z47" s="2">
+      <c r="AA47" s="2">
         <v>-3147.8649650511952</v>
       </c>
-      <c r="AA47" s="2">
+      <c r="AB47" s="2">
         <v>-3156.9021665471864</v>
       </c>
-      <c r="AB47" s="2">
+      <c r="AC47" s="2">
         <v>-3165.9653129333774</v>
       </c>
-      <c r="AC47" s="2">
+      <c r="AD47" s="2">
         <v>-3175.054478694919</v>
       </c>
-      <c r="AD47" s="2">
+      <c r="AE47" s="2">
         <v>-3184.1697385308025</v>
       </c>
-      <c r="AE47" s="2">
+      <c r="AF47" s="2">
         <v>-3193.3111673544731</v>
       </c>
-      <c r="AF47" s="2">
+      <c r="AG47" s="2">
         <v>-3202.4788402944446</v>
       </c>
-      <c r="AG47" s="2">
+      <c r="AH47" s="2">
         <v>-3211.6728326949165</v>
       </c>
-      <c r="AH47" s="2">
+      <c r="AI47" s="2">
         <v>-3220.8932201163934</v>
       </c>
-      <c r="AI47" s="2">
+      <c r="AJ47" s="2">
         <v>-3230.1400783363083</v>
       </c>
-      <c r="AJ47" s="2">
+      <c r="AK47" s="2">
         <v>-3239.4134833496423</v>
       </c>
-      <c r="AK47" s="2">
+      <c r="AL47" s="2">
         <v>-3248.7135113695504</v>
       </c>
-      <c r="AL47" s="2">
+      <c r="AM47" s="2">
         <v>-3258.0402388279881</v>
       </c>
-      <c r="AM47" s="2">
+      <c r="AN47" s="2">
         <v>-3267.3937423763396</v>
       </c>
-      <c r="AN47" s="2">
+      <c r="AO47" s="2">
         <v>-3276.7740988860464</v>
       </c>
-      <c r="AO47" s="2">
+      <c r="AP47" s="2">
         <v>-3286.1813854492416</v>
       </c>
-      <c r="AP47" s="2">
+      <c r="AQ47" s="2">
         <v>-3295.6156793793812</v>
       </c>
-      <c r="AQ47" s="2">
+      <c r="AR47" s="2">
         <v>-3305.0770582118798</v>
       </c>
-      <c r="AR47" s="2">
+      <c r="AS47" s="2">
         <v>-3314.5655997047502</v>
       </c>
-      <c r="AS47" s="2">
+      <c r="AT47" s="2">
         <v>-3324.0813818392385</v>
       </c>
-      <c r="AT47" s="2">
+      <c r="AU47" s="2">
         <v>-3333.6244828204667</v>
       </c>
-      <c r="AU47" s="2">
+      <c r="AV47" s="2">
         <v>-3343.1949810780793</v>
       </c>
-      <c r="AV47" s="2">
+      <c r="AW47" s="2">
         <v>-3352.7929552668793</v>
       </c>
-      <c r="AW47" s="2">
+      <c r="AX47" s="2">
         <v>-3362.418484267484</v>
       </c>
-      <c r="AX47" s="2">
+      <c r="AY47" s="2">
         <v>-3372.0716471869673</v>
       </c>
-      <c r="AY47" s="2">
+      <c r="AZ47" s="2">
         <v>-3381.7525233595115</v>
       </c>
-      <c r="AZ47" s="2">
+      <c r="BA47" s="2">
         <v>-3391.4611923470588</v>
       </c>
-      <c r="BA47" s="2">
+      <c r="BB47" s="2">
         <v>-3401.1977339399659</v>
       </c>
-      <c r="BB47" s="2">
+      <c r="BC47" s="2">
         <v>-3410.9622281576608</v>
       </c>
-      <c r="BC47" s="2">
+      <c r="BD47" s="2">
         <v>-3420.754755249297</v>
       </c>
-      <c r="BD47" s="2">
+      <c r="BE47" s="2">
         <v>-3430.5753956944177</v>
       </c>
-      <c r="BE47" s="2">
+      <c r="BF47" s="2">
         <v>-3440.4242302036128</v>
       </c>
-      <c r="BF47" s="2">
+      <c r="BG47" s="2">
         <v>-3450.3013397191839</v>
       </c>
-      <c r="BG47" s="2">
+      <c r="BH47" s="2">
         <v>-3460.2068054158126</v>
       </c>
-      <c r="BH47" s="2">
+      <c r="BI47" s="2">
         <v>-3470.1407087012212</v>
       </c>
-      <c r="BI47" s="2">
+      <c r="BJ47" s="2">
         <v>-3480.103131216847</v>
       </c>
-      <c r="BJ47" s="2">
+      <c r="BK47" s="2">
         <v>-3490.0941548385122</v>
       </c>
-      <c r="BK47" s="2">
+      <c r="BL47" s="2">
         <v>-3500.1138616770959</v>
       </c>
-      <c r="BL47" s="2">
+      <c r="BM47" s="2">
         <v>-3510.1623340792062</v>
       </c>
-      <c r="BM47" s="2">
+      <c r="BN47" s="2">
         <v>-3520.2396546278655</v>
       </c>
-      <c r="BN47" s="2">
+      <c r="BO47" s="2">
         <v>-3530.3459061431795</v>
       </c>
-      <c r="BO47" s="2">
+      <c r="BP47" s="2">
         <v>-3540.4811716830236</v>
       </c>
-      <c r="BP47" s="2">
+      <c r="BQ47" s="2">
         <v>-3550.6455345437234</v>
       </c>
-      <c r="BQ47" s="2">
+      <c r="BR47" s="2">
         <v>-3560.8390782607403</v>
       </c>
-      <c r="BR47" s="2">
+      <c r="BS47" s="2">
         <v>-3571.0618866093573</v>
       </c>
-      <c r="BS47" s="2">
+      <c r="BT47" s="2">
         <v>-3581.3140436053673</v>
       </c>
-      <c r="BT47" s="2">
+      <c r="BU47" s="2">
         <v>-3591.5956335057654</v>
       </c>
-      <c r="BU47" s="2">
+      <c r="BV47" s="2">
         <v>-3601.9067408094384</v>
       </c>
     </row>
-    <row r="48" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>6</v>
       </c>
@@ -7127,155 +7212,156 @@
       <c r="X48" s="2">
         <v>-6694.0780551520147</v>
       </c>
-      <c r="Y48" s="2">
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="2">
         <v>-6719.0378727041043</v>
       </c>
-      <c r="Z48" s="2">
+      <c r="AA48" s="2">
         <v>-6744.0693473644315</v>
       </c>
-      <c r="AA48" s="2">
+      <c r="AB48" s="2">
         <v>-6769.1726848532962</v>
       </c>
-      <c r="AB48" s="2">
+      <c r="AC48" s="2">
         <v>-6794.3480914816046</v>
       </c>
-      <c r="AC48" s="2">
+      <c r="AD48" s="2">
         <v>-6819.5957741525526</v>
       </c>
-      <c r="AD48" s="2">
+      <c r="AE48" s="2">
         <v>-6844.9159403633403</v>
       </c>
-      <c r="AE48" s="2">
+      <c r="AF48" s="2">
         <v>-6870.3087982068701</v>
       </c>
-      <c r="AF48" s="2">
+      <c r="AG48" s="2">
         <v>-6895.774556373457</v>
       </c>
-      <c r="AG48" s="2">
+      <c r="AH48" s="2">
         <v>-6921.3134241525458</v>
       </c>
-      <c r="AH48" s="2">
+      <c r="AI48" s="2">
         <v>-6946.9256114344262</v>
       </c>
-      <c r="AI48" s="2">
+      <c r="AJ48" s="2">
         <v>-6972.6113287119679</v>
       </c>
-      <c r="AJ48" s="2">
+      <c r="AK48" s="2">
         <v>-6998.37078708234</v>
       </c>
-      <c r="AK48" s="2">
+      <c r="AL48" s="2">
         <v>-7024.2041982487517</v>
       </c>
-      <c r="AL48" s="2">
+      <c r="AM48" s="2">
         <v>-7050.1117745221891</v>
       </c>
-      <c r="AM48" s="2">
+      <c r="AN48" s="2">
         <v>-7076.0937288231653</v>
       </c>
-      <c r="AN48" s="2">
+      <c r="AO48" s="2">
         <v>-7102.1502746834631</v>
       </c>
-      <c r="AO48" s="2">
+      <c r="AP48" s="2">
         <v>-7128.2816262478937</v>
       </c>
-      <c r="AP48" s="2">
+      <c r="AQ48" s="2">
         <v>-7154.4879982760594</v>
       </c>
-      <c r="AQ48" s="2">
+      <c r="AR48" s="2">
         <v>-7180.7696061441111</v>
       </c>
-      <c r="AR48" s="2">
+      <c r="AS48" s="2">
         <v>-7207.1266658465283</v>
       </c>
-      <c r="AS48" s="2">
+      <c r="AT48" s="2">
         <v>-7233.5593939978844</v>
       </c>
-      <c r="AT48" s="2">
+      <c r="AU48" s="2">
         <v>-7260.0680078346304</v>
       </c>
-      <c r="AU48" s="2">
+      <c r="AV48" s="2">
         <v>-7286.6527252168871</v>
       </c>
-      <c r="AV48" s="2">
+      <c r="AW48" s="2">
         <v>-7313.3137646302202</v>
       </c>
-      <c r="AW48" s="2">
+      <c r="AX48" s="2">
         <v>-7340.0513451874558</v>
       </c>
-      <c r="AX48" s="2">
+      <c r="AY48" s="2">
         <v>-7366.8656866304646</v>
       </c>
-      <c r="AY48" s="2">
+      <c r="AZ48" s="2">
         <v>-7393.7570093319773</v>
       </c>
-      <c r="AZ48" s="2">
+      <c r="BA48" s="2">
         <v>-7420.7255342973858</v>
       </c>
-      <c r="BA48" s="2">
+      <c r="BB48" s="2">
         <v>-7447.7714831665726</v>
       </c>
-      <c r="BB48" s="2">
+      <c r="BC48" s="2">
         <v>-7474.8950782157244</v>
       </c>
-      <c r="BC48" s="2">
+      <c r="BD48" s="2">
         <v>-7502.0965423591588</v>
       </c>
-      <c r="BD48" s="2">
+      <c r="BE48" s="2">
         <v>-7529.3760991511608</v>
       </c>
-      <c r="BE48" s="2">
+      <c r="BF48" s="2">
         <v>-7556.7339727878134</v>
       </c>
-      <c r="BF48" s="2">
+      <c r="BG48" s="2">
         <v>-7584.1703881088451</v>
       </c>
-      <c r="BG48" s="2">
+      <c r="BH48" s="2">
         <v>-7611.6855705994803</v>
       </c>
-      <c r="BH48" s="2">
+      <c r="BI48" s="2">
         <v>-7639.2797463922816</v>
       </c>
-      <c r="BI48" s="2">
+      <c r="BJ48" s="2">
         <v>-7666.9531422690197</v>
       </c>
-      <c r="BJ48" s="2">
+      <c r="BK48" s="2">
         <v>-7694.7059856625347</v>
       </c>
-      <c r="BK48" s="2">
+      <c r="BL48" s="2">
         <v>-7722.5385046585998</v>
       </c>
-      <c r="BL48" s="2">
+      <c r="BM48" s="2">
         <v>-7750.4509279977956</v>
       </c>
-      <c r="BM48" s="2">
+      <c r="BN48" s="2">
         <v>-7778.4434850774051</v>
       </c>
-      <c r="BN48" s="2">
+      <c r="BO48" s="2">
         <v>-7806.5164059532763</v>
       </c>
-      <c r="BO48" s="2">
+      <c r="BP48" s="2">
         <v>-7834.6699213417323</v>
       </c>
-      <c r="BP48" s="2">
+      <c r="BQ48" s="2">
         <v>-7862.9042626214541</v>
       </c>
-      <c r="BQ48" s="2">
+      <c r="BR48" s="2">
         <v>-7891.2196618353901</v>
       </c>
-      <c r="BR48" s="2">
+      <c r="BS48" s="2">
         <v>-7919.616351692659</v>
       </c>
-      <c r="BS48" s="2">
+      <c r="BT48" s="2">
         <v>-7948.0945655704654</v>
       </c>
-      <c r="BT48" s="2">
+      <c r="BU48" s="2">
         <v>-7976.6545375160149</v>
       </c>
-      <c r="BU48" s="2">
+      <c r="BV48" s="2">
         <v>-8005.2965022484404</v>
       </c>
     </row>
-    <row r="49" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>28</v>
       </c>
@@ -7334,155 +7420,156 @@
       <c r="X49" s="2">
         <v>-706.3938419811011</v>
       </c>
-      <c r="Y49" s="2">
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="2">
         <v>-708.42182715720833</v>
       </c>
-      <c r="Z49" s="2">
+      <c r="AA49" s="2">
         <v>-710.45563447335996</v>
       </c>
-      <c r="AA49" s="2">
+      <c r="AB49" s="2">
         <v>-712.49528064433025</v>
       </c>
-      <c r="AB49" s="2">
+      <c r="AC49" s="2">
         <v>-714.54078243288029</v>
       </c>
-      <c r="AC49" s="2">
+      <c r="AD49" s="2">
         <v>-716.59215664989483</v>
       </c>
-      <c r="AD49" s="2">
+      <c r="AE49" s="2">
         <v>-718.64942015452141</v>
       </c>
-      <c r="AE49" s="2">
+      <c r="AF49" s="2">
         <v>-720.71258985430813</v>
       </c>
-      <c r="AF49" s="2">
+      <c r="AG49" s="2">
         <v>-722.78168270534331</v>
       </c>
-      <c r="AG49" s="2">
+      <c r="AH49" s="2">
         <v>-724.85671571239425</v>
       </c>
-      <c r="AH49" s="2">
+      <c r="AI49" s="2">
         <v>-726.93770592904707</v>
       </c>
-      <c r="AI49" s="2">
+      <c r="AJ49" s="2">
         <v>-729.02467045784726</v>
       </c>
-      <c r="AJ49" s="2">
+      <c r="AK49" s="2">
         <v>-731.11762645043996</v>
       </c>
-      <c r="AK49" s="2">
+      <c r="AL49" s="2">
         <v>-733.216591107711</v>
       </c>
-      <c r="AL49" s="2">
+      <c r="AM49" s="2">
         <v>-735.32158167992782</v>
       </c>
-      <c r="AM49" s="2">
+      <c r="AN49" s="2">
         <v>-737.43261546688223</v>
       </c>
-      <c r="AN49" s="2">
+      <c r="AO49" s="2">
         <v>-739.54970981803137</v>
       </c>
-      <c r="AO49" s="2">
+      <c r="AP49" s="2">
         <v>-741.67288213264135</v>
       </c>
-      <c r="AP49" s="2">
+      <c r="AQ49" s="2">
         <v>-743.80214985992973</v>
       </c>
-      <c r="AQ49" s="2">
+      <c r="AR49" s="2">
         <v>-745.93753049920906</v>
       </c>
-      <c r="AR49" s="2">
+      <c r="AS49" s="2">
         <v>-748.07904160003045</v>
       </c>
-      <c r="AS49" s="2">
+      <c r="AT49" s="2">
         <v>-750.22670076232805</v>
       </c>
-      <c r="AT49" s="2">
+      <c r="AU49" s="2">
         <v>-752.38052563656368</v>
       </c>
-      <c r="AU49" s="2">
+      <c r="AV49" s="2">
         <v>-754.54053392387198</v>
       </c>
-      <c r="AV49" s="2">
+      <c r="AW49" s="2">
         <v>-756.7067433762054</v>
       </c>
-      <c r="AW49" s="2">
+      <c r="AX49" s="2">
         <v>-758.8791717964807</v>
       </c>
-      <c r="AX49" s="2">
+      <c r="AY49" s="2">
         <v>-761.05783703872521</v>
       </c>
-      <c r="AY49" s="2">
+      <c r="AZ49" s="2">
         <v>-763.24275700822307</v>
       </c>
-      <c r="AZ49" s="2">
+      <c r="BA49" s="2">
         <v>-765.4339496616625</v>
       </c>
-      <c r="BA49" s="2">
+      <c r="BB49" s="2">
         <v>-767.63143300728393</v>
       </c>
-      <c r="BB49" s="2">
+      <c r="BC49" s="2">
         <v>-769.83522510502746</v>
       </c>
-      <c r="BC49" s="2">
+      <c r="BD49" s="2">
         <v>-772.04534406668165</v>
       </c>
-      <c r="BD49" s="2">
+      <c r="BE49" s="2">
         <v>-774.26180805603167</v>
       </c>
-      <c r="BE49" s="2">
+      <c r="BF49" s="2">
         <v>-776.4846352890097</v>
       </c>
-      <c r="BF49" s="2">
+      <c r="BG49" s="2">
         <v>-778.71384403384366</v>
       </c>
-      <c r="BG49" s="2">
+      <c r="BH49" s="2">
         <v>-780.94945261120768</v>
       </c>
-      <c r="BH49" s="2">
+      <c r="BI49" s="2">
         <v>-783.19147939437278</v>
       </c>
-      <c r="BI49" s="2">
+      <c r="BJ49" s="2">
         <v>-785.43994280935783</v>
       </c>
-      <c r="BJ49" s="2">
+      <c r="BK49" s="2">
         <v>-787.69486133508087</v>
       </c>
-      <c r="BK49" s="2">
+      <c r="BL49" s="2">
         <v>-789.95625350351111</v>
       </c>
-      <c r="BL49" s="2">
+      <c r="BM49" s="2">
         <v>-792.2241378998209</v>
       </c>
-      <c r="BM49" s="2">
+      <c r="BN49" s="2">
         <v>-794.49853316253905</v>
       </c>
-      <c r="BN49" s="2">
+      <c r="BO49" s="2">
         <v>-796.77945798370365</v>
       </c>
-      <c r="BO49" s="2">
+      <c r="BP49" s="2">
         <v>-799.06693110901563</v>
       </c>
-      <c r="BP49" s="2">
+      <c r="BQ49" s="2">
         <v>-801.36097133799308</v>
       </c>
-      <c r="BQ49" s="2">
+      <c r="BR49" s="2">
         <v>-803.66159752412534</v>
       </c>
-      <c r="BR49" s="2">
+      <c r="BS49" s="2">
         <v>-805.96882857502851</v>
       </c>
-      <c r="BS49" s="2">
+      <c r="BT49" s="2">
         <v>-808.28268345260028</v>
       </c>
-      <c r="BT49" s="2">
+      <c r="BU49" s="2">
         <v>-810.60318117317604</v>
       </c>
-      <c r="BU49" s="2">
+      <c r="BV49" s="2">
         <v>-812.93034080768575</v>
       </c>
     </row>
-    <row r="50" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>29</v>
       </c>
@@ -7543,157 +7630,158 @@
       <c r="X50" s="2">
         <v>-3260.2792706820051</v>
       </c>
-      <c r="Y50" s="2">
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="2">
         <v>-3269.6392022640384</v>
       </c>
-      <c r="Z50" s="2">
+      <c r="AA50" s="2">
         <v>-3279.0260052616613</v>
       </c>
-      <c r="AA50" s="2">
+      <c r="AB50" s="2">
         <v>-3288.4397568199856</v>
       </c>
-      <c r="AB50" s="2">
+      <c r="AC50" s="2">
         <v>-3297.8805343056015</v>
       </c>
-      <c r="AC50" s="2">
+      <c r="AD50" s="2">
         <v>-3307.3484153072072</v>
       </c>
-      <c r="AD50" s="2">
+      <c r="AE50" s="2">
         <v>-3316.8434776362528</v>
       </c>
-      <c r="AE50" s="2">
+      <c r="AF50" s="2">
         <v>-3326.365799327576</v>
       </c>
-      <c r="AF50" s="2">
+      <c r="AG50" s="2">
         <v>-3335.9154586400459</v>
       </c>
-      <c r="AG50" s="2">
+      <c r="AH50" s="2">
         <v>-3345.4925340572045</v>
       </c>
-      <c r="AH50" s="2">
+      <c r="AI50" s="2">
         <v>-3355.0971042879096</v>
       </c>
-      <c r="AI50" s="2">
+      <c r="AJ50" s="2">
         <v>-3364.7292482669877</v>
       </c>
-      <c r="AJ50" s="2">
+      <c r="AK50" s="2">
         <v>-3374.3890451558768</v>
       </c>
-      <c r="AK50" s="2">
+      <c r="AL50" s="2">
         <v>-3384.0765743432812</v>
       </c>
-      <c r="AL50" s="2">
+      <c r="AM50" s="2">
         <v>-3393.7919154458209</v>
       </c>
-      <c r="AM50" s="2">
+      <c r="AN50" s="2">
         <v>-3403.535148308687</v>
       </c>
-      <c r="AN50" s="2">
+      <c r="AO50" s="2">
         <v>-3413.3063530062987</v>
       </c>
-      <c r="AO50" s="2">
+      <c r="AP50" s="2">
         <v>-3423.1056098429603</v>
       </c>
-      <c r="AP50" s="2">
+      <c r="AQ50" s="2">
         <v>-3432.9329993535216</v>
       </c>
-      <c r="AQ50" s="2">
+      <c r="AR50" s="2">
         <v>-3442.7886023040419</v>
       </c>
-      <c r="AR50" s="2">
+      <c r="AS50" s="2">
         <v>-3452.6724996924481</v>
       </c>
-      <c r="AS50" s="2">
+      <c r="AT50" s="2">
         <v>-3462.5847727492064</v>
       </c>
-      <c r="AT50" s="2">
+      <c r="AU50" s="2">
         <v>-3472.5255029379864</v>
       </c>
-      <c r="AU50" s="2">
+      <c r="AV50" s="2">
         <v>-3482.494771956332</v>
       </c>
-      <c r="AV50" s="2">
+      <c r="AW50" s="2">
         <v>-3492.4926617363326</v>
       </c>
-      <c r="AW50" s="2">
+      <c r="AX50" s="2">
         <v>-3502.5192544452957</v>
       </c>
-      <c r="AX50" s="2">
+      <c r="AY50" s="2">
         <v>-3512.574632486424</v>
       </c>
-      <c r="AY50" s="2">
+      <c r="AZ50" s="2">
         <v>-3522.658878499491</v>
       </c>
-      <c r="AZ50" s="2">
+      <c r="BA50" s="2">
         <v>-3532.7720753615195</v>
       </c>
-      <c r="BA50" s="2">
+      <c r="BB50" s="2">
         <v>-3542.9143061874643</v>
       </c>
-      <c r="BB50" s="2">
+      <c r="BC50" s="2">
         <v>-3553.0856543308964</v>
       </c>
-      <c r="BC50" s="2">
+      <c r="BD50" s="2">
         <v>-3563.2862033846845</v>
       </c>
-      <c r="BD50" s="2">
+      <c r="BE50" s="2">
         <v>-3573.5160371816846</v>
       </c>
-      <c r="BE50" s="2">
+      <c r="BF50" s="2">
         <v>-3583.7752397954296</v>
       </c>
-      <c r="BF50" s="2">
+      <c r="BG50" s="2">
         <v>-3594.0638955408172</v>
       </c>
-      <c r="BG50" s="2">
+      <c r="BH50" s="2">
         <v>-3604.3820889748049</v>
       </c>
-      <c r="BH50" s="2">
+      <c r="BI50" s="2">
         <v>-3614.7299048971054</v>
       </c>
-      <c r="BI50" s="2">
+      <c r="BJ50" s="2">
         <v>-3625.1074283508824</v>
       </c>
-      <c r="BJ50" s="2">
+      <c r="BK50" s="2">
         <v>-3635.51474462345</v>
       </c>
-      <c r="BK50" s="2">
+      <c r="BL50" s="2">
         <v>-3645.9519392469742</v>
       </c>
-      <c r="BL50" s="2">
+      <c r="BM50" s="2">
         <v>-3656.4190979991736</v>
       </c>
-      <c r="BM50" s="2">
+      <c r="BN50" s="2">
         <v>-3666.9163069040264</v>
       </c>
-      <c r="BN50" s="2">
+      <c r="BO50" s="2">
         <v>-3677.4436522324781</v>
       </c>
-      <c r="BO50" s="2">
+      <c r="BP50" s="2">
         <v>-3688.0012205031494</v>
       </c>
-      <c r="BP50" s="2">
+      <c r="BQ50" s="2">
         <v>-3698.5890984830453</v>
       </c>
-      <c r="BQ50" s="2">
+      <c r="BR50" s="2">
         <v>-3709.2073731882706</v>
       </c>
-      <c r="BR50" s="2">
+      <c r="BS50" s="2">
         <v>-3719.8561318847469</v>
       </c>
-      <c r="BS50" s="2">
+      <c r="BT50" s="2">
         <v>-3730.5354620889243</v>
       </c>
-      <c r="BT50" s="2">
+      <c r="BU50" s="2">
         <v>-3741.2454515685049</v>
       </c>
-      <c r="BU50" s="2">
+      <c r="BV50" s="2">
         <v>-3751.9861883431649</v>
       </c>
-      <c r="BV50" s="2"/>
       <c r="BW50" s="2"/>
+      <c r="BX50" s="2"/>
     </row>
-    <row r="51" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:76" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -7767,8 +7855,9 @@
       <c r="BU51" s="2"/>
       <c r="BV51" s="2"/>
       <c r="BW51" s="2"/>
+      <c r="BX51" s="2"/>
     </row>
-    <row r="52" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:76" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -7840,9 +7929,72 @@
       <c r="BS52" s="2"/>
       <c r="BT52" s="2"/>
       <c r="BU52" s="2"/>
+      <c r="BV52" s="2"/>
+    </row>
+    <row r="54" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54">
+        <v>295</v>
+      </c>
+      <c r="D54" s="26">
+        <v>877</v>
+      </c>
+      <c r="E54">
+        <v>272</v>
+      </c>
+      <c r="F54">
+        <v>880</v>
+      </c>
+      <c r="G54">
+        <v>390</v>
+      </c>
+      <c r="H54">
+        <v>880</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>882</v>
+      </c>
+      <c r="K54" s="13">
+        <v>580</v>
+      </c>
+      <c r="L54">
+        <v>885</v>
+      </c>
+      <c r="M54">
+        <v>492</v>
+      </c>
+      <c r="N54">
+        <v>818</v>
+      </c>
+      <c r="O54" s="13">
+        <v>633</v>
+      </c>
+      <c r="Q54">
+        <v>520</v>
+      </c>
+      <c r="S54" s="13">
+        <v>523</v>
+      </c>
+      <c r="U54">
+        <v>468</v>
+      </c>
+      <c r="W54" s="13">
+        <v>299</v>
+      </c>
+      <c r="Y54">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="55" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:BW32">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:BX32">
     <sortCondition ref="A18:A32"/>
   </sortState>
   <mergeCells count="1">

--- a/Energy - Orçado x Realizado.xlsx
+++ b/Energy - Orçado x Realizado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Controle Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB5FB29-CD0F-49B6-85B8-01ACB8F0F443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09BAA4A-4241-4072-BAF9-B31C9111DFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Receita Bruta</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Orçado</t>
   </si>
   <si>
-    <t>Out/24 n~orçado</t>
-  </si>
-  <si>
     <t>Soni iluminação</t>
   </si>
   <si>
@@ -177,11 +174,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\);\-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\);\-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="[$-416]mmm\-yy;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -302,16 +300,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -334,30 +328,48 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,916 +708,916 @@
   <dimension ref="A1:BX55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J57" sqref="J57"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" style="19" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="6" width="11.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="11.7109375" style="13" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="11.7109375" style="11" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="11.7109375" style="13" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="11.7109375" style="11" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="11.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="11.7109375" style="13" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="11.7109375" style="11" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="11.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="11.7109375" style="13" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="11.7109375" style="11" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="11.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="11.7109375" style="13" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="11.7109375" style="11" customWidth="1" outlineLevel="1"/>
     <col min="16" max="74" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="13" t="s">
         <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="13" t="s">
         <v>22</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="13" t="s">
         <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="13" t="s">
         <v>22</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="13" t="s">
         <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="13" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="1"/>
-      <c r="Y1" s="16"/>
+      <c r="Y1" s="13"/>
     </row>
     <row r="2" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>24</v>
-      </c>
+      <c r="B2" s="31"/>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="15">
+    <row r="3" spans="1:74" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="30">
         <v>45566</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="30">
         <v>45597</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="30">
         <v>45597</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="30">
         <v>45627</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="30">
         <v>45627</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="30">
         <v>45658</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="30">
         <v>45658</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="30">
         <v>45689</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="30">
         <v>45689</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="30">
         <v>45717</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="30">
         <v>45717</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="30">
         <v>45748</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="30">
         <v>45748</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="30">
         <v>45781</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="30">
         <v>45778</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="30">
         <v>45809</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="30">
         <v>45809</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="30">
         <v>45839</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U3" s="30">
         <v>45839</v>
       </c>
-      <c r="V3" s="15">
+      <c r="V3" s="30">
         <v>45870</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="30">
         <v>45870</v>
       </c>
-      <c r="X3" s="15">
+      <c r="X3" s="30">
         <v>45962</v>
       </c>
-      <c r="Y3" s="15">
+      <c r="Y3" s="30">
         <v>45962</v>
       </c>
-      <c r="Z3" s="15">
+      <c r="Z3" s="30">
         <v>46235</v>
       </c>
-      <c r="AA3" s="15">
+      <c r="AA3" s="30">
         <v>46266</v>
       </c>
-      <c r="AB3" s="15">
+      <c r="AB3" s="30">
         <v>46296</v>
       </c>
-      <c r="AC3" s="15">
+      <c r="AC3" s="30">
         <v>46327</v>
       </c>
-      <c r="AD3" s="15">
+      <c r="AD3" s="30">
         <v>46357</v>
       </c>
-      <c r="AE3" s="15">
+      <c r="AE3" s="30">
         <v>46388</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="30">
         <v>46419</v>
       </c>
-      <c r="AG3" s="15">
+      <c r="AG3" s="30">
         <v>46447</v>
       </c>
-      <c r="AH3" s="15">
+      <c r="AH3" s="30">
         <v>46478</v>
       </c>
-      <c r="AI3" s="15">
+      <c r="AI3" s="30">
         <v>46508</v>
       </c>
-      <c r="AJ3" s="15">
+      <c r="AJ3" s="30">
         <v>46539</v>
       </c>
-      <c r="AK3" s="15">
+      <c r="AK3" s="30">
         <v>46569</v>
       </c>
-      <c r="AL3" s="15">
+      <c r="AL3" s="30">
         <v>46600</v>
       </c>
-      <c r="AM3" s="15">
+      <c r="AM3" s="30">
         <v>46631</v>
       </c>
-      <c r="AN3" s="15">
+      <c r="AN3" s="30">
         <v>46661</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AO3" s="30">
         <v>46692</v>
       </c>
-      <c r="AP3" s="15">
+      <c r="AP3" s="30">
         <v>46722</v>
       </c>
-      <c r="AQ3" s="15">
+      <c r="AQ3" s="30">
         <v>46753</v>
       </c>
-      <c r="AR3" s="15">
+      <c r="AR3" s="30">
         <v>46784</v>
       </c>
-      <c r="AS3" s="15">
+      <c r="AS3" s="30">
         <v>46813</v>
       </c>
-      <c r="AT3" s="15">
+      <c r="AT3" s="30">
         <v>46844</v>
       </c>
-      <c r="AU3" s="15">
+      <c r="AU3" s="30">
         <v>46874</v>
       </c>
-      <c r="AV3" s="15">
+      <c r="AV3" s="30">
         <v>46905</v>
       </c>
-      <c r="AW3" s="15">
+      <c r="AW3" s="30">
         <v>46935</v>
       </c>
-      <c r="AX3" s="15">
+      <c r="AX3" s="30">
         <v>46966</v>
       </c>
-      <c r="AY3" s="15">
+      <c r="AY3" s="30">
         <v>46997</v>
       </c>
-      <c r="AZ3" s="15">
+      <c r="AZ3" s="30">
         <v>47027</v>
       </c>
-      <c r="BA3" s="15">
+      <c r="BA3" s="30">
         <v>47058</v>
       </c>
-      <c r="BB3" s="15">
+      <c r="BB3" s="30">
         <v>47088</v>
       </c>
-      <c r="BC3" s="15">
+      <c r="BC3" s="30">
         <v>47119</v>
       </c>
-      <c r="BD3" s="15">
+      <c r="BD3" s="30">
         <v>47150</v>
       </c>
-      <c r="BE3" s="15">
+      <c r="BE3" s="30">
         <v>47178</v>
       </c>
-      <c r="BF3" s="15">
+      <c r="BF3" s="30">
         <v>47209</v>
       </c>
-      <c r="BG3" s="15">
+      <c r="BG3" s="30">
         <v>47239</v>
       </c>
-      <c r="BH3" s="15">
+      <c r="BH3" s="30">
         <v>47270</v>
       </c>
-      <c r="BI3" s="15">
+      <c r="BI3" s="30">
         <v>47300</v>
       </c>
-      <c r="BJ3" s="15">
+      <c r="BJ3" s="30">
         <v>47331</v>
       </c>
-      <c r="BK3" s="15">
+      <c r="BK3" s="30">
         <v>47362</v>
       </c>
-      <c r="BL3" s="15">
+      <c r="BL3" s="30">
         <v>47392</v>
       </c>
-      <c r="BM3" s="15">
+      <c r="BM3" s="30">
         <v>47423</v>
       </c>
-      <c r="BN3" s="15">
+      <c r="BN3" s="30">
         <v>47453</v>
       </c>
-      <c r="BO3" s="15">
+      <c r="BO3" s="30">
         <v>47484</v>
       </c>
-      <c r="BP3" s="15">
+      <c r="BP3" s="30">
         <v>47515</v>
       </c>
-      <c r="BQ3" s="15">
+      <c r="BQ3" s="30">
         <v>47543</v>
       </c>
-      <c r="BR3" s="15">
+      <c r="BR3" s="30">
         <v>47574</v>
       </c>
-      <c r="BS3" s="15">
+      <c r="BS3" s="30">
         <v>47604</v>
       </c>
-      <c r="BT3" s="15">
+      <c r="BT3" s="30">
         <v>47635</v>
       </c>
-      <c r="BU3" s="15">
+      <c r="BU3" s="30">
         <v>47665</v>
       </c>
-      <c r="BV3" s="15">
+      <c r="BV3" s="30">
         <v>47696</v>
       </c>
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9">
-        <f>SUM(C4:BV4)</f>
-        <v>11193527.343598809</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="7">
+        <f>C4+E4+G4+I4+K4+M4+O4+Q4+S4+U4+W4+Y4</f>
+        <v>2027307.3099999998</v>
+      </c>
+      <c r="C4" s="5">
         <f>SUM(C6:C7)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <f>D5+D8</f>
         <v>2006615.5435777036</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <f t="shared" ref="E4:BQ4" si="0">E5+E8</f>
         <v>0</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <f t="shared" si="0"/>
         <v>106615.54357770366</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <f t="shared" si="0"/>
         <v>166376.69</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <f t="shared" si="0"/>
         <v>106593.93710049389</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <f t="shared" si="0"/>
         <v>107225</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <f t="shared" si="0"/>
         <v>106899.95749797703</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="5">
         <f t="shared" si="0"/>
         <v>30916.34</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <f t="shared" si="0"/>
         <v>107206.85644902731</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="5">
         <f t="shared" si="0"/>
         <v>142985.09</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="5">
         <f t="shared" si="0"/>
         <v>107514.63647588308</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="5">
         <f t="shared" si="0"/>
         <v>349064.35</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="5">
         <f t="shared" si="0"/>
         <v>107823.30010802369</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="5">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="5">
         <f t="shared" si="0"/>
         <v>108132.84988219042</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="5">
         <f t="shared" si="0"/>
         <v>89978.67</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="5">
         <f t="shared" si="0"/>
         <v>108842.82003705943</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="5">
         <f t="shared" si="0"/>
         <v>89119.25</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="5">
         <f t="shared" si="0"/>
         <v>109556.97743247374</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W4" s="5">
         <f t="shared" si="0"/>
         <v>871641.91999999993</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="5">
         <f t="shared" si="0"/>
         <v>110275.34581702357</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="5">
         <f t="shared" ref="Y4" si="1">Y5+Y8</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="7">
+      <c r="Z4" s="5">
         <f t="shared" si="0"/>
         <v>110997.94907147787</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="5">
         <f t="shared" si="0"/>
         <v>111500.81807781129</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AB4" s="5">
         <f t="shared" si="0"/>
         <v>112231.19461044938</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AC4" s="5">
         <f t="shared" si="0"/>
         <v>112955.55421269746</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AD4" s="5">
         <f t="shared" si="0"/>
         <v>113488.68408053627</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AE4" s="5">
         <f t="shared" si="0"/>
         <v>114022.34594505926</v>
       </c>
-      <c r="AF4" s="7">
+      <c r="AF4" s="5">
         <f t="shared" si="0"/>
         <v>114557.3798253882</v>
       </c>
-      <c r="AG4" s="7">
+      <c r="AG4" s="5">
         <f t="shared" si="0"/>
         <v>115093.79314638168</v>
       </c>
-      <c r="AH4" s="7">
+      <c r="AH4" s="5">
         <f t="shared" si="0"/>
         <v>115631.58971258732</v>
       </c>
-      <c r="AI4" s="7">
+      <c r="AI4" s="5">
         <f t="shared" si="0"/>
         <v>116170.77332340677</v>
       </c>
-      <c r="AJ4" s="7">
+      <c r="AJ4" s="5">
         <f t="shared" si="0"/>
         <v>116711.34778889181</v>
       </c>
-      <c r="AK4" s="7">
+      <c r="AK4" s="5">
         <f t="shared" si="0"/>
         <v>117253.31692984366</v>
       </c>
-      <c r="AL4" s="7">
+      <c r="AL4" s="5">
         <f t="shared" si="0"/>
         <v>117796.68457784381</v>
       </c>
-      <c r="AM4" s="7">
+      <c r="AM4" s="5">
         <f t="shared" si="0"/>
         <v>118295.08799702271</v>
       </c>
-      <c r="AN4" s="7">
+      <c r="AN4" s="5">
         <f t="shared" si="0"/>
         <v>118841.05812756054</v>
       </c>
-      <c r="AO4" s="7">
+      <c r="AO4" s="5">
         <f t="shared" si="0"/>
         <v>119388.63976029815</v>
       </c>
-      <c r="AP4" s="7">
+      <c r="AP4" s="5">
         <f t="shared" si="0"/>
         <v>119937.6363443998</v>
       </c>
-      <c r="AQ4" s="7">
+      <c r="AQ4" s="5">
         <f t="shared" si="0"/>
         <v>120488.05089229152</v>
       </c>
-      <c r="AR4" s="7">
+      <c r="AR4" s="5">
         <f t="shared" si="0"/>
         <v>121039.88729760991</v>
       </c>
-      <c r="AS4" s="7">
+      <c r="AS4" s="5">
         <f t="shared" si="0"/>
         <v>121593.14946878582</v>
       </c>
-      <c r="AT4" s="7">
+      <c r="AT4" s="5">
         <f t="shared" si="0"/>
         <v>122147.84132529711</v>
       </c>
-      <c r="AU4" s="7">
+      <c r="AU4" s="5">
         <f t="shared" si="0"/>
         <v>122703.96679768368</v>
       </c>
-      <c r="AV4" s="7">
+      <c r="AV4" s="5">
         <f t="shared" si="0"/>
         <v>123261.52982757895</v>
       </c>
-      <c r="AW4" s="7">
+      <c r="AW4" s="5">
         <f t="shared" si="0"/>
         <v>123820.53436774146</v>
       </c>
-      <c r="AX4" s="7">
+      <c r="AX4" s="5">
         <f t="shared" si="0"/>
         <v>124380.98438208665</v>
       </c>
-      <c r="AY4" s="7">
+      <c r="AY4" s="5">
         <f t="shared" si="0"/>
         <v>124894.89443721721</v>
       </c>
-      <c r="AZ4" s="7">
+      <c r="AZ4" s="5">
         <f t="shared" si="0"/>
         <v>125458.03405444659</v>
       </c>
-      <c r="BA4" s="7">
+      <c r="BA4" s="5">
         <f t="shared" si="0"/>
         <v>126022.83959052119</v>
       </c>
-      <c r="BB4" s="7">
+      <c r="BB4" s="5">
         <f t="shared" si="0"/>
         <v>126589.10761355137</v>
       </c>
-      <c r="BC4" s="7">
+      <c r="BC4" s="5">
         <f t="shared" si="0"/>
         <v>127156.84123962262</v>
       </c>
-      <c r="BD4" s="7">
+      <c r="BD4" s="5">
         <f t="shared" si="0"/>
         <v>127726.04449687258</v>
       </c>
-      <c r="BE4" s="7">
+      <c r="BE4" s="5">
         <f t="shared" si="0"/>
         <v>128296.72142875013</v>
       </c>
-      <c r="BF4" s="7">
+      <c r="BF4" s="5">
         <f t="shared" si="0"/>
         <v>128868.87609013708</v>
       </c>
-      <c r="BG4" s="7">
+      <c r="BG4" s="5">
         <f t="shared" si="0"/>
         <v>129442.51254736367</v>
       </c>
-      <c r="BH4" s="7">
+      <c r="BH4" s="5">
         <f t="shared" si="0"/>
         <v>129968.9979181941</v>
       </c>
-      <c r="BI4" s="7">
+      <c r="BI4" s="5">
         <f t="shared" si="0"/>
         <v>130478.76360789448</v>
       </c>
-      <c r="BJ4" s="7">
+      <c r="BJ4" s="5">
         <f t="shared" si="0"/>
         <v>130989.42291756609</v>
       </c>
-      <c r="BK4" s="7">
+      <c r="BK4" s="5">
         <f t="shared" si="0"/>
         <v>131501.07479386276</v>
       </c>
-      <c r="BL4" s="7">
+      <c r="BL4" s="5">
         <f t="shared" si="0"/>
         <v>132013.72261231358</v>
       </c>
-      <c r="BM4" s="7">
+      <c r="BM4" s="5">
         <f t="shared" si="0"/>
         <v>132527.36923503783</v>
       </c>
-      <c r="BN4" s="7">
+      <c r="BN4" s="5">
         <f t="shared" si="0"/>
         <v>133042.01752951712</v>
       </c>
-      <c r="BO4" s="7">
+      <c r="BO4" s="5">
         <f t="shared" si="0"/>
         <v>133557.67037144973</v>
       </c>
-      <c r="BP4" s="7">
+      <c r="BP4" s="5">
         <f t="shared" si="0"/>
         <v>134074.33064478962</v>
       </c>
-      <c r="BQ4" s="7">
+      <c r="BQ4" s="5">
         <f t="shared" si="0"/>
         <v>134592.00124177034</v>
       </c>
-      <c r="BR4" s="7">
+      <c r="BR4" s="5">
         <f t="shared" ref="BR4:BV4" si="2">BR5+BR8</f>
         <v>135110.68506292874</v>
       </c>
-      <c r="BS4" s="7">
+      <c r="BS4" s="5">
         <f t="shared" si="2"/>
         <v>135630.38501712884</v>
       </c>
-      <c r="BT4" s="7">
+      <c r="BT4" s="5">
         <f t="shared" si="2"/>
         <v>136151.1040215856</v>
       </c>
-      <c r="BU4" s="7">
+      <c r="BU4" s="5">
         <f t="shared" si="2"/>
         <v>136672.84500188916</v>
       </c>
-      <c r="BV4" s="7">
+      <c r="BV4" s="5">
         <f t="shared" si="2"/>
         <v>125066.2062781055</v>
       </c>
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="21">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="A5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
         <f>SUM(D6:D7)</f>
         <v>106615.54357770366</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <f t="shared" ref="E5:BQ5" si="3">SUM(E6:E7)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <f t="shared" si="3"/>
         <v>106615.54357770366</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <f t="shared" si="3"/>
         <v>16376.69</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <f t="shared" si="3"/>
         <v>106593.93710049389</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <f t="shared" si="3"/>
         <v>106899.95749797703</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="5">
         <f t="shared" si="3"/>
         <v>20916.34</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="5">
         <f t="shared" si="3"/>
         <v>107206.85644902731</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="5">
         <f t="shared" si="3"/>
         <v>18116.34</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="5">
         <f t="shared" si="3"/>
         <v>107514.63647588308</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="5">
         <f t="shared" si="3"/>
         <v>29064.35</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="5">
         <f t="shared" si="3"/>
         <v>107823.30010802369</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="5">
         <f t="shared" si="3"/>
         <v>108132.84988219042</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="5">
         <f t="shared" si="3"/>
         <v>89978.67</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="5">
         <f t="shared" si="3"/>
         <v>108842.82003705943</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="5">
         <f t="shared" si="3"/>
         <v>51312.25</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="5">
         <f t="shared" si="3"/>
         <v>109556.97743247374</v>
       </c>
-      <c r="W5" s="7">
+      <c r="W5" s="5">
         <f t="shared" si="3"/>
         <v>68758.320000000007</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="5">
         <f t="shared" si="3"/>
         <v>110275.34581702357</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="5">
         <f t="shared" ref="Y5" si="4">SUM(Y6:Y7)</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="Z5" s="5">
         <f t="shared" si="3"/>
         <v>110997.94907147787</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="5">
         <f t="shared" si="3"/>
         <v>111500.81807781129</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="5">
         <f t="shared" si="3"/>
         <v>112231.19461044938</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AC5" s="5">
         <f t="shared" si="3"/>
         <v>112955.55421269746</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD5" s="5">
         <f t="shared" si="3"/>
         <v>113488.68408053627</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="AE5" s="5">
         <f t="shared" si="3"/>
         <v>114022.34594505926</v>
       </c>
-      <c r="AF5" s="7">
+      <c r="AF5" s="5">
         <f t="shared" si="3"/>
         <v>114557.3798253882</v>
       </c>
-      <c r="AG5" s="7">
+      <c r="AG5" s="5">
         <f t="shared" si="3"/>
         <v>115093.79314638168</v>
       </c>
-      <c r="AH5" s="7">
+      <c r="AH5" s="5">
         <f t="shared" si="3"/>
         <v>115631.58971258732</v>
       </c>
-      <c r="AI5" s="7">
+      <c r="AI5" s="5">
         <f t="shared" si="3"/>
         <v>116170.77332340677</v>
       </c>
-      <c r="AJ5" s="7">
+      <c r="AJ5" s="5">
         <f t="shared" si="3"/>
         <v>116711.34778889181</v>
       </c>
-      <c r="AK5" s="7">
+      <c r="AK5" s="5">
         <f t="shared" si="3"/>
         <v>117253.31692984366</v>
       </c>
-      <c r="AL5" s="7">
+      <c r="AL5" s="5">
         <f t="shared" si="3"/>
         <v>117796.68457784381</v>
       </c>
-      <c r="AM5" s="7">
+      <c r="AM5" s="5">
         <f t="shared" si="3"/>
         <v>118295.08799702271</v>
       </c>
-      <c r="AN5" s="7">
+      <c r="AN5" s="5">
         <f t="shared" si="3"/>
         <v>118841.05812756054</v>
       </c>
-      <c r="AO5" s="7">
+      <c r="AO5" s="5">
         <f t="shared" si="3"/>
         <v>119388.63976029815</v>
       </c>
-      <c r="AP5" s="7">
+      <c r="AP5" s="5">
         <f t="shared" si="3"/>
         <v>119937.6363443998</v>
       </c>
-      <c r="AQ5" s="7">
+      <c r="AQ5" s="5">
         <f t="shared" si="3"/>
         <v>120488.05089229152</v>
       </c>
-      <c r="AR5" s="7">
+      <c r="AR5" s="5">
         <f t="shared" si="3"/>
         <v>121039.88729760991</v>
       </c>
-      <c r="AS5" s="7">
+      <c r="AS5" s="5">
         <f t="shared" si="3"/>
         <v>121593.14946878582</v>
       </c>
-      <c r="AT5" s="7">
+      <c r="AT5" s="5">
         <f t="shared" si="3"/>
         <v>122147.84132529711</v>
       </c>
-      <c r="AU5" s="7">
+      <c r="AU5" s="5">
         <f t="shared" si="3"/>
         <v>122703.96679768368</v>
       </c>
-      <c r="AV5" s="7">
+      <c r="AV5" s="5">
         <f t="shared" si="3"/>
         <v>123261.52982757895</v>
       </c>
-      <c r="AW5" s="7">
+      <c r="AW5" s="5">
         <f t="shared" si="3"/>
         <v>123820.53436774146</v>
       </c>
-      <c r="AX5" s="7">
+      <c r="AX5" s="5">
         <f t="shared" si="3"/>
         <v>124380.98438208665</v>
       </c>
-      <c r="AY5" s="7">
+      <c r="AY5" s="5">
         <f t="shared" si="3"/>
         <v>124894.89443721721</v>
       </c>
-      <c r="AZ5" s="7">
+      <c r="AZ5" s="5">
         <f t="shared" si="3"/>
         <v>125458.03405444659</v>
       </c>
-      <c r="BA5" s="7">
+      <c r="BA5" s="5">
         <f t="shared" si="3"/>
         <v>126022.83959052119</v>
       </c>
-      <c r="BB5" s="7">
+      <c r="BB5" s="5">
         <f t="shared" si="3"/>
         <v>126589.10761355137</v>
       </c>
-      <c r="BC5" s="7">
+      <c r="BC5" s="5">
         <f t="shared" si="3"/>
         <v>127156.84123962262</v>
       </c>
-      <c r="BD5" s="7">
+      <c r="BD5" s="5">
         <f t="shared" si="3"/>
         <v>127726.04449687258</v>
       </c>
-      <c r="BE5" s="7">
+      <c r="BE5" s="5">
         <f t="shared" si="3"/>
         <v>128296.72142875013</v>
       </c>
-      <c r="BF5" s="7">
+      <c r="BF5" s="5">
         <f t="shared" si="3"/>
         <v>128868.87609013708</v>
       </c>
-      <c r="BG5" s="7">
+      <c r="BG5" s="5">
         <f t="shared" si="3"/>
         <v>129442.51254736367</v>
       </c>
-      <c r="BH5" s="7">
+      <c r="BH5" s="5">
         <f t="shared" si="3"/>
         <v>129968.9979181941</v>
       </c>
-      <c r="BI5" s="7">
+      <c r="BI5" s="5">
         <f t="shared" si="3"/>
         <v>130478.76360789448</v>
       </c>
-      <c r="BJ5" s="7">
+      <c r="BJ5" s="5">
         <f t="shared" si="3"/>
         <v>130989.42291756609</v>
       </c>
-      <c r="BK5" s="7">
+      <c r="BK5" s="5">
         <f t="shared" si="3"/>
         <v>131501.07479386276</v>
       </c>
-      <c r="BL5" s="7">
+      <c r="BL5" s="5">
         <f t="shared" si="3"/>
         <v>132013.72261231358</v>
       </c>
-      <c r="BM5" s="7">
+      <c r="BM5" s="5">
         <f t="shared" si="3"/>
         <v>132527.36923503783</v>
       </c>
-      <c r="BN5" s="7">
+      <c r="BN5" s="5">
         <f t="shared" si="3"/>
         <v>133042.01752951712</v>
       </c>
-      <c r="BO5" s="7">
+      <c r="BO5" s="5">
         <f t="shared" si="3"/>
         <v>133557.67037144973</v>
       </c>
-      <c r="BP5" s="7">
+      <c r="BP5" s="5">
         <f t="shared" si="3"/>
         <v>134074.33064478962</v>
       </c>
-      <c r="BQ5" s="7">
+      <c r="BQ5" s="5">
         <f t="shared" si="3"/>
         <v>134592.00124177034</v>
       </c>
-      <c r="BR5" s="7">
+      <c r="BR5" s="5">
         <f t="shared" ref="BR5:BV5" si="5">SUM(BR6:BR7)</f>
         <v>135110.68506292874</v>
       </c>
-      <c r="BS5" s="7">
+      <c r="BS5" s="5">
         <f t="shared" si="5"/>
         <v>135630.38501712884</v>
       </c>
-      <c r="BT5" s="7">
+      <c r="BT5" s="5">
         <f t="shared" si="5"/>
         <v>136151.1040215856</v>
       </c>
-      <c r="BU5" s="7">
+      <c r="BU5" s="5">
         <f t="shared" si="5"/>
         <v>136672.84500188916</v>
       </c>
-      <c r="BV5" s="7">
+      <c r="BV5" s="5">
         <f t="shared" si="5"/>
         <v>125066.2062781055</v>
       </c>
     </row>
     <row r="6" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="2">
         <v>106211.933472</v>
       </c>
@@ -1613,30 +1625,30 @@
       <c r="F6" s="2">
         <v>106211.933472</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <f>5431.1+10945.59</f>
         <v>16376.69</v>
       </c>
       <c r="H6" s="2">
         <v>106211.933472</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="2">
         <v>106516.85717575542</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="10">
         <v>18116.34</v>
       </c>
       <c r="L6" s="2">
         <v>106822.65628458136</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="10">
         <v>18116.34</v>
       </c>
       <c r="N6" s="2">
         <v>107129.33331167714</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="10">
         <v>29064.35</v>
       </c>
       <c r="P6" s="2">
@@ -1646,25 +1658,25 @@
       <c r="R6" s="2">
         <v>107745.33120957176</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="10">
         <v>89978.67</v>
       </c>
       <c r="T6" s="2">
         <v>108054.65714292781</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="10">
         <v>51312.25</v>
       </c>
       <c r="V6" s="2">
         <v>108364.8711197097</v>
       </c>
-      <c r="W6" s="12">
+      <c r="W6" s="10">
         <v>68758.320000000007</v>
       </c>
       <c r="X6" s="2">
         <v>108675.97568940018</v>
       </c>
-      <c r="Y6" s="12"/>
+      <c r="Y6" s="10"/>
       <c r="Z6" s="2">
         <v>108987.97340880129</v>
       </c>
@@ -1814,10 +1826,10 @@
       </c>
     </row>
     <row r="7" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
         <v>403.61010570365607</v>
@@ -1826,26 +1838,26 @@
       <c r="F7" s="2">
         <v>403.61010570365607</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="2">
         <v>382.00362849388728</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="2">
         <v>383.10032222161283</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="10">
         <f>800+2000</f>
         <v>2800</v>
       </c>
       <c r="L7" s="2">
         <v>384.20016444595677</v>
       </c>
-      <c r="M7" s="12"/>
+      <c r="M7" s="10"/>
       <c r="N7" s="2">
         <v>385.30316420593391</v>
       </c>
-      <c r="O7" s="12"/>
+      <c r="O7" s="10"/>
       <c r="P7" s="2">
         <v>386.4093305665088</v>
       </c>
@@ -2011,306 +2023,309 @@
       </c>
     </row>
     <row r="8" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="7">
+      <c r="A8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="7">
+        <f>C8+E8+G8+I8+K8+M8+O8+Q8+S8+U8+W8+Y8</f>
+        <v>1732784.35</v>
+      </c>
+      <c r="C8" s="5">
         <f>SUM(C9:C11)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <f t="shared" ref="D8:BP8" si="6">SUM(D9:D11)</f>
         <v>1900000</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <f t="shared" si="6"/>
         <v>150000</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <f t="shared" si="6"/>
         <v>107225</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="5">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="5">
         <f t="shared" si="6"/>
         <v>124868.75</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="5">
         <f t="shared" si="6"/>
         <v>320000</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="5">
         <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="5">
         <f t="shared" si="6"/>
         <v>37807</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="5">
         <f t="shared" si="6"/>
         <v>802883.6</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="5">
         <f t="shared" ref="Y8" si="7">SUM(Y9:Y11)</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="Z8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AB8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AC8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AD8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AE8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="7">
+      <c r="AF8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="7">
+      <c r="AG8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH8" s="7">
+      <c r="AH8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AI8" s="7">
+      <c r="AI8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ8" s="7">
+      <c r="AJ8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AK8" s="7">
+      <c r="AK8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL8" s="7">
+      <c r="AL8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AM8" s="7">
+      <c r="AM8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN8" s="7">
+      <c r="AN8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AO8" s="7">
+      <c r="AO8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AP8" s="7">
+      <c r="AP8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AQ8" s="7">
+      <c r="AQ8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AR8" s="7">
+      <c r="AR8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS8" s="7">
+      <c r="AS8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AT8" s="7">
+      <c r="AT8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AU8" s="7">
+      <c r="AU8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV8" s="7">
+      <c r="AV8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AW8" s="7">
+      <c r="AW8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AX8" s="7">
+      <c r="AX8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AY8" s="7">
+      <c r="AY8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AZ8" s="7">
+      <c r="AZ8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BA8" s="7">
+      <c r="BA8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BB8" s="7">
+      <c r="BB8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BC8" s="7">
+      <c r="BC8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BD8" s="7">
+      <c r="BD8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BE8" s="7">
+      <c r="BE8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BF8" s="7">
+      <c r="BF8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BG8" s="7">
+      <c r="BG8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BH8" s="7">
+      <c r="BH8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BI8" s="7">
+      <c r="BI8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BJ8" s="7">
+      <c r="BJ8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK8" s="7">
+      <c r="BK8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BL8" s="7">
+      <c r="BL8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BM8" s="7">
+      <c r="BM8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BN8" s="7">
+      <c r="BN8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO8" s="7">
+      <c r="BO8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BP8" s="7">
+      <c r="BP8" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BQ8" s="7">
+      <c r="BQ8" s="5">
         <f t="shared" ref="BQ8:BV8" si="8">SUM(BQ9:BQ11)</f>
         <v>0</v>
       </c>
-      <c r="BR8" s="7">
+      <c r="BR8" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BS8" s="7">
+      <c r="BS8" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BT8" s="7">
+      <c r="BT8" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BU8" s="7">
+      <c r="BU8" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BV8" s="7">
+      <c r="BV8" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="9">
-        <f>SUM(C9:BV9)</f>
-        <v>694784.35</v>
+      <c r="A9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="7">
+        <f t="shared" ref="B9:B14" si="9">C9+E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9</f>
+        <v>314784.34999999998</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -2318,39 +2333,39 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="12">
+      <c r="I9" s="10">
         <f>103000+2310+915+1000</f>
         <v>107225</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="12">
+      <c r="K9" s="10">
         <v>10000</v>
       </c>
       <c r="L9" s="2"/>
-      <c r="M9" s="12">
+      <c r="M9" s="10">
         <f>5800+250+3818.75</f>
         <v>9868.75</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="12"/>
+      <c r="O9" s="10"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="12">
+      <c r="U9" s="10">
         <f>4407+7400</f>
         <v>11807</v>
       </c>
       <c r="V9" s="2"/>
-      <c r="W9" s="12">
+      <c r="W9" s="10">
         <f>1000+174883.6</f>
         <v>175883.6</v>
       </c>
       <c r="X9" s="2"/>
-      <c r="Y9" s="12"/>
+      <c r="Y9" s="10"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -2402,12 +2417,12 @@
       <c r="BV9" s="2"/>
     </row>
     <row r="10" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="9">
-        <f t="shared" ref="B10" si="9">SUM(C10:BV10)</f>
-        <v>1681000</v>
+      <c r="A10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7">
+        <f t="shared" si="9"/>
+        <v>921000</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
@@ -2415,38 +2430,38 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>150000</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="12"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="12"/>
+      <c r="K10" s="10"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="12">
+      <c r="M10" s="10">
         <f>115000</f>
         <v>115000</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="12">
+      <c r="O10" s="10">
         <v>320000</v>
       </c>
       <c r="P10" s="2"/>
-      <c r="Q10" s="12">
+      <c r="Q10" s="10">
         <v>180000</v>
       </c>
       <c r="R10" s="2"/>
-      <c r="S10" s="12"/>
+      <c r="S10" s="10"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="12">
+      <c r="U10" s="10">
         <v>26000</v>
       </c>
       <c r="V10" s="2"/>
-      <c r="W10" s="12">
+      <c r="W10" s="10">
         <v>130000</v>
       </c>
       <c r="X10" s="2"/>
-      <c r="Y10" s="12"/>
+      <c r="Y10" s="10"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -2498,12 +2513,12 @@
       <c r="BV10" s="2"/>
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="9">
-        <f>SUM(C11:BV11)</f>
-        <v>1257000</v>
+      <c r="A11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" si="9"/>
+        <v>497000</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -2511,27 +2526,27 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="12"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="12"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="12"/>
+      <c r="K11" s="10"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="12"/>
+      <c r="M11" s="10"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="12"/>
+      <c r="O11" s="10"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="12"/>
+      <c r="Q11" s="10"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="12"/>
+      <c r="S11" s="10"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="12"/>
+      <c r="U11" s="10"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="12">
+      <c r="W11" s="10">
         <v>497000</v>
       </c>
       <c r="X11" s="2"/>
-      <c r="Y11" s="12"/>
+      <c r="Y11" s="10"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
@@ -2583,628 +2598,634 @@
       <c r="BV11" s="2"/>
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="C12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="C12" s="10"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="12">
+      <c r="B13" s="7">
+        <f t="shared" si="9"/>
+        <v>-1373418.41</v>
+      </c>
+      <c r="C13" s="10">
         <f>C14+C38+C46+C24</f>
         <v>-88500.33</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <f>D14-D38-D46</f>
         <v>-91009.140647318447</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <f t="shared" ref="E13:J13" si="10">E14+E38+E46</f>
         <v>-84389.159999999989</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <f t="shared" si="10"/>
         <v>-408527.40230918775</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <f t="shared" si="10"/>
         <v>-113301.18000000001</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <f t="shared" si="10"/>
         <v>-409516.0182064494</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="10">
         <f t="shared" si="10"/>
         <v>-109848.45</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="5">
         <f t="shared" si="10"/>
         <v>-305118.589039805</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="10">
         <f t="shared" ref="K13:M13" si="11">K14+K38+K46</f>
         <v>-5784.3</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="5">
         <f t="shared" ref="L13:AC13" si="12">L14+L38+L46</f>
         <v>-305163.02165031742</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="10">
         <f t="shared" si="11"/>
         <v>-157263.75000000003</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="5">
         <f t="shared" si="12"/>
         <v>-305207.5818223544</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="10">
         <f t="shared" si="12"/>
         <v>-342187.19999999995</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="5">
         <f t="shared" si="12"/>
         <v>-282184.56565269525</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="10">
         <f>Q14+Q38+Q46</f>
         <v>-186366.61</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="5">
         <f t="shared" si="12"/>
         <v>-13655.396624750776</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="10">
         <f>S14+S38+S46</f>
         <v>-8643.4600000000009</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="5">
         <f t="shared" si="12"/>
         <v>-13700.341682867411</v>
       </c>
-      <c r="U13" s="12">
+      <c r="U13" s="10">
         <f>U14+U38+U46</f>
         <v>-139150.71</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V13" s="5">
         <f t="shared" si="12"/>
         <v>-13745.41577369382</v>
       </c>
-      <c r="W13" s="12">
+      <c r="W13" s="10">
         <f>W14+W38+W46</f>
         <v>-137983.25999999998</v>
       </c>
-      <c r="X13" s="7">
+      <c r="X13" s="5">
         <f t="shared" si="12"/>
         <v>-13790.619267669847</v>
       </c>
-      <c r="Y13" s="12">
+      <c r="Y13" s="10">
         <f>Y14+Y38+Y46</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="7">
+      <c r="Z13" s="5">
         <f t="shared" si="12"/>
         <v>-13835.952536298828</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="AA13" s="5">
         <f t="shared" si="12"/>
         <v>-13881.415952150646</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AB13" s="5">
         <f t="shared" si="12"/>
         <v>-13927.009888864799</v>
       </c>
-      <c r="AC13" s="7">
+      <c r="AC13" s="5">
         <f t="shared" si="12"/>
         <v>-13972.734721153462</v>
       </c>
-      <c r="AD13" s="7">
+      <c r="AD13" s="5">
         <f t="shared" ref="AD13:BV13" si="13">AD14-AD38-AD46</f>
         <v>14018.590824804574</v>
       </c>
-      <c r="AE13" s="7">
+      <c r="AE13" s="5">
         <f t="shared" si="13"/>
         <v>14064.578576684915</v>
       </c>
-      <c r="AF13" s="7">
+      <c r="AF13" s="5">
         <f t="shared" si="13"/>
         <v>14110.698354743226</v>
       </c>
-      <c r="AG13" s="7">
+      <c r="AG13" s="5">
         <f t="shared" si="13"/>
         <v>14156.95053801329</v>
       </c>
-      <c r="AH13" s="7">
+      <c r="AH13" s="5">
         <f t="shared" si="13"/>
         <v>14203.335506617061</v>
       </c>
-      <c r="AI13" s="7">
+      <c r="AI13" s="5">
         <f t="shared" si="13"/>
         <v>14249.853641767777</v>
       </c>
-      <c r="AJ13" s="7">
+      <c r="AJ13" s="5">
         <f t="shared" si="13"/>
         <v>14296.505325773111</v>
       </c>
-      <c r="AK13" s="7">
+      <c r="AK13" s="5">
         <f t="shared" si="13"/>
         <v>14343.290942038298</v>
       </c>
-      <c r="AL13" s="7">
+      <c r="AL13" s="5">
         <f t="shared" si="13"/>
         <v>14390.210875069293</v>
       </c>
-      <c r="AM13" s="7">
+      <c r="AM13" s="5">
         <f t="shared" si="13"/>
         <v>14437.265510475925</v>
       </c>
-      <c r="AN13" s="7">
+      <c r="AN13" s="5">
         <f t="shared" si="13"/>
         <v>14484.455234975074</v>
       </c>
-      <c r="AO13" s="7">
+      <c r="AO13" s="5">
         <f t="shared" si="13"/>
         <v>14531.780436393839</v>
       </c>
-      <c r="AP13" s="7">
+      <c r="AP13" s="5">
         <f t="shared" si="13"/>
         <v>14579.241503672736</v>
       </c>
-      <c r="AQ13" s="7">
+      <c r="AQ13" s="5">
         <f t="shared" si="13"/>
         <v>14626.838826868892</v>
       </c>
-      <c r="AR13" s="7">
+      <c r="AR13" s="5">
         <f t="shared" si="13"/>
         <v>14674.572797159242</v>
       </c>
-      <c r="AS13" s="7">
+      <c r="AS13" s="5">
         <f t="shared" si="13"/>
         <v>14722.443806843758</v>
       </c>
-      <c r="AT13" s="7">
+      <c r="AT13" s="5">
         <f t="shared" si="13"/>
         <v>14770.452249348658</v>
       </c>
-      <c r="AU13" s="7">
+      <c r="AU13" s="5">
         <f t="shared" si="13"/>
         <v>14818.598519229647</v>
       </c>
-      <c r="AV13" s="7">
+      <c r="AV13" s="5">
         <f t="shared" si="13"/>
         <v>14866.883012175169</v>
       </c>
-      <c r="AW13" s="7">
+      <c r="AW13" s="5">
         <f t="shared" si="13"/>
         <v>14915.306125009638</v>
       </c>
-      <c r="AX13" s="7">
+      <c r="AX13" s="5">
         <f t="shared" si="13"/>
         <v>14963.868255696718</v>
       </c>
-      <c r="AY13" s="7">
+      <c r="AY13" s="5">
         <f t="shared" si="13"/>
         <v>15012.56980334258</v>
       </c>
-      <c r="AZ13" s="7">
+      <c r="AZ13" s="5">
         <f t="shared" si="13"/>
         <v>15061.411168199204</v>
       </c>
-      <c r="BA13" s="7">
+      <c r="BA13" s="5">
         <f t="shared" si="13"/>
         <v>15110.392751667627</v>
       </c>
-      <c r="BB13" s="7">
+      <c r="BB13" s="5">
         <f t="shared" si="13"/>
         <v>15159.514956301286</v>
       </c>
-      <c r="BC13" s="7">
+      <c r="BC13" s="5">
         <f t="shared" si="13"/>
         <v>15208.778185809309</v>
       </c>
-      <c r="BD13" s="7">
+      <c r="BD13" s="5">
         <f t="shared" si="13"/>
         <v>15258.182845059824</v>
       </c>
-      <c r="BE13" s="7">
+      <c r="BE13" s="5">
         <f t="shared" si="13"/>
         <v>15307.729340083293</v>
       </c>
-      <c r="BF13" s="7">
+      <c r="BF13" s="5">
         <f t="shared" si="13"/>
         <v>15357.418078075865</v>
       </c>
-      <c r="BG13" s="7">
+      <c r="BG13" s="5">
         <f t="shared" si="13"/>
         <v>15407.249467402691</v>
       </c>
-      <c r="BH13" s="7">
+      <c r="BH13" s="5">
         <f t="shared" si="13"/>
         <v>15457.223917601306</v>
       </c>
-      <c r="BI13" s="7">
+      <c r="BI13" s="5">
         <f t="shared" si="13"/>
         <v>15507.341839384981</v>
       </c>
-      <c r="BJ13" s="7">
+      <c r="BJ13" s="5">
         <f t="shared" si="13"/>
         <v>15557.603644646108</v>
       </c>
-      <c r="BK13" s="7">
+      <c r="BK13" s="5">
         <f t="shared" si="13"/>
         <v>15608.009746459578</v>
       </c>
-      <c r="BL13" s="7">
+      <c r="BL13" s="5">
         <f t="shared" si="13"/>
         <v>15658.560559086181</v>
       </c>
-      <c r="BM13" s="7">
+      <c r="BM13" s="5">
         <f t="shared" si="13"/>
         <v>15709.256497975995</v>
       </c>
-      <c r="BN13" s="7">
+      <c r="BN13" s="5">
         <f t="shared" si="13"/>
         <v>15760.097979771836</v>
       </c>
-      <c r="BO13" s="7">
+      <c r="BO13" s="5">
         <f t="shared" si="13"/>
         <v>15811.085422312635</v>
       </c>
-      <c r="BP13" s="7">
+      <c r="BP13" s="5">
         <f t="shared" si="13"/>
         <v>15862.219244636921</v>
       </c>
-      <c r="BQ13" s="7">
+      <c r="BQ13" s="5">
         <f t="shared" si="13"/>
         <v>15913.499866986218</v>
       </c>
-      <c r="BR13" s="7">
+      <c r="BR13" s="5">
         <f t="shared" si="13"/>
         <v>15964.927710808526</v>
       </c>
-      <c r="BS13" s="7">
+      <c r="BS13" s="5">
         <f t="shared" si="13"/>
         <v>16016.503198761791</v>
       </c>
-      <c r="BT13" s="7">
+      <c r="BT13" s="5">
         <f t="shared" si="13"/>
         <v>16068.226754717358</v>
       </c>
-      <c r="BU13" s="7">
+      <c r="BU13" s="5">
         <f t="shared" si="13"/>
         <v>16120.09880376346</v>
       </c>
-      <c r="BV13" s="7">
+      <c r="BV13" s="5">
         <f t="shared" si="13"/>
         <v>16172.119772208731</v>
       </c>
     </row>
     <row r="14" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="12">
+      <c r="A14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="7">
+        <f t="shared" si="9"/>
+        <v>-38052.770000000004</v>
+      </c>
+      <c r="C14" s="10">
         <f>SUM(C15:C22)</f>
         <v>-67</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <f t="shared" ref="D14:BP14" si="14">SUM(D15:D22)</f>
         <v>-104441.73458080005</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <f t="shared" si="14"/>
         <v>-1852.12</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <f t="shared" si="14"/>
         <v>-104441.73458080005</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <f t="shared" si="14"/>
         <v>-4563.88</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="10">
         <f t="shared" si="14"/>
         <v>-104441.73458080005</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="10">
         <f t="shared" si="14"/>
         <v>-4586.3100000000004</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="10">
         <f t="shared" si="14"/>
         <v>-3569.94</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="10">
         <f t="shared" si="14"/>
         <v>-3672.54</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="10">
         <f t="shared" si="14"/>
         <v>-3497.54</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="10">
         <f t="shared" si="14"/>
         <v>-3695.1800000000003</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S14" s="10">
         <f t="shared" si="14"/>
         <v>-3889.4</v>
       </c>
-      <c r="T14" s="12">
+      <c r="T14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U14" s="12">
+      <c r="U14" s="10">
         <f t="shared" si="14"/>
         <v>-4751.5199999999995</v>
       </c>
-      <c r="V14" s="12">
+      <c r="V14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W14" s="12">
+      <c r="W14" s="10">
         <f t="shared" si="14"/>
         <v>-3907.34</v>
       </c>
-      <c r="X14" s="12">
+      <c r="X14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12">
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="12">
+      <c r="AA14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="12">
+      <c r="AB14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="12">
+      <c r="AC14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="12">
+      <c r="AD14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="12">
+      <c r="AE14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="12">
+      <c r="AF14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AG14" s="12">
+      <c r="AG14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AH14" s="12">
+      <c r="AH14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AI14" s="12">
+      <c r="AI14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AJ14" s="12">
+      <c r="AJ14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AK14" s="12">
+      <c r="AK14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL14" s="12">
+      <c r="AL14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AM14" s="12">
+      <c r="AM14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="12">
+      <c r="AN14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AO14" s="12">
+      <c r="AO14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AP14" s="12">
+      <c r="AP14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AQ14" s="12">
+      <c r="AQ14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AR14" s="12">
+      <c r="AR14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AS14" s="12">
+      <c r="AS14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AT14" s="12">
+      <c r="AT14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AU14" s="12">
+      <c r="AU14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AV14" s="12">
+      <c r="AV14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AW14" s="12">
+      <c r="AW14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AX14" s="12">
+      <c r="AX14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AY14" s="12">
+      <c r="AY14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AZ14" s="12">
+      <c r="AZ14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BA14" s="12">
+      <c r="BA14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BB14" s="12">
+      <c r="BB14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BC14" s="12">
+      <c r="BC14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BD14" s="12">
+      <c r="BD14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BE14" s="12">
+      <c r="BE14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BF14" s="12">
+      <c r="BF14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BG14" s="12">
+      <c r="BG14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BH14" s="12">
+      <c r="BH14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BI14" s="12">
+      <c r="BI14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BJ14" s="12">
+      <c r="BJ14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BK14" s="12">
+      <c r="BK14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BL14" s="12">
+      <c r="BL14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BM14" s="12">
+      <c r="BM14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BN14" s="12">
+      <c r="BN14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BO14" s="12">
+      <c r="BO14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BP14" s="12">
+      <c r="BP14" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BQ14" s="12">
+      <c r="BQ14" s="10">
         <f t="shared" ref="BQ14:BV14" si="15">SUM(BQ15:BQ22)</f>
         <v>0</v>
       </c>
-      <c r="BR14" s="12">
+      <c r="BR14" s="10">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BS14" s="12">
+      <c r="BS14" s="10">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BT14" s="12">
+      <c r="BT14" s="10">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BU14" s="12">
+      <c r="BU14" s="10">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BV14" s="12">
+      <c r="BV14" s="10">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="2">
         <v>-104441.73458080005</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="2">
         <v>-104441.73458080005</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="2">
         <v>-104441.73458080005</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="2">
         <v>0</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="10">
         <v>0</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="10">
         <v>0</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="10">
         <v>0</v>
       </c>
       <c r="P15" s="2">
@@ -3383,1692 +3404,1695 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10">
         <v>-241.66</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10">
         <v>-2935.67</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12">
+      <c r="H16" s="10"/>
+      <c r="I16" s="10">
         <v>-2882.11</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12">
+      <c r="J16" s="10"/>
+      <c r="K16" s="10">
         <v>-2882.11</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12">
+      <c r="L16" s="10"/>
+      <c r="M16" s="10">
         <v>-2949.14</v>
       </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12">
+      <c r="N16" s="10"/>
+      <c r="O16" s="10">
         <v>-2949.14</v>
       </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12">
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10">
         <v>-2961.86</v>
       </c>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12">
+      <c r="R16" s="10"/>
+      <c r="S16" s="10">
         <v>-2961.86</v>
       </c>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12">
+      <c r="T16" s="10"/>
+      <c r="U16" s="10">
         <v>-2961.86</v>
       </c>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12">
+      <c r="V16" s="10"/>
+      <c r="W16" s="10">
         <v>-2961.86</v>
       </c>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
-      <c r="AV16" s="12"/>
-      <c r="AW16" s="12"/>
-      <c r="AX16" s="12"/>
-      <c r="AY16" s="12"/>
-      <c r="AZ16" s="12"/>
-      <c r="BA16" s="12"/>
-      <c r="BB16" s="12"/>
-      <c r="BC16" s="12"/>
-      <c r="BD16" s="12"/>
-      <c r="BE16" s="12"/>
-      <c r="BF16" s="12"/>
-      <c r="BG16" s="12"/>
-      <c r="BH16" s="12"/>
-      <c r="BI16" s="12"/>
-      <c r="BJ16" s="12"/>
-      <c r="BK16" s="12"/>
-      <c r="BL16" s="12"/>
-      <c r="BM16" s="12"/>
-      <c r="BN16" s="12"/>
-      <c r="BO16" s="12"/>
-      <c r="BP16" s="12"/>
-      <c r="BQ16" s="12"/>
-      <c r="BR16" s="12"/>
-      <c r="BS16" s="12"/>
-      <c r="BT16" s="12"/>
-      <c r="BU16" s="12"/>
-      <c r="BV16" s="12"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="10"/>
+      <c r="BA16" s="10"/>
+      <c r="BB16" s="10"/>
+      <c r="BC16" s="10"/>
+      <c r="BD16" s="10"/>
+      <c r="BE16" s="10"/>
+      <c r="BF16" s="10"/>
+      <c r="BG16" s="10"/>
+      <c r="BH16" s="10"/>
+      <c r="BI16" s="10"/>
+      <c r="BJ16" s="10"/>
+      <c r="BK16" s="10"/>
+      <c r="BL16" s="10"/>
+      <c r="BM16" s="10"/>
+      <c r="BN16" s="10"/>
+      <c r="BO16" s="10"/>
+      <c r="BP16" s="10"/>
+      <c r="BQ16" s="10"/>
+      <c r="BR16" s="10"/>
+      <c r="BS16" s="10"/>
+      <c r="BT16" s="10"/>
+      <c r="BU16" s="10"/>
+      <c r="BV16" s="10"/>
     </row>
-    <row r="17" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="12"/>
-      <c r="AN17" s="12"/>
-      <c r="AO17" s="12"/>
-      <c r="AP17" s="12"/>
-      <c r="AQ17" s="12"/>
-      <c r="AR17" s="12"/>
-      <c r="AS17" s="12"/>
-      <c r="AT17" s="12"/>
-      <c r="AU17" s="12"/>
-      <c r="AV17" s="12"/>
-      <c r="AW17" s="12"/>
-      <c r="AX17" s="12"/>
-      <c r="AY17" s="12"/>
-      <c r="AZ17" s="12"/>
-      <c r="BA17" s="12"/>
-      <c r="BB17" s="12"/>
-      <c r="BC17" s="12"/>
-      <c r="BD17" s="12"/>
-      <c r="BE17" s="12"/>
-      <c r="BF17" s="12"/>
-      <c r="BG17" s="12"/>
-      <c r="BH17" s="12"/>
-      <c r="BI17" s="12"/>
-      <c r="BJ17" s="12"/>
-      <c r="BK17" s="12"/>
-      <c r="BL17" s="12"/>
-      <c r="BM17" s="12"/>
-      <c r="BN17" s="12"/>
-      <c r="BO17" s="12"/>
-      <c r="BP17" s="12"/>
-      <c r="BQ17" s="12"/>
-      <c r="BR17" s="12"/>
-      <c r="BS17" s="12"/>
-      <c r="BT17" s="12"/>
-      <c r="BU17" s="12"/>
-      <c r="BV17" s="12"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
+      <c r="AV17" s="10"/>
+      <c r="AW17" s="10"/>
+      <c r="AX17" s="10"/>
+      <c r="AY17" s="10"/>
+      <c r="AZ17" s="10"/>
+      <c r="BA17" s="10"/>
+      <c r="BB17" s="10"/>
+      <c r="BC17" s="10"/>
+      <c r="BD17" s="10"/>
+      <c r="BE17" s="10"/>
+      <c r="BF17" s="10"/>
+      <c r="BG17" s="10"/>
+      <c r="BH17" s="10"/>
+      <c r="BI17" s="10"/>
+      <c r="BJ17" s="10"/>
+      <c r="BK17" s="10"/>
+      <c r="BL17" s="10"/>
+      <c r="BM17" s="10"/>
+      <c r="BN17" s="10"/>
+      <c r="BO17" s="10"/>
+      <c r="BP17" s="10"/>
+      <c r="BQ17" s="10"/>
+      <c r="BR17" s="10"/>
+      <c r="BS17" s="10"/>
+      <c r="BT17" s="10"/>
+      <c r="BU17" s="10"/>
+      <c r="BV17" s="10"/>
     </row>
-    <row r="18" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12">
+    <row r="18" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10">
         <v>-99.36</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12">
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10">
         <f>-95.11-99.03</f>
         <v>-194.14</v>
       </c>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="12"/>
-      <c r="AJ18" s="12"/>
-      <c r="AK18" s="12"/>
-      <c r="AL18" s="12"/>
-      <c r="AM18" s="12"/>
-      <c r="AN18" s="12"/>
-      <c r="AO18" s="12"/>
-      <c r="AP18" s="12"/>
-      <c r="AQ18" s="12"/>
-      <c r="AR18" s="12"/>
-      <c r="AS18" s="12"/>
-      <c r="AT18" s="12"/>
-      <c r="AU18" s="12"/>
-      <c r="AV18" s="12"/>
-      <c r="AW18" s="12"/>
-      <c r="AX18" s="12"/>
-      <c r="AY18" s="12"/>
-      <c r="AZ18" s="12"/>
-      <c r="BA18" s="12"/>
-      <c r="BB18" s="12"/>
-      <c r="BC18" s="12"/>
-      <c r="BD18" s="12"/>
-      <c r="BE18" s="12"/>
-      <c r="BF18" s="12"/>
-      <c r="BG18" s="12"/>
-      <c r="BH18" s="12"/>
-      <c r="BI18" s="12"/>
-      <c r="BJ18" s="12"/>
-      <c r="BK18" s="12"/>
-      <c r="BL18" s="12"/>
-      <c r="BM18" s="12"/>
-      <c r="BN18" s="12"/>
-      <c r="BO18" s="12"/>
-      <c r="BP18" s="12"/>
-      <c r="BQ18" s="12"/>
-      <c r="BR18" s="12"/>
-      <c r="BS18" s="12"/>
-      <c r="BT18" s="12"/>
-      <c r="BU18" s="12"/>
-      <c r="BV18" s="12"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="10"/>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="10"/>
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="10"/>
+      <c r="BB18" s="10"/>
+      <c r="BC18" s="10"/>
+      <c r="BD18" s="10"/>
+      <c r="BE18" s="10"/>
+      <c r="BF18" s="10"/>
+      <c r="BG18" s="10"/>
+      <c r="BH18" s="10"/>
+      <c r="BI18" s="10"/>
+      <c r="BJ18" s="10"/>
+      <c r="BK18" s="10"/>
+      <c r="BL18" s="10"/>
+      <c r="BM18" s="10"/>
+      <c r="BN18" s="10"/>
+      <c r="BO18" s="10"/>
+      <c r="BP18" s="10"/>
+      <c r="BQ18" s="10"/>
+      <c r="BR18" s="10"/>
+      <c r="BS18" s="10"/>
+      <c r="BT18" s="10"/>
+      <c r="BU18" s="10"/>
+      <c r="BV18" s="10"/>
     </row>
-    <row r="19" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14">
+      <c r="B19" s="9"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12">
         <v>-163.46</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12">
         <v>-160</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14">
+      <c r="H19" s="12"/>
+      <c r="I19" s="12">
         <v>-160</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14">
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12">
         <v>-175</v>
       </c>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14">
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12">
         <v>-175</v>
       </c>
-      <c r="R19" s="14"/>
-      <c r="S19" s="12">
+      <c r="R19" s="12"/>
+      <c r="S19" s="10">
         <v>-175</v>
       </c>
-      <c r="T19" s="14"/>
-      <c r="U19" s="12">
+      <c r="T19" s="12"/>
+      <c r="U19" s="10">
         <f>-175-350</f>
         <v>-525</v>
       </c>
-      <c r="V19" s="14"/>
-      <c r="W19" s="12">
+      <c r="V19" s="12"/>
+      <c r="W19" s="10">
         <v>-175</v>
       </c>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="12"/>
-      <c r="AI19" s="12"/>
-      <c r="AJ19" s="12"/>
-      <c r="AK19" s="12"/>
-      <c r="AL19" s="12"/>
-      <c r="AM19" s="12"/>
-      <c r="AN19" s="12"/>
-      <c r="AO19" s="12"/>
-      <c r="AP19" s="12"/>
-      <c r="AQ19" s="12"/>
-      <c r="AR19" s="12"/>
-      <c r="AS19" s="12"/>
-      <c r="AT19" s="12"/>
-      <c r="AU19" s="12"/>
-      <c r="AV19" s="12"/>
-      <c r="AW19" s="12"/>
-      <c r="AX19" s="12"/>
-      <c r="AY19" s="12"/>
-      <c r="AZ19" s="12"/>
-      <c r="BA19" s="12"/>
-      <c r="BB19" s="12"/>
-      <c r="BC19" s="12"/>
-      <c r="BD19" s="12"/>
-      <c r="BE19" s="12"/>
-      <c r="BF19" s="12"/>
-      <c r="BG19" s="12"/>
-      <c r="BH19" s="12"/>
-      <c r="BI19" s="12"/>
-      <c r="BJ19" s="12"/>
-      <c r="BK19" s="12"/>
-      <c r="BL19" s="12"/>
-      <c r="BM19" s="12"/>
-      <c r="BN19" s="12"/>
-      <c r="BO19" s="12"/>
-      <c r="BP19" s="12"/>
-      <c r="BQ19" s="12"/>
-      <c r="BR19" s="12"/>
-      <c r="BS19" s="12"/>
-      <c r="BT19" s="12"/>
-      <c r="BU19" s="12"/>
-      <c r="BV19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="10"/>
+      <c r="AV19" s="10"/>
+      <c r="AW19" s="10"/>
+      <c r="AX19" s="10"/>
+      <c r="AY19" s="10"/>
+      <c r="AZ19" s="10"/>
+      <c r="BA19" s="10"/>
+      <c r="BB19" s="10"/>
+      <c r="BC19" s="10"/>
+      <c r="BD19" s="10"/>
+      <c r="BE19" s="10"/>
+      <c r="BF19" s="10"/>
+      <c r="BG19" s="10"/>
+      <c r="BH19" s="10"/>
+      <c r="BI19" s="10"/>
+      <c r="BJ19" s="10"/>
+      <c r="BK19" s="10"/>
+      <c r="BL19" s="10"/>
+      <c r="BM19" s="10"/>
+      <c r="BN19" s="10"/>
+      <c r="BO19" s="10"/>
+      <c r="BP19" s="10"/>
+      <c r="BQ19" s="10"/>
+      <c r="BR19" s="10"/>
+      <c r="BS19" s="10"/>
+      <c r="BT19" s="10"/>
+      <c r="BU19" s="10"/>
+      <c r="BV19" s="10"/>
     </row>
-    <row r="20" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12">
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10">
         <f>-(900+480)</f>
         <v>-1380</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10">
         <f>-(900+480)</f>
         <v>-1380</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12">
+      <c r="H20" s="10"/>
+      <c r="I20" s="10">
         <f>-(480)</f>
         <v>-480</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12">
+      <c r="J20" s="10"/>
+      <c r="K20" s="10">
         <v>-480</v>
       </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12">
+      <c r="L20" s="10"/>
+      <c r="M20" s="10">
         <v>-480</v>
       </c>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12">
+      <c r="N20" s="10"/>
+      <c r="O20" s="10">
         <v>-480</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12">
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10">
         <v>-489.92</v>
       </c>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12">
+      <c r="R20" s="10"/>
+      <c r="S20" s="10">
         <v>-480</v>
       </c>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12">
+      <c r="T20" s="10"/>
+      <c r="U20" s="10">
         <v>-500</v>
       </c>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12">
+      <c r="V20" s="10"/>
+      <c r="W20" s="10">
         <v>-500</v>
       </c>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="12"/>
-      <c r="AJ20" s="12"/>
-      <c r="AK20" s="12"/>
-      <c r="AL20" s="12"/>
-      <c r="AM20" s="12"/>
-      <c r="AN20" s="12"/>
-      <c r="AO20" s="12"/>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="12"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="12"/>
-      <c r="AT20" s="12"/>
-      <c r="AU20" s="12"/>
-      <c r="AV20" s="12"/>
-      <c r="AW20" s="12"/>
-      <c r="AX20" s="12"/>
-      <c r="AY20" s="12"/>
-      <c r="AZ20" s="12"/>
-      <c r="BA20" s="12"/>
-      <c r="BB20" s="12"/>
-      <c r="BC20" s="12"/>
-      <c r="BD20" s="12"/>
-      <c r="BE20" s="12"/>
-      <c r="BF20" s="12"/>
-      <c r="BG20" s="12"/>
-      <c r="BH20" s="12"/>
-      <c r="BI20" s="12"/>
-      <c r="BJ20" s="12"/>
-      <c r="BK20" s="12"/>
-      <c r="BL20" s="12"/>
-      <c r="BM20" s="12"/>
-      <c r="BN20" s="12"/>
-      <c r="BO20" s="12"/>
-      <c r="BP20" s="12"/>
-      <c r="BQ20" s="12"/>
-      <c r="BR20" s="12"/>
-      <c r="BS20" s="12"/>
-      <c r="BT20" s="12"/>
-      <c r="BU20" s="12"/>
-      <c r="BV20" s="12"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="10"/>
+      <c r="AQ20" s="10"/>
+      <c r="AR20" s="10"/>
+      <c r="AS20" s="10"/>
+      <c r="AT20" s="10"/>
+      <c r="AU20" s="10"/>
+      <c r="AV20" s="10"/>
+      <c r="AW20" s="10"/>
+      <c r="AX20" s="10"/>
+      <c r="AY20" s="10"/>
+      <c r="AZ20" s="10"/>
+      <c r="BA20" s="10"/>
+      <c r="BB20" s="10"/>
+      <c r="BC20" s="10"/>
+      <c r="BD20" s="10"/>
+      <c r="BE20" s="10"/>
+      <c r="BF20" s="10"/>
+      <c r="BG20" s="10"/>
+      <c r="BH20" s="10"/>
+      <c r="BI20" s="10"/>
+      <c r="BJ20" s="10"/>
+      <c r="BK20" s="10"/>
+      <c r="BL20" s="10"/>
+      <c r="BM20" s="10"/>
+      <c r="BN20" s="10"/>
+      <c r="BO20" s="10"/>
+      <c r="BP20" s="10"/>
+      <c r="BQ20" s="10"/>
+      <c r="BR20" s="10"/>
+      <c r="BS20" s="10"/>
+      <c r="BT20" s="10"/>
+      <c r="BU20" s="10"/>
+      <c r="BV20" s="10"/>
     </row>
-    <row r="21" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12">
+    <row r="21" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10">
         <f>-662.29-138.56-96.99</f>
         <v>-897.83999999999992</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12">
+      <c r="J21" s="10"/>
+      <c r="K21" s="10">
         <v>-140.83000000000001</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12">
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10">
         <f>-138.56*5</f>
         <v>-692.8</v>
       </c>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12">
+      <c r="V21" s="10"/>
+      <c r="W21" s="10">
         <v>-162.08000000000001</v>
       </c>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
-      <c r="AM21" s="12"/>
-      <c r="AN21" s="12"/>
-      <c r="AO21" s="12"/>
-      <c r="AP21" s="12"/>
-      <c r="AQ21" s="12"/>
-      <c r="AR21" s="12"/>
-      <c r="AS21" s="12"/>
-      <c r="AT21" s="12"/>
-      <c r="AU21" s="12"/>
-      <c r="AV21" s="12"/>
-      <c r="AW21" s="12"/>
-      <c r="AX21" s="12"/>
-      <c r="AY21" s="12"/>
-      <c r="AZ21" s="12"/>
-      <c r="BA21" s="12"/>
-      <c r="BB21" s="12"/>
-      <c r="BC21" s="12"/>
-      <c r="BD21" s="12"/>
-      <c r="BE21" s="12"/>
-      <c r="BF21" s="12"/>
-      <c r="BG21" s="12"/>
-      <c r="BH21" s="12"/>
-      <c r="BI21" s="12"/>
-      <c r="BJ21" s="12"/>
-      <c r="BK21" s="12"/>
-      <c r="BL21" s="12"/>
-      <c r="BM21" s="12"/>
-      <c r="BN21" s="12"/>
-      <c r="BO21" s="12"/>
-      <c r="BP21" s="12"/>
-      <c r="BQ21" s="12"/>
-      <c r="BR21" s="12"/>
-      <c r="BS21" s="12"/>
-      <c r="BT21" s="12"/>
-      <c r="BU21" s="12"/>
-      <c r="BV21" s="12"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10"/>
+      <c r="AQ21" s="10"/>
+      <c r="AR21" s="10"/>
+      <c r="AS21" s="10"/>
+      <c r="AT21" s="10"/>
+      <c r="AU21" s="10"/>
+      <c r="AV21" s="10"/>
+      <c r="AW21" s="10"/>
+      <c r="AX21" s="10"/>
+      <c r="AY21" s="10"/>
+      <c r="AZ21" s="10"/>
+      <c r="BA21" s="10"/>
+      <c r="BB21" s="10"/>
+      <c r="BC21" s="10"/>
+      <c r="BD21" s="10"/>
+      <c r="BE21" s="10"/>
+      <c r="BF21" s="10"/>
+      <c r="BG21" s="10"/>
+      <c r="BH21" s="10"/>
+      <c r="BI21" s="10"/>
+      <c r="BJ21" s="10"/>
+      <c r="BK21" s="10"/>
+      <c r="BL21" s="10"/>
+      <c r="BM21" s="10"/>
+      <c r="BN21" s="10"/>
+      <c r="BO21" s="10"/>
+      <c r="BP21" s="10"/>
+      <c r="BQ21" s="10"/>
+      <c r="BR21" s="10"/>
+      <c r="BS21" s="10"/>
+      <c r="BT21" s="10"/>
+      <c r="BU21" s="10"/>
+      <c r="BV21" s="10"/>
     </row>
-    <row r="22" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12">
+      <c r="B22" s="9"/>
+      <c r="C22" s="10">
         <f>-67</f>
         <v>-67</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10">
         <f>-67</f>
         <v>-67</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10">
         <f>-67-12.3-8.91</f>
         <v>-88.21</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12">
+      <c r="H22" s="10"/>
+      <c r="I22" s="10">
         <f>-67</f>
         <v>-67</v>
       </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12">
+      <c r="J22" s="10"/>
+      <c r="K22" s="10">
         <v>-67</v>
       </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12">
+      <c r="L22" s="10"/>
+      <c r="M22" s="10">
         <v>-68.400000000000006</v>
       </c>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12">
+      <c r="N22" s="10"/>
+      <c r="O22" s="10">
         <v>-68.400000000000006</v>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12">
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10">
         <v>-68.400000000000006</v>
       </c>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12">
+      <c r="R22" s="10"/>
+      <c r="S22" s="10">
         <f>-68.4-10</f>
         <v>-78.400000000000006</v>
       </c>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12">
+      <c r="T22" s="10"/>
+      <c r="U22" s="10">
         <f>-68.4-3.46</f>
         <v>-71.86</v>
       </c>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12">
+      <c r="V22" s="10"/>
+      <c r="W22" s="10">
         <f>-(58.4+20+30)</f>
         <v>-108.4</v>
       </c>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="12"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="12"/>
-      <c r="AV22" s="12"/>
-      <c r="AW22" s="12"/>
-      <c r="AX22" s="12"/>
-      <c r="AY22" s="12"/>
-      <c r="AZ22" s="12"/>
-      <c r="BA22" s="12"/>
-      <c r="BB22" s="12"/>
-      <c r="BC22" s="12"/>
-      <c r="BD22" s="12"/>
-      <c r="BE22" s="12"/>
-      <c r="BF22" s="12"/>
-      <c r="BG22" s="12"/>
-      <c r="BH22" s="12"/>
-      <c r="BI22" s="12"/>
-      <c r="BJ22" s="12"/>
-      <c r="BK22" s="12"/>
-      <c r="BL22" s="12"/>
-      <c r="BM22" s="12"/>
-      <c r="BN22" s="12"/>
-      <c r="BO22" s="12"/>
-      <c r="BP22" s="12"/>
-      <c r="BQ22" s="12"/>
-      <c r="BR22" s="12"/>
-      <c r="BS22" s="12"/>
-      <c r="BT22" s="12"/>
-      <c r="BU22" s="12"/>
-      <c r="BV22" s="12"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="10"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="10"/>
+      <c r="BD22" s="10"/>
+      <c r="BE22" s="10"/>
+      <c r="BF22" s="10"/>
+      <c r="BG22" s="10"/>
+      <c r="BH22" s="10"/>
+      <c r="BI22" s="10"/>
+      <c r="BJ22" s="10"/>
+      <c r="BK22" s="10"/>
+      <c r="BL22" s="10"/>
+      <c r="BM22" s="10"/>
+      <c r="BN22" s="10"/>
+      <c r="BO22" s="10"/>
+      <c r="BP22" s="10"/>
+      <c r="BQ22" s="10"/>
+      <c r="BR22" s="10"/>
+      <c r="BS22" s="10"/>
+      <c r="BT22" s="10"/>
+      <c r="BU22" s="10"/>
+      <c r="BV22" s="10"/>
     </row>
-    <row r="23" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
-      <c r="AJ23" s="12"/>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
-      <c r="AM23" s="12"/>
-      <c r="AN23" s="12"/>
-      <c r="AO23" s="12"/>
-      <c r="AP23" s="12"/>
-      <c r="AQ23" s="12"/>
-      <c r="AR23" s="12"/>
-      <c r="AS23" s="12"/>
-      <c r="AT23" s="12"/>
-      <c r="AU23" s="12"/>
-      <c r="AV23" s="12"/>
-      <c r="AW23" s="12"/>
-      <c r="AX23" s="12"/>
-      <c r="AY23" s="12"/>
-      <c r="AZ23" s="12"/>
-      <c r="BA23" s="12"/>
-      <c r="BB23" s="12"/>
-      <c r="BC23" s="12"/>
-      <c r="BD23" s="12"/>
-      <c r="BE23" s="12"/>
-      <c r="BF23" s="12"/>
-      <c r="BG23" s="12"/>
-      <c r="BH23" s="12"/>
-      <c r="BI23" s="12"/>
-      <c r="BJ23" s="12"/>
-      <c r="BK23" s="12"/>
-      <c r="BL23" s="12"/>
-      <c r="BM23" s="12"/>
-      <c r="BN23" s="12"/>
-      <c r="BO23" s="12"/>
-      <c r="BP23" s="12"/>
-      <c r="BQ23" s="12"/>
-      <c r="BR23" s="12"/>
-      <c r="BS23" s="12"/>
-      <c r="BT23" s="12"/>
-      <c r="BU23" s="12"/>
-      <c r="BV23" s="12"/>
+    <row r="23" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10"/>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="10"/>
+      <c r="AW23" s="10"/>
+      <c r="AX23" s="10"/>
+      <c r="AY23" s="10"/>
+      <c r="AZ23" s="10"/>
+      <c r="BA23" s="10"/>
+      <c r="BB23" s="10"/>
+      <c r="BC23" s="10"/>
+      <c r="BD23" s="10"/>
+      <c r="BE23" s="10"/>
+      <c r="BF23" s="10"/>
+      <c r="BG23" s="10"/>
+      <c r="BH23" s="10"/>
+      <c r="BI23" s="10"/>
+      <c r="BJ23" s="10"/>
+      <c r="BK23" s="10"/>
+      <c r="BL23" s="10"/>
+      <c r="BM23" s="10"/>
+      <c r="BN23" s="10"/>
+      <c r="BO23" s="10"/>
+      <c r="BP23" s="10"/>
+      <c r="BQ23" s="10"/>
+      <c r="BR23" s="10"/>
+      <c r="BS23" s="10"/>
+      <c r="BT23" s="10"/>
+      <c r="BU23" s="10"/>
+      <c r="BV23" s="10"/>
     </row>
     <row r="24" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="12">
+      <c r="A24" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="7">
+        <f t="shared" ref="B24" si="16">C24+E24+G24+I24+K24+M24+O24+Q24+S24+U24+W24+Y24</f>
+        <v>-337881.41000000003</v>
+      </c>
+      <c r="C24" s="10">
         <f>SUM(C25:C32)</f>
         <v>-10082.550000000001</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="10">
         <f>D34</f>
         <v>-65653.507640750671</v>
       </c>
-      <c r="E24" s="12">
-        <f t="shared" ref="E24:Y24" si="16">SUM(E25:E32)</f>
+      <c r="E24" s="10">
+        <f t="shared" ref="E24:Y24" si="17">SUM(E25:E32)</f>
         <v>-8209.0300000000007</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="10">
         <f>F34</f>
         <v>-65876.818891229414</v>
       </c>
-      <c r="G24" s="12">
-        <f t="shared" si="16"/>
+      <c r="G24" s="10">
+        <f t="shared" si="17"/>
         <v>-61994.92</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="10">
         <f>H34</f>
         <v>-65876.818891229414</v>
       </c>
-      <c r="I24" s="12">
-        <f t="shared" si="16"/>
+      <c r="I24" s="10">
+        <f t="shared" si="17"/>
         <v>-16794.91</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="10">
         <f>J34</f>
         <v>-66065.944566201084</v>
       </c>
-      <c r="K24" s="12">
-        <f t="shared" si="16"/>
+      <c r="K24" s="10">
+        <f t="shared" si="17"/>
         <v>-1900</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="10">
         <f>L34</f>
         <v>-66255.613201830784</v>
       </c>
-      <c r="M24" s="12">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="12">
+      <c r="M24" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="10">
         <f>N34</f>
         <v>-61190.224272176725</v>
       </c>
-      <c r="O24" s="12">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="12">
+      <c r="O24" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
         <f>SUM(P34:P36)</f>
         <v>-21001.377400679175</v>
       </c>
-      <c r="Q24" s="12">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="12">
+      <c r="Q24" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="10">
         <f>SUM(R34:R36)</f>
         <v>-21061.670228157629</v>
       </c>
-      <c r="S24" s="12">
-        <f t="shared" si="16"/>
+      <c r="S24" s="10">
+        <f t="shared" si="17"/>
         <v>-1900</v>
       </c>
-      <c r="T24" s="12">
+      <c r="T24" s="10">
         <f>SUM(T34:T36)</f>
         <v>-21122.136150237264</v>
       </c>
-      <c r="U24" s="12">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="12">
+      <c r="U24" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="10">
         <f>SUM(V34:V36)</f>
         <v>-21182.775663855144</v>
       </c>
-      <c r="W24" s="12">
-        <f t="shared" si="16"/>
+      <c r="W24" s="10">
+        <f t="shared" si="17"/>
         <v>-237000</v>
       </c>
-      <c r="X24" s="12">
+      <c r="X24" s="10">
         <f>SUM(X34:X36)</f>
         <v>-21243.589267374988</v>
       </c>
-      <c r="Y24" s="12">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="12">
-        <f t="shared" ref="Z24:BV24" si="17">SUM(Z34:Z36)</f>
+      <c r="Y24" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="10">
+        <f t="shared" ref="Z24:BV24" si="18">SUM(Z34:Z36)</f>
         <v>-62350.049413150409</v>
       </c>
-      <c r="AA24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AA24" s="10">
+        <f t="shared" si="18"/>
         <v>-21282.595857922472</v>
       </c>
-      <c r="AB24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AB24" s="10">
+        <f t="shared" si="18"/>
         <v>-21343.696035109606</v>
       </c>
-      <c r="AC24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AC24" s="10">
+        <f t="shared" si="18"/>
         <v>-21404.971624717167</v>
       </c>
-      <c r="AD24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AD24" s="10">
+        <f t="shared" si="18"/>
         <v>-21466.423130336439</v>
       </c>
-      <c r="AE24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AE24" s="10">
+        <f t="shared" si="18"/>
         <v>-21528.051057004479</v>
       </c>
-      <c r="AF24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AF24" s="10">
+        <f t="shared" si="18"/>
         <v>-21589.855911208251</v>
       </c>
-      <c r="AG24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AG24" s="10">
+        <f t="shared" si="18"/>
         <v>-21651.838200888789</v>
       </c>
-      <c r="AH24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AH24" s="10">
+        <f t="shared" si="18"/>
         <v>-21713.998435445377</v>
       </c>
-      <c r="AI24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AI24" s="10">
+        <f t="shared" si="18"/>
         <v>-21776.337125739727</v>
       </c>
-      <c r="AJ24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AJ24" s="10">
+        <f t="shared" si="18"/>
         <v>-21838.854784100196</v>
       </c>
-      <c r="AK24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AK24" s="10">
+        <f t="shared" si="18"/>
         <v>-21901.55192432597</v>
       </c>
-      <c r="AL24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AL24" s="10">
+        <f t="shared" si="18"/>
         <v>-64446.492532590026</v>
       </c>
-      <c r="AM24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AM24" s="10">
+        <f t="shared" si="18"/>
         <v>-21984.459234025133</v>
       </c>
-      <c r="AN24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AN24" s="10">
+        <f t="shared" si="18"/>
         <v>-22047.574389879686</v>
       </c>
-      <c r="AO24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AO24" s="10">
+        <f t="shared" si="18"/>
         <v>-22110.870742954336</v>
       </c>
-      <c r="AP24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AP24" s="10">
+        <f t="shared" si="18"/>
         <v>-22174.348813447948</v>
       </c>
-      <c r="AQ24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AQ24" s="10">
+        <f t="shared" si="18"/>
         <v>-22238.009123052834</v>
       </c>
-      <c r="AR24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AR24" s="10">
+        <f t="shared" si="18"/>
         <v>-22301.852194959021</v>
       </c>
-      <c r="AS24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AS24" s="10">
+        <f t="shared" si="18"/>
         <v>-22365.878553858565</v>
       </c>
-      <c r="AT24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AT24" s="10">
+        <f t="shared" si="18"/>
         <v>-22430.088725949863</v>
       </c>
-      <c r="AU24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AU24" s="10">
+        <f t="shared" si="18"/>
         <v>-22494.483238941968</v>
       </c>
-      <c r="AV24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AV24" s="10">
+        <f t="shared" si="18"/>
         <v>-22559.06262205894</v>
       </c>
-      <c r="AW24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AW24" s="10">
+        <f t="shared" si="18"/>
         <v>-22623.827406044176</v>
       </c>
-      <c r="AX24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AX24" s="10">
+        <f t="shared" si="18"/>
         <v>-66657.713815544965</v>
       </c>
-      <c r="AY24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AY24" s="10">
+        <f t="shared" si="18"/>
         <v>-22709.381866529005</v>
       </c>
-      <c r="AZ24" s="12">
-        <f t="shared" si="17"/>
+      <c r="AZ24" s="10">
+        <f t="shared" si="18"/>
         <v>-22774.578201840646</v>
       </c>
-      <c r="BA24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BA24" s="10">
+        <f t="shared" si="18"/>
         <v>-22839.961709227824</v>
       </c>
-      <c r="BB24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB24" s="10">
+        <f t="shared" si="18"/>
         <v>-22905.532926042604</v>
       </c>
-      <c r="BC24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BC24" s="10">
+        <f t="shared" si="18"/>
         <v>-22971.292391179752</v>
       </c>
-      <c r="BD24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BD24" s="10">
+        <f t="shared" si="18"/>
         <v>-23037.240645081121</v>
       </c>
-      <c r="BE24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BE24" s="10">
+        <f t="shared" si="18"/>
         <v>-23103.378229740149</v>
       </c>
-      <c r="BF24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BF24" s="10">
+        <f t="shared" si="18"/>
         <v>-23169.70568870625</v>
       </c>
-      <c r="BG24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BG24" s="10">
+        <f t="shared" si="18"/>
         <v>-23236.223567089342</v>
       </c>
-      <c r="BH24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BH24" s="10">
+        <f t="shared" si="18"/>
         <v>-23302.932411564278</v>
       </c>
-      <c r="BI24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BI24" s="10">
+        <f t="shared" si="18"/>
         <v>-23369.832770375368</v>
       </c>
-      <c r="BJ24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BJ24" s="10">
+        <f t="shared" si="18"/>
         <v>-68944.773634954356</v>
       </c>
-      <c r="BK24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BK24" s="10">
+        <f t="shared" si="18"/>
         <v>-23458.118120746487</v>
       </c>
-      <c r="BL24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BL24" s="10">
+        <f t="shared" si="18"/>
         <v>-23525.464002011286</v>
       </c>
-      <c r="BM24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BM24" s="10">
+        <f t="shared" si="18"/>
         <v>-23593.003226480341</v>
       </c>
-      <c r="BN24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BN24" s="10">
+        <f t="shared" si="18"/>
         <v>-23660.736349222414</v>
       </c>
-      <c r="BO24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BO24" s="10">
+        <f t="shared" si="18"/>
         <v>-23728.663926899808</v>
       </c>
-      <c r="BP24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BP24" s="10">
+        <f t="shared" si="18"/>
         <v>-23796.786517772947</v>
       </c>
-      <c r="BQ24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BQ24" s="10">
+        <f t="shared" si="18"/>
         <v>-23865.104681704961</v>
       </c>
-      <c r="BR24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BR24" s="10">
+        <f t="shared" si="18"/>
         <v>-23933.618980166299</v>
       </c>
-      <c r="BS24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BS24" s="10">
+        <f t="shared" si="18"/>
         <v>-24002.329976239329</v>
       </c>
-      <c r="BT24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BT24" s="10">
+        <f t="shared" si="18"/>
         <v>-24071.238234622968</v>
       </c>
-      <c r="BU24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BU24" s="10">
+        <f t="shared" si="18"/>
         <v>-24140.344321637334</v>
       </c>
-      <c r="BV24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BV24" s="10">
+        <f t="shared" si="18"/>
         <v>-71310.271942298365</v>
       </c>
     </row>
-    <row r="25" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12">
+      <c r="B25" s="9"/>
+      <c r="C25" s="10">
         <v>-5745.31</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10">
         <v>-5745.31</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12">
+      <c r="F25" s="10"/>
+      <c r="G25" s="10">
         <v>-16794.919999999998</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12">
+      <c r="H25" s="10"/>
+      <c r="I25" s="10">
         <v>-16794.91</v>
       </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="12"/>
-      <c r="AI25" s="12"/>
-      <c r="AJ25" s="12"/>
-      <c r="AK25" s="12"/>
-      <c r="AL25" s="12"/>
-      <c r="AM25" s="12"/>
-      <c r="AN25" s="12"/>
-      <c r="AO25" s="12"/>
-      <c r="AP25" s="12"/>
-      <c r="AQ25" s="12"/>
-      <c r="AR25" s="12"/>
-      <c r="AS25" s="12"/>
-      <c r="AT25" s="12"/>
-      <c r="AU25" s="12"/>
-      <c r="AV25" s="12"/>
-      <c r="AW25" s="12"/>
-      <c r="AX25" s="12"/>
-      <c r="AY25" s="12"/>
-      <c r="AZ25" s="12"/>
-      <c r="BA25" s="12"/>
-      <c r="BB25" s="12"/>
-      <c r="BC25" s="12"/>
-      <c r="BD25" s="12"/>
-      <c r="BE25" s="12"/>
-      <c r="BF25" s="12"/>
-      <c r="BG25" s="12"/>
-      <c r="BH25" s="12"/>
-      <c r="BI25" s="12"/>
-      <c r="BJ25" s="12"/>
-      <c r="BK25" s="12"/>
-      <c r="BL25" s="12"/>
-      <c r="BM25" s="12"/>
-      <c r="BN25" s="12"/>
-      <c r="BO25" s="12"/>
-      <c r="BP25" s="12"/>
-      <c r="BQ25" s="12"/>
-      <c r="BR25" s="12"/>
-      <c r="BS25" s="12"/>
-      <c r="BT25" s="12"/>
-      <c r="BU25" s="12"/>
-      <c r="BV25" s="12"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="10"/>
+      <c r="AS25" s="10"/>
+      <c r="AT25" s="10"/>
+      <c r="AU25" s="10"/>
+      <c r="AV25" s="10"/>
+      <c r="AW25" s="10"/>
+      <c r="AX25" s="10"/>
+      <c r="AY25" s="10"/>
+      <c r="AZ25" s="10"/>
+      <c r="BA25" s="10"/>
+      <c r="BB25" s="10"/>
+      <c r="BC25" s="10"/>
+      <c r="BD25" s="10"/>
+      <c r="BE25" s="10"/>
+      <c r="BF25" s="10"/>
+      <c r="BG25" s="10"/>
+      <c r="BH25" s="10"/>
+      <c r="BI25" s="10"/>
+      <c r="BJ25" s="10"/>
+      <c r="BK25" s="10"/>
+      <c r="BL25" s="10"/>
+      <c r="BM25" s="10"/>
+      <c r="BN25" s="10"/>
+      <c r="BO25" s="10"/>
+      <c r="BP25" s="10"/>
+      <c r="BQ25" s="10"/>
+      <c r="BR25" s="10"/>
+      <c r="BS25" s="10"/>
+      <c r="BT25" s="10"/>
+      <c r="BU25" s="10"/>
+      <c r="BV25" s="10"/>
     </row>
-    <row r="26" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10">
         <f>-(752.98)</f>
         <v>-752.98</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12">
+      <c r="D26" s="10"/>
+      <c r="E26" s="10">
         <f>-(1664.29+536.88)</f>
         <v>-2201.17</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="12"/>
-      <c r="AL26" s="12"/>
-      <c r="AM26" s="12"/>
-      <c r="AN26" s="12"/>
-      <c r="AO26" s="12"/>
-      <c r="AP26" s="12"/>
-      <c r="AQ26" s="12"/>
-      <c r="AR26" s="12"/>
-      <c r="AS26" s="12"/>
-      <c r="AT26" s="12"/>
-      <c r="AU26" s="12"/>
-      <c r="AV26" s="12"/>
-      <c r="AW26" s="12"/>
-      <c r="AX26" s="12"/>
-      <c r="AY26" s="12"/>
-      <c r="AZ26" s="12"/>
-      <c r="BA26" s="12"/>
-      <c r="BB26" s="12"/>
-      <c r="BC26" s="12"/>
-      <c r="BD26" s="12"/>
-      <c r="BE26" s="12"/>
-      <c r="BF26" s="12"/>
-      <c r="BG26" s="12"/>
-      <c r="BH26" s="12"/>
-      <c r="BI26" s="12"/>
-      <c r="BJ26" s="12"/>
-      <c r="BK26" s="12"/>
-      <c r="BL26" s="12"/>
-      <c r="BM26" s="12"/>
-      <c r="BN26" s="12"/>
-      <c r="BO26" s="12"/>
-      <c r="BP26" s="12"/>
-      <c r="BQ26" s="12"/>
-      <c r="BR26" s="12"/>
-      <c r="BS26" s="12"/>
-      <c r="BT26" s="12"/>
-      <c r="BU26" s="12"/>
-      <c r="BV26" s="12"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="10"/>
+      <c r="AX26" s="10"/>
+      <c r="AY26" s="10"/>
+      <c r="AZ26" s="10"/>
+      <c r="BA26" s="10"/>
+      <c r="BB26" s="10"/>
+      <c r="BC26" s="10"/>
+      <c r="BD26" s="10"/>
+      <c r="BE26" s="10"/>
+      <c r="BF26" s="10"/>
+      <c r="BG26" s="10"/>
+      <c r="BH26" s="10"/>
+      <c r="BI26" s="10"/>
+      <c r="BJ26" s="10"/>
+      <c r="BK26" s="10"/>
+      <c r="BL26" s="10"/>
+      <c r="BM26" s="10"/>
+      <c r="BN26" s="10"/>
+      <c r="BO26" s="10"/>
+      <c r="BP26" s="10"/>
+      <c r="BQ26" s="10"/>
+      <c r="BR26" s="10"/>
+      <c r="BS26" s="10"/>
+      <c r="BT26" s="10"/>
+      <c r="BU26" s="10"/>
+      <c r="BV26" s="10"/>
     </row>
-    <row r="27" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10">
+        <v>-57000</v>
+      </c>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="10"/>
+      <c r="AQ27" s="10"/>
+      <c r="AR27" s="10"/>
+      <c r="AS27" s="10"/>
+      <c r="AT27" s="10"/>
+      <c r="AU27" s="10"/>
+      <c r="AV27" s="10"/>
+      <c r="AW27" s="10"/>
+      <c r="AX27" s="10"/>
+      <c r="AY27" s="10"/>
+      <c r="AZ27" s="10"/>
+      <c r="BA27" s="10"/>
+      <c r="BB27" s="10"/>
+      <c r="BC27" s="10"/>
+      <c r="BD27" s="10"/>
+      <c r="BE27" s="10"/>
+      <c r="BF27" s="10"/>
+      <c r="BG27" s="10"/>
+      <c r="BH27" s="10"/>
+      <c r="BI27" s="10"/>
+      <c r="BJ27" s="10"/>
+      <c r="BK27" s="10"/>
+      <c r="BL27" s="10"/>
+      <c r="BM27" s="10"/>
+      <c r="BN27" s="10"/>
+      <c r="BO27" s="10"/>
+      <c r="BP27" s="10"/>
+      <c r="BQ27" s="10"/>
+      <c r="BR27" s="10"/>
+      <c r="BS27" s="10"/>
+      <c r="BT27" s="10"/>
+      <c r="BU27" s="10"/>
+      <c r="BV27" s="10"/>
+    </row>
+    <row r="28" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12">
-        <v>-57000</v>
-      </c>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="12"/>
-      <c r="AJ27" s="12"/>
-      <c r="AK27" s="12"/>
-      <c r="AL27" s="12"/>
-      <c r="AM27" s="12"/>
-      <c r="AN27" s="12"/>
-      <c r="AO27" s="12"/>
-      <c r="AP27" s="12"/>
-      <c r="AQ27" s="12"/>
-      <c r="AR27" s="12"/>
-      <c r="AS27" s="12"/>
-      <c r="AT27" s="12"/>
-      <c r="AU27" s="12"/>
-      <c r="AV27" s="12"/>
-      <c r="AW27" s="12"/>
-      <c r="AX27" s="12"/>
-      <c r="AY27" s="12"/>
-      <c r="AZ27" s="12"/>
-      <c r="BA27" s="12"/>
-      <c r="BB27" s="12"/>
-      <c r="BC27" s="12"/>
-      <c r="BD27" s="12"/>
-      <c r="BE27" s="12"/>
-      <c r="BF27" s="12"/>
-      <c r="BG27" s="12"/>
-      <c r="BH27" s="12"/>
-      <c r="BI27" s="12"/>
-      <c r="BJ27" s="12"/>
-      <c r="BK27" s="12"/>
-      <c r="BL27" s="12"/>
-      <c r="BM27" s="12"/>
-      <c r="BN27" s="12"/>
-      <c r="BO27" s="12"/>
-      <c r="BP27" s="12"/>
-      <c r="BQ27" s="12"/>
-      <c r="BR27" s="12"/>
-      <c r="BS27" s="12"/>
-      <c r="BT27" s="12"/>
-      <c r="BU27" s="12"/>
-      <c r="BV27" s="12"/>
-    </row>
-    <row r="28" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10">
         <f>-45200</f>
         <v>-45200</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12">
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10">
         <f>-(143000+37000)</f>
         <v>-180000</v>
       </c>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="12"/>
-      <c r="AI28" s="12"/>
-      <c r="AJ28" s="12"/>
-      <c r="AK28" s="12"/>
-      <c r="AL28" s="12"/>
-      <c r="AM28" s="12"/>
-      <c r="AN28" s="12"/>
-      <c r="AO28" s="12"/>
-      <c r="AP28" s="12"/>
-      <c r="AQ28" s="12"/>
-      <c r="AR28" s="12"/>
-      <c r="AS28" s="12"/>
-      <c r="AT28" s="12"/>
-      <c r="AU28" s="12"/>
-      <c r="AV28" s="12"/>
-      <c r="AW28" s="12"/>
-      <c r="AX28" s="12"/>
-      <c r="AY28" s="12"/>
-      <c r="AZ28" s="12"/>
-      <c r="BA28" s="12"/>
-      <c r="BB28" s="12"/>
-      <c r="BC28" s="12"/>
-      <c r="BD28" s="12"/>
-      <c r="BE28" s="12"/>
-      <c r="BF28" s="12"/>
-      <c r="BG28" s="12"/>
-      <c r="BH28" s="12"/>
-      <c r="BI28" s="12"/>
-      <c r="BJ28" s="12"/>
-      <c r="BK28" s="12"/>
-      <c r="BL28" s="12"/>
-      <c r="BM28" s="12"/>
-      <c r="BN28" s="12"/>
-      <c r="BO28" s="12"/>
-      <c r="BP28" s="12"/>
-      <c r="BQ28" s="12"/>
-      <c r="BR28" s="12"/>
-      <c r="BS28" s="12"/>
-      <c r="BT28" s="12"/>
-      <c r="BU28" s="12"/>
-      <c r="BV28" s="12"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10"/>
+      <c r="AQ28" s="10"/>
+      <c r="AR28" s="10"/>
+      <c r="AS28" s="10"/>
+      <c r="AT28" s="10"/>
+      <c r="AU28" s="10"/>
+      <c r="AV28" s="10"/>
+      <c r="AW28" s="10"/>
+      <c r="AX28" s="10"/>
+      <c r="AY28" s="10"/>
+      <c r="AZ28" s="10"/>
+      <c r="BA28" s="10"/>
+      <c r="BB28" s="10"/>
+      <c r="BC28" s="10"/>
+      <c r="BD28" s="10"/>
+      <c r="BE28" s="10"/>
+      <c r="BF28" s="10"/>
+      <c r="BG28" s="10"/>
+      <c r="BH28" s="10"/>
+      <c r="BI28" s="10"/>
+      <c r="BJ28" s="10"/>
+      <c r="BK28" s="10"/>
+      <c r="BL28" s="10"/>
+      <c r="BM28" s="10"/>
+      <c r="BN28" s="10"/>
+      <c r="BO28" s="10"/>
+      <c r="BP28" s="10"/>
+      <c r="BQ28" s="10"/>
+      <c r="BR28" s="10"/>
+      <c r="BS28" s="10"/>
+      <c r="BT28" s="10"/>
+      <c r="BU28" s="10"/>
+      <c r="BV28" s="10"/>
     </row>
-    <row r="29" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12">
+      <c r="B29" s="9"/>
+      <c r="C29" s="10">
         <v>-3584.26</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
-      <c r="AI29" s="12"/>
-      <c r="AJ29" s="12"/>
-      <c r="AK29" s="12"/>
-      <c r="AL29" s="12"/>
-      <c r="AM29" s="12"/>
-      <c r="AN29" s="12"/>
-      <c r="AO29" s="12"/>
-      <c r="AP29" s="12"/>
-      <c r="AQ29" s="12"/>
-      <c r="AR29" s="12"/>
-      <c r="AS29" s="12"/>
-      <c r="AT29" s="12"/>
-      <c r="AU29" s="12"/>
-      <c r="AV29" s="12"/>
-      <c r="AW29" s="12"/>
-      <c r="AX29" s="12"/>
-      <c r="AY29" s="12"/>
-      <c r="AZ29" s="12"/>
-      <c r="BA29" s="12"/>
-      <c r="BB29" s="12"/>
-      <c r="BC29" s="12"/>
-      <c r="BD29" s="12"/>
-      <c r="BE29" s="12"/>
-      <c r="BF29" s="12"/>
-      <c r="BG29" s="12"/>
-      <c r="BH29" s="12"/>
-      <c r="BI29" s="12"/>
-      <c r="BJ29" s="12"/>
-      <c r="BK29" s="12"/>
-      <c r="BL29" s="12"/>
-      <c r="BM29" s="12"/>
-      <c r="BN29" s="12"/>
-      <c r="BO29" s="12"/>
-      <c r="BP29" s="12"/>
-      <c r="BQ29" s="12"/>
-      <c r="BR29" s="12"/>
-      <c r="BS29" s="12"/>
-      <c r="BT29" s="12"/>
-      <c r="BU29" s="12"/>
-      <c r="BV29" s="12"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="10"/>
+      <c r="AO29" s="10"/>
+      <c r="AP29" s="10"/>
+      <c r="AQ29" s="10"/>
+      <c r="AR29" s="10"/>
+      <c r="AS29" s="10"/>
+      <c r="AT29" s="10"/>
+      <c r="AU29" s="10"/>
+      <c r="AV29" s="10"/>
+      <c r="AW29" s="10"/>
+      <c r="AX29" s="10"/>
+      <c r="AY29" s="10"/>
+      <c r="AZ29" s="10"/>
+      <c r="BA29" s="10"/>
+      <c r="BB29" s="10"/>
+      <c r="BC29" s="10"/>
+      <c r="BD29" s="10"/>
+      <c r="BE29" s="10"/>
+      <c r="BF29" s="10"/>
+      <c r="BG29" s="10"/>
+      <c r="BH29" s="10"/>
+      <c r="BI29" s="10"/>
+      <c r="BJ29" s="10"/>
+      <c r="BK29" s="10"/>
+      <c r="BL29" s="10"/>
+      <c r="BM29" s="10"/>
+      <c r="BN29" s="10"/>
+      <c r="BO29" s="10"/>
+      <c r="BP29" s="10"/>
+      <c r="BQ29" s="10"/>
+      <c r="BR29" s="10"/>
+      <c r="BS29" s="10"/>
+      <c r="BT29" s="10"/>
+      <c r="BU29" s="10"/>
+      <c r="BV29" s="10"/>
     </row>
-    <row r="30" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12">
+    <row r="30" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10">
         <v>-1900</v>
       </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12">
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10">
         <v>-1900</v>
       </c>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
-      <c r="AI30" s="12"/>
-      <c r="AJ30" s="12"/>
-      <c r="AK30" s="12"/>
-      <c r="AL30" s="12"/>
-      <c r="AM30" s="12"/>
-      <c r="AN30" s="12"/>
-      <c r="AO30" s="12"/>
-      <c r="AP30" s="12"/>
-      <c r="AQ30" s="12"/>
-      <c r="AR30" s="12"/>
-      <c r="AS30" s="12"/>
-      <c r="AT30" s="12"/>
-      <c r="AU30" s="12"/>
-      <c r="AV30" s="12"/>
-      <c r="AW30" s="12"/>
-      <c r="AX30" s="12"/>
-      <c r="AY30" s="12"/>
-      <c r="AZ30" s="12"/>
-      <c r="BA30" s="12"/>
-      <c r="BB30" s="12"/>
-      <c r="BC30" s="12"/>
-      <c r="BD30" s="12"/>
-      <c r="BE30" s="12"/>
-      <c r="BF30" s="12"/>
-      <c r="BG30" s="12"/>
-      <c r="BH30" s="12"/>
-      <c r="BI30" s="12"/>
-      <c r="BJ30" s="12"/>
-      <c r="BK30" s="12"/>
-      <c r="BL30" s="12"/>
-      <c r="BM30" s="12"/>
-      <c r="BN30" s="12"/>
-      <c r="BO30" s="12"/>
-      <c r="BP30" s="12"/>
-      <c r="BQ30" s="12"/>
-      <c r="BR30" s="12"/>
-      <c r="BS30" s="12"/>
-      <c r="BT30" s="12"/>
-      <c r="BU30" s="12"/>
-      <c r="BV30" s="12"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="10"/>
+      <c r="AP30" s="10"/>
+      <c r="AQ30" s="10"/>
+      <c r="AR30" s="10"/>
+      <c r="AS30" s="10"/>
+      <c r="AT30" s="10"/>
+      <c r="AU30" s="10"/>
+      <c r="AV30" s="10"/>
+      <c r="AW30" s="10"/>
+      <c r="AX30" s="10"/>
+      <c r="AY30" s="10"/>
+      <c r="AZ30" s="10"/>
+      <c r="BA30" s="10"/>
+      <c r="BB30" s="10"/>
+      <c r="BC30" s="10"/>
+      <c r="BD30" s="10"/>
+      <c r="BE30" s="10"/>
+      <c r="BF30" s="10"/>
+      <c r="BG30" s="10"/>
+      <c r="BH30" s="10"/>
+      <c r="BI30" s="10"/>
+      <c r="BJ30" s="10"/>
+      <c r="BK30" s="10"/>
+      <c r="BL30" s="10"/>
+      <c r="BM30" s="10"/>
+      <c r="BN30" s="10"/>
+      <c r="BO30" s="10"/>
+      <c r="BP30" s="10"/>
+      <c r="BQ30" s="10"/>
+      <c r="BR30" s="10"/>
+      <c r="BS30" s="10"/>
+      <c r="BT30" s="10"/>
+      <c r="BU30" s="10"/>
+      <c r="BV30" s="10"/>
     </row>
-    <row r="31" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="12">
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="10">
         <f>-262.55</f>
         <v>-262.55</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="12"/>
-      <c r="AI31" s="12"/>
-      <c r="AJ31" s="12"/>
-      <c r="AK31" s="12"/>
-      <c r="AL31" s="12"/>
-      <c r="AM31" s="12"/>
-      <c r="AN31" s="12"/>
-      <c r="AO31" s="12"/>
-      <c r="AP31" s="12"/>
-      <c r="AQ31" s="12"/>
-      <c r="AR31" s="12"/>
-      <c r="AS31" s="12"/>
-      <c r="AT31" s="12"/>
-      <c r="AU31" s="12"/>
-      <c r="AV31" s="12"/>
-      <c r="AW31" s="12"/>
-      <c r="AX31" s="12"/>
-      <c r="AY31" s="12"/>
-      <c r="AZ31" s="12"/>
-      <c r="BA31" s="12"/>
-      <c r="BB31" s="12"/>
-      <c r="BC31" s="12"/>
-      <c r="BD31" s="12"/>
-      <c r="BE31" s="12"/>
-      <c r="BF31" s="12"/>
-      <c r="BG31" s="12"/>
-      <c r="BH31" s="12"/>
-      <c r="BI31" s="12"/>
-      <c r="BJ31" s="12"/>
-      <c r="BK31" s="12"/>
-      <c r="BL31" s="12"/>
-      <c r="BM31" s="12"/>
-      <c r="BN31" s="12"/>
-      <c r="BO31" s="12"/>
-      <c r="BP31" s="12"/>
-      <c r="BQ31" s="12"/>
-      <c r="BR31" s="12"/>
-      <c r="BS31" s="12"/>
-      <c r="BT31" s="12"/>
-      <c r="BU31" s="12"/>
-      <c r="BV31" s="12"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="10"/>
+      <c r="AP31" s="10"/>
+      <c r="AQ31" s="10"/>
+      <c r="AR31" s="10"/>
+      <c r="AS31" s="10"/>
+      <c r="AT31" s="10"/>
+      <c r="AU31" s="10"/>
+      <c r="AV31" s="10"/>
+      <c r="AW31" s="10"/>
+      <c r="AX31" s="10"/>
+      <c r="AY31" s="10"/>
+      <c r="AZ31" s="10"/>
+      <c r="BA31" s="10"/>
+      <c r="BB31" s="10"/>
+      <c r="BC31" s="10"/>
+      <c r="BD31" s="10"/>
+      <c r="BE31" s="10"/>
+      <c r="BF31" s="10"/>
+      <c r="BG31" s="10"/>
+      <c r="BH31" s="10"/>
+      <c r="BI31" s="10"/>
+      <c r="BJ31" s="10"/>
+      <c r="BK31" s="10"/>
+      <c r="BL31" s="10"/>
+      <c r="BM31" s="10"/>
+      <c r="BN31" s="10"/>
+      <c r="BO31" s="10"/>
+      <c r="BP31" s="10"/>
+      <c r="BQ31" s="10"/>
+      <c r="BR31" s="10"/>
+      <c r="BS31" s="10"/>
+      <c r="BT31" s="10"/>
+      <c r="BU31" s="10"/>
+      <c r="BV31" s="10"/>
     </row>
-    <row r="32" spans="1:74" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="12"/>
-      <c r="AH32" s="12"/>
-      <c r="AI32" s="12"/>
-      <c r="AJ32" s="12"/>
-      <c r="AK32" s="12"/>
-      <c r="AL32" s="12"/>
-      <c r="AM32" s="12"/>
-      <c r="AN32" s="12"/>
-      <c r="AO32" s="12"/>
-      <c r="AP32" s="12"/>
-      <c r="AQ32" s="12"/>
-      <c r="AR32" s="12"/>
-      <c r="AS32" s="12"/>
-      <c r="AT32" s="12"/>
-      <c r="AU32" s="12"/>
-      <c r="AV32" s="12"/>
-      <c r="AW32" s="12"/>
-      <c r="AX32" s="12"/>
-      <c r="AY32" s="12"/>
-      <c r="AZ32" s="12"/>
-      <c r="BA32" s="12"/>
-      <c r="BB32" s="12"/>
-      <c r="BC32" s="12"/>
-      <c r="BD32" s="12"/>
-      <c r="BE32" s="12"/>
-      <c r="BF32" s="12"/>
-      <c r="BG32" s="12"/>
-      <c r="BH32" s="12"/>
-      <c r="BI32" s="12"/>
-      <c r="BJ32" s="12"/>
-      <c r="BK32" s="12"/>
-      <c r="BL32" s="12"/>
-      <c r="BM32" s="12"/>
-      <c r="BN32" s="12"/>
-      <c r="BO32" s="12"/>
-      <c r="BP32" s="12"/>
-      <c r="BQ32" s="12"/>
-      <c r="BR32" s="12"/>
-      <c r="BS32" s="12"/>
-      <c r="BT32" s="12"/>
-      <c r="BU32" s="12"/>
-      <c r="BV32" s="12"/>
+    <row r="32" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="10"/>
+      <c r="AP32" s="10"/>
+      <c r="AQ32" s="10"/>
+      <c r="AR32" s="10"/>
+      <c r="AS32" s="10"/>
+      <c r="AT32" s="10"/>
+      <c r="AU32" s="10"/>
+      <c r="AV32" s="10"/>
+      <c r="AW32" s="10"/>
+      <c r="AX32" s="10"/>
+      <c r="AY32" s="10"/>
+      <c r="AZ32" s="10"/>
+      <c r="BA32" s="10"/>
+      <c r="BB32" s="10"/>
+      <c r="BC32" s="10"/>
+      <c r="BD32" s="10"/>
+      <c r="BE32" s="10"/>
+      <c r="BF32" s="10"/>
+      <c r="BG32" s="10"/>
+      <c r="BH32" s="10"/>
+      <c r="BI32" s="10"/>
+      <c r="BJ32" s="10"/>
+      <c r="BK32" s="10"/>
+      <c r="BL32" s="10"/>
+      <c r="BM32" s="10"/>
+      <c r="BN32" s="10"/>
+      <c r="BO32" s="10"/>
+      <c r="BP32" s="10"/>
+      <c r="BQ32" s="10"/>
+      <c r="BR32" s="10"/>
+      <c r="BS32" s="10"/>
+      <c r="BT32" s="10"/>
+      <c r="BU32" s="10"/>
+      <c r="BV32" s="10"/>
     </row>
     <row r="33" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="12"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="12"/>
+      <c r="I33" s="10"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="12"/>
+      <c r="K33" s="10"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="12"/>
+      <c r="M33" s="10"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="12"/>
+      <c r="O33" s="10"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -5130,10 +5154,10 @@
       <c r="BV33" s="2"/>
     </row>
     <row r="34" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="4"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2">
         <v>-65653.507640750671</v>
@@ -5142,23 +5166,23 @@
       <c r="F34" s="2">
         <v>-65876.818891229414</v>
       </c>
-      <c r="G34" s="12"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="2">
         <v>-65876.818891229414</v>
       </c>
-      <c r="I34" s="12"/>
+      <c r="I34" s="10"/>
       <c r="J34" s="2">
         <v>-66065.944566201084</v>
       </c>
-      <c r="K34" s="12"/>
+      <c r="K34" s="10"/>
       <c r="L34" s="2">
         <v>-66255.613201830784</v>
       </c>
-      <c r="M34" s="12"/>
+      <c r="M34" s="10"/>
       <c r="N34" s="2">
         <v>-61190.224272176725</v>
       </c>
-      <c r="O34" s="12"/>
+      <c r="O34" s="10"/>
       <c r="P34" s="2">
         <v>-1225.9044755676</v>
       </c>
@@ -5328,10 +5352,10 @@
       </c>
     </row>
     <row r="35" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2">
         <v>0</v>
@@ -5340,31 +5364,31 @@
       <c r="F35" s="2">
         <v>0</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="10">
         <v>0</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="10">
         <v>0</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35" s="10">
         <v>0</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="10">
         <v>0</v>
       </c>
       <c r="N35" s="2">
         <v>0</v>
       </c>
-      <c r="O35" s="12">
+      <c r="O35" s="10">
         <v>0</v>
       </c>
       <c r="P35" s="2">
@@ -5542,10 +5566,10 @@
       </c>
     </row>
     <row r="36" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
         <v>0</v>
@@ -5554,31 +5578,31 @@
       <c r="F36" s="2">
         <v>0</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="10">
         <v>0</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="10">
         <v>0</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K36" s="10">
         <v>0</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M36" s="10">
         <v>0</v>
       </c>
       <c r="N36" s="2">
         <v>0</v>
       </c>
-      <c r="O36" s="12">
+      <c r="O36" s="10">
         <v>0</v>
       </c>
       <c r="P36" s="2">
@@ -5760,31 +5784,31 @@
       </c>
     </row>
     <row r="37" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="3"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="12"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="12"/>
+      <c r="I37" s="10"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="12"/>
+      <c r="K37" s="10"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="12"/>
+      <c r="M37" s="10"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="12"/>
+      <c r="O37" s="10"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="12"/>
+      <c r="U37" s="10"/>
       <c r="V37" s="2"/>
-      <c r="W37" s="12"/>
+      <c r="W37" s="10"/>
       <c r="X37" s="2"/>
-      <c r="Y37" s="12"/>
+      <c r="Y37" s="10"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
@@ -5836,10 +5860,13 @@
       <c r="BV37" s="2"/>
     </row>
     <row r="38" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="7">
+        <f t="shared" ref="B38" si="19">C38+E38+G38+I38+K38+M38+O38+Q38+S38+U38+W38+Y38</f>
+        <v>-1303472.5500000003</v>
+      </c>
       <c r="C38" s="2">
         <f>SUM(C39:C44)</f>
         <v>-78350.78</v>
@@ -5852,69 +5879,69 @@
       <c r="F38" s="2">
         <v>-290653.07379490609</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="10">
         <f>SUM(G39:G44)</f>
         <v>-108528.08</v>
       </c>
       <c r="H38" s="2">
         <v>-291641.68969216774</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="10">
         <f>SUM(I39:I44)</f>
         <v>-104346.46</v>
       </c>
       <c r="J38" s="2">
         <v>-291641.68969216774</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38" s="10">
         <f>SUM(K39:K44)</f>
         <v>0</v>
       </c>
       <c r="L38" s="2">
         <v>-291641.68969216774</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="10">
         <f>SUM(M39:M44)</f>
         <v>-152130.95000000001</v>
       </c>
       <c r="N38" s="2">
         <v>-291641.68969216774</v>
       </c>
-      <c r="O38" s="12">
+      <c r="O38" s="10">
         <f>SUM(O39:O44)</f>
         <v>-336714.29</v>
       </c>
       <c r="P38" s="2">
         <v>-268573.98542273074</v>
       </c>
-      <c r="Q38" s="12">
+      <c r="Q38" s="10">
         <f>SUM(Q39:Q44)</f>
         <v>-180529.02</v>
       </c>
       <c r="R38" s="2">
         <v>0</v>
       </c>
-      <c r="S38" s="12">
+      <c r="S38" s="10">
         <v>0</v>
       </c>
       <c r="T38" s="2">
         <v>0</v>
       </c>
-      <c r="U38" s="12">
+      <c r="U38" s="10">
         <f>SUM(U39:U44)</f>
         <v>-128227.34</v>
       </c>
       <c r="V38" s="2">
         <v>0</v>
       </c>
-      <c r="W38" s="12">
+      <c r="W38" s="10">
         <f>SUM(W39:W44)</f>
         <v>-132108.59</v>
       </c>
       <c r="X38" s="2">
         <v>0</v>
       </c>
-      <c r="Y38" s="12"/>
+      <c r="Y38" s="10"/>
       <c r="Z38" s="2">
         <v>0</v>
       </c>
@@ -6064,52 +6091,52 @@
       </c>
     </row>
     <row r="39" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12">
+      <c r="A39" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10">
         <v>-104346.46</v>
       </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12">
+      <c r="H39" s="10"/>
+      <c r="I39" s="10">
         <v>-104346.46</v>
       </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="12"/>
+      <c r="K39" s="10"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="12">
+      <c r="M39" s="10">
         <f>-(116631.88+18772.57)</f>
         <v>-135404.45000000001</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="12">
+      <c r="O39" s="10">
         <f>-(24467.06+152007.6+18772.56+116631.87)</f>
         <v>-311879.08999999997</v>
       </c>
       <c r="P39" s="2"/>
-      <c r="Q39" s="12">
+      <c r="Q39" s="10">
         <f>-(152007.6+24467.06)</f>
         <v>-176474.66</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="12">
+      <c r="T39" s="16"/>
+      <c r="U39" s="10">
         <f>-110449.55-17777.79</f>
         <v>-128227.34</v>
       </c>
       <c r="V39" s="2"/>
-      <c r="W39" s="12">
+      <c r="W39" s="10">
         <f>-(17777.79+110449.55)</f>
         <v>-128227.34</v>
       </c>
       <c r="X39" s="2"/>
-      <c r="Y39" s="12"/>
+      <c r="Y39" s="10"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
@@ -6161,38 +6188,38 @@
       <c r="BV39" s="2"/>
     </row>
     <row r="40" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
+      <c r="A40" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="12"/>
+      <c r="I40" s="10"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="12"/>
+      <c r="K40" s="10"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="12"/>
+      <c r="M40" s="10"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="12">
+      <c r="O40" s="10">
         <f>-(4054.35+4054.35)</f>
         <v>-8108.7</v>
       </c>
       <c r="P40" s="2"/>
-      <c r="Q40" s="12">
+      <c r="Q40" s="10">
         <v>-4054.36</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
-      <c r="U40" s="12"/>
+      <c r="U40" s="10"/>
       <c r="V40" s="2"/>
-      <c r="W40" s="12"/>
+      <c r="W40" s="10"/>
       <c r="X40" s="2"/>
-      <c r="Y40" s="12"/>
+      <c r="Y40" s="10"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
@@ -6244,37 +6271,37 @@
       <c r="BV40" s="2"/>
     </row>
     <row r="41" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12">
+      <c r="B41" s="9"/>
+      <c r="C41" s="10">
         <v>-35690.699999999997</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10">
         <v>-35690.699999999997</v>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="12"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="12"/>
+      <c r="I41" s="10"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="12"/>
+      <c r="K41" s="10"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="12"/>
+      <c r="M41" s="10"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="12"/>
+      <c r="O41" s="10"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="12"/>
+      <c r="S41" s="10"/>
       <c r="T41" s="2"/>
-      <c r="U41" s="12"/>
+      <c r="U41" s="10"/>
       <c r="V41" s="2"/>
-      <c r="W41" s="12"/>
+      <c r="W41" s="10"/>
       <c r="X41" s="2"/>
-      <c r="Y41" s="12"/>
+      <c r="Y41" s="10"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
@@ -6326,37 +6353,37 @@
       <c r="BV41" s="2"/>
     </row>
     <row r="42" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12">
+      <c r="B42" s="9"/>
+      <c r="C42" s="10">
         <v>-35690.699999999997</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10">
         <v>-35690.699999999997</v>
       </c>
       <c r="F42" s="2"/>
-      <c r="G42" s="12"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="12"/>
+      <c r="I42" s="10"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="12"/>
+      <c r="K42" s="10"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="12"/>
+      <c r="M42" s="10"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="12"/>
+      <c r="O42" s="10"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="12"/>
+      <c r="S42" s="10"/>
       <c r="T42" s="2"/>
-      <c r="U42" s="12"/>
+      <c r="U42" s="10"/>
       <c r="V42" s="2"/>
-      <c r="W42" s="12"/>
+      <c r="W42" s="10"/>
       <c r="X42" s="2"/>
-      <c r="Y42" s="12"/>
+      <c r="Y42" s="10"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
@@ -6408,35 +6435,35 @@
       <c r="BV42" s="2"/>
     </row>
     <row r="43" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
+      <c r="A43" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="12"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="12"/>
+      <c r="I43" s="10"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="12"/>
+      <c r="K43" s="10"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="12"/>
+      <c r="M43" s="10"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="12"/>
+      <c r="O43" s="10"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="12"/>
+      <c r="S43" s="10"/>
       <c r="T43" s="2"/>
-      <c r="U43" s="12"/>
+      <c r="U43" s="10"/>
       <c r="V43" s="2"/>
-      <c r="W43" s="12">
+      <c r="W43" s="10">
         <v>-3881.25</v>
       </c>
       <c r="X43" s="2"/>
-      <c r="Y43" s="12"/>
+      <c r="Y43" s="10"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
@@ -6488,46 +6515,46 @@
       <c r="BV43" s="2"/>
     </row>
     <row r="44" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12">
+      <c r="B44" s="9"/>
+      <c r="C44" s="10">
         <v>-6969.38</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10">
         <f>-(4181.63+6974.01)</f>
         <v>-11155.64</v>
       </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12">
+      <c r="F44" s="10"/>
+      <c r="G44" s="10">
         <v>-4181.62</v>
       </c>
       <c r="H44" s="2"/>
-      <c r="I44" s="12"/>
+      <c r="I44" s="10"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="12"/>
+      <c r="K44" s="10"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="12">
+      <c r="M44" s="10">
         <f>-(8363.25+8363.25)</f>
         <v>-16726.5</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" s="12">
+      <c r="O44" s="10">
         <f>-(8363.25+8363.25)</f>
         <v>-16726.5</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="12"/>
+      <c r="S44" s="10"/>
       <c r="T44" s="2"/>
-      <c r="U44" s="12"/>
+      <c r="U44" s="10"/>
       <c r="V44" s="2"/>
-      <c r="W44" s="12"/>
+      <c r="W44" s="10"/>
       <c r="X44" s="2"/>
-      <c r="Y44" s="12"/>
+      <c r="Y44" s="10"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
@@ -6579,21 +6606,21 @@
       <c r="BV44" s="2"/>
     </row>
     <row r="45" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="3"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="12"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="12"/>
+      <c r="I45" s="10"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="12"/>
+      <c r="K45" s="10"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="12"/>
+      <c r="M45" s="10"/>
       <c r="N45" s="2"/>
-      <c r="O45" s="12"/>
+      <c r="O45" s="10"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
@@ -6655,303 +6682,306 @@
       <c r="BV45" s="2"/>
     </row>
     <row r="46" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="7">
-        <v>0</v>
-      </c>
-      <c r="D46" s="7">
+      <c r="B46" s="32">
+        <f t="shared" ref="B46" si="20">C46+E46+G46+I46+K46+M46+O46+Q46+S46+U46+W46+Y46</f>
+        <v>-21810.54</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0</v>
+      </c>
+      <c r="D46" s="5">
         <f>SUM(D47:D50)</f>
         <v>-13432.593933481601</v>
       </c>
-      <c r="E46" s="7">
-        <v>0</v>
-      </c>
-      <c r="F46" s="7">
-        <f t="shared" ref="F46:BV46" si="18">SUM(F47:F50)</f>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" ref="F46:BV46" si="21">SUM(F47:F50)</f>
         <v>-13432.593933481601</v>
       </c>
-      <c r="G46" s="17">
-        <f t="shared" ref="G46" si="19">SUM(G47:G50)</f>
+      <c r="G46" s="14">
+        <f t="shared" ref="G46" si="22">SUM(G47:G50)</f>
         <v>-209.22</v>
       </c>
-      <c r="H46" s="7">
-        <f t="shared" si="18"/>
+      <c r="H46" s="5">
+        <f t="shared" si="21"/>
         <v>-13432.593933481601</v>
       </c>
-      <c r="I46" s="17">
-        <f t="shared" ref="I46:K46" si="20">SUM(I47:I50)</f>
+      <c r="I46" s="14">
+        <f t="shared" ref="I46:K46" si="23">SUM(I47:I50)</f>
         <v>-915.68000000000006</v>
       </c>
-      <c r="J46" s="7">
-        <f t="shared" si="18"/>
+      <c r="J46" s="5">
+        <f t="shared" si="21"/>
         <v>-13476.899347637262</v>
       </c>
-      <c r="K46" s="17">
-        <f t="shared" si="20"/>
+      <c r="K46" s="14">
+        <f t="shared" si="23"/>
         <v>-2214.36</v>
       </c>
-      <c r="L46" s="7">
-        <f t="shared" si="18"/>
+      <c r="L46" s="5">
+        <f t="shared" si="21"/>
         <v>-13521.331958149671</v>
       </c>
-      <c r="M46" s="17">
-        <f t="shared" si="18"/>
+      <c r="M46" s="14">
+        <f t="shared" si="21"/>
         <v>-1460.26</v>
       </c>
-      <c r="N46" s="7">
-        <f t="shared" si="18"/>
+      <c r="N46" s="5">
+        <f t="shared" si="21"/>
         <v>-13565.892130186689</v>
       </c>
-      <c r="O46" s="17">
-        <f t="shared" ref="O46" si="21">SUM(O47:O50)</f>
+      <c r="O46" s="14">
+        <f t="shared" ref="O46" si="24">SUM(O47:O50)</f>
         <v>-1975.37</v>
       </c>
-      <c r="P46" s="7">
-        <f t="shared" si="18"/>
+      <c r="P46" s="5">
+        <f t="shared" si="21"/>
         <v>-13610.580229964526</v>
       </c>
-      <c r="Q46" s="7">
-        <f t="shared" ref="Q46" si="22">SUM(Q47:Q50)</f>
+      <c r="Q46" s="5">
+        <f t="shared" ref="Q46" si="25">SUM(Q47:Q50)</f>
         <v>-2142.41</v>
       </c>
-      <c r="R46" s="7">
-        <f t="shared" si="18"/>
+      <c r="R46" s="5">
+        <f t="shared" si="21"/>
         <v>-13655.396624750776</v>
       </c>
-      <c r="S46" s="7">
-        <f t="shared" ref="S46" si="23">SUM(S47:S50)</f>
+      <c r="S46" s="5">
+        <f t="shared" ref="S46" si="26">SUM(S47:S50)</f>
         <v>-4754.0600000000004</v>
       </c>
-      <c r="T46" s="7">
-        <f t="shared" si="18"/>
+      <c r="T46" s="5">
+        <f t="shared" si="21"/>
         <v>-13700.341682867411</v>
       </c>
-      <c r="U46" s="7">
-        <f t="shared" ref="U46:W46" si="24">SUM(U47:U50)</f>
+      <c r="U46" s="5">
+        <f t="shared" ref="U46:W46" si="27">SUM(U47:U50)</f>
         <v>-6171.85</v>
       </c>
-      <c r="V46" s="7">
-        <f t="shared" si="18"/>
+      <c r="V46" s="5">
+        <f t="shared" si="21"/>
         <v>-13745.41577369382</v>
       </c>
-      <c r="W46" s="7">
-        <f t="shared" si="24"/>
+      <c r="W46" s="5">
+        <f t="shared" si="27"/>
         <v>-1967.33</v>
       </c>
-      <c r="X46" s="7">
-        <f t="shared" si="18"/>
+      <c r="X46" s="5">
+        <f t="shared" si="21"/>
         <v>-13790.619267669847</v>
       </c>
-      <c r="Y46" s="7">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Z46" s="7">
-        <f t="shared" si="18"/>
+      <c r="Y46" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="5">
+        <f t="shared" si="21"/>
         <v>-13835.952536298828</v>
       </c>
-      <c r="AA46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AA46" s="5">
+        <f t="shared" si="21"/>
         <v>-13881.415952150646</v>
       </c>
-      <c r="AB46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AB46" s="5">
+        <f t="shared" si="21"/>
         <v>-13927.009888864799</v>
       </c>
-      <c r="AC46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AC46" s="5">
+        <f t="shared" si="21"/>
         <v>-13972.734721153462</v>
       </c>
-      <c r="AD46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AD46" s="5">
+        <f t="shared" si="21"/>
         <v>-14018.590824804574</v>
       </c>
-      <c r="AE46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AE46" s="5">
+        <f t="shared" si="21"/>
         <v>-14064.578576684915</v>
       </c>
-      <c r="AF46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AF46" s="5">
+        <f t="shared" si="21"/>
         <v>-14110.698354743226</v>
       </c>
-      <c r="AG46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AG46" s="5">
+        <f t="shared" si="21"/>
         <v>-14156.95053801329</v>
       </c>
-      <c r="AH46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AH46" s="5">
+        <f t="shared" si="21"/>
         <v>-14203.335506617061</v>
       </c>
-      <c r="AI46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AI46" s="5">
+        <f t="shared" si="21"/>
         <v>-14249.853641767777</v>
       </c>
-      <c r="AJ46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AJ46" s="5">
+        <f t="shared" si="21"/>
         <v>-14296.505325773111</v>
       </c>
-      <c r="AK46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AK46" s="5">
+        <f t="shared" si="21"/>
         <v>-14343.290942038298</v>
       </c>
-      <c r="AL46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AL46" s="5">
+        <f t="shared" si="21"/>
         <v>-14390.210875069293</v>
       </c>
-      <c r="AM46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AM46" s="5">
+        <f t="shared" si="21"/>
         <v>-14437.265510475925</v>
       </c>
-      <c r="AN46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AN46" s="5">
+        <f t="shared" si="21"/>
         <v>-14484.455234975074</v>
       </c>
-      <c r="AO46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AO46" s="5">
+        <f t="shared" si="21"/>
         <v>-14531.780436393839</v>
       </c>
-      <c r="AP46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AP46" s="5">
+        <f t="shared" si="21"/>
         <v>-14579.241503672736</v>
       </c>
-      <c r="AQ46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AQ46" s="5">
+        <f t="shared" si="21"/>
         <v>-14626.838826868892</v>
       </c>
-      <c r="AR46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AR46" s="5">
+        <f t="shared" si="21"/>
         <v>-14674.572797159242</v>
       </c>
-      <c r="AS46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AS46" s="5">
+        <f t="shared" si="21"/>
         <v>-14722.443806843758</v>
       </c>
-      <c r="AT46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AT46" s="5">
+        <f t="shared" si="21"/>
         <v>-14770.452249348658</v>
       </c>
-      <c r="AU46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AU46" s="5">
+        <f t="shared" si="21"/>
         <v>-14818.598519229647</v>
       </c>
-      <c r="AV46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AV46" s="5">
+        <f t="shared" si="21"/>
         <v>-14866.883012175169</v>
       </c>
-      <c r="AW46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AW46" s="5">
+        <f t="shared" si="21"/>
         <v>-14915.306125009638</v>
       </c>
-      <c r="AX46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AX46" s="5">
+        <f t="shared" si="21"/>
         <v>-14963.868255696718</v>
       </c>
-      <c r="AY46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AY46" s="5">
+        <f t="shared" si="21"/>
         <v>-15012.56980334258</v>
       </c>
-      <c r="AZ46" s="7">
-        <f t="shared" si="18"/>
+      <c r="AZ46" s="5">
+        <f t="shared" si="21"/>
         <v>-15061.411168199204</v>
       </c>
-      <c r="BA46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BA46" s="5">
+        <f t="shared" si="21"/>
         <v>-15110.392751667627</v>
       </c>
-      <c r="BB46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BB46" s="5">
+        <f t="shared" si="21"/>
         <v>-15159.514956301286</v>
       </c>
-      <c r="BC46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BC46" s="5">
+        <f t="shared" si="21"/>
         <v>-15208.778185809309</v>
       </c>
-      <c r="BD46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BD46" s="5">
+        <f t="shared" si="21"/>
         <v>-15258.182845059824</v>
       </c>
-      <c r="BE46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BE46" s="5">
+        <f t="shared" si="21"/>
         <v>-15307.729340083293</v>
       </c>
-      <c r="BF46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BF46" s="5">
+        <f t="shared" si="21"/>
         <v>-15357.418078075865</v>
       </c>
-      <c r="BG46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BG46" s="5">
+        <f t="shared" si="21"/>
         <v>-15407.249467402691</v>
       </c>
-      <c r="BH46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BH46" s="5">
+        <f t="shared" si="21"/>
         <v>-15457.223917601306</v>
       </c>
-      <c r="BI46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BI46" s="5">
+        <f t="shared" si="21"/>
         <v>-15507.341839384981</v>
       </c>
-      <c r="BJ46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BJ46" s="5">
+        <f t="shared" si="21"/>
         <v>-15557.603644646108</v>
       </c>
-      <c r="BK46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BK46" s="5">
+        <f t="shared" si="21"/>
         <v>-15608.009746459578</v>
       </c>
-      <c r="BL46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BL46" s="5">
+        <f t="shared" si="21"/>
         <v>-15658.560559086181</v>
       </c>
-      <c r="BM46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BM46" s="5">
+        <f t="shared" si="21"/>
         <v>-15709.256497975995</v>
       </c>
-      <c r="BN46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BN46" s="5">
+        <f t="shared" si="21"/>
         <v>-15760.097979771836</v>
       </c>
-      <c r="BO46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BO46" s="5">
+        <f t="shared" si="21"/>
         <v>-15811.085422312635</v>
       </c>
-      <c r="BP46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BP46" s="5">
+        <f t="shared" si="21"/>
         <v>-15862.219244636921</v>
       </c>
-      <c r="BQ46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BQ46" s="5">
+        <f t="shared" si="21"/>
         <v>-15913.499866986218</v>
       </c>
-      <c r="BR46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BR46" s="5">
+        <f t="shared" si="21"/>
         <v>-15964.927710808526</v>
       </c>
-      <c r="BS46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BS46" s="5">
+        <f t="shared" si="21"/>
         <v>-16016.503198761791</v>
       </c>
-      <c r="BT46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BT46" s="5">
+        <f t="shared" si="21"/>
         <v>-16068.226754717358</v>
       </c>
-      <c r="BU46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BU46" s="5">
+        <f t="shared" si="21"/>
         <v>-16120.09880376346</v>
       </c>
-      <c r="BV46" s="7">
-        <f t="shared" si="18"/>
+      <c r="BV46" s="5">
+        <f t="shared" si="21"/>
         <v>-16172.119772208731</v>
       </c>
     </row>
     <row r="47" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="22"/>
+      <c r="A47" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="2">
         <v>-3058.9036839936002</v>
       </c>
@@ -6959,53 +6989,53 @@
       <c r="F47" s="2">
         <v>-3058.9036839936002</v>
       </c>
-      <c r="G47" s="12"/>
+      <c r="G47" s="10"/>
       <c r="H47" s="2">
         <v>-3058.9036839936002</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I47" s="10">
         <v>-496.03</v>
       </c>
       <c r="J47" s="2">
         <v>-3067.6854866617559</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K47" s="10">
         <v>-1382.21</v>
       </c>
       <c r="L47" s="2">
         <v>-3076.4925009959429</v>
       </c>
-      <c r="M47" s="12"/>
+      <c r="M47" s="10"/>
       <c r="N47" s="2">
         <v>-3085.3247993763016</v>
       </c>
-      <c r="O47" s="12">
+      <c r="O47" s="10">
         <v>-1975.37</v>
       </c>
       <c r="P47" s="2">
         <v>-3094.1824543907665</v>
       </c>
-      <c r="Q47" s="12">
+      <c r="Q47" s="10">
         <v>-2142.41</v>
       </c>
       <c r="R47" s="2">
         <v>-3103.0655388356668</v>
       </c>
-      <c r="S47" s="12">
+      <c r="S47" s="10">
         <v>-1407.76</v>
       </c>
       <c r="T47" s="2">
         <v>-3111.9741257163209</v>
       </c>
-      <c r="U47" s="12"/>
+      <c r="U47" s="10"/>
       <c r="V47" s="2">
         <v>-3120.9082882476396</v>
       </c>
-      <c r="W47" s="12"/>
+      <c r="W47" s="10"/>
       <c r="X47" s="2">
         <v>-3129.8680998547252</v>
       </c>
-      <c r="Y47" s="12"/>
+      <c r="Y47" s="10"/>
       <c r="Z47" s="2">
         <v>-3138.8536341734775</v>
       </c>
@@ -7155,10 +7185,10 @@
       </c>
     </row>
     <row r="48" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="4"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2">
         <v>-6496.9546777600008</v>
@@ -7167,52 +7197,52 @@
       <c r="F48" s="2">
         <v>-6496.9546777600008</v>
       </c>
-      <c r="G48" s="12"/>
+      <c r="G48" s="10"/>
       <c r="H48" s="2">
         <v>-6496.9546777600008</v>
       </c>
-      <c r="I48" s="12"/>
+      <c r="I48" s="10"/>
       <c r="J48" s="2">
         <v>-6521.3485740604337</v>
       </c>
-      <c r="K48" s="12"/>
+      <c r="K48" s="10"/>
       <c r="L48" s="2">
         <v>-6545.8125027665083</v>
       </c>
-      <c r="M48" s="12">
+      <c r="M48" s="10">
         <f>-(136.34+123.69)</f>
         <v>-260.02999999999997</v>
       </c>
       <c r="N48" s="2">
         <v>-6570.3466649341717</v>
       </c>
-      <c r="O48" s="12"/>
+      <c r="O48" s="10"/>
       <c r="P48" s="2">
         <v>-6594.9512621965732</v>
       </c>
-      <c r="Q48" s="12"/>
+      <c r="Q48" s="10"/>
       <c r="R48" s="2">
         <v>-6619.6264967657407</v>
       </c>
-      <c r="S48" s="12">
+      <c r="S48" s="10">
         <v>-1938.54</v>
       </c>
       <c r="T48" s="2">
         <v>-6644.3725714342254</v>
       </c>
-      <c r="U48" s="12">
+      <c r="U48" s="10">
         <v>-2835.46</v>
       </c>
       <c r="V48" s="2">
         <v>-6669.1896895767768</v>
       </c>
-      <c r="W48" s="12">
+      <c r="W48" s="10">
         <v>-1616.98</v>
       </c>
       <c r="X48" s="2">
         <v>-6694.0780551520147</v>
       </c>
-      <c r="Y48" s="12"/>
+      <c r="Y48" s="10"/>
       <c r="Z48" s="2">
         <v>-6719.0378727041043</v>
       </c>
@@ -7362,10 +7392,10 @@
       </c>
     </row>
     <row r="49" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="6"/>
+      <c r="A49" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="4"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2">
         <v>-690.37756756800002</v>
@@ -7374,53 +7404,53 @@
       <c r="F49" s="2">
         <v>-690.37756756800002</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="10">
         <v>-37.22</v>
       </c>
       <c r="H49" s="2">
         <v>-690.37756756800002</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="10">
         <v>-74.73</v>
       </c>
       <c r="J49" s="2">
         <v>-692.35957164241017</v>
       </c>
-      <c r="K49" s="12"/>
+      <c r="K49" s="10"/>
       <c r="L49" s="2">
         <v>-694.34726584977886</v>
       </c>
-      <c r="M49" s="12">
+      <c r="M49" s="10">
         <v>-629.34</v>
       </c>
       <c r="N49" s="2">
         <v>-696.34066652590138</v>
       </c>
-      <c r="O49" s="12"/>
+      <c r="O49" s="10"/>
       <c r="P49" s="2">
         <v>-698.33979005347157</v>
       </c>
-      <c r="Q49" s="12"/>
+      <c r="Q49" s="10"/>
       <c r="R49" s="2">
         <v>-700.34465286221644</v>
       </c>
-      <c r="S49" s="12"/>
+      <c r="S49" s="10"/>
       <c r="T49" s="2">
         <v>-702.35527142903072</v>
       </c>
-      <c r="U49" s="12">
+      <c r="U49" s="10">
         <v>-614.35</v>
       </c>
       <c r="V49" s="2">
         <v>-704.37166227811304</v>
       </c>
-      <c r="W49" s="12">
+      <c r="W49" s="10">
         <v>-350.35</v>
       </c>
       <c r="X49" s="2">
         <v>-706.3938419811011</v>
       </c>
-      <c r="Y49" s="12"/>
+      <c r="Y49" s="10"/>
       <c r="Z49" s="2">
         <v>-708.42182715720833</v>
       </c>
@@ -7570,10 +7600,10 @@
       </c>
     </row>
     <row r="50" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="6"/>
+      <c r="A50" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="4"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2">
         <v>-3186.3580041599998</v>
@@ -7582,55 +7612,55 @@
       <c r="F50" s="2">
         <v>-3186.3580041599998</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="10">
         <v>-172</v>
       </c>
       <c r="H50" s="2">
         <v>-3186.3580041599998</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="10">
         <v>-344.92</v>
       </c>
       <c r="J50" s="2">
         <v>-3195.5057152726622</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K50" s="10">
         <v>-832.15</v>
       </c>
       <c r="L50" s="2">
         <v>-3204.6796885374406</v>
       </c>
-      <c r="M50" s="12">
+      <c r="M50" s="10">
         <v>-570.89</v>
       </c>
       <c r="N50" s="2">
         <v>-3213.8799993503139</v>
       </c>
-      <c r="O50" s="12"/>
+      <c r="O50" s="10"/>
       <c r="P50" s="2">
         <v>-3223.106723323715</v>
       </c>
-      <c r="Q50" s="12"/>
+      <c r="Q50" s="10"/>
       <c r="R50" s="2">
         <v>-3232.3599362871523</v>
       </c>
-      <c r="S50" s="12">
+      <c r="S50" s="10">
         <v>-1407.76</v>
       </c>
       <c r="T50" s="2">
         <v>-3241.6397142878341</v>
       </c>
-      <c r="U50" s="12">
+      <c r="U50" s="10">
         <v>-2722.04</v>
       </c>
       <c r="V50" s="2">
         <v>-3250.9461335912911</v>
       </c>
-      <c r="W50" s="12"/>
+      <c r="W50" s="10"/>
       <c r="X50" s="2">
         <v>-3260.2792706820051</v>
       </c>
-      <c r="Y50" s="12"/>
+      <c r="Y50" s="10"/>
       <c r="Z50" s="2">
         <v>-3269.6392022640384</v>
       </c>
@@ -7786,15 +7816,15 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="12"/>
+      <c r="G51" s="10"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="12"/>
+      <c r="I51" s="10"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="12"/>
+      <c r="K51" s="10"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="12"/>
+      <c r="M51" s="10"/>
       <c r="N51" s="2"/>
-      <c r="O51" s="12"/>
+      <c r="O51" s="10"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
@@ -7862,15 +7892,15 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="12"/>
+      <c r="G52" s="10"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="12"/>
+      <c r="I52" s="10"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="12"/>
+      <c r="K52" s="10"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="12"/>
+      <c r="M52" s="10"/>
       <c r="N52" s="2"/>
-      <c r="O52" s="12"/>
+      <c r="O52" s="10"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
@@ -7932,13 +7962,13 @@
       <c r="BV52" s="2"/>
     </row>
     <row r="54" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
-        <v>44</v>
+      <c r="A54" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="C54">
         <v>295</v>
       </c>
-      <c r="D54" s="26">
+      <c r="D54" s="18">
         <v>877</v>
       </c>
       <c r="E54">
@@ -7959,7 +7989,7 @@
       <c r="J54">
         <v>882</v>
       </c>
-      <c r="K54" s="13">
+      <c r="K54" s="11">
         <v>580</v>
       </c>
       <c r="L54">
@@ -7971,19 +8001,19 @@
       <c r="N54">
         <v>818</v>
       </c>
-      <c r="O54" s="13">
+      <c r="O54" s="11">
         <v>633</v>
       </c>
       <c r="Q54">
         <v>520</v>
       </c>
-      <c r="S54" s="13">
+      <c r="S54" s="11">
         <v>523</v>
       </c>
       <c r="U54">
         <v>468</v>
       </c>
-      <c r="W54" s="13">
+      <c r="W54" s="11">
         <v>299</v>
       </c>
       <c r="Y54">
@@ -7991,15 +8021,12 @@
       </c>
     </row>
     <row r="55" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
+      <c r="A55" s="21"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:BX32">
     <sortCondition ref="A18:A32"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B3"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Energy - Orçado x Realizado.xlsx
+++ b/Energy - Orçado x Realizado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Controle Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09BAA4A-4241-4072-BAF9-B31C9111DFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AC3EE0-1F19-4F4C-852D-146860C2EE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
+    <workbookView xWindow="30570" yWindow="195" windowWidth="26805" windowHeight="15405" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>Receita Bruta</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Aporte Brumat</t>
   </si>
   <si>
-    <t>Aporte Energy</t>
-  </si>
-  <si>
     <t>PIS - 8109</t>
   </si>
   <si>
@@ -169,6 +166,12 @@
   <si>
     <t>INSTALAÇÕES</t>
   </si>
+  <si>
+    <t>Aporte Energy.</t>
+  </si>
+  <si>
+    <t>Reembolso Aporte a Maior Energy</t>
+  </si>
 </sst>
 </file>
 
@@ -179,7 +182,7 @@
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\);\-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\);\-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="[$-416]mmm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -360,8 +363,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -705,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E0C361-DC00-4C96-A388-FAD64E248995}">
-  <dimension ref="A1:BX55"/>
+  <dimension ref="A1:BX56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="J25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomRight" activeCell="Y47" sqref="Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -801,6 +804,54 @@
     </row>
     <row r="2" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B2" s="31"/>
+      <c r="C2" s="2">
+        <f>C4+C14</f>
+        <v>-88500.33</v>
+      </c>
+      <c r="E2" s="2">
+        <f>C2+E4+E14</f>
+        <v>-181098.52</v>
+      </c>
+      <c r="G2" s="2">
+        <f>E2+G4+G14</f>
+        <v>-190017.93</v>
+      </c>
+      <c r="I2" s="2">
+        <f>G2+I4+I14</f>
+        <v>-209436.28999999998</v>
+      </c>
+      <c r="K2" s="2">
+        <f>I2+K4+K14</f>
+        <v>-186204.24999999997</v>
+      </c>
+      <c r="M2" s="2">
+        <f>K2+M4+M14</f>
+        <v>-200482.91</v>
+      </c>
+      <c r="O2" s="2">
+        <f>M2+O4+O14</f>
+        <v>-193605.75999999998</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>O2+Q4+Q14</f>
+        <v>-199972.36999999997</v>
+      </c>
+      <c r="S2" s="2">
+        <f>Q2+S4+S14</f>
+        <v>-120537.15999999997</v>
+      </c>
+      <c r="U2" s="2">
+        <f>S2+U4+U14</f>
+        <v>-170568.61999999997</v>
+      </c>
+      <c r="W2" s="2">
+        <f>U2+W4+W14</f>
+        <v>196090.03999999992</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>W2+Y4+Y14</f>
+        <v>196090.03999999992</v>
+      </c>
     </row>
     <row r="3" spans="1:74" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
@@ -1028,7 +1079,7 @@
       </c>
       <c r="B4" s="7">
         <f>C4+E4+G4+I4+K4+M4+O4+Q4+S4+U4+W4+Y4</f>
-        <v>2027307.3099999998</v>
+        <v>1897307.3099999998</v>
       </c>
       <c r="C4" s="5">
         <f>SUM(C6:C7)</f>
@@ -1039,289 +1090,289 @@
         <v>2006615.5435777036</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:BQ4" si="0">E5+E8</f>
+        <f>E5+E8</f>
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="0"/>
+        <f>F5+F8</f>
         <v>106615.54357770366</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" si="0"/>
+        <f>G5+G8</f>
         <v>166376.69</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="0"/>
+        <f>H5+H8</f>
         <v>106593.93710049389</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="0"/>
+        <f>I5+I8</f>
         <v>107225</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="0"/>
+        <f>J5+J8</f>
         <v>106899.95749797703</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="0"/>
+        <f>K5+K8</f>
         <v>30916.34</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" si="0"/>
+        <f>L5+L8</f>
         <v>107206.85644902731</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" si="0"/>
+        <f>M5+M8</f>
         <v>142985.09</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" si="0"/>
+        <f>N5+N8</f>
         <v>107514.63647588308</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="0"/>
+        <f>O5+O8</f>
         <v>349064.35</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" si="0"/>
+        <f>P5+P8</f>
         <v>107823.30010802369</v>
       </c>
       <c r="Q4" s="5">
-        <f t="shared" si="0"/>
+        <f>Q5+Q8</f>
         <v>180000</v>
       </c>
       <c r="R4" s="5">
-        <f t="shared" si="0"/>
+        <f>R5+R8</f>
         <v>108132.84988219042</v>
       </c>
       <c r="S4" s="5">
-        <f t="shared" si="0"/>
+        <f>S5+S8</f>
         <v>89978.67</v>
       </c>
       <c r="T4" s="5">
-        <f t="shared" si="0"/>
+        <f>T5+T8</f>
         <v>108842.82003705943</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" si="0"/>
+        <f>U5+U8</f>
         <v>89119.25</v>
       </c>
       <c r="V4" s="5">
-        <f t="shared" si="0"/>
+        <f>V5+V8</f>
         <v>109556.97743247374</v>
       </c>
       <c r="W4" s="5">
-        <f t="shared" si="0"/>
-        <v>871641.91999999993</v>
+        <f>W5+W8</f>
+        <v>741641.91999999993</v>
       </c>
       <c r="X4" s="5">
-        <f t="shared" si="0"/>
+        <f>X5+X8</f>
         <v>110275.34581702357</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" ref="Y4" si="1">Y5+Y8</f>
+        <f>Y5+Y8</f>
         <v>0</v>
       </c>
       <c r="Z4" s="5">
-        <f t="shared" si="0"/>
+        <f>Z5+Z8</f>
         <v>110997.94907147787</v>
       </c>
       <c r="AA4" s="5">
-        <f t="shared" si="0"/>
+        <f>AA5+AA8</f>
         <v>111500.81807781129</v>
       </c>
       <c r="AB4" s="5">
-        <f t="shared" si="0"/>
+        <f>AB5+AB8</f>
         <v>112231.19461044938</v>
       </c>
       <c r="AC4" s="5">
-        <f t="shared" si="0"/>
+        <f>AC5+AC8</f>
         <v>112955.55421269746</v>
       </c>
       <c r="AD4" s="5">
-        <f t="shared" si="0"/>
+        <f>AD5+AD8</f>
         <v>113488.68408053627</v>
       </c>
       <c r="AE4" s="5">
-        <f t="shared" si="0"/>
+        <f>AE5+AE8</f>
         <v>114022.34594505926</v>
       </c>
       <c r="AF4" s="5">
-        <f t="shared" si="0"/>
+        <f>AF5+AF8</f>
         <v>114557.3798253882</v>
       </c>
       <c r="AG4" s="5">
-        <f t="shared" si="0"/>
+        <f>AG5+AG8</f>
         <v>115093.79314638168</v>
       </c>
       <c r="AH4" s="5">
-        <f t="shared" si="0"/>
+        <f>AH5+AH8</f>
         <v>115631.58971258732</v>
       </c>
       <c r="AI4" s="5">
-        <f t="shared" si="0"/>
+        <f>AI5+AI8</f>
         <v>116170.77332340677</v>
       </c>
       <c r="AJ4" s="5">
-        <f t="shared" si="0"/>
+        <f>AJ5+AJ8</f>
         <v>116711.34778889181</v>
       </c>
       <c r="AK4" s="5">
-        <f t="shared" si="0"/>
+        <f>AK5+AK8</f>
         <v>117253.31692984366</v>
       </c>
       <c r="AL4" s="5">
-        <f t="shared" si="0"/>
+        <f>AL5+AL8</f>
         <v>117796.68457784381</v>
       </c>
       <c r="AM4" s="5">
-        <f t="shared" si="0"/>
+        <f>AM5+AM8</f>
         <v>118295.08799702271</v>
       </c>
       <c r="AN4" s="5">
-        <f t="shared" si="0"/>
+        <f>AN5+AN8</f>
         <v>118841.05812756054</v>
       </c>
       <c r="AO4" s="5">
-        <f t="shared" si="0"/>
+        <f>AO5+AO8</f>
         <v>119388.63976029815</v>
       </c>
       <c r="AP4" s="5">
-        <f t="shared" si="0"/>
+        <f>AP5+AP8</f>
         <v>119937.6363443998</v>
       </c>
       <c r="AQ4" s="5">
-        <f t="shared" si="0"/>
+        <f>AQ5+AQ8</f>
         <v>120488.05089229152</v>
       </c>
       <c r="AR4" s="5">
-        <f t="shared" si="0"/>
+        <f>AR5+AR8</f>
         <v>121039.88729760991</v>
       </c>
       <c r="AS4" s="5">
-        <f t="shared" si="0"/>
+        <f>AS5+AS8</f>
         <v>121593.14946878582</v>
       </c>
       <c r="AT4" s="5">
-        <f t="shared" si="0"/>
+        <f>AT5+AT8</f>
         <v>122147.84132529711</v>
       </c>
       <c r="AU4" s="5">
-        <f t="shared" si="0"/>
+        <f>AU5+AU8</f>
         <v>122703.96679768368</v>
       </c>
       <c r="AV4" s="5">
-        <f t="shared" si="0"/>
+        <f>AV5+AV8</f>
         <v>123261.52982757895</v>
       </c>
       <c r="AW4" s="5">
-        <f t="shared" si="0"/>
+        <f>AW5+AW8</f>
         <v>123820.53436774146</v>
       </c>
       <c r="AX4" s="5">
-        <f t="shared" si="0"/>
+        <f>AX5+AX8</f>
         <v>124380.98438208665</v>
       </c>
       <c r="AY4" s="5">
-        <f t="shared" si="0"/>
+        <f>AY5+AY8</f>
         <v>124894.89443721721</v>
       </c>
       <c r="AZ4" s="5">
-        <f t="shared" si="0"/>
+        <f>AZ5+AZ8</f>
         <v>125458.03405444659</v>
       </c>
       <c r="BA4" s="5">
-        <f t="shared" si="0"/>
+        <f>BA5+BA8</f>
         <v>126022.83959052119</v>
       </c>
       <c r="BB4" s="5">
-        <f t="shared" si="0"/>
+        <f>BB5+BB8</f>
         <v>126589.10761355137</v>
       </c>
       <c r="BC4" s="5">
-        <f t="shared" si="0"/>
+        <f>BC5+BC8</f>
         <v>127156.84123962262</v>
       </c>
       <c r="BD4" s="5">
-        <f t="shared" si="0"/>
+        <f>BD5+BD8</f>
         <v>127726.04449687258</v>
       </c>
       <c r="BE4" s="5">
-        <f t="shared" si="0"/>
+        <f>BE5+BE8</f>
         <v>128296.72142875013</v>
       </c>
       <c r="BF4" s="5">
-        <f t="shared" si="0"/>
+        <f>BF5+BF8</f>
         <v>128868.87609013708</v>
       </c>
       <c r="BG4" s="5">
-        <f t="shared" si="0"/>
+        <f>BG5+BG8</f>
         <v>129442.51254736367</v>
       </c>
       <c r="BH4" s="5">
-        <f t="shared" si="0"/>
+        <f>BH5+BH8</f>
         <v>129968.9979181941</v>
       </c>
       <c r="BI4" s="5">
-        <f t="shared" si="0"/>
+        <f>BI5+BI8</f>
         <v>130478.76360789448</v>
       </c>
       <c r="BJ4" s="5">
-        <f t="shared" si="0"/>
+        <f>BJ5+BJ8</f>
         <v>130989.42291756609</v>
       </c>
       <c r="BK4" s="5">
-        <f t="shared" si="0"/>
+        <f>BK5+BK8</f>
         <v>131501.07479386276</v>
       </c>
       <c r="BL4" s="5">
-        <f t="shared" si="0"/>
+        <f>BL5+BL8</f>
         <v>132013.72261231358</v>
       </c>
       <c r="BM4" s="5">
-        <f t="shared" si="0"/>
+        <f>BM5+BM8</f>
         <v>132527.36923503783</v>
       </c>
       <c r="BN4" s="5">
-        <f t="shared" si="0"/>
+        <f>BN5+BN8</f>
         <v>133042.01752951712</v>
       </c>
       <c r="BO4" s="5">
-        <f t="shared" si="0"/>
+        <f>BO5+BO8</f>
         <v>133557.67037144973</v>
       </c>
       <c r="BP4" s="5">
-        <f t="shared" si="0"/>
+        <f>BP5+BP8</f>
         <v>134074.33064478962</v>
       </c>
       <c r="BQ4" s="5">
-        <f t="shared" si="0"/>
+        <f>BQ5+BQ8</f>
         <v>134592.00124177034</v>
       </c>
       <c r="BR4" s="5">
-        <f t="shared" ref="BR4:BV4" si="2">BR5+BR8</f>
+        <f>BR5+BR8</f>
         <v>135110.68506292874</v>
       </c>
       <c r="BS4" s="5">
-        <f t="shared" si="2"/>
+        <f>BS5+BS8</f>
         <v>135630.38501712884</v>
       </c>
       <c r="BT4" s="5">
-        <f t="shared" si="2"/>
+        <f>BT5+BT8</f>
         <v>136151.1040215856</v>
       </c>
       <c r="BU4" s="5">
-        <f t="shared" si="2"/>
+        <f>BU5+BU8</f>
         <v>136672.84500188916</v>
       </c>
       <c r="BV4" s="5">
-        <f t="shared" si="2"/>
+        <f>BV5+BV8</f>
         <v>125066.2062781055</v>
       </c>
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="15">
@@ -1332,283 +1383,283 @@
         <v>106615.54357770366</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:BQ5" si="3">SUM(E6:E7)</f>
+        <f t="shared" ref="E5:BQ5" si="0">SUM(E6:E7)</f>
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>106615.54357770366</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>16376.69</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>106593.93710049389</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>106899.95749797703</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>20916.34</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>107206.85644902731</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>18116.34</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>107514.63647588308</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>29064.35</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>107823.30010802369</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>108132.84988219042</v>
       </c>
       <c r="S5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>89978.67</v>
       </c>
       <c r="T5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>108842.82003705943</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>51312.25</v>
       </c>
       <c r="V5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>109556.97743247374</v>
       </c>
       <c r="W5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>68758.320000000007</v>
       </c>
       <c r="X5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>110275.34581702357</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" ref="Y5" si="4">SUM(Y6:Y7)</f>
+        <f t="shared" ref="Y5" si="1">SUM(Y6:Y7)</f>
         <v>0</v>
       </c>
       <c r="Z5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>110997.94907147787</v>
       </c>
       <c r="AA5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>111500.81807781129</v>
       </c>
       <c r="AB5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>112231.19461044938</v>
       </c>
       <c r="AC5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>112955.55421269746</v>
       </c>
       <c r="AD5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>113488.68408053627</v>
       </c>
       <c r="AE5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>114022.34594505926</v>
       </c>
       <c r="AF5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>114557.3798253882</v>
       </c>
       <c r="AG5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>115093.79314638168</v>
       </c>
       <c r="AH5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>115631.58971258732</v>
       </c>
       <c r="AI5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>116170.77332340677</v>
       </c>
       <c r="AJ5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>116711.34778889181</v>
       </c>
       <c r="AK5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>117253.31692984366</v>
       </c>
       <c r="AL5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>117796.68457784381</v>
       </c>
       <c r="AM5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>118295.08799702271</v>
       </c>
       <c r="AN5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>118841.05812756054</v>
       </c>
       <c r="AO5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>119388.63976029815</v>
       </c>
       <c r="AP5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>119937.6363443998</v>
       </c>
       <c r="AQ5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>120488.05089229152</v>
       </c>
       <c r="AR5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>121039.88729760991</v>
       </c>
       <c r="AS5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>121593.14946878582</v>
       </c>
       <c r="AT5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>122147.84132529711</v>
       </c>
       <c r="AU5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>122703.96679768368</v>
       </c>
       <c r="AV5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>123261.52982757895</v>
       </c>
       <c r="AW5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>123820.53436774146</v>
       </c>
       <c r="AX5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>124380.98438208665</v>
       </c>
       <c r="AY5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>124894.89443721721</v>
       </c>
       <c r="AZ5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>125458.03405444659</v>
       </c>
       <c r="BA5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>126022.83959052119</v>
       </c>
       <c r="BB5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>126589.10761355137</v>
       </c>
       <c r="BC5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>127156.84123962262</v>
       </c>
       <c r="BD5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>127726.04449687258</v>
       </c>
       <c r="BE5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>128296.72142875013</v>
       </c>
       <c r="BF5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>128868.87609013708</v>
       </c>
       <c r="BG5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>129442.51254736367</v>
       </c>
       <c r="BH5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>129968.9979181941</v>
       </c>
       <c r="BI5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>130478.76360789448</v>
       </c>
       <c r="BJ5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>130989.42291756609</v>
       </c>
       <c r="BK5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>131501.07479386276</v>
       </c>
       <c r="BL5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>132013.72261231358</v>
       </c>
       <c r="BM5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>132527.36923503783</v>
       </c>
       <c r="BN5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>133042.01752951712</v>
       </c>
       <c r="BO5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>133557.67037144973</v>
       </c>
       <c r="BP5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>134074.33064478962</v>
       </c>
       <c r="BQ5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>134592.00124177034</v>
       </c>
       <c r="BR5" s="5">
-        <f t="shared" ref="BR5:BV5" si="5">SUM(BR6:BR7)</f>
+        <f t="shared" ref="BR5:BV5" si="2">SUM(BR6:BR7)</f>
         <v>135110.68506292874</v>
       </c>
       <c r="BS5" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>135630.38501712884</v>
       </c>
       <c r="BT5" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>136151.1040215856</v>
       </c>
       <c r="BU5" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>136672.84500188916</v>
       </c>
       <c r="BV5" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>125066.2062781055</v>
       </c>
     </row>
@@ -2024,298 +2075,298 @@
     </row>
     <row r="8" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="7">
         <f>C8+E8+G8+I8+K8+M8+O8+Q8+S8+U8+W8+Y8</f>
-        <v>1732784.35</v>
+        <v>1602784.35</v>
       </c>
       <c r="C8" s="5">
-        <f>SUM(C9:C11)</f>
+        <f>SUM(C9:C12)</f>
         <v>0</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" ref="D8:BP8" si="6">SUM(D9:D11)</f>
+        <f>SUM(D9:D12)</f>
         <v>1900000</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(E9:E12)</f>
         <v>0</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(F9:F12)</f>
         <v>0</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(G9:G12)</f>
         <v>150000</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(H9:H12)</f>
         <v>0</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(I9:I12)</f>
         <v>107225</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(J9:J12)</f>
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(K9:K12)</f>
         <v>10000</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(L9:L12)</f>
         <v>0</v>
       </c>
       <c r="M8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(M9:M12)</f>
         <v>124868.75</v>
       </c>
       <c r="N8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(N9:N12)</f>
         <v>0</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(O9:O12)</f>
         <v>320000</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(P9:P12)</f>
         <v>0</v>
       </c>
       <c r="Q8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(Q9:Q12)</f>
         <v>180000</v>
       </c>
       <c r="R8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(R9:R12)</f>
         <v>0</v>
       </c>
       <c r="S8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(S9:S12)</f>
         <v>0</v>
       </c>
       <c r="T8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(T9:T12)</f>
         <v>0</v>
       </c>
       <c r="U8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(U9:U12)</f>
         <v>37807</v>
       </c>
       <c r="V8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(V9:V12)</f>
         <v>0</v>
       </c>
       <c r="W8" s="5">
-        <f t="shared" si="6"/>
-        <v>802883.6</v>
+        <f>SUM(W9:W12)</f>
+        <v>672883.6</v>
       </c>
       <c r="X8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(X9:X12)</f>
         <v>0</v>
       </c>
       <c r="Y8" s="5">
-        <f t="shared" ref="Y8" si="7">SUM(Y9:Y11)</f>
+        <f>SUM(Y9:Y12)</f>
         <v>0</v>
       </c>
       <c r="Z8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(Z9:Z12)</f>
         <v>0</v>
       </c>
       <c r="AA8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AA9:AA12)</f>
         <v>0</v>
       </c>
       <c r="AB8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AB9:AB12)</f>
         <v>0</v>
       </c>
       <c r="AC8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AC9:AC12)</f>
         <v>0</v>
       </c>
       <c r="AD8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AD9:AD12)</f>
         <v>0</v>
       </c>
       <c r="AE8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AE9:AE12)</f>
         <v>0</v>
       </c>
       <c r="AF8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AF9:AF12)</f>
         <v>0</v>
       </c>
       <c r="AG8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AG9:AG12)</f>
         <v>0</v>
       </c>
       <c r="AH8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AH9:AH12)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AI9:AI12)</f>
         <v>0</v>
       </c>
       <c r="AJ8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AJ9:AJ12)</f>
         <v>0</v>
       </c>
       <c r="AK8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AK9:AK12)</f>
         <v>0</v>
       </c>
       <c r="AL8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AL9:AL12)</f>
         <v>0</v>
       </c>
       <c r="AM8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AM9:AM12)</f>
         <v>0</v>
       </c>
       <c r="AN8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AN9:AN12)</f>
         <v>0</v>
       </c>
       <c r="AO8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AO9:AO12)</f>
         <v>0</v>
       </c>
       <c r="AP8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AP9:AP12)</f>
         <v>0</v>
       </c>
       <c r="AQ8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AQ9:AQ12)</f>
         <v>0</v>
       </c>
       <c r="AR8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AR9:AR12)</f>
         <v>0</v>
       </c>
       <c r="AS8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AS9:AS12)</f>
         <v>0</v>
       </c>
       <c r="AT8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AT9:AT12)</f>
         <v>0</v>
       </c>
       <c r="AU8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AU9:AU12)</f>
         <v>0</v>
       </c>
       <c r="AV8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AV9:AV12)</f>
         <v>0</v>
       </c>
       <c r="AW8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AW9:AW12)</f>
         <v>0</v>
       </c>
       <c r="AX8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AX9:AX12)</f>
         <v>0</v>
       </c>
       <c r="AY8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AY9:AY12)</f>
         <v>0</v>
       </c>
       <c r="AZ8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(AZ9:AZ12)</f>
         <v>0</v>
       </c>
       <c r="BA8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(BA9:BA12)</f>
         <v>0</v>
       </c>
       <c r="BB8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(BB9:BB12)</f>
         <v>0</v>
       </c>
       <c r="BC8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(BC9:BC12)</f>
         <v>0</v>
       </c>
       <c r="BD8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(BD9:BD12)</f>
         <v>0</v>
       </c>
       <c r="BE8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(BE9:BE12)</f>
         <v>0</v>
       </c>
       <c r="BF8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(BF9:BF12)</f>
         <v>0</v>
       </c>
       <c r="BG8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(BG9:BG12)</f>
         <v>0</v>
       </c>
       <c r="BH8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(BH9:BH12)</f>
         <v>0</v>
       </c>
       <c r="BI8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(BI9:BI12)</f>
         <v>0</v>
       </c>
       <c r="BJ8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(BJ9:BJ12)</f>
         <v>0</v>
       </c>
       <c r="BK8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(BK9:BK12)</f>
         <v>0</v>
       </c>
       <c r="BL8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(BL9:BL12)</f>
         <v>0</v>
       </c>
       <c r="BM8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(BM9:BM12)</f>
         <v>0</v>
       </c>
       <c r="BN8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(BN9:BN12)</f>
         <v>0</v>
       </c>
       <c r="BO8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(BO9:BO12)</f>
         <v>0</v>
       </c>
       <c r="BP8" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(BP9:BP12)</f>
         <v>0</v>
       </c>
       <c r="BQ8" s="5">
-        <f t="shared" ref="BQ8:BV8" si="8">SUM(BQ9:BQ11)</f>
+        <f>SUM(BQ9:BQ12)</f>
         <v>0</v>
       </c>
       <c r="BR8" s="5">
-        <f t="shared" si="8"/>
+        <f>SUM(BR9:BR12)</f>
         <v>0</v>
       </c>
       <c r="BS8" s="5">
-        <f t="shared" si="8"/>
+        <f>SUM(BS9:BS12)</f>
         <v>0</v>
       </c>
       <c r="BT8" s="5">
-        <f t="shared" si="8"/>
+        <f>SUM(BT9:BT12)</f>
         <v>0</v>
       </c>
       <c r="BU8" s="5">
-        <f t="shared" si="8"/>
+        <f>SUM(BU9:BU12)</f>
         <v>0</v>
       </c>
       <c r="BV8" s="5">
-        <f t="shared" si="8"/>
+        <f>SUM(BV9:BV12)</f>
         <v>0</v>
       </c>
     </row>
@@ -2324,7 +2375,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="7">
-        <f t="shared" ref="B9:B14" si="9">C9+E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9</f>
+        <f t="shared" ref="B9:B15" si="3">C9+E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9</f>
         <v>314784.34999999998</v>
       </c>
       <c r="C9" s="2"/>
@@ -2418,11 +2469,11 @@
     </row>
     <row r="10" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B10" s="7">
-        <f t="shared" si="9"/>
-        <v>921000</v>
+        <f t="shared" ref="B10" si="4">C10+E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10</f>
+        <v>497000</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
@@ -2430,35 +2481,24 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="10">
-        <v>150000</v>
-      </c>
+      <c r="G10" s="10"/>
       <c r="H10" s="2"/>
       <c r="I10" s="10"/>
       <c r="J10" s="2"/>
       <c r="K10" s="10"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="10">
-        <f>115000</f>
-        <v>115000</v>
-      </c>
+      <c r="M10" s="10"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="10">
-        <v>320000</v>
-      </c>
+      <c r="O10" s="10"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="10">
-        <v>180000</v>
-      </c>
+      <c r="Q10" s="10"/>
       <c r="R10" s="2"/>
       <c r="S10" s="10"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="10">
-        <v>26000</v>
-      </c>
+      <c r="U10" s="10"/>
       <c r="V10" s="2"/>
       <c r="W10" s="10">
-        <v>130000</v>
+        <v>497000</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="10"/>
@@ -2514,11 +2554,11 @@
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B11" s="7">
-        <f t="shared" si="9"/>
-        <v>497000</v>
+        <f t="shared" si="3"/>
+        <v>921000</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -2526,24 +2566,35 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="10">
+        <v>150000</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="10"/>
       <c r="J11" s="2"/>
       <c r="K11" s="10"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="10"/>
+      <c r="M11" s="10">
+        <f>115000</f>
+        <v>115000</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="10"/>
+      <c r="O11" s="10">
+        <v>320000</v>
+      </c>
       <c r="P11" s="2"/>
-      <c r="Q11" s="10"/>
+      <c r="Q11" s="10">
+        <v>180000</v>
+      </c>
       <c r="R11" s="2"/>
       <c r="S11" s="10"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="10"/>
+      <c r="U11" s="10">
+        <v>26000</v>
+      </c>
       <c r="V11" s="2"/>
       <c r="W11" s="10">
-        <v>497000</v>
+        <v>130000</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="10"/>
@@ -2598,936 +2649,941 @@
       <c r="BV11" s="2"/>
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="C12" s="10"/>
+      <c r="A12" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" si="3"/>
+        <v>-130000</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="10"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="10">
+        <v>-130000</v>
+      </c>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="2"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="2"/>
+      <c r="BM12" s="2"/>
+      <c r="BN12" s="2"/>
+      <c r="BO12" s="2"/>
+      <c r="BP12" s="2"/>
+      <c r="BQ12" s="2"/>
+      <c r="BR12" s="2"/>
+      <c r="BS12" s="2"/>
+      <c r="BT12" s="2"/>
+      <c r="BU12" s="2"/>
+      <c r="BV12" s="2"/>
     </row>
     <row r="13" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7">
-        <f t="shared" si="9"/>
-        <v>-1373418.41</v>
-      </c>
-      <c r="C13" s="10">
-        <f>C14+C38+C46+C24</f>
-        <v>-88500.33</v>
-      </c>
-      <c r="D13" s="5">
-        <f>D14-D38-D46</f>
-        <v>-91009.140647318447</v>
-      </c>
-      <c r="E13" s="10">
-        <f t="shared" ref="E13:J13" si="10">E14+E38+E46</f>
-        <v>-84389.159999999989</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="10"/>
-        <v>-408527.40230918775</v>
-      </c>
-      <c r="G13" s="10">
-        <f t="shared" si="10"/>
-        <v>-113301.18000000001</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="10"/>
-        <v>-409516.0182064494</v>
-      </c>
-      <c r="I13" s="10">
-        <f t="shared" si="10"/>
-        <v>-109848.45</v>
-      </c>
-      <c r="J13" s="5">
-        <f t="shared" si="10"/>
-        <v>-305118.589039805</v>
-      </c>
-      <c r="K13" s="10">
-        <f t="shared" ref="K13:M13" si="11">K14+K38+K46</f>
-        <v>-5784.3</v>
-      </c>
-      <c r="L13" s="5">
-        <f t="shared" ref="L13:AC13" si="12">L14+L38+L46</f>
-        <v>-305163.02165031742</v>
-      </c>
-      <c r="M13" s="10">
-        <f t="shared" si="11"/>
-        <v>-157263.75000000003</v>
-      </c>
-      <c r="N13" s="5">
-        <f t="shared" si="12"/>
-        <v>-305207.5818223544</v>
-      </c>
-      <c r="O13" s="10">
-        <f t="shared" si="12"/>
-        <v>-342187.19999999995</v>
-      </c>
-      <c r="P13" s="5">
-        <f t="shared" si="12"/>
-        <v>-282184.56565269525</v>
-      </c>
-      <c r="Q13" s="10">
-        <f>Q14+Q38+Q46</f>
-        <v>-186366.61</v>
-      </c>
-      <c r="R13" s="5">
-        <f t="shared" si="12"/>
-        <v>-13655.396624750776</v>
-      </c>
-      <c r="S13" s="10">
-        <f>S14+S38+S46</f>
-        <v>-8643.4600000000009</v>
-      </c>
-      <c r="T13" s="5">
-        <f t="shared" si="12"/>
-        <v>-13700.341682867411</v>
-      </c>
-      <c r="U13" s="10">
-        <f>U14+U38+U46</f>
-        <v>-139150.71</v>
-      </c>
-      <c r="V13" s="5">
-        <f t="shared" si="12"/>
-        <v>-13745.41577369382</v>
-      </c>
-      <c r="W13" s="10">
-        <f>W14+W38+W46</f>
-        <v>-137983.25999999998</v>
-      </c>
-      <c r="X13" s="5">
-        <f t="shared" si="12"/>
-        <v>-13790.619267669847</v>
-      </c>
-      <c r="Y13" s="10">
-        <f>Y14+Y38+Y46</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="5">
-        <f t="shared" si="12"/>
-        <v>-13835.952536298828</v>
-      </c>
-      <c r="AA13" s="5">
-        <f t="shared" si="12"/>
-        <v>-13881.415952150646</v>
-      </c>
-      <c r="AB13" s="5">
-        <f t="shared" si="12"/>
-        <v>-13927.009888864799</v>
-      </c>
-      <c r="AC13" s="5">
-        <f t="shared" si="12"/>
-        <v>-13972.734721153462</v>
-      </c>
-      <c r="AD13" s="5">
-        <f t="shared" ref="AD13:BV13" si="13">AD14-AD38-AD46</f>
-        <v>14018.590824804574</v>
-      </c>
-      <c r="AE13" s="5">
-        <f t="shared" si="13"/>
-        <v>14064.578576684915</v>
-      </c>
-      <c r="AF13" s="5">
-        <f t="shared" si="13"/>
-        <v>14110.698354743226</v>
-      </c>
-      <c r="AG13" s="5">
-        <f t="shared" si="13"/>
-        <v>14156.95053801329</v>
-      </c>
-      <c r="AH13" s="5">
-        <f t="shared" si="13"/>
-        <v>14203.335506617061</v>
-      </c>
-      <c r="AI13" s="5">
-        <f t="shared" si="13"/>
-        <v>14249.853641767777</v>
-      </c>
-      <c r="AJ13" s="5">
-        <f t="shared" si="13"/>
-        <v>14296.505325773111</v>
-      </c>
-      <c r="AK13" s="5">
-        <f t="shared" si="13"/>
-        <v>14343.290942038298</v>
-      </c>
-      <c r="AL13" s="5">
-        <f t="shared" si="13"/>
-        <v>14390.210875069293</v>
-      </c>
-      <c r="AM13" s="5">
-        <f t="shared" si="13"/>
-        <v>14437.265510475925</v>
-      </c>
-      <c r="AN13" s="5">
-        <f t="shared" si="13"/>
-        <v>14484.455234975074</v>
-      </c>
-      <c r="AO13" s="5">
-        <f t="shared" si="13"/>
-        <v>14531.780436393839</v>
-      </c>
-      <c r="AP13" s="5">
-        <f t="shared" si="13"/>
-        <v>14579.241503672736</v>
-      </c>
-      <c r="AQ13" s="5">
-        <f t="shared" si="13"/>
-        <v>14626.838826868892</v>
-      </c>
-      <c r="AR13" s="5">
-        <f t="shared" si="13"/>
-        <v>14674.572797159242</v>
-      </c>
-      <c r="AS13" s="5">
-        <f t="shared" si="13"/>
-        <v>14722.443806843758</v>
-      </c>
-      <c r="AT13" s="5">
-        <f t="shared" si="13"/>
-        <v>14770.452249348658</v>
-      </c>
-      <c r="AU13" s="5">
-        <f t="shared" si="13"/>
-        <v>14818.598519229647</v>
-      </c>
-      <c r="AV13" s="5">
-        <f t="shared" si="13"/>
-        <v>14866.883012175169</v>
-      </c>
-      <c r="AW13" s="5">
-        <f t="shared" si="13"/>
-        <v>14915.306125009638</v>
-      </c>
-      <c r="AX13" s="5">
-        <f t="shared" si="13"/>
-        <v>14963.868255696718</v>
-      </c>
-      <c r="AY13" s="5">
-        <f t="shared" si="13"/>
-        <v>15012.56980334258</v>
-      </c>
-      <c r="AZ13" s="5">
-        <f t="shared" si="13"/>
-        <v>15061.411168199204</v>
-      </c>
-      <c r="BA13" s="5">
-        <f t="shared" si="13"/>
-        <v>15110.392751667627</v>
-      </c>
-      <c r="BB13" s="5">
-        <f t="shared" si="13"/>
-        <v>15159.514956301286</v>
-      </c>
-      <c r="BC13" s="5">
-        <f t="shared" si="13"/>
-        <v>15208.778185809309</v>
-      </c>
-      <c r="BD13" s="5">
-        <f t="shared" si="13"/>
-        <v>15258.182845059824</v>
-      </c>
-      <c r="BE13" s="5">
-        <f t="shared" si="13"/>
-        <v>15307.729340083293</v>
-      </c>
-      <c r="BF13" s="5">
-        <f t="shared" si="13"/>
-        <v>15357.418078075865</v>
-      </c>
-      <c r="BG13" s="5">
-        <f t="shared" si="13"/>
-        <v>15407.249467402691</v>
-      </c>
-      <c r="BH13" s="5">
-        <f t="shared" si="13"/>
-        <v>15457.223917601306</v>
-      </c>
-      <c r="BI13" s="5">
-        <f t="shared" si="13"/>
-        <v>15507.341839384981</v>
-      </c>
-      <c r="BJ13" s="5">
-        <f t="shared" si="13"/>
-        <v>15557.603644646108</v>
-      </c>
-      <c r="BK13" s="5">
-        <f t="shared" si="13"/>
-        <v>15608.009746459578</v>
-      </c>
-      <c r="BL13" s="5">
-        <f t="shared" si="13"/>
-        <v>15658.560559086181</v>
-      </c>
-      <c r="BM13" s="5">
-        <f t="shared" si="13"/>
-        <v>15709.256497975995</v>
-      </c>
-      <c r="BN13" s="5">
-        <f t="shared" si="13"/>
-        <v>15760.097979771836</v>
-      </c>
-      <c r="BO13" s="5">
-        <f t="shared" si="13"/>
-        <v>15811.085422312635</v>
-      </c>
-      <c r="BP13" s="5">
-        <f t="shared" si="13"/>
-        <v>15862.219244636921</v>
-      </c>
-      <c r="BQ13" s="5">
-        <f t="shared" si="13"/>
-        <v>15913.499866986218</v>
-      </c>
-      <c r="BR13" s="5">
-        <f t="shared" si="13"/>
-        <v>15964.927710808526</v>
-      </c>
-      <c r="BS13" s="5">
-        <f t="shared" si="13"/>
-        <v>16016.503198761791</v>
-      </c>
-      <c r="BT13" s="5">
-        <f t="shared" si="13"/>
-        <v>16068.226754717358</v>
-      </c>
-      <c r="BU13" s="5">
-        <f t="shared" si="13"/>
-        <v>16120.09880376346</v>
-      </c>
-      <c r="BV13" s="5">
-        <f t="shared" si="13"/>
-        <v>16172.119772208731</v>
-      </c>
+      <c r="C13" s="10"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>41</v>
+      <c r="A14" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="7">
-        <f t="shared" si="9"/>
-        <v>-38052.770000000004</v>
+        <f t="shared" si="3"/>
+        <v>-1701217.2699999998</v>
       </c>
       <c r="C14" s="10">
-        <f>SUM(C15:C22)</f>
-        <v>-67</v>
-      </c>
-      <c r="D14" s="10">
-        <f t="shared" ref="D14:BP14" si="14">SUM(D15:D22)</f>
-        <v>-104441.73458080005</v>
+        <f>C15+C39+C47+C25</f>
+        <v>-88500.33</v>
+      </c>
+      <c r="D14" s="5">
+        <f>D15-D39-D47</f>
+        <v>-91009.140647318447</v>
       </c>
       <c r="E14" s="10">
-        <f t="shared" si="14"/>
-        <v>-1852.12</v>
-      </c>
-      <c r="F14" s="10">
-        <f t="shared" si="14"/>
-        <v>-104441.73458080005</v>
+        <f>E15+E39+E47+E25</f>
+        <v>-92598.189999999988</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="E14:J14" si="5">F15+F39+F47</f>
+        <v>-408527.40230918775</v>
       </c>
       <c r="G14" s="10">
-        <f t="shared" si="14"/>
-        <v>-4563.88</v>
-      </c>
-      <c r="H14" s="10">
-        <f t="shared" si="14"/>
-        <v>-104441.73458080005</v>
+        <f>G15+G39+G47+G25</f>
+        <v>-175296.1</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="5"/>
+        <v>-409516.0182064494</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" si="14"/>
-        <v>-4586.3100000000004</v>
-      </c>
-      <c r="J14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>I15+I39+I47+I25</f>
+        <v>-126643.36</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="5"/>
+        <v>-305118.589039805</v>
       </c>
       <c r="K14" s="10">
-        <f t="shared" si="14"/>
-        <v>-3569.94</v>
-      </c>
-      <c r="L14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>K15+K39+K47+K25</f>
+        <v>-7684.3</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" ref="L14:AC14" si="6">L15+L39+L47</f>
+        <v>-305163.02165031742</v>
       </c>
       <c r="M14" s="10">
-        <f t="shared" si="14"/>
-        <v>-3672.54</v>
-      </c>
-      <c r="N14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>M15+M39+M47+M25</f>
+        <v>-157263.75000000003</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="6"/>
+        <v>-305207.5818223544</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" si="14"/>
-        <v>-3497.54</v>
-      </c>
-      <c r="P14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>O15+O39+O47+O25</f>
+        <v>-342187.19999999995</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="6"/>
+        <v>-282184.56565269525</v>
       </c>
       <c r="Q14" s="10">
-        <f t="shared" si="14"/>
-        <v>-3695.1800000000003</v>
-      </c>
-      <c r="R14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>Q15+Q39+Q47+Q25</f>
+        <v>-186366.61</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" si="6"/>
+        <v>-13655.396624750776</v>
       </c>
       <c r="S14" s="10">
-        <f t="shared" si="14"/>
-        <v>-3889.4</v>
-      </c>
-      <c r="T14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>S15+S39+S47+S25</f>
+        <v>-10543.460000000001</v>
+      </c>
+      <c r="T14" s="5">
+        <f t="shared" si="6"/>
+        <v>-13700.341682867411</v>
       </c>
       <c r="U14" s="10">
-        <f t="shared" si="14"/>
-        <v>-4751.5199999999995</v>
-      </c>
-      <c r="V14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>U15+U39+U47+U25</f>
+        <v>-139150.71</v>
+      </c>
+      <c r="V14" s="5">
+        <f t="shared" si="6"/>
+        <v>-13745.41577369382</v>
       </c>
       <c r="W14" s="10">
-        <f t="shared" si="14"/>
-        <v>-3907.34</v>
-      </c>
-      <c r="X14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AM14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AN14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AO14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AP14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AR14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AS14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AT14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AU14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AV14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AW14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AX14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AY14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BA14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BB14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BC14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BD14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BE14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BF14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BG14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BH14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BI14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BJ14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BK14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BL14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BM14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BN14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BO14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BP14" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BQ14" s="10">
-        <f t="shared" ref="BQ14:BV14" si="15">SUM(BQ15:BQ22)</f>
-        <v>0</v>
-      </c>
-      <c r="BR14" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BS14" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BT14" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BU14" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BV14" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>W15+W39+W47+W25</f>
+        <v>-374983.26</v>
+      </c>
+      <c r="X14" s="5">
+        <f t="shared" si="6"/>
+        <v>-13790.619267669847</v>
+      </c>
+      <c r="Y14" s="10">
+        <f>Y15+Y39+Y47+Y25</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5">
+        <f t="shared" si="6"/>
+        <v>-13835.952536298828</v>
+      </c>
+      <c r="AA14" s="5">
+        <f t="shared" si="6"/>
+        <v>-13881.415952150646</v>
+      </c>
+      <c r="AB14" s="5">
+        <f t="shared" si="6"/>
+        <v>-13927.009888864799</v>
+      </c>
+      <c r="AC14" s="5">
+        <f t="shared" si="6"/>
+        <v>-13972.734721153462</v>
+      </c>
+      <c r="AD14" s="5">
+        <f t="shared" ref="AD14:BV14" si="7">AD15-AD39-AD47</f>
+        <v>14018.590824804574</v>
+      </c>
+      <c r="AE14" s="5">
+        <f t="shared" si="7"/>
+        <v>14064.578576684915</v>
+      </c>
+      <c r="AF14" s="5">
+        <f t="shared" si="7"/>
+        <v>14110.698354743226</v>
+      </c>
+      <c r="AG14" s="5">
+        <f t="shared" si="7"/>
+        <v>14156.95053801329</v>
+      </c>
+      <c r="AH14" s="5">
+        <f t="shared" si="7"/>
+        <v>14203.335506617061</v>
+      </c>
+      <c r="AI14" s="5">
+        <f t="shared" si="7"/>
+        <v>14249.853641767777</v>
+      </c>
+      <c r="AJ14" s="5">
+        <f t="shared" si="7"/>
+        <v>14296.505325773111</v>
+      </c>
+      <c r="AK14" s="5">
+        <f t="shared" si="7"/>
+        <v>14343.290942038298</v>
+      </c>
+      <c r="AL14" s="5">
+        <f t="shared" si="7"/>
+        <v>14390.210875069293</v>
+      </c>
+      <c r="AM14" s="5">
+        <f t="shared" si="7"/>
+        <v>14437.265510475925</v>
+      </c>
+      <c r="AN14" s="5">
+        <f t="shared" si="7"/>
+        <v>14484.455234975074</v>
+      </c>
+      <c r="AO14" s="5">
+        <f t="shared" si="7"/>
+        <v>14531.780436393839</v>
+      </c>
+      <c r="AP14" s="5">
+        <f t="shared" si="7"/>
+        <v>14579.241503672736</v>
+      </c>
+      <c r="AQ14" s="5">
+        <f t="shared" si="7"/>
+        <v>14626.838826868892</v>
+      </c>
+      <c r="AR14" s="5">
+        <f t="shared" si="7"/>
+        <v>14674.572797159242</v>
+      </c>
+      <c r="AS14" s="5">
+        <f t="shared" si="7"/>
+        <v>14722.443806843758</v>
+      </c>
+      <c r="AT14" s="5">
+        <f t="shared" si="7"/>
+        <v>14770.452249348658</v>
+      </c>
+      <c r="AU14" s="5">
+        <f t="shared" si="7"/>
+        <v>14818.598519229647</v>
+      </c>
+      <c r="AV14" s="5">
+        <f t="shared" si="7"/>
+        <v>14866.883012175169</v>
+      </c>
+      <c r="AW14" s="5">
+        <f t="shared" si="7"/>
+        <v>14915.306125009638</v>
+      </c>
+      <c r="AX14" s="5">
+        <f t="shared" si="7"/>
+        <v>14963.868255696718</v>
+      </c>
+      <c r="AY14" s="5">
+        <f t="shared" si="7"/>
+        <v>15012.56980334258</v>
+      </c>
+      <c r="AZ14" s="5">
+        <f t="shared" si="7"/>
+        <v>15061.411168199204</v>
+      </c>
+      <c r="BA14" s="5">
+        <f t="shared" si="7"/>
+        <v>15110.392751667627</v>
+      </c>
+      <c r="BB14" s="5">
+        <f t="shared" si="7"/>
+        <v>15159.514956301286</v>
+      </c>
+      <c r="BC14" s="5">
+        <f t="shared" si="7"/>
+        <v>15208.778185809309</v>
+      </c>
+      <c r="BD14" s="5">
+        <f t="shared" si="7"/>
+        <v>15258.182845059824</v>
+      </c>
+      <c r="BE14" s="5">
+        <f t="shared" si="7"/>
+        <v>15307.729340083293</v>
+      </c>
+      <c r="BF14" s="5">
+        <f t="shared" si="7"/>
+        <v>15357.418078075865</v>
+      </c>
+      <c r="BG14" s="5">
+        <f t="shared" si="7"/>
+        <v>15407.249467402691</v>
+      </c>
+      <c r="BH14" s="5">
+        <f t="shared" si="7"/>
+        <v>15457.223917601306</v>
+      </c>
+      <c r="BI14" s="5">
+        <f t="shared" si="7"/>
+        <v>15507.341839384981</v>
+      </c>
+      <c r="BJ14" s="5">
+        <f t="shared" si="7"/>
+        <v>15557.603644646108</v>
+      </c>
+      <c r="BK14" s="5">
+        <f t="shared" si="7"/>
+        <v>15608.009746459578</v>
+      </c>
+      <c r="BL14" s="5">
+        <f t="shared" si="7"/>
+        <v>15658.560559086181</v>
+      </c>
+      <c r="BM14" s="5">
+        <f t="shared" si="7"/>
+        <v>15709.256497975995</v>
+      </c>
+      <c r="BN14" s="5">
+        <f t="shared" si="7"/>
+        <v>15760.097979771836</v>
+      </c>
+      <c r="BO14" s="5">
+        <f t="shared" si="7"/>
+        <v>15811.085422312635</v>
+      </c>
+      <c r="BP14" s="5">
+        <f t="shared" si="7"/>
+        <v>15862.219244636921</v>
+      </c>
+      <c r="BQ14" s="5">
+        <f t="shared" si="7"/>
+        <v>15913.499866986218</v>
+      </c>
+      <c r="BR14" s="5">
+        <f t="shared" si="7"/>
+        <v>15964.927710808526</v>
+      </c>
+      <c r="BS14" s="5">
+        <f t="shared" si="7"/>
+        <v>16016.503198761791</v>
+      </c>
+      <c r="BT14" s="5">
+        <f t="shared" si="7"/>
+        <v>16068.226754717358</v>
+      </c>
+      <c r="BU14" s="5">
+        <f t="shared" si="7"/>
+        <v>16120.09880376346</v>
+      </c>
+      <c r="BV14" s="5">
+        <f t="shared" si="7"/>
+        <v>16172.119772208731</v>
       </c>
     </row>
     <row r="15" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="7">
+        <f t="shared" si="3"/>
+        <v>-38052.770000000004</v>
+      </c>
+      <c r="C15" s="10">
+        <f>SUM(C16:C23)</f>
+        <v>-67</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" ref="D15:BP15" si="8">SUM(D16:D23)</f>
+        <v>-104441.73458080005</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="8"/>
+        <v>-1852.12</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="8"/>
+        <v>-104441.73458080005</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" si="8"/>
+        <v>-4563.88</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="shared" si="8"/>
+        <v>-104441.73458080005</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="8"/>
+        <v>-4586.3100000000004</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" si="8"/>
+        <v>-3569.94</v>
+      </c>
+      <c r="L15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" si="8"/>
+        <v>-3672.54</v>
+      </c>
+      <c r="N15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="8"/>
+        <v>-3497.54</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="8"/>
+        <v>-3695.1800000000003</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="10">
+        <f t="shared" si="8"/>
+        <v>-3889.4</v>
+      </c>
+      <c r="T15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="10">
+        <f t="shared" si="8"/>
+        <v>-4751.5199999999995</v>
+      </c>
+      <c r="V15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="10">
+        <f t="shared" si="8"/>
+        <v>-3907.34</v>
+      </c>
+      <c r="X15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AS15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AV15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AX15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AY15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BA15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BC15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BD15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BF15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BI15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BK15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BL15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BM15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BN15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BO15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BP15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="10">
+        <f t="shared" ref="BQ15:BV15" si="9">SUM(BQ16:BQ23)</f>
+        <v>0</v>
+      </c>
+      <c r="BR15" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BS15" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BT15" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BU15" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BV15" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="2">
         <v>-104441.73458080005</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="2">
+      <c r="E16" s="10"/>
+      <c r="F16" s="2">
         <v>-104441.73458080005</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="2">
+      <c r="G16" s="10"/>
+      <c r="H16" s="2">
         <v>-104441.73458080005</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="10">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="10">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="10">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2">
-        <v>0</v>
-      </c>
-      <c r="X15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BS15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10">
-        <v>-241.66</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10">
-        <v>-2935.67</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10">
-        <v>-2882.11</v>
-      </c>
-      <c r="J16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
       <c r="K16" s="10">
-        <v>-2882.11</v>
-      </c>
-      <c r="L16" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
       <c r="M16" s="10">
-        <v>-2949.14</v>
-      </c>
-      <c r="N16" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
       <c r="O16" s="10">
-        <v>-2949.14</v>
-      </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10">
-        <v>-2961.86</v>
-      </c>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10">
-        <v>-2961.86</v>
-      </c>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10">
-        <v>-2961.86</v>
-      </c>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10">
-        <v>-2961.86</v>
-      </c>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="10"/>
-      <c r="AO16" s="10"/>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="10"/>
-      <c r="AV16" s="10"/>
-      <c r="AW16" s="10"/>
-      <c r="AX16" s="10"/>
-      <c r="AY16" s="10"/>
-      <c r="AZ16" s="10"/>
-      <c r="BA16" s="10"/>
-      <c r="BB16" s="10"/>
-      <c r="BC16" s="10"/>
-      <c r="BD16" s="10"/>
-      <c r="BE16" s="10"/>
-      <c r="BF16" s="10"/>
-      <c r="BG16" s="10"/>
-      <c r="BH16" s="10"/>
-      <c r="BI16" s="10"/>
-      <c r="BJ16" s="10"/>
-      <c r="BK16" s="10"/>
-      <c r="BL16" s="10"/>
-      <c r="BM16" s="10"/>
-      <c r="BN16" s="10"/>
-      <c r="BO16" s="10"/>
-      <c r="BP16" s="10"/>
-      <c r="BQ16" s="10"/>
-      <c r="BR16" s="10"/>
-      <c r="BS16" s="10"/>
-      <c r="BT16" s="10"/>
-      <c r="BU16" s="10"/>
-      <c r="BV16" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV16" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10">
+        <v>-241.66</v>
+      </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10">
+        <v>-2935.67</v>
+      </c>
       <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="I17" s="10">
+        <v>-2882.11</v>
+      </c>
       <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="K17" s="10">
+        <v>-2882.11</v>
+      </c>
       <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="M17" s="10">
+        <v>-2949.14</v>
+      </c>
       <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+      <c r="O17" s="10">
+        <v>-2949.14</v>
+      </c>
       <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
+      <c r="Q17" s="10">
+        <v>-2961.86</v>
+      </c>
       <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
+      <c r="S17" s="10">
+        <v>-2961.86</v>
+      </c>
       <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
+      <c r="U17" s="10">
+        <v>-2961.86</v>
+      </c>
       <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
+      <c r="W17" s="10">
+        <v>-2961.86</v>
+      </c>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
@@ -3582,7 +3638,7 @@
     </row>
     <row r="18" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -3591,9 +3647,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="10">
-        <v>-99.36</v>
-      </c>
+      <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -3603,10 +3657,7 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="10">
-        <f>-95.11-99.03</f>
-        <v>-194.14</v>
-      </c>
+      <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
@@ -3665,52 +3716,40 @@
     </row>
     <row r="19" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12">
-        <v>-163.46</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12">
-        <v>-160</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12">
-        <v>-160</v>
-      </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12">
-        <v>-175</v>
-      </c>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12">
-        <v>-175</v>
-      </c>
-      <c r="R19" s="12"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10">
+        <v>-99.36</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
       <c r="S19" s="10">
-        <v>-175</v>
-      </c>
-      <c r="T19" s="12"/>
-      <c r="U19" s="10">
-        <f>-175-350</f>
-        <v>-525</v>
-      </c>
-      <c r="V19" s="12"/>
-      <c r="W19" s="10">
-        <v>-175</v>
-      </c>
-      <c r="X19" s="12"/>
+        <f>-95.11-99.03</f>
+        <v>-194.14</v>
+      </c>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
       <c r="AE19" s="10"/>
@@ -3760,58 +3799,52 @@
     </row>
     <row r="20" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10">
-        <f>-(900+480)</f>
-        <v>-1380</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10">
-        <f>-(900+480)</f>
-        <v>-1380</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10">
-        <f>-(480)</f>
-        <v>-480</v>
-      </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10">
-        <v>-480</v>
-      </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10">
-        <v>-480</v>
-      </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10">
-        <v>-480</v>
-      </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10">
-        <v>-489.92</v>
-      </c>
-      <c r="R20" s="10"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12">
+        <v>-163.46</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12">
+        <v>-160</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12">
+        <v>-160</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12">
+        <v>-175</v>
+      </c>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12">
+        <v>-175</v>
+      </c>
+      <c r="R20" s="12"/>
       <c r="S20" s="10">
-        <v>-480</v>
-      </c>
-      <c r="T20" s="10"/>
+        <v>-175</v>
+      </c>
+      <c r="T20" s="12"/>
       <c r="U20" s="10">
-        <v>-500</v>
-      </c>
-      <c r="V20" s="10"/>
+        <f>-175-350</f>
+        <v>-525</v>
+      </c>
+      <c r="V20" s="12"/>
       <c r="W20" s="10">
-        <v>-500</v>
-      </c>
-      <c r="X20" s="10"/>
+        <v>-175</v>
+      </c>
+      <c r="X20" s="12"/>
       <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
       <c r="AE20" s="10"/>
@@ -3861,39 +3894,52 @@
     </row>
     <row r="21" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="10">
+        <f>-(900+480)</f>
+        <v>-1380</v>
+      </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="G21" s="10">
+        <f>-(900+480)</f>
+        <v>-1380</v>
+      </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10">
-        <f>-662.29-138.56-96.99</f>
-        <v>-897.83999999999992</v>
+        <f>-(480)</f>
+        <v>-480</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10">
-        <v>-140.83000000000001</v>
+        <v>-480</v>
       </c>
       <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="M21" s="10">
+        <v>-480</v>
+      </c>
       <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
+      <c r="O21" s="10">
+        <v>-480</v>
+      </c>
       <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
+      <c r="Q21" s="10">
+        <v>-489.92</v>
+      </c>
       <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
+      <c r="S21" s="10">
+        <v>-480</v>
+      </c>
       <c r="T21" s="10"/>
       <c r="U21" s="10">
-        <f>-138.56*5</f>
-        <v>-692.8</v>
+        <v>-500</v>
       </c>
       <c r="V21" s="10"/>
       <c r="W21" s="10">
-        <v>-162.08000000000001</v>
+        <v>-500</v>
       </c>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
@@ -3949,58 +3995,39 @@
     </row>
     <row r="22" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="10">
-        <f>-67</f>
-        <v>-67</v>
-      </c>
+      <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="10">
-        <f>-67</f>
-        <v>-67</v>
-      </c>
+      <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="10">
-        <f>-67-12.3-8.91</f>
-        <v>-88.21</v>
-      </c>
+      <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10">
-        <f>-67</f>
-        <v>-67</v>
+        <f>-662.29-138.56-96.99</f>
+        <v>-897.83999999999992</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10">
-        <v>-67</v>
+        <v>-140.83000000000001</v>
       </c>
       <c r="L22" s="10"/>
-      <c r="M22" s="10">
-        <v>-68.400000000000006</v>
-      </c>
+      <c r="M22" s="10"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="10">
-        <v>-68.400000000000006</v>
-      </c>
+      <c r="O22" s="10"/>
       <c r="P22" s="10"/>
-      <c r="Q22" s="10">
-        <v>-68.400000000000006</v>
-      </c>
+      <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
-      <c r="S22" s="10">
-        <f>-68.4-10</f>
-        <v>-78.400000000000006</v>
-      </c>
+      <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10">
-        <f>-68.4-3.46</f>
-        <v>-71.86</v>
+        <f>-138.56*5</f>
+        <v>-692.8</v>
       </c>
       <c r="V22" s="10"/>
       <c r="W22" s="10">
-        <f>-(58.4+20+30)</f>
-        <v>-108.4</v>
+        <v>-162.08000000000001</v>
       </c>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
@@ -4055,29 +4082,60 @@
       <c r="BV22" s="10"/>
     </row>
     <row r="23" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="A23" s="25" t="s">
+        <v>16</v>
+      </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
+      <c r="C23" s="10">
+        <f>-67</f>
+        <v>-67</v>
+      </c>
       <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="E23" s="10">
+        <f>-67</f>
+        <v>-67</v>
+      </c>
       <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="G23" s="10">
+        <f>-67-12.3-8.91</f>
+        <v>-88.21</v>
+      </c>
       <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
+      <c r="I23" s="10">
+        <f>-67</f>
+        <v>-67</v>
+      </c>
       <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+      <c r="K23" s="10">
+        <v>-67</v>
+      </c>
       <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="M23" s="10">
+        <v>-68.400000000000006</v>
+      </c>
       <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
+      <c r="O23" s="10">
+        <v>-68.400000000000006</v>
+      </c>
       <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
+      <c r="Q23" s="10">
+        <v>-68.400000000000006</v>
+      </c>
       <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
+      <c r="S23" s="10">
+        <f>-68.4-10</f>
+        <v>-78.400000000000006</v>
+      </c>
       <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
+      <c r="U23" s="10">
+        <f>-68.4-3.46</f>
+        <v>-71.86</v>
+      </c>
       <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
+      <c r="W23" s="10">
+        <f>-(58.4+20+30)</f>
+        <v>-108.4</v>
+      </c>
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
@@ -4130,407 +4188,399 @@
       <c r="BU23" s="10"/>
       <c r="BV23" s="10"/>
     </row>
-    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="7">
-        <f t="shared" ref="B24" si="16">C24+E24+G24+I24+K24+M24+O24+Q24+S24+U24+W24+Y24</f>
+    <row r="24" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="10"/>
+      <c r="AV24" s="10"/>
+      <c r="AW24" s="10"/>
+      <c r="AX24" s="10"/>
+      <c r="AY24" s="10"/>
+      <c r="AZ24" s="10"/>
+      <c r="BA24" s="10"/>
+      <c r="BB24" s="10"/>
+      <c r="BC24" s="10"/>
+      <c r="BD24" s="10"/>
+      <c r="BE24" s="10"/>
+      <c r="BF24" s="10"/>
+      <c r="BG24" s="10"/>
+      <c r="BH24" s="10"/>
+      <c r="BI24" s="10"/>
+      <c r="BJ24" s="10"/>
+      <c r="BK24" s="10"/>
+      <c r="BL24" s="10"/>
+      <c r="BM24" s="10"/>
+      <c r="BN24" s="10"/>
+      <c r="BO24" s="10"/>
+      <c r="BP24" s="10"/>
+      <c r="BQ24" s="10"/>
+      <c r="BR24" s="10"/>
+      <c r="BS24" s="10"/>
+      <c r="BT24" s="10"/>
+      <c r="BU24" s="10"/>
+      <c r="BV24" s="10"/>
+    </row>
+    <row r="25" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="7">
+        <f t="shared" ref="B25" si="10">C25+E25+G25+I25+K25+M25+O25+Q25+S25+U25+W25+Y25</f>
         <v>-337881.41000000003</v>
       </c>
-      <c r="C24" s="10">
-        <f>SUM(C25:C32)</f>
+      <c r="C25" s="10">
+        <f>SUM(C26:C33)</f>
         <v>-10082.550000000001</v>
       </c>
-      <c r="D24" s="10">
-        <f>D34</f>
+      <c r="D25" s="10">
+        <f>D35</f>
         <v>-65653.507640750671</v>
       </c>
-      <c r="E24" s="10">
-        <f t="shared" ref="E24:Y24" si="17">SUM(E25:E32)</f>
+      <c r="E25" s="10">
+        <f t="shared" ref="E25:Y25" si="11">SUM(E26:E33)</f>
         <v>-8209.0300000000007</v>
       </c>
-      <c r="F24" s="10">
-        <f>F34</f>
+      <c r="F25" s="10">
+        <f>F35</f>
         <v>-65876.818891229414</v>
       </c>
-      <c r="G24" s="10">
-        <f t="shared" si="17"/>
+      <c r="G25" s="10">
+        <f t="shared" si="11"/>
         <v>-61994.92</v>
       </c>
-      <c r="H24" s="10">
-        <f>H34</f>
+      <c r="H25" s="10">
+        <f>H35</f>
         <v>-65876.818891229414</v>
       </c>
-      <c r="I24" s="10">
-        <f t="shared" si="17"/>
+      <c r="I25" s="10">
+        <f t="shared" si="11"/>
         <v>-16794.91</v>
       </c>
-      <c r="J24" s="10">
-        <f>J34</f>
+      <c r="J25" s="10">
+        <f>J35</f>
         <v>-66065.944566201084</v>
       </c>
-      <c r="K24" s="10">
-        <f t="shared" si="17"/>
+      <c r="K25" s="10">
+        <f t="shared" si="11"/>
         <v>-1900</v>
       </c>
-      <c r="L24" s="10">
-        <f>L34</f>
+      <c r="L25" s="10">
+        <f>L35</f>
         <v>-66255.613201830784</v>
       </c>
-      <c r="M24" s="10">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="10">
-        <f>N34</f>
+      <c r="M25" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="10">
+        <f>N35</f>
         <v>-61190.224272176725</v>
       </c>
-      <c r="O24" s="10">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="10">
-        <f>SUM(P34:P36)</f>
+      <c r="O25" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="10">
+        <f>SUM(P35:P37)</f>
         <v>-21001.377400679175</v>
       </c>
-      <c r="Q24" s="10">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="10">
-        <f>SUM(R34:R36)</f>
+      <c r="Q25" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="10">
+        <f>SUM(R35:R37)</f>
         <v>-21061.670228157629</v>
       </c>
-      <c r="S24" s="10">
-        <f t="shared" si="17"/>
+      <c r="S25" s="10">
+        <f t="shared" si="11"/>
         <v>-1900</v>
       </c>
-      <c r="T24" s="10">
-        <f>SUM(T34:T36)</f>
+      <c r="T25" s="10">
+        <f>SUM(T35:T37)</f>
         <v>-21122.136150237264</v>
       </c>
-      <c r="U24" s="10">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="10">
-        <f>SUM(V34:V36)</f>
+      <c r="U25" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="10">
+        <f>SUM(V35:V37)</f>
         <v>-21182.775663855144</v>
       </c>
-      <c r="W24" s="10">
-        <f t="shared" si="17"/>
+      <c r="W25" s="10">
+        <f t="shared" si="11"/>
         <v>-237000</v>
       </c>
-      <c r="X24" s="10">
-        <f>SUM(X34:X36)</f>
+      <c r="X25" s="10">
+        <f>SUM(X35:X37)</f>
         <v>-21243.589267374988</v>
       </c>
-      <c r="Y24" s="10">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="10">
-        <f t="shared" ref="Z24:BV24" si="18">SUM(Z34:Z36)</f>
+      <c r="Y25" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="10">
+        <f t="shared" ref="Z25:BV25" si="12">SUM(Z35:Z37)</f>
         <v>-62350.049413150409</v>
       </c>
-      <c r="AA24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AA25" s="10">
+        <f t="shared" si="12"/>
         <v>-21282.595857922472</v>
       </c>
-      <c r="AB24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AB25" s="10">
+        <f t="shared" si="12"/>
         <v>-21343.696035109606</v>
       </c>
-      <c r="AC24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AC25" s="10">
+        <f t="shared" si="12"/>
         <v>-21404.971624717167</v>
       </c>
-      <c r="AD24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AD25" s="10">
+        <f t="shared" si="12"/>
         <v>-21466.423130336439</v>
       </c>
-      <c r="AE24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AE25" s="10">
+        <f t="shared" si="12"/>
         <v>-21528.051057004479</v>
       </c>
-      <c r="AF24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AF25" s="10">
+        <f t="shared" si="12"/>
         <v>-21589.855911208251</v>
       </c>
-      <c r="AG24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AG25" s="10">
+        <f t="shared" si="12"/>
         <v>-21651.838200888789</v>
       </c>
-      <c r="AH24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AH25" s="10">
+        <f t="shared" si="12"/>
         <v>-21713.998435445377</v>
       </c>
-      <c r="AI24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AI25" s="10">
+        <f t="shared" si="12"/>
         <v>-21776.337125739727</v>
       </c>
-      <c r="AJ24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AJ25" s="10">
+        <f t="shared" si="12"/>
         <v>-21838.854784100196</v>
       </c>
-      <c r="AK24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AK25" s="10">
+        <f t="shared" si="12"/>
         <v>-21901.55192432597</v>
       </c>
-      <c r="AL24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AL25" s="10">
+        <f t="shared" si="12"/>
         <v>-64446.492532590026</v>
       </c>
-      <c r="AM24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AM25" s="10">
+        <f t="shared" si="12"/>
         <v>-21984.459234025133</v>
       </c>
-      <c r="AN24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AN25" s="10">
+        <f t="shared" si="12"/>
         <v>-22047.574389879686</v>
       </c>
-      <c r="AO24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AO25" s="10">
+        <f t="shared" si="12"/>
         <v>-22110.870742954336</v>
       </c>
-      <c r="AP24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AP25" s="10">
+        <f t="shared" si="12"/>
         <v>-22174.348813447948</v>
       </c>
-      <c r="AQ24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AQ25" s="10">
+        <f t="shared" si="12"/>
         <v>-22238.009123052834</v>
       </c>
-      <c r="AR24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AR25" s="10">
+        <f t="shared" si="12"/>
         <v>-22301.852194959021</v>
       </c>
-      <c r="AS24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AS25" s="10">
+        <f t="shared" si="12"/>
         <v>-22365.878553858565</v>
       </c>
-      <c r="AT24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AT25" s="10">
+        <f t="shared" si="12"/>
         <v>-22430.088725949863</v>
       </c>
-      <c r="AU24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AU25" s="10">
+        <f t="shared" si="12"/>
         <v>-22494.483238941968</v>
       </c>
-      <c r="AV24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AV25" s="10">
+        <f t="shared" si="12"/>
         <v>-22559.06262205894</v>
       </c>
-      <c r="AW24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AW25" s="10">
+        <f t="shared" si="12"/>
         <v>-22623.827406044176</v>
       </c>
-      <c r="AX24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AX25" s="10">
+        <f t="shared" si="12"/>
         <v>-66657.713815544965</v>
       </c>
-      <c r="AY24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AY25" s="10">
+        <f t="shared" si="12"/>
         <v>-22709.381866529005</v>
       </c>
-      <c r="AZ24" s="10">
-        <f t="shared" si="18"/>
+      <c r="AZ25" s="10">
+        <f t="shared" si="12"/>
         <v>-22774.578201840646</v>
       </c>
-      <c r="BA24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BA25" s="10">
+        <f t="shared" si="12"/>
         <v>-22839.961709227824</v>
       </c>
-      <c r="BB24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BB25" s="10">
+        <f t="shared" si="12"/>
         <v>-22905.532926042604</v>
       </c>
-      <c r="BC24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BC25" s="10">
+        <f t="shared" si="12"/>
         <v>-22971.292391179752</v>
       </c>
-      <c r="BD24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BD25" s="10">
+        <f t="shared" si="12"/>
         <v>-23037.240645081121</v>
       </c>
-      <c r="BE24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BE25" s="10">
+        <f t="shared" si="12"/>
         <v>-23103.378229740149</v>
       </c>
-      <c r="BF24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BF25" s="10">
+        <f t="shared" si="12"/>
         <v>-23169.70568870625</v>
       </c>
-      <c r="BG24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BG25" s="10">
+        <f t="shared" si="12"/>
         <v>-23236.223567089342</v>
       </c>
-      <c r="BH24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BH25" s="10">
+        <f t="shared" si="12"/>
         <v>-23302.932411564278</v>
       </c>
-      <c r="BI24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BI25" s="10">
+        <f t="shared" si="12"/>
         <v>-23369.832770375368</v>
       </c>
-      <c r="BJ24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BJ25" s="10">
+        <f t="shared" si="12"/>
         <v>-68944.773634954356</v>
       </c>
-      <c r="BK24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BK25" s="10">
+        <f t="shared" si="12"/>
         <v>-23458.118120746487</v>
       </c>
-      <c r="BL24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BL25" s="10">
+        <f t="shared" si="12"/>
         <v>-23525.464002011286</v>
       </c>
-      <c r="BM24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BM25" s="10">
+        <f t="shared" si="12"/>
         <v>-23593.003226480341</v>
       </c>
-      <c r="BN24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BN25" s="10">
+        <f t="shared" si="12"/>
         <v>-23660.736349222414</v>
       </c>
-      <c r="BO24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BO25" s="10">
+        <f t="shared" si="12"/>
         <v>-23728.663926899808</v>
       </c>
-      <c r="BP24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BP25" s="10">
+        <f t="shared" si="12"/>
         <v>-23796.786517772947</v>
       </c>
-      <c r="BQ24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BQ25" s="10">
+        <f t="shared" si="12"/>
         <v>-23865.104681704961</v>
       </c>
-      <c r="BR24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BR25" s="10">
+        <f t="shared" si="12"/>
         <v>-23933.618980166299</v>
       </c>
-      <c r="BS24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BS25" s="10">
+        <f t="shared" si="12"/>
         <v>-24002.329976239329</v>
       </c>
-      <c r="BT24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BT25" s="10">
+        <f t="shared" si="12"/>
         <v>-24071.238234622968</v>
       </c>
-      <c r="BU24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BU25" s="10">
+        <f t="shared" si="12"/>
         <v>-24140.344321637334</v>
       </c>
-      <c r="BV24" s="10">
-        <f t="shared" si="18"/>
+      <c r="BV25" s="10">
+        <f t="shared" si="12"/>
         <v>-71310.271942298365</v>
       </c>
-    </row>
-    <row r="25" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10">
-        <v>-5745.31</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10">
-        <v>-5745.31</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10">
-        <v>-16794.919999999998</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10">
-        <v>-16794.91</v>
-      </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="10"/>
-      <c r="AJ25" s="10"/>
-      <c r="AK25" s="10"/>
-      <c r="AL25" s="10"/>
-      <c r="AM25" s="10"/>
-      <c r="AN25" s="10"/>
-      <c r="AO25" s="10"/>
-      <c r="AP25" s="10"/>
-      <c r="AQ25" s="10"/>
-      <c r="AR25" s="10"/>
-      <c r="AS25" s="10"/>
-      <c r="AT25" s="10"/>
-      <c r="AU25" s="10"/>
-      <c r="AV25" s="10"/>
-      <c r="AW25" s="10"/>
-      <c r="AX25" s="10"/>
-      <c r="AY25" s="10"/>
-      <c r="AZ25" s="10"/>
-      <c r="BA25" s="10"/>
-      <c r="BB25" s="10"/>
-      <c r="BC25" s="10"/>
-      <c r="BD25" s="10"/>
-      <c r="BE25" s="10"/>
-      <c r="BF25" s="10"/>
-      <c r="BG25" s="10"/>
-      <c r="BH25" s="10"/>
-      <c r="BI25" s="10"/>
-      <c r="BJ25" s="10"/>
-      <c r="BK25" s="10"/>
-      <c r="BL25" s="10"/>
-      <c r="BM25" s="10"/>
-      <c r="BN25" s="10"/>
-      <c r="BO25" s="10"/>
-      <c r="BP25" s="10"/>
-      <c r="BQ25" s="10"/>
-      <c r="BR25" s="10"/>
-      <c r="BS25" s="10"/>
-      <c r="BT25" s="10"/>
-      <c r="BU25" s="10"/>
-      <c r="BV25" s="10"/>
     </row>
     <row r="26" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="10">
-        <f>-(752.98)</f>
-        <v>-752.98</v>
+        <v>-5745.31</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10">
-        <f>-(1664.29+536.88)</f>
-        <v>-2201.17</v>
+        <v>-5745.31</v>
       </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="10">
+        <v>-16794.919999999998</v>
+      </c>
       <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
+      <c r="I26" s="10">
+        <v>-16794.91</v>
+      </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -4599,12 +4649,18 @@
     </row>
     <row r="27" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
+      <c r="C27" s="10">
+        <f>-(752.98)</f>
+        <v>-752.98</v>
+      </c>
       <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="E27" s="10">
+        <f>-(1664.29+536.88)</f>
+        <v>-2201.17</v>
+      </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -4622,9 +4678,7 @@
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
-      <c r="W27" s="10">
-        <v>-57000</v>
-      </c>
+      <c r="W27" s="10"/>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
@@ -4679,17 +4733,14 @@
     </row>
     <row r="28" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="10">
-        <f>-45200</f>
-        <v>-45200</v>
-      </c>
+      <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -4706,8 +4757,7 @@
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
       <c r="W28" s="10">
-        <f>-(143000+37000)</f>
-        <v>-180000</v>
+        <v>-57000</v>
       </c>
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
@@ -4763,16 +4813,17 @@
     </row>
     <row r="29" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B29" s="9"/>
-      <c r="C29" s="10">
-        <v>-3584.26</v>
-      </c>
+      <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="G29" s="10">
+        <f>-45200</f>
+        <v>-45200</v>
+      </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -4788,7 +4839,10 @@
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
+      <c r="W29" s="10">
+        <f>-(143000+37000)</f>
+        <v>-180000</v>
+      </c>
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
@@ -4843,15 +4897,20 @@
     </row>
     <row r="30" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10">
+        <v>-3584.26</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="10">
-        <v>-1900</v>
-      </c>
+      <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
@@ -4859,9 +4918,7 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
-      <c r="S30" s="10">
-        <v>-1900</v>
-      </c>
+      <c r="S30" s="10"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
@@ -4920,21 +4977,15 @@
     </row>
     <row r="31" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="10">
-        <f>-262.55</f>
-        <v>-262.55</v>
-      </c>
-      <c r="F31" s="10"/>
+        <v>31</v>
+      </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
+      <c r="K31" s="10">
+        <v>-1900</v>
+      </c>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
@@ -4942,7 +4993,9 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
+      <c r="S31" s="10">
+        <v>-1900</v>
+      </c>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
@@ -5001,12 +5054,15 @@
     </row>
     <row r="32" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="10">
+        <f>-262.55</f>
+        <v>-262.55</v>
+      </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -5024,9 +5080,9 @@
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
-      <c r="W32" s="17"/>
+      <c r="W32" s="10"/>
       <c r="X32" s="10"/>
-      <c r="Y32" s="17"/>
+      <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
@@ -5077,497 +5133,361 @@
       <c r="BU32" s="10"/>
       <c r="BV32" s="10"/>
     </row>
-    <row r="33" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+    <row r="33" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="2"/>
+      <c r="H33" s="10"/>
       <c r="I33" s="10"/>
-      <c r="J33" s="2"/>
+      <c r="J33" s="10"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="2"/>
+      <c r="L33" s="10"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="2"/>
+      <c r="N33" s="10"/>
       <c r="O33" s="10"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" s="2"/>
-      <c r="AL33" s="2"/>
-      <c r="AM33" s="2"/>
-      <c r="AN33" s="2"/>
-      <c r="AO33" s="2"/>
-      <c r="AP33" s="2"/>
-      <c r="AQ33" s="2"/>
-      <c r="AR33" s="2"/>
-      <c r="AS33" s="2"/>
-      <c r="AT33" s="2"/>
-      <c r="AU33" s="2"/>
-      <c r="AV33" s="2"/>
-      <c r="AW33" s="2"/>
-      <c r="AX33" s="2"/>
-      <c r="AY33" s="2"/>
-      <c r="AZ33" s="2"/>
-      <c r="BA33" s="2"/>
-      <c r="BB33" s="2"/>
-      <c r="BC33" s="2"/>
-      <c r="BD33" s="2"/>
-      <c r="BE33" s="2"/>
-      <c r="BF33" s="2"/>
-      <c r="BG33" s="2"/>
-      <c r="BH33" s="2"/>
-      <c r="BI33" s="2"/>
-      <c r="BJ33" s="2"/>
-      <c r="BK33" s="2"/>
-      <c r="BL33" s="2"/>
-      <c r="BM33" s="2"/>
-      <c r="BN33" s="2"/>
-      <c r="BO33" s="2"/>
-      <c r="BP33" s="2"/>
-      <c r="BQ33" s="2"/>
-      <c r="BR33" s="2"/>
-      <c r="BS33" s="2"/>
-      <c r="BT33" s="2"/>
-      <c r="BU33" s="2"/>
-      <c r="BV33" s="2"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="10"/>
+      <c r="AQ33" s="10"/>
+      <c r="AR33" s="10"/>
+      <c r="AS33" s="10"/>
+      <c r="AT33" s="10"/>
+      <c r="AU33" s="10"/>
+      <c r="AV33" s="10"/>
+      <c r="AW33" s="10"/>
+      <c r="AX33" s="10"/>
+      <c r="AY33" s="10"/>
+      <c r="AZ33" s="10"/>
+      <c r="BA33" s="10"/>
+      <c r="BB33" s="10"/>
+      <c r="BC33" s="10"/>
+      <c r="BD33" s="10"/>
+      <c r="BE33" s="10"/>
+      <c r="BF33" s="10"/>
+      <c r="BG33" s="10"/>
+      <c r="BH33" s="10"/>
+      <c r="BI33" s="10"/>
+      <c r="BJ33" s="10"/>
+      <c r="BK33" s="10"/>
+      <c r="BL33" s="10"/>
+      <c r="BM33" s="10"/>
+      <c r="BN33" s="10"/>
+      <c r="BO33" s="10"/>
+      <c r="BP33" s="10"/>
+      <c r="BQ33" s="10"/>
+      <c r="BR33" s="10"/>
+      <c r="BS33" s="10"/>
+      <c r="BT33" s="10"/>
+      <c r="BU33" s="10"/>
+      <c r="BV33" s="10"/>
     </row>
     <row r="34" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="4"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="2">
-        <v>-65653.507640750671</v>
-      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2">
-        <v>-65876.818891229414</v>
-      </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="2">
-        <v>-65876.818891229414</v>
-      </c>
+      <c r="H34" s="2"/>
       <c r="I34" s="10"/>
-      <c r="J34" s="2">
-        <v>-66065.944566201084</v>
-      </c>
+      <c r="J34" s="2"/>
       <c r="K34" s="10"/>
-      <c r="L34" s="2">
-        <v>-66255.613201830784</v>
-      </c>
+      <c r="L34" s="2"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="2">
-        <v>-61190.224272176725</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="10"/>
-      <c r="P34" s="2">
-        <v>-1225.9044755676</v>
-      </c>
+      <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="2">
-        <v>-1229.4239231562174</v>
-      </c>
+      <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-      <c r="T34" s="2">
-        <v>-1232.9534747224088</v>
-      </c>
+      <c r="T34" s="2"/>
       <c r="U34" s="2"/>
-      <c r="V34" s="2">
-        <v>-1236.4931592736705</v>
-      </c>
+      <c r="V34" s="2"/>
       <c r="W34" s="2"/>
-      <c r="X34" s="2">
-        <v>-1240.0430059007761</v>
-      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
-      <c r="Z34" s="2">
-        <v>-1243.6030437780166</v>
-      </c>
-      <c r="AA34" s="2">
-        <v>-1164.0284153525429</v>
-      </c>
-      <c r="AB34" s="2">
-        <v>-1167.3702230391473</v>
-      </c>
-      <c r="AC34" s="2">
-        <v>-1170.7216247171586</v>
-      </c>
-      <c r="AD34" s="2">
-        <v>-1174.0826479299544</v>
-      </c>
-      <c r="AE34" s="2">
-        <v>-1177.4533202999867</v>
-      </c>
-      <c r="AF34" s="2">
-        <v>-1180.8336695290086</v>
-      </c>
-      <c r="AG34" s="2">
-        <v>-1184.2237233983019</v>
-      </c>
-      <c r="AH34" s="2">
-        <v>-1187.6235097689064</v>
-      </c>
-      <c r="AI34" s="2">
-        <v>-1191.0330565818472</v>
-      </c>
-      <c r="AJ34" s="2">
-        <v>-1194.4523918583661</v>
-      </c>
-      <c r="AK34" s="2">
-        <v>-1197.8815437001504</v>
-      </c>
-      <c r="AL34" s="2">
-        <v>-1201.3205402895646</v>
-      </c>
-      <c r="AM34" s="2">
-        <v>-1161.7419309652439</v>
-      </c>
-      <c r="AN34" s="2">
-        <v>-1165.0771743867494</v>
-      </c>
-      <c r="AO34" s="2">
-        <v>-1168.4219929543217</v>
-      </c>
-      <c r="AP34" s="2">
-        <v>-1171.7764141572352</v>
-      </c>
-      <c r="AQ34" s="2">
-        <v>-1175.1404655636834</v>
-      </c>
-      <c r="AR34" s="2">
-        <v>-1178.5141748210051</v>
-      </c>
-      <c r="AS34" s="2">
-        <v>-1181.8975696559123</v>
-      </c>
-      <c r="AT34" s="2">
-        <v>-1185.2906778747174</v>
-      </c>
-      <c r="AU34" s="2">
-        <v>-1188.6935273635615</v>
-      </c>
-      <c r="AV34" s="2">
-        <v>-1192.1061460886442</v>
-      </c>
-      <c r="AW34" s="2">
-        <v>-1195.5285620964537</v>
-      </c>
-      <c r="AX34" s="2">
-        <v>-1198.9608035139959</v>
-      </c>
-      <c r="AY34" s="2">
-        <v>-1157.8694578620261</v>
-      </c>
-      <c r="AZ34" s="2">
-        <v>-1161.1935838054603</v>
-      </c>
-      <c r="BA34" s="2">
-        <v>-1164.5272529778074</v>
-      </c>
-      <c r="BB34" s="2">
-        <v>-1167.8704927767112</v>
-      </c>
-      <c r="BC34" s="2">
-        <v>-1171.2233306784713</v>
-      </c>
-      <c r="BD34" s="2">
-        <v>-1174.5857942382688</v>
-      </c>
-      <c r="BE34" s="2">
-        <v>-1177.9579110903931</v>
-      </c>
-      <c r="BF34" s="2">
-        <v>-1181.3397089484688</v>
-      </c>
-      <c r="BG34" s="2">
-        <v>-1184.7312156056832</v>
-      </c>
-      <c r="BH34" s="2">
-        <v>-1188.1324589350158</v>
-      </c>
-      <c r="BI34" s="2">
-        <v>-1191.5434668894657</v>
-      </c>
-      <c r="BJ34" s="2">
-        <v>-1194.9642675022828</v>
-      </c>
-      <c r="BK34" s="2">
-        <v>-1152.3027777761515</v>
-      </c>
-      <c r="BL34" s="2">
-        <v>-1155.6109223448575</v>
-      </c>
-      <c r="BM34" s="2">
-        <v>-1158.9285642615682</v>
-      </c>
-      <c r="BN34" s="2">
-        <v>-1162.2557307922082</v>
-      </c>
-      <c r="BO34" s="2">
-        <v>-1165.5924492809788</v>
-      </c>
-      <c r="BP34" s="2">
-        <v>-1168.9387471505852</v>
-      </c>
-      <c r="BQ34" s="2">
-        <v>-1172.2946519024588</v>
-      </c>
-      <c r="BR34" s="2">
-        <v>-1175.660191116986</v>
-      </c>
-      <c r="BS34" s="2">
-        <v>-1179.0353924537333</v>
-      </c>
-      <c r="BT34" s="2">
-        <v>-1182.4202836516747</v>
-      </c>
-      <c r="BU34" s="2">
-        <v>-1185.8148925294206</v>
-      </c>
-      <c r="BV34" s="2">
-        <v>-1189.2192469854454</v>
-      </c>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="2"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
+      <c r="AZ34" s="2"/>
+      <c r="BA34" s="2"/>
+      <c r="BB34" s="2"/>
+      <c r="BC34" s="2"/>
+      <c r="BD34" s="2"/>
+      <c r="BE34" s="2"/>
+      <c r="BF34" s="2"/>
+      <c r="BG34" s="2"/>
+      <c r="BH34" s="2"/>
+      <c r="BI34" s="2"/>
+      <c r="BJ34" s="2"/>
+      <c r="BK34" s="2"/>
+      <c r="BL34" s="2"/>
+      <c r="BM34" s="2"/>
+      <c r="BN34" s="2"/>
+      <c r="BO34" s="2"/>
+      <c r="BP34" s="2"/>
+      <c r="BQ34" s="2"/>
+      <c r="BR34" s="2"/>
+      <c r="BS34" s="2"/>
+      <c r="BT34" s="2"/>
+      <c r="BU34" s="2"/>
+      <c r="BV34" s="2"/>
     </row>
     <row r="35" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2">
-        <v>0</v>
+        <v>-65653.507640750671</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="10">
-        <v>0</v>
-      </c>
+        <v>-65876.818891229414</v>
+      </c>
+      <c r="G35" s="10"/>
       <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="10">
-        <v>0</v>
-      </c>
+        <v>-65876.818891229414</v>
+      </c>
+      <c r="I35" s="10"/>
       <c r="J35" s="2">
-        <v>0</v>
-      </c>
-      <c r="K35" s="10">
-        <v>0</v>
-      </c>
+        <v>-66065.944566201084</v>
+      </c>
+      <c r="K35" s="10"/>
       <c r="L35" s="2">
-        <v>0</v>
-      </c>
-      <c r="M35" s="10">
-        <v>0</v>
-      </c>
+        <v>-66255.613201830784</v>
+      </c>
+      <c r="M35" s="10"/>
       <c r="N35" s="2">
-        <v>0</v>
-      </c>
-      <c r="O35" s="10">
-        <v>0</v>
-      </c>
+        <v>-61190.224272176725</v>
+      </c>
+      <c r="O35" s="10"/>
       <c r="P35" s="2">
-        <v>-19775.472925111575</v>
+        <v>-1225.9044755676</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2">
-        <v>-19832.246305001412</v>
+        <v>-1229.4239231562174</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2">
-        <v>-19889.182675514854</v>
+        <v>-1232.9534747224088</v>
       </c>
       <c r="U35" s="2"/>
       <c r="V35" s="2">
-        <v>-19946.282504581472</v>
-      </c>
-      <c r="W35" s="2">
-        <f>-(150000+67360)</f>
-        <v>-217360</v>
-      </c>
+        <v>-1236.4931592736705</v>
+      </c>
+      <c r="W35" s="2"/>
       <c r="X35" s="2">
-        <v>-20003.54626147421</v>
-      </c>
-      <c r="Y35" s="2">
-        <f>-(150000+67360)</f>
-        <v>-217360</v>
-      </c>
+        <v>-1240.0430059007761</v>
+      </c>
+      <c r="Y35" s="2"/>
       <c r="Z35" s="2">
-        <v>-20060.974416813271</v>
+        <v>-1243.6030437780166</v>
       </c>
       <c r="AA35" s="2">
-        <v>-20118.567442569929</v>
+        <v>-1164.0284153525429</v>
       </c>
       <c r="AB35" s="2">
-        <v>-20176.32581207046</v>
+        <v>-1167.3702230391473</v>
       </c>
       <c r="AC35" s="2">
-        <v>-20234.250000000007</v>
+        <v>-1170.7216247171586</v>
       </c>
       <c r="AD35" s="2">
-        <v>-20292.340482406486</v>
+        <v>-1174.0826479299544</v>
       </c>
       <c r="AE35" s="2">
-        <v>-20350.597736704491</v>
+        <v>-1177.4533202999867</v>
       </c>
       <c r="AF35" s="2">
-        <v>-20409.022241679242</v>
+        <v>-1180.8336695290086</v>
       </c>
       <c r="AG35" s="2">
-        <v>-20467.614477490486</v>
+        <v>-1184.2237233983019</v>
       </c>
       <c r="AH35" s="2">
-        <v>-20526.374925676471</v>
+        <v>-1187.6235097689064</v>
       </c>
       <c r="AI35" s="2">
-        <v>-20585.304069157879</v>
+        <v>-1191.0330565818472</v>
       </c>
       <c r="AJ35" s="2">
-        <v>-20644.402392241831</v>
+        <v>-1194.4523918583661</v>
       </c>
       <c r="AK35" s="2">
-        <v>-20703.670380625819</v>
+        <v>-1197.8815437001504</v>
       </c>
       <c r="AL35" s="2">
-        <v>-20763.108521401744</v>
+        <v>-1201.3205402895646</v>
       </c>
       <c r="AM35" s="2">
-        <v>-20822.71730305989</v>
+        <v>-1161.7419309652439</v>
       </c>
       <c r="AN35" s="2">
-        <v>-20882.497215492938</v>
+        <v>-1165.0771743867494</v>
       </c>
       <c r="AO35" s="2">
-        <v>-20942.448750000014</v>
+        <v>-1168.4219929543217</v>
       </c>
       <c r="AP35" s="2">
-        <v>-21002.572399290715</v>
+        <v>-1171.7764141572352</v>
       </c>
       <c r="AQ35" s="2">
-        <v>-21062.868657489151</v>
+        <v>-1175.1404655636834</v>
       </c>
       <c r="AR35" s="2">
-        <v>-21123.338020138017</v>
+        <v>-1178.5141748210051</v>
       </c>
       <c r="AS35" s="2">
-        <v>-21183.980984202652</v>
+        <v>-1181.8975696559123</v>
       </c>
       <c r="AT35" s="2">
-        <v>-21244.798048075147</v>
+        <v>-1185.2906778747174</v>
       </c>
       <c r="AU35" s="2">
-        <v>-21305.789711578407</v>
+        <v>-1188.6935273635615</v>
       </c>
       <c r="AV35" s="2">
-        <v>-21366.956475970295</v>
+        <v>-1192.1061460886442</v>
       </c>
       <c r="AW35" s="2">
-        <v>-21428.298843947723</v>
+        <v>-1195.5285620964537</v>
       </c>
       <c r="AX35" s="2">
-        <v>-21489.817319650803</v>
+        <v>-1198.9608035139959</v>
       </c>
       <c r="AY35" s="2">
-        <v>-21551.512408666978</v>
+        <v>-1157.8694578620261</v>
       </c>
       <c r="AZ35" s="2">
-        <v>-21613.384618035187</v>
+        <v>-1161.1935838054603</v>
       </c>
       <c r="BA35" s="2">
-        <v>-21675.434456250016</v>
+        <v>-1164.5272529778074</v>
       </c>
       <c r="BB35" s="2">
-        <v>-21737.662433265894</v>
+        <v>-1167.8704927767112</v>
       </c>
       <c r="BC35" s="2">
-        <v>-21800.069060501279</v>
+        <v>-1171.2233306784713</v>
       </c>
       <c r="BD35" s="2">
-        <v>-21862.654850842853</v>
+        <v>-1174.5857942382688</v>
       </c>
       <c r="BE35" s="2">
-        <v>-21925.420318649754</v>
+        <v>-1177.9579110903931</v>
       </c>
       <c r="BF35" s="2">
-        <v>-21988.365979757782</v>
+        <v>-1181.3397089484688</v>
       </c>
       <c r="BG35" s="2">
-        <v>-22051.492351483659</v>
+        <v>-1184.7312156056832</v>
       </c>
       <c r="BH35" s="2">
-        <v>-22114.799952629262</v>
+        <v>-1188.1324589350158</v>
       </c>
       <c r="BI35" s="2">
-        <v>-22178.289303485901</v>
+        <v>-1191.5434668894657</v>
       </c>
       <c r="BJ35" s="2">
-        <v>-22241.96092583859</v>
+        <v>-1194.9642675022828</v>
       </c>
       <c r="BK35" s="2">
-        <v>-22305.815342970334</v>
+        <v>-1152.3027777761515</v>
       </c>
       <c r="BL35" s="2">
-        <v>-22369.853079666427</v>
+        <v>-1155.6109223448575</v>
       </c>
       <c r="BM35" s="2">
-        <v>-22434.074662218773</v>
+        <v>-1158.9285642615682</v>
       </c>
       <c r="BN35" s="2">
-        <v>-22498.480618430207</v>
+        <v>-1162.2557307922082</v>
       </c>
       <c r="BO35" s="2">
-        <v>-22563.071477618829</v>
+        <v>-1165.5924492809788</v>
       </c>
       <c r="BP35" s="2">
-        <v>-22627.84777062236</v>
+        <v>-1168.9387471505852</v>
       </c>
       <c r="BQ35" s="2">
-        <v>-22692.810029802502</v>
+        <v>-1172.2946519024588</v>
       </c>
       <c r="BR35" s="2">
-        <v>-22757.958789049313</v>
+        <v>-1175.660191116986</v>
       </c>
       <c r="BS35" s="2">
-        <v>-22823.294583785595</v>
+        <v>-1179.0353924537333</v>
       </c>
       <c r="BT35" s="2">
-        <v>-22888.817950971294</v>
+        <v>-1182.4202836516747</v>
       </c>
       <c r="BU35" s="2">
-        <v>-22954.529429107915</v>
+        <v>-1185.8148925294206</v>
       </c>
       <c r="BV35" s="2">
-        <v>-23020.429558242948</v>
+        <v>-1189.2192469854454</v>
       </c>
     </row>
     <row r="36" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="2"/>
@@ -5606,618 +5526,752 @@
         <v>0</v>
       </c>
       <c r="P36" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>0</v>
-      </c>
+        <v>-19775.472925111575</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" s="2">
-        <v>0</v>
-      </c>
-      <c r="S36" s="2">
-        <v>0</v>
-      </c>
+        <v>-19832.246305001412</v>
+      </c>
+      <c r="S36" s="2"/>
       <c r="T36" s="2">
-        <v>0</v>
-      </c>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
+        <v>-19889.182675514854</v>
+      </c>
+      <c r="U36" s="2"/>
       <c r="V36" s="2">
-        <v>0</v>
+        <v>-19946.282504581472</v>
       </c>
       <c r="W36" s="2">
-        <v>0</v>
+        <f>-(150000+67360)</f>
+        <v>-217360</v>
       </c>
       <c r="X36" s="2">
-        <v>0</v>
+        <v>-20003.54626147421</v>
       </c>
       <c r="Y36" s="2">
-        <v>0</v>
+        <f>-(150000+67360)</f>
+        <v>-217360</v>
       </c>
       <c r="Z36" s="2">
-        <v>-41045.471952559121</v>
+        <v>-20060.974416813271</v>
       </c>
       <c r="AA36" s="2">
-        <v>0</v>
+        <v>-20118.567442569929</v>
       </c>
       <c r="AB36" s="2">
-        <v>0</v>
+        <v>-20176.32581207046</v>
       </c>
       <c r="AC36" s="2">
-        <v>0</v>
+        <v>-20234.250000000007</v>
       </c>
       <c r="AD36" s="2">
-        <v>0</v>
+        <v>-20292.340482406486</v>
       </c>
       <c r="AE36" s="2">
-        <v>0</v>
+        <v>-20350.597736704491</v>
       </c>
       <c r="AF36" s="2">
-        <v>0</v>
+        <v>-20409.022241679242</v>
       </c>
       <c r="AG36" s="2">
-        <v>0</v>
+        <v>-20467.614477490486</v>
       </c>
       <c r="AH36" s="2">
-        <v>0</v>
+        <v>-20526.374925676471</v>
       </c>
       <c r="AI36" s="2">
-        <v>0</v>
+        <v>-20585.304069157879</v>
       </c>
       <c r="AJ36" s="2">
-        <v>0</v>
+        <v>-20644.402392241831</v>
       </c>
       <c r="AK36" s="2">
-        <v>0</v>
+        <v>-20703.670380625819</v>
       </c>
       <c r="AL36" s="2">
-        <v>-42482.063470898713</v>
+        <v>-20763.108521401744</v>
       </c>
       <c r="AM36" s="2">
-        <v>0</v>
+        <v>-20822.71730305989</v>
       </c>
       <c r="AN36" s="2">
-        <v>0</v>
+        <v>-20882.497215492938</v>
       </c>
       <c r="AO36" s="2">
-        <v>0</v>
+        <v>-20942.448750000014</v>
       </c>
       <c r="AP36" s="2">
-        <v>0</v>
+        <v>-21002.572399290715</v>
       </c>
       <c r="AQ36" s="2">
-        <v>0</v>
+        <v>-21062.868657489151</v>
       </c>
       <c r="AR36" s="2">
-        <v>0</v>
+        <v>-21123.338020138017</v>
       </c>
       <c r="AS36" s="2">
-        <v>0</v>
+        <v>-21183.980984202652</v>
       </c>
       <c r="AT36" s="2">
-        <v>0</v>
+        <v>-21244.798048075147</v>
       </c>
       <c r="AU36" s="2">
-        <v>0</v>
+        <v>-21305.789711578407</v>
       </c>
       <c r="AV36" s="2">
-        <v>0</v>
+        <v>-21366.956475970295</v>
       </c>
       <c r="AW36" s="2">
-        <v>0</v>
+        <v>-21428.298843947723</v>
       </c>
       <c r="AX36" s="2">
-        <v>-43968.935692380161</v>
+        <v>-21489.817319650803</v>
       </c>
       <c r="AY36" s="2">
-        <v>0</v>
+        <v>-21551.512408666978</v>
       </c>
       <c r="AZ36" s="2">
-        <v>0</v>
+        <v>-21613.384618035187</v>
       </c>
       <c r="BA36" s="2">
-        <v>0</v>
+        <v>-21675.434456250016</v>
       </c>
       <c r="BB36" s="2">
-        <v>0</v>
+        <v>-21737.662433265894</v>
       </c>
       <c r="BC36" s="2">
-        <v>0</v>
+        <v>-21800.069060501279</v>
       </c>
       <c r="BD36" s="2">
-        <v>0</v>
+        <v>-21862.654850842853</v>
       </c>
       <c r="BE36" s="2">
-        <v>0</v>
+        <v>-21925.420318649754</v>
       </c>
       <c r="BF36" s="2">
-        <v>0</v>
+        <v>-21988.365979757782</v>
       </c>
       <c r="BG36" s="2">
-        <v>0</v>
+        <v>-22051.492351483659</v>
       </c>
       <c r="BH36" s="2">
-        <v>0</v>
+        <v>-22114.799952629262</v>
       </c>
       <c r="BI36" s="2">
-        <v>0</v>
+        <v>-22178.289303485901</v>
       </c>
       <c r="BJ36" s="2">
-        <v>-45507.848441613482</v>
+        <v>-22241.96092583859</v>
       </c>
       <c r="BK36" s="2">
-        <v>0</v>
+        <v>-22305.815342970334</v>
       </c>
       <c r="BL36" s="2">
-        <v>0</v>
+        <v>-22369.853079666427</v>
       </c>
       <c r="BM36" s="2">
-        <v>0</v>
+        <v>-22434.074662218773</v>
       </c>
       <c r="BN36" s="2">
-        <v>0</v>
+        <v>-22498.480618430207</v>
       </c>
       <c r="BO36" s="2">
-        <v>0</v>
+        <v>-22563.071477618829</v>
       </c>
       <c r="BP36" s="2">
-        <v>0</v>
+        <v>-22627.84777062236</v>
       </c>
       <c r="BQ36" s="2">
-        <v>0</v>
+        <v>-22692.810029802502</v>
       </c>
       <c r="BR36" s="2">
-        <v>0</v>
+        <v>-22757.958789049313</v>
       </c>
       <c r="BS36" s="2">
-        <v>0</v>
+        <v>-22823.294583785595</v>
       </c>
       <c r="BT36" s="2">
-        <v>0</v>
+        <v>-22888.817950971294</v>
       </c>
       <c r="BU36" s="2">
-        <v>0</v>
+        <v>-22954.529429107915</v>
       </c>
       <c r="BV36" s="2">
-        <v>-47100.623137069968</v>
+        <v>-23020.429558242948</v>
       </c>
     </row>
     <row r="37" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
-      <c r="AG37" s="2"/>
-      <c r="AH37" s="2"/>
-      <c r="AI37" s="2"/>
-      <c r="AJ37" s="2"/>
-      <c r="AK37" s="2"/>
-      <c r="AL37" s="2"/>
-      <c r="AM37" s="2"/>
-      <c r="AN37" s="2"/>
-      <c r="AO37" s="2"/>
-      <c r="AP37" s="2"/>
-      <c r="AQ37" s="2"/>
-      <c r="AR37" s="2"/>
-      <c r="AS37" s="2"/>
-      <c r="AT37" s="2"/>
-      <c r="AU37" s="2"/>
-      <c r="AV37" s="2"/>
-      <c r="AW37" s="2"/>
-      <c r="AX37" s="2"/>
-      <c r="AY37" s="2"/>
-      <c r="AZ37" s="2"/>
-      <c r="BA37" s="2"/>
-      <c r="BB37" s="2"/>
-      <c r="BC37" s="2"/>
-      <c r="BD37" s="2"/>
-      <c r="BE37" s="2"/>
-      <c r="BF37" s="2"/>
-      <c r="BG37" s="2"/>
-      <c r="BH37" s="2"/>
-      <c r="BI37" s="2"/>
-      <c r="BJ37" s="2"/>
-      <c r="BK37" s="2"/>
-      <c r="BL37" s="2"/>
-      <c r="BM37" s="2"/>
-      <c r="BN37" s="2"/>
-      <c r="BO37" s="2"/>
-      <c r="BP37" s="2"/>
-      <c r="BQ37" s="2"/>
-      <c r="BR37" s="2"/>
-      <c r="BS37" s="2"/>
-      <c r="BT37" s="2"/>
-      <c r="BU37" s="2"/>
-      <c r="BV37" s="2"/>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="10">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="10">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="10">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2">
+        <v>0</v>
+      </c>
+      <c r="S37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+      <c r="X37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>-41045.471952559121</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="2">
+        <v>-42482.063470898713</v>
+      </c>
+      <c r="AM37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX37" s="2">
+        <v>-43968.935692380161</v>
+      </c>
+      <c r="AY37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ37" s="2">
+        <v>-45507.848441613482</v>
+      </c>
+      <c r="BK37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV37" s="2">
+        <v>-47100.623137069968</v>
+      </c>
     </row>
     <row r="38" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="7">
-        <f t="shared" ref="B38" si="19">C38+E38+G38+I38+K38+M38+O38+Q38+S38+U38+W38+Y38</f>
-        <v>-1303472.5500000003</v>
-      </c>
-      <c r="C38" s="2">
-        <f>SUM(C39:C44)</f>
-        <v>-78350.78</v>
-      </c>
+      <c r="A38" s="28"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2">
-        <f>SUM(E39:E44)</f>
-        <v>-82537.039999999994</v>
-      </c>
-      <c r="F38" s="2">
-        <v>-290653.07379490609</v>
-      </c>
-      <c r="G38" s="10">
-        <f>SUM(G39:G44)</f>
-        <v>-108528.08</v>
-      </c>
-      <c r="H38" s="2">
-        <v>-291641.68969216774</v>
-      </c>
-      <c r="I38" s="10">
-        <f>SUM(I39:I44)</f>
-        <v>-104346.46</v>
-      </c>
-      <c r="J38" s="2">
-        <v>-291641.68969216774</v>
-      </c>
-      <c r="K38" s="10">
-        <f>SUM(K39:K44)</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="2">
-        <v>-291641.68969216774</v>
-      </c>
-      <c r="M38" s="10">
-        <f>SUM(M39:M44)</f>
-        <v>-152130.95000000001</v>
-      </c>
-      <c r="N38" s="2">
-        <v>-291641.68969216774</v>
-      </c>
-      <c r="O38" s="10">
-        <f>SUM(O39:O44)</f>
-        <v>-336714.29</v>
-      </c>
-      <c r="P38" s="2">
-        <v>-268573.98542273074</v>
-      </c>
-      <c r="Q38" s="10">
-        <f>SUM(Q39:Q44)</f>
-        <v>-180529.02</v>
-      </c>
-      <c r="R38" s="2">
-        <v>0</v>
-      </c>
-      <c r="S38" s="10">
-        <v>0</v>
-      </c>
-      <c r="T38" s="2">
-        <v>0</v>
-      </c>
-      <c r="U38" s="10">
-        <f>SUM(U39:U44)</f>
-        <v>-128227.34</v>
-      </c>
-      <c r="V38" s="2">
-        <v>0</v>
-      </c>
-      <c r="W38" s="10">
-        <f>SUM(W39:W44)</f>
-        <v>-132108.59</v>
-      </c>
-      <c r="X38" s="2">
-        <v>0</v>
-      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="2"/>
       <c r="Y38" s="10"/>
-      <c r="Z38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BS38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV38" s="2">
-        <v>0</v>
-      </c>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="2"/>
+      <c r="AP38" s="2"/>
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="2"/>
+      <c r="AS38" s="2"/>
+      <c r="AT38" s="2"/>
+      <c r="AU38" s="2"/>
+      <c r="AV38" s="2"/>
+      <c r="AW38" s="2"/>
+      <c r="AX38" s="2"/>
+      <c r="AY38" s="2"/>
+      <c r="AZ38" s="2"/>
+      <c r="BA38" s="2"/>
+      <c r="BB38" s="2"/>
+      <c r="BC38" s="2"/>
+      <c r="BD38" s="2"/>
+      <c r="BE38" s="2"/>
+      <c r="BF38" s="2"/>
+      <c r="BG38" s="2"/>
+      <c r="BH38" s="2"/>
+      <c r="BI38" s="2"/>
+      <c r="BJ38" s="2"/>
+      <c r="BK38" s="2"/>
+      <c r="BL38" s="2"/>
+      <c r="BM38" s="2"/>
+      <c r="BN38" s="2"/>
+      <c r="BO38" s="2"/>
+      <c r="BP38" s="2"/>
+      <c r="BQ38" s="2"/>
+      <c r="BR38" s="2"/>
+      <c r="BS38" s="2"/>
+      <c r="BT38" s="2"/>
+      <c r="BU38" s="2"/>
+      <c r="BV38" s="2"/>
     </row>
     <row r="39" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="A39" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="7">
+        <f t="shared" ref="B39" si="13">C39+E39+G39+I39+K39+M39+O39+Q39+S39+U39+W39+Y39</f>
+        <v>-1303472.5500000003</v>
+      </c>
+      <c r="C39" s="2">
+        <f>SUM(C40:C45)</f>
+        <v>-78350.78</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
+        <f>SUM(E40:E45)</f>
+        <v>-82537.039999999994</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-290653.07379490609</v>
+      </c>
       <c r="G39" s="10">
+        <f>SUM(G40:G45)</f>
+        <v>-108528.08</v>
+      </c>
+      <c r="H39" s="2">
+        <v>-291641.68969216774</v>
+      </c>
+      <c r="I39" s="10">
+        <f>SUM(I40:I45)</f>
         <v>-104346.46</v>
       </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10">
-        <v>-104346.46</v>
-      </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="2"/>
+      <c r="J39" s="2">
+        <v>-291641.68969216774</v>
+      </c>
+      <c r="K39" s="10">
+        <f>SUM(K40:K45)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>-291641.68969216774</v>
+      </c>
       <c r="M39" s="10">
-        <f>-(116631.88+18772.57)</f>
-        <v>-135404.45000000001</v>
-      </c>
-      <c r="N39" s="2"/>
+        <f>SUM(M40:M45)</f>
+        <v>-152130.95000000001</v>
+      </c>
+      <c r="N39" s="2">
+        <v>-291641.68969216774</v>
+      </c>
       <c r="O39" s="10">
-        <f>-(24467.06+152007.6+18772.56+116631.87)</f>
-        <v>-311879.08999999997</v>
-      </c>
-      <c r="P39" s="2"/>
+        <f>SUM(O40:O45)</f>
+        <v>-336714.29</v>
+      </c>
+      <c r="P39" s="2">
+        <v>-268573.98542273074</v>
+      </c>
       <c r="Q39" s="10">
-        <f>-(152007.6+24467.06)</f>
-        <v>-176474.66</v>
-      </c>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="16"/>
+        <f>SUM(Q40:Q45)</f>
+        <v>-180529.02</v>
+      </c>
+      <c r="R39" s="2">
+        <v>0</v>
+      </c>
+      <c r="S39" s="10">
+        <v>0</v>
+      </c>
+      <c r="T39" s="2">
+        <v>0</v>
+      </c>
       <c r="U39" s="10">
-        <f>-110449.55-17777.79</f>
+        <f>SUM(U40:U45)</f>
         <v>-128227.34</v>
       </c>
-      <c r="V39" s="2"/>
+      <c r="V39" s="2">
+        <v>0</v>
+      </c>
       <c r="W39" s="10">
-        <f>-(17777.79+110449.55)</f>
-        <v>-128227.34</v>
-      </c>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="2"/>
-      <c r="AK39" s="2"/>
-      <c r="AL39" s="2"/>
-      <c r="AM39" s="2"/>
-      <c r="AN39" s="2"/>
-      <c r="AO39" s="2"/>
-      <c r="AP39" s="2"/>
-      <c r="AQ39" s="2"/>
-      <c r="AR39" s="2"/>
-      <c r="AS39" s="2"/>
-      <c r="AT39" s="2"/>
-      <c r="AU39" s="2"/>
-      <c r="AV39" s="2"/>
-      <c r="AW39" s="2"/>
-      <c r="AX39" s="2"/>
-      <c r="AY39" s="2"/>
-      <c r="AZ39" s="2"/>
-      <c r="BA39" s="2"/>
-      <c r="BB39" s="2"/>
-      <c r="BC39" s="2"/>
-      <c r="BD39" s="2"/>
-      <c r="BE39" s="2"/>
-      <c r="BF39" s="2"/>
-      <c r="BG39" s="2"/>
-      <c r="BH39" s="2"/>
-      <c r="BI39" s="2"/>
-      <c r="BJ39" s="2"/>
-      <c r="BK39" s="2"/>
-      <c r="BL39" s="2"/>
-      <c r="BM39" s="2"/>
-      <c r="BN39" s="2"/>
-      <c r="BO39" s="2"/>
-      <c r="BP39" s="2"/>
-      <c r="BQ39" s="2"/>
-      <c r="BR39" s="2"/>
-      <c r="BS39" s="2"/>
-      <c r="BT39" s="2"/>
-      <c r="BU39" s="2"/>
-      <c r="BV39" s="2"/>
+        <f>SUM(W40:W45)</f>
+        <v>-132108.59</v>
+      </c>
+      <c r="X39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="10">
+        <f>SUM(Y40:Y45)</f>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV39" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="10"/>
+      <c r="G40" s="10">
+        <v>-104346.46</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10">
+        <v>-104346.46</v>
+      </c>
       <c r="J40" s="2"/>
       <c r="K40" s="10"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="10"/>
+      <c r="M40" s="10">
+        <f>-(116631.88+18772.57)</f>
+        <v>-135404.45000000001</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" s="10">
-        <f>-(4054.35+4054.35)</f>
-        <v>-8108.7</v>
+        <f>-(24467.06+152007.6+18772.56+116631.87)</f>
+        <v>-311879.08999999997</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="10">
-        <v>-4054.36</v>
+        <f>-(152007.6+24467.06)</f>
+        <v>-176474.66</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="10"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="10">
+        <f>-110449.55-17777.79</f>
+        <v>-128227.34</v>
+      </c>
       <c r="V40" s="2"/>
-      <c r="W40" s="10"/>
+      <c r="W40" s="10">
+        <f>-(17777.79+110449.55)</f>
+        <v>-128227.34</v>
+      </c>
       <c r="X40" s="2"/>
       <c r="Y40" s="10"/>
       <c r="Z40" s="2"/>
@@ -6272,17 +6326,13 @@
     </row>
     <row r="41" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B41" s="9"/>
-      <c r="C41" s="10">
-        <v>-35690.699999999997</v>
-      </c>
+      <c r="C41" s="10"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="10">
-        <v>-35690.699999999997</v>
-      </c>
-      <c r="F41" s="2"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="2"/>
       <c r="I41" s="10"/>
@@ -6291,11 +6341,16 @@
       <c r="L41" s="2"/>
       <c r="M41" s="10"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="10"/>
+      <c r="O41" s="10">
+        <f>-(4054.35+4054.35)</f>
+        <v>-8108.7</v>
+      </c>
       <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
+      <c r="Q41" s="10">
+        <v>-4054.36</v>
+      </c>
       <c r="R41" s="2"/>
-      <c r="S41" s="10"/>
+      <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="10"/>
       <c r="V41" s="2"/>
@@ -6436,12 +6491,16 @@
     </row>
     <row r="43" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
+      <c r="C43" s="10">
+        <v>-35690.699999999997</v>
+      </c>
       <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+      <c r="E43" s="10">
+        <v>-35690.699999999997</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="10"/>
       <c r="H43" s="2"/>
@@ -6459,9 +6518,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="10"/>
       <c r="V43" s="2"/>
-      <c r="W43" s="10">
-        <v>-3881.25</v>
-      </c>
+      <c r="W43" s="10"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="10"/>
       <c r="Z43" s="2"/>
@@ -6516,35 +6573,22 @@
     </row>
     <row r="44" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="10">
-        <v>-6969.38</v>
-      </c>
+      <c r="C44" s="10"/>
       <c r="D44" s="10"/>
-      <c r="E44" s="10">
-        <f>-(4181.63+6974.01)</f>
-        <v>-11155.64</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10">
-        <v>-4181.62</v>
-      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="2"/>
       <c r="I44" s="10"/>
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="10">
-        <f>-(8363.25+8363.25)</f>
-        <v>-16726.5</v>
-      </c>
+      <c r="M44" s="10"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="10">
-        <f>-(8363.25+8363.25)</f>
-        <v>-16726.5</v>
-      </c>
+      <c r="O44" s="10"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
@@ -6552,7 +6596,9 @@
       <c r="T44" s="2"/>
       <c r="U44" s="10"/>
       <c r="V44" s="2"/>
-      <c r="W44" s="10"/>
+      <c r="W44" s="10">
+        <v>-3881.25</v>
+      </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="10"/>
       <c r="Z44" s="2"/>
@@ -6606,31 +6652,46 @@
       <c r="BV44" s="2"/>
     </row>
     <row r="45" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="10"/>
+      <c r="A45" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="10">
+        <v>-6969.38</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10">
+        <f>-(4181.63+6974.01)</f>
+        <v>-11155.64</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10">
+        <v>-4181.62</v>
+      </c>
       <c r="H45" s="2"/>
       <c r="I45" s="10"/>
       <c r="J45" s="2"/>
       <c r="K45" s="10"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="10"/>
+      <c r="M45" s="10">
+        <f>-(8363.25+8363.25)</f>
+        <v>-16726.5</v>
+      </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="10"/>
+      <c r="O45" s="10">
+        <f>-(8363.25+8363.25)</f>
+        <v>-16726.5</v>
+      </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
+      <c r="S45" s="10"/>
       <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
+      <c r="U45" s="10"/>
       <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
+      <c r="W45" s="10"/>
       <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
+      <c r="Y45" s="10"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
@@ -6682,1208 +6743,1208 @@
       <c r="BV45" s="2"/>
     </row>
     <row r="46" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="32">
-        <f t="shared" ref="B46" si="20">C46+E46+G46+I46+K46+M46+O46+Q46+S46+U46+W46+Y46</f>
-        <v>-21810.54</v>
-      </c>
-      <c r="C46" s="5">
-        <v>0</v>
-      </c>
-      <c r="D46" s="5">
-        <f>SUM(D47:D50)</f>
-        <v>-13432.593933481601</v>
-      </c>
-      <c r="E46" s="5">
-        <v>0</v>
-      </c>
-      <c r="F46" s="5">
-        <f t="shared" ref="F46:BV46" si="21">SUM(F47:F50)</f>
-        <v>-13432.593933481601</v>
-      </c>
-      <c r="G46" s="14">
-        <f t="shared" ref="G46" si="22">SUM(G47:G50)</f>
-        <v>-209.22</v>
-      </c>
-      <c r="H46" s="5">
-        <f t="shared" si="21"/>
-        <v>-13432.593933481601</v>
-      </c>
-      <c r="I46" s="14">
-        <f t="shared" ref="I46:K46" si="23">SUM(I47:I50)</f>
-        <v>-915.68000000000006</v>
-      </c>
-      <c r="J46" s="5">
-        <f t="shared" si="21"/>
-        <v>-13476.899347637262</v>
-      </c>
-      <c r="K46" s="14">
-        <f t="shared" si="23"/>
-        <v>-2214.36</v>
-      </c>
-      <c r="L46" s="5">
-        <f t="shared" si="21"/>
-        <v>-13521.331958149671</v>
-      </c>
-      <c r="M46" s="14">
-        <f t="shared" si="21"/>
-        <v>-1460.26</v>
-      </c>
-      <c r="N46" s="5">
-        <f t="shared" si="21"/>
-        <v>-13565.892130186689</v>
-      </c>
-      <c r="O46" s="14">
-        <f t="shared" ref="O46" si="24">SUM(O47:O50)</f>
-        <v>-1975.37</v>
-      </c>
-      <c r="P46" s="5">
-        <f t="shared" si="21"/>
-        <v>-13610.580229964526</v>
-      </c>
-      <c r="Q46" s="5">
-        <f t="shared" ref="Q46" si="25">SUM(Q47:Q50)</f>
-        <v>-2142.41</v>
-      </c>
-      <c r="R46" s="5">
-        <f t="shared" si="21"/>
-        <v>-13655.396624750776</v>
-      </c>
-      <c r="S46" s="5">
-        <f t="shared" ref="S46" si="26">SUM(S47:S50)</f>
-        <v>-4754.0600000000004</v>
-      </c>
-      <c r="T46" s="5">
-        <f t="shared" si="21"/>
-        <v>-13700.341682867411</v>
-      </c>
-      <c r="U46" s="5">
-        <f t="shared" ref="U46:W46" si="27">SUM(U47:U50)</f>
-        <v>-6171.85</v>
-      </c>
-      <c r="V46" s="5">
-        <f t="shared" si="21"/>
-        <v>-13745.41577369382</v>
-      </c>
-      <c r="W46" s="5">
-        <f t="shared" si="27"/>
-        <v>-1967.33</v>
-      </c>
-      <c r="X46" s="5">
-        <f t="shared" si="21"/>
-        <v>-13790.619267669847</v>
-      </c>
-      <c r="Y46" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Z46" s="5">
-        <f t="shared" si="21"/>
-        <v>-13835.952536298828</v>
-      </c>
-      <c r="AA46" s="5">
-        <f t="shared" si="21"/>
-        <v>-13881.415952150646</v>
-      </c>
-      <c r="AB46" s="5">
-        <f t="shared" si="21"/>
-        <v>-13927.009888864799</v>
-      </c>
-      <c r="AC46" s="5">
-        <f t="shared" si="21"/>
-        <v>-13972.734721153462</v>
-      </c>
-      <c r="AD46" s="5">
-        <f t="shared" si="21"/>
-        <v>-14018.590824804574</v>
-      </c>
-      <c r="AE46" s="5">
-        <f t="shared" si="21"/>
-        <v>-14064.578576684915</v>
-      </c>
-      <c r="AF46" s="5">
-        <f t="shared" si="21"/>
-        <v>-14110.698354743226</v>
-      </c>
-      <c r="AG46" s="5">
-        <f t="shared" si="21"/>
-        <v>-14156.95053801329</v>
-      </c>
-      <c r="AH46" s="5">
-        <f t="shared" si="21"/>
-        <v>-14203.335506617061</v>
-      </c>
-      <c r="AI46" s="5">
-        <f t="shared" si="21"/>
-        <v>-14249.853641767777</v>
-      </c>
-      <c r="AJ46" s="5">
-        <f t="shared" si="21"/>
-        <v>-14296.505325773111</v>
-      </c>
-      <c r="AK46" s="5">
-        <f t="shared" si="21"/>
-        <v>-14343.290942038298</v>
-      </c>
-      <c r="AL46" s="5">
-        <f t="shared" si="21"/>
-        <v>-14390.210875069293</v>
-      </c>
-      <c r="AM46" s="5">
-        <f t="shared" si="21"/>
-        <v>-14437.265510475925</v>
-      </c>
-      <c r="AN46" s="5">
-        <f t="shared" si="21"/>
-        <v>-14484.455234975074</v>
-      </c>
-      <c r="AO46" s="5">
-        <f t="shared" si="21"/>
-        <v>-14531.780436393839</v>
-      </c>
-      <c r="AP46" s="5">
-        <f t="shared" si="21"/>
-        <v>-14579.241503672736</v>
-      </c>
-      <c r="AQ46" s="5">
-        <f t="shared" si="21"/>
-        <v>-14626.838826868892</v>
-      </c>
-      <c r="AR46" s="5">
-        <f t="shared" si="21"/>
-        <v>-14674.572797159242</v>
-      </c>
-      <c r="AS46" s="5">
-        <f t="shared" si="21"/>
-        <v>-14722.443806843758</v>
-      </c>
-      <c r="AT46" s="5">
-        <f t="shared" si="21"/>
-        <v>-14770.452249348658</v>
-      </c>
-      <c r="AU46" s="5">
-        <f t="shared" si="21"/>
-        <v>-14818.598519229647</v>
-      </c>
-      <c r="AV46" s="5">
-        <f t="shared" si="21"/>
-        <v>-14866.883012175169</v>
-      </c>
-      <c r="AW46" s="5">
-        <f t="shared" si="21"/>
-        <v>-14915.306125009638</v>
-      </c>
-      <c r="AX46" s="5">
-        <f t="shared" si="21"/>
-        <v>-14963.868255696718</v>
-      </c>
-      <c r="AY46" s="5">
-        <f t="shared" si="21"/>
-        <v>-15012.56980334258</v>
-      </c>
-      <c r="AZ46" s="5">
-        <f t="shared" si="21"/>
-        <v>-15061.411168199204</v>
-      </c>
-      <c r="BA46" s="5">
-        <f t="shared" si="21"/>
-        <v>-15110.392751667627</v>
-      </c>
-      <c r="BB46" s="5">
-        <f t="shared" si="21"/>
-        <v>-15159.514956301286</v>
-      </c>
-      <c r="BC46" s="5">
-        <f t="shared" si="21"/>
-        <v>-15208.778185809309</v>
-      </c>
-      <c r="BD46" s="5">
-        <f t="shared" si="21"/>
-        <v>-15258.182845059824</v>
-      </c>
-      <c r="BE46" s="5">
-        <f t="shared" si="21"/>
-        <v>-15307.729340083293</v>
-      </c>
-      <c r="BF46" s="5">
-        <f t="shared" si="21"/>
-        <v>-15357.418078075865</v>
-      </c>
-      <c r="BG46" s="5">
-        <f t="shared" si="21"/>
-        <v>-15407.249467402691</v>
-      </c>
-      <c r="BH46" s="5">
-        <f t="shared" si="21"/>
-        <v>-15457.223917601306</v>
-      </c>
-      <c r="BI46" s="5">
-        <f t="shared" si="21"/>
-        <v>-15507.341839384981</v>
-      </c>
-      <c r="BJ46" s="5">
-        <f t="shared" si="21"/>
-        <v>-15557.603644646108</v>
-      </c>
-      <c r="BK46" s="5">
-        <f t="shared" si="21"/>
-        <v>-15608.009746459578</v>
-      </c>
-      <c r="BL46" s="5">
-        <f t="shared" si="21"/>
-        <v>-15658.560559086181</v>
-      </c>
-      <c r="BM46" s="5">
-        <f t="shared" si="21"/>
-        <v>-15709.256497975995</v>
-      </c>
-      <c r="BN46" s="5">
-        <f t="shared" si="21"/>
-        <v>-15760.097979771836</v>
-      </c>
-      <c r="BO46" s="5">
-        <f t="shared" si="21"/>
-        <v>-15811.085422312635</v>
-      </c>
-      <c r="BP46" s="5">
-        <f t="shared" si="21"/>
-        <v>-15862.219244636921</v>
-      </c>
-      <c r="BQ46" s="5">
-        <f t="shared" si="21"/>
-        <v>-15913.499866986218</v>
-      </c>
-      <c r="BR46" s="5">
-        <f t="shared" si="21"/>
-        <v>-15964.927710808526</v>
-      </c>
-      <c r="BS46" s="5">
-        <f t="shared" si="21"/>
-        <v>-16016.503198761791</v>
-      </c>
-      <c r="BT46" s="5">
-        <f t="shared" si="21"/>
-        <v>-16068.226754717358</v>
-      </c>
-      <c r="BU46" s="5">
-        <f t="shared" si="21"/>
-        <v>-16120.09880376346</v>
-      </c>
-      <c r="BV46" s="5">
-        <f t="shared" si="21"/>
-        <v>-16172.119772208731</v>
-      </c>
+      <c r="A46" s="28"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
+      <c r="AK46" s="2"/>
+      <c r="AL46" s="2"/>
+      <c r="AM46" s="2"/>
+      <c r="AN46" s="2"/>
+      <c r="AO46" s="2"/>
+      <c r="AP46" s="2"/>
+      <c r="AQ46" s="2"/>
+      <c r="AR46" s="2"/>
+      <c r="AS46" s="2"/>
+      <c r="AT46" s="2"/>
+      <c r="AU46" s="2"/>
+      <c r="AV46" s="2"/>
+      <c r="AW46" s="2"/>
+      <c r="AX46" s="2"/>
+      <c r="AY46" s="2"/>
+      <c r="AZ46" s="2"/>
+      <c r="BA46" s="2"/>
+      <c r="BB46" s="2"/>
+      <c r="BC46" s="2"/>
+      <c r="BD46" s="2"/>
+      <c r="BE46" s="2"/>
+      <c r="BF46" s="2"/>
+      <c r="BG46" s="2"/>
+      <c r="BH46" s="2"/>
+      <c r="BI46" s="2"/>
+      <c r="BJ46" s="2"/>
+      <c r="BK46" s="2"/>
+      <c r="BL46" s="2"/>
+      <c r="BM46" s="2"/>
+      <c r="BN46" s="2"/>
+      <c r="BO46" s="2"/>
+      <c r="BP46" s="2"/>
+      <c r="BQ46" s="2"/>
+      <c r="BR46" s="2"/>
+      <c r="BS46" s="2"/>
+      <c r="BT46" s="2"/>
+      <c r="BU46" s="2"/>
+      <c r="BV46" s="2"/>
     </row>
     <row r="47" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="2">
-        <v>-3058.9036839936002</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2">
-        <v>-3058.9036839936002</v>
-      </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="2">
-        <v>-3058.9036839936002</v>
-      </c>
-      <c r="I47" s="10">
-        <v>-496.03</v>
-      </c>
-      <c r="J47" s="2">
-        <v>-3067.6854866617559</v>
-      </c>
-      <c r="K47" s="10">
-        <v>-1382.21</v>
-      </c>
-      <c r="L47" s="2">
-        <v>-3076.4925009959429</v>
-      </c>
-      <c r="M47" s="10"/>
-      <c r="N47" s="2">
-        <v>-3085.3247993763016</v>
-      </c>
-      <c r="O47" s="10">
+      <c r="A47" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="32">
+        <f t="shared" ref="B47" si="14">C47+E47+G47+I47+K47+M47+O47+Q47+S47+U47+W47+Y47</f>
+        <v>-21810.54</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5">
+        <f>SUM(D48:D51)</f>
+        <v>-13432.593933481601</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" ref="F47:BV47" si="15">SUM(F48:F51)</f>
+        <v>-13432.593933481601</v>
+      </c>
+      <c r="G47" s="14">
+        <f t="shared" ref="G47" si="16">SUM(G48:G51)</f>
+        <v>-209.22</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" si="15"/>
+        <v>-13432.593933481601</v>
+      </c>
+      <c r="I47" s="14">
+        <f t="shared" ref="I47:K47" si="17">SUM(I48:I51)</f>
+        <v>-915.68000000000006</v>
+      </c>
+      <c r="J47" s="5">
+        <f t="shared" si="15"/>
+        <v>-13476.899347637262</v>
+      </c>
+      <c r="K47" s="14">
+        <f t="shared" si="17"/>
+        <v>-2214.36</v>
+      </c>
+      <c r="L47" s="5">
+        <f t="shared" si="15"/>
+        <v>-13521.331958149671</v>
+      </c>
+      <c r="M47" s="14">
+        <f t="shared" si="15"/>
+        <v>-1460.26</v>
+      </c>
+      <c r="N47" s="5">
+        <f t="shared" si="15"/>
+        <v>-13565.892130186689</v>
+      </c>
+      <c r="O47" s="14">
+        <f t="shared" ref="O47" si="18">SUM(O48:O51)</f>
         <v>-1975.37</v>
       </c>
-      <c r="P47" s="2">
-        <v>-3094.1824543907665</v>
-      </c>
-      <c r="Q47" s="10">
+      <c r="P47" s="5">
+        <f t="shared" si="15"/>
+        <v>-13610.580229964526</v>
+      </c>
+      <c r="Q47" s="5">
+        <f t="shared" ref="Q47" si="19">SUM(Q48:Q51)</f>
         <v>-2142.41</v>
       </c>
-      <c r="R47" s="2">
-        <v>-3103.0655388356668</v>
-      </c>
-      <c r="S47" s="10">
-        <v>-1407.76</v>
-      </c>
-      <c r="T47" s="2">
-        <v>-3111.9741257163209</v>
-      </c>
-      <c r="U47" s="10"/>
-      <c r="V47" s="2">
-        <v>-3120.9082882476396</v>
-      </c>
-      <c r="W47" s="10"/>
-      <c r="X47" s="2">
-        <v>-3129.8680998547252</v>
-      </c>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="2">
-        <v>-3138.8536341734775</v>
-      </c>
-      <c r="AA47" s="2">
-        <v>-3147.8649650511952</v>
-      </c>
-      <c r="AB47" s="2">
-        <v>-3156.9021665471864</v>
-      </c>
-      <c r="AC47" s="2">
-        <v>-3165.9653129333774</v>
-      </c>
-      <c r="AD47" s="2">
-        <v>-3175.054478694919</v>
-      </c>
-      <c r="AE47" s="2">
-        <v>-3184.1697385308025</v>
-      </c>
-      <c r="AF47" s="2">
-        <v>-3193.3111673544731</v>
-      </c>
-      <c r="AG47" s="2">
-        <v>-3202.4788402944446</v>
-      </c>
-      <c r="AH47" s="2">
-        <v>-3211.6728326949165</v>
-      </c>
-      <c r="AI47" s="2">
-        <v>-3220.8932201163934</v>
-      </c>
-      <c r="AJ47" s="2">
-        <v>-3230.1400783363083</v>
-      </c>
-      <c r="AK47" s="2">
-        <v>-3239.4134833496423</v>
-      </c>
-      <c r="AL47" s="2">
-        <v>-3248.7135113695504</v>
-      </c>
-      <c r="AM47" s="2">
-        <v>-3258.0402388279881</v>
-      </c>
-      <c r="AN47" s="2">
-        <v>-3267.3937423763396</v>
-      </c>
-      <c r="AO47" s="2">
-        <v>-3276.7740988860464</v>
-      </c>
-      <c r="AP47" s="2">
-        <v>-3286.1813854492416</v>
-      </c>
-      <c r="AQ47" s="2">
-        <v>-3295.6156793793812</v>
-      </c>
-      <c r="AR47" s="2">
-        <v>-3305.0770582118798</v>
-      </c>
-      <c r="AS47" s="2">
-        <v>-3314.5655997047502</v>
-      </c>
-      <c r="AT47" s="2">
-        <v>-3324.0813818392385</v>
-      </c>
-      <c r="AU47" s="2">
-        <v>-3333.6244828204667</v>
-      </c>
-      <c r="AV47" s="2">
-        <v>-3343.1949810780793</v>
-      </c>
-      <c r="AW47" s="2">
-        <v>-3352.7929552668793</v>
-      </c>
-      <c r="AX47" s="2">
-        <v>-3362.418484267484</v>
-      </c>
-      <c r="AY47" s="2">
-        <v>-3372.0716471869673</v>
-      </c>
-      <c r="AZ47" s="2">
-        <v>-3381.7525233595115</v>
-      </c>
-      <c r="BA47" s="2">
-        <v>-3391.4611923470588</v>
-      </c>
-      <c r="BB47" s="2">
-        <v>-3401.1977339399659</v>
-      </c>
-      <c r="BC47" s="2">
-        <v>-3410.9622281576608</v>
-      </c>
-      <c r="BD47" s="2">
-        <v>-3420.754755249297</v>
-      </c>
-      <c r="BE47" s="2">
-        <v>-3430.5753956944177</v>
-      </c>
-      <c r="BF47" s="2">
-        <v>-3440.4242302036128</v>
-      </c>
-      <c r="BG47" s="2">
-        <v>-3450.3013397191839</v>
-      </c>
-      <c r="BH47" s="2">
-        <v>-3460.2068054158126</v>
-      </c>
-      <c r="BI47" s="2">
-        <v>-3470.1407087012212</v>
-      </c>
-      <c r="BJ47" s="2">
-        <v>-3480.103131216847</v>
-      </c>
-      <c r="BK47" s="2">
-        <v>-3490.0941548385122</v>
-      </c>
-      <c r="BL47" s="2">
-        <v>-3500.1138616770959</v>
-      </c>
-      <c r="BM47" s="2">
-        <v>-3510.1623340792062</v>
-      </c>
-      <c r="BN47" s="2">
-        <v>-3520.2396546278655</v>
-      </c>
-      <c r="BO47" s="2">
-        <v>-3530.3459061431795</v>
-      </c>
-      <c r="BP47" s="2">
-        <v>-3540.4811716830236</v>
-      </c>
-      <c r="BQ47" s="2">
-        <v>-3550.6455345437234</v>
-      </c>
-      <c r="BR47" s="2">
-        <v>-3560.8390782607403</v>
-      </c>
-      <c r="BS47" s="2">
-        <v>-3571.0618866093573</v>
-      </c>
-      <c r="BT47" s="2">
-        <v>-3581.3140436053673</v>
-      </c>
-      <c r="BU47" s="2">
-        <v>-3591.5956335057654</v>
-      </c>
-      <c r="BV47" s="2">
-        <v>-3601.9067408094384</v>
+      <c r="R47" s="5">
+        <f t="shared" si="15"/>
+        <v>-13655.396624750776</v>
+      </c>
+      <c r="S47" s="5">
+        <f t="shared" ref="S47" si="20">SUM(S48:S51)</f>
+        <v>-4754.0600000000004</v>
+      </c>
+      <c r="T47" s="5">
+        <f t="shared" si="15"/>
+        <v>-13700.341682867411</v>
+      </c>
+      <c r="U47" s="5">
+        <f t="shared" ref="U47:Y47" si="21">SUM(U48:U51)</f>
+        <v>-6171.85</v>
+      </c>
+      <c r="V47" s="5">
+        <f t="shared" si="15"/>
+        <v>-13745.41577369382</v>
+      </c>
+      <c r="W47" s="5">
+        <f t="shared" si="21"/>
+        <v>-1967.33</v>
+      </c>
+      <c r="X47" s="5">
+        <f t="shared" si="15"/>
+        <v>-13790.619267669847</v>
+      </c>
+      <c r="Y47" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="5">
+        <f t="shared" si="15"/>
+        <v>-13835.952536298828</v>
+      </c>
+      <c r="AA47" s="5">
+        <f t="shared" si="15"/>
+        <v>-13881.415952150646</v>
+      </c>
+      <c r="AB47" s="5">
+        <f t="shared" si="15"/>
+        <v>-13927.009888864799</v>
+      </c>
+      <c r="AC47" s="5">
+        <f t="shared" si="15"/>
+        <v>-13972.734721153462</v>
+      </c>
+      <c r="AD47" s="5">
+        <f t="shared" si="15"/>
+        <v>-14018.590824804574</v>
+      </c>
+      <c r="AE47" s="5">
+        <f t="shared" si="15"/>
+        <v>-14064.578576684915</v>
+      </c>
+      <c r="AF47" s="5">
+        <f t="shared" si="15"/>
+        <v>-14110.698354743226</v>
+      </c>
+      <c r="AG47" s="5">
+        <f t="shared" si="15"/>
+        <v>-14156.95053801329</v>
+      </c>
+      <c r="AH47" s="5">
+        <f t="shared" si="15"/>
+        <v>-14203.335506617061</v>
+      </c>
+      <c r="AI47" s="5">
+        <f t="shared" si="15"/>
+        <v>-14249.853641767777</v>
+      </c>
+      <c r="AJ47" s="5">
+        <f t="shared" si="15"/>
+        <v>-14296.505325773111</v>
+      </c>
+      <c r="AK47" s="5">
+        <f t="shared" si="15"/>
+        <v>-14343.290942038298</v>
+      </c>
+      <c r="AL47" s="5">
+        <f t="shared" si="15"/>
+        <v>-14390.210875069293</v>
+      </c>
+      <c r="AM47" s="5">
+        <f t="shared" si="15"/>
+        <v>-14437.265510475925</v>
+      </c>
+      <c r="AN47" s="5">
+        <f t="shared" si="15"/>
+        <v>-14484.455234975074</v>
+      </c>
+      <c r="AO47" s="5">
+        <f t="shared" si="15"/>
+        <v>-14531.780436393839</v>
+      </c>
+      <c r="AP47" s="5">
+        <f t="shared" si="15"/>
+        <v>-14579.241503672736</v>
+      </c>
+      <c r="AQ47" s="5">
+        <f t="shared" si="15"/>
+        <v>-14626.838826868892</v>
+      </c>
+      <c r="AR47" s="5">
+        <f t="shared" si="15"/>
+        <v>-14674.572797159242</v>
+      </c>
+      <c r="AS47" s="5">
+        <f t="shared" si="15"/>
+        <v>-14722.443806843758</v>
+      </c>
+      <c r="AT47" s="5">
+        <f t="shared" si="15"/>
+        <v>-14770.452249348658</v>
+      </c>
+      <c r="AU47" s="5">
+        <f t="shared" si="15"/>
+        <v>-14818.598519229647</v>
+      </c>
+      <c r="AV47" s="5">
+        <f t="shared" si="15"/>
+        <v>-14866.883012175169</v>
+      </c>
+      <c r="AW47" s="5">
+        <f t="shared" si="15"/>
+        <v>-14915.306125009638</v>
+      </c>
+      <c r="AX47" s="5">
+        <f t="shared" si="15"/>
+        <v>-14963.868255696718</v>
+      </c>
+      <c r="AY47" s="5">
+        <f t="shared" si="15"/>
+        <v>-15012.56980334258</v>
+      </c>
+      <c r="AZ47" s="5">
+        <f t="shared" si="15"/>
+        <v>-15061.411168199204</v>
+      </c>
+      <c r="BA47" s="5">
+        <f t="shared" si="15"/>
+        <v>-15110.392751667627</v>
+      </c>
+      <c r="BB47" s="5">
+        <f t="shared" si="15"/>
+        <v>-15159.514956301286</v>
+      </c>
+      <c r="BC47" s="5">
+        <f t="shared" si="15"/>
+        <v>-15208.778185809309</v>
+      </c>
+      <c r="BD47" s="5">
+        <f t="shared" si="15"/>
+        <v>-15258.182845059824</v>
+      </c>
+      <c r="BE47" s="5">
+        <f t="shared" si="15"/>
+        <v>-15307.729340083293</v>
+      </c>
+      <c r="BF47" s="5">
+        <f t="shared" si="15"/>
+        <v>-15357.418078075865</v>
+      </c>
+      <c r="BG47" s="5">
+        <f t="shared" si="15"/>
+        <v>-15407.249467402691</v>
+      </c>
+      <c r="BH47" s="5">
+        <f t="shared" si="15"/>
+        <v>-15457.223917601306</v>
+      </c>
+      <c r="BI47" s="5">
+        <f t="shared" si="15"/>
+        <v>-15507.341839384981</v>
+      </c>
+      <c r="BJ47" s="5">
+        <f t="shared" si="15"/>
+        <v>-15557.603644646108</v>
+      </c>
+      <c r="BK47" s="5">
+        <f t="shared" si="15"/>
+        <v>-15608.009746459578</v>
+      </c>
+      <c r="BL47" s="5">
+        <f t="shared" si="15"/>
+        <v>-15658.560559086181</v>
+      </c>
+      <c r="BM47" s="5">
+        <f t="shared" si="15"/>
+        <v>-15709.256497975995</v>
+      </c>
+      <c r="BN47" s="5">
+        <f t="shared" si="15"/>
+        <v>-15760.097979771836</v>
+      </c>
+      <c r="BO47" s="5">
+        <f t="shared" si="15"/>
+        <v>-15811.085422312635</v>
+      </c>
+      <c r="BP47" s="5">
+        <f t="shared" si="15"/>
+        <v>-15862.219244636921</v>
+      </c>
+      <c r="BQ47" s="5">
+        <f t="shared" si="15"/>
+        <v>-15913.499866986218</v>
+      </c>
+      <c r="BR47" s="5">
+        <f t="shared" si="15"/>
+        <v>-15964.927710808526</v>
+      </c>
+      <c r="BS47" s="5">
+        <f t="shared" si="15"/>
+        <v>-16016.503198761791</v>
+      </c>
+      <c r="BT47" s="5">
+        <f t="shared" si="15"/>
+        <v>-16068.226754717358</v>
+      </c>
+      <c r="BU47" s="5">
+        <f t="shared" si="15"/>
+        <v>-16120.09880376346</v>
+      </c>
+      <c r="BV47" s="5">
+        <f t="shared" si="15"/>
+        <v>-16172.119772208731</v>
       </c>
     </row>
     <row r="48" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="2"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="2">
-        <v>-6496.9546777600008</v>
+        <v>-3058.9036839936002</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2">
-        <v>-6496.9546777600008</v>
+        <v>-3058.9036839936002</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="2">
-        <v>-6496.9546777600008</v>
-      </c>
-      <c r="I48" s="10"/>
+        <v>-3058.9036839936002</v>
+      </c>
+      <c r="I48" s="10">
+        <v>-496.03</v>
+      </c>
       <c r="J48" s="2">
-        <v>-6521.3485740604337</v>
-      </c>
-      <c r="K48" s="10"/>
+        <v>-3067.6854866617559</v>
+      </c>
+      <c r="K48" s="10">
+        <v>-1382.21</v>
+      </c>
       <c r="L48" s="2">
-        <v>-6545.8125027665083</v>
-      </c>
-      <c r="M48" s="10">
-        <f>-(136.34+123.69)</f>
-        <v>-260.02999999999997</v>
-      </c>
+        <v>-3076.4925009959429</v>
+      </c>
+      <c r="M48" s="10"/>
       <c r="N48" s="2">
-        <v>-6570.3466649341717</v>
-      </c>
-      <c r="O48" s="10"/>
+        <v>-3085.3247993763016</v>
+      </c>
+      <c r="O48" s="10">
+        <v>-1975.37</v>
+      </c>
       <c r="P48" s="2">
-        <v>-6594.9512621965732</v>
-      </c>
-      <c r="Q48" s="10"/>
+        <v>-3094.1824543907665</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>-2142.41</v>
+      </c>
       <c r="R48" s="2">
-        <v>-6619.6264967657407</v>
+        <v>-3103.0655388356668</v>
       </c>
       <c r="S48" s="10">
-        <v>-1938.54</v>
+        <v>-1407.76</v>
       </c>
       <c r="T48" s="2">
-        <v>-6644.3725714342254</v>
-      </c>
-      <c r="U48" s="10">
-        <v>-2835.46</v>
-      </c>
+        <v>-3111.9741257163209</v>
+      </c>
+      <c r="U48" s="10"/>
       <c r="V48" s="2">
-        <v>-6669.1896895767768</v>
-      </c>
-      <c r="W48" s="10">
-        <v>-1616.98</v>
-      </c>
+        <v>-3120.9082882476396</v>
+      </c>
+      <c r="W48" s="10"/>
       <c r="X48" s="2">
-        <v>-6694.0780551520147</v>
+        <v>-3129.8680998547252</v>
       </c>
       <c r="Y48" s="10"/>
       <c r="Z48" s="2">
-        <v>-6719.0378727041043</v>
+        <v>-3138.8536341734775</v>
       </c>
       <c r="AA48" s="2">
-        <v>-6744.0693473644315</v>
+        <v>-3147.8649650511952</v>
       </c>
       <c r="AB48" s="2">
-        <v>-6769.1726848532962</v>
+        <v>-3156.9021665471864</v>
       </c>
       <c r="AC48" s="2">
-        <v>-6794.3480914816046</v>
+        <v>-3165.9653129333774</v>
       </c>
       <c r="AD48" s="2">
-        <v>-6819.5957741525526</v>
+        <v>-3175.054478694919</v>
       </c>
       <c r="AE48" s="2">
-        <v>-6844.9159403633403</v>
+        <v>-3184.1697385308025</v>
       </c>
       <c r="AF48" s="2">
-        <v>-6870.3087982068701</v>
+        <v>-3193.3111673544731</v>
       </c>
       <c r="AG48" s="2">
-        <v>-6895.774556373457</v>
+        <v>-3202.4788402944446</v>
       </c>
       <c r="AH48" s="2">
-        <v>-6921.3134241525458</v>
+        <v>-3211.6728326949165</v>
       </c>
       <c r="AI48" s="2">
-        <v>-6946.9256114344262</v>
+        <v>-3220.8932201163934</v>
       </c>
       <c r="AJ48" s="2">
-        <v>-6972.6113287119679</v>
+        <v>-3230.1400783363083</v>
       </c>
       <c r="AK48" s="2">
-        <v>-6998.37078708234</v>
+        <v>-3239.4134833496423</v>
       </c>
       <c r="AL48" s="2">
-        <v>-7024.2041982487517</v>
+        <v>-3248.7135113695504</v>
       </c>
       <c r="AM48" s="2">
-        <v>-7050.1117745221891</v>
+        <v>-3258.0402388279881</v>
       </c>
       <c r="AN48" s="2">
-        <v>-7076.0937288231653</v>
+        <v>-3267.3937423763396</v>
       </c>
       <c r="AO48" s="2">
-        <v>-7102.1502746834631</v>
+        <v>-3276.7740988860464</v>
       </c>
       <c r="AP48" s="2">
-        <v>-7128.2816262478937</v>
+        <v>-3286.1813854492416</v>
       </c>
       <c r="AQ48" s="2">
-        <v>-7154.4879982760594</v>
+        <v>-3295.6156793793812</v>
       </c>
       <c r="AR48" s="2">
-        <v>-7180.7696061441111</v>
+        <v>-3305.0770582118798</v>
       </c>
       <c r="AS48" s="2">
-        <v>-7207.1266658465283</v>
+        <v>-3314.5655997047502</v>
       </c>
       <c r="AT48" s="2">
-        <v>-7233.5593939978844</v>
+        <v>-3324.0813818392385</v>
       </c>
       <c r="AU48" s="2">
-        <v>-7260.0680078346304</v>
+        <v>-3333.6244828204667</v>
       </c>
       <c r="AV48" s="2">
-        <v>-7286.6527252168871</v>
+        <v>-3343.1949810780793</v>
       </c>
       <c r="AW48" s="2">
-        <v>-7313.3137646302202</v>
+        <v>-3352.7929552668793</v>
       </c>
       <c r="AX48" s="2">
-        <v>-7340.0513451874558</v>
+        <v>-3362.418484267484</v>
       </c>
       <c r="AY48" s="2">
-        <v>-7366.8656866304646</v>
+        <v>-3372.0716471869673</v>
       </c>
       <c r="AZ48" s="2">
-        <v>-7393.7570093319773</v>
+        <v>-3381.7525233595115</v>
       </c>
       <c r="BA48" s="2">
-        <v>-7420.7255342973858</v>
+        <v>-3391.4611923470588</v>
       </c>
       <c r="BB48" s="2">
-        <v>-7447.7714831665726</v>
+        <v>-3401.1977339399659</v>
       </c>
       <c r="BC48" s="2">
-        <v>-7474.8950782157244</v>
+        <v>-3410.9622281576608</v>
       </c>
       <c r="BD48" s="2">
-        <v>-7502.0965423591588</v>
+        <v>-3420.754755249297</v>
       </c>
       <c r="BE48" s="2">
-        <v>-7529.3760991511608</v>
+        <v>-3430.5753956944177</v>
       </c>
       <c r="BF48" s="2">
-        <v>-7556.7339727878134</v>
+        <v>-3440.4242302036128</v>
       </c>
       <c r="BG48" s="2">
-        <v>-7584.1703881088451</v>
+        <v>-3450.3013397191839</v>
       </c>
       <c r="BH48" s="2">
-        <v>-7611.6855705994803</v>
+        <v>-3460.2068054158126</v>
       </c>
       <c r="BI48" s="2">
-        <v>-7639.2797463922816</v>
+        <v>-3470.1407087012212</v>
       </c>
       <c r="BJ48" s="2">
-        <v>-7666.9531422690197</v>
+        <v>-3480.103131216847</v>
       </c>
       <c r="BK48" s="2">
-        <v>-7694.7059856625347</v>
+        <v>-3490.0941548385122</v>
       </c>
       <c r="BL48" s="2">
-        <v>-7722.5385046585998</v>
+        <v>-3500.1138616770959</v>
       </c>
       <c r="BM48" s="2">
-        <v>-7750.4509279977956</v>
+        <v>-3510.1623340792062</v>
       </c>
       <c r="BN48" s="2">
-        <v>-7778.4434850774051</v>
+        <v>-3520.2396546278655</v>
       </c>
       <c r="BO48" s="2">
-        <v>-7806.5164059532763</v>
+        <v>-3530.3459061431795</v>
       </c>
       <c r="BP48" s="2">
-        <v>-7834.6699213417323</v>
+        <v>-3540.4811716830236</v>
       </c>
       <c r="BQ48" s="2">
-        <v>-7862.9042626214541</v>
+        <v>-3550.6455345437234</v>
       </c>
       <c r="BR48" s="2">
-        <v>-7891.2196618353901</v>
+        <v>-3560.8390782607403</v>
       </c>
       <c r="BS48" s="2">
-        <v>-7919.616351692659</v>
+        <v>-3571.0618866093573</v>
       </c>
       <c r="BT48" s="2">
-        <v>-7948.0945655704654</v>
+        <v>-3581.3140436053673</v>
       </c>
       <c r="BU48" s="2">
-        <v>-7976.6545375160149</v>
+        <v>-3591.5956335057654</v>
       </c>
       <c r="BV48" s="2">
-        <v>-8005.2965022484404</v>
+        <v>-3601.9067408094384</v>
       </c>
     </row>
     <row r="49" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2">
-        <v>-690.37756756800002</v>
+        <v>-6496.9546777600008</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2">
-        <v>-690.37756756800002</v>
-      </c>
-      <c r="G49" s="10">
-        <v>-37.22</v>
-      </c>
+        <v>-6496.9546777600008</v>
+      </c>
+      <c r="G49" s="10"/>
       <c r="H49" s="2">
-        <v>-690.37756756800002</v>
-      </c>
-      <c r="I49" s="10">
-        <v>-74.73</v>
-      </c>
+        <v>-6496.9546777600008</v>
+      </c>
+      <c r="I49" s="10"/>
       <c r="J49" s="2">
-        <v>-692.35957164241017</v>
+        <v>-6521.3485740604337</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="2">
-        <v>-694.34726584977886</v>
+        <v>-6545.8125027665083</v>
       </c>
       <c r="M49" s="10">
-        <v>-629.34</v>
+        <f>-(136.34+123.69)</f>
+        <v>-260.02999999999997</v>
       </c>
       <c r="N49" s="2">
-        <v>-696.34066652590138</v>
+        <v>-6570.3466649341717</v>
       </c>
       <c r="O49" s="10"/>
       <c r="P49" s="2">
-        <v>-698.33979005347157</v>
+        <v>-6594.9512621965732</v>
       </c>
       <c r="Q49" s="10"/>
       <c r="R49" s="2">
-        <v>-700.34465286221644</v>
-      </c>
-      <c r="S49" s="10"/>
+        <v>-6619.6264967657407</v>
+      </c>
+      <c r="S49" s="10">
+        <v>-1938.54</v>
+      </c>
       <c r="T49" s="2">
-        <v>-702.35527142903072</v>
+        <v>-6644.3725714342254</v>
       </c>
       <c r="U49" s="10">
-        <v>-614.35</v>
+        <v>-2835.46</v>
       </c>
       <c r="V49" s="2">
-        <v>-704.37166227811304</v>
+        <v>-6669.1896895767768</v>
       </c>
       <c r="W49" s="10">
-        <v>-350.35</v>
+        <v>-1616.98</v>
       </c>
       <c r="X49" s="2">
-        <v>-706.3938419811011</v>
+        <v>-6694.0780551520147</v>
       </c>
       <c r="Y49" s="10"/>
       <c r="Z49" s="2">
-        <v>-708.42182715720833</v>
+        <v>-6719.0378727041043</v>
       </c>
       <c r="AA49" s="2">
-        <v>-710.45563447335996</v>
+        <v>-6744.0693473644315</v>
       </c>
       <c r="AB49" s="2">
-        <v>-712.49528064433025</v>
+        <v>-6769.1726848532962</v>
       </c>
       <c r="AC49" s="2">
-        <v>-714.54078243288029</v>
+        <v>-6794.3480914816046</v>
       </c>
       <c r="AD49" s="2">
-        <v>-716.59215664989483</v>
+        <v>-6819.5957741525526</v>
       </c>
       <c r="AE49" s="2">
-        <v>-718.64942015452141</v>
+        <v>-6844.9159403633403</v>
       </c>
       <c r="AF49" s="2">
-        <v>-720.71258985430813</v>
+        <v>-6870.3087982068701</v>
       </c>
       <c r="AG49" s="2">
-        <v>-722.78168270534331</v>
+        <v>-6895.774556373457</v>
       </c>
       <c r="AH49" s="2">
-        <v>-724.85671571239425</v>
+        <v>-6921.3134241525458</v>
       </c>
       <c r="AI49" s="2">
-        <v>-726.93770592904707</v>
+        <v>-6946.9256114344262</v>
       </c>
       <c r="AJ49" s="2">
-        <v>-729.02467045784726</v>
+        <v>-6972.6113287119679</v>
       </c>
       <c r="AK49" s="2">
-        <v>-731.11762645043996</v>
+        <v>-6998.37078708234</v>
       </c>
       <c r="AL49" s="2">
-        <v>-733.216591107711</v>
+        <v>-7024.2041982487517</v>
       </c>
       <c r="AM49" s="2">
-        <v>-735.32158167992782</v>
+        <v>-7050.1117745221891</v>
       </c>
       <c r="AN49" s="2">
-        <v>-737.43261546688223</v>
+        <v>-7076.0937288231653</v>
       </c>
       <c r="AO49" s="2">
-        <v>-739.54970981803137</v>
+        <v>-7102.1502746834631</v>
       </c>
       <c r="AP49" s="2">
-        <v>-741.67288213264135</v>
+        <v>-7128.2816262478937</v>
       </c>
       <c r="AQ49" s="2">
-        <v>-743.80214985992973</v>
+        <v>-7154.4879982760594</v>
       </c>
       <c r="AR49" s="2">
-        <v>-745.93753049920906</v>
+        <v>-7180.7696061441111</v>
       </c>
       <c r="AS49" s="2">
-        <v>-748.07904160003045</v>
+        <v>-7207.1266658465283</v>
       </c>
       <c r="AT49" s="2">
-        <v>-750.22670076232805</v>
+        <v>-7233.5593939978844</v>
       </c>
       <c r="AU49" s="2">
-        <v>-752.38052563656368</v>
+        <v>-7260.0680078346304</v>
       </c>
       <c r="AV49" s="2">
-        <v>-754.54053392387198</v>
+        <v>-7286.6527252168871</v>
       </c>
       <c r="AW49" s="2">
-        <v>-756.7067433762054</v>
+        <v>-7313.3137646302202</v>
       </c>
       <c r="AX49" s="2">
-        <v>-758.8791717964807</v>
+        <v>-7340.0513451874558</v>
       </c>
       <c r="AY49" s="2">
-        <v>-761.05783703872521</v>
+        <v>-7366.8656866304646</v>
       </c>
       <c r="AZ49" s="2">
-        <v>-763.24275700822307</v>
+        <v>-7393.7570093319773</v>
       </c>
       <c r="BA49" s="2">
-        <v>-765.4339496616625</v>
+        <v>-7420.7255342973858</v>
       </c>
       <c r="BB49" s="2">
-        <v>-767.63143300728393</v>
+        <v>-7447.7714831665726</v>
       </c>
       <c r="BC49" s="2">
-        <v>-769.83522510502746</v>
+        <v>-7474.8950782157244</v>
       </c>
       <c r="BD49" s="2">
-        <v>-772.04534406668165</v>
+        <v>-7502.0965423591588</v>
       </c>
       <c r="BE49" s="2">
-        <v>-774.26180805603167</v>
+        <v>-7529.3760991511608</v>
       </c>
       <c r="BF49" s="2">
-        <v>-776.4846352890097</v>
+        <v>-7556.7339727878134</v>
       </c>
       <c r="BG49" s="2">
-        <v>-778.71384403384366</v>
+        <v>-7584.1703881088451</v>
       </c>
       <c r="BH49" s="2">
-        <v>-780.94945261120768</v>
+        <v>-7611.6855705994803</v>
       </c>
       <c r="BI49" s="2">
-        <v>-783.19147939437278</v>
+        <v>-7639.2797463922816</v>
       </c>
       <c r="BJ49" s="2">
-        <v>-785.43994280935783</v>
+        <v>-7666.9531422690197</v>
       </c>
       <c r="BK49" s="2">
-        <v>-787.69486133508087</v>
+        <v>-7694.7059856625347</v>
       </c>
       <c r="BL49" s="2">
-        <v>-789.95625350351111</v>
+        <v>-7722.5385046585998</v>
       </c>
       <c r="BM49" s="2">
-        <v>-792.2241378998209</v>
+        <v>-7750.4509279977956</v>
       </c>
       <c r="BN49" s="2">
-        <v>-794.49853316253905</v>
+        <v>-7778.4434850774051</v>
       </c>
       <c r="BO49" s="2">
-        <v>-796.77945798370365</v>
+        <v>-7806.5164059532763</v>
       </c>
       <c r="BP49" s="2">
-        <v>-799.06693110901563</v>
+        <v>-7834.6699213417323</v>
       </c>
       <c r="BQ49" s="2">
-        <v>-801.36097133799308</v>
+        <v>-7862.9042626214541</v>
       </c>
       <c r="BR49" s="2">
-        <v>-803.66159752412534</v>
+        <v>-7891.2196618353901</v>
       </c>
       <c r="BS49" s="2">
-        <v>-805.96882857502851</v>
+        <v>-7919.616351692659</v>
       </c>
       <c r="BT49" s="2">
-        <v>-808.28268345260028</v>
+        <v>-7948.0945655704654</v>
       </c>
       <c r="BU49" s="2">
-        <v>-810.60318117317604</v>
+        <v>-7976.6545375160149</v>
       </c>
       <c r="BV49" s="2">
-        <v>-812.93034080768575</v>
+        <v>-8005.2965022484404</v>
       </c>
     </row>
     <row r="50" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2">
-        <v>-3186.3580041599998</v>
+        <v>-690.37756756800002</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2">
-        <v>-3186.3580041599998</v>
+        <v>-690.37756756800002</v>
       </c>
       <c r="G50" s="10">
-        <v>-172</v>
+        <v>-37.22</v>
       </c>
       <c r="H50" s="2">
-        <v>-3186.3580041599998</v>
+        <v>-690.37756756800002</v>
       </c>
       <c r="I50" s="10">
-        <v>-344.92</v>
+        <v>-74.73</v>
       </c>
       <c r="J50" s="2">
-        <v>-3195.5057152726622</v>
-      </c>
-      <c r="K50" s="10">
-        <v>-832.15</v>
-      </c>
+        <v>-692.35957164241017</v>
+      </c>
+      <c r="K50" s="10"/>
       <c r="L50" s="2">
-        <v>-3204.6796885374406</v>
+        <v>-694.34726584977886</v>
       </c>
       <c r="M50" s="10">
-        <v>-570.89</v>
+        <v>-629.34</v>
       </c>
       <c r="N50" s="2">
-        <v>-3213.8799993503139</v>
+        <v>-696.34066652590138</v>
       </c>
       <c r="O50" s="10"/>
       <c r="P50" s="2">
-        <v>-3223.106723323715</v>
+        <v>-698.33979005347157</v>
       </c>
       <c r="Q50" s="10"/>
       <c r="R50" s="2">
-        <v>-3232.3599362871523</v>
-      </c>
-      <c r="S50" s="10">
-        <v>-1407.76</v>
-      </c>
+        <v>-700.34465286221644</v>
+      </c>
+      <c r="S50" s="10"/>
       <c r="T50" s="2">
-        <v>-3241.6397142878341</v>
+        <v>-702.35527142903072</v>
       </c>
       <c r="U50" s="10">
-        <v>-2722.04</v>
+        <v>-614.35</v>
       </c>
       <c r="V50" s="2">
-        <v>-3250.9461335912911</v>
-      </c>
-      <c r="W50" s="10"/>
+        <v>-704.37166227811304</v>
+      </c>
+      <c r="W50" s="10">
+        <v>-350.35</v>
+      </c>
       <c r="X50" s="2">
-        <v>-3260.2792706820051</v>
+        <v>-706.3938419811011</v>
       </c>
       <c r="Y50" s="10"/>
       <c r="Z50" s="2">
-        <v>-3269.6392022640384</v>
+        <v>-708.42182715720833</v>
       </c>
       <c r="AA50" s="2">
-        <v>-3279.0260052616613</v>
+        <v>-710.45563447335996</v>
       </c>
       <c r="AB50" s="2">
-        <v>-3288.4397568199856</v>
+        <v>-712.49528064433025</v>
       </c>
       <c r="AC50" s="2">
-        <v>-3297.8805343056015</v>
+        <v>-714.54078243288029</v>
       </c>
       <c r="AD50" s="2">
-        <v>-3307.3484153072072</v>
+        <v>-716.59215664989483</v>
       </c>
       <c r="AE50" s="2">
-        <v>-3316.8434776362528</v>
+        <v>-718.64942015452141</v>
       </c>
       <c r="AF50" s="2">
-        <v>-3326.365799327576</v>
+        <v>-720.71258985430813</v>
       </c>
       <c r="AG50" s="2">
-        <v>-3335.9154586400459</v>
+        <v>-722.78168270534331</v>
       </c>
       <c r="AH50" s="2">
-        <v>-3345.4925340572045</v>
+        <v>-724.85671571239425</v>
       </c>
       <c r="AI50" s="2">
-        <v>-3355.0971042879096</v>
+        <v>-726.93770592904707</v>
       </c>
       <c r="AJ50" s="2">
-        <v>-3364.7292482669877</v>
+        <v>-729.02467045784726</v>
       </c>
       <c r="AK50" s="2">
-        <v>-3374.3890451558768</v>
+        <v>-731.11762645043996</v>
       </c>
       <c r="AL50" s="2">
-        <v>-3384.0765743432812</v>
+        <v>-733.216591107711</v>
       </c>
       <c r="AM50" s="2">
-        <v>-3393.7919154458209</v>
+        <v>-735.32158167992782</v>
       </c>
       <c r="AN50" s="2">
-        <v>-3403.535148308687</v>
+        <v>-737.43261546688223</v>
       </c>
       <c r="AO50" s="2">
-        <v>-3413.3063530062987</v>
+        <v>-739.54970981803137</v>
       </c>
       <c r="AP50" s="2">
-        <v>-3423.1056098429603</v>
+        <v>-741.67288213264135</v>
       </c>
       <c r="AQ50" s="2">
-        <v>-3432.9329993535216</v>
+        <v>-743.80214985992973</v>
       </c>
       <c r="AR50" s="2">
-        <v>-3442.7886023040419</v>
+        <v>-745.93753049920906</v>
       </c>
       <c r="AS50" s="2">
-        <v>-3452.6724996924481</v>
+        <v>-748.07904160003045</v>
       </c>
       <c r="AT50" s="2">
-        <v>-3462.5847727492064</v>
+        <v>-750.22670076232805</v>
       </c>
       <c r="AU50" s="2">
-        <v>-3472.5255029379864</v>
+        <v>-752.38052563656368</v>
       </c>
       <c r="AV50" s="2">
-        <v>-3482.494771956332</v>
+        <v>-754.54053392387198</v>
       </c>
       <c r="AW50" s="2">
-        <v>-3492.4926617363326</v>
+        <v>-756.7067433762054</v>
       </c>
       <c r="AX50" s="2">
-        <v>-3502.5192544452957</v>
+        <v>-758.8791717964807</v>
       </c>
       <c r="AY50" s="2">
-        <v>-3512.574632486424</v>
+        <v>-761.05783703872521</v>
       </c>
       <c r="AZ50" s="2">
-        <v>-3522.658878499491</v>
+        <v>-763.24275700822307</v>
       </c>
       <c r="BA50" s="2">
-        <v>-3532.7720753615195</v>
+        <v>-765.4339496616625</v>
       </c>
       <c r="BB50" s="2">
-        <v>-3542.9143061874643</v>
+        <v>-767.63143300728393</v>
       </c>
       <c r="BC50" s="2">
-        <v>-3553.0856543308964</v>
+        <v>-769.83522510502746</v>
       </c>
       <c r="BD50" s="2">
-        <v>-3563.2862033846845</v>
+        <v>-772.04534406668165</v>
       </c>
       <c r="BE50" s="2">
-        <v>-3573.5160371816846</v>
+        <v>-774.26180805603167</v>
       </c>
       <c r="BF50" s="2">
-        <v>-3583.7752397954296</v>
+        <v>-776.4846352890097</v>
       </c>
       <c r="BG50" s="2">
-        <v>-3594.0638955408172</v>
+        <v>-778.71384403384366</v>
       </c>
       <c r="BH50" s="2">
-        <v>-3604.3820889748049</v>
+        <v>-780.94945261120768</v>
       </c>
       <c r="BI50" s="2">
-        <v>-3614.7299048971054</v>
+        <v>-783.19147939437278</v>
       </c>
       <c r="BJ50" s="2">
-        <v>-3625.1074283508824</v>
+        <v>-785.43994280935783</v>
       </c>
       <c r="BK50" s="2">
-        <v>-3635.51474462345</v>
+        <v>-787.69486133508087</v>
       </c>
       <c r="BL50" s="2">
-        <v>-3645.9519392469742</v>
+        <v>-789.95625350351111</v>
       </c>
       <c r="BM50" s="2">
-        <v>-3656.4190979991736</v>
+        <v>-792.2241378998209</v>
       </c>
       <c r="BN50" s="2">
-        <v>-3666.9163069040264</v>
+        <v>-794.49853316253905</v>
       </c>
       <c r="BO50" s="2">
-        <v>-3677.4436522324781</v>
+        <v>-796.77945798370365</v>
       </c>
       <c r="BP50" s="2">
-        <v>-3688.0012205031494</v>
+        <v>-799.06693110901563</v>
       </c>
       <c r="BQ50" s="2">
-        <v>-3698.5890984830453</v>
+        <v>-801.36097133799308</v>
       </c>
       <c r="BR50" s="2">
-        <v>-3709.2073731882706</v>
+        <v>-803.66159752412534</v>
       </c>
       <c r="BS50" s="2">
-        <v>-3719.8561318847469</v>
+        <v>-805.96882857502851</v>
       </c>
       <c r="BT50" s="2">
-        <v>-3730.5354620889243</v>
+        <v>-808.28268345260028</v>
       </c>
       <c r="BU50" s="2">
-        <v>-3741.2454515685049</v>
+        <v>-810.60318117317604</v>
       </c>
       <c r="BV50" s="2">
-        <v>-3751.9861883431649</v>
-      </c>
-      <c r="BW50" s="2"/>
-      <c r="BX50" s="2"/>
+        <v>-812.93034080768575</v>
+      </c>
     </row>
     <row r="51" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="4"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2">
+        <v>-3186.3580041599998</v>
+      </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="2"/>
+      <c r="F51" s="2">
+        <v>-3186.3580041599998</v>
+      </c>
+      <c r="G51" s="10">
+        <v>-172</v>
+      </c>
+      <c r="H51" s="2">
+        <v>-3186.3580041599998</v>
+      </c>
+      <c r="I51" s="10">
+        <v>-344.92</v>
+      </c>
+      <c r="J51" s="2">
+        <v>-3195.5057152726622</v>
+      </c>
+      <c r="K51" s="10">
+        <v>-832.15</v>
+      </c>
+      <c r="L51" s="2">
+        <v>-3204.6796885374406</v>
+      </c>
+      <c r="M51" s="10">
+        <v>-570.89</v>
+      </c>
+      <c r="N51" s="2">
+        <v>-3213.8799993503139</v>
+      </c>
       <c r="O51" s="10"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
-      <c r="AG51" s="2"/>
-      <c r="AH51" s="2"/>
-      <c r="AI51" s="2"/>
-      <c r="AJ51" s="2"/>
-      <c r="AK51" s="2"/>
-      <c r="AL51" s="2"/>
-      <c r="AM51" s="2"/>
-      <c r="AN51" s="2"/>
-      <c r="AO51" s="2"/>
-      <c r="AP51" s="2"/>
-      <c r="AQ51" s="2"/>
-      <c r="AR51" s="2"/>
-      <c r="AS51" s="2"/>
-      <c r="AT51" s="2"/>
-      <c r="AU51" s="2"/>
-      <c r="AV51" s="2"/>
-      <c r="AW51" s="2"/>
-      <c r="AX51" s="2"/>
-      <c r="AY51" s="2"/>
-      <c r="AZ51" s="2"/>
-      <c r="BA51" s="2"/>
-      <c r="BB51" s="2"/>
-      <c r="BC51" s="2"/>
-      <c r="BD51" s="2"/>
-      <c r="BE51" s="2"/>
-      <c r="BF51" s="2"/>
-      <c r="BG51" s="2"/>
-      <c r="BH51" s="2"/>
-      <c r="BI51" s="2"/>
-      <c r="BJ51" s="2"/>
-      <c r="BK51" s="2"/>
-      <c r="BL51" s="2"/>
-      <c r="BM51" s="2"/>
-      <c r="BN51" s="2"/>
-      <c r="BO51" s="2"/>
-      <c r="BP51" s="2"/>
-      <c r="BQ51" s="2"/>
-      <c r="BR51" s="2"/>
-      <c r="BS51" s="2"/>
-      <c r="BT51" s="2"/>
-      <c r="BU51" s="2"/>
-      <c r="BV51" s="2"/>
+      <c r="P51" s="2">
+        <v>-3223.106723323715</v>
+      </c>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="2">
+        <v>-3232.3599362871523</v>
+      </c>
+      <c r="S51" s="10">
+        <v>-1407.76</v>
+      </c>
+      <c r="T51" s="2">
+        <v>-3241.6397142878341</v>
+      </c>
+      <c r="U51" s="10">
+        <v>-2722.04</v>
+      </c>
+      <c r="V51" s="2">
+        <v>-3250.9461335912911</v>
+      </c>
+      <c r="W51" s="10"/>
+      <c r="X51" s="2">
+        <v>-3260.2792706820051</v>
+      </c>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="2">
+        <v>-3269.6392022640384</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>-3279.0260052616613</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>-3288.4397568199856</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>-3297.8805343056015</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>-3307.3484153072072</v>
+      </c>
+      <c r="AE51" s="2">
+        <v>-3316.8434776362528</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>-3326.365799327576</v>
+      </c>
+      <c r="AG51" s="2">
+        <v>-3335.9154586400459</v>
+      </c>
+      <c r="AH51" s="2">
+        <v>-3345.4925340572045</v>
+      </c>
+      <c r="AI51" s="2">
+        <v>-3355.0971042879096</v>
+      </c>
+      <c r="AJ51" s="2">
+        <v>-3364.7292482669877</v>
+      </c>
+      <c r="AK51" s="2">
+        <v>-3374.3890451558768</v>
+      </c>
+      <c r="AL51" s="2">
+        <v>-3384.0765743432812</v>
+      </c>
+      <c r="AM51" s="2">
+        <v>-3393.7919154458209</v>
+      </c>
+      <c r="AN51" s="2">
+        <v>-3403.535148308687</v>
+      </c>
+      <c r="AO51" s="2">
+        <v>-3413.3063530062987</v>
+      </c>
+      <c r="AP51" s="2">
+        <v>-3423.1056098429603</v>
+      </c>
+      <c r="AQ51" s="2">
+        <v>-3432.9329993535216</v>
+      </c>
+      <c r="AR51" s="2">
+        <v>-3442.7886023040419</v>
+      </c>
+      <c r="AS51" s="2">
+        <v>-3452.6724996924481</v>
+      </c>
+      <c r="AT51" s="2">
+        <v>-3462.5847727492064</v>
+      </c>
+      <c r="AU51" s="2">
+        <v>-3472.5255029379864</v>
+      </c>
+      <c r="AV51" s="2">
+        <v>-3482.494771956332</v>
+      </c>
+      <c r="AW51" s="2">
+        <v>-3492.4926617363326</v>
+      </c>
+      <c r="AX51" s="2">
+        <v>-3502.5192544452957</v>
+      </c>
+      <c r="AY51" s="2">
+        <v>-3512.574632486424</v>
+      </c>
+      <c r="AZ51" s="2">
+        <v>-3522.658878499491</v>
+      </c>
+      <c r="BA51" s="2">
+        <v>-3532.7720753615195</v>
+      </c>
+      <c r="BB51" s="2">
+        <v>-3542.9143061874643</v>
+      </c>
+      <c r="BC51" s="2">
+        <v>-3553.0856543308964</v>
+      </c>
+      <c r="BD51" s="2">
+        <v>-3563.2862033846845</v>
+      </c>
+      <c r="BE51" s="2">
+        <v>-3573.5160371816846</v>
+      </c>
+      <c r="BF51" s="2">
+        <v>-3583.7752397954296</v>
+      </c>
+      <c r="BG51" s="2">
+        <v>-3594.0638955408172</v>
+      </c>
+      <c r="BH51" s="2">
+        <v>-3604.3820889748049</v>
+      </c>
+      <c r="BI51" s="2">
+        <v>-3614.7299048971054</v>
+      </c>
+      <c r="BJ51" s="2">
+        <v>-3625.1074283508824</v>
+      </c>
+      <c r="BK51" s="2">
+        <v>-3635.51474462345</v>
+      </c>
+      <c r="BL51" s="2">
+        <v>-3645.9519392469742</v>
+      </c>
+      <c r="BM51" s="2">
+        <v>-3656.4190979991736</v>
+      </c>
+      <c r="BN51" s="2">
+        <v>-3666.9163069040264</v>
+      </c>
+      <c r="BO51" s="2">
+        <v>-3677.4436522324781</v>
+      </c>
+      <c r="BP51" s="2">
+        <v>-3688.0012205031494</v>
+      </c>
+      <c r="BQ51" s="2">
+        <v>-3698.5890984830453</v>
+      </c>
+      <c r="BR51" s="2">
+        <v>-3709.2073731882706</v>
+      </c>
+      <c r="BS51" s="2">
+        <v>-3719.8561318847469</v>
+      </c>
+      <c r="BT51" s="2">
+        <v>-3730.5354620889243</v>
+      </c>
+      <c r="BU51" s="2">
+        <v>-3741.2454515685049</v>
+      </c>
+      <c r="BV51" s="2">
+        <v>-3751.9861883431649</v>
+      </c>
       <c r="BW51" s="2"/>
       <c r="BX51" s="2"/>
     </row>
@@ -7960,72 +8021,148 @@
       <c r="BT52" s="2"/>
       <c r="BU52" s="2"/>
       <c r="BV52" s="2"/>
+      <c r="BW52" s="2"/>
+      <c r="BX52" s="2"/>
     </row>
-    <row r="54" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54">
-        <v>295</v>
-      </c>
-      <c r="D54" s="18">
-        <v>877</v>
-      </c>
-      <c r="E54">
-        <v>272</v>
-      </c>
-      <c r="F54">
-        <v>880</v>
-      </c>
-      <c r="G54">
-        <v>390</v>
-      </c>
-      <c r="H54">
-        <v>880</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>882</v>
-      </c>
-      <c r="K54" s="11">
-        <v>580</v>
-      </c>
-      <c r="L54">
-        <v>885</v>
-      </c>
-      <c r="M54">
-        <v>492</v>
-      </c>
-      <c r="N54">
-        <v>818</v>
-      </c>
-      <c r="O54" s="11">
-        <v>633</v>
-      </c>
-      <c r="Q54">
-        <v>520</v>
-      </c>
-      <c r="S54" s="11">
-        <v>523</v>
-      </c>
-      <c r="U54">
-        <v>468</v>
-      </c>
-      <c r="W54" s="11">
-        <v>299</v>
-      </c>
-      <c r="Y54">
-        <v>750</v>
-      </c>
+    <row r="53" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="2"/>
+      <c r="AM53" s="2"/>
+      <c r="AN53" s="2"/>
+      <c r="AO53" s="2"/>
+      <c r="AP53" s="2"/>
+      <c r="AQ53" s="2"/>
+      <c r="AR53" s="2"/>
+      <c r="AS53" s="2"/>
+      <c r="AT53" s="2"/>
+      <c r="AU53" s="2"/>
+      <c r="AV53" s="2"/>
+      <c r="AW53" s="2"/>
+      <c r="AX53" s="2"/>
+      <c r="AY53" s="2"/>
+      <c r="AZ53" s="2"/>
+      <c r="BA53" s="2"/>
+      <c r="BB53" s="2"/>
+      <c r="BC53" s="2"/>
+      <c r="BD53" s="2"/>
+      <c r="BE53" s="2"/>
+      <c r="BF53" s="2"/>
+      <c r="BG53" s="2"/>
+      <c r="BH53" s="2"/>
+      <c r="BI53" s="2"/>
+      <c r="BJ53" s="2"/>
+      <c r="BK53" s="2"/>
+      <c r="BL53" s="2"/>
+      <c r="BM53" s="2"/>
+      <c r="BN53" s="2"/>
+      <c r="BO53" s="2"/>
+      <c r="BP53" s="2"/>
+      <c r="BQ53" s="2"/>
+      <c r="BR53" s="2"/>
+      <c r="BS53" s="2"/>
+      <c r="BT53" s="2"/>
+      <c r="BU53" s="2"/>
+      <c r="BV53" s="2"/>
     </row>
     <row r="55" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
+      <c r="A55" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55">
+        <v>295</v>
+      </c>
+      <c r="D55" s="18">
+        <v>877</v>
+      </c>
+      <c r="E55">
+        <v>272</v>
+      </c>
+      <c r="F55">
+        <v>880</v>
+      </c>
+      <c r="G55">
+        <v>390</v>
+      </c>
+      <c r="H55">
+        <v>880</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>882</v>
+      </c>
+      <c r="K55" s="11">
+        <v>580</v>
+      </c>
+      <c r="L55">
+        <v>885</v>
+      </c>
+      <c r="M55">
+        <v>492</v>
+      </c>
+      <c r="N55">
+        <v>818</v>
+      </c>
+      <c r="O55" s="11">
+        <v>633</v>
+      </c>
+      <c r="Q55">
+        <v>520</v>
+      </c>
+      <c r="S55" s="11">
+        <v>523</v>
+      </c>
+      <c r="U55">
+        <v>468</v>
+      </c>
+      <c r="W55" s="11">
+        <v>299</v>
+      </c>
+      <c r="Y55">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="56" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:BX32">
-    <sortCondition ref="A18:A32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:BX33">
+    <sortCondition ref="A19:A33"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Energy - Orçado x Realizado.xlsx
+++ b/Energy - Orçado x Realizado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Controle Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AC3EE0-1F19-4F4C-852D-146860C2EE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10454405-3B04-4287-A6EC-9C8C4917B0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30570" yWindow="195" windowWidth="26805" windowHeight="15405" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>Receita Bruta</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Projeto - Assessoria Safe Trade</t>
   </si>
   <si>
-    <t>Reembolso Energy Aporte a Maior</t>
-  </si>
-  <si>
     <t>Receitas</t>
   </si>
   <si>
@@ -171,6 +168,12 @@
   </si>
   <si>
     <t>Reembolso Aporte a Maior Energy</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>BLUCABOS</t>
   </si>
 </sst>
 </file>
@@ -378,7 +381,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -711,10 +725,10 @@
   <dimension ref="A1:BX56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="J25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y47" sqref="Y47"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -799,58 +813,64 @@
       <c r="W1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="13"/>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B2" s="31"/>
+      <c r="B2" s="31" t="s">
+        <v>44</v>
+      </c>
       <c r="C2" s="2">
-        <f>C4+C14</f>
-        <v>-88500.33</v>
+        <f>A2+C4+C14</f>
+        <v>13043.350000000006</v>
       </c>
       <c r="E2" s="2">
         <f>C2+E4+E14</f>
-        <v>-181098.52</v>
+        <v>28338.030000000006</v>
       </c>
       <c r="G2" s="2">
         <f>E2+G4+G14</f>
-        <v>-190017.93</v>
+        <v>19438.619999999995</v>
       </c>
       <c r="I2" s="2">
         <f>G2+I4+I14</f>
-        <v>-209436.28999999998</v>
+        <v>62.779999999998836</v>
       </c>
       <c r="K2" s="2">
         <f>I2+K4+K14</f>
-        <v>-186204.24999999997</v>
+        <v>23294.82</v>
       </c>
       <c r="M2" s="2">
         <f>K2+M4+M14</f>
-        <v>-200482.91</v>
+        <v>9781.8099999999686</v>
       </c>
       <c r="O2" s="2">
         <f>M2+O4+O14</f>
-        <v>-193605.75999999998</v>
+        <v>33385.459999999963</v>
       </c>
       <c r="Q2" s="2">
         <f>O2+Q4+Q14</f>
-        <v>-199972.36999999997</v>
+        <v>27018.849999999977</v>
       </c>
       <c r="S2" s="2">
         <f>Q2+S4+S14</f>
-        <v>-120537.15999999997</v>
+        <v>103288.74999999997</v>
       </c>
       <c r="U2" s="2">
         <f>S2+U4+U14</f>
-        <v>-170568.61999999997</v>
+        <v>48849.549999999988</v>
       </c>
       <c r="W2" s="2">
         <f>U2+W4+W14</f>
-        <v>196090.03999999992</v>
+        <v>172138.20999999996</v>
       </c>
       <c r="Y2" s="2">
         <f>W2+Y4+Y14</f>
-        <v>196090.03999999992</v>
+        <v>30928.919999999955</v>
       </c>
     </row>
     <row r="3" spans="1:74" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -920,10 +940,10 @@
         <v>45870</v>
       </c>
       <c r="X3" s="30">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="Y3" s="30">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="Z3" s="30">
         <v>46235</v>
@@ -1079,300 +1099,300 @@
       </c>
       <c r="B4" s="7">
         <f>C4+E4+G4+I4+K4+M4+O4+Q4+S4+U4+W4+Y4</f>
-        <v>1897307.3099999998</v>
-      </c>
-      <c r="C4" s="5">
-        <f>SUM(C6:C7)</f>
-        <v>0</v>
+        <v>2007193.96</v>
+      </c>
+      <c r="C4" s="15">
+        <f t="shared" ref="C4:AH4" si="0">C5+C8</f>
+        <v>65100</v>
       </c>
       <c r="D4" s="5">
-        <f>D5+D8</f>
+        <f t="shared" si="0"/>
         <v>2006615.5435777036</v>
       </c>
       <c r="E4" s="5">
-        <f>E5+E8</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>70001</v>
       </c>
       <c r="F4" s="5">
-        <f>F5+F8</f>
+        <f t="shared" si="0"/>
         <v>106615.54357770366</v>
       </c>
       <c r="G4" s="5">
-        <f>G5+G8</f>
-        <v>166376.69</v>
+        <f t="shared" si="0"/>
+        <v>166396.69</v>
       </c>
       <c r="H4" s="5">
-        <f>H5+H8</f>
+        <f t="shared" si="0"/>
         <v>106593.93710049389</v>
       </c>
       <c r="I4" s="5">
-        <f>I5+I8</f>
+        <f t="shared" si="0"/>
         <v>107225</v>
       </c>
       <c r="J4" s="5">
-        <f>J5+J8</f>
+        <f t="shared" si="0"/>
         <v>106899.95749797703</v>
       </c>
       <c r="K4" s="5">
-        <f>K5+K8</f>
+        <f t="shared" si="0"/>
         <v>30916.34</v>
       </c>
       <c r="L4" s="5">
-        <f>L5+L8</f>
+        <f t="shared" si="0"/>
         <v>107206.85644902731</v>
       </c>
       <c r="M4" s="5">
-        <f>M5+M8</f>
-        <v>142985.09</v>
+        <f t="shared" si="0"/>
+        <v>143750.74</v>
       </c>
       <c r="N4" s="5">
-        <f>N5+N8</f>
+        <f t="shared" si="0"/>
         <v>107514.63647588308</v>
       </c>
       <c r="O4" s="5">
-        <f>O5+O8</f>
+        <f t="shared" si="0"/>
         <v>349064.35</v>
       </c>
       <c r="P4" s="5">
-        <f>P5+P8</f>
+        <f t="shared" si="0"/>
         <v>107823.30010802369</v>
       </c>
       <c r="Q4" s="5">
-        <f>Q5+Q8</f>
+        <f t="shared" si="0"/>
         <v>180000</v>
       </c>
       <c r="R4" s="5">
-        <f>R5+R8</f>
+        <f t="shared" si="0"/>
         <v>108132.84988219042</v>
       </c>
       <c r="S4" s="5">
-        <f>S5+S8</f>
+        <f t="shared" si="0"/>
         <v>89978.67</v>
       </c>
       <c r="T4" s="5">
-        <f>T5+T8</f>
+        <f t="shared" si="0"/>
         <v>108842.82003705943</v>
       </c>
       <c r="U4" s="5">
-        <f>U5+U8</f>
+        <f t="shared" si="0"/>
         <v>89119.25</v>
       </c>
       <c r="V4" s="5">
-        <f>V5+V8</f>
+        <f t="shared" si="0"/>
         <v>109556.97743247374</v>
       </c>
       <c r="W4" s="5">
-        <f>W5+W8</f>
-        <v>741641.91999999993</v>
+        <f t="shared" si="0"/>
+        <v>715641.91999999993</v>
       </c>
       <c r="X4" s="5">
-        <f>X5+X8</f>
+        <f t="shared" si="0"/>
         <v>110275.34581702357</v>
       </c>
       <c r="Y4" s="5">
-        <f>Y5+Y8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z4" s="5">
-        <f>Z5+Z8</f>
+        <f t="shared" si="0"/>
         <v>110997.94907147787</v>
       </c>
       <c r="AA4" s="5">
-        <f>AA5+AA8</f>
+        <f t="shared" si="0"/>
         <v>111500.81807781129</v>
       </c>
       <c r="AB4" s="5">
-        <f>AB5+AB8</f>
+        <f t="shared" si="0"/>
         <v>112231.19461044938</v>
       </c>
       <c r="AC4" s="5">
-        <f>AC5+AC8</f>
+        <f t="shared" si="0"/>
         <v>112955.55421269746</v>
       </c>
       <c r="AD4" s="5">
-        <f>AD5+AD8</f>
+        <f t="shared" si="0"/>
         <v>113488.68408053627</v>
       </c>
       <c r="AE4" s="5">
-        <f>AE5+AE8</f>
+        <f t="shared" si="0"/>
         <v>114022.34594505926</v>
       </c>
       <c r="AF4" s="5">
-        <f>AF5+AF8</f>
+        <f t="shared" si="0"/>
         <v>114557.3798253882</v>
       </c>
       <c r="AG4" s="5">
-        <f>AG5+AG8</f>
+        <f t="shared" si="0"/>
         <v>115093.79314638168</v>
       </c>
       <c r="AH4" s="5">
-        <f>AH5+AH8</f>
+        <f t="shared" si="0"/>
         <v>115631.58971258732</v>
       </c>
       <c r="AI4" s="5">
-        <f>AI5+AI8</f>
+        <f t="shared" ref="AI4:BN4" si="1">AI5+AI8</f>
         <v>116170.77332340677</v>
       </c>
       <c r="AJ4" s="5">
-        <f>AJ5+AJ8</f>
+        <f t="shared" si="1"/>
         <v>116711.34778889181</v>
       </c>
       <c r="AK4" s="5">
-        <f>AK5+AK8</f>
+        <f t="shared" si="1"/>
         <v>117253.31692984366</v>
       </c>
       <c r="AL4" s="5">
-        <f>AL5+AL8</f>
+        <f t="shared" si="1"/>
         <v>117796.68457784381</v>
       </c>
       <c r="AM4" s="5">
-        <f>AM5+AM8</f>
+        <f t="shared" si="1"/>
         <v>118295.08799702271</v>
       </c>
       <c r="AN4" s="5">
-        <f>AN5+AN8</f>
+        <f t="shared" si="1"/>
         <v>118841.05812756054</v>
       </c>
       <c r="AO4" s="5">
-        <f>AO5+AO8</f>
+        <f t="shared" si="1"/>
         <v>119388.63976029815</v>
       </c>
       <c r="AP4" s="5">
-        <f>AP5+AP8</f>
+        <f t="shared" si="1"/>
         <v>119937.6363443998</v>
       </c>
       <c r="AQ4" s="5">
-        <f>AQ5+AQ8</f>
+        <f t="shared" si="1"/>
         <v>120488.05089229152</v>
       </c>
       <c r="AR4" s="5">
-        <f>AR5+AR8</f>
+        <f t="shared" si="1"/>
         <v>121039.88729760991</v>
       </c>
       <c r="AS4" s="5">
-        <f>AS5+AS8</f>
+        <f t="shared" si="1"/>
         <v>121593.14946878582</v>
       </c>
       <c r="AT4" s="5">
-        <f>AT5+AT8</f>
+        <f t="shared" si="1"/>
         <v>122147.84132529711</v>
       </c>
       <c r="AU4" s="5">
-        <f>AU5+AU8</f>
+        <f t="shared" si="1"/>
         <v>122703.96679768368</v>
       </c>
       <c r="AV4" s="5">
-        <f>AV5+AV8</f>
+        <f t="shared" si="1"/>
         <v>123261.52982757895</v>
       </c>
       <c r="AW4" s="5">
-        <f>AW5+AW8</f>
+        <f t="shared" si="1"/>
         <v>123820.53436774146</v>
       </c>
       <c r="AX4" s="5">
-        <f>AX5+AX8</f>
+        <f t="shared" si="1"/>
         <v>124380.98438208665</v>
       </c>
       <c r="AY4" s="5">
-        <f>AY5+AY8</f>
+        <f t="shared" si="1"/>
         <v>124894.89443721721</v>
       </c>
       <c r="AZ4" s="5">
-        <f>AZ5+AZ8</f>
+        <f t="shared" si="1"/>
         <v>125458.03405444659</v>
       </c>
       <c r="BA4" s="5">
-        <f>BA5+BA8</f>
+        <f t="shared" si="1"/>
         <v>126022.83959052119</v>
       </c>
       <c r="BB4" s="5">
-        <f>BB5+BB8</f>
+        <f t="shared" si="1"/>
         <v>126589.10761355137</v>
       </c>
       <c r="BC4" s="5">
-        <f>BC5+BC8</f>
+        <f t="shared" si="1"/>
         <v>127156.84123962262</v>
       </c>
       <c r="BD4" s="5">
-        <f>BD5+BD8</f>
+        <f t="shared" si="1"/>
         <v>127726.04449687258</v>
       </c>
       <c r="BE4" s="5">
-        <f>BE5+BE8</f>
+        <f t="shared" si="1"/>
         <v>128296.72142875013</v>
       </c>
       <c r="BF4" s="5">
-        <f>BF5+BF8</f>
+        <f t="shared" si="1"/>
         <v>128868.87609013708</v>
       </c>
       <c r="BG4" s="5">
-        <f>BG5+BG8</f>
+        <f t="shared" si="1"/>
         <v>129442.51254736367</v>
       </c>
       <c r="BH4" s="5">
-        <f>BH5+BH8</f>
+        <f t="shared" si="1"/>
         <v>129968.9979181941</v>
       </c>
       <c r="BI4" s="5">
-        <f>BI5+BI8</f>
+        <f t="shared" si="1"/>
         <v>130478.76360789448</v>
       </c>
       <c r="BJ4" s="5">
-        <f>BJ5+BJ8</f>
+        <f t="shared" si="1"/>
         <v>130989.42291756609</v>
       </c>
       <c r="BK4" s="5">
-        <f>BK5+BK8</f>
+        <f t="shared" si="1"/>
         <v>131501.07479386276</v>
       </c>
       <c r="BL4" s="5">
-        <f>BL5+BL8</f>
+        <f t="shared" si="1"/>
         <v>132013.72261231358</v>
       </c>
       <c r="BM4" s="5">
-        <f>BM5+BM8</f>
+        <f t="shared" si="1"/>
         <v>132527.36923503783</v>
       </c>
       <c r="BN4" s="5">
-        <f>BN5+BN8</f>
+        <f t="shared" si="1"/>
         <v>133042.01752951712</v>
       </c>
       <c r="BO4" s="5">
-        <f>BO5+BO8</f>
+        <f t="shared" ref="BO4:CT4" si="2">BO5+BO8</f>
         <v>133557.67037144973</v>
       </c>
       <c r="BP4" s="5">
-        <f>BP5+BP8</f>
+        <f t="shared" si="2"/>
         <v>134074.33064478962</v>
       </c>
       <c r="BQ4" s="5">
-        <f>BQ5+BQ8</f>
+        <f t="shared" si="2"/>
         <v>134592.00124177034</v>
       </c>
       <c r="BR4" s="5">
-        <f>BR5+BR8</f>
+        <f t="shared" si="2"/>
         <v>135110.68506292874</v>
       </c>
       <c r="BS4" s="5">
-        <f>BS5+BS8</f>
+        <f t="shared" si="2"/>
         <v>135630.38501712884</v>
       </c>
       <c r="BT4" s="5">
-        <f>BT5+BT8</f>
+        <f t="shared" si="2"/>
         <v>136151.1040215856</v>
       </c>
       <c r="BU4" s="5">
-        <f>BU5+BU8</f>
+        <f t="shared" si="2"/>
         <v>136672.84500188916</v>
       </c>
       <c r="BV4" s="5">
-        <f>BV5+BV8</f>
+        <f t="shared" si="2"/>
         <v>125066.2062781055</v>
       </c>
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="15">
@@ -1383,283 +1403,283 @@
         <v>106615.54357770366</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:BQ5" si="0">SUM(E6:E7)</f>
+        <f t="shared" ref="E5:BQ5" si="3">SUM(E6:E7)</f>
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>106615.54357770366</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="0"/>
-        <v>16376.69</v>
+        <f t="shared" si="3"/>
+        <v>16396.690000000002</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>106593.93710049389</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>106899.95749797703</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>20916.34</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>107206.85644902731</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>18116.34</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>107514.63647588308</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>29064.35</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>107823.30010802369</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>108132.84988219042</v>
       </c>
       <c r="S5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>89978.67</v>
       </c>
       <c r="T5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>108842.82003705943</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>51312.25</v>
       </c>
       <c r="V5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>109556.97743247374</v>
       </c>
       <c r="W5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>68758.320000000007</v>
       </c>
       <c r="X5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>110275.34581702357</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" ref="Y5" si="1">SUM(Y6:Y7)</f>
+        <f t="shared" ref="Y5" si="4">SUM(Y6:Y7)</f>
         <v>0</v>
       </c>
       <c r="Z5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>110997.94907147787</v>
       </c>
       <c r="AA5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>111500.81807781129</v>
       </c>
       <c r="AB5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>112231.19461044938</v>
       </c>
       <c r="AC5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>112955.55421269746</v>
       </c>
       <c r="AD5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>113488.68408053627</v>
       </c>
       <c r="AE5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>114022.34594505926</v>
       </c>
       <c r="AF5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>114557.3798253882</v>
       </c>
       <c r="AG5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>115093.79314638168</v>
       </c>
       <c r="AH5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>115631.58971258732</v>
       </c>
       <c r="AI5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>116170.77332340677</v>
       </c>
       <c r="AJ5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>116711.34778889181</v>
       </c>
       <c r="AK5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>117253.31692984366</v>
       </c>
       <c r="AL5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>117796.68457784381</v>
       </c>
       <c r="AM5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>118295.08799702271</v>
       </c>
       <c r="AN5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>118841.05812756054</v>
       </c>
       <c r="AO5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>119388.63976029815</v>
       </c>
       <c r="AP5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>119937.6363443998</v>
       </c>
       <c r="AQ5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>120488.05089229152</v>
       </c>
       <c r="AR5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>121039.88729760991</v>
       </c>
       <c r="AS5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>121593.14946878582</v>
       </c>
       <c r="AT5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>122147.84132529711</v>
       </c>
       <c r="AU5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>122703.96679768368</v>
       </c>
       <c r="AV5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>123261.52982757895</v>
       </c>
       <c r="AW5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>123820.53436774146</v>
       </c>
       <c r="AX5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>124380.98438208665</v>
       </c>
       <c r="AY5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>124894.89443721721</v>
       </c>
       <c r="AZ5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>125458.03405444659</v>
       </c>
       <c r="BA5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>126022.83959052119</v>
       </c>
       <c r="BB5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>126589.10761355137</v>
       </c>
       <c r="BC5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>127156.84123962262</v>
       </c>
       <c r="BD5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>127726.04449687258</v>
       </c>
       <c r="BE5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>128296.72142875013</v>
       </c>
       <c r="BF5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>128868.87609013708</v>
       </c>
       <c r="BG5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>129442.51254736367</v>
       </c>
       <c r="BH5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>129968.9979181941</v>
       </c>
       <c r="BI5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>130478.76360789448</v>
       </c>
       <c r="BJ5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>130989.42291756609</v>
       </c>
       <c r="BK5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>131501.07479386276</v>
       </c>
       <c r="BL5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>132013.72261231358</v>
       </c>
       <c r="BM5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>132527.36923503783</v>
       </c>
       <c r="BN5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>133042.01752951712</v>
       </c>
       <c r="BO5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>133557.67037144973</v>
       </c>
       <c r="BP5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>134074.33064478962</v>
       </c>
       <c r="BQ5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>134592.00124177034</v>
       </c>
       <c r="BR5" s="5">
-        <f t="shared" ref="BR5:BV5" si="2">SUM(BR6:BR7)</f>
+        <f t="shared" ref="BR5:BV5" si="5">SUM(BR6:BR7)</f>
         <v>135110.68506292874</v>
       </c>
       <c r="BS5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>135630.38501712884</v>
       </c>
       <c r="BT5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>136151.1040215856</v>
       </c>
       <c r="BU5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>136672.84500188916</v>
       </c>
       <c r="BV5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>125066.2062781055</v>
       </c>
     </row>
@@ -1677,8 +1697,8 @@
         <v>106211.933472</v>
       </c>
       <c r="G6" s="10">
-        <f>5431.1+10945.59</f>
-        <v>16376.69</v>
+        <f>5451.1+10945.59</f>
+        <v>16396.690000000002</v>
       </c>
       <c r="H6" s="2">
         <v>106211.933472</v>
@@ -2075,298 +2095,298 @@
     </row>
     <row r="8" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="7">
         <f>C8+E8+G8+I8+K8+M8+O8+Q8+S8+U8+W8+Y8</f>
-        <v>1602784.35</v>
+        <v>1712651</v>
       </c>
       <c r="C8" s="5">
-        <f>SUM(C9:C12)</f>
-        <v>0</v>
+        <f t="shared" ref="C8:AH8" si="6">SUM(C9:C12)</f>
+        <v>65100</v>
       </c>
       <c r="D8" s="5">
-        <f>SUM(D9:D12)</f>
+        <f t="shared" si="6"/>
         <v>1900000</v>
       </c>
       <c r="E8" s="5">
-        <f>SUM(E9:E12)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>70001</v>
       </c>
       <c r="F8" s="5">
-        <f>SUM(F9:F12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G8" s="5">
-        <f>SUM(G9:G12)</f>
+        <f t="shared" si="6"/>
         <v>150000</v>
       </c>
       <c r="H8" s="5">
-        <f>SUM(H9:H12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I8" s="5">
-        <f>SUM(I9:I12)</f>
+        <f t="shared" si="6"/>
         <v>107225</v>
       </c>
       <c r="J8" s="5">
-        <f>SUM(J9:J12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f>SUM(K9:K12)</f>
+        <f t="shared" si="6"/>
         <v>10000</v>
       </c>
       <c r="L8" s="5">
-        <f>SUM(L9:L12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M8" s="5">
-        <f>SUM(M9:M12)</f>
-        <v>124868.75</v>
+        <f t="shared" si="6"/>
+        <v>125634.4</v>
       </c>
       <c r="N8" s="5">
-        <f>SUM(N9:N12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O8" s="5">
-        <f>SUM(O9:O12)</f>
+        <f t="shared" si="6"/>
         <v>320000</v>
       </c>
       <c r="P8" s="5">
-        <f>SUM(P9:P12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q8" s="5">
-        <f>SUM(Q9:Q12)</f>
+        <f t="shared" si="6"/>
         <v>180000</v>
       </c>
       <c r="R8" s="5">
-        <f>SUM(R9:R12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S8" s="5">
-        <f>SUM(S9:S12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T8" s="5">
-        <f>SUM(T9:T12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U8" s="5">
-        <f>SUM(U9:U12)</f>
+        <f t="shared" si="6"/>
         <v>37807</v>
       </c>
       <c r="V8" s="5">
-        <f>SUM(V9:V12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W8" s="5">
-        <f>SUM(W9:W12)</f>
-        <v>672883.6</v>
+        <f t="shared" si="6"/>
+        <v>646883.6</v>
       </c>
       <c r="X8" s="5">
-        <f>SUM(X9:X12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y8" s="5">
-        <f>SUM(Y9:Y12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z8" s="5">
-        <f>SUM(Z9:Z12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA8" s="5">
-        <f>SUM(AA9:AA12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB8" s="5">
-        <f>SUM(AB9:AB12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC8" s="5">
-        <f>SUM(AC9:AC12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD8" s="5">
-        <f>SUM(AD9:AD12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE8" s="5">
-        <f>SUM(AE9:AE12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF8" s="5">
-        <f>SUM(AF9:AF12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG8" s="5">
-        <f>SUM(AG9:AG12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH8" s="5">
-        <f>SUM(AH9:AH12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI8" s="5">
-        <f>SUM(AI9:AI12)</f>
+        <f t="shared" ref="AI8:BN8" si="7">SUM(AI9:AI12)</f>
         <v>0</v>
       </c>
       <c r="AJ8" s="5">
-        <f>SUM(AJ9:AJ12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK8" s="5">
-        <f>SUM(AK9:AK12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL8" s="5">
-        <f>SUM(AL9:AL12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM8" s="5">
-        <f>SUM(AM9:AM12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN8" s="5">
-        <f>SUM(AN9:AN12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO8" s="5">
-        <f>SUM(AO9:AO12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP8" s="5">
-        <f>SUM(AP9:AP12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ8" s="5">
-        <f>SUM(AQ9:AQ12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AR8" s="5">
-        <f>SUM(AR9:AR12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AS8" s="5">
-        <f>SUM(AS9:AS12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AT8" s="5">
-        <f>SUM(AT9:AT12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AU8" s="5">
-        <f>SUM(AU9:AU12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AV8" s="5">
-        <f>SUM(AV9:AV12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AW8" s="5">
-        <f>SUM(AW9:AW12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AX8" s="5">
-        <f>SUM(AX9:AX12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AY8" s="5">
-        <f>SUM(AY9:AY12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AZ8" s="5">
-        <f>SUM(AZ9:AZ12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BA8" s="5">
-        <f>SUM(BA9:BA12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BB8" s="5">
-        <f>SUM(BB9:BB12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BC8" s="5">
-        <f>SUM(BC9:BC12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BD8" s="5">
-        <f>SUM(BD9:BD12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BE8" s="5">
-        <f>SUM(BE9:BE12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BF8" s="5">
-        <f>SUM(BF9:BF12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG8" s="5">
-        <f>SUM(BG9:BG12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BH8" s="5">
-        <f>SUM(BH9:BH12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BI8" s="5">
-        <f>SUM(BI9:BI12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BJ8" s="5">
-        <f>SUM(BJ9:BJ12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BK8" s="5">
-        <f>SUM(BK9:BK12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BL8" s="5">
-        <f>SUM(BL9:BL12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BM8" s="5">
-        <f>SUM(BM9:BM12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BN8" s="5">
-        <f>SUM(BN9:BN12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BO8" s="5">
-        <f>SUM(BO9:BO12)</f>
+        <f t="shared" ref="BO8:CT8" si="8">SUM(BO9:BO12)</f>
         <v>0</v>
       </c>
       <c r="BP8" s="5">
-        <f>SUM(BP9:BP12)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BQ8" s="5">
-        <f>SUM(BQ9:BQ12)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BR8" s="5">
-        <f>SUM(BR9:BR12)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BS8" s="5">
-        <f>SUM(BS9:BS12)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BT8" s="5">
-        <f>SUM(BT9:BT12)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BU8" s="5">
-        <f>SUM(BU9:BU12)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BV8" s="5">
-        <f>SUM(BV9:BV12)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2375,14 +2395,19 @@
         <v>25</v>
       </c>
       <c r="B9" s="7">
-        <f t="shared" ref="B9:B15" si="3">C9+E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9</f>
-        <v>314784.34999999998</v>
-      </c>
-      <c r="C9" s="2"/>
+        <f t="shared" ref="B9:B15" si="9">C9+E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9</f>
+        <v>380651</v>
+      </c>
+      <c r="C9" s="2">
+        <f>100+15000+50000</f>
+        <v>65100</v>
+      </c>
       <c r="D9" s="2">
         <v>380000</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="10"/>
       <c r="H9" s="2"/>
@@ -2396,8 +2421,8 @@
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="10">
-        <f>5800+250+3818.75</f>
-        <v>9868.75</v>
+        <f>5800+250+3818.72+765.68</f>
+        <v>10634.4</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="10"/>
@@ -2472,7 +2497,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="7">
-        <f t="shared" ref="B10" si="4">C10+E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10</f>
+        <f t="shared" ref="B10" si="10">C10+E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10</f>
         <v>497000</v>
       </c>
       <c r="C10" s="2"/>
@@ -2554,17 +2579,19 @@
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="7">
-        <f t="shared" si="3"/>
-        <v>921000</v>
+        <f t="shared" si="9"/>
+        <v>991000</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
         <v>760000</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>70000</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="10">
         <v>150000</v>
@@ -2650,11 +2677,11 @@
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="7">
-        <f t="shared" si="3"/>
-        <v>-130000</v>
+        <f t="shared" si="9"/>
+        <v>-156000</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2677,7 +2704,8 @@
       <c r="U12" s="10"/>
       <c r="V12" s="2"/>
       <c r="W12" s="10">
-        <v>-130000</v>
+        <f>-(130000+26000)</f>
+        <v>-156000</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="10"/>
@@ -2740,12 +2768,12 @@
         <v>10</v>
       </c>
       <c r="B14" s="7">
-        <f t="shared" si="3"/>
-        <v>-1701217.2699999998</v>
+        <f t="shared" si="9"/>
+        <v>-1976265.04</v>
       </c>
       <c r="C14" s="10">
         <f>C15+C39+C47+C25</f>
-        <v>-88500.33</v>
+        <v>-52056.649999999994</v>
       </c>
       <c r="D14" s="5">
         <f>D15-D39-D47</f>
@@ -2753,10 +2781,10 @@
       </c>
       <c r="E14" s="10">
         <f>E15+E39+E47+E25</f>
-        <v>-92598.189999999988</v>
+        <v>-54706.32</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" ref="E14:J14" si="5">F15+F39+F47</f>
+        <f t="shared" ref="F14:J14" si="11">F15+F39+F47</f>
         <v>-408527.40230918775</v>
       </c>
       <c r="G14" s="10">
@@ -2764,15 +2792,15 @@
         <v>-175296.1</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-409516.0182064494</v>
       </c>
       <c r="I14" s="10">
         <f>I15+I39+I47+I25</f>
-        <v>-126643.36</v>
+        <v>-126600.84</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-305118.589039805</v>
       </c>
       <c r="K14" s="10">
@@ -2780,7 +2808,7 @@
         <v>-7684.3</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" ref="L14:AC14" si="6">L15+L39+L47</f>
+        <f t="shared" ref="L14:AC14" si="12">L15+L39+L47</f>
         <v>-305163.02165031742</v>
       </c>
       <c r="M14" s="10">
@@ -2788,15 +2816,15 @@
         <v>-157263.75000000003</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-305207.5818223544</v>
       </c>
       <c r="O14" s="10">
         <f>O15+O39+O47+O25</f>
-        <v>-342187.19999999995</v>
+        <v>-325460.69999999995</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-282184.56565269525</v>
       </c>
       <c r="Q14" s="10">
@@ -2804,525 +2832,528 @@
         <v>-186366.61</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-13655.396624750776</v>
       </c>
       <c r="S14" s="10">
         <f>S15+S39+S47+S25</f>
-        <v>-10543.460000000001</v>
+        <v>-13708.77</v>
       </c>
       <c r="T14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-13700.341682867411</v>
       </c>
       <c r="U14" s="10">
         <f>U15+U39+U47+U25</f>
-        <v>-139150.71</v>
+        <v>-143558.44999999998</v>
       </c>
       <c r="V14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-13745.41577369382</v>
       </c>
       <c r="W14" s="10">
         <f>W15+W39+W47+W25</f>
-        <v>-374983.26</v>
+        <v>-592353.26</v>
       </c>
       <c r="X14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-13790.619267669847</v>
       </c>
       <c r="Y14" s="10">
         <f>Y15+Y39+Y47+Y25</f>
-        <v>0</v>
+        <v>-141209.29</v>
       </c>
       <c r="Z14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-13835.952536298828</v>
       </c>
       <c r="AA14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-13881.415952150646</v>
       </c>
       <c r="AB14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-13927.009888864799</v>
       </c>
       <c r="AC14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-13972.734721153462</v>
       </c>
       <c r="AD14" s="5">
-        <f t="shared" ref="AD14:BV14" si="7">AD15-AD39-AD47</f>
+        <f t="shared" ref="AD14:BV14" si="13">AD15-AD39-AD47</f>
         <v>14018.590824804574</v>
       </c>
       <c r="AE14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14064.578576684915</v>
       </c>
       <c r="AF14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14110.698354743226</v>
       </c>
       <c r="AG14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14156.95053801329</v>
       </c>
       <c r="AH14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14203.335506617061</v>
       </c>
       <c r="AI14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14249.853641767777</v>
       </c>
       <c r="AJ14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14296.505325773111</v>
       </c>
       <c r="AK14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14343.290942038298</v>
       </c>
       <c r="AL14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14390.210875069293</v>
       </c>
       <c r="AM14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14437.265510475925</v>
       </c>
       <c r="AN14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14484.455234975074</v>
       </c>
       <c r="AO14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14531.780436393839</v>
       </c>
       <c r="AP14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14579.241503672736</v>
       </c>
       <c r="AQ14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14626.838826868892</v>
       </c>
       <c r="AR14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14674.572797159242</v>
       </c>
       <c r="AS14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14722.443806843758</v>
       </c>
       <c r="AT14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14770.452249348658</v>
       </c>
       <c r="AU14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14818.598519229647</v>
       </c>
       <c r="AV14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14866.883012175169</v>
       </c>
       <c r="AW14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14915.306125009638</v>
       </c>
       <c r="AX14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14963.868255696718</v>
       </c>
       <c r="AY14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>15012.56980334258</v>
       </c>
       <c r="AZ14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>15061.411168199204</v>
       </c>
       <c r="BA14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>15110.392751667627</v>
       </c>
       <c r="BB14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>15159.514956301286</v>
       </c>
       <c r="BC14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>15208.778185809309</v>
       </c>
       <c r="BD14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>15258.182845059824</v>
       </c>
       <c r="BE14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>15307.729340083293</v>
       </c>
       <c r="BF14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>15357.418078075865</v>
       </c>
       <c r="BG14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>15407.249467402691</v>
       </c>
       <c r="BH14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>15457.223917601306</v>
       </c>
       <c r="BI14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>15507.341839384981</v>
       </c>
       <c r="BJ14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>15557.603644646108</v>
       </c>
       <c r="BK14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>15608.009746459578</v>
       </c>
       <c r="BL14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>15658.560559086181</v>
       </c>
       <c r="BM14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>15709.256497975995</v>
       </c>
       <c r="BN14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>15760.097979771836</v>
       </c>
       <c r="BO14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>15811.085422312635</v>
       </c>
       <c r="BP14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>15862.219244636921</v>
       </c>
       <c r="BQ14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>15913.499866986218</v>
       </c>
       <c r="BR14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>15964.927710808526</v>
       </c>
       <c r="BS14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>16016.503198761791</v>
       </c>
       <c r="BT14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>16068.226754717358</v>
       </c>
       <c r="BU14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>16120.09880376346</v>
       </c>
       <c r="BV14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>16172.119772208731</v>
       </c>
     </row>
     <row r="15" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="7">
-        <f t="shared" si="3"/>
-        <v>-38052.770000000004</v>
+        <f t="shared" si="9"/>
+        <v>-38682.42</v>
       </c>
       <c r="C15" s="10">
         <f>SUM(C16:C23)</f>
         <v>-67</v>
       </c>
       <c r="D15" s="10">
-        <f t="shared" ref="D15:BP15" si="8">SUM(D16:D23)</f>
+        <f t="shared" ref="D15:BP15" si="14">SUM(D16:D23)</f>
         <v>-104441.73458080005</v>
       </c>
       <c r="E15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-1852.12</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-104441.73458080005</v>
       </c>
       <c r="G15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-4563.88</v>
       </c>
       <c r="H15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-104441.73458080005</v>
       </c>
       <c r="I15" s="10">
-        <f t="shared" si="8"/>
-        <v>-4586.3100000000004</v>
+        <f t="shared" si="14"/>
+        <v>-4543.79</v>
       </c>
       <c r="J15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-3569.94</v>
       </c>
       <c r="L15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-3672.54</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-3497.54</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-3695.1800000000003</v>
       </c>
       <c r="R15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-3889.4</v>
       </c>
       <c r="T15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-4751.5199999999995</v>
       </c>
       <c r="V15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W15" s="10">
-        <f t="shared" si="8"/>
-        <v>-3907.34</v>
+        <f t="shared" si="14"/>
+        <v>-3917.34</v>
       </c>
       <c r="X15" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="10"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="10">
+        <f t="shared" si="14"/>
+        <v>-662.17</v>
+      </c>
       <c r="Z15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AG15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AO15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AP15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AQ15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AR15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AS15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AT15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AU15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AV15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AW15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AX15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AY15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BA15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BB15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BC15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BD15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BE15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BF15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BG15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BH15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BI15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BJ15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BK15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BL15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BM15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BN15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BO15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BP15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BQ15" s="10">
-        <f t="shared" ref="BQ15:BV15" si="9">SUM(BQ16:BQ23)</f>
+        <f t="shared" ref="BQ15:BV15" si="15">SUM(BQ16:BQ23)</f>
         <v>0</v>
       </c>
       <c r="BR15" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BS15" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BT15" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BU15" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BV15" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -3554,7 +3585,8 @@
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10">
-        <v>-2882.11</v>
+        <f>-(2882.11-53.56)</f>
+        <v>-2828.55</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10">
@@ -3746,7 +3778,9 @@
       <c r="V19" s="10"/>
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
+      <c r="Y19" s="10">
+        <v>-93.77</v>
+      </c>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
@@ -3910,8 +3944,8 @@
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10">
-        <f>-(480)</f>
-        <v>-480</v>
+        <f>-(491.04)</f>
+        <v>-491.04</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10">
@@ -3942,7 +3976,9 @@
         <v>-500</v>
       </c>
       <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
+      <c r="Y21" s="10">
+        <v>-500</v>
+      </c>
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
       <c r="AB21" s="10"/>
@@ -4123,7 +4159,7 @@
       </c>
       <c r="R23" s="10"/>
       <c r="S23" s="10">
-        <f>-68.4-10</f>
+        <f>-(68.4+10)</f>
         <v>-78.400000000000006</v>
       </c>
       <c r="T23" s="10"/>
@@ -4133,11 +4169,14 @@
       </c>
       <c r="V23" s="10"/>
       <c r="W23" s="10">
-        <f>-(58.4+20+30)</f>
-        <v>-108.4</v>
+        <f>-(68.4+20+30)</f>
+        <v>-118.4</v>
       </c>
       <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
+      <c r="Y23" s="10">
+        <f>-(68.4)</f>
+        <v>-68.400000000000006</v>
+      </c>
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
@@ -4266,46 +4305,46 @@
     </row>
     <row r="25" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="7">
-        <f t="shared" ref="B25" si="10">C25+E25+G25+I25+K25+M25+O25+Q25+S25+U25+W25+Y25</f>
-        <v>-337881.41000000003</v>
+        <f t="shared" ref="B25" si="16">C25+E25+G25+I25+K25+M25+O25+Q25+S25+U25+W25+Y25</f>
+        <v>-507206.81</v>
       </c>
       <c r="C25" s="10">
         <f>SUM(C26:C33)</f>
-        <v>-10082.550000000001</v>
+        <v>-3584.26</v>
       </c>
       <c r="D25" s="10">
         <f>D35</f>
         <v>-65653.507640750671</v>
       </c>
       <c r="E25" s="10">
-        <f t="shared" ref="E25:Y25" si="11">SUM(E26:E33)</f>
-        <v>-8209.0300000000007</v>
+        <f t="shared" ref="E25:U25" si="17">SUM(E26:E33)</f>
+        <v>-262.55</v>
       </c>
       <c r="F25" s="10">
         <f>F35</f>
         <v>-65876.818891229414</v>
       </c>
       <c r="G25" s="10">
-        <f t="shared" si="11"/>
-        <v>-61994.92</v>
+        <f t="shared" si="17"/>
+        <v>-45200</v>
       </c>
       <c r="H25" s="10">
         <f>H35</f>
         <v>-65876.818891229414</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" si="11"/>
-        <v>-16794.91</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="J25" s="10">
         <f>J35</f>
         <v>-66065.944566201084</v>
       </c>
       <c r="K25" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-1900</v>
       </c>
       <c r="L25" s="10">
@@ -4313,7 +4352,7 @@
         <v>-66255.613201830784</v>
       </c>
       <c r="M25" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N25" s="10">
@@ -4321,7 +4360,7 @@
         <v>-61190.224272176725</v>
       </c>
       <c r="O25" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P25" s="10">
@@ -4329,7 +4368,7 @@
         <v>-21001.377400679175</v>
       </c>
       <c r="Q25" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R25" s="10">
@@ -4337,7 +4376,7 @@
         <v>-21061.670228157629</v>
       </c>
       <c r="S25" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-1900</v>
       </c>
       <c r="T25" s="10">
@@ -4345,7 +4384,7 @@
         <v>-21122.136150237264</v>
       </c>
       <c r="U25" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V25" s="10">
@@ -4353,211 +4392,211 @@
         <v>-21182.775663855144</v>
       </c>
       <c r="W25" s="10">
-        <f t="shared" si="11"/>
-        <v>-237000</v>
+        <f>SUM(W26:W37)</f>
+        <v>-454360</v>
       </c>
       <c r="X25" s="10">
         <f>SUM(X35:X37)</f>
         <v>-21243.589267374988</v>
       </c>
       <c r="Y25" s="10">
-        <f t="shared" si="11"/>
+        <f>SUM(Y26:Y37)</f>
         <v>0</v>
       </c>
       <c r="Z25" s="10">
-        <f t="shared" ref="Z25:BV25" si="12">SUM(Z35:Z37)</f>
+        <f t="shared" ref="Z25:BV25" si="18">SUM(Z35:Z37)</f>
         <v>-62350.049413150409</v>
       </c>
       <c r="AA25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-21282.595857922472</v>
       </c>
       <c r="AB25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-21343.696035109606</v>
       </c>
       <c r="AC25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-21404.971624717167</v>
       </c>
       <c r="AD25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-21466.423130336439</v>
       </c>
       <c r="AE25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-21528.051057004479</v>
       </c>
       <c r="AF25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-21589.855911208251</v>
       </c>
       <c r="AG25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-21651.838200888789</v>
       </c>
       <c r="AH25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-21713.998435445377</v>
       </c>
       <c r="AI25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-21776.337125739727</v>
       </c>
       <c r="AJ25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-21838.854784100196</v>
       </c>
       <c r="AK25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-21901.55192432597</v>
       </c>
       <c r="AL25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-64446.492532590026</v>
       </c>
       <c r="AM25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-21984.459234025133</v>
       </c>
       <c r="AN25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-22047.574389879686</v>
       </c>
       <c r="AO25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-22110.870742954336</v>
       </c>
       <c r="AP25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-22174.348813447948</v>
       </c>
       <c r="AQ25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-22238.009123052834</v>
       </c>
       <c r="AR25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-22301.852194959021</v>
       </c>
       <c r="AS25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-22365.878553858565</v>
       </c>
       <c r="AT25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-22430.088725949863</v>
       </c>
       <c r="AU25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-22494.483238941968</v>
       </c>
       <c r="AV25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-22559.06262205894</v>
       </c>
       <c r="AW25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-22623.827406044176</v>
       </c>
       <c r="AX25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-66657.713815544965</v>
       </c>
       <c r="AY25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-22709.381866529005</v>
       </c>
       <c r="AZ25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-22774.578201840646</v>
       </c>
       <c r="BA25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-22839.961709227824</v>
       </c>
       <c r="BB25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-22905.532926042604</v>
       </c>
       <c r="BC25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-22971.292391179752</v>
       </c>
       <c r="BD25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-23037.240645081121</v>
       </c>
       <c r="BE25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-23103.378229740149</v>
       </c>
       <c r="BF25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-23169.70568870625</v>
       </c>
       <c r="BG25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-23236.223567089342</v>
       </c>
       <c r="BH25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-23302.932411564278</v>
       </c>
       <c r="BI25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-23369.832770375368</v>
       </c>
       <c r="BJ25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-68944.773634954356</v>
       </c>
       <c r="BK25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-23458.118120746487</v>
       </c>
       <c r="BL25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-23525.464002011286</v>
       </c>
       <c r="BM25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-23593.003226480341</v>
       </c>
       <c r="BN25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-23660.736349222414</v>
       </c>
       <c r="BO25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-23728.663926899808</v>
       </c>
       <c r="BP25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-23796.786517772947</v>
       </c>
       <c r="BQ25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-23865.104681704961</v>
       </c>
       <c r="BR25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-23933.618980166299</v>
       </c>
       <c r="BS25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-24002.329976239329</v>
       </c>
       <c r="BT25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-24071.238234622968</v>
       </c>
       <c r="BU25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-24140.344321637334</v>
       </c>
       <c r="BV25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-71310.271942298365</v>
       </c>
     </row>
@@ -4566,21 +4605,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="9"/>
-      <c r="C26" s="10">
-        <v>-5745.31</v>
-      </c>
+      <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="10">
-        <v>-5745.31</v>
-      </c>
+      <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="10">
-        <v>-16794.919999999998</v>
-      </c>
+      <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="10">
-        <v>-16794.91</v>
-      </c>
+      <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -4652,15 +4683,9 @@
         <v>15</v>
       </c>
       <c r="B27" s="9"/>
-      <c r="C27" s="10">
-        <f>-(752.98)</f>
-        <v>-752.98</v>
-      </c>
+      <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="10">
-        <f>-(1664.29+536.88)</f>
-        <v>-2201.17</v>
-      </c>
+      <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -4843,7 +4868,7 @@
         <f>-(143000+37000)</f>
         <v>-180000</v>
       </c>
-      <c r="X29" s="10"/>
+      <c r="X29" s="17"/>
       <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
@@ -5002,7 +5027,7 @@
       <c r="W31" s="10"/>
       <c r="X31" s="10"/>
       <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
+      <c r="Z31" s="17"/>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
@@ -5134,9 +5159,7 @@
       <c r="BV32" s="10"/>
     </row>
     <row r="33" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
-        <v>37</v>
-      </c>
+      <c r="A33" s="25"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -5236,7 +5259,7 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
+      <c r="Y34" s="16"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
@@ -5547,10 +5570,7 @@
       <c r="X36" s="2">
         <v>-20003.54626147421</v>
       </c>
-      <c r="Y36" s="2">
-        <f>-(150000+67360)</f>
-        <v>-217360</v>
-      </c>
+      <c r="Y36" s="2"/>
       <c r="Z36" s="2">
         <v>-20060.974416813271</v>
       </c>
@@ -5998,31 +6018,31 @@
         <v>7</v>
       </c>
       <c r="B39" s="7">
-        <f t="shared" ref="B39" si="13">C39+E39+G39+I39+K39+M39+O39+Q39+S39+U39+W39+Y39</f>
-        <v>-1303472.5500000003</v>
+        <f t="shared" ref="B39" si="19">C39+E39+G39+I39+K39+M39+O39+Q39+S39+U39+W39+Y39</f>
+        <v>-1407955.62</v>
       </c>
       <c r="C39" s="2">
         <f>SUM(C40:C45)</f>
-        <v>-78350.78</v>
+        <v>-48405.389999999992</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2">
         <f>SUM(E40:E45)</f>
-        <v>-82537.039999999994</v>
+        <v>-52591.649999999994</v>
       </c>
       <c r="F39" s="2">
         <v>-290653.07379490609</v>
       </c>
       <c r="G39" s="10">
         <f>SUM(G40:G45)</f>
-        <v>-108528.08</v>
+        <v>-125323</v>
       </c>
       <c r="H39" s="2">
         <v>-291641.68969216774</v>
       </c>
       <c r="I39" s="10">
         <f>SUM(I40:I45)</f>
-        <v>-104346.46</v>
+        <v>-121141.37000000001</v>
       </c>
       <c r="J39" s="2">
         <v>-291641.68969216774</v>
@@ -6043,7 +6063,7 @@
       </c>
       <c r="O39" s="10">
         <f>SUM(O40:O45)</f>
-        <v>-336714.29</v>
+        <v>-319987.78999999998</v>
       </c>
       <c r="P39" s="2">
         <v>-268573.98542273074</v>
@@ -6056,14 +6076,15 @@
         <v>0</v>
       </c>
       <c r="S39" s="10">
-        <v>0</v>
+        <f>SUM(S40:S45)</f>
+        <v>-3436.5</v>
       </c>
       <c r="T39" s="2">
         <v>0</v>
       </c>
       <c r="U39" s="10">
         <f>SUM(U40:U45)</f>
-        <v>-128227.34</v>
+        <v>-132635.07999999999</v>
       </c>
       <c r="V39" s="2">
         <v>0</v>
@@ -6077,7 +6098,7 @@
       </c>
       <c r="Y39" s="10">
         <f>SUM(Y40:Y45)</f>
-        <v>0</v>
+        <v>-139666.28</v>
       </c>
       <c r="Z39" s="2">
         <v>0</v>
@@ -6232,16 +6253,24 @@
         <v>24</v>
       </c>
       <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
+      <c r="C40" s="10">
+        <f>-(5745.31+35690.7)</f>
+        <v>-41436.009999999995</v>
+      </c>
       <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
+      <c r="E40" s="10">
+        <f>-(5745.31+35690.7)</f>
+        <v>-41436.009999999995</v>
+      </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10">
-        <v>-104346.46</v>
+        <f>-(104346.46+16794.92)</f>
+        <v>-121141.38</v>
       </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10">
-        <v>-104346.46</v>
+        <f>-(104346.46+16794.91)</f>
+        <v>-121141.37000000001</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="10"/>
@@ -6273,7 +6302,10 @@
         <v>-128227.34</v>
       </c>
       <c r="X40" s="2"/>
-      <c r="Y40" s="10"/>
+      <c r="Y40" s="10">
+        <f>-(110449.55+17777.79)</f>
+        <v>-128227.34</v>
+      </c>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
@@ -6356,7 +6388,9 @@
       <c r="V41" s="2"/>
       <c r="W41" s="10"/>
       <c r="X41" s="2"/>
-      <c r="Y41" s="10"/>
+      <c r="Y41" s="10">
+        <v>-3967.07</v>
+      </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
@@ -6412,13 +6446,9 @@
         <v>20</v>
       </c>
       <c r="B42" s="9"/>
-      <c r="C42" s="10">
-        <v>-35690.699999999997</v>
-      </c>
+      <c r="C42" s="10"/>
       <c r="D42" s="10"/>
-      <c r="E42" s="10">
-        <v>-35690.699999999997</v>
-      </c>
+      <c r="E42" s="10"/>
       <c r="F42" s="2"/>
       <c r="G42" s="10"/>
       <c r="H42" s="2"/>
@@ -6491,16 +6521,12 @@
     </row>
     <row r="43" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B43" s="9"/>
-      <c r="C43" s="10">
-        <v>-35690.699999999997</v>
-      </c>
+      <c r="C43" s="10"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="10">
-        <v>-35690.699999999997</v>
-      </c>
+      <c r="E43" s="10"/>
       <c r="F43" s="2"/>
       <c r="G43" s="10"/>
       <c r="H43" s="2"/>
@@ -6514,7 +6540,10 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="10"/>
+      <c r="S43" s="10">
+        <f>-(687.3*5)</f>
+        <v>-3436.5</v>
+      </c>
       <c r="T43" s="2"/>
       <c r="U43" s="10"/>
       <c r="V43" s="2"/>
@@ -6594,13 +6623,18 @@
       <c r="R44" s="2"/>
       <c r="S44" s="10"/>
       <c r="T44" s="2"/>
-      <c r="U44" s="10"/>
+      <c r="U44" s="10">
+        <v>-4407.74</v>
+      </c>
       <c r="V44" s="2"/>
       <c r="W44" s="10">
         <v>-3881.25</v>
       </c>
       <c r="X44" s="2"/>
-      <c r="Y44" s="10"/>
+      <c r="Y44" s="10">
+        <f>-(3590.62+3881.25)</f>
+        <v>-7471.87</v>
+      </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
@@ -6678,10 +6712,7 @@
         <v>-16726.5</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="10">
-        <f>-(8363.25+8363.25)</f>
-        <v>-16726.5</v>
-      </c>
+      <c r="O45" s="10"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
@@ -6823,8 +6854,8 @@
         <v>9</v>
       </c>
       <c r="B47" s="32">
-        <f t="shared" ref="B47" si="14">C47+E47+G47+I47+K47+M47+O47+Q47+S47+U47+W47+Y47</f>
-        <v>-21810.54</v>
+        <f t="shared" ref="B47" si="20">C47+E47+G47+I47+K47+M47+O47+Q47+S47+U47+W47+Y47</f>
+        <v>-22420.19</v>
       </c>
       <c r="C47" s="5">
         <v>0</v>
@@ -6837,279 +6868,279 @@
         <v>0</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" ref="F47:BV47" si="15">SUM(F48:F51)</f>
+        <f t="shared" ref="F47:BV47" si="21">SUM(F48:F51)</f>
         <v>-13432.593933481601</v>
       </c>
       <c r="G47" s="14">
-        <f t="shared" ref="G47" si="16">SUM(G48:G51)</f>
+        <f t="shared" ref="G47" si="22">SUM(G48:G51)</f>
         <v>-209.22</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-13432.593933481601</v>
       </c>
       <c r="I47" s="14">
-        <f t="shared" ref="I47:K47" si="17">SUM(I48:I51)</f>
+        <f t="shared" ref="I47:K47" si="23">SUM(I48:I51)</f>
         <v>-915.68000000000006</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-13476.899347637262</v>
       </c>
       <c r="K47" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-2214.36</v>
       </c>
       <c r="L47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-13521.331958149671</v>
       </c>
       <c r="M47" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-1460.26</v>
       </c>
       <c r="N47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-13565.892130186689</v>
       </c>
       <c r="O47" s="14">
-        <f t="shared" ref="O47" si="18">SUM(O48:O51)</f>
+        <f t="shared" ref="O47" si="24">SUM(O48:O51)</f>
         <v>-1975.37</v>
       </c>
       <c r="P47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-13610.580229964526</v>
       </c>
       <c r="Q47" s="5">
-        <f t="shared" ref="Q47" si="19">SUM(Q48:Q51)</f>
+        <f t="shared" ref="Q47" si="25">SUM(Q48:Q51)</f>
         <v>-2142.41</v>
       </c>
       <c r="R47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-13655.396624750776</v>
       </c>
       <c r="S47" s="5">
-        <f t="shared" ref="S47" si="20">SUM(S48:S51)</f>
-        <v>-4754.0600000000004</v>
+        <f t="shared" ref="S47" si="26">SUM(S48:S51)</f>
+        <v>-4482.87</v>
       </c>
       <c r="T47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-13700.341682867411</v>
       </c>
       <c r="U47" s="5">
-        <f t="shared" ref="U47:Y47" si="21">SUM(U48:U51)</f>
+        <f t="shared" ref="U47:Y47" si="27">SUM(U48:U51)</f>
         <v>-6171.85</v>
       </c>
       <c r="V47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-13745.41577369382</v>
       </c>
       <c r="W47" s="5">
+        <f t="shared" si="27"/>
+        <v>-1967.33</v>
+      </c>
+      <c r="X47" s="5">
         <f t="shared" si="21"/>
-        <v>-1967.33</v>
-      </c>
-      <c r="X47" s="5">
-        <f t="shared" si="15"/>
         <v>-13790.619267669847</v>
       </c>
       <c r="Y47" s="5">
+        <f t="shared" si="27"/>
+        <v>-880.84</v>
+      </c>
+      <c r="Z47" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Z47" s="5">
-        <f t="shared" si="15"/>
         <v>-13835.952536298828</v>
       </c>
       <c r="AA47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-13881.415952150646</v>
       </c>
       <c r="AB47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-13927.009888864799</v>
       </c>
       <c r="AC47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-13972.734721153462</v>
       </c>
       <c r="AD47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-14018.590824804574</v>
       </c>
       <c r="AE47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-14064.578576684915</v>
       </c>
       <c r="AF47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-14110.698354743226</v>
       </c>
       <c r="AG47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-14156.95053801329</v>
       </c>
       <c r="AH47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-14203.335506617061</v>
       </c>
       <c r="AI47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-14249.853641767777</v>
       </c>
       <c r="AJ47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-14296.505325773111</v>
       </c>
       <c r="AK47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-14343.290942038298</v>
       </c>
       <c r="AL47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-14390.210875069293</v>
       </c>
       <c r="AM47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-14437.265510475925</v>
       </c>
       <c r="AN47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-14484.455234975074</v>
       </c>
       <c r="AO47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-14531.780436393839</v>
       </c>
       <c r="AP47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-14579.241503672736</v>
       </c>
       <c r="AQ47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-14626.838826868892</v>
       </c>
       <c r="AR47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-14674.572797159242</v>
       </c>
       <c r="AS47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-14722.443806843758</v>
       </c>
       <c r="AT47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-14770.452249348658</v>
       </c>
       <c r="AU47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-14818.598519229647</v>
       </c>
       <c r="AV47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-14866.883012175169</v>
       </c>
       <c r="AW47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-14915.306125009638</v>
       </c>
       <c r="AX47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-14963.868255696718</v>
       </c>
       <c r="AY47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-15012.56980334258</v>
       </c>
       <c r="AZ47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-15061.411168199204</v>
       </c>
       <c r="BA47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-15110.392751667627</v>
       </c>
       <c r="BB47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-15159.514956301286</v>
       </c>
       <c r="BC47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-15208.778185809309</v>
       </c>
       <c r="BD47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-15258.182845059824</v>
       </c>
       <c r="BE47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-15307.729340083293</v>
       </c>
       <c r="BF47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-15357.418078075865</v>
       </c>
       <c r="BG47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-15407.249467402691</v>
       </c>
       <c r="BH47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-15457.223917601306</v>
       </c>
       <c r="BI47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-15507.341839384981</v>
       </c>
       <c r="BJ47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-15557.603644646108</v>
       </c>
       <c r="BK47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-15608.009746459578</v>
       </c>
       <c r="BL47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-15658.560559086181</v>
       </c>
       <c r="BM47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-15709.256497975995</v>
       </c>
       <c r="BN47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-15760.097979771836</v>
       </c>
       <c r="BO47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-15811.085422312635</v>
       </c>
       <c r="BP47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-15862.219244636921</v>
       </c>
       <c r="BQ47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-15913.499866986218</v>
       </c>
       <c r="BR47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-15964.927710808526</v>
       </c>
       <c r="BS47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-16016.503198761791</v>
       </c>
       <c r="BT47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-16068.226754717358</v>
       </c>
       <c r="BU47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-16120.09880376346</v>
       </c>
       <c r="BV47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-16172.119772208731</v>
       </c>
     </row>
@@ -7379,7 +7410,9 @@
       <c r="X49" s="2">
         <v>-6694.0780551520147</v>
       </c>
-      <c r="Y49" s="10"/>
+      <c r="Y49" s="10">
+        <v>-880.84</v>
+      </c>
       <c r="Z49" s="2">
         <v>-6719.0378727041043</v>
       </c>
@@ -7782,7 +7815,7 @@
         <v>-3232.3599362871523</v>
       </c>
       <c r="S51" s="10">
-        <v>-1407.76</v>
+        <v>-1136.57</v>
       </c>
       <c r="T51" s="2">
         <v>-3241.6397142878341</v>
@@ -8100,7 +8133,7 @@
     </row>
     <row r="55" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C55">
         <v>295</v>
@@ -8164,6 +8197,9 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:BX33">
     <sortCondition ref="A19:A33"/>
   </sortState>
+  <conditionalFormatting sqref="X1:Y1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Energy - Orçado x Realizado.xlsx
+++ b/Energy - Orçado x Realizado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Controle Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10454405-3B04-4287-A6EC-9C8C4917B0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81B5278-008B-4C3F-9A5E-69C5AC0F6217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
   </bookViews>
@@ -306,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,6 +376,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,10 +726,10 @@
   <dimension ref="A1:BX56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="R43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="Y55" sqref="Y55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1358,7 +1359,7 @@
         <v>133042.01752951712</v>
       </c>
       <c r="BO4" s="5">
-        <f t="shared" ref="BO4:CT4" si="2">BO5+BO8</f>
+        <f t="shared" ref="BO4:BV4" si="2">BO5+BO8</f>
         <v>133557.67037144973</v>
       </c>
       <c r="BP4" s="5">
@@ -2358,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="BO8" s="5">
-        <f t="shared" ref="BO8:CT8" si="8">SUM(BO9:BO12)</f>
+        <f t="shared" ref="BO8:BV8" si="8">SUM(BO9:BO12)</f>
         <v>0</v>
       </c>
       <c r="BP8" s="5">
@@ -8186,9 +8187,7 @@
       <c r="W55" s="11">
         <v>299</v>
       </c>
-      <c r="Y55">
-        <v>750</v>
-      </c>
+      <c r="Y55" s="33"/>
     </row>
     <row r="56" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>

--- a/Energy - Orçado x Realizado.xlsx
+++ b/Energy - Orçado x Realizado.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Controle Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81B5278-008B-4C3F-9A5E-69C5AC0F6217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4D45E6-DE3C-4152-B24B-C832529858BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -726,10 +726,10 @@
   <dimension ref="A1:BX56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="R43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="R31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y55" sqref="Y55"/>
+      <selection pane="bottomRight" activeCell="Y56" sqref="Y56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -8187,10 +8187,14 @@
       <c r="W55" s="11">
         <v>299</v>
       </c>
-      <c r="Y55" s="33"/>
+      <c r="Y55" s="33">
+        <f>750-280</f>
+        <v>470</v>
+      </c>
     </row>
     <row r="56" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
+      <c r="Y56" s="33"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:BX33">

--- a/Energy - Orçado x Realizado.xlsx
+++ b/Energy - Orçado x Realizado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Controle Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4D45E6-DE3C-4152-B24B-C832529858BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF62968-4DEC-4F90-B4F2-D960986DAFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
+    <workbookView xWindow="28740" yWindow="225" windowWidth="26805" windowHeight="15405" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>Receita Bruta</t>
   </si>
@@ -382,7 +382,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -723,13 +733,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E0C361-DC00-4C96-A388-FAD64E248995}">
-  <dimension ref="A1:BX56"/>
+  <dimension ref="A1:BW56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="R31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y56" sqref="Y56"/>
+      <selection pane="bottomRight" activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -746,10 +756,10 @@
     <col min="13" max="13" width="11.7109375" style="11" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="11.7109375" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="11.7109375" style="11" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="74" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="73" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B1" s="19"/>
       <c r="C1" s="13" t="s">
         <v>22</v>
@@ -820,8 +830,14 @@
       <c r="Y1" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
         <v>44</v>
       </c>
@@ -871,10 +887,14 @@
       </c>
       <c r="Y2" s="2">
         <f>W2+Y4+Y14</f>
-        <v>30928.919999999955</v>
+        <v>18972.649999999965</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>Y2+AA4+AA14</f>
+        <v>10.819999999948777</v>
       </c>
     </row>
-    <row r="3" spans="1:74" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="31"/>
       <c r="C3" s="30">
@@ -947,154 +967,151 @@
         <v>45901</v>
       </c>
       <c r="Z3" s="30">
-        <v>46235</v>
+        <v>46296</v>
       </c>
       <c r="AA3" s="30">
-        <v>46266</v>
+        <v>45931</v>
       </c>
       <c r="AB3" s="30">
-        <v>46296</v>
+        <v>46327</v>
       </c>
       <c r="AC3" s="30">
-        <v>46327</v>
+        <v>46357</v>
       </c>
       <c r="AD3" s="30">
-        <v>46357</v>
+        <v>46388</v>
       </c>
       <c r="AE3" s="30">
-        <v>46388</v>
+        <v>46419</v>
       </c>
       <c r="AF3" s="30">
-        <v>46419</v>
+        <v>46447</v>
       </c>
       <c r="AG3" s="30">
-        <v>46447</v>
+        <v>46478</v>
       </c>
       <c r="AH3" s="30">
-        <v>46478</v>
+        <v>46508</v>
       </c>
       <c r="AI3" s="30">
-        <v>46508</v>
+        <v>46539</v>
       </c>
       <c r="AJ3" s="30">
-        <v>46539</v>
+        <v>46569</v>
       </c>
       <c r="AK3" s="30">
-        <v>46569</v>
+        <v>46600</v>
       </c>
       <c r="AL3" s="30">
-        <v>46600</v>
+        <v>46631</v>
       </c>
       <c r="AM3" s="30">
-        <v>46631</v>
+        <v>46661</v>
       </c>
       <c r="AN3" s="30">
-        <v>46661</v>
+        <v>46692</v>
       </c>
       <c r="AO3" s="30">
-        <v>46692</v>
+        <v>46722</v>
       </c>
       <c r="AP3" s="30">
-        <v>46722</v>
+        <v>46753</v>
       </c>
       <c r="AQ3" s="30">
-        <v>46753</v>
+        <v>46784</v>
       </c>
       <c r="AR3" s="30">
-        <v>46784</v>
+        <v>46813</v>
       </c>
       <c r="AS3" s="30">
-        <v>46813</v>
+        <v>46844</v>
       </c>
       <c r="AT3" s="30">
-        <v>46844</v>
+        <v>46874</v>
       </c>
       <c r="AU3" s="30">
-        <v>46874</v>
+        <v>46905</v>
       </c>
       <c r="AV3" s="30">
-        <v>46905</v>
+        <v>46935</v>
       </c>
       <c r="AW3" s="30">
-        <v>46935</v>
+        <v>46966</v>
       </c>
       <c r="AX3" s="30">
-        <v>46966</v>
+        <v>46997</v>
       </c>
       <c r="AY3" s="30">
-        <v>46997</v>
+        <v>47027</v>
       </c>
       <c r="AZ3" s="30">
-        <v>47027</v>
+        <v>47058</v>
       </c>
       <c r="BA3" s="30">
-        <v>47058</v>
+        <v>47088</v>
       </c>
       <c r="BB3" s="30">
-        <v>47088</v>
+        <v>47119</v>
       </c>
       <c r="BC3" s="30">
-        <v>47119</v>
+        <v>47150</v>
       </c>
       <c r="BD3" s="30">
-        <v>47150</v>
+        <v>47178</v>
       </c>
       <c r="BE3" s="30">
-        <v>47178</v>
+        <v>47209</v>
       </c>
       <c r="BF3" s="30">
-        <v>47209</v>
+        <v>47239</v>
       </c>
       <c r="BG3" s="30">
-        <v>47239</v>
+        <v>47270</v>
       </c>
       <c r="BH3" s="30">
-        <v>47270</v>
+        <v>47300</v>
       </c>
       <c r="BI3" s="30">
-        <v>47300</v>
+        <v>47331</v>
       </c>
       <c r="BJ3" s="30">
-        <v>47331</v>
+        <v>47362</v>
       </c>
       <c r="BK3" s="30">
-        <v>47362</v>
+        <v>47392</v>
       </c>
       <c r="BL3" s="30">
-        <v>47392</v>
+        <v>47423</v>
       </c>
       <c r="BM3" s="30">
-        <v>47423</v>
+        <v>47453</v>
       </c>
       <c r="BN3" s="30">
-        <v>47453</v>
+        <v>47484</v>
       </c>
       <c r="BO3" s="30">
-        <v>47484</v>
+        <v>47515</v>
       </c>
       <c r="BP3" s="30">
-        <v>47515</v>
+        <v>47543</v>
       </c>
       <c r="BQ3" s="30">
-        <v>47543</v>
+        <v>47574</v>
       </c>
       <c r="BR3" s="30">
-        <v>47574</v>
+        <v>47604</v>
       </c>
       <c r="BS3" s="30">
-        <v>47604</v>
+        <v>47635</v>
       </c>
       <c r="BT3" s="30">
-        <v>47635</v>
+        <v>47665</v>
       </c>
       <c r="BU3" s="30">
-        <v>47665</v>
-      </c>
-      <c r="BV3" s="30">
         <v>47696</v>
       </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
@@ -1103,7 +1120,7 @@
         <v>2007193.96</v>
       </c>
       <c r="C4" s="15">
-        <f t="shared" ref="C4:AH4" si="0">C5+C8</f>
+        <f t="shared" ref="C4:AG4" si="0">C5+C8</f>
         <v>65100</v>
       </c>
       <c r="D4" s="5">
@@ -1196,202 +1213,198 @@
       </c>
       <c r="Z4" s="5">
         <f t="shared" si="0"/>
-        <v>110997.94907147787</v>
+        <v>112231.19461044938</v>
       </c>
       <c r="AA4" s="5">
-        <f t="shared" si="0"/>
-        <v>111500.81807781129</v>
+        <f t="shared" ref="AA4" si="1">AA5+AA8</f>
+        <v>175188.36</v>
       </c>
       <c r="AB4" s="5">
         <f t="shared" si="0"/>
-        <v>112231.19461044938</v>
+        <v>112955.55421269746</v>
       </c>
       <c r="AC4" s="5">
         <f t="shared" si="0"/>
-        <v>112955.55421269746</v>
+        <v>113488.68408053627</v>
       </c>
       <c r="AD4" s="5">
         <f t="shared" si="0"/>
-        <v>113488.68408053627</v>
+        <v>114022.34594505926</v>
       </c>
       <c r="AE4" s="5">
         <f t="shared" si="0"/>
-        <v>114022.34594505926</v>
+        <v>114557.3798253882</v>
       </c>
       <c r="AF4" s="5">
         <f t="shared" si="0"/>
-        <v>114557.3798253882</v>
+        <v>115093.79314638168</v>
       </c>
       <c r="AG4" s="5">
         <f t="shared" si="0"/>
-        <v>115093.79314638168</v>
+        <v>115631.58971258732</v>
       </c>
       <c r="AH4" s="5">
-        <f t="shared" si="0"/>
-        <v>115631.58971258732</v>
+        <f t="shared" ref="AH4:BM4" si="2">AH5+AH8</f>
+        <v>116170.77332340677</v>
       </c>
       <c r="AI4" s="5">
-        <f t="shared" ref="AI4:BN4" si="1">AI5+AI8</f>
-        <v>116170.77332340677</v>
+        <f t="shared" si="2"/>
+        <v>116711.34778889181</v>
       </c>
       <c r="AJ4" s="5">
-        <f t="shared" si="1"/>
-        <v>116711.34778889181</v>
+        <f t="shared" si="2"/>
+        <v>117253.31692984366</v>
       </c>
       <c r="AK4" s="5">
-        <f t="shared" si="1"/>
-        <v>117253.31692984366</v>
+        <f t="shared" si="2"/>
+        <v>117796.68457784381</v>
       </c>
       <c r="AL4" s="5">
-        <f t="shared" si="1"/>
-        <v>117796.68457784381</v>
+        <f t="shared" si="2"/>
+        <v>118295.08799702271</v>
       </c>
       <c r="AM4" s="5">
-        <f t="shared" si="1"/>
-        <v>118295.08799702271</v>
+        <f t="shared" si="2"/>
+        <v>118841.05812756054</v>
       </c>
       <c r="AN4" s="5">
-        <f t="shared" si="1"/>
-        <v>118841.05812756054</v>
+        <f t="shared" si="2"/>
+        <v>119388.63976029815</v>
       </c>
       <c r="AO4" s="5">
-        <f t="shared" si="1"/>
-        <v>119388.63976029815</v>
+        <f t="shared" si="2"/>
+        <v>119937.6363443998</v>
       </c>
       <c r="AP4" s="5">
-        <f t="shared" si="1"/>
-        <v>119937.6363443998</v>
+        <f t="shared" si="2"/>
+        <v>120488.05089229152</v>
       </c>
       <c r="AQ4" s="5">
-        <f t="shared" si="1"/>
-        <v>120488.05089229152</v>
+        <f t="shared" si="2"/>
+        <v>121039.88729760991</v>
       </c>
       <c r="AR4" s="5">
-        <f t="shared" si="1"/>
-        <v>121039.88729760991</v>
+        <f t="shared" si="2"/>
+        <v>121593.14946878582</v>
       </c>
       <c r="AS4" s="5">
-        <f t="shared" si="1"/>
-        <v>121593.14946878582</v>
+        <f t="shared" si="2"/>
+        <v>122147.84132529711</v>
       </c>
       <c r="AT4" s="5">
-        <f t="shared" si="1"/>
-        <v>122147.84132529711</v>
+        <f t="shared" si="2"/>
+        <v>122703.96679768368</v>
       </c>
       <c r="AU4" s="5">
-        <f t="shared" si="1"/>
-        <v>122703.96679768368</v>
+        <f t="shared" si="2"/>
+        <v>123261.52982757895</v>
       </c>
       <c r="AV4" s="5">
-        <f t="shared" si="1"/>
-        <v>123261.52982757895</v>
+        <f t="shared" si="2"/>
+        <v>123820.53436774146</v>
       </c>
       <c r="AW4" s="5">
-        <f t="shared" si="1"/>
-        <v>123820.53436774146</v>
+        <f t="shared" si="2"/>
+        <v>124380.98438208665</v>
       </c>
       <c r="AX4" s="5">
-        <f t="shared" si="1"/>
-        <v>124380.98438208665</v>
+        <f t="shared" si="2"/>
+        <v>124894.89443721721</v>
       </c>
       <c r="AY4" s="5">
-        <f t="shared" si="1"/>
-        <v>124894.89443721721</v>
+        <f t="shared" si="2"/>
+        <v>125458.03405444659</v>
       </c>
       <c r="AZ4" s="5">
-        <f t="shared" si="1"/>
-        <v>125458.03405444659</v>
+        <f t="shared" si="2"/>
+        <v>126022.83959052119</v>
       </c>
       <c r="BA4" s="5">
-        <f t="shared" si="1"/>
-        <v>126022.83959052119</v>
+        <f t="shared" si="2"/>
+        <v>126589.10761355137</v>
       </c>
       <c r="BB4" s="5">
-        <f t="shared" si="1"/>
-        <v>126589.10761355137</v>
+        <f t="shared" si="2"/>
+        <v>127156.84123962262</v>
       </c>
       <c r="BC4" s="5">
-        <f t="shared" si="1"/>
-        <v>127156.84123962262</v>
+        <f t="shared" si="2"/>
+        <v>127726.04449687258</v>
       </c>
       <c r="BD4" s="5">
-        <f t="shared" si="1"/>
-        <v>127726.04449687258</v>
+        <f t="shared" si="2"/>
+        <v>128296.72142875013</v>
       </c>
       <c r="BE4" s="5">
-        <f t="shared" si="1"/>
-        <v>128296.72142875013</v>
+        <f t="shared" si="2"/>
+        <v>128868.87609013708</v>
       </c>
       <c r="BF4" s="5">
-        <f t="shared" si="1"/>
-        <v>128868.87609013708</v>
+        <f t="shared" si="2"/>
+        <v>129442.51254736367</v>
       </c>
       <c r="BG4" s="5">
-        <f t="shared" si="1"/>
-        <v>129442.51254736367</v>
+        <f t="shared" si="2"/>
+        <v>129968.9979181941</v>
       </c>
       <c r="BH4" s="5">
-        <f t="shared" si="1"/>
-        <v>129968.9979181941</v>
+        <f t="shared" si="2"/>
+        <v>130478.76360789448</v>
       </c>
       <c r="BI4" s="5">
-        <f t="shared" si="1"/>
-        <v>130478.76360789448</v>
+        <f t="shared" si="2"/>
+        <v>130989.42291756609</v>
       </c>
       <c r="BJ4" s="5">
-        <f t="shared" si="1"/>
-        <v>130989.42291756609</v>
+        <f t="shared" si="2"/>
+        <v>131501.07479386276</v>
       </c>
       <c r="BK4" s="5">
-        <f t="shared" si="1"/>
-        <v>131501.07479386276</v>
+        <f t="shared" si="2"/>
+        <v>132013.72261231358</v>
       </c>
       <c r="BL4" s="5">
-        <f t="shared" si="1"/>
-        <v>132013.72261231358</v>
+        <f t="shared" si="2"/>
+        <v>132527.36923503783</v>
       </c>
       <c r="BM4" s="5">
-        <f t="shared" si="1"/>
-        <v>132527.36923503783</v>
+        <f t="shared" si="2"/>
+        <v>133042.01752951712</v>
       </c>
       <c r="BN4" s="5">
-        <f t="shared" si="1"/>
-        <v>133042.01752951712</v>
+        <f t="shared" ref="BN4:BU4" si="3">BN5+BN8</f>
+        <v>133557.67037144973</v>
       </c>
       <c r="BO4" s="5">
-        <f t="shared" ref="BO4:BV4" si="2">BO5+BO8</f>
-        <v>133557.67037144973</v>
+        <f t="shared" si="3"/>
+        <v>134074.33064478962</v>
       </c>
       <c r="BP4" s="5">
-        <f t="shared" si="2"/>
-        <v>134074.33064478962</v>
+        <f t="shared" si="3"/>
+        <v>134592.00124177034</v>
       </c>
       <c r="BQ4" s="5">
-        <f t="shared" si="2"/>
-        <v>134592.00124177034</v>
+        <f t="shared" si="3"/>
+        <v>135110.68506292874</v>
       </c>
       <c r="BR4" s="5">
-        <f t="shared" si="2"/>
-        <v>135110.68506292874</v>
+        <f t="shared" si="3"/>
+        <v>135630.38501712884</v>
       </c>
       <c r="BS4" s="5">
-        <f t="shared" si="2"/>
-        <v>135630.38501712884</v>
+        <f t="shared" si="3"/>
+        <v>136151.1040215856</v>
       </c>
       <c r="BT4" s="5">
-        <f t="shared" si="2"/>
-        <v>136151.1040215856</v>
+        <f t="shared" si="3"/>
+        <v>136672.84500188916</v>
       </c>
       <c r="BU4" s="5">
-        <f t="shared" si="2"/>
-        <v>136672.84500188916</v>
-      </c>
-      <c r="BV4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>125066.2062781055</v>
       </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>37</v>
       </c>
@@ -1404,287 +1417,283 @@
         <v>106615.54357770366</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:BQ5" si="3">SUM(E6:E7)</f>
+        <f t="shared" ref="E5:BP5" si="4">SUM(E6:E7)</f>
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106615.54357770366</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16396.690000000002</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106593.93710049389</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106899.95749797703</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20916.34</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107206.85644902731</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18116.34</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107514.63647588308</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29064.35</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107823.30010802369</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108132.84988219042</v>
       </c>
       <c r="S5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89978.67</v>
       </c>
       <c r="T5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108842.82003705943</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51312.25</v>
       </c>
       <c r="V5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>109556.97743247374</v>
       </c>
       <c r="W5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68758.320000000007</v>
       </c>
       <c r="X5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110275.34581702357</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" ref="Y5" si="4">SUM(Y6:Y7)</f>
+        <f t="shared" ref="Y5:AA5" si="5">SUM(Y6:Y7)</f>
         <v>0</v>
       </c>
       <c r="Z5" s="5">
-        <f t="shared" si="3"/>
-        <v>110997.94907147787</v>
+        <f t="shared" si="4"/>
+        <v>112231.19461044938</v>
       </c>
       <c r="AA5" s="5">
-        <f t="shared" si="3"/>
-        <v>111500.81807781129</v>
+        <f t="shared" si="5"/>
+        <v>76268.36</v>
       </c>
       <c r="AB5" s="5">
-        <f t="shared" si="3"/>
-        <v>112231.19461044938</v>
+        <f t="shared" si="4"/>
+        <v>112955.55421269746</v>
       </c>
       <c r="AC5" s="5">
-        <f t="shared" si="3"/>
-        <v>112955.55421269746</v>
+        <f t="shared" si="4"/>
+        <v>113488.68408053627</v>
       </c>
       <c r="AD5" s="5">
-        <f t="shared" si="3"/>
-        <v>113488.68408053627</v>
+        <f t="shared" si="4"/>
+        <v>114022.34594505926</v>
       </c>
       <c r="AE5" s="5">
-        <f t="shared" si="3"/>
-        <v>114022.34594505926</v>
+        <f t="shared" si="4"/>
+        <v>114557.3798253882</v>
       </c>
       <c r="AF5" s="5">
-        <f t="shared" si="3"/>
-        <v>114557.3798253882</v>
+        <f t="shared" si="4"/>
+        <v>115093.79314638168</v>
       </c>
       <c r="AG5" s="5">
-        <f t="shared" si="3"/>
-        <v>115093.79314638168</v>
+        <f t="shared" si="4"/>
+        <v>115631.58971258732</v>
       </c>
       <c r="AH5" s="5">
-        <f t="shared" si="3"/>
-        <v>115631.58971258732</v>
+        <f t="shared" si="4"/>
+        <v>116170.77332340677</v>
       </c>
       <c r="AI5" s="5">
-        <f t="shared" si="3"/>
-        <v>116170.77332340677</v>
+        <f t="shared" si="4"/>
+        <v>116711.34778889181</v>
       </c>
       <c r="AJ5" s="5">
-        <f t="shared" si="3"/>
-        <v>116711.34778889181</v>
+        <f t="shared" si="4"/>
+        <v>117253.31692984366</v>
       </c>
       <c r="AK5" s="5">
-        <f t="shared" si="3"/>
-        <v>117253.31692984366</v>
+        <f t="shared" si="4"/>
+        <v>117796.68457784381</v>
       </c>
       <c r="AL5" s="5">
-        <f t="shared" si="3"/>
-        <v>117796.68457784381</v>
+        <f t="shared" si="4"/>
+        <v>118295.08799702271</v>
       </c>
       <c r="AM5" s="5">
-        <f t="shared" si="3"/>
-        <v>118295.08799702271</v>
+        <f t="shared" si="4"/>
+        <v>118841.05812756054</v>
       </c>
       <c r="AN5" s="5">
-        <f t="shared" si="3"/>
-        <v>118841.05812756054</v>
+        <f t="shared" si="4"/>
+        <v>119388.63976029815</v>
       </c>
       <c r="AO5" s="5">
-        <f t="shared" si="3"/>
-        <v>119388.63976029815</v>
+        <f t="shared" si="4"/>
+        <v>119937.6363443998</v>
       </c>
       <c r="AP5" s="5">
-        <f t="shared" si="3"/>
-        <v>119937.6363443998</v>
+        <f t="shared" si="4"/>
+        <v>120488.05089229152</v>
       </c>
       <c r="AQ5" s="5">
-        <f t="shared" si="3"/>
-        <v>120488.05089229152</v>
+        <f t="shared" si="4"/>
+        <v>121039.88729760991</v>
       </c>
       <c r="AR5" s="5">
-        <f t="shared" si="3"/>
-        <v>121039.88729760991</v>
+        <f t="shared" si="4"/>
+        <v>121593.14946878582</v>
       </c>
       <c r="AS5" s="5">
-        <f t="shared" si="3"/>
-        <v>121593.14946878582</v>
+        <f t="shared" si="4"/>
+        <v>122147.84132529711</v>
       </c>
       <c r="AT5" s="5">
-        <f t="shared" si="3"/>
-        <v>122147.84132529711</v>
+        <f t="shared" si="4"/>
+        <v>122703.96679768368</v>
       </c>
       <c r="AU5" s="5">
-        <f t="shared" si="3"/>
-        <v>122703.96679768368</v>
+        <f t="shared" si="4"/>
+        <v>123261.52982757895</v>
       </c>
       <c r="AV5" s="5">
-        <f t="shared" si="3"/>
-        <v>123261.52982757895</v>
+        <f t="shared" si="4"/>
+        <v>123820.53436774146</v>
       </c>
       <c r="AW5" s="5">
-        <f t="shared" si="3"/>
-        <v>123820.53436774146</v>
+        <f t="shared" si="4"/>
+        <v>124380.98438208665</v>
       </c>
       <c r="AX5" s="5">
-        <f t="shared" si="3"/>
-        <v>124380.98438208665</v>
+        <f t="shared" si="4"/>
+        <v>124894.89443721721</v>
       </c>
       <c r="AY5" s="5">
-        <f t="shared" si="3"/>
-        <v>124894.89443721721</v>
+        <f t="shared" si="4"/>
+        <v>125458.03405444659</v>
       </c>
       <c r="AZ5" s="5">
-        <f t="shared" si="3"/>
-        <v>125458.03405444659</v>
+        <f t="shared" si="4"/>
+        <v>126022.83959052119</v>
       </c>
       <c r="BA5" s="5">
-        <f t="shared" si="3"/>
-        <v>126022.83959052119</v>
+        <f t="shared" si="4"/>
+        <v>126589.10761355137</v>
       </c>
       <c r="BB5" s="5">
-        <f t="shared" si="3"/>
-        <v>126589.10761355137</v>
+        <f t="shared" si="4"/>
+        <v>127156.84123962262</v>
       </c>
       <c r="BC5" s="5">
-        <f t="shared" si="3"/>
-        <v>127156.84123962262</v>
+        <f t="shared" si="4"/>
+        <v>127726.04449687258</v>
       </c>
       <c r="BD5" s="5">
-        <f t="shared" si="3"/>
-        <v>127726.04449687258</v>
+        <f t="shared" si="4"/>
+        <v>128296.72142875013</v>
       </c>
       <c r="BE5" s="5">
-        <f t="shared" si="3"/>
-        <v>128296.72142875013</v>
+        <f t="shared" si="4"/>
+        <v>128868.87609013708</v>
       </c>
       <c r="BF5" s="5">
-        <f t="shared" si="3"/>
-        <v>128868.87609013708</v>
+        <f t="shared" si="4"/>
+        <v>129442.51254736367</v>
       </c>
       <c r="BG5" s="5">
-        <f t="shared" si="3"/>
-        <v>129442.51254736367</v>
+        <f t="shared" si="4"/>
+        <v>129968.9979181941</v>
       </c>
       <c r="BH5" s="5">
-        <f t="shared" si="3"/>
-        <v>129968.9979181941</v>
+        <f t="shared" si="4"/>
+        <v>130478.76360789448</v>
       </c>
       <c r="BI5" s="5">
-        <f t="shared" si="3"/>
-        <v>130478.76360789448</v>
+        <f t="shared" si="4"/>
+        <v>130989.42291756609</v>
       </c>
       <c r="BJ5" s="5">
-        <f t="shared" si="3"/>
-        <v>130989.42291756609</v>
+        <f t="shared" si="4"/>
+        <v>131501.07479386276</v>
       </c>
       <c r="BK5" s="5">
-        <f t="shared" si="3"/>
-        <v>131501.07479386276</v>
+        <f t="shared" si="4"/>
+        <v>132013.72261231358</v>
       </c>
       <c r="BL5" s="5">
-        <f t="shared" si="3"/>
-        <v>132013.72261231358</v>
+        <f t="shared" si="4"/>
+        <v>132527.36923503783</v>
       </c>
       <c r="BM5" s="5">
-        <f t="shared" si="3"/>
-        <v>132527.36923503783</v>
+        <f t="shared" si="4"/>
+        <v>133042.01752951712</v>
       </c>
       <c r="BN5" s="5">
-        <f t="shared" si="3"/>
-        <v>133042.01752951712</v>
+        <f t="shared" si="4"/>
+        <v>133557.67037144973</v>
       </c>
       <c r="BO5" s="5">
-        <f t="shared" si="3"/>
-        <v>133557.67037144973</v>
+        <f t="shared" si="4"/>
+        <v>134074.33064478962</v>
       </c>
       <c r="BP5" s="5">
-        <f t="shared" si="3"/>
-        <v>134074.33064478962</v>
+        <f t="shared" si="4"/>
+        <v>134592.00124177034</v>
       </c>
       <c r="BQ5" s="5">
-        <f t="shared" si="3"/>
-        <v>134592.00124177034</v>
+        <f t="shared" ref="BQ5:BU5" si="6">SUM(BQ6:BQ7)</f>
+        <v>135110.68506292874</v>
       </c>
       <c r="BR5" s="5">
-        <f t="shared" ref="BR5:BV5" si="5">SUM(BR6:BR7)</f>
-        <v>135110.68506292874</v>
+        <f t="shared" si="6"/>
+        <v>135630.38501712884</v>
       </c>
       <c r="BS5" s="5">
-        <f t="shared" si="5"/>
-        <v>135630.38501712884</v>
+        <f t="shared" si="6"/>
+        <v>136151.1040215856</v>
       </c>
       <c r="BT5" s="5">
-        <f t="shared" si="5"/>
-        <v>136151.1040215856</v>
+        <f t="shared" si="6"/>
+        <v>136672.84500188916</v>
       </c>
       <c r="BU5" s="5">
-        <f t="shared" si="5"/>
-        <v>136672.84500188916</v>
-      </c>
-      <c r="BV5" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>125066.2062781055</v>
       </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>0</v>
       </c>
@@ -1750,154 +1759,151 @@
       </c>
       <c r="Y6" s="10"/>
       <c r="Z6" s="2">
-        <v>108987.97340880129</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>109300.86684205539</v>
+        <v>109614.6585606662</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>76268.36</v>
       </c>
       <c r="AB6" s="2">
-        <v>109614.6585606662</v>
+        <v>109929.35114352005</v>
       </c>
       <c r="AC6" s="2">
-        <v>109929.35114352005</v>
+        <v>110244.94717690691</v>
       </c>
       <c r="AD6" s="2">
-        <v>110244.94717690691</v>
+        <v>110561.44925454176</v>
       </c>
       <c r="AE6" s="2">
-        <v>110561.44925454176</v>
+        <v>110878.85997758587</v>
       </c>
       <c r="AF6" s="2">
-        <v>110878.85997758587</v>
+        <v>111197.18195466821</v>
       </c>
       <c r="AG6" s="2">
-        <v>111197.18195466821</v>
+        <v>111516.41780190682</v>
       </c>
       <c r="AH6" s="2">
-        <v>111516.41780190682</v>
+        <v>111836.57014293033</v>
       </c>
       <c r="AI6" s="2">
-        <v>111836.57014293033</v>
+        <v>112157.64160889959</v>
       </c>
       <c r="AJ6" s="2">
-        <v>112157.64160889959</v>
+        <v>112479.63483852924</v>
       </c>
       <c r="AK6" s="2">
-        <v>112479.63483852924</v>
+        <v>112802.55247810938</v>
       </c>
       <c r="AL6" s="2">
-        <v>112802.55247810938</v>
+        <v>113126.39718152737</v>
       </c>
       <c r="AM6" s="2">
-        <v>113126.39718152737</v>
+        <v>113451.17161028957</v>
       </c>
       <c r="AN6" s="2">
-        <v>113451.17161028957</v>
+        <v>113776.87843354329</v>
       </c>
       <c r="AO6" s="2">
-        <v>113776.87843354329</v>
+        <v>114103.52032809868</v>
       </c>
       <c r="AP6" s="2">
-        <v>114103.52032809868</v>
+        <v>114431.09997845073</v>
       </c>
       <c r="AQ6" s="2">
-        <v>114431.09997845073</v>
+        <v>114759.6200768014</v>
       </c>
       <c r="AR6" s="2">
-        <v>114759.6200768014</v>
+        <v>115089.08332308161</v>
       </c>
       <c r="AS6" s="2">
-        <v>115089.08332308161</v>
+        <v>115419.49242497355</v>
       </c>
       <c r="AT6" s="2">
-        <v>115419.49242497355</v>
+        <v>115750.85009793288</v>
       </c>
       <c r="AU6" s="2">
-        <v>115750.85009793288</v>
+        <v>116083.15906521108</v>
       </c>
       <c r="AV6" s="2">
-        <v>116083.15906521108</v>
+        <v>116416.42205787776</v>
       </c>
       <c r="AW6" s="2">
-        <v>116416.42205787776</v>
+        <v>116750.6418148432</v>
       </c>
       <c r="AX6" s="2">
-        <v>116750.6418148432</v>
+        <v>117085.82108288081</v>
       </c>
       <c r="AY6" s="2">
-        <v>117085.82108288081</v>
+        <v>117421.9626166497</v>
       </c>
       <c r="AZ6" s="2">
-        <v>117421.9626166497</v>
+        <v>117759.06917871731</v>
       </c>
       <c r="BA6" s="2">
-        <v>117759.06917871731</v>
+        <v>118097.14353958215</v>
       </c>
       <c r="BB6" s="2">
-        <v>118097.14353958215</v>
+        <v>118436.18847769655</v>
       </c>
       <c r="BC6" s="2">
-        <v>118436.18847769655</v>
+        <v>118776.20677948948</v>
       </c>
       <c r="BD6" s="2">
-        <v>118776.20677948948</v>
+        <v>119117.2012393895</v>
       </c>
       <c r="BE6" s="2">
-        <v>119117.2012393895</v>
+        <v>119459.17465984766</v>
       </c>
       <c r="BF6" s="2">
-        <v>119459.17465984766</v>
+        <v>119802.12985136057</v>
       </c>
       <c r="BG6" s="2">
-        <v>119802.12985136057</v>
+        <v>120146.0696324935</v>
       </c>
       <c r="BH6" s="2">
-        <v>120146.0696324935</v>
+        <v>120490.99682990351</v>
       </c>
       <c r="BI6" s="2">
-        <v>120490.99682990351</v>
+        <v>120836.91427836275</v>
       </c>
       <c r="BJ6" s="2">
-        <v>120836.91427836275</v>
+        <v>121183.82482078168</v>
       </c>
       <c r="BK6" s="2">
-        <v>121183.82482078168</v>
+        <v>121531.73130823248</v>
       </c>
       <c r="BL6" s="2">
-        <v>121531.73130823248</v>
+        <v>121880.63659997245</v>
       </c>
       <c r="BM6" s="2">
-        <v>121880.63659997245</v>
+        <v>122230.54356346755</v>
       </c>
       <c r="BN6" s="2">
-        <v>122230.54356346755</v>
+        <v>122581.45507441595</v>
       </c>
       <c r="BO6" s="2">
-        <v>122581.45507441595</v>
+        <v>122933.37401677165</v>
       </c>
       <c r="BP6" s="2">
-        <v>122933.37401677165</v>
+        <v>123286.30328276817</v>
       </c>
       <c r="BQ6" s="2">
-        <v>123286.30328276817</v>
+        <v>123640.24577294236</v>
       </c>
       <c r="BR6" s="2">
-        <v>123640.24577294236</v>
+        <v>123995.20439615824</v>
       </c>
       <c r="BS6" s="2">
-        <v>123995.20439615824</v>
+        <v>124351.18206963081</v>
       </c>
       <c r="BT6" s="2">
-        <v>124351.18206963081</v>
+        <v>124708.18171895017</v>
       </c>
       <c r="BU6" s="2">
-        <v>124708.18171895017</v>
-      </c>
-      <c r="BV6" s="2">
         <v>125066.2062781055</v>
       </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
@@ -1947,154 +1953,148 @@
         <v>1599.3701276233955</v>
       </c>
       <c r="Z7" s="2">
-        <v>2009.975662676575</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>2199.9512357558933</v>
+        <v>2616.5360497831916</v>
       </c>
       <c r="AB7" s="2">
-        <v>2616.5360497831916</v>
+        <v>3026.2030691774053</v>
       </c>
       <c r="AC7" s="2">
-        <v>3026.2030691774053</v>
+        <v>3243.736903629368</v>
       </c>
       <c r="AD7" s="2">
-        <v>3243.736903629368</v>
+        <v>3460.8966905174989</v>
       </c>
       <c r="AE7" s="2">
-        <v>3460.8966905174989</v>
+        <v>3678.5198478023194</v>
       </c>
       <c r="AF7" s="2">
-        <v>3678.5198478023194</v>
+        <v>3896.6111917134726</v>
       </c>
       <c r="AG7" s="2">
-        <v>3896.6111917134726</v>
+        <v>4115.1719106805022</v>
       </c>
       <c r="AH7" s="2">
-        <v>4115.1719106805022</v>
+        <v>4334.2031804764392</v>
       </c>
       <c r="AI7" s="2">
-        <v>4334.2031804764392</v>
+        <v>4553.7061799922249</v>
       </c>
       <c r="AJ7" s="2">
-        <v>4553.7061799922249</v>
+        <v>4773.6820913144138</v>
       </c>
       <c r="AK7" s="2">
-        <v>4773.6820913144138</v>
+        <v>4994.1320997344374</v>
       </c>
       <c r="AL7" s="2">
-        <v>4994.1320997344374</v>
+        <v>5168.6908154953417</v>
       </c>
       <c r="AM7" s="2">
-        <v>5168.6908154953417</v>
+        <v>5389.8865172709584</v>
       </c>
       <c r="AN7" s="2">
-        <v>5389.8865172709584</v>
+        <v>5611.7613267548541</v>
       </c>
       <c r="AO7" s="2">
-        <v>5611.7613267548541</v>
+        <v>5834.1160163011245</v>
       </c>
       <c r="AP7" s="2">
-        <v>5834.1160163011245</v>
+        <v>6056.9509138407848</v>
       </c>
       <c r="AQ7" s="2">
-        <v>6056.9509138407848</v>
+        <v>6280.2672208085205</v>
       </c>
       <c r="AR7" s="2">
-        <v>6280.2672208085205</v>
+        <v>6504.0661457042106</v>
       </c>
       <c r="AS7" s="2">
-        <v>6504.0661457042106</v>
+        <v>6728.3489003235554</v>
       </c>
       <c r="AT7" s="2">
-        <v>6728.3489003235554</v>
+        <v>6953.1166997507917</v>
       </c>
       <c r="AU7" s="2">
-        <v>6953.1166997507917</v>
+        <v>7178.3707623678711</v>
       </c>
       <c r="AV7" s="2">
-        <v>7178.3707623678711</v>
+        <v>7404.1123098637072</v>
       </c>
       <c r="AW7" s="2">
-        <v>7404.1123098637072</v>
+        <v>7630.3425672434551</v>
       </c>
       <c r="AX7" s="2">
-        <v>7630.3425672434551</v>
+        <v>7809.0733543363986</v>
       </c>
       <c r="AY7" s="2">
-        <v>7809.0733543363986</v>
+        <v>8036.0714377968825</v>
       </c>
       <c r="AZ7" s="2">
-        <v>8036.0714377968825</v>
+        <v>8263.7704118038819</v>
       </c>
       <c r="BA7" s="2">
-        <v>8263.7704118038819</v>
+        <v>8491.9640739692313</v>
       </c>
       <c r="BB7" s="2">
-        <v>8491.9640739692313</v>
+        <v>8720.6527619260814</v>
       </c>
       <c r="BC7" s="2">
-        <v>8720.6527619260814</v>
+        <v>8949.8377173830977</v>
       </c>
       <c r="BD7" s="2">
-        <v>8949.8377173830977</v>
+        <v>9179.5201893606336</v>
       </c>
       <c r="BE7" s="2">
-        <v>9179.5201893606336</v>
+        <v>9409.7014302894295</v>
       </c>
       <c r="BF7" s="2">
-        <v>9409.7014302894295</v>
+        <v>9640.3826960030947</v>
       </c>
       <c r="BG7" s="2">
-        <v>9640.3826960030947</v>
+        <v>9822.9282857006074</v>
       </c>
       <c r="BH7" s="2">
-        <v>9822.9282857006074</v>
+        <v>9987.766777990968</v>
       </c>
       <c r="BI7" s="2">
-        <v>9987.766777990968</v>
+        <v>10152.508639203334</v>
       </c>
       <c r="BJ7" s="2">
-        <v>10152.508639203334</v>
+        <v>10317.249973081094</v>
       </c>
       <c r="BK7" s="2">
-        <v>10317.249973081094</v>
+        <v>10481.991304081086</v>
       </c>
       <c r="BL7" s="2">
-        <v>10481.991304081086</v>
+        <v>10646.732635065375</v>
       </c>
       <c r="BM7" s="2">
-        <v>10646.732635065375</v>
+        <v>10811.473966049576</v>
       </c>
       <c r="BN7" s="2">
-        <v>10811.473966049576</v>
+        <v>10976.215297033777</v>
       </c>
       <c r="BO7" s="2">
-        <v>10976.215297033777</v>
+        <v>11140.956628017979</v>
       </c>
       <c r="BP7" s="2">
-        <v>11140.956628017979</v>
+        <v>11305.69795900218</v>
       </c>
       <c r="BQ7" s="2">
-        <v>11305.69795900218</v>
+        <v>11470.439289986381</v>
       </c>
       <c r="BR7" s="2">
-        <v>11470.439289986381</v>
+        <v>11635.180620970583</v>
       </c>
       <c r="BS7" s="2">
-        <v>11635.180620970583</v>
+        <v>11799.921951954784</v>
       </c>
       <c r="BT7" s="2">
-        <v>11799.921951954784</v>
+        <v>11964.663282938986</v>
       </c>
       <c r="BU7" s="2">
-        <v>11964.663282938986</v>
-      </c>
-      <c r="BV7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>38</v>
       </c>
@@ -2103,300 +2103,296 @@
         <v>1712651</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ref="C8:AH8" si="6">SUM(C9:C12)</f>
+        <f t="shared" ref="C8:AG8" si="7">SUM(C9:C12)</f>
         <v>65100</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1900000</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>70001</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>150000</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>107225</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10000</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>125634.4</v>
       </c>
       <c r="N8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>320000</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>180000</v>
       </c>
       <c r="R8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37807</v>
       </c>
       <c r="V8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>646883.6</v>
       </c>
       <c r="X8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA8" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="AA8" si="8">SUM(AA9:AA12)</f>
+        <v>98920</v>
       </c>
       <c r="AB8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AH8:BM8" si="9">SUM(AH9:AH12)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="5">
-        <f t="shared" ref="AI8:BN8" si="7">SUM(AI9:AI12)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AR8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AS8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AT8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AU8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AV8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AW8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AX8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AY8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AZ8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BA8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BB8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BC8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BD8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BE8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BF8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BG8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BH8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BI8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BJ8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BK8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BL8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BM8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BN8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="BN8:BU8" si="10">SUM(BN9:BN12)</f>
         <v>0</v>
       </c>
       <c r="BO8" s="5">
-        <f t="shared" ref="BO8:BV8" si="8">SUM(BO9:BO12)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BP8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BQ8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BR8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BS8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BT8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BU8" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BV8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="7">
-        <f t="shared" ref="B9:B15" si="9">C9+E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9</f>
+        <f t="shared" ref="B9:B15" si="11">C9+E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9</f>
         <v>380651</v>
       </c>
       <c r="C9" s="2">
@@ -2444,7 +2440,9 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="AA9" s="10">
+        <v>2920</v>
+      </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
@@ -2491,14 +2489,13 @@
       <c r="BS9" s="2"/>
       <c r="BT9" s="2"/>
       <c r="BU9" s="2"/>
-      <c r="BV9" s="2"/>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="7">
-        <f t="shared" ref="B10" si="10">C10+E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10</f>
+        <f t="shared" ref="B10" si="12">C10+E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10</f>
         <v>497000</v>
       </c>
       <c r="C10" s="2"/>
@@ -2529,7 +2526,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
+      <c r="AA10" s="10"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -2576,14 +2573,13 @@
       <c r="BS10" s="2"/>
       <c r="BT10" s="2"/>
       <c r="BU10" s="2"/>
-      <c r="BV10" s="2"/>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>991000</v>
       </c>
       <c r="C11" s="2"/>
@@ -2627,7 +2623,9 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
+      <c r="AA11" s="10">
+        <v>96000</v>
+      </c>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
@@ -2674,14 +2672,13 @@
       <c r="BS11" s="2"/>
       <c r="BT11" s="2"/>
       <c r="BU11" s="2"/>
-      <c r="BV11" s="2"/>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-156000</v>
       </c>
       <c r="C12" s="2"/>
@@ -2711,7 +2708,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
+      <c r="AA12" s="10"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
@@ -2758,19 +2755,18 @@
       <c r="BS12" s="2"/>
       <c r="BT12" s="2"/>
       <c r="BU12" s="2"/>
-      <c r="BV12" s="2"/>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
       <c r="C13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="7">
-        <f t="shared" si="9"/>
-        <v>-1976265.04</v>
+        <f t="shared" si="11"/>
+        <v>-1988221.31</v>
       </c>
       <c r="C14" s="10">
         <f>C15+C39+C47+C25</f>
@@ -2785,7 +2781,7 @@
         <v>-54706.32</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" ref="F14:J14" si="11">F15+F39+F47</f>
+        <f t="shared" ref="F14:J14" si="13">F15+F39+F47</f>
         <v>-408527.40230918775</v>
       </c>
       <c r="G14" s="10">
@@ -2793,7 +2789,7 @@
         <v>-175296.1</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-409516.0182064494</v>
       </c>
       <c r="I14" s="10">
@@ -2801,7 +2797,7 @@
         <v>-126600.84</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-305118.589039805</v>
       </c>
       <c r="K14" s="10">
@@ -2809,7 +2805,7 @@
         <v>-7684.3</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" ref="L14:AC14" si="12">L15+L39+L47</f>
+        <f t="shared" ref="L14:AB14" si="14">L15+L39+L47</f>
         <v>-305163.02165031742</v>
       </c>
       <c r="M14" s="10">
@@ -2817,7 +2813,7 @@
         <v>-157263.75000000003</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-305207.5818223544</v>
       </c>
       <c r="O14" s="10">
@@ -2825,7 +2821,7 @@
         <v>-325460.69999999995</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-282184.56565269525</v>
       </c>
       <c r="Q14" s="10">
@@ -2833,7 +2829,7 @@
         <v>-186366.61</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-13655.396624750776</v>
       </c>
       <c r="S14" s="10">
@@ -2841,7 +2837,7 @@
         <v>-13708.77</v>
       </c>
       <c r="T14" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-13700.341682867411</v>
       </c>
       <c r="U14" s="10">
@@ -2849,7 +2845,7 @@
         <v>-143558.44999999998</v>
       </c>
       <c r="V14" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-13745.41577369382</v>
       </c>
       <c r="W14" s="10">
@@ -2857,508 +2853,500 @@
         <v>-592353.26</v>
       </c>
       <c r="X14" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-13790.619267669847</v>
       </c>
       <c r="Y14" s="10">
         <f>Y15+Y39+Y47+Y25</f>
-        <v>-141209.29</v>
+        <v>-153165.56</v>
       </c>
       <c r="Z14" s="5">
-        <f t="shared" si="12"/>
-        <v>-13835.952536298828</v>
-      </c>
-      <c r="AA14" s="5">
-        <f t="shared" si="12"/>
-        <v>-13881.415952150646</v>
+        <f t="shared" si="14"/>
+        <v>-13927.009888864799</v>
+      </c>
+      <c r="AA14" s="10">
+        <f>AA15+AA39+AA47+AA25</f>
+        <v>-194150.19</v>
       </c>
       <c r="AB14" s="5">
-        <f t="shared" si="12"/>
-        <v>-13927.009888864799</v>
+        <f t="shared" si="14"/>
+        <v>-13972.734721153462</v>
       </c>
       <c r="AC14" s="5">
-        <f t="shared" si="12"/>
-        <v>-13972.734721153462</v>
+        <f t="shared" ref="AC14:BU14" si="15">AC15-AC39-AC47</f>
+        <v>14018.590824804574</v>
       </c>
       <c r="AD14" s="5">
-        <f t="shared" ref="AD14:BV14" si="13">AD15-AD39-AD47</f>
-        <v>14018.590824804574</v>
+        <f t="shared" si="15"/>
+        <v>14064.578576684915</v>
       </c>
       <c r="AE14" s="5">
-        <f t="shared" si="13"/>
-        <v>14064.578576684915</v>
+        <f t="shared" si="15"/>
+        <v>14110.698354743226</v>
       </c>
       <c r="AF14" s="5">
-        <f t="shared" si="13"/>
-        <v>14110.698354743226</v>
+        <f t="shared" si="15"/>
+        <v>14156.95053801329</v>
       </c>
       <c r="AG14" s="5">
-        <f t="shared" si="13"/>
-        <v>14156.95053801329</v>
+        <f t="shared" si="15"/>
+        <v>14203.335506617061</v>
       </c>
       <c r="AH14" s="5">
-        <f t="shared" si="13"/>
-        <v>14203.335506617061</v>
+        <f t="shared" si="15"/>
+        <v>14249.853641767777</v>
       </c>
       <c r="AI14" s="5">
-        <f t="shared" si="13"/>
-        <v>14249.853641767777</v>
+        <f t="shared" si="15"/>
+        <v>14296.505325773111</v>
       </c>
       <c r="AJ14" s="5">
-        <f t="shared" si="13"/>
-        <v>14296.505325773111</v>
+        <f t="shared" si="15"/>
+        <v>14343.290942038298</v>
       </c>
       <c r="AK14" s="5">
-        <f t="shared" si="13"/>
-        <v>14343.290942038298</v>
+        <f t="shared" si="15"/>
+        <v>14390.210875069293</v>
       </c>
       <c r="AL14" s="5">
-        <f t="shared" si="13"/>
-        <v>14390.210875069293</v>
+        <f t="shared" si="15"/>
+        <v>14437.265510475925</v>
       </c>
       <c r="AM14" s="5">
-        <f t="shared" si="13"/>
-        <v>14437.265510475925</v>
+        <f t="shared" si="15"/>
+        <v>14484.455234975074</v>
       </c>
       <c r="AN14" s="5">
-        <f t="shared" si="13"/>
-        <v>14484.455234975074</v>
+        <f t="shared" si="15"/>
+        <v>14531.780436393839</v>
       </c>
       <c r="AO14" s="5">
-        <f t="shared" si="13"/>
-        <v>14531.780436393839</v>
+        <f t="shared" si="15"/>
+        <v>14579.241503672736</v>
       </c>
       <c r="AP14" s="5">
-        <f t="shared" si="13"/>
-        <v>14579.241503672736</v>
+        <f t="shared" si="15"/>
+        <v>14626.838826868892</v>
       </c>
       <c r="AQ14" s="5">
-        <f t="shared" si="13"/>
-        <v>14626.838826868892</v>
+        <f t="shared" si="15"/>
+        <v>14674.572797159242</v>
       </c>
       <c r="AR14" s="5">
-        <f t="shared" si="13"/>
-        <v>14674.572797159242</v>
+        <f t="shared" si="15"/>
+        <v>14722.443806843758</v>
       </c>
       <c r="AS14" s="5">
-        <f t="shared" si="13"/>
-        <v>14722.443806843758</v>
+        <f t="shared" si="15"/>
+        <v>14770.452249348658</v>
       </c>
       <c r="AT14" s="5">
-        <f t="shared" si="13"/>
-        <v>14770.452249348658</v>
+        <f t="shared" si="15"/>
+        <v>14818.598519229647</v>
       </c>
       <c r="AU14" s="5">
-        <f t="shared" si="13"/>
-        <v>14818.598519229647</v>
+        <f t="shared" si="15"/>
+        <v>14866.883012175169</v>
       </c>
       <c r="AV14" s="5">
-        <f t="shared" si="13"/>
-        <v>14866.883012175169</v>
+        <f t="shared" si="15"/>
+        <v>14915.306125009638</v>
       </c>
       <c r="AW14" s="5">
-        <f t="shared" si="13"/>
-        <v>14915.306125009638</v>
+        <f t="shared" si="15"/>
+        <v>14963.868255696718</v>
       </c>
       <c r="AX14" s="5">
-        <f t="shared" si="13"/>
-        <v>14963.868255696718</v>
+        <f t="shared" si="15"/>
+        <v>15012.56980334258</v>
       </c>
       <c r="AY14" s="5">
-        <f t="shared" si="13"/>
-        <v>15012.56980334258</v>
+        <f t="shared" si="15"/>
+        <v>15061.411168199204</v>
       </c>
       <c r="AZ14" s="5">
-        <f t="shared" si="13"/>
-        <v>15061.411168199204</v>
+        <f t="shared" si="15"/>
+        <v>15110.392751667627</v>
       </c>
       <c r="BA14" s="5">
-        <f t="shared" si="13"/>
-        <v>15110.392751667627</v>
+        <f t="shared" si="15"/>
+        <v>15159.514956301286</v>
       </c>
       <c r="BB14" s="5">
-        <f t="shared" si="13"/>
-        <v>15159.514956301286</v>
+        <f t="shared" si="15"/>
+        <v>15208.778185809309</v>
       </c>
       <c r="BC14" s="5">
-        <f t="shared" si="13"/>
-        <v>15208.778185809309</v>
+        <f t="shared" si="15"/>
+        <v>15258.182845059824</v>
       </c>
       <c r="BD14" s="5">
-        <f t="shared" si="13"/>
-        <v>15258.182845059824</v>
+        <f t="shared" si="15"/>
+        <v>15307.729340083293</v>
       </c>
       <c r="BE14" s="5">
-        <f t="shared" si="13"/>
-        <v>15307.729340083293</v>
+        <f t="shared" si="15"/>
+        <v>15357.418078075865</v>
       </c>
       <c r="BF14" s="5">
-        <f t="shared" si="13"/>
-        <v>15357.418078075865</v>
+        <f t="shared" si="15"/>
+        <v>15407.249467402691</v>
       </c>
       <c r="BG14" s="5">
-        <f t="shared" si="13"/>
-        <v>15407.249467402691</v>
+        <f t="shared" si="15"/>
+        <v>15457.223917601306</v>
       </c>
       <c r="BH14" s="5">
-        <f t="shared" si="13"/>
-        <v>15457.223917601306</v>
+        <f t="shared" si="15"/>
+        <v>15507.341839384981</v>
       </c>
       <c r="BI14" s="5">
-        <f t="shared" si="13"/>
-        <v>15507.341839384981</v>
+        <f t="shared" si="15"/>
+        <v>15557.603644646108</v>
       </c>
       <c r="BJ14" s="5">
-        <f t="shared" si="13"/>
-        <v>15557.603644646108</v>
+        <f t="shared" si="15"/>
+        <v>15608.009746459578</v>
       </c>
       <c r="BK14" s="5">
-        <f t="shared" si="13"/>
-        <v>15608.009746459578</v>
+        <f t="shared" si="15"/>
+        <v>15658.560559086181</v>
       </c>
       <c r="BL14" s="5">
-        <f t="shared" si="13"/>
-        <v>15658.560559086181</v>
+        <f t="shared" si="15"/>
+        <v>15709.256497975995</v>
       </c>
       <c r="BM14" s="5">
-        <f t="shared" si="13"/>
-        <v>15709.256497975995</v>
+        <f t="shared" si="15"/>
+        <v>15760.097979771836</v>
       </c>
       <c r="BN14" s="5">
-        <f t="shared" si="13"/>
-        <v>15760.097979771836</v>
+        <f t="shared" si="15"/>
+        <v>15811.085422312635</v>
       </c>
       <c r="BO14" s="5">
-        <f t="shared" si="13"/>
-        <v>15811.085422312635</v>
+        <f t="shared" si="15"/>
+        <v>15862.219244636921</v>
       </c>
       <c r="BP14" s="5">
-        <f t="shared" si="13"/>
-        <v>15862.219244636921</v>
+        <f t="shared" si="15"/>
+        <v>15913.499866986218</v>
       </c>
       <c r="BQ14" s="5">
-        <f t="shared" si="13"/>
-        <v>15913.499866986218</v>
+        <f t="shared" si="15"/>
+        <v>15964.927710808526</v>
       </c>
       <c r="BR14" s="5">
-        <f t="shared" si="13"/>
-        <v>15964.927710808526</v>
+        <f t="shared" si="15"/>
+        <v>16016.503198761791</v>
       </c>
       <c r="BS14" s="5">
-        <f t="shared" si="13"/>
-        <v>16016.503198761791</v>
+        <f t="shared" si="15"/>
+        <v>16068.226754717358</v>
       </c>
       <c r="BT14" s="5">
-        <f t="shared" si="13"/>
-        <v>16068.226754717358</v>
+        <f t="shared" si="15"/>
+        <v>16120.09880376346</v>
       </c>
       <c r="BU14" s="5">
-        <f t="shared" si="13"/>
-        <v>16120.09880376346</v>
-      </c>
-      <c r="BV14" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16172.119772208731</v>
       </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="7">
-        <f t="shared" si="9"/>
-        <v>-38682.42</v>
+        <f t="shared" si="11"/>
+        <v>-41829.279999999999</v>
       </c>
       <c r="C15" s="10">
         <f>SUM(C16:C23)</f>
         <v>-67</v>
       </c>
       <c r="D15" s="10">
-        <f t="shared" ref="D15:BP15" si="14">SUM(D16:D23)</f>
+        <f t="shared" ref="D15:BO15" si="16">SUM(D16:D23)</f>
         <v>-104441.73458080005</v>
       </c>
       <c r="E15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-1852.12</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-104441.73458080005</v>
       </c>
       <c r="G15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-4563.88</v>
       </c>
       <c r="H15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-104441.73458080005</v>
       </c>
       <c r="I15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-4543.79</v>
       </c>
       <c r="J15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3569.94</v>
       </c>
       <c r="L15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3672.54</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3497.54</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3695.1800000000003</v>
       </c>
       <c r="R15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3889.4</v>
       </c>
       <c r="T15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-4751.5199999999995</v>
       </c>
       <c r="V15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3917.34</v>
       </c>
       <c r="X15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y15" s="10">
-        <f t="shared" si="14"/>
-        <v>-662.17</v>
+        <f t="shared" si="16"/>
+        <v>-3809.03</v>
       </c>
       <c r="Z15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA15" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" ref="AA15" si="17">SUM(AA16:AA23)</f>
+        <v>-570.6</v>
       </c>
       <c r="AB15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AI15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AJ15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AK15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AL15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AO15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AP15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AQ15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AR15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AS15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AU15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AV15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AW15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AX15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AY15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AZ15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BA15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BC15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BD15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BE15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BF15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BH15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BI15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BK15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BL15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BM15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BN15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BO15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BP15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="BP15:BU15" si="18">SUM(BP16:BP23)</f>
         <v>0</v>
       </c>
       <c r="BQ15" s="10">
-        <f t="shared" ref="BQ15:BV15" si="15">SUM(BQ16:BQ23)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BR15" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BS15" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BT15" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BU15" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BV15" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>1</v>
       </c>
@@ -3425,9 +3413,7 @@
       <c r="Z16" s="2">
         <v>0</v>
       </c>
-      <c r="AA16" s="2">
-        <v>0</v>
-      </c>
+      <c r="AA16" s="2"/>
       <c r="AB16" s="2">
         <v>0</v>
       </c>
@@ -3566,11 +3552,8 @@
       <c r="BU16" s="2">
         <v>0</v>
       </c>
-      <c r="BV16" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>11</v>
       </c>
@@ -3618,7 +3601,9 @@
         <v>-2961.86</v>
       </c>
       <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
+      <c r="Y17" s="10">
+        <v>-2961.86</v>
+      </c>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
@@ -3667,9 +3652,8 @@
       <c r="BS17" s="10"/>
       <c r="BT17" s="10"/>
       <c r="BU17" s="10"/>
-      <c r="BV17" s="10"/>
     </row>
-    <row r="18" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>12</v>
       </c>
@@ -3745,9 +3729,8 @@
       <c r="BS18" s="10"/>
       <c r="BT18" s="10"/>
       <c r="BU18" s="10"/>
-      <c r="BV18" s="10"/>
     </row>
-    <row r="19" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>30</v>
       </c>
@@ -3830,9 +3813,8 @@
       <c r="BS19" s="10"/>
       <c r="BT19" s="10"/>
       <c r="BU19" s="10"/>
-      <c r="BV19" s="10"/>
     </row>
-    <row r="20" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>14</v>
       </c>
@@ -3876,10 +3858,12 @@
         <v>-175</v>
       </c>
       <c r="X20" s="12"/>
-      <c r="Y20" s="10"/>
+      <c r="Y20" s="10">
+        <v>-175</v>
+      </c>
       <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
       <c r="AE20" s="10"/>
@@ -3925,9 +3909,8 @@
       <c r="BS20" s="10"/>
       <c r="BT20" s="10"/>
       <c r="BU20" s="10"/>
-      <c r="BV20" s="10"/>
     </row>
-    <row r="21" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>13</v>
       </c>
@@ -3981,7 +3964,9 @@
         <v>-500</v>
       </c>
       <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
+      <c r="AA21" s="10">
+        <v>-500</v>
+      </c>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
@@ -4028,9 +4013,8 @@
       <c r="BS21" s="10"/>
       <c r="BT21" s="10"/>
       <c r="BU21" s="10"/>
-      <c r="BV21" s="10"/>
     </row>
-    <row r="22" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>29</v>
       </c>
@@ -4116,9 +4100,8 @@
       <c r="BS22" s="10"/>
       <c r="BT22" s="10"/>
       <c r="BU22" s="10"/>
-      <c r="BV22" s="10"/>
     </row>
-    <row r="23" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>16</v>
       </c>
@@ -4175,11 +4158,13 @@
       </c>
       <c r="X23" s="10"/>
       <c r="Y23" s="10">
-        <f>-(68.4)</f>
-        <v>-68.400000000000006</v>
+        <f>-(68.4+10)</f>
+        <v>-78.400000000000006</v>
       </c>
       <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
+      <c r="AA23" s="10">
+        <v>-70.599999999999994</v>
+      </c>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
@@ -4226,9 +4211,8 @@
       <c r="BS23" s="10"/>
       <c r="BT23" s="10"/>
       <c r="BU23" s="10"/>
-      <c r="BV23" s="10"/>
     </row>
-    <row r="24" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
@@ -4302,15 +4286,14 @@
       <c r="BS24" s="10"/>
       <c r="BT24" s="10"/>
       <c r="BU24" s="10"/>
-      <c r="BV24" s="10"/>
     </row>
-    <row r="25" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="7">
-        <f t="shared" ref="B25" si="16">C25+E25+G25+I25+K25+M25+O25+Q25+S25+U25+W25+Y25</f>
-        <v>-507206.81</v>
+        <f t="shared" ref="B25" si="19">C25+E25+G25+I25+K25+M25+O25+Q25+S25+U25+W25+Y25</f>
+        <v>-509306.81</v>
       </c>
       <c r="C25" s="10">
         <f>SUM(C26:C33)</f>
@@ -4321,7 +4304,7 @@
         <v>-65653.507640750671</v>
       </c>
       <c r="E25" s="10">
-        <f t="shared" ref="E25:U25" si="17">SUM(E26:E33)</f>
+        <f t="shared" ref="E25:U25" si="20">SUM(E26:E33)</f>
         <v>-262.55</v>
       </c>
       <c r="F25" s="10">
@@ -4329,7 +4312,7 @@
         <v>-65876.818891229414</v>
       </c>
       <c r="G25" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-45200</v>
       </c>
       <c r="H25" s="10">
@@ -4337,7 +4320,7 @@
         <v>-65876.818891229414</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J25" s="10">
@@ -4345,7 +4328,7 @@
         <v>-66065.944566201084</v>
       </c>
       <c r="K25" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-1900</v>
       </c>
       <c r="L25" s="10">
@@ -4353,7 +4336,7 @@
         <v>-66255.613201830784</v>
       </c>
       <c r="M25" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N25" s="10">
@@ -4361,7 +4344,7 @@
         <v>-61190.224272176725</v>
       </c>
       <c r="O25" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P25" s="10">
@@ -4369,7 +4352,7 @@
         <v>-21001.377400679175</v>
       </c>
       <c r="Q25" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R25" s="10">
@@ -4377,7 +4360,7 @@
         <v>-21061.670228157629</v>
       </c>
       <c r="S25" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-1900</v>
       </c>
       <c r="T25" s="10">
@@ -4385,7 +4368,7 @@
         <v>-21122.136150237264</v>
       </c>
       <c r="U25" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="V25" s="10">
@@ -4402,206 +4385,202 @@
       </c>
       <c r="Y25" s="10">
         <f>SUM(Y26:Y37)</f>
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="Z25" s="10">
-        <f t="shared" ref="Z25:BV25" si="18">SUM(Z35:Z37)</f>
-        <v>-62350.049413150409</v>
+        <f t="shared" ref="Z25:BU25" si="21">SUM(Z35:Z37)</f>
+        <v>-21343.696035109606</v>
       </c>
       <c r="AA25" s="10">
-        <f t="shared" si="18"/>
-        <v>-21282.595857922472</v>
+        <f>SUM(AA26:AA37)</f>
+        <v>0</v>
       </c>
       <c r="AB25" s="10">
-        <f t="shared" si="18"/>
-        <v>-21343.696035109606</v>
+        <f t="shared" si="21"/>
+        <v>-21404.971624717167</v>
       </c>
       <c r="AC25" s="10">
-        <f t="shared" si="18"/>
-        <v>-21404.971624717167</v>
+        <f t="shared" si="21"/>
+        <v>-21466.423130336439</v>
       </c>
       <c r="AD25" s="10">
-        <f t="shared" si="18"/>
-        <v>-21466.423130336439</v>
+        <f t="shared" si="21"/>
+        <v>-21528.051057004479</v>
       </c>
       <c r="AE25" s="10">
-        <f t="shared" si="18"/>
-        <v>-21528.051057004479</v>
+        <f t="shared" si="21"/>
+        <v>-21589.855911208251</v>
       </c>
       <c r="AF25" s="10">
-        <f t="shared" si="18"/>
-        <v>-21589.855911208251</v>
+        <f t="shared" si="21"/>
+        <v>-21651.838200888789</v>
       </c>
       <c r="AG25" s="10">
-        <f t="shared" si="18"/>
-        <v>-21651.838200888789</v>
+        <f t="shared" si="21"/>
+        <v>-21713.998435445377</v>
       </c>
       <c r="AH25" s="10">
-        <f t="shared" si="18"/>
-        <v>-21713.998435445377</v>
+        <f t="shared" si="21"/>
+        <v>-21776.337125739727</v>
       </c>
       <c r="AI25" s="10">
-        <f t="shared" si="18"/>
-        <v>-21776.337125739727</v>
+        <f t="shared" si="21"/>
+        <v>-21838.854784100196</v>
       </c>
       <c r="AJ25" s="10">
-        <f t="shared" si="18"/>
-        <v>-21838.854784100196</v>
+        <f t="shared" si="21"/>
+        <v>-21901.55192432597</v>
       </c>
       <c r="AK25" s="10">
-        <f t="shared" si="18"/>
-        <v>-21901.55192432597</v>
+        <f t="shared" si="21"/>
+        <v>-64446.492532590026</v>
       </c>
       <c r="AL25" s="10">
-        <f t="shared" si="18"/>
-        <v>-64446.492532590026</v>
+        <f t="shared" si="21"/>
+        <v>-21984.459234025133</v>
       </c>
       <c r="AM25" s="10">
-        <f t="shared" si="18"/>
-        <v>-21984.459234025133</v>
+        <f t="shared" si="21"/>
+        <v>-22047.574389879686</v>
       </c>
       <c r="AN25" s="10">
-        <f t="shared" si="18"/>
-        <v>-22047.574389879686</v>
+        <f t="shared" si="21"/>
+        <v>-22110.870742954336</v>
       </c>
       <c r="AO25" s="10">
-        <f t="shared" si="18"/>
-        <v>-22110.870742954336</v>
+        <f t="shared" si="21"/>
+        <v>-22174.348813447948</v>
       </c>
       <c r="AP25" s="10">
-        <f t="shared" si="18"/>
-        <v>-22174.348813447948</v>
+        <f t="shared" si="21"/>
+        <v>-22238.009123052834</v>
       </c>
       <c r="AQ25" s="10">
-        <f t="shared" si="18"/>
-        <v>-22238.009123052834</v>
+        <f t="shared" si="21"/>
+        <v>-22301.852194959021</v>
       </c>
       <c r="AR25" s="10">
-        <f t="shared" si="18"/>
-        <v>-22301.852194959021</v>
+        <f t="shared" si="21"/>
+        <v>-22365.878553858565</v>
       </c>
       <c r="AS25" s="10">
-        <f t="shared" si="18"/>
-        <v>-22365.878553858565</v>
+        <f t="shared" si="21"/>
+        <v>-22430.088725949863</v>
       </c>
       <c r="AT25" s="10">
-        <f t="shared" si="18"/>
-        <v>-22430.088725949863</v>
+        <f t="shared" si="21"/>
+        <v>-22494.483238941968</v>
       </c>
       <c r="AU25" s="10">
-        <f t="shared" si="18"/>
-        <v>-22494.483238941968</v>
+        <f t="shared" si="21"/>
+        <v>-22559.06262205894</v>
       </c>
       <c r="AV25" s="10">
-        <f t="shared" si="18"/>
-        <v>-22559.06262205894</v>
+        <f t="shared" si="21"/>
+        <v>-22623.827406044176</v>
       </c>
       <c r="AW25" s="10">
-        <f t="shared" si="18"/>
-        <v>-22623.827406044176</v>
+        <f t="shared" si="21"/>
+        <v>-66657.713815544965</v>
       </c>
       <c r="AX25" s="10">
-        <f t="shared" si="18"/>
-        <v>-66657.713815544965</v>
+        <f t="shared" si="21"/>
+        <v>-22709.381866529005</v>
       </c>
       <c r="AY25" s="10">
-        <f t="shared" si="18"/>
-        <v>-22709.381866529005</v>
+        <f t="shared" si="21"/>
+        <v>-22774.578201840646</v>
       </c>
       <c r="AZ25" s="10">
-        <f t="shared" si="18"/>
-        <v>-22774.578201840646</v>
+        <f t="shared" si="21"/>
+        <v>-22839.961709227824</v>
       </c>
       <c r="BA25" s="10">
-        <f t="shared" si="18"/>
-        <v>-22839.961709227824</v>
+        <f t="shared" si="21"/>
+        <v>-22905.532926042604</v>
       </c>
       <c r="BB25" s="10">
-        <f t="shared" si="18"/>
-        <v>-22905.532926042604</v>
+        <f t="shared" si="21"/>
+        <v>-22971.292391179752</v>
       </c>
       <c r="BC25" s="10">
-        <f t="shared" si="18"/>
-        <v>-22971.292391179752</v>
+        <f t="shared" si="21"/>
+        <v>-23037.240645081121</v>
       </c>
       <c r="BD25" s="10">
-        <f t="shared" si="18"/>
-        <v>-23037.240645081121</v>
+        <f t="shared" si="21"/>
+        <v>-23103.378229740149</v>
       </c>
       <c r="BE25" s="10">
-        <f t="shared" si="18"/>
-        <v>-23103.378229740149</v>
+        <f t="shared" si="21"/>
+        <v>-23169.70568870625</v>
       </c>
       <c r="BF25" s="10">
-        <f t="shared" si="18"/>
-        <v>-23169.70568870625</v>
+        <f t="shared" si="21"/>
+        <v>-23236.223567089342</v>
       </c>
       <c r="BG25" s="10">
-        <f t="shared" si="18"/>
-        <v>-23236.223567089342</v>
+        <f t="shared" si="21"/>
+        <v>-23302.932411564278</v>
       </c>
       <c r="BH25" s="10">
-        <f t="shared" si="18"/>
-        <v>-23302.932411564278</v>
+        <f t="shared" si="21"/>
+        <v>-23369.832770375368</v>
       </c>
       <c r="BI25" s="10">
-        <f t="shared" si="18"/>
-        <v>-23369.832770375368</v>
+        <f t="shared" si="21"/>
+        <v>-68944.773634954356</v>
       </c>
       <c r="BJ25" s="10">
-        <f t="shared" si="18"/>
-        <v>-68944.773634954356</v>
+        <f t="shared" si="21"/>
+        <v>-23458.118120746487</v>
       </c>
       <c r="BK25" s="10">
-        <f t="shared" si="18"/>
-        <v>-23458.118120746487</v>
+        <f t="shared" si="21"/>
+        <v>-23525.464002011286</v>
       </c>
       <c r="BL25" s="10">
-        <f t="shared" si="18"/>
-        <v>-23525.464002011286</v>
+        <f t="shared" si="21"/>
+        <v>-23593.003226480341</v>
       </c>
       <c r="BM25" s="10">
-        <f t="shared" si="18"/>
-        <v>-23593.003226480341</v>
+        <f t="shared" si="21"/>
+        <v>-23660.736349222414</v>
       </c>
       <c r="BN25" s="10">
-        <f t="shared" si="18"/>
-        <v>-23660.736349222414</v>
+        <f t="shared" si="21"/>
+        <v>-23728.663926899808</v>
       </c>
       <c r="BO25" s="10">
-        <f t="shared" si="18"/>
-        <v>-23728.663926899808</v>
+        <f t="shared" si="21"/>
+        <v>-23796.786517772947</v>
       </c>
       <c r="BP25" s="10">
-        <f t="shared" si="18"/>
-        <v>-23796.786517772947</v>
+        <f t="shared" si="21"/>
+        <v>-23865.104681704961</v>
       </c>
       <c r="BQ25" s="10">
-        <f t="shared" si="18"/>
-        <v>-23865.104681704961</v>
+        <f t="shared" si="21"/>
+        <v>-23933.618980166299</v>
       </c>
       <c r="BR25" s="10">
-        <f t="shared" si="18"/>
-        <v>-23933.618980166299</v>
+        <f t="shared" si="21"/>
+        <v>-24002.329976239329</v>
       </c>
       <c r="BS25" s="10">
-        <f t="shared" si="18"/>
-        <v>-24002.329976239329</v>
+        <f t="shared" si="21"/>
+        <v>-24071.238234622968</v>
       </c>
       <c r="BT25" s="10">
-        <f t="shared" si="18"/>
-        <v>-24071.238234622968</v>
+        <f t="shared" si="21"/>
+        <v>-24140.344321637334</v>
       </c>
       <c r="BU25" s="10">
-        <f t="shared" si="18"/>
-        <v>-24140.344321637334</v>
-      </c>
-      <c r="BV25" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-71310.271942298365</v>
       </c>
     </row>
-    <row r="26" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>21</v>
       </c>
@@ -4677,9 +4656,8 @@
       <c r="BS26" s="10"/>
       <c r="BT26" s="10"/>
       <c r="BU26" s="10"/>
-      <c r="BV26" s="10"/>
     </row>
-    <row r="27" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>15</v>
       </c>
@@ -4755,9 +4733,8 @@
       <c r="BS27" s="10"/>
       <c r="BT27" s="10"/>
       <c r="BU27" s="10"/>
-      <c r="BV27" s="10"/>
     </row>
-    <row r="28" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>35</v>
       </c>
@@ -4835,9 +4812,8 @@
       <c r="BS28" s="10"/>
       <c r="BT28" s="10"/>
       <c r="BU28" s="10"/>
-      <c r="BV28" s="10"/>
     </row>
-    <row r="29" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>36</v>
       </c>
@@ -4919,9 +4895,8 @@
       <c r="BS29" s="10"/>
       <c r="BT29" s="10"/>
       <c r="BU29" s="10"/>
-      <c r="BV29" s="10"/>
     </row>
-    <row r="30" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>18</v>
       </c>
@@ -4999,9 +4974,8 @@
       <c r="BS30" s="10"/>
       <c r="BT30" s="10"/>
       <c r="BU30" s="10"/>
-      <c r="BV30" s="10"/>
     </row>
-    <row r="31" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>31</v>
       </c>
@@ -5027,8 +5001,10 @@
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
       <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="17"/>
+      <c r="Y31" s="10">
+        <v>-2100</v>
+      </c>
+      <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
@@ -5076,9 +5052,8 @@
       <c r="BS31" s="10"/>
       <c r="BT31" s="10"/>
       <c r="BU31" s="10"/>
-      <c r="BV31" s="10"/>
     </row>
-    <row r="32" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>17</v>
       </c>
@@ -5157,9 +5132,8 @@
       <c r="BS32" s="10"/>
       <c r="BT32" s="10"/>
       <c r="BU32" s="10"/>
-      <c r="BV32" s="10"/>
     </row>
-    <row r="33" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
@@ -5186,7 +5160,7 @@
       <c r="X33" s="10"/>
       <c r="Y33" s="17"/>
       <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
+      <c r="AA33" s="17"/>
       <c r="AB33" s="10"/>
       <c r="AC33" s="10"/>
       <c r="AD33" s="10"/>
@@ -5233,9 +5207,8 @@
       <c r="BS33" s="10"/>
       <c r="BT33" s="10"/>
       <c r="BU33" s="10"/>
-      <c r="BV33" s="10"/>
     </row>
-    <row r="34" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="8"/>
       <c r="C34" s="2"/>
@@ -5262,7 +5235,7 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="16"/>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
+      <c r="AA34" s="16"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
@@ -5309,9 +5282,8 @@
       <c r="BS34" s="2"/>
       <c r="BT34" s="2"/>
       <c r="BU34" s="2"/>
-      <c r="BV34" s="2"/>
     </row>
-    <row r="35" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>2</v>
       </c>
@@ -5362,154 +5334,149 @@
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2">
-        <v>-1243.6030437780166</v>
-      </c>
-      <c r="AA35" s="2">
-        <v>-1164.0284153525429</v>
-      </c>
+        <v>-1167.3702230391473</v>
+      </c>
+      <c r="AA35" s="2"/>
       <c r="AB35" s="2">
-        <v>-1167.3702230391473</v>
+        <v>-1170.7216247171586</v>
       </c>
       <c r="AC35" s="2">
-        <v>-1170.7216247171586</v>
+        <v>-1174.0826479299544</v>
       </c>
       <c r="AD35" s="2">
-        <v>-1174.0826479299544</v>
+        <v>-1177.4533202999867</v>
       </c>
       <c r="AE35" s="2">
-        <v>-1177.4533202999867</v>
+        <v>-1180.8336695290086</v>
       </c>
       <c r="AF35" s="2">
-        <v>-1180.8336695290086</v>
+        <v>-1184.2237233983019</v>
       </c>
       <c r="AG35" s="2">
-        <v>-1184.2237233983019</v>
+        <v>-1187.6235097689064</v>
       </c>
       <c r="AH35" s="2">
-        <v>-1187.6235097689064</v>
+        <v>-1191.0330565818472</v>
       </c>
       <c r="AI35" s="2">
-        <v>-1191.0330565818472</v>
+        <v>-1194.4523918583661</v>
       </c>
       <c r="AJ35" s="2">
-        <v>-1194.4523918583661</v>
+        <v>-1197.8815437001504</v>
       </c>
       <c r="AK35" s="2">
-        <v>-1197.8815437001504</v>
+        <v>-1201.3205402895646</v>
       </c>
       <c r="AL35" s="2">
-        <v>-1201.3205402895646</v>
+        <v>-1161.7419309652439</v>
       </c>
       <c r="AM35" s="2">
-        <v>-1161.7419309652439</v>
+        <v>-1165.0771743867494</v>
       </c>
       <c r="AN35" s="2">
-        <v>-1165.0771743867494</v>
+        <v>-1168.4219929543217</v>
       </c>
       <c r="AO35" s="2">
-        <v>-1168.4219929543217</v>
+        <v>-1171.7764141572352</v>
       </c>
       <c r="AP35" s="2">
-        <v>-1171.7764141572352</v>
+        <v>-1175.1404655636834</v>
       </c>
       <c r="AQ35" s="2">
-        <v>-1175.1404655636834</v>
+        <v>-1178.5141748210051</v>
       </c>
       <c r="AR35" s="2">
-        <v>-1178.5141748210051</v>
+        <v>-1181.8975696559123</v>
       </c>
       <c r="AS35" s="2">
-        <v>-1181.8975696559123</v>
+        <v>-1185.2906778747174</v>
       </c>
       <c r="AT35" s="2">
-        <v>-1185.2906778747174</v>
+        <v>-1188.6935273635615</v>
       </c>
       <c r="AU35" s="2">
-        <v>-1188.6935273635615</v>
+        <v>-1192.1061460886442</v>
       </c>
       <c r="AV35" s="2">
-        <v>-1192.1061460886442</v>
+        <v>-1195.5285620964537</v>
       </c>
       <c r="AW35" s="2">
-        <v>-1195.5285620964537</v>
+        <v>-1198.9608035139959</v>
       </c>
       <c r="AX35" s="2">
-        <v>-1198.9608035139959</v>
+        <v>-1157.8694578620261</v>
       </c>
       <c r="AY35" s="2">
-        <v>-1157.8694578620261</v>
+        <v>-1161.1935838054603</v>
       </c>
       <c r="AZ35" s="2">
-        <v>-1161.1935838054603</v>
+        <v>-1164.5272529778074</v>
       </c>
       <c r="BA35" s="2">
-        <v>-1164.5272529778074</v>
+        <v>-1167.8704927767112</v>
       </c>
       <c r="BB35" s="2">
-        <v>-1167.8704927767112</v>
+        <v>-1171.2233306784713</v>
       </c>
       <c r="BC35" s="2">
-        <v>-1171.2233306784713</v>
+        <v>-1174.5857942382688</v>
       </c>
       <c r="BD35" s="2">
-        <v>-1174.5857942382688</v>
+        <v>-1177.9579110903931</v>
       </c>
       <c r="BE35" s="2">
-        <v>-1177.9579110903931</v>
+        <v>-1181.3397089484688</v>
       </c>
       <c r="BF35" s="2">
-        <v>-1181.3397089484688</v>
+        <v>-1184.7312156056832</v>
       </c>
       <c r="BG35" s="2">
-        <v>-1184.7312156056832</v>
+        <v>-1188.1324589350158</v>
       </c>
       <c r="BH35" s="2">
-        <v>-1188.1324589350158</v>
+        <v>-1191.5434668894657</v>
       </c>
       <c r="BI35" s="2">
-        <v>-1191.5434668894657</v>
+        <v>-1194.9642675022828</v>
       </c>
       <c r="BJ35" s="2">
-        <v>-1194.9642675022828</v>
+        <v>-1152.3027777761515</v>
       </c>
       <c r="BK35" s="2">
-        <v>-1152.3027777761515</v>
+        <v>-1155.6109223448575</v>
       </c>
       <c r="BL35" s="2">
-        <v>-1155.6109223448575</v>
+        <v>-1158.9285642615682</v>
       </c>
       <c r="BM35" s="2">
-        <v>-1158.9285642615682</v>
+        <v>-1162.2557307922082</v>
       </c>
       <c r="BN35" s="2">
-        <v>-1162.2557307922082</v>
+        <v>-1165.5924492809788</v>
       </c>
       <c r="BO35" s="2">
-        <v>-1165.5924492809788</v>
+        <v>-1168.9387471505852</v>
       </c>
       <c r="BP35" s="2">
-        <v>-1168.9387471505852</v>
+        <v>-1172.2946519024588</v>
       </c>
       <c r="BQ35" s="2">
-        <v>-1172.2946519024588</v>
+        <v>-1175.660191116986</v>
       </c>
       <c r="BR35" s="2">
-        <v>-1175.660191116986</v>
+        <v>-1179.0353924537333</v>
       </c>
       <c r="BS35" s="2">
-        <v>-1179.0353924537333</v>
+        <v>-1182.4202836516747</v>
       </c>
       <c r="BT35" s="2">
-        <v>-1182.4202836516747</v>
+        <v>-1185.8148925294206</v>
       </c>
       <c r="BU35" s="2">
-        <v>-1185.8148925294206</v>
-      </c>
-      <c r="BV35" s="2">
         <v>-1189.2192469854454</v>
       </c>
     </row>
-    <row r="36" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>3</v>
       </c>
@@ -5573,154 +5540,149 @@
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2">
-        <v>-20060.974416813271</v>
-      </c>
-      <c r="AA36" s="2">
-        <v>-20118.567442569929</v>
-      </c>
+        <v>-20176.32581207046</v>
+      </c>
+      <c r="AA36" s="2"/>
       <c r="AB36" s="2">
-        <v>-20176.32581207046</v>
+        <v>-20234.250000000007</v>
       </c>
       <c r="AC36" s="2">
-        <v>-20234.250000000007</v>
+        <v>-20292.340482406486</v>
       </c>
       <c r="AD36" s="2">
-        <v>-20292.340482406486</v>
+        <v>-20350.597736704491</v>
       </c>
       <c r="AE36" s="2">
-        <v>-20350.597736704491</v>
+        <v>-20409.022241679242</v>
       </c>
       <c r="AF36" s="2">
-        <v>-20409.022241679242</v>
+        <v>-20467.614477490486</v>
       </c>
       <c r="AG36" s="2">
-        <v>-20467.614477490486</v>
+        <v>-20526.374925676471</v>
       </c>
       <c r="AH36" s="2">
-        <v>-20526.374925676471</v>
+        <v>-20585.304069157879</v>
       </c>
       <c r="AI36" s="2">
-        <v>-20585.304069157879</v>
+        <v>-20644.402392241831</v>
       </c>
       <c r="AJ36" s="2">
-        <v>-20644.402392241831</v>
+        <v>-20703.670380625819</v>
       </c>
       <c r="AK36" s="2">
-        <v>-20703.670380625819</v>
+        <v>-20763.108521401744</v>
       </c>
       <c r="AL36" s="2">
-        <v>-20763.108521401744</v>
+        <v>-20822.71730305989</v>
       </c>
       <c r="AM36" s="2">
-        <v>-20822.71730305989</v>
+        <v>-20882.497215492938</v>
       </c>
       <c r="AN36" s="2">
-        <v>-20882.497215492938</v>
+        <v>-20942.448750000014</v>
       </c>
       <c r="AO36" s="2">
-        <v>-20942.448750000014</v>
+        <v>-21002.572399290715</v>
       </c>
       <c r="AP36" s="2">
-        <v>-21002.572399290715</v>
+        <v>-21062.868657489151</v>
       </c>
       <c r="AQ36" s="2">
-        <v>-21062.868657489151</v>
+        <v>-21123.338020138017</v>
       </c>
       <c r="AR36" s="2">
-        <v>-21123.338020138017</v>
+        <v>-21183.980984202652</v>
       </c>
       <c r="AS36" s="2">
-        <v>-21183.980984202652</v>
+        <v>-21244.798048075147</v>
       </c>
       <c r="AT36" s="2">
-        <v>-21244.798048075147</v>
+        <v>-21305.789711578407</v>
       </c>
       <c r="AU36" s="2">
-        <v>-21305.789711578407</v>
+        <v>-21366.956475970295</v>
       </c>
       <c r="AV36" s="2">
-        <v>-21366.956475970295</v>
+        <v>-21428.298843947723</v>
       </c>
       <c r="AW36" s="2">
-        <v>-21428.298843947723</v>
+        <v>-21489.817319650803</v>
       </c>
       <c r="AX36" s="2">
-        <v>-21489.817319650803</v>
+        <v>-21551.512408666978</v>
       </c>
       <c r="AY36" s="2">
-        <v>-21551.512408666978</v>
+        <v>-21613.384618035187</v>
       </c>
       <c r="AZ36" s="2">
-        <v>-21613.384618035187</v>
+        <v>-21675.434456250016</v>
       </c>
       <c r="BA36" s="2">
-        <v>-21675.434456250016</v>
+        <v>-21737.662433265894</v>
       </c>
       <c r="BB36" s="2">
-        <v>-21737.662433265894</v>
+        <v>-21800.069060501279</v>
       </c>
       <c r="BC36" s="2">
-        <v>-21800.069060501279</v>
+        <v>-21862.654850842853</v>
       </c>
       <c r="BD36" s="2">
-        <v>-21862.654850842853</v>
+        <v>-21925.420318649754</v>
       </c>
       <c r="BE36" s="2">
-        <v>-21925.420318649754</v>
+        <v>-21988.365979757782</v>
       </c>
       <c r="BF36" s="2">
-        <v>-21988.365979757782</v>
+        <v>-22051.492351483659</v>
       </c>
       <c r="BG36" s="2">
-        <v>-22051.492351483659</v>
+        <v>-22114.799952629262</v>
       </c>
       <c r="BH36" s="2">
-        <v>-22114.799952629262</v>
+        <v>-22178.289303485901</v>
       </c>
       <c r="BI36" s="2">
-        <v>-22178.289303485901</v>
+        <v>-22241.96092583859</v>
       </c>
       <c r="BJ36" s="2">
-        <v>-22241.96092583859</v>
+        <v>-22305.815342970334</v>
       </c>
       <c r="BK36" s="2">
-        <v>-22305.815342970334</v>
+        <v>-22369.853079666427</v>
       </c>
       <c r="BL36" s="2">
-        <v>-22369.853079666427</v>
+        <v>-22434.074662218773</v>
       </c>
       <c r="BM36" s="2">
-        <v>-22434.074662218773</v>
+        <v>-22498.480618430207</v>
       </c>
       <c r="BN36" s="2">
-        <v>-22498.480618430207</v>
+        <v>-22563.071477618829</v>
       </c>
       <c r="BO36" s="2">
-        <v>-22563.071477618829</v>
+        <v>-22627.84777062236</v>
       </c>
       <c r="BP36" s="2">
-        <v>-22627.84777062236</v>
+        <v>-22692.810029802502</v>
       </c>
       <c r="BQ36" s="2">
-        <v>-22692.810029802502</v>
+        <v>-22757.958789049313</v>
       </c>
       <c r="BR36" s="2">
-        <v>-22757.958789049313</v>
+        <v>-22823.294583785595</v>
       </c>
       <c r="BS36" s="2">
-        <v>-22823.294583785595</v>
+        <v>-22888.817950971294</v>
       </c>
       <c r="BT36" s="2">
-        <v>-22888.817950971294</v>
+        <v>-22954.529429107915</v>
       </c>
       <c r="BU36" s="2">
-        <v>-22954.529429107915</v>
-      </c>
-      <c r="BV36" s="2">
         <v>-23020.429558242948</v>
       </c>
     </row>
-    <row r="37" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>4</v>
       </c>
@@ -5791,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="Z37" s="2">
-        <v>-41045.471952559121</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="2">
         <v>0</v>
@@ -5824,10 +5786,10 @@
         <v>0</v>
       </c>
       <c r="AK37" s="2">
-        <v>0</v>
+        <v>-42482.063470898713</v>
       </c>
       <c r="AL37" s="2">
-        <v>-42482.063470898713</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="2">
         <v>0</v>
@@ -5860,10 +5822,10 @@
         <v>0</v>
       </c>
       <c r="AW37" s="2">
-        <v>0</v>
+        <v>-43968.935692380161</v>
       </c>
       <c r="AX37" s="2">
-        <v>-43968.935692380161</v>
+        <v>0</v>
       </c>
       <c r="AY37" s="2">
         <v>0</v>
@@ -5896,10 +5858,10 @@
         <v>0</v>
       </c>
       <c r="BI37" s="2">
-        <v>0</v>
+        <v>-45507.848441613482</v>
       </c>
       <c r="BJ37" s="2">
-        <v>-45507.848441613482</v>
+        <v>0</v>
       </c>
       <c r="BK37" s="2">
         <v>0</v>
@@ -5932,13 +5894,10 @@
         <v>0</v>
       </c>
       <c r="BU37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV37" s="2">
         <v>-47100.623137069968</v>
       </c>
     </row>
-    <row r="38" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
@@ -5965,7 +5924,7 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="10"/>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
+      <c r="AA38" s="10"/>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
@@ -6012,15 +5971,14 @@
       <c r="BS38" s="2"/>
       <c r="BT38" s="2"/>
       <c r="BU38" s="2"/>
-      <c r="BV38" s="2"/>
     </row>
-    <row r="39" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B39" s="7">
-        <f t="shared" ref="B39" si="19">C39+E39+G39+I39+K39+M39+O39+Q39+S39+U39+W39+Y39</f>
-        <v>-1407955.62</v>
+        <f t="shared" ref="B39" si="22">C39+E39+G39+I39+K39+M39+O39+Q39+S39+U39+W39+Y39</f>
+        <v>-1411922.6900000002</v>
       </c>
       <c r="C39" s="2">
         <f>SUM(C40:C45)</f>
@@ -6099,13 +6057,14 @@
       </c>
       <c r="Y39" s="10">
         <f>SUM(Y40:Y45)</f>
-        <v>-139666.28</v>
+        <v>-143633.35</v>
       </c>
       <c r="Z39" s="2">
         <v>0</v>
       </c>
-      <c r="AA39" s="2">
-        <v>0</v>
+      <c r="AA39" s="10">
+        <f>SUM(AA40:AA45)</f>
+        <v>-193579.59</v>
       </c>
       <c r="AB39" s="2">
         <v>0</v>
@@ -6245,11 +6204,8 @@
       <c r="BU39" s="2">
         <v>0</v>
       </c>
-      <c r="BV39" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>24</v>
       </c>
@@ -6308,7 +6264,10 @@
         <v>-128227.34</v>
       </c>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
+      <c r="AA40" s="10">
+        <f>-(17777.79+110449.55+49781.78+8012.68)</f>
+        <v>-186021.8</v>
+      </c>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
@@ -6355,9 +6314,8 @@
       <c r="BS40" s="2"/>
       <c r="BT40" s="2"/>
       <c r="BU40" s="2"/>
-      <c r="BV40" s="2"/>
     </row>
-    <row r="41" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>32</v>
       </c>
@@ -6390,10 +6348,13 @@
       <c r="W41" s="10"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="10">
-        <v>-3967.07</v>
+        <f>-(3967.07+3967.07)</f>
+        <v>-7934.14</v>
       </c>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
+      <c r="AA41" s="10">
+        <v>-3967.17</v>
+      </c>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
@@ -6440,9 +6401,8 @@
       <c r="BS41" s="2"/>
       <c r="BT41" s="2"/>
       <c r="BU41" s="2"/>
-      <c r="BV41" s="2"/>
     </row>
-    <row r="42" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>20</v>
       </c>
@@ -6471,7 +6431,7 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="10"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
+      <c r="AA42" s="10"/>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
@@ -6518,9 +6478,8 @@
       <c r="BS42" s="2"/>
       <c r="BT42" s="2"/>
       <c r="BU42" s="2"/>
-      <c r="BV42" s="2"/>
     </row>
-    <row r="43" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>45</v>
       </c>
@@ -6552,7 +6511,7 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="10"/>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
+      <c r="AA43" s="10"/>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
@@ -6599,9 +6558,8 @@
       <c r="BS43" s="2"/>
       <c r="BT43" s="2"/>
       <c r="BU43" s="2"/>
-      <c r="BV43" s="2"/>
     </row>
-    <row r="44" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>34</v>
       </c>
@@ -6637,7 +6595,9 @@
         <v>-7471.87</v>
       </c>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
+      <c r="AA44" s="10">
+        <v>-3590.62</v>
+      </c>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
@@ -6684,9 +6644,8 @@
       <c r="BS44" s="2"/>
       <c r="BT44" s="2"/>
       <c r="BU44" s="2"/>
-      <c r="BV44" s="2"/>
     </row>
-    <row r="45" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>19</v>
       </c>
@@ -6725,7 +6684,7 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="10"/>
       <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
+      <c r="AA45" s="10"/>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
@@ -6772,9 +6731,8 @@
       <c r="BS45" s="2"/>
       <c r="BT45" s="2"/>
       <c r="BU45" s="2"/>
-      <c r="BV45" s="2"/>
     </row>
-    <row r="46" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
@@ -6848,15 +6806,14 @@
       <c r="BS46" s="2"/>
       <c r="BT46" s="2"/>
       <c r="BU46" s="2"/>
-      <c r="BV46" s="2"/>
     </row>
-    <row r="47" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B47" s="32">
-        <f t="shared" ref="B47" si="20">C47+E47+G47+I47+K47+M47+O47+Q47+S47+U47+W47+Y47</f>
-        <v>-22420.19</v>
+        <f t="shared" ref="B47" si="23">C47+E47+G47+I47+K47+M47+O47+Q47+S47+U47+W47+Y47</f>
+        <v>-25162.53</v>
       </c>
       <c r="C47" s="5">
         <v>0</v>
@@ -6869,283 +6826,279 @@
         <v>0</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" ref="F47:BV47" si="21">SUM(F48:F51)</f>
+        <f t="shared" ref="F47:BU47" si="24">SUM(F48:F51)</f>
         <v>-13432.593933481601</v>
       </c>
       <c r="G47" s="14">
-        <f t="shared" ref="G47" si="22">SUM(G48:G51)</f>
+        <f t="shared" ref="G47" si="25">SUM(G48:G51)</f>
         <v>-209.22</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-13432.593933481601</v>
       </c>
       <c r="I47" s="14">
-        <f t="shared" ref="I47:K47" si="23">SUM(I48:I51)</f>
+        <f t="shared" ref="I47:K47" si="26">SUM(I48:I51)</f>
         <v>-915.68000000000006</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-13476.899347637262</v>
       </c>
       <c r="K47" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-2214.36</v>
       </c>
       <c r="L47" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-13521.331958149671</v>
       </c>
       <c r="M47" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-1460.26</v>
       </c>
       <c r="N47" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-13565.892130186689</v>
       </c>
       <c r="O47" s="14">
-        <f t="shared" ref="O47" si="24">SUM(O48:O51)</f>
+        <f t="shared" ref="O47" si="27">SUM(O48:O51)</f>
         <v>-1975.37</v>
       </c>
       <c r="P47" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-13610.580229964526</v>
       </c>
       <c r="Q47" s="5">
-        <f t="shared" ref="Q47" si="25">SUM(Q48:Q51)</f>
+        <f t="shared" ref="Q47" si="28">SUM(Q48:Q51)</f>
         <v>-2142.41</v>
       </c>
       <c r="R47" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-13655.396624750776</v>
       </c>
       <c r="S47" s="5">
-        <f t="shared" ref="S47" si="26">SUM(S48:S51)</f>
+        <f t="shared" ref="S47" si="29">SUM(S48:S51)</f>
         <v>-4482.87</v>
       </c>
       <c r="T47" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-13700.341682867411</v>
       </c>
       <c r="U47" s="5">
-        <f t="shared" ref="U47:Y47" si="27">SUM(U48:U51)</f>
+        <f t="shared" ref="U47:Y47" si="30">SUM(U48:U51)</f>
         <v>-6171.85</v>
       </c>
       <c r="V47" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-13745.41577369382</v>
       </c>
       <c r="W47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-1967.33</v>
       </c>
       <c r="X47" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-13790.619267669847</v>
       </c>
       <c r="Y47" s="5">
-        <f t="shared" si="27"/>
-        <v>-880.84</v>
+        <f t="shared" si="30"/>
+        <v>-3623.1800000000003</v>
       </c>
       <c r="Z47" s="5">
-        <f t="shared" si="21"/>
-        <v>-13835.952536298828</v>
+        <f t="shared" si="24"/>
+        <v>-13927.009888864799</v>
       </c>
       <c r="AA47" s="5">
-        <f t="shared" si="21"/>
-        <v>-13881.415952150646</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="AB47" s="5">
-        <f t="shared" si="21"/>
-        <v>-13927.009888864799</v>
+        <f t="shared" si="24"/>
+        <v>-13972.734721153462</v>
       </c>
       <c r="AC47" s="5">
-        <f t="shared" si="21"/>
-        <v>-13972.734721153462</v>
+        <f t="shared" si="24"/>
+        <v>-14018.590824804574</v>
       </c>
       <c r="AD47" s="5">
-        <f t="shared" si="21"/>
-        <v>-14018.590824804574</v>
+        <f t="shared" si="24"/>
+        <v>-14064.578576684915</v>
       </c>
       <c r="AE47" s="5">
-        <f t="shared" si="21"/>
-        <v>-14064.578576684915</v>
+        <f t="shared" si="24"/>
+        <v>-14110.698354743226</v>
       </c>
       <c r="AF47" s="5">
-        <f t="shared" si="21"/>
-        <v>-14110.698354743226</v>
+        <f t="shared" si="24"/>
+        <v>-14156.95053801329</v>
       </c>
       <c r="AG47" s="5">
-        <f t="shared" si="21"/>
-        <v>-14156.95053801329</v>
+        <f t="shared" si="24"/>
+        <v>-14203.335506617061</v>
       </c>
       <c r="AH47" s="5">
-        <f t="shared" si="21"/>
-        <v>-14203.335506617061</v>
+        <f t="shared" si="24"/>
+        <v>-14249.853641767777</v>
       </c>
       <c r="AI47" s="5">
-        <f t="shared" si="21"/>
-        <v>-14249.853641767777</v>
+        <f t="shared" si="24"/>
+        <v>-14296.505325773111</v>
       </c>
       <c r="AJ47" s="5">
-        <f t="shared" si="21"/>
-        <v>-14296.505325773111</v>
+        <f t="shared" si="24"/>
+        <v>-14343.290942038298</v>
       </c>
       <c r="AK47" s="5">
-        <f t="shared" si="21"/>
-        <v>-14343.290942038298</v>
+        <f t="shared" si="24"/>
+        <v>-14390.210875069293</v>
       </c>
       <c r="AL47" s="5">
-        <f t="shared" si="21"/>
-        <v>-14390.210875069293</v>
+        <f t="shared" si="24"/>
+        <v>-14437.265510475925</v>
       </c>
       <c r="AM47" s="5">
-        <f t="shared" si="21"/>
-        <v>-14437.265510475925</v>
+        <f t="shared" si="24"/>
+        <v>-14484.455234975074</v>
       </c>
       <c r="AN47" s="5">
-        <f t="shared" si="21"/>
-        <v>-14484.455234975074</v>
+        <f t="shared" si="24"/>
+        <v>-14531.780436393839</v>
       </c>
       <c r="AO47" s="5">
-        <f t="shared" si="21"/>
-        <v>-14531.780436393839</v>
+        <f t="shared" si="24"/>
+        <v>-14579.241503672736</v>
       </c>
       <c r="AP47" s="5">
-        <f t="shared" si="21"/>
-        <v>-14579.241503672736</v>
+        <f t="shared" si="24"/>
+        <v>-14626.838826868892</v>
       </c>
       <c r="AQ47" s="5">
-        <f t="shared" si="21"/>
-        <v>-14626.838826868892</v>
+        <f t="shared" si="24"/>
+        <v>-14674.572797159242</v>
       </c>
       <c r="AR47" s="5">
-        <f t="shared" si="21"/>
-        <v>-14674.572797159242</v>
+        <f t="shared" si="24"/>
+        <v>-14722.443806843758</v>
       </c>
       <c r="AS47" s="5">
-        <f t="shared" si="21"/>
-        <v>-14722.443806843758</v>
+        <f t="shared" si="24"/>
+        <v>-14770.452249348658</v>
       </c>
       <c r="AT47" s="5">
-        <f t="shared" si="21"/>
-        <v>-14770.452249348658</v>
+        <f t="shared" si="24"/>
+        <v>-14818.598519229647</v>
       </c>
       <c r="AU47" s="5">
-        <f t="shared" si="21"/>
-        <v>-14818.598519229647</v>
+        <f t="shared" si="24"/>
+        <v>-14866.883012175169</v>
       </c>
       <c r="AV47" s="5">
-        <f t="shared" si="21"/>
-        <v>-14866.883012175169</v>
+        <f t="shared" si="24"/>
+        <v>-14915.306125009638</v>
       </c>
       <c r="AW47" s="5">
-        <f t="shared" si="21"/>
-        <v>-14915.306125009638</v>
+        <f t="shared" si="24"/>
+        <v>-14963.868255696718</v>
       </c>
       <c r="AX47" s="5">
-        <f t="shared" si="21"/>
-        <v>-14963.868255696718</v>
+        <f t="shared" si="24"/>
+        <v>-15012.56980334258</v>
       </c>
       <c r="AY47" s="5">
-        <f t="shared" si="21"/>
-        <v>-15012.56980334258</v>
+        <f t="shared" si="24"/>
+        <v>-15061.411168199204</v>
       </c>
       <c r="AZ47" s="5">
-        <f t="shared" si="21"/>
-        <v>-15061.411168199204</v>
+        <f t="shared" si="24"/>
+        <v>-15110.392751667627</v>
       </c>
       <c r="BA47" s="5">
-        <f t="shared" si="21"/>
-        <v>-15110.392751667627</v>
+        <f t="shared" si="24"/>
+        <v>-15159.514956301286</v>
       </c>
       <c r="BB47" s="5">
-        <f t="shared" si="21"/>
-        <v>-15159.514956301286</v>
+        <f t="shared" si="24"/>
+        <v>-15208.778185809309</v>
       </c>
       <c r="BC47" s="5">
-        <f t="shared" si="21"/>
-        <v>-15208.778185809309</v>
+        <f t="shared" si="24"/>
+        <v>-15258.182845059824</v>
       </c>
       <c r="BD47" s="5">
-        <f t="shared" si="21"/>
-        <v>-15258.182845059824</v>
+        <f t="shared" si="24"/>
+        <v>-15307.729340083293</v>
       </c>
       <c r="BE47" s="5">
-        <f t="shared" si="21"/>
-        <v>-15307.729340083293</v>
+        <f t="shared" si="24"/>
+        <v>-15357.418078075865</v>
       </c>
       <c r="BF47" s="5">
-        <f t="shared" si="21"/>
-        <v>-15357.418078075865</v>
+        <f t="shared" si="24"/>
+        <v>-15407.249467402691</v>
       </c>
       <c r="BG47" s="5">
-        <f t="shared" si="21"/>
-        <v>-15407.249467402691</v>
+        <f t="shared" si="24"/>
+        <v>-15457.223917601306</v>
       </c>
       <c r="BH47" s="5">
-        <f t="shared" si="21"/>
-        <v>-15457.223917601306</v>
+        <f t="shared" si="24"/>
+        <v>-15507.341839384981</v>
       </c>
       <c r="BI47" s="5">
-        <f t="shared" si="21"/>
-        <v>-15507.341839384981</v>
+        <f t="shared" si="24"/>
+        <v>-15557.603644646108</v>
       </c>
       <c r="BJ47" s="5">
-        <f t="shared" si="21"/>
-        <v>-15557.603644646108</v>
+        <f t="shared" si="24"/>
+        <v>-15608.009746459578</v>
       </c>
       <c r="BK47" s="5">
-        <f t="shared" si="21"/>
-        <v>-15608.009746459578</v>
+        <f t="shared" si="24"/>
+        <v>-15658.560559086181</v>
       </c>
       <c r="BL47" s="5">
-        <f t="shared" si="21"/>
-        <v>-15658.560559086181</v>
+        <f t="shared" si="24"/>
+        <v>-15709.256497975995</v>
       </c>
       <c r="BM47" s="5">
-        <f t="shared" si="21"/>
-        <v>-15709.256497975995</v>
+        <f t="shared" si="24"/>
+        <v>-15760.097979771836</v>
       </c>
       <c r="BN47" s="5">
-        <f t="shared" si="21"/>
-        <v>-15760.097979771836</v>
+        <f t="shared" si="24"/>
+        <v>-15811.085422312635</v>
       </c>
       <c r="BO47" s="5">
-        <f t="shared" si="21"/>
-        <v>-15811.085422312635</v>
+        <f t="shared" si="24"/>
+        <v>-15862.219244636921</v>
       </c>
       <c r="BP47" s="5">
-        <f t="shared" si="21"/>
-        <v>-15862.219244636921</v>
+        <f t="shared" si="24"/>
+        <v>-15913.499866986218</v>
       </c>
       <c r="BQ47" s="5">
-        <f t="shared" si="21"/>
-        <v>-15913.499866986218</v>
+        <f t="shared" si="24"/>
+        <v>-15964.927710808526</v>
       </c>
       <c r="BR47" s="5">
-        <f t="shared" si="21"/>
-        <v>-15964.927710808526</v>
+        <f t="shared" si="24"/>
+        <v>-16016.503198761791</v>
       </c>
       <c r="BS47" s="5">
-        <f t="shared" si="21"/>
-        <v>-16016.503198761791</v>
+        <f t="shared" si="24"/>
+        <v>-16068.226754717358</v>
       </c>
       <c r="BT47" s="5">
-        <f t="shared" si="21"/>
-        <v>-16068.226754717358</v>
+        <f t="shared" si="24"/>
+        <v>-16120.09880376346</v>
       </c>
       <c r="BU47" s="5">
-        <f t="shared" si="21"/>
-        <v>-16120.09880376346</v>
-      </c>
-      <c r="BV47" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-16172.119772208731</v>
       </c>
     </row>
-    <row r="48" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>28</v>
       </c>
@@ -7204,156 +7157,153 @@
       <c r="X48" s="2">
         <v>-3129.8680998547252</v>
       </c>
-      <c r="Y48" s="10"/>
+      <c r="Y48" s="10">
+        <v>-2166.75</v>
+      </c>
       <c r="Z48" s="2">
-        <v>-3138.8536341734775</v>
-      </c>
-      <c r="AA48" s="2">
-        <v>-3147.8649650511952</v>
-      </c>
+        <v>-3156.9021665471864</v>
+      </c>
+      <c r="AA48" s="10"/>
       <c r="AB48" s="2">
-        <v>-3156.9021665471864</v>
+        <v>-3165.9653129333774</v>
       </c>
       <c r="AC48" s="2">
-        <v>-3165.9653129333774</v>
+        <v>-3175.054478694919</v>
       </c>
       <c r="AD48" s="2">
-        <v>-3175.054478694919</v>
+        <v>-3184.1697385308025</v>
       </c>
       <c r="AE48" s="2">
-        <v>-3184.1697385308025</v>
+        <v>-3193.3111673544731</v>
       </c>
       <c r="AF48" s="2">
-        <v>-3193.3111673544731</v>
+        <v>-3202.4788402944446</v>
       </c>
       <c r="AG48" s="2">
-        <v>-3202.4788402944446</v>
+        <v>-3211.6728326949165</v>
       </c>
       <c r="AH48" s="2">
-        <v>-3211.6728326949165</v>
+        <v>-3220.8932201163934</v>
       </c>
       <c r="AI48" s="2">
-        <v>-3220.8932201163934</v>
+        <v>-3230.1400783363083</v>
       </c>
       <c r="AJ48" s="2">
-        <v>-3230.1400783363083</v>
+        <v>-3239.4134833496423</v>
       </c>
       <c r="AK48" s="2">
-        <v>-3239.4134833496423</v>
+        <v>-3248.7135113695504</v>
       </c>
       <c r="AL48" s="2">
-        <v>-3248.7135113695504</v>
+        <v>-3258.0402388279881</v>
       </c>
       <c r="AM48" s="2">
-        <v>-3258.0402388279881</v>
+        <v>-3267.3937423763396</v>
       </c>
       <c r="AN48" s="2">
-        <v>-3267.3937423763396</v>
+        <v>-3276.7740988860464</v>
       </c>
       <c r="AO48" s="2">
-        <v>-3276.7740988860464</v>
+        <v>-3286.1813854492416</v>
       </c>
       <c r="AP48" s="2">
-        <v>-3286.1813854492416</v>
+        <v>-3295.6156793793812</v>
       </c>
       <c r="AQ48" s="2">
-        <v>-3295.6156793793812</v>
+        <v>-3305.0770582118798</v>
       </c>
       <c r="AR48" s="2">
-        <v>-3305.0770582118798</v>
+        <v>-3314.5655997047502</v>
       </c>
       <c r="AS48" s="2">
-        <v>-3314.5655997047502</v>
+        <v>-3324.0813818392385</v>
       </c>
       <c r="AT48" s="2">
-        <v>-3324.0813818392385</v>
+        <v>-3333.6244828204667</v>
       </c>
       <c r="AU48" s="2">
-        <v>-3333.6244828204667</v>
+        <v>-3343.1949810780793</v>
       </c>
       <c r="AV48" s="2">
-        <v>-3343.1949810780793</v>
+        <v>-3352.7929552668793</v>
       </c>
       <c r="AW48" s="2">
-        <v>-3352.7929552668793</v>
+        <v>-3362.418484267484</v>
       </c>
       <c r="AX48" s="2">
-        <v>-3362.418484267484</v>
+        <v>-3372.0716471869673</v>
       </c>
       <c r="AY48" s="2">
-        <v>-3372.0716471869673</v>
+        <v>-3381.7525233595115</v>
       </c>
       <c r="AZ48" s="2">
-        <v>-3381.7525233595115</v>
+        <v>-3391.4611923470588</v>
       </c>
       <c r="BA48" s="2">
-        <v>-3391.4611923470588</v>
+        <v>-3401.1977339399659</v>
       </c>
       <c r="BB48" s="2">
-        <v>-3401.1977339399659</v>
+        <v>-3410.9622281576608</v>
       </c>
       <c r="BC48" s="2">
-        <v>-3410.9622281576608</v>
+        <v>-3420.754755249297</v>
       </c>
       <c r="BD48" s="2">
-        <v>-3420.754755249297</v>
+        <v>-3430.5753956944177</v>
       </c>
       <c r="BE48" s="2">
-        <v>-3430.5753956944177</v>
+        <v>-3440.4242302036128</v>
       </c>
       <c r="BF48" s="2">
-        <v>-3440.4242302036128</v>
+        <v>-3450.3013397191839</v>
       </c>
       <c r="BG48" s="2">
-        <v>-3450.3013397191839</v>
+        <v>-3460.2068054158126</v>
       </c>
       <c r="BH48" s="2">
-        <v>-3460.2068054158126</v>
+        <v>-3470.1407087012212</v>
       </c>
       <c r="BI48" s="2">
-        <v>-3470.1407087012212</v>
+        <v>-3480.103131216847</v>
       </c>
       <c r="BJ48" s="2">
-        <v>-3480.103131216847</v>
+        <v>-3490.0941548385122</v>
       </c>
       <c r="BK48" s="2">
-        <v>-3490.0941548385122</v>
+        <v>-3500.1138616770959</v>
       </c>
       <c r="BL48" s="2">
-        <v>-3500.1138616770959</v>
+        <v>-3510.1623340792062</v>
       </c>
       <c r="BM48" s="2">
-        <v>-3510.1623340792062</v>
+        <v>-3520.2396546278655</v>
       </c>
       <c r="BN48" s="2">
-        <v>-3520.2396546278655</v>
+        <v>-3530.3459061431795</v>
       </c>
       <c r="BO48" s="2">
-        <v>-3530.3459061431795</v>
+        <v>-3540.4811716830236</v>
       </c>
       <c r="BP48" s="2">
-        <v>-3540.4811716830236</v>
+        <v>-3550.6455345437234</v>
       </c>
       <c r="BQ48" s="2">
-        <v>-3550.6455345437234</v>
+        <v>-3560.8390782607403</v>
       </c>
       <c r="BR48" s="2">
-        <v>-3560.8390782607403</v>
+        <v>-3571.0618866093573</v>
       </c>
       <c r="BS48" s="2">
-        <v>-3571.0618866093573</v>
+        <v>-3581.3140436053673</v>
       </c>
       <c r="BT48" s="2">
-        <v>-3581.3140436053673</v>
+        <v>-3591.5956335057654</v>
       </c>
       <c r="BU48" s="2">
-        <v>-3591.5956335057654</v>
-      </c>
-      <c r="BV48" s="2">
         <v>-3601.9067408094384</v>
       </c>
     </row>
-    <row r="49" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>6</v>
       </c>
@@ -7415,154 +7365,149 @@
         <v>-880.84</v>
       </c>
       <c r="Z49" s="2">
-        <v>-6719.0378727041043</v>
-      </c>
-      <c r="AA49" s="2">
-        <v>-6744.0693473644315</v>
-      </c>
+        <v>-6769.1726848532962</v>
+      </c>
+      <c r="AA49" s="10"/>
       <c r="AB49" s="2">
-        <v>-6769.1726848532962</v>
+        <v>-6794.3480914816046</v>
       </c>
       <c r="AC49" s="2">
-        <v>-6794.3480914816046</v>
+        <v>-6819.5957741525526</v>
       </c>
       <c r="AD49" s="2">
-        <v>-6819.5957741525526</v>
+        <v>-6844.9159403633403</v>
       </c>
       <c r="AE49" s="2">
-        <v>-6844.9159403633403</v>
+        <v>-6870.3087982068701</v>
       </c>
       <c r="AF49" s="2">
-        <v>-6870.3087982068701</v>
+        <v>-6895.774556373457</v>
       </c>
       <c r="AG49" s="2">
-        <v>-6895.774556373457</v>
+        <v>-6921.3134241525458</v>
       </c>
       <c r="AH49" s="2">
-        <v>-6921.3134241525458</v>
+        <v>-6946.9256114344262</v>
       </c>
       <c r="AI49" s="2">
-        <v>-6946.9256114344262</v>
+        <v>-6972.6113287119679</v>
       </c>
       <c r="AJ49" s="2">
-        <v>-6972.6113287119679</v>
+        <v>-6998.37078708234</v>
       </c>
       <c r="AK49" s="2">
-        <v>-6998.37078708234</v>
+        <v>-7024.2041982487517</v>
       </c>
       <c r="AL49" s="2">
-        <v>-7024.2041982487517</v>
+        <v>-7050.1117745221891</v>
       </c>
       <c r="AM49" s="2">
-        <v>-7050.1117745221891</v>
+        <v>-7076.0937288231653</v>
       </c>
       <c r="AN49" s="2">
-        <v>-7076.0937288231653</v>
+        <v>-7102.1502746834631</v>
       </c>
       <c r="AO49" s="2">
-        <v>-7102.1502746834631</v>
+        <v>-7128.2816262478937</v>
       </c>
       <c r="AP49" s="2">
-        <v>-7128.2816262478937</v>
+        <v>-7154.4879982760594</v>
       </c>
       <c r="AQ49" s="2">
-        <v>-7154.4879982760594</v>
+        <v>-7180.7696061441111</v>
       </c>
       <c r="AR49" s="2">
-        <v>-7180.7696061441111</v>
+        <v>-7207.1266658465283</v>
       </c>
       <c r="AS49" s="2">
-        <v>-7207.1266658465283</v>
+        <v>-7233.5593939978844</v>
       </c>
       <c r="AT49" s="2">
-        <v>-7233.5593939978844</v>
+        <v>-7260.0680078346304</v>
       </c>
       <c r="AU49" s="2">
-        <v>-7260.0680078346304</v>
+        <v>-7286.6527252168871</v>
       </c>
       <c r="AV49" s="2">
-        <v>-7286.6527252168871</v>
+        <v>-7313.3137646302202</v>
       </c>
       <c r="AW49" s="2">
-        <v>-7313.3137646302202</v>
+        <v>-7340.0513451874558</v>
       </c>
       <c r="AX49" s="2">
-        <v>-7340.0513451874558</v>
+        <v>-7366.8656866304646</v>
       </c>
       <c r="AY49" s="2">
-        <v>-7366.8656866304646</v>
+        <v>-7393.7570093319773</v>
       </c>
       <c r="AZ49" s="2">
-        <v>-7393.7570093319773</v>
+        <v>-7420.7255342973858</v>
       </c>
       <c r="BA49" s="2">
-        <v>-7420.7255342973858</v>
+        <v>-7447.7714831665726</v>
       </c>
       <c r="BB49" s="2">
-        <v>-7447.7714831665726</v>
+        <v>-7474.8950782157244</v>
       </c>
       <c r="BC49" s="2">
-        <v>-7474.8950782157244</v>
+        <v>-7502.0965423591588</v>
       </c>
       <c r="BD49" s="2">
-        <v>-7502.0965423591588</v>
+        <v>-7529.3760991511608</v>
       </c>
       <c r="BE49" s="2">
-        <v>-7529.3760991511608</v>
+        <v>-7556.7339727878134</v>
       </c>
       <c r="BF49" s="2">
-        <v>-7556.7339727878134</v>
+        <v>-7584.1703881088451</v>
       </c>
       <c r="BG49" s="2">
-        <v>-7584.1703881088451</v>
+        <v>-7611.6855705994803</v>
       </c>
       <c r="BH49" s="2">
-        <v>-7611.6855705994803</v>
+        <v>-7639.2797463922816</v>
       </c>
       <c r="BI49" s="2">
-        <v>-7639.2797463922816</v>
+        <v>-7666.9531422690197</v>
       </c>
       <c r="BJ49" s="2">
-        <v>-7666.9531422690197</v>
+        <v>-7694.7059856625347</v>
       </c>
       <c r="BK49" s="2">
-        <v>-7694.7059856625347</v>
+        <v>-7722.5385046585998</v>
       </c>
       <c r="BL49" s="2">
-        <v>-7722.5385046585998</v>
+        <v>-7750.4509279977956</v>
       </c>
       <c r="BM49" s="2">
-        <v>-7750.4509279977956</v>
+        <v>-7778.4434850774051</v>
       </c>
       <c r="BN49" s="2">
-        <v>-7778.4434850774051</v>
+        <v>-7806.5164059532763</v>
       </c>
       <c r="BO49" s="2">
-        <v>-7806.5164059532763</v>
+        <v>-7834.6699213417323</v>
       </c>
       <c r="BP49" s="2">
-        <v>-7834.6699213417323</v>
+        <v>-7862.9042626214541</v>
       </c>
       <c r="BQ49" s="2">
-        <v>-7862.9042626214541</v>
+        <v>-7891.2196618353901</v>
       </c>
       <c r="BR49" s="2">
-        <v>-7891.2196618353901</v>
+        <v>-7919.616351692659</v>
       </c>
       <c r="BS49" s="2">
-        <v>-7919.616351692659</v>
+        <v>-7948.0945655704654</v>
       </c>
       <c r="BT49" s="2">
-        <v>-7948.0945655704654</v>
+        <v>-7976.6545375160149</v>
       </c>
       <c r="BU49" s="2">
-        <v>-7976.6545375160149</v>
-      </c>
-      <c r="BV49" s="2">
         <v>-8005.2965022484404</v>
       </c>
     </row>
-    <row r="50" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>26</v>
       </c>
@@ -7621,156 +7566,154 @@
       <c r="X50" s="2">
         <v>-706.3938419811011</v>
       </c>
-      <c r="Y50" s="10"/>
+      <c r="Y50" s="10">
+        <f>-(106.13+469.46)</f>
+        <v>-575.58999999999992</v>
+      </c>
       <c r="Z50" s="2">
-        <v>-708.42182715720833</v>
-      </c>
-      <c r="AA50" s="2">
-        <v>-710.45563447335996</v>
-      </c>
+        <v>-712.49528064433025</v>
+      </c>
+      <c r="AA50" s="10"/>
       <c r="AB50" s="2">
-        <v>-712.49528064433025</v>
+        <v>-714.54078243288029</v>
       </c>
       <c r="AC50" s="2">
-        <v>-714.54078243288029</v>
+        <v>-716.59215664989483</v>
       </c>
       <c r="AD50" s="2">
-        <v>-716.59215664989483</v>
+        <v>-718.64942015452141</v>
       </c>
       <c r="AE50" s="2">
-        <v>-718.64942015452141</v>
+        <v>-720.71258985430813</v>
       </c>
       <c r="AF50" s="2">
-        <v>-720.71258985430813</v>
+        <v>-722.78168270534331</v>
       </c>
       <c r="AG50" s="2">
-        <v>-722.78168270534331</v>
+        <v>-724.85671571239425</v>
       </c>
       <c r="AH50" s="2">
-        <v>-724.85671571239425</v>
+        <v>-726.93770592904707</v>
       </c>
       <c r="AI50" s="2">
-        <v>-726.93770592904707</v>
+        <v>-729.02467045784726</v>
       </c>
       <c r="AJ50" s="2">
-        <v>-729.02467045784726</v>
+        <v>-731.11762645043996</v>
       </c>
       <c r="AK50" s="2">
-        <v>-731.11762645043996</v>
+        <v>-733.216591107711</v>
       </c>
       <c r="AL50" s="2">
-        <v>-733.216591107711</v>
+        <v>-735.32158167992782</v>
       </c>
       <c r="AM50" s="2">
-        <v>-735.32158167992782</v>
+        <v>-737.43261546688223</v>
       </c>
       <c r="AN50" s="2">
-        <v>-737.43261546688223</v>
+        <v>-739.54970981803137</v>
       </c>
       <c r="AO50" s="2">
-        <v>-739.54970981803137</v>
+        <v>-741.67288213264135</v>
       </c>
       <c r="AP50" s="2">
-        <v>-741.67288213264135</v>
+        <v>-743.80214985992973</v>
       </c>
       <c r="AQ50" s="2">
-        <v>-743.80214985992973</v>
+        <v>-745.93753049920906</v>
       </c>
       <c r="AR50" s="2">
-        <v>-745.93753049920906</v>
+        <v>-748.07904160003045</v>
       </c>
       <c r="AS50" s="2">
-        <v>-748.07904160003045</v>
+        <v>-750.22670076232805</v>
       </c>
       <c r="AT50" s="2">
-        <v>-750.22670076232805</v>
+        <v>-752.38052563656368</v>
       </c>
       <c r="AU50" s="2">
-        <v>-752.38052563656368</v>
+        <v>-754.54053392387198</v>
       </c>
       <c r="AV50" s="2">
-        <v>-754.54053392387198</v>
+        <v>-756.7067433762054</v>
       </c>
       <c r="AW50" s="2">
-        <v>-756.7067433762054</v>
+        <v>-758.8791717964807</v>
       </c>
       <c r="AX50" s="2">
-        <v>-758.8791717964807</v>
+        <v>-761.05783703872521</v>
       </c>
       <c r="AY50" s="2">
-        <v>-761.05783703872521</v>
+        <v>-763.24275700822307</v>
       </c>
       <c r="AZ50" s="2">
-        <v>-763.24275700822307</v>
+        <v>-765.4339496616625</v>
       </c>
       <c r="BA50" s="2">
-        <v>-765.4339496616625</v>
+        <v>-767.63143300728393</v>
       </c>
       <c r="BB50" s="2">
-        <v>-767.63143300728393</v>
+        <v>-769.83522510502746</v>
       </c>
       <c r="BC50" s="2">
-        <v>-769.83522510502746</v>
+        <v>-772.04534406668165</v>
       </c>
       <c r="BD50" s="2">
-        <v>-772.04534406668165</v>
+        <v>-774.26180805603167</v>
       </c>
       <c r="BE50" s="2">
-        <v>-774.26180805603167</v>
+        <v>-776.4846352890097</v>
       </c>
       <c r="BF50" s="2">
-        <v>-776.4846352890097</v>
+        <v>-778.71384403384366</v>
       </c>
       <c r="BG50" s="2">
-        <v>-778.71384403384366</v>
+        <v>-780.94945261120768</v>
       </c>
       <c r="BH50" s="2">
-        <v>-780.94945261120768</v>
+        <v>-783.19147939437278</v>
       </c>
       <c r="BI50" s="2">
-        <v>-783.19147939437278</v>
+        <v>-785.43994280935783</v>
       </c>
       <c r="BJ50" s="2">
-        <v>-785.43994280935783</v>
+        <v>-787.69486133508087</v>
       </c>
       <c r="BK50" s="2">
-        <v>-787.69486133508087</v>
+        <v>-789.95625350351111</v>
       </c>
       <c r="BL50" s="2">
-        <v>-789.95625350351111</v>
+        <v>-792.2241378998209</v>
       </c>
       <c r="BM50" s="2">
-        <v>-792.2241378998209</v>
+        <v>-794.49853316253905</v>
       </c>
       <c r="BN50" s="2">
-        <v>-794.49853316253905</v>
+        <v>-796.77945798370365</v>
       </c>
       <c r="BO50" s="2">
-        <v>-796.77945798370365</v>
+        <v>-799.06693110901563</v>
       </c>
       <c r="BP50" s="2">
-        <v>-799.06693110901563</v>
+        <v>-801.36097133799308</v>
       </c>
       <c r="BQ50" s="2">
-        <v>-801.36097133799308</v>
+        <v>-803.66159752412534</v>
       </c>
       <c r="BR50" s="2">
-        <v>-803.66159752412534</v>
+        <v>-805.96882857502851</v>
       </c>
       <c r="BS50" s="2">
-        <v>-805.96882857502851</v>
+        <v>-808.28268345260028</v>
       </c>
       <c r="BT50" s="2">
-        <v>-808.28268345260028</v>
+        <v>-810.60318117317604</v>
       </c>
       <c r="BU50" s="2">
-        <v>-810.60318117317604</v>
-      </c>
-      <c r="BV50" s="2">
         <v>-812.93034080768575</v>
       </c>
     </row>
-    <row r="51" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>27</v>
       </c>
@@ -7833,156 +7776,151 @@
       </c>
       <c r="Y51" s="10"/>
       <c r="Z51" s="2">
-        <v>-3269.6392022640384</v>
-      </c>
-      <c r="AA51" s="2">
-        <v>-3279.0260052616613</v>
-      </c>
+        <v>-3288.4397568199856</v>
+      </c>
+      <c r="AA51" s="10"/>
       <c r="AB51" s="2">
-        <v>-3288.4397568199856</v>
+        <v>-3297.8805343056015</v>
       </c>
       <c r="AC51" s="2">
-        <v>-3297.8805343056015</v>
+        <v>-3307.3484153072072</v>
       </c>
       <c r="AD51" s="2">
-        <v>-3307.3484153072072</v>
+        <v>-3316.8434776362528</v>
       </c>
       <c r="AE51" s="2">
-        <v>-3316.8434776362528</v>
+        <v>-3326.365799327576</v>
       </c>
       <c r="AF51" s="2">
-        <v>-3326.365799327576</v>
+        <v>-3335.9154586400459</v>
       </c>
       <c r="AG51" s="2">
-        <v>-3335.9154586400459</v>
+        <v>-3345.4925340572045</v>
       </c>
       <c r="AH51" s="2">
-        <v>-3345.4925340572045</v>
+        <v>-3355.0971042879096</v>
       </c>
       <c r="AI51" s="2">
-        <v>-3355.0971042879096</v>
+        <v>-3364.7292482669877</v>
       </c>
       <c r="AJ51" s="2">
-        <v>-3364.7292482669877</v>
+        <v>-3374.3890451558768</v>
       </c>
       <c r="AK51" s="2">
-        <v>-3374.3890451558768</v>
+        <v>-3384.0765743432812</v>
       </c>
       <c r="AL51" s="2">
-        <v>-3384.0765743432812</v>
+        <v>-3393.7919154458209</v>
       </c>
       <c r="AM51" s="2">
-        <v>-3393.7919154458209</v>
+        <v>-3403.535148308687</v>
       </c>
       <c r="AN51" s="2">
-        <v>-3403.535148308687</v>
+        <v>-3413.3063530062987</v>
       </c>
       <c r="AO51" s="2">
-        <v>-3413.3063530062987</v>
+        <v>-3423.1056098429603</v>
       </c>
       <c r="AP51" s="2">
-        <v>-3423.1056098429603</v>
+        <v>-3432.9329993535216</v>
       </c>
       <c r="AQ51" s="2">
-        <v>-3432.9329993535216</v>
+        <v>-3442.7886023040419</v>
       </c>
       <c r="AR51" s="2">
-        <v>-3442.7886023040419</v>
+        <v>-3452.6724996924481</v>
       </c>
       <c r="AS51" s="2">
-        <v>-3452.6724996924481</v>
+        <v>-3462.5847727492064</v>
       </c>
       <c r="AT51" s="2">
-        <v>-3462.5847727492064</v>
+        <v>-3472.5255029379864</v>
       </c>
       <c r="AU51" s="2">
-        <v>-3472.5255029379864</v>
+        <v>-3482.494771956332</v>
       </c>
       <c r="AV51" s="2">
-        <v>-3482.494771956332</v>
+        <v>-3492.4926617363326</v>
       </c>
       <c r="AW51" s="2">
-        <v>-3492.4926617363326</v>
+        <v>-3502.5192544452957</v>
       </c>
       <c r="AX51" s="2">
-        <v>-3502.5192544452957</v>
+        <v>-3512.574632486424</v>
       </c>
       <c r="AY51" s="2">
-        <v>-3512.574632486424</v>
+        <v>-3522.658878499491</v>
       </c>
       <c r="AZ51" s="2">
-        <v>-3522.658878499491</v>
+        <v>-3532.7720753615195</v>
       </c>
       <c r="BA51" s="2">
-        <v>-3532.7720753615195</v>
+        <v>-3542.9143061874643</v>
       </c>
       <c r="BB51" s="2">
-        <v>-3542.9143061874643</v>
+        <v>-3553.0856543308964</v>
       </c>
       <c r="BC51" s="2">
-        <v>-3553.0856543308964</v>
+        <v>-3563.2862033846845</v>
       </c>
       <c r="BD51" s="2">
-        <v>-3563.2862033846845</v>
+        <v>-3573.5160371816846</v>
       </c>
       <c r="BE51" s="2">
-        <v>-3573.5160371816846</v>
+        <v>-3583.7752397954296</v>
       </c>
       <c r="BF51" s="2">
-        <v>-3583.7752397954296</v>
+        <v>-3594.0638955408172</v>
       </c>
       <c r="BG51" s="2">
-        <v>-3594.0638955408172</v>
+        <v>-3604.3820889748049</v>
       </c>
       <c r="BH51" s="2">
-        <v>-3604.3820889748049</v>
+        <v>-3614.7299048971054</v>
       </c>
       <c r="BI51" s="2">
-        <v>-3614.7299048971054</v>
+        <v>-3625.1074283508824</v>
       </c>
       <c r="BJ51" s="2">
-        <v>-3625.1074283508824</v>
+        <v>-3635.51474462345</v>
       </c>
       <c r="BK51" s="2">
-        <v>-3635.51474462345</v>
+        <v>-3645.9519392469742</v>
       </c>
       <c r="BL51" s="2">
-        <v>-3645.9519392469742</v>
+        <v>-3656.4190979991736</v>
       </c>
       <c r="BM51" s="2">
-        <v>-3656.4190979991736</v>
+        <v>-3666.9163069040264</v>
       </c>
       <c r="BN51" s="2">
-        <v>-3666.9163069040264</v>
+        <v>-3677.4436522324781</v>
       </c>
       <c r="BO51" s="2">
-        <v>-3677.4436522324781</v>
+        <v>-3688.0012205031494</v>
       </c>
       <c r="BP51" s="2">
-        <v>-3688.0012205031494</v>
+        <v>-3698.5890984830453</v>
       </c>
       <c r="BQ51" s="2">
-        <v>-3698.5890984830453</v>
+        <v>-3709.2073731882706</v>
       </c>
       <c r="BR51" s="2">
-        <v>-3709.2073731882706</v>
+        <v>-3719.8561318847469</v>
       </c>
       <c r="BS51" s="2">
-        <v>-3719.8561318847469</v>
+        <v>-3730.5354620889243</v>
       </c>
       <c r="BT51" s="2">
-        <v>-3730.5354620889243</v>
+        <v>-3741.2454515685049</v>
       </c>
       <c r="BU51" s="2">
-        <v>-3741.2454515685049</v>
-      </c>
-      <c r="BV51" s="2">
         <v>-3751.9861883431649</v>
       </c>
+      <c r="BV51" s="2"/>
       <c r="BW51" s="2"/>
-      <c r="BX51" s="2"/>
     </row>
-    <row r="52" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:75" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -8056,9 +7994,8 @@
       <c r="BU52" s="2"/>
       <c r="BV52" s="2"/>
       <c r="BW52" s="2"/>
-      <c r="BX52" s="2"/>
     </row>
-    <row r="53" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:75" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -8130,9 +8067,8 @@
       <c r="BS53" s="2"/>
       <c r="BT53" s="2"/>
       <c r="BU53" s="2"/>
-      <c r="BV53" s="2"/>
     </row>
-    <row r="55" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>41</v>
       </c>
@@ -8191,17 +8127,25 @@
         <f>750-280</f>
         <v>470</v>
       </c>
+      <c r="AA55" s="33">
+        <f>750-280</f>
+        <v>470</v>
+      </c>
     </row>
-    <row r="56" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="Y56" s="33"/>
+      <c r="AA56" s="33"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:BX33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:BW33">
     <sortCondition ref="A19:A33"/>
   </sortState>
-  <conditionalFormatting sqref="X1:Y1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="Y1:Z1">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Energy - Orçado x Realizado.xlsx
+++ b/Energy - Orçado x Realizado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Controle Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF62968-4DEC-4F90-B4F2-D960986DAFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06D31F9-918D-49F5-94BD-9D693FA8CC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="225" windowWidth="26805" windowHeight="15405" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
+    <workbookView xWindow="29775" yWindow="60" windowWidth="26805" windowHeight="15405" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -736,10 +736,10 @@
   <dimension ref="A1:BW56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="R40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC10" sqref="AC10"/>
+      <selection pane="bottomRight" activeCell="AA56" sqref="AA56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -8128,8 +8128,7 @@
         <v>470</v>
       </c>
       <c r="AA55" s="33">
-        <f>750-280</f>
-        <v>470</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:75" x14ac:dyDescent="0.25">
@@ -8142,10 +8141,10 @@
     <sortCondition ref="A19:A33"/>
   </sortState>
   <conditionalFormatting sqref="Y1:Z1">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Energy - Orçado x Realizado.xlsx
+++ b/Energy - Orçado x Realizado.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Controle Energy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Modelos IA\Controle Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06D31F9-918D-49F5-94BD-9D693FA8CC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AB00F1-15CF-4771-85A7-E6C6E4996C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29775" yWindow="60" windowWidth="26805" windowHeight="15405" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -736,10 +736,10 @@
   <dimension ref="A1:BW56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="R40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA56" sqref="AA56"/>
+      <selection pane="bottomRight" activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -891,7 +891,7 @@
       </c>
       <c r="AA2" s="2">
         <f>Y2+AA4+AA14</f>
-        <v>10.819999999948777</v>
+        <v>11716.189999999944</v>
       </c>
     </row>
     <row r="3" spans="1:73" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="AA4" s="5">
         <f t="shared" ref="AA4" si="1">AA5+AA8</f>
-        <v>175188.36</v>
+        <v>186893.72999999998</v>
       </c>
       <c r="AB4" s="5">
         <f t="shared" si="0"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="AA8" s="5">
         <f t="shared" ref="AA8" si="8">SUM(AA9:AA12)</f>
-        <v>98920</v>
+        <v>110625.37</v>
       </c>
       <c r="AB8" s="5">
         <f t="shared" si="7"/>
@@ -2441,7 +2441,7 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="10">
-        <v>2920</v>
+        <v>14625.37</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>

--- a/Energy - Orçado x Realizado.xlsx
+++ b/Energy - Orçado x Realizado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Modelos IA\Controle Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AB00F1-15CF-4771-85A7-E6C6E4996C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667A5205-0182-478A-B29F-15EB671A6DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
   </bookViews>
@@ -891,7 +891,7 @@
       </c>
       <c r="AA2" s="2">
         <f>Y2+AA4+AA14</f>
-        <v>11716.189999999944</v>
+        <v>14636.189999999944</v>
       </c>
     </row>
     <row r="3" spans="1:73" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="AA4" s="5">
         <f t="shared" ref="AA4" si="1">AA5+AA8</f>
-        <v>186893.72999999998</v>
+        <v>189813.72999999998</v>
       </c>
       <c r="AB4" s="5">
         <f t="shared" si="0"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="AA8" s="5">
         <f t="shared" ref="AA8" si="8">SUM(AA9:AA12)</f>
-        <v>110625.37</v>
+        <v>113545.37</v>
       </c>
       <c r="AB8" s="5">
         <f t="shared" si="7"/>
@@ -2441,7 +2441,8 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="10">
-        <v>14625.37</v>
+        <f>14625.37+2920</f>
+        <v>17545.370000000003</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>

--- a/Energy - Orçado x Realizado.xlsx
+++ b/Energy - Orçado x Realizado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Modelos IA\Controle Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667A5205-0182-478A-B29F-15EB671A6DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AA1101-1FCE-48A9-8227-547C9ABBFCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>Receita Bruta</t>
   </si>
@@ -175,6 +175,9 @@
   <si>
     <t>BLUCABOS</t>
   </si>
+  <si>
+    <t>Reembolso Aporte a Maior Brumat</t>
+  </si>
 </sst>
 </file>
 
@@ -306,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -377,6 +380,9 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,13 +739,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E0C361-DC00-4C96-A388-FAD64E248995}">
-  <dimension ref="A1:BW56"/>
+  <dimension ref="A1:BW57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA10" sqref="AA10"/>
+      <selection pane="bottomRight" activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -842,56 +848,56 @@
         <v>44</v>
       </c>
       <c r="C2" s="2">
-        <f>A2+C4+C14</f>
+        <f>A2+C4+C15</f>
         <v>13043.350000000006</v>
       </c>
       <c r="E2" s="2">
-        <f>C2+E4+E14</f>
+        <f>C2+E4+E15</f>
         <v>28338.030000000006</v>
       </c>
       <c r="G2" s="2">
-        <f>E2+G4+G14</f>
+        <f>E2+G4+G15</f>
         <v>19438.619999999995</v>
       </c>
       <c r="I2" s="2">
-        <f>G2+I4+I14</f>
+        <f>G2+I4+I15</f>
         <v>62.779999999998836</v>
       </c>
       <c r="K2" s="2">
-        <f>I2+K4+K14</f>
+        <f>I2+K4+K15</f>
         <v>23294.82</v>
       </c>
       <c r="M2" s="2">
-        <f>K2+M4+M14</f>
+        <f>K2+M4+M15</f>
         <v>9781.8099999999686</v>
       </c>
       <c r="O2" s="2">
-        <f>M2+O4+O14</f>
+        <f>M2+O4+O15</f>
         <v>33385.459999999963</v>
       </c>
       <c r="Q2" s="2">
-        <f>O2+Q4+Q14</f>
+        <f>O2+Q4+Q15</f>
         <v>27018.849999999977</v>
       </c>
       <c r="S2" s="2">
-        <f>Q2+S4+S14</f>
+        <f>Q2+S4+S15</f>
         <v>103288.74999999997</v>
       </c>
       <c r="U2" s="2">
-        <f>S2+U4+U14</f>
+        <f>S2+U4+U15</f>
         <v>48849.549999999988</v>
       </c>
       <c r="W2" s="2">
-        <f>U2+W4+W14</f>
+        <f>U2+W4+W15</f>
         <v>172138.20999999996</v>
       </c>
       <c r="Y2" s="2">
-        <f>W2+Y4+Y14</f>
+        <f>W2+Y4+Y15</f>
         <v>18972.649999999965</v>
       </c>
       <c r="AA2" s="2">
-        <f>Y2+AA4+AA14</f>
-        <v>14636.189999999944</v>
+        <f>Y2+AA4+AA15</f>
+        <v>245982.34999999998</v>
       </c>
     </row>
     <row r="3" spans="1:73" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -1217,7 +1223,7 @@
       </c>
       <c r="AA4" s="5">
         <f t="shared" ref="AA4" si="1">AA5+AA8</f>
-        <v>189813.72999999998</v>
+        <v>432856.5</v>
       </c>
       <c r="AB4" s="5">
         <f t="shared" si="0"/>
@@ -2199,8 +2205,8 @@
         <v>0</v>
       </c>
       <c r="AA8" s="5">
-        <f t="shared" ref="AA8" si="8">SUM(AA9:AA12)</f>
-        <v>113545.37</v>
+        <f>SUM(AA9:AA13)</f>
+        <v>356588.14</v>
       </c>
       <c r="AB8" s="5">
         <f t="shared" si="7"/>
@@ -2227,163 +2233,163 @@
         <v>0</v>
       </c>
       <c r="AH8" s="5">
-        <f t="shared" ref="AH8:BM8" si="9">SUM(AH9:AH12)</f>
+        <f t="shared" ref="AH8:BM8" si="8">SUM(AH9:AH12)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AS8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AT8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AU8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AV8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AX8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AY8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BA8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BC8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BD8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BF8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BI8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BK8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BL8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BM8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BN8" s="5">
+        <f t="shared" ref="BN8:BU8" si="9">SUM(BN9:BN12)</f>
+        <v>0</v>
+      </c>
+      <c r="BO8" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AJ8" s="5">
+      <c r="BP8" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AK8" s="5">
+      <c r="BQ8" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL8" s="5">
+      <c r="BR8" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AM8" s="5">
+      <c r="BS8" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN8" s="5">
+      <c r="BT8" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AO8" s="5">
+      <c r="BU8" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AP8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AR8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AS8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AT8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AU8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AV8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AW8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AX8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AY8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BA8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BB8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BC8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BD8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BE8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BF8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BG8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BH8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BI8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BK8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BL8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BM8" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BN8" s="5">
-        <f t="shared" ref="BN8:BU8" si="10">SUM(BN9:BN12)</f>
-        <v>0</v>
-      </c>
-      <c r="BO8" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BP8" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BR8" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BS8" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BT8" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BU8" s="5">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2392,7 +2398,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="7">
-        <f t="shared" ref="B9:B15" si="11">C9+E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9</f>
+        <f t="shared" ref="B9:B16" si="10">C9+E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9</f>
         <v>380651</v>
       </c>
       <c r="C9" s="2">
@@ -2441,8 +2447,7 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="10">
-        <f>14625.37+2920</f>
-        <v>17545.370000000003</v>
+        <v>14625.37</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
@@ -2496,7 +2501,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="7">
-        <f t="shared" ref="B10" si="12">C10+E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10</f>
+        <f t="shared" ref="B10" si="11">C10+E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10</f>
         <v>497000</v>
       </c>
       <c r="C10" s="2"/>
@@ -2527,7 +2532,9 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="10"/>
+      <c r="AA10" s="10">
+        <v>245962.77</v>
+      </c>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -2580,7 +2587,7 @@
         <v>42</v>
       </c>
       <c r="B11" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>991000</v>
       </c>
       <c r="C11" s="2"/>
@@ -2679,7 +2686,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-156000</v>
       </c>
       <c r="C12" s="2"/>
@@ -2758,932 +2765,1008 @@
       <c r="BU12" s="2"/>
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C13" s="10"/>
+      <c r="A13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" ref="B13" si="12">C13+E13+G13+I13+K13+M13+O13+Q13+S13+U13+W13+Y13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="10"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="2"/>
+      <c r="BM13" s="2"/>
+      <c r="BN13" s="2"/>
+      <c r="BO13" s="2"/>
+      <c r="BP13" s="2"/>
+      <c r="BQ13" s="2"/>
+      <c r="BR13" s="2"/>
+      <c r="BS13" s="2"/>
+      <c r="BT13" s="2"/>
+      <c r="BU13" s="2"/>
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
+      <c r="BL14" s="2"/>
+      <c r="BM14" s="2"/>
+      <c r="BN14" s="2"/>
+      <c r="BO14" s="2"/>
+      <c r="BP14" s="2"/>
+      <c r="BQ14" s="2"/>
+      <c r="BR14" s="2"/>
+      <c r="BS14" s="2"/>
+      <c r="BT14" s="2"/>
+      <c r="BU14" s="2"/>
+    </row>
+    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="7">
-        <f t="shared" si="11"/>
+      <c r="B15" s="7">
+        <f t="shared" si="10"/>
         <v>-1988221.31</v>
       </c>
-      <c r="C14" s="10">
-        <f>C15+C39+C47+C25</f>
+      <c r="C15" s="10">
+        <f>C16+C40+C48+C26</f>
         <v>-52056.649999999994</v>
       </c>
-      <c r="D14" s="5">
-        <f>D15-D39-D47</f>
+      <c r="D15" s="5">
+        <f>D16-D40-D48</f>
         <v>-91009.140647318447</v>
       </c>
-      <c r="E14" s="10">
-        <f>E15+E39+E47+E25</f>
+      <c r="E15" s="10">
+        <f>E16+E40+E48+E26</f>
         <v>-54706.32</v>
       </c>
-      <c r="F14" s="5">
-        <f t="shared" ref="F14:J14" si="13">F15+F39+F47</f>
+      <c r="F15" s="5">
+        <f t="shared" ref="F15:J15" si="13">F16+F40+F48</f>
         <v>-408527.40230918775</v>
       </c>
-      <c r="G14" s="10">
-        <f>G15+G39+G47+G25</f>
+      <c r="G15" s="10">
+        <f>G16+G40+G48+G26</f>
         <v>-175296.1</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H15" s="5">
         <f t="shared" si="13"/>
         <v>-409516.0182064494</v>
       </c>
-      <c r="I14" s="10">
-        <f>I15+I39+I47+I25</f>
+      <c r="I15" s="10">
+        <f>I16+I40+I48+I26</f>
         <v>-126600.84</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J15" s="5">
         <f t="shared" si="13"/>
         <v>-305118.589039805</v>
       </c>
-      <c r="K14" s="10">
-        <f>K15+K39+K47+K25</f>
+      <c r="K15" s="10">
+        <f>K16+K40+K48+K26</f>
         <v>-7684.3</v>
       </c>
-      <c r="L14" s="5">
-        <f t="shared" ref="L14:AB14" si="14">L15+L39+L47</f>
+      <c r="L15" s="5">
+        <f t="shared" ref="L15:AB15" si="14">L16+L40+L48</f>
         <v>-305163.02165031742</v>
       </c>
-      <c r="M14" s="10">
-        <f>M15+M39+M47+M25</f>
+      <c r="M15" s="10">
+        <f>M16+M40+M48+M26</f>
         <v>-157263.75000000003</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N15" s="5">
         <f t="shared" si="14"/>
         <v>-305207.5818223544</v>
       </c>
-      <c r="O14" s="10">
-        <f>O15+O39+O47+O25</f>
+      <c r="O15" s="10">
+        <f>O16+O40+O48+O26</f>
         <v>-325460.69999999995</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P15" s="5">
         <f t="shared" si="14"/>
         <v>-282184.56565269525</v>
       </c>
-      <c r="Q14" s="10">
-        <f>Q15+Q39+Q47+Q25</f>
+      <c r="Q15" s="10">
+        <f>Q16+Q40+Q48+Q26</f>
         <v>-186366.61</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R15" s="5">
         <f t="shared" si="14"/>
         <v>-13655.396624750776</v>
       </c>
-      <c r="S14" s="10">
-        <f>S15+S39+S47+S25</f>
+      <c r="S15" s="10">
+        <f>S16+S40+S48+S26</f>
         <v>-13708.77</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T15" s="5">
         <f t="shared" si="14"/>
         <v>-13700.341682867411</v>
       </c>
-      <c r="U14" s="10">
-        <f>U15+U39+U47+U25</f>
+      <c r="U15" s="10">
+        <f>U16+U40+U48+U26</f>
         <v>-143558.44999999998</v>
       </c>
-      <c r="V14" s="5">
+      <c r="V15" s="5">
         <f t="shared" si="14"/>
         <v>-13745.41577369382</v>
       </c>
-      <c r="W14" s="10">
-        <f>W15+W39+W47+W25</f>
+      <c r="W15" s="10">
+        <f>W16+W40+W48+W26</f>
         <v>-592353.26</v>
       </c>
-      <c r="X14" s="5">
+      <c r="X15" s="5">
         <f t="shared" si="14"/>
         <v>-13790.619267669847</v>
       </c>
-      <c r="Y14" s="10">
-        <f>Y15+Y39+Y47+Y25</f>
+      <c r="Y15" s="10">
+        <f>Y16+Y40+Y48+Y26</f>
         <v>-153165.56</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="Z15" s="5">
         <f t="shared" si="14"/>
         <v>-13927.009888864799</v>
       </c>
-      <c r="AA14" s="10">
-        <f>AA15+AA39+AA47+AA25</f>
-        <v>-194150.19</v>
-      </c>
-      <c r="AB14" s="5">
+      <c r="AA15" s="10">
+        <f>AA16+AA40+AA48+AA26</f>
+        <v>-205846.8</v>
+      </c>
+      <c r="AB15" s="5">
         <f t="shared" si="14"/>
         <v>-13972.734721153462</v>
       </c>
-      <c r="AC14" s="5">
-        <f t="shared" ref="AC14:BU14" si="15">AC15-AC39-AC47</f>
+      <c r="AC15" s="5">
+        <f t="shared" ref="AC15:BU15" si="15">AC16-AC40-AC48</f>
         <v>14018.590824804574</v>
       </c>
-      <c r="AD14" s="5">
+      <c r="AD15" s="5">
         <f t="shared" si="15"/>
         <v>14064.578576684915</v>
       </c>
-      <c r="AE14" s="5">
+      <c r="AE15" s="5">
         <f t="shared" si="15"/>
         <v>14110.698354743226</v>
       </c>
-      <c r="AF14" s="5">
+      <c r="AF15" s="5">
         <f t="shared" si="15"/>
         <v>14156.95053801329</v>
       </c>
-      <c r="AG14" s="5">
+      <c r="AG15" s="5">
         <f t="shared" si="15"/>
         <v>14203.335506617061</v>
       </c>
-      <c r="AH14" s="5">
+      <c r="AH15" s="5">
         <f t="shared" si="15"/>
         <v>14249.853641767777</v>
       </c>
-      <c r="AI14" s="5">
+      <c r="AI15" s="5">
         <f t="shared" si="15"/>
         <v>14296.505325773111</v>
       </c>
-      <c r="AJ14" s="5">
+      <c r="AJ15" s="5">
         <f t="shared" si="15"/>
         <v>14343.290942038298</v>
       </c>
-      <c r="AK14" s="5">
+      <c r="AK15" s="5">
         <f t="shared" si="15"/>
         <v>14390.210875069293</v>
       </c>
-      <c r="AL14" s="5">
+      <c r="AL15" s="5">
         <f t="shared" si="15"/>
         <v>14437.265510475925</v>
       </c>
-      <c r="AM14" s="5">
+      <c r="AM15" s="5">
         <f t="shared" si="15"/>
         <v>14484.455234975074</v>
       </c>
-      <c r="AN14" s="5">
+      <c r="AN15" s="5">
         <f t="shared" si="15"/>
         <v>14531.780436393839</v>
       </c>
-      <c r="AO14" s="5">
+      <c r="AO15" s="5">
         <f t="shared" si="15"/>
         <v>14579.241503672736</v>
       </c>
-      <c r="AP14" s="5">
+      <c r="AP15" s="5">
         <f t="shared" si="15"/>
         <v>14626.838826868892</v>
       </c>
-      <c r="AQ14" s="5">
+      <c r="AQ15" s="5">
         <f t="shared" si="15"/>
         <v>14674.572797159242</v>
       </c>
-      <c r="AR14" s="5">
+      <c r="AR15" s="5">
         <f t="shared" si="15"/>
         <v>14722.443806843758</v>
       </c>
-      <c r="AS14" s="5">
+      <c r="AS15" s="5">
         <f t="shared" si="15"/>
         <v>14770.452249348658</v>
       </c>
-      <c r="AT14" s="5">
+      <c r="AT15" s="5">
         <f t="shared" si="15"/>
         <v>14818.598519229647</v>
       </c>
-      <c r="AU14" s="5">
+      <c r="AU15" s="5">
         <f t="shared" si="15"/>
         <v>14866.883012175169</v>
       </c>
-      <c r="AV14" s="5">
+      <c r="AV15" s="5">
         <f t="shared" si="15"/>
         <v>14915.306125009638</v>
       </c>
-      <c r="AW14" s="5">
+      <c r="AW15" s="5">
         <f t="shared" si="15"/>
         <v>14963.868255696718</v>
       </c>
-      <c r="AX14" s="5">
+      <c r="AX15" s="5">
         <f t="shared" si="15"/>
         <v>15012.56980334258</v>
       </c>
-      <c r="AY14" s="5">
+      <c r="AY15" s="5">
         <f t="shared" si="15"/>
         <v>15061.411168199204</v>
       </c>
-      <c r="AZ14" s="5">
+      <c r="AZ15" s="5">
         <f t="shared" si="15"/>
         <v>15110.392751667627</v>
       </c>
-      <c r="BA14" s="5">
+      <c r="BA15" s="5">
         <f t="shared" si="15"/>
         <v>15159.514956301286</v>
       </c>
-      <c r="BB14" s="5">
+      <c r="BB15" s="5">
         <f t="shared" si="15"/>
         <v>15208.778185809309</v>
       </c>
-      <c r="BC14" s="5">
+      <c r="BC15" s="5">
         <f t="shared" si="15"/>
         <v>15258.182845059824</v>
       </c>
-      <c r="BD14" s="5">
+      <c r="BD15" s="5">
         <f t="shared" si="15"/>
         <v>15307.729340083293</v>
       </c>
-      <c r="BE14" s="5">
+      <c r="BE15" s="5">
         <f t="shared" si="15"/>
         <v>15357.418078075865</v>
       </c>
-      <c r="BF14" s="5">
+      <c r="BF15" s="5">
         <f t="shared" si="15"/>
         <v>15407.249467402691</v>
       </c>
-      <c r="BG14" s="5">
+      <c r="BG15" s="5">
         <f t="shared" si="15"/>
         <v>15457.223917601306</v>
       </c>
-      <c r="BH14" s="5">
+      <c r="BH15" s="5">
         <f t="shared" si="15"/>
         <v>15507.341839384981</v>
       </c>
-      <c r="BI14" s="5">
+      <c r="BI15" s="5">
         <f t="shared" si="15"/>
         <v>15557.603644646108</v>
       </c>
-      <c r="BJ14" s="5">
+      <c r="BJ15" s="5">
         <f t="shared" si="15"/>
         <v>15608.009746459578</v>
       </c>
-      <c r="BK14" s="5">
+      <c r="BK15" s="5">
         <f t="shared" si="15"/>
         <v>15658.560559086181</v>
       </c>
-      <c r="BL14" s="5">
+      <c r="BL15" s="5">
         <f t="shared" si="15"/>
         <v>15709.256497975995</v>
       </c>
-      <c r="BM14" s="5">
+      <c r="BM15" s="5">
         <f t="shared" si="15"/>
         <v>15760.097979771836</v>
       </c>
-      <c r="BN14" s="5">
+      <c r="BN15" s="5">
         <f t="shared" si="15"/>
         <v>15811.085422312635</v>
       </c>
-      <c r="BO14" s="5">
+      <c r="BO15" s="5">
         <f t="shared" si="15"/>
         <v>15862.219244636921</v>
       </c>
-      <c r="BP14" s="5">
+      <c r="BP15" s="5">
         <f t="shared" si="15"/>
         <v>15913.499866986218</v>
       </c>
-      <c r="BQ14" s="5">
+      <c r="BQ15" s="5">
         <f t="shared" si="15"/>
         <v>15964.927710808526</v>
       </c>
-      <c r="BR14" s="5">
+      <c r="BR15" s="5">
         <f t="shared" si="15"/>
         <v>16016.503198761791</v>
       </c>
-      <c r="BS14" s="5">
+      <c r="BS15" s="5">
         <f t="shared" si="15"/>
         <v>16068.226754717358</v>
       </c>
-      <c r="BT14" s="5">
+      <c r="BT15" s="5">
         <f t="shared" si="15"/>
         <v>16120.09880376346</v>
       </c>
-      <c r="BU14" s="5">
+      <c r="BU15" s="5">
         <f t="shared" si="15"/>
         <v>16172.119772208731</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="7">
-        <f t="shared" si="11"/>
+      <c r="B16" s="7">
+        <f t="shared" si="10"/>
         <v>-41829.279999999999</v>
       </c>
-      <c r="C15" s="10">
-        <f>SUM(C16:C23)</f>
+      <c r="C16" s="10">
+        <f>SUM(C17:C24)</f>
         <v>-67</v>
       </c>
-      <c r="D15" s="10">
-        <f t="shared" ref="D15:BO15" si="16">SUM(D16:D23)</f>
+      <c r="D16" s="10">
+        <f t="shared" ref="D16:BO16" si="16">SUM(D17:D24)</f>
         <v>-104441.73458080005</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E16" s="10">
         <f t="shared" si="16"/>
         <v>-1852.12</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F16" s="10">
         <f t="shared" si="16"/>
         <v>-104441.73458080005</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G16" s="10">
         <f t="shared" si="16"/>
         <v>-4563.88</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H16" s="10">
         <f t="shared" si="16"/>
         <v>-104441.73458080005</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I16" s="10">
         <f t="shared" si="16"/>
         <v>-4543.79</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K16" s="10">
         <f t="shared" si="16"/>
         <v>-3569.94</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M16" s="10">
         <f t="shared" si="16"/>
         <v>-3672.54</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O16" s="10">
         <f t="shared" si="16"/>
         <v>-3497.54</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q16" s="10">
         <f t="shared" si="16"/>
         <v>-3695.1800000000003</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S15" s="10">
+      <c r="S16" s="10">
         <f t="shared" si="16"/>
         <v>-3889.4</v>
       </c>
-      <c r="T15" s="10">
+      <c r="T16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U15" s="10">
+      <c r="U16" s="10">
         <f t="shared" si="16"/>
         <v>-4751.5199999999995</v>
       </c>
-      <c r="V15" s="10">
+      <c r="V16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="W15" s="10">
+      <c r="W16" s="10">
         <f t="shared" si="16"/>
         <v>-3917.34</v>
       </c>
-      <c r="X15" s="10">
+      <c r="X16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="Y16" s="10">
         <f t="shared" si="16"/>
         <v>-3809.03</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="Z16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="10">
-        <f t="shared" ref="AA15" si="17">SUM(AA16:AA23)</f>
-        <v>-570.6</v>
-      </c>
-      <c r="AB15" s="10">
+      <c r="AA16" s="10">
+        <f t="shared" ref="AA16" si="17">SUM(AA17:AA24)</f>
+        <v>-3532.46</v>
+      </c>
+      <c r="AB16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="10">
+      <c r="AC16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="10">
+      <c r="AD16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="10">
+      <c r="AE16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="10">
+      <c r="AF16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="10">
+      <c r="AG16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AH15" s="10">
+      <c r="AH16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AI15" s="10">
+      <c r="AI16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AJ15" s="10">
+      <c r="AJ16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="10">
+      <c r="AK16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AL15" s="10">
+      <c r="AL16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AM15" s="10">
+      <c r="AM16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="10">
+      <c r="AN16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AO15" s="10">
+      <c r="AO16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AP15" s="10">
+      <c r="AP16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AQ15" s="10">
+      <c r="AQ16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AR15" s="10">
+      <c r="AR16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AS15" s="10">
+      <c r="AS16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AT15" s="10">
+      <c r="AT16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU15" s="10">
+      <c r="AU16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AV15" s="10">
+      <c r="AV16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AW15" s="10">
+      <c r="AW16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AX15" s="10">
+      <c r="AX16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AY15" s="10">
+      <c r="AY16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AZ15" s="10">
+      <c r="AZ16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BA15" s="10">
+      <c r="BA16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BB15" s="10">
+      <c r="BB16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BC15" s="10">
+      <c r="BC16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BD15" s="10">
+      <c r="BD16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BE15" s="10">
+      <c r="BE16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BF15" s="10">
+      <c r="BF16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BG15" s="10">
+      <c r="BG16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BH15" s="10">
+      <c r="BH16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BI15" s="10">
+      <c r="BI16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BJ15" s="10">
+      <c r="BJ16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BK15" s="10">
+      <c r="BK16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BL15" s="10">
+      <c r="BL16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BM15" s="10">
+      <c r="BM16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BN15" s="10">
+      <c r="BN16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BO15" s="10">
+      <c r="BO16" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BP15" s="10">
-        <f t="shared" ref="BP15:BU15" si="18">SUM(BP16:BP23)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ15" s="10">
+      <c r="BP16" s="10">
+        <f t="shared" ref="BP16:BU16" si="18">SUM(BP17:BP24)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ16" s="10">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BR15" s="10">
+      <c r="BR16" s="10">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BS15" s="10">
+      <c r="BS16" s="10">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BT15" s="10">
+      <c r="BT16" s="10">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BU15" s="10">
+      <c r="BU16" s="10">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="2">
+      <c r="B17" s="4"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="2">
         <v>-104441.73458080005</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="2">
+      <c r="E17" s="10"/>
+      <c r="F17" s="2">
         <v>-104441.73458080005</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="2">
+      <c r="G17" s="10"/>
+      <c r="H17" s="2">
         <v>-104441.73458080005</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="10">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="10">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="10">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2">
-        <v>0</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2">
-        <v>0</v>
-      </c>
-      <c r="X16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BS16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10">
-        <v>-241.66</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10">
-        <v>-2935.67</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10">
-        <f>-(2882.11-53.56)</f>
-        <v>-2828.55</v>
-      </c>
-      <c r="J17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
       <c r="K17" s="10">
-        <v>-2882.11</v>
-      </c>
-      <c r="L17" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
       <c r="M17" s="10">
-        <v>-2949.14</v>
-      </c>
-      <c r="N17" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
       <c r="O17" s="10">
-        <v>-2949.14</v>
-      </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10">
-        <v>-2961.86</v>
-      </c>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10">
-        <v>-2961.86</v>
-      </c>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10">
-        <v>-2961.86</v>
-      </c>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10">
-        <v>-2961.86</v>
-      </c>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10">
-        <v>-2961.86</v>
-      </c>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="10"/>
-      <c r="AM17" s="10"/>
-      <c r="AN17" s="10"/>
-      <c r="AO17" s="10"/>
-      <c r="AP17" s="10"/>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="10"/>
-      <c r="AS17" s="10"/>
-      <c r="AT17" s="10"/>
-      <c r="AU17" s="10"/>
-      <c r="AV17" s="10"/>
-      <c r="AW17" s="10"/>
-      <c r="AX17" s="10"/>
-      <c r="AY17" s="10"/>
-      <c r="AZ17" s="10"/>
-      <c r="BA17" s="10"/>
-      <c r="BB17" s="10"/>
-      <c r="BC17" s="10"/>
-      <c r="BD17" s="10"/>
-      <c r="BE17" s="10"/>
-      <c r="BF17" s="10"/>
-      <c r="BG17" s="10"/>
-      <c r="BH17" s="10"/>
-      <c r="BI17" s="10"/>
-      <c r="BJ17" s="10"/>
-      <c r="BK17" s="10"/>
-      <c r="BL17" s="10"/>
-      <c r="BM17" s="10"/>
-      <c r="BN17" s="10"/>
-      <c r="BO17" s="10"/>
-      <c r="BP17" s="10"/>
-      <c r="BQ17" s="10"/>
-      <c r="BR17" s="10"/>
-      <c r="BS17" s="10"/>
-      <c r="BT17" s="10"/>
-      <c r="BU17" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU17" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="10">
+        <v>-241.66</v>
+      </c>
       <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="10">
+        <v>-2935.67</v>
+      </c>
       <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="I18" s="10">
+        <f>-(2882.11-53.56)</f>
+        <v>-2828.55</v>
+      </c>
       <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="K18" s="10">
+        <v>-2882.11</v>
+      </c>
       <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="M18" s="10">
+        <v>-2949.14</v>
+      </c>
       <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+      <c r="O18" s="10">
+        <v>-2949.14</v>
+      </c>
       <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
+      <c r="Q18" s="10">
+        <v>-2961.86</v>
+      </c>
       <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
+      <c r="S18" s="10">
+        <v>-2961.86</v>
+      </c>
       <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
+      <c r="U18" s="10">
+        <v>-2961.86</v>
+      </c>
       <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
+      <c r="W18" s="10">
+        <v>-2961.86</v>
+      </c>
       <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
+      <c r="Y18" s="10">
+        <v>-2961.86</v>
+      </c>
       <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
+      <c r="AA18" s="10">
+        <v>-2961.86</v>
+      </c>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
@@ -3733,7 +3816,7 @@
     </row>
     <row r="19" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -3742,9 +3825,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="10">
-        <v>-99.36</v>
-      </c>
+      <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -3754,18 +3835,13 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="10">
-        <f>-95.11-99.03</f>
-        <v>-194.14</v>
-      </c>
+      <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
-      <c r="Y19" s="10">
-        <v>-93.77</v>
-      </c>
+      <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
@@ -3817,52 +3893,40 @@
     </row>
     <row r="20" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12">
-        <v>-163.46</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12">
-        <v>-160</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12">
-        <v>-160</v>
-      </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12">
-        <v>-175</v>
-      </c>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12">
-        <v>-175</v>
-      </c>
-      <c r="R20" s="12"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10">
+        <v>-99.36</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
       <c r="S20" s="10">
-        <v>-175</v>
-      </c>
-      <c r="T20" s="12"/>
-      <c r="U20" s="10">
-        <f>-175-350</f>
-        <v>-525</v>
-      </c>
-      <c r="V20" s="12"/>
-      <c r="W20" s="10">
-        <v>-175</v>
-      </c>
-      <c r="X20" s="12"/>
+        <f>-95.11-99.03</f>
+        <v>-194.14</v>
+      </c>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
       <c r="Y20" s="10">
-        <v>-175</v>
-      </c>
-      <c r="Z20" s="12"/>
+        <v>-93.77</v>
+      </c>
+      <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
@@ -3913,61 +3977,53 @@
     </row>
     <row r="21" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10">
-        <f>-(900+480)</f>
-        <v>-1380</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10">
-        <f>-(900+480)</f>
-        <v>-1380</v>
-      </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10">
-        <f>-(491.04)</f>
-        <v>-491.04</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10">
-        <v>-480</v>
-      </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10">
-        <v>-480</v>
-      </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10">
-        <v>-480</v>
-      </c>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10">
-        <v>-489.92</v>
-      </c>
-      <c r="R21" s="10"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12">
+        <v>-163.46</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12">
+        <v>-160</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12">
+        <v>-160</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12">
+        <v>-175</v>
+      </c>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12">
+        <v>-175</v>
+      </c>
+      <c r="R21" s="12"/>
       <c r="S21" s="10">
-        <v>-480</v>
-      </c>
-      <c r="T21" s="10"/>
+        <v>-175</v>
+      </c>
+      <c r="T21" s="12"/>
       <c r="U21" s="10">
-        <v>-500</v>
-      </c>
-      <c r="V21" s="10"/>
+        <f>-175-350</f>
+        <v>-525</v>
+      </c>
+      <c r="V21" s="12"/>
       <c r="W21" s="10">
-        <v>-500</v>
-      </c>
-      <c r="X21" s="10"/>
+        <v>-175</v>
+      </c>
+      <c r="X21" s="12"/>
       <c r="Y21" s="10">
-        <v>-500</v>
-      </c>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10">
-        <v>-500</v>
-      </c>
+        <v>-175</v>
+      </c>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="10"/>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
@@ -4017,44 +4073,61 @@
     </row>
     <row r="22" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="E22" s="10">
+        <f>-(900+480)</f>
+        <v>-1380</v>
+      </c>
       <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="10">
+        <f>-(900+480)</f>
+        <v>-1380</v>
+      </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10">
-        <f>-662.29-138.56-96.99</f>
-        <v>-897.83999999999992</v>
+        <f>-(491.04)</f>
+        <v>-491.04</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10">
-        <v>-140.83000000000001</v>
+        <v>-480</v>
       </c>
       <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="M22" s="10">
+        <v>-480</v>
+      </c>
       <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+      <c r="O22" s="10">
+        <v>-480</v>
+      </c>
       <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
+      <c r="Q22" s="10">
+        <v>-489.92</v>
+      </c>
       <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
+      <c r="S22" s="10">
+        <v>-480</v>
+      </c>
       <c r="T22" s="10"/>
       <c r="U22" s="10">
-        <f>-138.56*5</f>
-        <v>-692.8</v>
+        <v>-500</v>
       </c>
       <c r="V22" s="10"/>
       <c r="W22" s="10">
-        <v>-162.08000000000001</v>
+        <v>-500</v>
       </c>
       <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
+      <c r="Y22" s="10">
+        <v>-500</v>
+      </c>
       <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
+      <c r="AA22" s="10">
+        <v>-500</v>
+      </c>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
@@ -4104,68 +4177,44 @@
     </row>
     <row r="23" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="10">
-        <f>-67</f>
-        <v>-67</v>
-      </c>
+      <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="10">
-        <f>-67</f>
-        <v>-67</v>
-      </c>
+      <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="10">
-        <f>-67-12.3-8.91</f>
-        <v>-88.21</v>
-      </c>
+      <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10">
-        <f>-67</f>
-        <v>-67</v>
+        <f>-662.29-138.56-96.99</f>
+        <v>-897.83999999999992</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10">
-        <v>-67</v>
+        <v>-140.83000000000001</v>
       </c>
       <c r="L23" s="10"/>
-      <c r="M23" s="10">
-        <v>-68.400000000000006</v>
-      </c>
+      <c r="M23" s="10"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="10">
-        <v>-68.400000000000006</v>
-      </c>
+      <c r="O23" s="10"/>
       <c r="P23" s="10"/>
-      <c r="Q23" s="10">
-        <v>-68.400000000000006</v>
-      </c>
+      <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
-      <c r="S23" s="10">
-        <f>-(68.4+10)</f>
-        <v>-78.400000000000006</v>
-      </c>
+      <c r="S23" s="10"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10">
-        <f>-68.4-3.46</f>
-        <v>-71.86</v>
+        <f>-138.56*5</f>
+        <v>-692.8</v>
       </c>
       <c r="V23" s="10"/>
       <c r="W23" s="10">
-        <f>-(68.4+20+30)</f>
-        <v>-118.4</v>
+        <v>-162.08000000000001</v>
       </c>
       <c r="X23" s="10"/>
-      <c r="Y23" s="10">
-        <f>-(68.4+10)</f>
-        <v>-78.400000000000006</v>
-      </c>
+      <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
-      <c r="AA23" s="10">
-        <v>-70.599999999999994</v>
-      </c>
+      <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
@@ -4214,33 +4263,69 @@
       <c r="BU23" s="10"/>
     </row>
     <row r="24" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="25" t="s">
+        <v>16</v>
+      </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
+      <c r="C24" s="10">
+        <f>-67</f>
+        <v>-67</v>
+      </c>
       <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="E24" s="10">
+        <f>-67</f>
+        <v>-67</v>
+      </c>
       <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="10">
+        <f>-67-12.3-8.91</f>
+        <v>-88.21</v>
+      </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
+      <c r="I24" s="10">
+        <f>-67</f>
+        <v>-67</v>
+      </c>
       <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="K24" s="10">
+        <v>-67</v>
+      </c>
       <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="M24" s="10">
+        <v>-68.400000000000006</v>
+      </c>
       <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
+      <c r="O24" s="10">
+        <v>-68.400000000000006</v>
+      </c>
       <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
+      <c r="Q24" s="10">
+        <v>-68.400000000000006</v>
+      </c>
       <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
+      <c r="S24" s="10">
+        <f>-(68.4+10)</f>
+        <v>-78.400000000000006</v>
+      </c>
       <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
+      <c r="U24" s="10">
+        <f>-68.4-3.46</f>
+        <v>-71.86</v>
+      </c>
       <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
+      <c r="W24" s="10">
+        <f>-(68.4+20+30)</f>
+        <v>-118.4</v>
+      </c>
       <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
+      <c r="Y24" s="10">
+        <f>-(68.4+10)</f>
+        <v>-78.400000000000006</v>
+      </c>
       <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
+      <c r="AA24" s="10">
+        <v>-70.599999999999994</v>
+      </c>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
@@ -4288,379 +4373,377 @@
       <c r="BT24" s="10"/>
       <c r="BU24" s="10"/>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="10"/>
+      <c r="AS25" s="10"/>
+      <c r="AT25" s="10"/>
+      <c r="AU25" s="10"/>
+      <c r="AV25" s="10"/>
+      <c r="AW25" s="10"/>
+      <c r="AX25" s="10"/>
+      <c r="AY25" s="10"/>
+      <c r="AZ25" s="10"/>
+      <c r="BA25" s="10"/>
+      <c r="BB25" s="10"/>
+      <c r="BC25" s="10"/>
+      <c r="BD25" s="10"/>
+      <c r="BE25" s="10"/>
+      <c r="BF25" s="10"/>
+      <c r="BG25" s="10"/>
+      <c r="BH25" s="10"/>
+      <c r="BI25" s="10"/>
+      <c r="BJ25" s="10"/>
+      <c r="BK25" s="10"/>
+      <c r="BL25" s="10"/>
+      <c r="BM25" s="10"/>
+      <c r="BN25" s="10"/>
+      <c r="BO25" s="10"/>
+      <c r="BP25" s="10"/>
+      <c r="BQ25" s="10"/>
+      <c r="BR25" s="10"/>
+      <c r="BS25" s="10"/>
+      <c r="BT25" s="10"/>
+      <c r="BU25" s="10"/>
+    </row>
+    <row r="26" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="7">
-        <f t="shared" ref="B25" si="19">C25+E25+G25+I25+K25+M25+O25+Q25+S25+U25+W25+Y25</f>
+      <c r="B26" s="7">
+        <f t="shared" ref="B26" si="19">C26+E26+G26+I26+K26+M26+O26+Q26+S26+U26+W26+Y26</f>
         <v>-509306.81</v>
       </c>
-      <c r="C25" s="10">
-        <f>SUM(C26:C33)</f>
+      <c r="C26" s="10">
+        <f>SUM(C27:C34)</f>
         <v>-3584.26</v>
       </c>
-      <c r="D25" s="10">
-        <f>D35</f>
+      <c r="D26" s="10">
+        <f>D36</f>
         <v>-65653.507640750671</v>
       </c>
-      <c r="E25" s="10">
-        <f t="shared" ref="E25:U25" si="20">SUM(E26:E33)</f>
+      <c r="E26" s="10">
+        <f t="shared" ref="E26:U26" si="20">SUM(E27:E34)</f>
         <v>-262.55</v>
       </c>
-      <c r="F25" s="10">
-        <f>F35</f>
+      <c r="F26" s="10">
+        <f>F36</f>
         <v>-65876.818891229414</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G26" s="10">
         <f t="shared" si="20"/>
         <v>-45200</v>
       </c>
-      <c r="H25" s="10">
-        <f>H35</f>
+      <c r="H26" s="10">
+        <f>H36</f>
         <v>-65876.818891229414</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I26" s="10">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="J25" s="10">
-        <f>J35</f>
+      <c r="J26" s="10">
+        <f>J36</f>
         <v>-66065.944566201084</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K26" s="10">
         <f t="shared" si="20"/>
         <v>-1900</v>
       </c>
-      <c r="L25" s="10">
-        <f>L35</f>
+      <c r="L26" s="10">
+        <f>L36</f>
         <v>-66255.613201830784</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M26" s="10">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N25" s="10">
-        <f>N35</f>
+      <c r="N26" s="10">
+        <f>N36</f>
         <v>-61190.224272176725</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O26" s="10">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="P25" s="10">
-        <f>SUM(P35:P37)</f>
+      <c r="P26" s="10">
+        <f>SUM(P36:P38)</f>
         <v>-21001.377400679175</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q26" s="10">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R25" s="10">
-        <f>SUM(R35:R37)</f>
+      <c r="R26" s="10">
+        <f>SUM(R36:R38)</f>
         <v>-21061.670228157629</v>
       </c>
-      <c r="S25" s="10">
+      <c r="S26" s="10">
         <f t="shared" si="20"/>
         <v>-1900</v>
       </c>
-      <c r="T25" s="10">
-        <f>SUM(T35:T37)</f>
+      <c r="T26" s="10">
+        <f>SUM(T36:T38)</f>
         <v>-21122.136150237264</v>
       </c>
-      <c r="U25" s="10">
+      <c r="U26" s="10">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V25" s="10">
-        <f>SUM(V35:V37)</f>
+      <c r="V26" s="10">
+        <f>SUM(V36:V38)</f>
         <v>-21182.775663855144</v>
       </c>
-      <c r="W25" s="10">
-        <f>SUM(W26:W37)</f>
+      <c r="W26" s="10">
+        <f>SUM(W27:W38)</f>
         <v>-454360</v>
       </c>
-      <c r="X25" s="10">
-        <f>SUM(X35:X37)</f>
+      <c r="X26" s="10">
+        <f>SUM(X36:X38)</f>
         <v>-21243.589267374988</v>
       </c>
-      <c r="Y25" s="10">
-        <f>SUM(Y26:Y37)</f>
+      <c r="Y26" s="10">
+        <f>SUM(Y27:Y38)</f>
         <v>-2100</v>
       </c>
-      <c r="Z25" s="10">
-        <f t="shared" ref="Z25:BU25" si="21">SUM(Z35:Z37)</f>
+      <c r="Z26" s="10">
+        <f t="shared" ref="Z26:BU26" si="21">SUM(Z36:Z38)</f>
         <v>-21343.696035109606</v>
       </c>
-      <c r="AA25" s="10">
-        <f>SUM(AA26:AA37)</f>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="10">
+      <c r="AA26" s="10">
+        <f>SUM(AA27:AA38)</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="10">
         <f t="shared" si="21"/>
         <v>-21404.971624717167</v>
       </c>
-      <c r="AC25" s="10">
+      <c r="AC26" s="10">
         <f t="shared" si="21"/>
         <v>-21466.423130336439</v>
       </c>
-      <c r="AD25" s="10">
+      <c r="AD26" s="10">
         <f t="shared" si="21"/>
         <v>-21528.051057004479</v>
       </c>
-      <c r="AE25" s="10">
+      <c r="AE26" s="10">
         <f t="shared" si="21"/>
         <v>-21589.855911208251</v>
       </c>
-      <c r="AF25" s="10">
+      <c r="AF26" s="10">
         <f t="shared" si="21"/>
         <v>-21651.838200888789</v>
       </c>
-      <c r="AG25" s="10">
+      <c r="AG26" s="10">
         <f t="shared" si="21"/>
         <v>-21713.998435445377</v>
       </c>
-      <c r="AH25" s="10">
+      <c r="AH26" s="10">
         <f t="shared" si="21"/>
         <v>-21776.337125739727</v>
       </c>
-      <c r="AI25" s="10">
+      <c r="AI26" s="10">
         <f t="shared" si="21"/>
         <v>-21838.854784100196</v>
       </c>
-      <c r="AJ25" s="10">
+      <c r="AJ26" s="10">
         <f t="shared" si="21"/>
         <v>-21901.55192432597</v>
       </c>
-      <c r="AK25" s="10">
+      <c r="AK26" s="10">
         <f t="shared" si="21"/>
         <v>-64446.492532590026</v>
       </c>
-      <c r="AL25" s="10">
+      <c r="AL26" s="10">
         <f t="shared" si="21"/>
         <v>-21984.459234025133</v>
       </c>
-      <c r="AM25" s="10">
+      <c r="AM26" s="10">
         <f t="shared" si="21"/>
         <v>-22047.574389879686</v>
       </c>
-      <c r="AN25" s="10">
+      <c r="AN26" s="10">
         <f t="shared" si="21"/>
         <v>-22110.870742954336</v>
       </c>
-      <c r="AO25" s="10">
+      <c r="AO26" s="10">
         <f t="shared" si="21"/>
         <v>-22174.348813447948</v>
       </c>
-      <c r="AP25" s="10">
+      <c r="AP26" s="10">
         <f t="shared" si="21"/>
         <v>-22238.009123052834</v>
       </c>
-      <c r="AQ25" s="10">
+      <c r="AQ26" s="10">
         <f t="shared" si="21"/>
         <v>-22301.852194959021</v>
       </c>
-      <c r="AR25" s="10">
+      <c r="AR26" s="10">
         <f t="shared" si="21"/>
         <v>-22365.878553858565</v>
       </c>
-      <c r="AS25" s="10">
+      <c r="AS26" s="10">
         <f t="shared" si="21"/>
         <v>-22430.088725949863</v>
       </c>
-      <c r="AT25" s="10">
+      <c r="AT26" s="10">
         <f t="shared" si="21"/>
         <v>-22494.483238941968</v>
       </c>
-      <c r="AU25" s="10">
+      <c r="AU26" s="10">
         <f t="shared" si="21"/>
         <v>-22559.06262205894</v>
       </c>
-      <c r="AV25" s="10">
+      <c r="AV26" s="10">
         <f t="shared" si="21"/>
         <v>-22623.827406044176</v>
       </c>
-      <c r="AW25" s="10">
+      <c r="AW26" s="10">
         <f t="shared" si="21"/>
         <v>-66657.713815544965</v>
       </c>
-      <c r="AX25" s="10">
+      <c r="AX26" s="10">
         <f t="shared" si="21"/>
         <v>-22709.381866529005</v>
       </c>
-      <c r="AY25" s="10">
+      <c r="AY26" s="10">
         <f t="shared" si="21"/>
         <v>-22774.578201840646</v>
       </c>
-      <c r="AZ25" s="10">
+      <c r="AZ26" s="10">
         <f t="shared" si="21"/>
         <v>-22839.961709227824</v>
       </c>
-      <c r="BA25" s="10">
+      <c r="BA26" s="10">
         <f t="shared" si="21"/>
         <v>-22905.532926042604</v>
       </c>
-      <c r="BB25" s="10">
+      <c r="BB26" s="10">
         <f t="shared" si="21"/>
         <v>-22971.292391179752</v>
       </c>
-      <c r="BC25" s="10">
+      <c r="BC26" s="10">
         <f t="shared" si="21"/>
         <v>-23037.240645081121</v>
       </c>
-      <c r="BD25" s="10">
+      <c r="BD26" s="10">
         <f t="shared" si="21"/>
         <v>-23103.378229740149</v>
       </c>
-      <c r="BE25" s="10">
+      <c r="BE26" s="10">
         <f t="shared" si="21"/>
         <v>-23169.70568870625</v>
       </c>
-      <c r="BF25" s="10">
+      <c r="BF26" s="10">
         <f t="shared" si="21"/>
         <v>-23236.223567089342</v>
       </c>
-      <c r="BG25" s="10">
+      <c r="BG26" s="10">
         <f t="shared" si="21"/>
         <v>-23302.932411564278</v>
       </c>
-      <c r="BH25" s="10">
+      <c r="BH26" s="10">
         <f t="shared" si="21"/>
         <v>-23369.832770375368</v>
       </c>
-      <c r="BI25" s="10">
+      <c r="BI26" s="10">
         <f t="shared" si="21"/>
         <v>-68944.773634954356</v>
       </c>
-      <c r="BJ25" s="10">
+      <c r="BJ26" s="10">
         <f t="shared" si="21"/>
         <v>-23458.118120746487</v>
       </c>
-      <c r="BK25" s="10">
+      <c r="BK26" s="10">
         <f t="shared" si="21"/>
         <v>-23525.464002011286</v>
       </c>
-      <c r="BL25" s="10">
+      <c r="BL26" s="10">
         <f t="shared" si="21"/>
         <v>-23593.003226480341</v>
       </c>
-      <c r="BM25" s="10">
+      <c r="BM26" s="10">
         <f t="shared" si="21"/>
         <v>-23660.736349222414</v>
       </c>
-      <c r="BN25" s="10">
+      <c r="BN26" s="10">
         <f t="shared" si="21"/>
         <v>-23728.663926899808</v>
       </c>
-      <c r="BO25" s="10">
+      <c r="BO26" s="10">
         <f t="shared" si="21"/>
         <v>-23796.786517772947</v>
       </c>
-      <c r="BP25" s="10">
+      <c r="BP26" s="10">
         <f t="shared" si="21"/>
         <v>-23865.104681704961</v>
       </c>
-      <c r="BQ25" s="10">
+      <c r="BQ26" s="10">
         <f t="shared" si="21"/>
         <v>-23933.618980166299</v>
       </c>
-      <c r="BR25" s="10">
+      <c r="BR26" s="10">
         <f t="shared" si="21"/>
         <v>-24002.329976239329</v>
       </c>
-      <c r="BS25" s="10">
+      <c r="BS26" s="10">
         <f t="shared" si="21"/>
         <v>-24071.238234622968</v>
       </c>
-      <c r="BT25" s="10">
+      <c r="BT26" s="10">
         <f t="shared" si="21"/>
         <v>-24140.344321637334</v>
       </c>
-      <c r="BU25" s="10">
+      <c r="BU26" s="10">
         <f t="shared" si="21"/>
         <v>-71310.271942298365</v>
       </c>
-    </row>
-    <row r="26" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="10"/>
-      <c r="AN26" s="10"/>
-      <c r="AO26" s="10"/>
-      <c r="AP26" s="10"/>
-      <c r="AQ26" s="10"/>
-      <c r="AR26" s="10"/>
-      <c r="AS26" s="10"/>
-      <c r="AT26" s="10"/>
-      <c r="AU26" s="10"/>
-      <c r="AV26" s="10"/>
-      <c r="AW26" s="10"/>
-      <c r="AX26" s="10"/>
-      <c r="AY26" s="10"/>
-      <c r="AZ26" s="10"/>
-      <c r="BA26" s="10"/>
-      <c r="BB26" s="10"/>
-      <c r="BC26" s="10"/>
-      <c r="BD26" s="10"/>
-      <c r="BE26" s="10"/>
-      <c r="BF26" s="10"/>
-      <c r="BG26" s="10"/>
-      <c r="BH26" s="10"/>
-      <c r="BI26" s="10"/>
-      <c r="BJ26" s="10"/>
-      <c r="BK26" s="10"/>
-      <c r="BL26" s="10"/>
-      <c r="BM26" s="10"/>
-      <c r="BN26" s="10"/>
-      <c r="BO26" s="10"/>
-      <c r="BP26" s="10"/>
-      <c r="BQ26" s="10"/>
-      <c r="BR26" s="10"/>
-      <c r="BS26" s="10"/>
-      <c r="BT26" s="10"/>
-      <c r="BU26" s="10"/>
     </row>
     <row r="27" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
@@ -4737,7 +4820,7 @@
     </row>
     <row r="28" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -4760,9 +4843,7 @@
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
-      <c r="W28" s="10">
-        <v>-57000</v>
-      </c>
+      <c r="W28" s="10"/>
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
@@ -4816,17 +4897,14 @@
     </row>
     <row r="29" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="10">
-        <f>-45200</f>
-        <v>-45200</v>
-      </c>
+      <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -4843,10 +4921,9 @@
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10">
-        <f>-(143000+37000)</f>
-        <v>-180000</v>
-      </c>
-      <c r="X29" s="17"/>
+        <v>-57000</v>
+      </c>
+      <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
@@ -4899,16 +4976,17 @@
     </row>
     <row r="30" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B30" s="9"/>
-      <c r="C30" s="10">
-        <v>-3584.26</v>
-      </c>
+      <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="G30" s="10">
+        <f>-45200</f>
+        <v>-45200</v>
+      </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -4924,8 +5002,11 @@
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
+      <c r="W30" s="10">
+        <f>-(143000+37000)</f>
+        <v>-180000</v>
+      </c>
+      <c r="X30" s="17"/>
       <c r="Y30" s="10"/>
       <c r="Z30" s="10"/>
       <c r="AA30" s="10"/>
@@ -4978,15 +5059,20 @@
     </row>
     <row r="31" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10">
+        <v>-3584.26</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
-      <c r="K31" s="10">
-        <v>-1900</v>
-      </c>
+      <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
@@ -4994,17 +5080,13 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
-      <c r="S31" s="10">
-        <v>-1900</v>
-      </c>
+      <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
       <c r="X31" s="10"/>
-      <c r="Y31" s="10">
-        <v>-2100</v>
-      </c>
+      <c r="Y31" s="10"/>
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
@@ -5056,21 +5138,15 @@
     </row>
     <row r="32" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="10">
-        <f>-262.55</f>
-        <v>-262.55</v>
-      </c>
-      <c r="F32" s="10"/>
+        <v>31</v>
+      </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="K32" s="10">
+        <v>-1900</v>
+      </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
@@ -5078,13 +5154,17 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
+      <c r="S32" s="10">
+        <v>-1900</v>
+      </c>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
       <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
+      <c r="Y32" s="10">
+        <v>-2100</v>
+      </c>
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
@@ -5135,11 +5215,16 @@
       <c r="BU32" s="10"/>
     </row>
     <row r="33" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
+      <c r="A33" s="25" t="s">
+        <v>17</v>
+      </c>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="10">
+        <f>-262.55</f>
+        <v>-262.55</v>
+      </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -5157,11 +5242,11 @@
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
-      <c r="W33" s="17"/>
+      <c r="W33" s="10"/>
       <c r="X33" s="10"/>
-      <c r="Y33" s="17"/>
+      <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
-      <c r="AA33" s="17"/>
+      <c r="AA33" s="10"/>
       <c r="AB33" s="10"/>
       <c r="AC33" s="10"/>
       <c r="AD33" s="10"/>
@@ -5209,483 +5294,352 @@
       <c r="BT33" s="10"/>
       <c r="BU33" s="10"/>
     </row>
-    <row r="34" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+    <row r="34" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="2"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="10"/>
-      <c r="J34" s="2"/>
+      <c r="J34" s="10"/>
       <c r="K34" s="10"/>
-      <c r="L34" s="2"/>
+      <c r="L34" s="10"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="2"/>
+      <c r="N34" s="10"/>
       <c r="O34" s="10"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="2"/>
-      <c r="AK34" s="2"/>
-      <c r="AL34" s="2"/>
-      <c r="AM34" s="2"/>
-      <c r="AN34" s="2"/>
-      <c r="AO34" s="2"/>
-      <c r="AP34" s="2"/>
-      <c r="AQ34" s="2"/>
-      <c r="AR34" s="2"/>
-      <c r="AS34" s="2"/>
-      <c r="AT34" s="2"/>
-      <c r="AU34" s="2"/>
-      <c r="AV34" s="2"/>
-      <c r="AW34" s="2"/>
-      <c r="AX34" s="2"/>
-      <c r="AY34" s="2"/>
-      <c r="AZ34" s="2"/>
-      <c r="BA34" s="2"/>
-      <c r="BB34" s="2"/>
-      <c r="BC34" s="2"/>
-      <c r="BD34" s="2"/>
-      <c r="BE34" s="2"/>
-      <c r="BF34" s="2"/>
-      <c r="BG34" s="2"/>
-      <c r="BH34" s="2"/>
-      <c r="BI34" s="2"/>
-      <c r="BJ34" s="2"/>
-      <c r="BK34" s="2"/>
-      <c r="BL34" s="2"/>
-      <c r="BM34" s="2"/>
-      <c r="BN34" s="2"/>
-      <c r="BO34" s="2"/>
-      <c r="BP34" s="2"/>
-      <c r="BQ34" s="2"/>
-      <c r="BR34" s="2"/>
-      <c r="BS34" s="2"/>
-      <c r="BT34" s="2"/>
-      <c r="BU34" s="2"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="10"/>
+      <c r="AQ34" s="10"/>
+      <c r="AR34" s="10"/>
+      <c r="AS34" s="10"/>
+      <c r="AT34" s="10"/>
+      <c r="AU34" s="10"/>
+      <c r="AV34" s="10"/>
+      <c r="AW34" s="10"/>
+      <c r="AX34" s="10"/>
+      <c r="AY34" s="10"/>
+      <c r="AZ34" s="10"/>
+      <c r="BA34" s="10"/>
+      <c r="BB34" s="10"/>
+      <c r="BC34" s="10"/>
+      <c r="BD34" s="10"/>
+      <c r="BE34" s="10"/>
+      <c r="BF34" s="10"/>
+      <c r="BG34" s="10"/>
+      <c r="BH34" s="10"/>
+      <c r="BI34" s="10"/>
+      <c r="BJ34" s="10"/>
+      <c r="BK34" s="10"/>
+      <c r="BL34" s="10"/>
+      <c r="BM34" s="10"/>
+      <c r="BN34" s="10"/>
+      <c r="BO34" s="10"/>
+      <c r="BP34" s="10"/>
+      <c r="BQ34" s="10"/>
+      <c r="BR34" s="10"/>
+      <c r="BS34" s="10"/>
+      <c r="BT34" s="10"/>
+      <c r="BU34" s="10"/>
     </row>
     <row r="35" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="4"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2">
-        <v>-65653.507640750671</v>
-      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2">
-        <v>-65876.818891229414</v>
-      </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="2">
-        <v>-65876.818891229414</v>
-      </c>
+      <c r="H35" s="2"/>
       <c r="I35" s="10"/>
-      <c r="J35" s="2">
-        <v>-66065.944566201084</v>
-      </c>
+      <c r="J35" s="2"/>
       <c r="K35" s="10"/>
-      <c r="L35" s="2">
-        <v>-66255.613201830784</v>
-      </c>
+      <c r="L35" s="2"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="2">
-        <v>-61190.224272176725</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="2">
-        <v>-1225.9044755676</v>
-      </c>
+      <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="2">
-        <v>-1229.4239231562174</v>
-      </c>
+      <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="2">
-        <v>-1232.9534747224088</v>
-      </c>
+      <c r="T35" s="2"/>
       <c r="U35" s="2"/>
-      <c r="V35" s="2">
-        <v>-1236.4931592736705</v>
-      </c>
+      <c r="V35" s="2"/>
       <c r="W35" s="2"/>
-      <c r="X35" s="2">
-        <v>-1240.0430059007761</v>
-      </c>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2">
-        <v>-1167.3702230391473</v>
-      </c>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2">
-        <v>-1170.7216247171586</v>
-      </c>
-      <c r="AC35" s="2">
-        <v>-1174.0826479299544</v>
-      </c>
-      <c r="AD35" s="2">
-        <v>-1177.4533202999867</v>
-      </c>
-      <c r="AE35" s="2">
-        <v>-1180.8336695290086</v>
-      </c>
-      <c r="AF35" s="2">
-        <v>-1184.2237233983019</v>
-      </c>
-      <c r="AG35" s="2">
-        <v>-1187.6235097689064</v>
-      </c>
-      <c r="AH35" s="2">
-        <v>-1191.0330565818472</v>
-      </c>
-      <c r="AI35" s="2">
-        <v>-1194.4523918583661</v>
-      </c>
-      <c r="AJ35" s="2">
-        <v>-1197.8815437001504</v>
-      </c>
-      <c r="AK35" s="2">
-        <v>-1201.3205402895646</v>
-      </c>
-      <c r="AL35" s="2">
-        <v>-1161.7419309652439</v>
-      </c>
-      <c r="AM35" s="2">
-        <v>-1165.0771743867494</v>
-      </c>
-      <c r="AN35" s="2">
-        <v>-1168.4219929543217</v>
-      </c>
-      <c r="AO35" s="2">
-        <v>-1171.7764141572352</v>
-      </c>
-      <c r="AP35" s="2">
-        <v>-1175.1404655636834</v>
-      </c>
-      <c r="AQ35" s="2">
-        <v>-1178.5141748210051</v>
-      </c>
-      <c r="AR35" s="2">
-        <v>-1181.8975696559123</v>
-      </c>
-      <c r="AS35" s="2">
-        <v>-1185.2906778747174</v>
-      </c>
-      <c r="AT35" s="2">
-        <v>-1188.6935273635615</v>
-      </c>
-      <c r="AU35" s="2">
-        <v>-1192.1061460886442</v>
-      </c>
-      <c r="AV35" s="2">
-        <v>-1195.5285620964537</v>
-      </c>
-      <c r="AW35" s="2">
-        <v>-1198.9608035139959</v>
-      </c>
-      <c r="AX35" s="2">
-        <v>-1157.8694578620261</v>
-      </c>
-      <c r="AY35" s="2">
-        <v>-1161.1935838054603</v>
-      </c>
-      <c r="AZ35" s="2">
-        <v>-1164.5272529778074</v>
-      </c>
-      <c r="BA35" s="2">
-        <v>-1167.8704927767112</v>
-      </c>
-      <c r="BB35" s="2">
-        <v>-1171.2233306784713</v>
-      </c>
-      <c r="BC35" s="2">
-        <v>-1174.5857942382688</v>
-      </c>
-      <c r="BD35" s="2">
-        <v>-1177.9579110903931</v>
-      </c>
-      <c r="BE35" s="2">
-        <v>-1181.3397089484688</v>
-      </c>
-      <c r="BF35" s="2">
-        <v>-1184.7312156056832</v>
-      </c>
-      <c r="BG35" s="2">
-        <v>-1188.1324589350158</v>
-      </c>
-      <c r="BH35" s="2">
-        <v>-1191.5434668894657</v>
-      </c>
-      <c r="BI35" s="2">
-        <v>-1194.9642675022828</v>
-      </c>
-      <c r="BJ35" s="2">
-        <v>-1152.3027777761515</v>
-      </c>
-      <c r="BK35" s="2">
-        <v>-1155.6109223448575</v>
-      </c>
-      <c r="BL35" s="2">
-        <v>-1158.9285642615682</v>
-      </c>
-      <c r="BM35" s="2">
-        <v>-1162.2557307922082</v>
-      </c>
-      <c r="BN35" s="2">
-        <v>-1165.5924492809788</v>
-      </c>
-      <c r="BO35" s="2">
-        <v>-1168.9387471505852</v>
-      </c>
-      <c r="BP35" s="2">
-        <v>-1172.2946519024588</v>
-      </c>
-      <c r="BQ35" s="2">
-        <v>-1175.660191116986</v>
-      </c>
-      <c r="BR35" s="2">
-        <v>-1179.0353924537333</v>
-      </c>
-      <c r="BS35" s="2">
-        <v>-1182.4202836516747</v>
-      </c>
-      <c r="BT35" s="2">
-        <v>-1185.8148925294206</v>
-      </c>
-      <c r="BU35" s="2">
-        <v>-1189.2192469854454</v>
-      </c>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="2"/>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="2"/>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="2"/>
+      <c r="BD35" s="2"/>
+      <c r="BE35" s="2"/>
+      <c r="BF35" s="2"/>
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="2"/>
+      <c r="BI35" s="2"/>
+      <c r="BJ35" s="2"/>
+      <c r="BK35" s="2"/>
+      <c r="BL35" s="2"/>
+      <c r="BM35" s="2"/>
+      <c r="BN35" s="2"/>
+      <c r="BO35" s="2"/>
+      <c r="BP35" s="2"/>
+      <c r="BQ35" s="2"/>
+      <c r="BR35" s="2"/>
+      <c r="BS35" s="2"/>
+      <c r="BT35" s="2"/>
+      <c r="BU35" s="2"/>
     </row>
     <row r="36" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
-        <v>0</v>
+        <v>-65653.507640750671</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="10">
-        <v>0</v>
-      </c>
+        <v>-65876.818891229414</v>
+      </c>
+      <c r="G36" s="10"/>
       <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="10">
-        <v>0</v>
-      </c>
+        <v>-65876.818891229414</v>
+      </c>
+      <c r="I36" s="10"/>
       <c r="J36" s="2">
-        <v>0</v>
-      </c>
-      <c r="K36" s="10">
-        <v>0</v>
-      </c>
+        <v>-66065.944566201084</v>
+      </c>
+      <c r="K36" s="10"/>
       <c r="L36" s="2">
-        <v>0</v>
-      </c>
-      <c r="M36" s="10">
-        <v>0</v>
-      </c>
+        <v>-66255.613201830784</v>
+      </c>
+      <c r="M36" s="10"/>
       <c r="N36" s="2">
-        <v>0</v>
-      </c>
-      <c r="O36" s="10">
-        <v>0</v>
-      </c>
+        <v>-61190.224272176725</v>
+      </c>
+      <c r="O36" s="10"/>
       <c r="P36" s="2">
-        <v>-19775.472925111575</v>
+        <v>-1225.9044755676</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2">
-        <v>-19832.246305001412</v>
+        <v>-1229.4239231562174</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="2">
-        <v>-19889.182675514854</v>
+        <v>-1232.9534747224088</v>
       </c>
       <c r="U36" s="2"/>
       <c r="V36" s="2">
-        <v>-19946.282504581472</v>
-      </c>
-      <c r="W36" s="2">
-        <f>-(150000+67360)</f>
-        <v>-217360</v>
-      </c>
+        <v>-1236.4931592736705</v>
+      </c>
+      <c r="W36" s="2"/>
       <c r="X36" s="2">
-        <v>-20003.54626147421</v>
+        <v>-1240.0430059007761</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2">
-        <v>-20176.32581207046</v>
+        <v>-1167.3702230391473</v>
       </c>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2">
-        <v>-20234.250000000007</v>
+        <v>-1170.7216247171586</v>
       </c>
       <c r="AC36" s="2">
-        <v>-20292.340482406486</v>
+        <v>-1174.0826479299544</v>
       </c>
       <c r="AD36" s="2">
-        <v>-20350.597736704491</v>
+        <v>-1177.4533202999867</v>
       </c>
       <c r="AE36" s="2">
-        <v>-20409.022241679242</v>
+        <v>-1180.8336695290086</v>
       </c>
       <c r="AF36" s="2">
-        <v>-20467.614477490486</v>
+        <v>-1184.2237233983019</v>
       </c>
       <c r="AG36" s="2">
-        <v>-20526.374925676471</v>
+        <v>-1187.6235097689064</v>
       </c>
       <c r="AH36" s="2">
-        <v>-20585.304069157879</v>
+        <v>-1191.0330565818472</v>
       </c>
       <c r="AI36" s="2">
-        <v>-20644.402392241831</v>
+        <v>-1194.4523918583661</v>
       </c>
       <c r="AJ36" s="2">
-        <v>-20703.670380625819</v>
+        <v>-1197.8815437001504</v>
       </c>
       <c r="AK36" s="2">
-        <v>-20763.108521401744</v>
+        <v>-1201.3205402895646</v>
       </c>
       <c r="AL36" s="2">
-        <v>-20822.71730305989</v>
+        <v>-1161.7419309652439</v>
       </c>
       <c r="AM36" s="2">
-        <v>-20882.497215492938</v>
+        <v>-1165.0771743867494</v>
       </c>
       <c r="AN36" s="2">
-        <v>-20942.448750000014</v>
+        <v>-1168.4219929543217</v>
       </c>
       <c r="AO36" s="2">
-        <v>-21002.572399290715</v>
+        <v>-1171.7764141572352</v>
       </c>
       <c r="AP36" s="2">
-        <v>-21062.868657489151</v>
+        <v>-1175.1404655636834</v>
       </c>
       <c r="AQ36" s="2">
-        <v>-21123.338020138017</v>
+        <v>-1178.5141748210051</v>
       </c>
       <c r="AR36" s="2">
-        <v>-21183.980984202652</v>
+        <v>-1181.8975696559123</v>
       </c>
       <c r="AS36" s="2">
-        <v>-21244.798048075147</v>
+        <v>-1185.2906778747174</v>
       </c>
       <c r="AT36" s="2">
-        <v>-21305.789711578407</v>
+        <v>-1188.6935273635615</v>
       </c>
       <c r="AU36" s="2">
-        <v>-21366.956475970295</v>
+        <v>-1192.1061460886442</v>
       </c>
       <c r="AV36" s="2">
-        <v>-21428.298843947723</v>
+        <v>-1195.5285620964537</v>
       </c>
       <c r="AW36" s="2">
-        <v>-21489.817319650803</v>
+        <v>-1198.9608035139959</v>
       </c>
       <c r="AX36" s="2">
-        <v>-21551.512408666978</v>
+        <v>-1157.8694578620261</v>
       </c>
       <c r="AY36" s="2">
-        <v>-21613.384618035187</v>
+        <v>-1161.1935838054603</v>
       </c>
       <c r="AZ36" s="2">
-        <v>-21675.434456250016</v>
+        <v>-1164.5272529778074</v>
       </c>
       <c r="BA36" s="2">
-        <v>-21737.662433265894</v>
+        <v>-1167.8704927767112</v>
       </c>
       <c r="BB36" s="2">
-        <v>-21800.069060501279</v>
+        <v>-1171.2233306784713</v>
       </c>
       <c r="BC36" s="2">
-        <v>-21862.654850842853</v>
+        <v>-1174.5857942382688</v>
       </c>
       <c r="BD36" s="2">
-        <v>-21925.420318649754</v>
+        <v>-1177.9579110903931</v>
       </c>
       <c r="BE36" s="2">
-        <v>-21988.365979757782</v>
+        <v>-1181.3397089484688</v>
       </c>
       <c r="BF36" s="2">
-        <v>-22051.492351483659</v>
+        <v>-1184.7312156056832</v>
       </c>
       <c r="BG36" s="2">
-        <v>-22114.799952629262</v>
+        <v>-1188.1324589350158</v>
       </c>
       <c r="BH36" s="2">
-        <v>-22178.289303485901</v>
+        <v>-1191.5434668894657</v>
       </c>
       <c r="BI36" s="2">
-        <v>-22241.96092583859</v>
+        <v>-1194.9642675022828</v>
       </c>
       <c r="BJ36" s="2">
-        <v>-22305.815342970334</v>
+        <v>-1152.3027777761515</v>
       </c>
       <c r="BK36" s="2">
-        <v>-22369.853079666427</v>
+        <v>-1155.6109223448575</v>
       </c>
       <c r="BL36" s="2">
-        <v>-22434.074662218773</v>
+        <v>-1158.9285642615682</v>
       </c>
       <c r="BM36" s="2">
-        <v>-22498.480618430207</v>
+        <v>-1162.2557307922082</v>
       </c>
       <c r="BN36" s="2">
-        <v>-22563.071477618829</v>
+        <v>-1165.5924492809788</v>
       </c>
       <c r="BO36" s="2">
-        <v>-22627.84777062236</v>
+        <v>-1168.9387471505852</v>
       </c>
       <c r="BP36" s="2">
-        <v>-22692.810029802502</v>
+        <v>-1172.2946519024588</v>
       </c>
       <c r="BQ36" s="2">
-        <v>-22757.958789049313</v>
+        <v>-1175.660191116986</v>
       </c>
       <c r="BR36" s="2">
-        <v>-22823.294583785595</v>
+        <v>-1179.0353924537333</v>
       </c>
       <c r="BS36" s="2">
-        <v>-22888.817950971294</v>
+        <v>-1182.4202836516747</v>
       </c>
       <c r="BT36" s="2">
-        <v>-22954.529429107915</v>
+        <v>-1185.8148925294206</v>
       </c>
       <c r="BU36" s="2">
-        <v>-23020.429558242948</v>
+        <v>-1189.2192469854454</v>
       </c>
     </row>
     <row r="37" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="2"/>
@@ -5724,637 +5678,756 @@
         <v>0</v>
       </c>
       <c r="P37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>0</v>
-      </c>
+        <v>-19775.472925111575</v>
+      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" s="2">
-        <v>0</v>
-      </c>
-      <c r="S37" s="2">
-        <v>0</v>
-      </c>
+        <v>-19832.246305001412</v>
+      </c>
+      <c r="S37" s="2"/>
       <c r="T37" s="2">
-        <v>0</v>
-      </c>
-      <c r="U37" s="2">
-        <v>0</v>
-      </c>
+        <v>-19889.182675514854</v>
+      </c>
+      <c r="U37" s="2"/>
       <c r="V37" s="2">
-        <v>0</v>
+        <v>-19946.282504581472</v>
       </c>
       <c r="W37" s="2">
-        <v>0</v>
+        <f>-(150000+67360)</f>
+        <v>-217360</v>
       </c>
       <c r="X37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="2">
-        <v>0</v>
-      </c>
+        <v>-20003.54626147421</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="2">
-        <v>0</v>
-      </c>
+        <v>-20176.32581207046</v>
+      </c>
+      <c r="AA37" s="2"/>
       <c r="AB37" s="2">
-        <v>0</v>
+        <v>-20234.250000000007</v>
       </c>
       <c r="AC37" s="2">
-        <v>0</v>
+        <v>-20292.340482406486</v>
       </c>
       <c r="AD37" s="2">
-        <v>0</v>
+        <v>-20350.597736704491</v>
       </c>
       <c r="AE37" s="2">
-        <v>0</v>
+        <v>-20409.022241679242</v>
       </c>
       <c r="AF37" s="2">
-        <v>0</v>
+        <v>-20467.614477490486</v>
       </c>
       <c r="AG37" s="2">
-        <v>0</v>
+        <v>-20526.374925676471</v>
       </c>
       <c r="AH37" s="2">
-        <v>0</v>
+        <v>-20585.304069157879</v>
       </c>
       <c r="AI37" s="2">
-        <v>0</v>
+        <v>-20644.402392241831</v>
       </c>
       <c r="AJ37" s="2">
-        <v>0</v>
+        <v>-20703.670380625819</v>
       </c>
       <c r="AK37" s="2">
-        <v>-42482.063470898713</v>
+        <v>-20763.108521401744</v>
       </c>
       <c r="AL37" s="2">
-        <v>0</v>
+        <v>-20822.71730305989</v>
       </c>
       <c r="AM37" s="2">
-        <v>0</v>
+        <v>-20882.497215492938</v>
       </c>
       <c r="AN37" s="2">
-        <v>0</v>
+        <v>-20942.448750000014</v>
       </c>
       <c r="AO37" s="2">
-        <v>0</v>
+        <v>-21002.572399290715</v>
       </c>
       <c r="AP37" s="2">
-        <v>0</v>
+        <v>-21062.868657489151</v>
       </c>
       <c r="AQ37" s="2">
-        <v>0</v>
+        <v>-21123.338020138017</v>
       </c>
       <c r="AR37" s="2">
-        <v>0</v>
+        <v>-21183.980984202652</v>
       </c>
       <c r="AS37" s="2">
-        <v>0</v>
+        <v>-21244.798048075147</v>
       </c>
       <c r="AT37" s="2">
-        <v>0</v>
+        <v>-21305.789711578407</v>
       </c>
       <c r="AU37" s="2">
-        <v>0</v>
+        <v>-21366.956475970295</v>
       </c>
       <c r="AV37" s="2">
-        <v>0</v>
+        <v>-21428.298843947723</v>
       </c>
       <c r="AW37" s="2">
-        <v>-43968.935692380161</v>
+        <v>-21489.817319650803</v>
       </c>
       <c r="AX37" s="2">
-        <v>0</v>
+        <v>-21551.512408666978</v>
       </c>
       <c r="AY37" s="2">
-        <v>0</v>
+        <v>-21613.384618035187</v>
       </c>
       <c r="AZ37" s="2">
-        <v>0</v>
+        <v>-21675.434456250016</v>
       </c>
       <c r="BA37" s="2">
-        <v>0</v>
+        <v>-21737.662433265894</v>
       </c>
       <c r="BB37" s="2">
-        <v>0</v>
+        <v>-21800.069060501279</v>
       </c>
       <c r="BC37" s="2">
-        <v>0</v>
+        <v>-21862.654850842853</v>
       </c>
       <c r="BD37" s="2">
-        <v>0</v>
+        <v>-21925.420318649754</v>
       </c>
       <c r="BE37" s="2">
-        <v>0</v>
+        <v>-21988.365979757782</v>
       </c>
       <c r="BF37" s="2">
-        <v>0</v>
+        <v>-22051.492351483659</v>
       </c>
       <c r="BG37" s="2">
-        <v>0</v>
+        <v>-22114.799952629262</v>
       </c>
       <c r="BH37" s="2">
-        <v>0</v>
+        <v>-22178.289303485901</v>
       </c>
       <c r="BI37" s="2">
-        <v>-45507.848441613482</v>
+        <v>-22241.96092583859</v>
       </c>
       <c r="BJ37" s="2">
-        <v>0</v>
+        <v>-22305.815342970334</v>
       </c>
       <c r="BK37" s="2">
-        <v>0</v>
+        <v>-22369.853079666427</v>
       </c>
       <c r="BL37" s="2">
-        <v>0</v>
+        <v>-22434.074662218773</v>
       </c>
       <c r="BM37" s="2">
-        <v>0</v>
+        <v>-22498.480618430207</v>
       </c>
       <c r="BN37" s="2">
-        <v>0</v>
+        <v>-22563.071477618829</v>
       </c>
       <c r="BO37" s="2">
-        <v>0</v>
+        <v>-22627.84777062236</v>
       </c>
       <c r="BP37" s="2">
-        <v>0</v>
+        <v>-22692.810029802502</v>
       </c>
       <c r="BQ37" s="2">
-        <v>0</v>
+        <v>-22757.958789049313</v>
       </c>
       <c r="BR37" s="2">
-        <v>0</v>
+        <v>-22823.294583785595</v>
       </c>
       <c r="BS37" s="2">
-        <v>0</v>
+        <v>-22888.817950971294</v>
       </c>
       <c r="BT37" s="2">
-        <v>0</v>
+        <v>-22954.529429107915</v>
       </c>
       <c r="BU37" s="2">
-        <v>-47100.623137069968</v>
+        <v>-23020.429558242948</v>
       </c>
     </row>
     <row r="38" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="4"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="2"/>
-      <c r="AI38" s="2"/>
-      <c r="AJ38" s="2"/>
-      <c r="AK38" s="2"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38" s="2"/>
-      <c r="AN38" s="2"/>
-      <c r="AO38" s="2"/>
-      <c r="AP38" s="2"/>
-      <c r="AQ38" s="2"/>
-      <c r="AR38" s="2"/>
-      <c r="AS38" s="2"/>
-      <c r="AT38" s="2"/>
-      <c r="AU38" s="2"/>
-      <c r="AV38" s="2"/>
-      <c r="AW38" s="2"/>
-      <c r="AX38" s="2"/>
-      <c r="AY38" s="2"/>
-      <c r="AZ38" s="2"/>
-      <c r="BA38" s="2"/>
-      <c r="BB38" s="2"/>
-      <c r="BC38" s="2"/>
-      <c r="BD38" s="2"/>
-      <c r="BE38" s="2"/>
-      <c r="BF38" s="2"/>
-      <c r="BG38" s="2"/>
-      <c r="BH38" s="2"/>
-      <c r="BI38" s="2"/>
-      <c r="BJ38" s="2"/>
-      <c r="BK38" s="2"/>
-      <c r="BL38" s="2"/>
-      <c r="BM38" s="2"/>
-      <c r="BN38" s="2"/>
-      <c r="BO38" s="2"/>
-      <c r="BP38" s="2"/>
-      <c r="BQ38" s="2"/>
-      <c r="BR38" s="2"/>
-      <c r="BS38" s="2"/>
-      <c r="BT38" s="2"/>
-      <c r="BU38" s="2"/>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="10">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="10">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0</v>
+      </c>
+      <c r="R38" s="2">
+        <v>0</v>
+      </c>
+      <c r="S38" s="2">
+        <v>0</v>
+      </c>
+      <c r="T38" s="2">
+        <v>0</v>
+      </c>
+      <c r="U38" s="2">
+        <v>0</v>
+      </c>
+      <c r="V38" s="2">
+        <v>0</v>
+      </c>
+      <c r="W38" s="2">
+        <v>0</v>
+      </c>
+      <c r="X38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="2">
+        <v>-42482.063470898713</v>
+      </c>
+      <c r="AL38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="2">
+        <v>-43968.935692380161</v>
+      </c>
+      <c r="AX38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI38" s="2">
+        <v>-45507.848441613482</v>
+      </c>
+      <c r="BJ38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU38" s="2">
+        <v>-47100.623137069968</v>
+      </c>
     </row>
     <row r="39" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="7">
-        <f t="shared" ref="B39" si="22">C39+E39+G39+I39+K39+M39+O39+Q39+S39+U39+W39+Y39</f>
-        <v>-1411922.6900000002</v>
-      </c>
-      <c r="C39" s="2">
-        <f>SUM(C40:C45)</f>
-        <v>-48405.389999999992</v>
-      </c>
+      <c r="A39" s="28"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2">
-        <f>SUM(E40:E45)</f>
-        <v>-52591.649999999994</v>
-      </c>
-      <c r="F39" s="2">
-        <v>-290653.07379490609</v>
-      </c>
-      <c r="G39" s="10">
-        <f>SUM(G40:G45)</f>
-        <v>-125323</v>
-      </c>
-      <c r="H39" s="2">
-        <v>-291641.68969216774</v>
-      </c>
-      <c r="I39" s="10">
-        <f>SUM(I40:I45)</f>
-        <v>-121141.37000000001</v>
-      </c>
-      <c r="J39" s="2">
-        <v>-291641.68969216774</v>
-      </c>
-      <c r="K39" s="10">
-        <f>SUM(K40:K45)</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="2">
-        <v>-291641.68969216774</v>
-      </c>
-      <c r="M39" s="10">
-        <f>SUM(M40:M45)</f>
-        <v>-152130.95000000001</v>
-      </c>
-      <c r="N39" s="2">
-        <v>-291641.68969216774</v>
-      </c>
-      <c r="O39" s="10">
-        <f>SUM(O40:O45)</f>
-        <v>-319987.78999999998</v>
-      </c>
-      <c r="P39" s="2">
-        <v>-268573.98542273074</v>
-      </c>
-      <c r="Q39" s="10">
-        <f>SUM(Q40:Q45)</f>
-        <v>-180529.02</v>
-      </c>
-      <c r="R39" s="2">
-        <v>0</v>
-      </c>
-      <c r="S39" s="10">
-        <f>SUM(S40:S45)</f>
-        <v>-3436.5</v>
-      </c>
-      <c r="T39" s="2">
-        <v>0</v>
-      </c>
-      <c r="U39" s="10">
-        <f>SUM(U40:U45)</f>
-        <v>-132635.07999999999</v>
-      </c>
-      <c r="V39" s="2">
-        <v>0</v>
-      </c>
-      <c r="W39" s="10">
-        <f>SUM(W40:W45)</f>
-        <v>-132108.59</v>
-      </c>
-      <c r="X39" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="10">
-        <f>SUM(Y40:Y45)</f>
-        <v>-143633.35</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="10">
-        <f>SUM(AA40:AA45)</f>
-        <v>-193579.59</v>
-      </c>
-      <c r="AB39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BS39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU39" s="2">
-        <v>0</v>
-      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="2"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="2"/>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="2"/>
+      <c r="AV39" s="2"/>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
+      <c r="AZ39" s="2"/>
+      <c r="BA39" s="2"/>
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="2"/>
+      <c r="BD39" s="2"/>
+      <c r="BE39" s="2"/>
+      <c r="BF39" s="2"/>
+      <c r="BG39" s="2"/>
+      <c r="BH39" s="2"/>
+      <c r="BI39" s="2"/>
+      <c r="BJ39" s="2"/>
+      <c r="BK39" s="2"/>
+      <c r="BL39" s="2"/>
+      <c r="BM39" s="2"/>
+      <c r="BN39" s="2"/>
+      <c r="BO39" s="2"/>
+      <c r="BP39" s="2"/>
+      <c r="BQ39" s="2"/>
+      <c r="BR39" s="2"/>
+      <c r="BS39" s="2"/>
+      <c r="BT39" s="2"/>
+      <c r="BU39" s="2"/>
     </row>
     <row r="40" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10">
-        <f>-(5745.31+35690.7)</f>
-        <v>-41436.009999999995</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10">
-        <f>-(5745.31+35690.7)</f>
-        <v>-41436.009999999995</v>
-      </c>
-      <c r="F40" s="10"/>
+      <c r="A40" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="7">
+        <f t="shared" ref="B40" si="22">C40+E40+G40+I40+K40+M40+O40+Q40+S40+U40+W40+Y40</f>
+        <v>-1411922.6900000002</v>
+      </c>
+      <c r="C40" s="2">
+        <f>SUM(C41:C46)</f>
+        <v>-48405.389999999992</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
+        <f>SUM(E41:E46)</f>
+        <v>-52591.649999999994</v>
+      </c>
+      <c r="F40" s="2">
+        <v>-290653.07379490609</v>
+      </c>
       <c r="G40" s="10">
-        <f>-(104346.46+16794.92)</f>
-        <v>-121141.38</v>
-      </c>
-      <c r="H40" s="10"/>
+        <f>SUM(G41:G46)</f>
+        <v>-125323</v>
+      </c>
+      <c r="H40" s="2">
+        <v>-291641.68969216774</v>
+      </c>
       <c r="I40" s="10">
-        <f>-(104346.46+16794.91)</f>
+        <f>SUM(I41:I46)</f>
         <v>-121141.37000000001</v>
       </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="2"/>
+      <c r="J40" s="2">
+        <v>-291641.68969216774</v>
+      </c>
+      <c r="K40" s="10">
+        <f>SUM(K41:K46)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>-291641.68969216774</v>
+      </c>
       <c r="M40" s="10">
-        <f>-(116631.88+18772.57)</f>
-        <v>-135404.45000000001</v>
-      </c>
-      <c r="N40" s="2"/>
+        <f>SUM(M41:M46)</f>
+        <v>-152130.95000000001</v>
+      </c>
+      <c r="N40" s="2">
+        <v>-291641.68969216774</v>
+      </c>
       <c r="O40" s="10">
-        <f>-(24467.06+152007.6+18772.56+116631.87)</f>
-        <v>-311879.08999999997</v>
-      </c>
-      <c r="P40" s="2"/>
+        <f>SUM(O41:O46)</f>
+        <v>-319987.78999999998</v>
+      </c>
+      <c r="P40" s="2">
+        <v>-268573.98542273074</v>
+      </c>
       <c r="Q40" s="10">
-        <f>-(152007.6+24467.06)</f>
-        <v>-176474.66</v>
-      </c>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="16"/>
+        <f>SUM(Q41:Q46)</f>
+        <v>-180529.02</v>
+      </c>
+      <c r="R40" s="2">
+        <v>0</v>
+      </c>
+      <c r="S40" s="10">
+        <f>SUM(S41:S46)</f>
+        <v>-3436.5</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0</v>
+      </c>
       <c r="U40" s="10">
-        <f>-110449.55-17777.79</f>
-        <v>-128227.34</v>
-      </c>
-      <c r="V40" s="2"/>
+        <f>SUM(U41:U46)</f>
+        <v>-132635.07999999999</v>
+      </c>
+      <c r="V40" s="2">
+        <v>0</v>
+      </c>
       <c r="W40" s="10">
-        <f>-(17777.79+110449.55)</f>
-        <v>-128227.34</v>
-      </c>
-      <c r="X40" s="2"/>
+        <f>SUM(W41:W46)</f>
+        <v>-132108.59</v>
+      </c>
+      <c r="X40" s="2">
+        <v>0</v>
+      </c>
       <c r="Y40" s="10">
-        <f>-(110449.55+17777.79)</f>
-        <v>-128227.34</v>
-      </c>
-      <c r="Z40" s="2"/>
+        <f>SUM(Y41:Y46)</f>
+        <v>-143633.35</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>0</v>
+      </c>
       <c r="AA40" s="10">
-        <f>-(17777.79+110449.55+49781.78+8012.68)</f>
-        <v>-186021.8</v>
-      </c>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="2"/>
-      <c r="AH40" s="2"/>
-      <c r="AI40" s="2"/>
-      <c r="AJ40" s="2"/>
-      <c r="AK40" s="2"/>
-      <c r="AL40" s="2"/>
-      <c r="AM40" s="2"/>
-      <c r="AN40" s="2"/>
-      <c r="AO40" s="2"/>
-      <c r="AP40" s="2"/>
-      <c r="AQ40" s="2"/>
-      <c r="AR40" s="2"/>
-      <c r="AS40" s="2"/>
-      <c r="AT40" s="2"/>
-      <c r="AU40" s="2"/>
-      <c r="AV40" s="2"/>
-      <c r="AW40" s="2"/>
-      <c r="AX40" s="2"/>
-      <c r="AY40" s="2"/>
-      <c r="AZ40" s="2"/>
-      <c r="BA40" s="2"/>
-      <c r="BB40" s="2"/>
-      <c r="BC40" s="2"/>
-      <c r="BD40" s="2"/>
-      <c r="BE40" s="2"/>
-      <c r="BF40" s="2"/>
-      <c r="BG40" s="2"/>
-      <c r="BH40" s="2"/>
-      <c r="BI40" s="2"/>
-      <c r="BJ40" s="2"/>
-      <c r="BK40" s="2"/>
-      <c r="BL40" s="2"/>
-      <c r="BM40" s="2"/>
-      <c r="BN40" s="2"/>
-      <c r="BO40" s="2"/>
-      <c r="BP40" s="2"/>
-      <c r="BQ40" s="2"/>
-      <c r="BR40" s="2"/>
-      <c r="BS40" s="2"/>
-      <c r="BT40" s="2"/>
-      <c r="BU40" s="2"/>
+        <f>SUM(AA41:AA46)</f>
+        <v>-197460.84</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU40" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
+      <c r="C41" s="10">
+        <f>-(5745.31+35690.7)</f>
+        <v>-41436.009999999995</v>
+      </c>
       <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+      <c r="E41" s="10">
+        <f>-(5745.31+35690.7)</f>
+        <v>-41436.009999999995</v>
+      </c>
       <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="10"/>
+      <c r="G41" s="10">
+        <f>-(104346.46+16794.92)</f>
+        <v>-121141.38</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10">
+        <f>-(104346.46+16794.91)</f>
+        <v>-121141.37000000001</v>
+      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="10"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="10"/>
+      <c r="M41" s="10">
+        <f>-(116631.88+18772.57)</f>
+        <v>-135404.45000000001</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" s="10">
-        <f>-(4054.35+4054.35)</f>
-        <v>-8108.7</v>
+        <f>-(24467.06+152007.6+18772.56+116631.87)</f>
+        <v>-311879.08999999997</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="10">
-        <v>-4054.36</v>
+        <f>-(152007.6+24467.06)</f>
+        <v>-176474.66</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="10"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="10">
+        <f>-110449.55-17777.79</f>
+        <v>-128227.34</v>
+      </c>
       <c r="V41" s="2"/>
-      <c r="W41" s="10"/>
+      <c r="W41" s="10">
+        <f>-(17777.79+110449.55)</f>
+        <v>-128227.34</v>
+      </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="10">
-        <f>-(3967.07+3967.07)</f>
-        <v>-7934.14</v>
+        <f>-(110449.55+17777.79)</f>
+        <v>-128227.34</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="10">
-        <v>-3967.17</v>
+        <f>-(17777.79+110449.55+49781.78+8012.68)</f>
+        <v>-186021.8</v>
       </c>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
@@ -6405,13 +6478,13 @@
     </row>
     <row r="42" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="2"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="2"/>
       <c r="I42" s="10"/>
@@ -6420,19 +6493,29 @@
       <c r="L42" s="2"/>
       <c r="M42" s="10"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="10"/>
+      <c r="O42" s="10">
+        <f>-(4054.35+4054.35)</f>
+        <v>-8108.7</v>
+      </c>
       <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
+      <c r="Q42" s="10">
+        <v>-4054.36</v>
+      </c>
       <c r="R42" s="2"/>
-      <c r="S42" s="10"/>
+      <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="10"/>
       <c r="V42" s="2"/>
       <c r="W42" s="10"/>
       <c r="X42" s="2"/>
-      <c r="Y42" s="10"/>
+      <c r="Y42" s="10">
+        <f>-(3967.07+3967.07)</f>
+        <v>-7934.14</v>
+      </c>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="10"/>
+      <c r="AA42" s="10">
+        <v>-3967.17</v>
+      </c>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
@@ -6482,7 +6565,7 @@
     </row>
     <row r="43" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
@@ -6501,10 +6584,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="10">
-        <f>-(687.3*5)</f>
-        <v>-3436.5</v>
-      </c>
+      <c r="S43" s="10"/>
       <c r="T43" s="2"/>
       <c r="U43" s="10"/>
       <c r="V43" s="2"/>
@@ -6562,7 +6642,7 @@
     </row>
     <row r="44" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
@@ -6581,24 +6661,18 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="10"/>
+      <c r="S44" s="10">
+        <f>-(687.3*5)</f>
+        <v>-3436.5</v>
+      </c>
       <c r="T44" s="2"/>
-      <c r="U44" s="10">
-        <v>-4407.74</v>
-      </c>
+      <c r="U44" s="10"/>
       <c r="V44" s="2"/>
-      <c r="W44" s="10">
-        <v>-3881.25</v>
-      </c>
+      <c r="W44" s="10"/>
       <c r="X44" s="2"/>
-      <c r="Y44" s="10">
-        <f>-(3590.62+3881.25)</f>
-        <v>-7471.87</v>
-      </c>
+      <c r="Y44" s="10"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="10">
-        <v>-3590.62</v>
-      </c>
+      <c r="AA44" s="10"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
@@ -6648,30 +6722,20 @@
     </row>
     <row r="45" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="10">
-        <v>-6969.38</v>
-      </c>
+      <c r="C45" s="10"/>
       <c r="D45" s="10"/>
-      <c r="E45" s="10">
-        <f>-(4181.63+6974.01)</f>
-        <v>-11155.64</v>
-      </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10">
-        <v>-4181.62</v>
-      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="2"/>
       <c r="I45" s="10"/>
       <c r="J45" s="2"/>
       <c r="K45" s="10"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="10">
-        <f>-(8363.25+8363.25)</f>
-        <v>-16726.5</v>
-      </c>
+      <c r="M45" s="10"/>
       <c r="N45" s="2"/>
       <c r="O45" s="10"/>
       <c r="P45" s="2"/>
@@ -6679,13 +6743,23 @@
       <c r="R45" s="2"/>
       <c r="S45" s="10"/>
       <c r="T45" s="2"/>
-      <c r="U45" s="10"/>
+      <c r="U45" s="10">
+        <v>-4407.74</v>
+      </c>
       <c r="V45" s="2"/>
-      <c r="W45" s="10"/>
+      <c r="W45" s="10">
+        <v>-3881.25</v>
+      </c>
       <c r="X45" s="2"/>
-      <c r="Y45" s="10"/>
+      <c r="Y45" s="10">
+        <f>-(3590.62+3881.25)</f>
+        <v>-7471.87</v>
+      </c>
       <c r="Z45" s="2"/>
-      <c r="AA45" s="10"/>
+      <c r="AA45" s="10">
+        <f>-(3590.62+3881.25)</f>
+        <v>-7471.87</v>
+      </c>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
@@ -6734,33 +6808,45 @@
       <c r="BU45" s="2"/>
     </row>
     <row r="46" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="10"/>
+      <c r="A46" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10">
+        <v>-6969.38</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10">
+        <f>-(4181.63+6974.01)</f>
+        <v>-11155.64</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10">
+        <v>-4181.62</v>
+      </c>
       <c r="H46" s="2"/>
       <c r="I46" s="10"/>
       <c r="J46" s="2"/>
       <c r="K46" s="10"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="10"/>
+      <c r="M46" s="10">
+        <f>-(8363.25+8363.25)</f>
+        <v>-16726.5</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" s="10"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
+      <c r="S46" s="10"/>
       <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
+      <c r="U46" s="10"/>
       <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
+      <c r="W46" s="10"/>
       <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
+      <c r="Y46" s="10"/>
       <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
+      <c r="AA46" s="10"/>
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
@@ -6809,1190 +6895,1197 @@
       <c r="BU46" s="2"/>
     </row>
     <row r="47" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="28"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="2"/>
+      <c r="AL47" s="2"/>
+      <c r="AM47" s="2"/>
+      <c r="AN47" s="2"/>
+      <c r="AO47" s="2"/>
+      <c r="AP47" s="2"/>
+      <c r="AQ47" s="2"/>
+      <c r="AR47" s="2"/>
+      <c r="AS47" s="2"/>
+      <c r="AT47" s="2"/>
+      <c r="AU47" s="2"/>
+      <c r="AV47" s="2"/>
+      <c r="AW47" s="2"/>
+      <c r="AX47" s="2"/>
+      <c r="AY47" s="2"/>
+      <c r="AZ47" s="2"/>
+      <c r="BA47" s="2"/>
+      <c r="BB47" s="2"/>
+      <c r="BC47" s="2"/>
+      <c r="BD47" s="2"/>
+      <c r="BE47" s="2"/>
+      <c r="BF47" s="2"/>
+      <c r="BG47" s="2"/>
+      <c r="BH47" s="2"/>
+      <c r="BI47" s="2"/>
+      <c r="BJ47" s="2"/>
+      <c r="BK47" s="2"/>
+      <c r="BL47" s="2"/>
+      <c r="BM47" s="2"/>
+      <c r="BN47" s="2"/>
+      <c r="BO47" s="2"/>
+      <c r="BP47" s="2"/>
+      <c r="BQ47" s="2"/>
+      <c r="BR47" s="2"/>
+      <c r="BS47" s="2"/>
+      <c r="BT47" s="2"/>
+      <c r="BU47" s="2"/>
+    </row>
+    <row r="48" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="32">
-        <f t="shared" ref="B47" si="23">C47+E47+G47+I47+K47+M47+O47+Q47+S47+U47+W47+Y47</f>
+      <c r="B48" s="32">
+        <f t="shared" ref="B48" si="23">C48+E48+G48+I48+K48+M48+O48+Q48+S48+U48+W48+Y48</f>
         <v>-25162.53</v>
       </c>
-      <c r="C47" s="5">
-        <v>0</v>
-      </c>
-      <c r="D47" s="5">
-        <f>SUM(D48:D51)</f>
+      <c r="C48" s="5">
+        <v>0</v>
+      </c>
+      <c r="D48" s="5">
+        <f>SUM(D49:D52)</f>
         <v>-13432.593933481601</v>
       </c>
-      <c r="E47" s="5">
-        <v>0</v>
-      </c>
-      <c r="F47" s="5">
-        <f t="shared" ref="F47:BU47" si="24">SUM(F48:F51)</f>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" ref="F48:BU48" si="24">SUM(F49:F52)</f>
         <v>-13432.593933481601</v>
       </c>
-      <c r="G47" s="14">
-        <f t="shared" ref="G47" si="25">SUM(G48:G51)</f>
+      <c r="G48" s="14">
+        <f t="shared" ref="G48" si="25">SUM(G49:G52)</f>
         <v>-209.22</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H48" s="5">
         <f t="shared" si="24"/>
         <v>-13432.593933481601</v>
       </c>
-      <c r="I47" s="14">
-        <f t="shared" ref="I47:K47" si="26">SUM(I48:I51)</f>
+      <c r="I48" s="14">
+        <f t="shared" ref="I48:K48" si="26">SUM(I49:I52)</f>
         <v>-915.68000000000006</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J48" s="5">
         <f t="shared" si="24"/>
         <v>-13476.899347637262</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K48" s="14">
         <f t="shared" si="26"/>
         <v>-2214.36</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L48" s="5">
         <f t="shared" si="24"/>
         <v>-13521.331958149671</v>
       </c>
-      <c r="M47" s="14">
+      <c r="M48" s="14">
         <f t="shared" si="24"/>
         <v>-1460.26</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N48" s="5">
         <f t="shared" si="24"/>
         <v>-13565.892130186689</v>
       </c>
-      <c r="O47" s="14">
-        <f t="shared" ref="O47" si="27">SUM(O48:O51)</f>
+      <c r="O48" s="14">
+        <f t="shared" ref="O48" si="27">SUM(O49:O52)</f>
         <v>-1975.37</v>
       </c>
-      <c r="P47" s="5">
+      <c r="P48" s="5">
         <f t="shared" si="24"/>
         <v>-13610.580229964526</v>
       </c>
-      <c r="Q47" s="5">
-        <f t="shared" ref="Q47" si="28">SUM(Q48:Q51)</f>
+      <c r="Q48" s="5">
+        <f t="shared" ref="Q48" si="28">SUM(Q49:Q52)</f>
         <v>-2142.41</v>
       </c>
-      <c r="R47" s="5">
+      <c r="R48" s="5">
         <f t="shared" si="24"/>
         <v>-13655.396624750776</v>
       </c>
-      <c r="S47" s="5">
-        <f t="shared" ref="S47" si="29">SUM(S48:S51)</f>
+      <c r="S48" s="5">
+        <f t="shared" ref="S48" si="29">SUM(S49:S52)</f>
         <v>-4482.87</v>
       </c>
-      <c r="T47" s="5">
+      <c r="T48" s="5">
         <f t="shared" si="24"/>
         <v>-13700.341682867411</v>
       </c>
-      <c r="U47" s="5">
-        <f t="shared" ref="U47:Y47" si="30">SUM(U48:U51)</f>
+      <c r="U48" s="5">
+        <f t="shared" ref="U48:Y48" si="30">SUM(U49:U52)</f>
         <v>-6171.85</v>
       </c>
-      <c r="V47" s="5">
+      <c r="V48" s="5">
         <f t="shared" si="24"/>
         <v>-13745.41577369382</v>
       </c>
-      <c r="W47" s="5">
+      <c r="W48" s="5">
         <f t="shared" si="30"/>
         <v>-1967.33</v>
       </c>
-      <c r="X47" s="5">
+      <c r="X48" s="5">
         <f t="shared" si="24"/>
         <v>-13790.619267669847</v>
       </c>
-      <c r="Y47" s="5">
+      <c r="Y48" s="5">
         <f t="shared" si="30"/>
         <v>-3623.1800000000003</v>
       </c>
-      <c r="Z47" s="5">
+      <c r="Z48" s="5">
         <f t="shared" si="24"/>
         <v>-13927.009888864799</v>
       </c>
-      <c r="AA47" s="5">
+      <c r="AA48" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AB47" s="5">
+        <v>-4853.5</v>
+      </c>
+      <c r="AB48" s="5">
         <f t="shared" si="24"/>
         <v>-13972.734721153462</v>
       </c>
-      <c r="AC47" s="5">
+      <c r="AC48" s="5">
         <f t="shared" si="24"/>
         <v>-14018.590824804574</v>
       </c>
-      <c r="AD47" s="5">
+      <c r="AD48" s="5">
         <f t="shared" si="24"/>
         <v>-14064.578576684915</v>
       </c>
-      <c r="AE47" s="5">
+      <c r="AE48" s="5">
         <f t="shared" si="24"/>
         <v>-14110.698354743226</v>
       </c>
-      <c r="AF47" s="5">
+      <c r="AF48" s="5">
         <f t="shared" si="24"/>
         <v>-14156.95053801329</v>
       </c>
-      <c r="AG47" s="5">
+      <c r="AG48" s="5">
         <f t="shared" si="24"/>
         <v>-14203.335506617061</v>
       </c>
-      <c r="AH47" s="5">
+      <c r="AH48" s="5">
         <f t="shared" si="24"/>
         <v>-14249.853641767777</v>
       </c>
-      <c r="AI47" s="5">
+      <c r="AI48" s="5">
         <f t="shared" si="24"/>
         <v>-14296.505325773111</v>
       </c>
-      <c r="AJ47" s="5">
+      <c r="AJ48" s="5">
         <f t="shared" si="24"/>
         <v>-14343.290942038298</v>
       </c>
-      <c r="AK47" s="5">
+      <c r="AK48" s="5">
         <f t="shared" si="24"/>
         <v>-14390.210875069293</v>
       </c>
-      <c r="AL47" s="5">
+      <c r="AL48" s="5">
         <f t="shared" si="24"/>
         <v>-14437.265510475925</v>
       </c>
-      <c r="AM47" s="5">
+      <c r="AM48" s="5">
         <f t="shared" si="24"/>
         <v>-14484.455234975074</v>
       </c>
-      <c r="AN47" s="5">
+      <c r="AN48" s="5">
         <f t="shared" si="24"/>
         <v>-14531.780436393839</v>
       </c>
-      <c r="AO47" s="5">
+      <c r="AO48" s="5">
         <f t="shared" si="24"/>
         <v>-14579.241503672736</v>
       </c>
-      <c r="AP47" s="5">
+      <c r="AP48" s="5">
         <f t="shared" si="24"/>
         <v>-14626.838826868892</v>
       </c>
-      <c r="AQ47" s="5">
+      <c r="AQ48" s="5">
         <f t="shared" si="24"/>
         <v>-14674.572797159242</v>
       </c>
-      <c r="AR47" s="5">
+      <c r="AR48" s="5">
         <f t="shared" si="24"/>
         <v>-14722.443806843758</v>
       </c>
-      <c r="AS47" s="5">
+      <c r="AS48" s="5">
         <f t="shared" si="24"/>
         <v>-14770.452249348658</v>
       </c>
-      <c r="AT47" s="5">
+      <c r="AT48" s="5">
         <f t="shared" si="24"/>
         <v>-14818.598519229647</v>
       </c>
-      <c r="AU47" s="5">
+      <c r="AU48" s="5">
         <f t="shared" si="24"/>
         <v>-14866.883012175169</v>
       </c>
-      <c r="AV47" s="5">
+      <c r="AV48" s="5">
         <f t="shared" si="24"/>
         <v>-14915.306125009638</v>
       </c>
-      <c r="AW47" s="5">
+      <c r="AW48" s="5">
         <f t="shared" si="24"/>
         <v>-14963.868255696718</v>
       </c>
-      <c r="AX47" s="5">
+      <c r="AX48" s="5">
         <f t="shared" si="24"/>
         <v>-15012.56980334258</v>
       </c>
-      <c r="AY47" s="5">
+      <c r="AY48" s="5">
         <f t="shared" si="24"/>
         <v>-15061.411168199204</v>
       </c>
-      <c r="AZ47" s="5">
+      <c r="AZ48" s="5">
         <f t="shared" si="24"/>
         <v>-15110.392751667627</v>
       </c>
-      <c r="BA47" s="5">
+      <c r="BA48" s="5">
         <f t="shared" si="24"/>
         <v>-15159.514956301286</v>
       </c>
-      <c r="BB47" s="5">
+      <c r="BB48" s="5">
         <f t="shared" si="24"/>
         <v>-15208.778185809309</v>
       </c>
-      <c r="BC47" s="5">
+      <c r="BC48" s="5">
         <f t="shared" si="24"/>
         <v>-15258.182845059824</v>
       </c>
-      <c r="BD47" s="5">
+      <c r="BD48" s="5">
         <f t="shared" si="24"/>
         <v>-15307.729340083293</v>
       </c>
-      <c r="BE47" s="5">
+      <c r="BE48" s="5">
         <f t="shared" si="24"/>
         <v>-15357.418078075865</v>
       </c>
-      <c r="BF47" s="5">
+      <c r="BF48" s="5">
         <f t="shared" si="24"/>
         <v>-15407.249467402691</v>
       </c>
-      <c r="BG47" s="5">
+      <c r="BG48" s="5">
         <f t="shared" si="24"/>
         <v>-15457.223917601306</v>
       </c>
-      <c r="BH47" s="5">
+      <c r="BH48" s="5">
         <f t="shared" si="24"/>
         <v>-15507.341839384981</v>
       </c>
-      <c r="BI47" s="5">
+      <c r="BI48" s="5">
         <f t="shared" si="24"/>
         <v>-15557.603644646108</v>
       </c>
-      <c r="BJ47" s="5">
+      <c r="BJ48" s="5">
         <f t="shared" si="24"/>
         <v>-15608.009746459578</v>
       </c>
-      <c r="BK47" s="5">
+      <c r="BK48" s="5">
         <f t="shared" si="24"/>
         <v>-15658.560559086181</v>
       </c>
-      <c r="BL47" s="5">
+      <c r="BL48" s="5">
         <f t="shared" si="24"/>
         <v>-15709.256497975995</v>
       </c>
-      <c r="BM47" s="5">
+      <c r="BM48" s="5">
         <f t="shared" si="24"/>
         <v>-15760.097979771836</v>
       </c>
-      <c r="BN47" s="5">
+      <c r="BN48" s="5">
         <f t="shared" si="24"/>
         <v>-15811.085422312635</v>
       </c>
-      <c r="BO47" s="5">
+      <c r="BO48" s="5">
         <f t="shared" si="24"/>
         <v>-15862.219244636921</v>
       </c>
-      <c r="BP47" s="5">
+      <c r="BP48" s="5">
         <f t="shared" si="24"/>
         <v>-15913.499866986218</v>
       </c>
-      <c r="BQ47" s="5">
+      <c r="BQ48" s="5">
         <f t="shared" si="24"/>
         <v>-15964.927710808526</v>
       </c>
-      <c r="BR47" s="5">
+      <c r="BR48" s="5">
         <f t="shared" si="24"/>
         <v>-16016.503198761791</v>
       </c>
-      <c r="BS47" s="5">
+      <c r="BS48" s="5">
         <f t="shared" si="24"/>
         <v>-16068.226754717358</v>
       </c>
-      <c r="BT47" s="5">
+      <c r="BT48" s="5">
         <f t="shared" si="24"/>
         <v>-16120.09880376346</v>
       </c>
-      <c r="BU47" s="5">
+      <c r="BU48" s="5">
         <f t="shared" si="24"/>
         <v>-16172.119772208731</v>
-      </c>
-    </row>
-    <row r="48" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="2">
-        <v>-3058.9036839936002</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2">
-        <v>-3058.9036839936002</v>
-      </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="2">
-        <v>-3058.9036839936002</v>
-      </c>
-      <c r="I48" s="10">
-        <v>-496.03</v>
-      </c>
-      <c r="J48" s="2">
-        <v>-3067.6854866617559</v>
-      </c>
-      <c r="K48" s="10">
-        <v>-1382.21</v>
-      </c>
-      <c r="L48" s="2">
-        <v>-3076.4925009959429</v>
-      </c>
-      <c r="M48" s="10"/>
-      <c r="N48" s="2">
-        <v>-3085.3247993763016</v>
-      </c>
-      <c r="O48" s="10">
-        <v>-1975.37</v>
-      </c>
-      <c r="P48" s="2">
-        <v>-3094.1824543907665</v>
-      </c>
-      <c r="Q48" s="10">
-        <v>-2142.41</v>
-      </c>
-      <c r="R48" s="2">
-        <v>-3103.0655388356668</v>
-      </c>
-      <c r="S48" s="10">
-        <v>-1407.76</v>
-      </c>
-      <c r="T48" s="2">
-        <v>-3111.9741257163209</v>
-      </c>
-      <c r="U48" s="10"/>
-      <c r="V48" s="2">
-        <v>-3120.9082882476396</v>
-      </c>
-      <c r="W48" s="10"/>
-      <c r="X48" s="2">
-        <v>-3129.8680998547252</v>
-      </c>
-      <c r="Y48" s="10">
-        <v>-2166.75</v>
-      </c>
-      <c r="Z48" s="2">
-        <v>-3156.9021665471864</v>
-      </c>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="2">
-        <v>-3165.9653129333774</v>
-      </c>
-      <c r="AC48" s="2">
-        <v>-3175.054478694919</v>
-      </c>
-      <c r="AD48" s="2">
-        <v>-3184.1697385308025</v>
-      </c>
-      <c r="AE48" s="2">
-        <v>-3193.3111673544731</v>
-      </c>
-      <c r="AF48" s="2">
-        <v>-3202.4788402944446</v>
-      </c>
-      <c r="AG48" s="2">
-        <v>-3211.6728326949165</v>
-      </c>
-      <c r="AH48" s="2">
-        <v>-3220.8932201163934</v>
-      </c>
-      <c r="AI48" s="2">
-        <v>-3230.1400783363083</v>
-      </c>
-      <c r="AJ48" s="2">
-        <v>-3239.4134833496423</v>
-      </c>
-      <c r="AK48" s="2">
-        <v>-3248.7135113695504</v>
-      </c>
-      <c r="AL48" s="2">
-        <v>-3258.0402388279881</v>
-      </c>
-      <c r="AM48" s="2">
-        <v>-3267.3937423763396</v>
-      </c>
-      <c r="AN48" s="2">
-        <v>-3276.7740988860464</v>
-      </c>
-      <c r="AO48" s="2">
-        <v>-3286.1813854492416</v>
-      </c>
-      <c r="AP48" s="2">
-        <v>-3295.6156793793812</v>
-      </c>
-      <c r="AQ48" s="2">
-        <v>-3305.0770582118798</v>
-      </c>
-      <c r="AR48" s="2">
-        <v>-3314.5655997047502</v>
-      </c>
-      <c r="AS48" s="2">
-        <v>-3324.0813818392385</v>
-      </c>
-      <c r="AT48" s="2">
-        <v>-3333.6244828204667</v>
-      </c>
-      <c r="AU48" s="2">
-        <v>-3343.1949810780793</v>
-      </c>
-      <c r="AV48" s="2">
-        <v>-3352.7929552668793</v>
-      </c>
-      <c r="AW48" s="2">
-        <v>-3362.418484267484</v>
-      </c>
-      <c r="AX48" s="2">
-        <v>-3372.0716471869673</v>
-      </c>
-      <c r="AY48" s="2">
-        <v>-3381.7525233595115</v>
-      </c>
-      <c r="AZ48" s="2">
-        <v>-3391.4611923470588</v>
-      </c>
-      <c r="BA48" s="2">
-        <v>-3401.1977339399659</v>
-      </c>
-      <c r="BB48" s="2">
-        <v>-3410.9622281576608</v>
-      </c>
-      <c r="BC48" s="2">
-        <v>-3420.754755249297</v>
-      </c>
-      <c r="BD48" s="2">
-        <v>-3430.5753956944177</v>
-      </c>
-      <c r="BE48" s="2">
-        <v>-3440.4242302036128</v>
-      </c>
-      <c r="BF48" s="2">
-        <v>-3450.3013397191839</v>
-      </c>
-      <c r="BG48" s="2">
-        <v>-3460.2068054158126</v>
-      </c>
-      <c r="BH48" s="2">
-        <v>-3470.1407087012212</v>
-      </c>
-      <c r="BI48" s="2">
-        <v>-3480.103131216847</v>
-      </c>
-      <c r="BJ48" s="2">
-        <v>-3490.0941548385122</v>
-      </c>
-      <c r="BK48" s="2">
-        <v>-3500.1138616770959</v>
-      </c>
-      <c r="BL48" s="2">
-        <v>-3510.1623340792062</v>
-      </c>
-      <c r="BM48" s="2">
-        <v>-3520.2396546278655</v>
-      </c>
-      <c r="BN48" s="2">
-        <v>-3530.3459061431795</v>
-      </c>
-      <c r="BO48" s="2">
-        <v>-3540.4811716830236</v>
-      </c>
-      <c r="BP48" s="2">
-        <v>-3550.6455345437234</v>
-      </c>
-      <c r="BQ48" s="2">
-        <v>-3560.8390782607403</v>
-      </c>
-      <c r="BR48" s="2">
-        <v>-3571.0618866093573</v>
-      </c>
-      <c r="BS48" s="2">
-        <v>-3581.3140436053673</v>
-      </c>
-      <c r="BT48" s="2">
-        <v>-3591.5956335057654</v>
-      </c>
-      <c r="BU48" s="2">
-        <v>-3601.9067408094384</v>
       </c>
     </row>
     <row r="49" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="2"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="2">
-        <v>-6496.9546777600008</v>
+        <v>-3058.9036839936002</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2">
-        <v>-6496.9546777600008</v>
+        <v>-3058.9036839936002</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="2">
-        <v>-6496.9546777600008</v>
-      </c>
-      <c r="I49" s="10"/>
+        <v>-3058.9036839936002</v>
+      </c>
+      <c r="I49" s="10">
+        <v>-496.03</v>
+      </c>
       <c r="J49" s="2">
-        <v>-6521.3485740604337</v>
-      </c>
-      <c r="K49" s="10"/>
+        <v>-3067.6854866617559</v>
+      </c>
+      <c r="K49" s="10">
+        <v>-1382.21</v>
+      </c>
       <c r="L49" s="2">
-        <v>-6545.8125027665083</v>
-      </c>
-      <c r="M49" s="10">
-        <f>-(136.34+123.69)</f>
-        <v>-260.02999999999997</v>
-      </c>
+        <v>-3076.4925009959429</v>
+      </c>
+      <c r="M49" s="10"/>
       <c r="N49" s="2">
-        <v>-6570.3466649341717</v>
-      </c>
-      <c r="O49" s="10"/>
+        <v>-3085.3247993763016</v>
+      </c>
+      <c r="O49" s="10">
+        <v>-1975.37</v>
+      </c>
       <c r="P49" s="2">
-        <v>-6594.9512621965732</v>
-      </c>
-      <c r="Q49" s="10"/>
+        <v>-3094.1824543907665</v>
+      </c>
+      <c r="Q49" s="10">
+        <v>-2142.41</v>
+      </c>
       <c r="R49" s="2">
-        <v>-6619.6264967657407</v>
+        <v>-3103.0655388356668</v>
       </c>
       <c r="S49" s="10">
-        <v>-1938.54</v>
+        <v>-1407.76</v>
       </c>
       <c r="T49" s="2">
-        <v>-6644.3725714342254</v>
-      </c>
-      <c r="U49" s="10">
-        <v>-2835.46</v>
-      </c>
+        <v>-3111.9741257163209</v>
+      </c>
+      <c r="U49" s="10"/>
       <c r="V49" s="2">
-        <v>-6669.1896895767768</v>
-      </c>
-      <c r="W49" s="10">
-        <v>-1616.98</v>
-      </c>
+        <v>-3120.9082882476396</v>
+      </c>
+      <c r="W49" s="10"/>
       <c r="X49" s="2">
-        <v>-6694.0780551520147</v>
+        <v>-3129.8680998547252</v>
       </c>
       <c r="Y49" s="10">
-        <v>-880.84</v>
+        <v>-2166.75</v>
       </c>
       <c r="Z49" s="2">
-        <v>-6769.1726848532962</v>
-      </c>
-      <c r="AA49" s="10"/>
+        <v>-3156.9021665471864</v>
+      </c>
+      <c r="AA49" s="10">
+        <f>-(520.74+558.59+478.3)</f>
+        <v>-1557.6299999999999</v>
+      </c>
       <c r="AB49" s="2">
-        <v>-6794.3480914816046</v>
+        <v>-3165.9653129333774</v>
       </c>
       <c r="AC49" s="2">
-        <v>-6819.5957741525526</v>
+        <v>-3175.054478694919</v>
       </c>
       <c r="AD49" s="2">
-        <v>-6844.9159403633403</v>
+        <v>-3184.1697385308025</v>
       </c>
       <c r="AE49" s="2">
-        <v>-6870.3087982068701</v>
+        <v>-3193.3111673544731</v>
       </c>
       <c r="AF49" s="2">
-        <v>-6895.774556373457</v>
+        <v>-3202.4788402944446</v>
       </c>
       <c r="AG49" s="2">
-        <v>-6921.3134241525458</v>
+        <v>-3211.6728326949165</v>
       </c>
       <c r="AH49" s="2">
-        <v>-6946.9256114344262</v>
+        <v>-3220.8932201163934</v>
       </c>
       <c r="AI49" s="2">
-        <v>-6972.6113287119679</v>
+        <v>-3230.1400783363083</v>
       </c>
       <c r="AJ49" s="2">
-        <v>-6998.37078708234</v>
+        <v>-3239.4134833496423</v>
       </c>
       <c r="AK49" s="2">
-        <v>-7024.2041982487517</v>
+        <v>-3248.7135113695504</v>
       </c>
       <c r="AL49" s="2">
-        <v>-7050.1117745221891</v>
+        <v>-3258.0402388279881</v>
       </c>
       <c r="AM49" s="2">
-        <v>-7076.0937288231653</v>
+        <v>-3267.3937423763396</v>
       </c>
       <c r="AN49" s="2">
-        <v>-7102.1502746834631</v>
+        <v>-3276.7740988860464</v>
       </c>
       <c r="AO49" s="2">
-        <v>-7128.2816262478937</v>
+        <v>-3286.1813854492416</v>
       </c>
       <c r="AP49" s="2">
-        <v>-7154.4879982760594</v>
+        <v>-3295.6156793793812</v>
       </c>
       <c r="AQ49" s="2">
-        <v>-7180.7696061441111</v>
+        <v>-3305.0770582118798</v>
       </c>
       <c r="AR49" s="2">
-        <v>-7207.1266658465283</v>
+        <v>-3314.5655997047502</v>
       </c>
       <c r="AS49" s="2">
-        <v>-7233.5593939978844</v>
+        <v>-3324.0813818392385</v>
       </c>
       <c r="AT49" s="2">
-        <v>-7260.0680078346304</v>
+        <v>-3333.6244828204667</v>
       </c>
       <c r="AU49" s="2">
-        <v>-7286.6527252168871</v>
+        <v>-3343.1949810780793</v>
       </c>
       <c r="AV49" s="2">
-        <v>-7313.3137646302202</v>
+        <v>-3352.7929552668793</v>
       </c>
       <c r="AW49" s="2">
-        <v>-7340.0513451874558</v>
+        <v>-3362.418484267484</v>
       </c>
       <c r="AX49" s="2">
-        <v>-7366.8656866304646</v>
+        <v>-3372.0716471869673</v>
       </c>
       <c r="AY49" s="2">
-        <v>-7393.7570093319773</v>
+        <v>-3381.7525233595115</v>
       </c>
       <c r="AZ49" s="2">
-        <v>-7420.7255342973858</v>
+        <v>-3391.4611923470588</v>
       </c>
       <c r="BA49" s="2">
-        <v>-7447.7714831665726</v>
+        <v>-3401.1977339399659</v>
       </c>
       <c r="BB49" s="2">
-        <v>-7474.8950782157244</v>
+        <v>-3410.9622281576608</v>
       </c>
       <c r="BC49" s="2">
-        <v>-7502.0965423591588</v>
+        <v>-3420.754755249297</v>
       </c>
       <c r="BD49" s="2">
-        <v>-7529.3760991511608</v>
+        <v>-3430.5753956944177</v>
       </c>
       <c r="BE49" s="2">
-        <v>-7556.7339727878134</v>
+        <v>-3440.4242302036128</v>
       </c>
       <c r="BF49" s="2">
-        <v>-7584.1703881088451</v>
+        <v>-3450.3013397191839</v>
       </c>
       <c r="BG49" s="2">
-        <v>-7611.6855705994803</v>
+        <v>-3460.2068054158126</v>
       </c>
       <c r="BH49" s="2">
-        <v>-7639.2797463922816</v>
+        <v>-3470.1407087012212</v>
       </c>
       <c r="BI49" s="2">
-        <v>-7666.9531422690197</v>
+        <v>-3480.103131216847</v>
       </c>
       <c r="BJ49" s="2">
-        <v>-7694.7059856625347</v>
+        <v>-3490.0941548385122</v>
       </c>
       <c r="BK49" s="2">
-        <v>-7722.5385046585998</v>
+        <v>-3500.1138616770959</v>
       </c>
       <c r="BL49" s="2">
-        <v>-7750.4509279977956</v>
+        <v>-3510.1623340792062</v>
       </c>
       <c r="BM49" s="2">
-        <v>-7778.4434850774051</v>
+        <v>-3520.2396546278655</v>
       </c>
       <c r="BN49" s="2">
-        <v>-7806.5164059532763</v>
+        <v>-3530.3459061431795</v>
       </c>
       <c r="BO49" s="2">
-        <v>-7834.6699213417323</v>
+        <v>-3540.4811716830236</v>
       </c>
       <c r="BP49" s="2">
-        <v>-7862.9042626214541</v>
+        <v>-3550.6455345437234</v>
       </c>
       <c r="BQ49" s="2">
-        <v>-7891.2196618353901</v>
+        <v>-3560.8390782607403</v>
       </c>
       <c r="BR49" s="2">
-        <v>-7919.616351692659</v>
+        <v>-3571.0618866093573</v>
       </c>
       <c r="BS49" s="2">
-        <v>-7948.0945655704654</v>
+        <v>-3581.3140436053673</v>
       </c>
       <c r="BT49" s="2">
-        <v>-7976.6545375160149</v>
+        <v>-3591.5956335057654</v>
       </c>
       <c r="BU49" s="2">
-        <v>-8005.2965022484404</v>
+        <v>-3601.9067408094384</v>
       </c>
     </row>
     <row r="50" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2">
-        <v>-690.37756756800002</v>
+        <v>-6496.9546777600008</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2">
-        <v>-690.37756756800002</v>
-      </c>
-      <c r="G50" s="10">
-        <v>-37.22</v>
-      </c>
+        <v>-6496.9546777600008</v>
+      </c>
+      <c r="G50" s="10"/>
       <c r="H50" s="2">
-        <v>-690.37756756800002</v>
-      </c>
-      <c r="I50" s="10">
-        <v>-74.73</v>
-      </c>
+        <v>-6496.9546777600008</v>
+      </c>
+      <c r="I50" s="10"/>
       <c r="J50" s="2">
-        <v>-692.35957164241017</v>
+        <v>-6521.3485740604337</v>
       </c>
       <c r="K50" s="10"/>
       <c r="L50" s="2">
-        <v>-694.34726584977886</v>
+        <v>-6545.8125027665083</v>
       </c>
       <c r="M50" s="10">
-        <v>-629.34</v>
+        <f>-(136.34+123.69)</f>
+        <v>-260.02999999999997</v>
       </c>
       <c r="N50" s="2">
-        <v>-696.34066652590138</v>
+        <v>-6570.3466649341717</v>
       </c>
       <c r="O50" s="10"/>
       <c r="P50" s="2">
-        <v>-698.33979005347157</v>
+        <v>-6594.9512621965732</v>
       </c>
       <c r="Q50" s="10"/>
       <c r="R50" s="2">
-        <v>-700.34465286221644</v>
-      </c>
-      <c r="S50" s="10"/>
+        <v>-6619.6264967657407</v>
+      </c>
+      <c r="S50" s="10">
+        <v>-1938.54</v>
+      </c>
       <c r="T50" s="2">
-        <v>-702.35527142903072</v>
+        <v>-6644.3725714342254</v>
       </c>
       <c r="U50" s="10">
-        <v>-614.35</v>
+        <v>-2835.46</v>
       </c>
       <c r="V50" s="2">
-        <v>-704.37166227811304</v>
+        <v>-6669.1896895767768</v>
       </c>
       <c r="W50" s="10">
-        <v>-350.35</v>
+        <v>-1616.98</v>
       </c>
       <c r="X50" s="2">
-        <v>-706.3938419811011</v>
+        <v>-6694.0780551520147</v>
       </c>
       <c r="Y50" s="10">
-        <f>-(106.13+469.46)</f>
-        <v>-575.58999999999992</v>
+        <v>-880.84</v>
       </c>
       <c r="Z50" s="2">
-        <v>-712.49528064433025</v>
-      </c>
-      <c r="AA50" s="10"/>
+        <v>-6769.1726848532962</v>
+      </c>
+      <c r="AA50" s="10">
+        <v>-2403.41</v>
+      </c>
       <c r="AB50" s="2">
-        <v>-714.54078243288029</v>
+        <v>-6794.3480914816046</v>
       </c>
       <c r="AC50" s="2">
-        <v>-716.59215664989483</v>
+        <v>-6819.5957741525526</v>
       </c>
       <c r="AD50" s="2">
-        <v>-718.64942015452141</v>
+        <v>-6844.9159403633403</v>
       </c>
       <c r="AE50" s="2">
-        <v>-720.71258985430813</v>
+        <v>-6870.3087982068701</v>
       </c>
       <c r="AF50" s="2">
-        <v>-722.78168270534331</v>
+        <v>-6895.774556373457</v>
       </c>
       <c r="AG50" s="2">
-        <v>-724.85671571239425</v>
+        <v>-6921.3134241525458</v>
       </c>
       <c r="AH50" s="2">
-        <v>-726.93770592904707</v>
+        <v>-6946.9256114344262</v>
       </c>
       <c r="AI50" s="2">
-        <v>-729.02467045784726</v>
+        <v>-6972.6113287119679</v>
       </c>
       <c r="AJ50" s="2">
-        <v>-731.11762645043996</v>
+        <v>-6998.37078708234</v>
       </c>
       <c r="AK50" s="2">
-        <v>-733.216591107711</v>
+        <v>-7024.2041982487517</v>
       </c>
       <c r="AL50" s="2">
-        <v>-735.32158167992782</v>
+        <v>-7050.1117745221891</v>
       </c>
       <c r="AM50" s="2">
-        <v>-737.43261546688223</v>
+        <v>-7076.0937288231653</v>
       </c>
       <c r="AN50" s="2">
-        <v>-739.54970981803137</v>
+        <v>-7102.1502746834631</v>
       </c>
       <c r="AO50" s="2">
-        <v>-741.67288213264135</v>
+        <v>-7128.2816262478937</v>
       </c>
       <c r="AP50" s="2">
-        <v>-743.80214985992973</v>
+        <v>-7154.4879982760594</v>
       </c>
       <c r="AQ50" s="2">
-        <v>-745.93753049920906</v>
+        <v>-7180.7696061441111</v>
       </c>
       <c r="AR50" s="2">
-        <v>-748.07904160003045</v>
+        <v>-7207.1266658465283</v>
       </c>
       <c r="AS50" s="2">
-        <v>-750.22670076232805</v>
+        <v>-7233.5593939978844</v>
       </c>
       <c r="AT50" s="2">
-        <v>-752.38052563656368</v>
+        <v>-7260.0680078346304</v>
       </c>
       <c r="AU50" s="2">
-        <v>-754.54053392387198</v>
+        <v>-7286.6527252168871</v>
       </c>
       <c r="AV50" s="2">
-        <v>-756.7067433762054</v>
+        <v>-7313.3137646302202</v>
       </c>
       <c r="AW50" s="2">
-        <v>-758.8791717964807</v>
+        <v>-7340.0513451874558</v>
       </c>
       <c r="AX50" s="2">
-        <v>-761.05783703872521</v>
+        <v>-7366.8656866304646</v>
       </c>
       <c r="AY50" s="2">
-        <v>-763.24275700822307</v>
+        <v>-7393.7570093319773</v>
       </c>
       <c r="AZ50" s="2">
-        <v>-765.4339496616625</v>
+        <v>-7420.7255342973858</v>
       </c>
       <c r="BA50" s="2">
-        <v>-767.63143300728393</v>
+        <v>-7447.7714831665726</v>
       </c>
       <c r="BB50" s="2">
-        <v>-769.83522510502746</v>
+        <v>-7474.8950782157244</v>
       </c>
       <c r="BC50" s="2">
-        <v>-772.04534406668165</v>
+        <v>-7502.0965423591588</v>
       </c>
       <c r="BD50" s="2">
-        <v>-774.26180805603167</v>
+        <v>-7529.3760991511608</v>
       </c>
       <c r="BE50" s="2">
-        <v>-776.4846352890097</v>
+        <v>-7556.7339727878134</v>
       </c>
       <c r="BF50" s="2">
-        <v>-778.71384403384366</v>
+        <v>-7584.1703881088451</v>
       </c>
       <c r="BG50" s="2">
-        <v>-780.94945261120768</v>
+        <v>-7611.6855705994803</v>
       </c>
       <c r="BH50" s="2">
-        <v>-783.19147939437278</v>
+        <v>-7639.2797463922816</v>
       </c>
       <c r="BI50" s="2">
-        <v>-785.43994280935783</v>
+        <v>-7666.9531422690197</v>
       </c>
       <c r="BJ50" s="2">
-        <v>-787.69486133508087</v>
+        <v>-7694.7059856625347</v>
       </c>
       <c r="BK50" s="2">
-        <v>-789.95625350351111</v>
+        <v>-7722.5385046585998</v>
       </c>
       <c r="BL50" s="2">
-        <v>-792.2241378998209</v>
+        <v>-7750.4509279977956</v>
       </c>
       <c r="BM50" s="2">
-        <v>-794.49853316253905</v>
+        <v>-7778.4434850774051</v>
       </c>
       <c r="BN50" s="2">
-        <v>-796.77945798370365</v>
+        <v>-7806.5164059532763</v>
       </c>
       <c r="BO50" s="2">
-        <v>-799.06693110901563</v>
+        <v>-7834.6699213417323</v>
       </c>
       <c r="BP50" s="2">
-        <v>-801.36097133799308</v>
+        <v>-7862.9042626214541</v>
       </c>
       <c r="BQ50" s="2">
-        <v>-803.66159752412534</v>
+        <v>-7891.2196618353901</v>
       </c>
       <c r="BR50" s="2">
-        <v>-805.96882857502851</v>
+        <v>-7919.616351692659</v>
       </c>
       <c r="BS50" s="2">
-        <v>-808.28268345260028</v>
+        <v>-7948.0945655704654</v>
       </c>
       <c r="BT50" s="2">
-        <v>-810.60318117317604</v>
+        <v>-7976.6545375160149</v>
       </c>
       <c r="BU50" s="2">
-        <v>-812.93034080768575</v>
+        <v>-8005.2965022484404</v>
       </c>
     </row>
     <row r="51" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2">
-        <v>-3186.3580041599998</v>
+        <v>-690.37756756800002</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2">
-        <v>-3186.3580041599998</v>
+        <v>-690.37756756800002</v>
       </c>
       <c r="G51" s="10">
-        <v>-172</v>
+        <v>-37.22</v>
       </c>
       <c r="H51" s="2">
-        <v>-3186.3580041599998</v>
+        <v>-690.37756756800002</v>
       </c>
       <c r="I51" s="10">
-        <v>-344.92</v>
+        <v>-74.73</v>
       </c>
       <c r="J51" s="2">
-        <v>-3195.5057152726622</v>
-      </c>
-      <c r="K51" s="10">
-        <v>-832.15</v>
-      </c>
+        <v>-692.35957164241017</v>
+      </c>
+      <c r="K51" s="10"/>
       <c r="L51" s="2">
-        <v>-3204.6796885374406</v>
+        <v>-694.34726584977886</v>
       </c>
       <c r="M51" s="10">
-        <v>-570.89</v>
+        <v>-629.34</v>
       </c>
       <c r="N51" s="2">
-        <v>-3213.8799993503139</v>
+        <v>-696.34066652590138</v>
       </c>
       <c r="O51" s="10"/>
       <c r="P51" s="2">
-        <v>-3223.106723323715</v>
+        <v>-698.33979005347157</v>
       </c>
       <c r="Q51" s="10"/>
       <c r="R51" s="2">
-        <v>-3232.3599362871523</v>
-      </c>
-      <c r="S51" s="10">
-        <v>-1136.57</v>
-      </c>
+        <v>-700.34465286221644</v>
+      </c>
+      <c r="S51" s="10"/>
       <c r="T51" s="2">
-        <v>-3241.6397142878341</v>
+        <v>-702.35527142903072</v>
       </c>
       <c r="U51" s="10">
-        <v>-2722.04</v>
+        <v>-614.35</v>
       </c>
       <c r="V51" s="2">
-        <v>-3250.9461335912911</v>
-      </c>
-      <c r="W51" s="10"/>
+        <v>-704.37166227811304</v>
+      </c>
+      <c r="W51" s="10">
+        <v>-350.35</v>
+      </c>
       <c r="X51" s="2">
-        <v>-3260.2792706820051</v>
-      </c>
-      <c r="Y51" s="10"/>
+        <v>-706.3938419811011</v>
+      </c>
+      <c r="Y51" s="10">
+        <f>-(106.13+469.46)</f>
+        <v>-575.58999999999992</v>
+      </c>
       <c r="Z51" s="2">
-        <v>-3288.4397568199856</v>
-      </c>
-      <c r="AA51" s="10"/>
+        <v>-712.49528064433025</v>
+      </c>
+      <c r="AA51" s="10">
+        <v>-892.46</v>
+      </c>
       <c r="AB51" s="2">
-        <v>-3297.8805343056015</v>
+        <v>-714.54078243288029</v>
       </c>
       <c r="AC51" s="2">
-        <v>-3307.3484153072072</v>
+        <v>-716.59215664989483</v>
       </c>
       <c r="AD51" s="2">
-        <v>-3316.8434776362528</v>
+        <v>-718.64942015452141</v>
       </c>
       <c r="AE51" s="2">
-        <v>-3326.365799327576</v>
+        <v>-720.71258985430813</v>
       </c>
       <c r="AF51" s="2">
-        <v>-3335.9154586400459</v>
+        <v>-722.78168270534331</v>
       </c>
       <c r="AG51" s="2">
-        <v>-3345.4925340572045</v>
+        <v>-724.85671571239425</v>
       </c>
       <c r="AH51" s="2">
-        <v>-3355.0971042879096</v>
+        <v>-726.93770592904707</v>
       </c>
       <c r="AI51" s="2">
-        <v>-3364.7292482669877</v>
+        <v>-729.02467045784726</v>
       </c>
       <c r="AJ51" s="2">
-        <v>-3374.3890451558768</v>
+        <v>-731.11762645043996</v>
       </c>
       <c r="AK51" s="2">
-        <v>-3384.0765743432812</v>
+        <v>-733.216591107711</v>
       </c>
       <c r="AL51" s="2">
-        <v>-3393.7919154458209</v>
+        <v>-735.32158167992782</v>
       </c>
       <c r="AM51" s="2">
-        <v>-3403.535148308687</v>
+        <v>-737.43261546688223</v>
       </c>
       <c r="AN51" s="2">
-        <v>-3413.3063530062987</v>
+        <v>-739.54970981803137</v>
       </c>
       <c r="AO51" s="2">
-        <v>-3423.1056098429603</v>
+        <v>-741.67288213264135</v>
       </c>
       <c r="AP51" s="2">
-        <v>-3432.9329993535216</v>
+        <v>-743.80214985992973</v>
       </c>
       <c r="AQ51" s="2">
-        <v>-3442.7886023040419</v>
+        <v>-745.93753049920906</v>
       </c>
       <c r="AR51" s="2">
-        <v>-3452.6724996924481</v>
+        <v>-748.07904160003045</v>
       </c>
       <c r="AS51" s="2">
-        <v>-3462.5847727492064</v>
+        <v>-750.22670076232805</v>
       </c>
       <c r="AT51" s="2">
-        <v>-3472.5255029379864</v>
+        <v>-752.38052563656368</v>
       </c>
       <c r="AU51" s="2">
-        <v>-3482.494771956332</v>
+        <v>-754.54053392387198</v>
       </c>
       <c r="AV51" s="2">
-        <v>-3492.4926617363326</v>
+        <v>-756.7067433762054</v>
       </c>
       <c r="AW51" s="2">
-        <v>-3502.5192544452957</v>
+        <v>-758.8791717964807</v>
       </c>
       <c r="AX51" s="2">
-        <v>-3512.574632486424</v>
+        <v>-761.05783703872521</v>
       </c>
       <c r="AY51" s="2">
-        <v>-3522.658878499491</v>
+        <v>-763.24275700822307</v>
       </c>
       <c r="AZ51" s="2">
-        <v>-3532.7720753615195</v>
+        <v>-765.4339496616625</v>
       </c>
       <c r="BA51" s="2">
-        <v>-3542.9143061874643</v>
+        <v>-767.63143300728393</v>
       </c>
       <c r="BB51" s="2">
-        <v>-3553.0856543308964</v>
+        <v>-769.83522510502746</v>
       </c>
       <c r="BC51" s="2">
-        <v>-3563.2862033846845</v>
+        <v>-772.04534406668165</v>
       </c>
       <c r="BD51" s="2">
-        <v>-3573.5160371816846</v>
+        <v>-774.26180805603167</v>
       </c>
       <c r="BE51" s="2">
-        <v>-3583.7752397954296</v>
+        <v>-776.4846352890097</v>
       </c>
       <c r="BF51" s="2">
-        <v>-3594.0638955408172</v>
+        <v>-778.71384403384366</v>
       </c>
       <c r="BG51" s="2">
-        <v>-3604.3820889748049</v>
+        <v>-780.94945261120768</v>
       </c>
       <c r="BH51" s="2">
-        <v>-3614.7299048971054</v>
+        <v>-783.19147939437278</v>
       </c>
       <c r="BI51" s="2">
-        <v>-3625.1074283508824</v>
+        <v>-785.43994280935783</v>
       </c>
       <c r="BJ51" s="2">
-        <v>-3635.51474462345</v>
+        <v>-787.69486133508087</v>
       </c>
       <c r="BK51" s="2">
-        <v>-3645.9519392469742</v>
+        <v>-789.95625350351111</v>
       </c>
       <c r="BL51" s="2">
-        <v>-3656.4190979991736</v>
+        <v>-792.2241378998209</v>
       </c>
       <c r="BM51" s="2">
-        <v>-3666.9163069040264</v>
+        <v>-794.49853316253905</v>
       </c>
       <c r="BN51" s="2">
-        <v>-3677.4436522324781</v>
+        <v>-796.77945798370365</v>
       </c>
       <c r="BO51" s="2">
-        <v>-3688.0012205031494</v>
+        <v>-799.06693110901563</v>
       </c>
       <c r="BP51" s="2">
-        <v>-3698.5890984830453</v>
+        <v>-801.36097133799308</v>
       </c>
       <c r="BQ51" s="2">
-        <v>-3709.2073731882706</v>
+        <v>-803.66159752412534</v>
       </c>
       <c r="BR51" s="2">
-        <v>-3719.8561318847469</v>
+        <v>-805.96882857502851</v>
       </c>
       <c r="BS51" s="2">
-        <v>-3730.5354620889243</v>
+        <v>-808.28268345260028</v>
       </c>
       <c r="BT51" s="2">
-        <v>-3741.2454515685049</v>
+        <v>-810.60318117317604</v>
       </c>
       <c r="BU51" s="2">
-        <v>-3751.9861883431649</v>
-      </c>
-      <c r="BV51" s="2"/>
-      <c r="BW51" s="2"/>
+        <v>-812.93034080768575</v>
+      </c>
     </row>
     <row r="52" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="4"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="D52" s="2">
+        <v>-3186.3580041599998</v>
+      </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="2"/>
+      <c r="F52" s="2">
+        <v>-3186.3580041599998</v>
+      </c>
+      <c r="G52" s="10">
+        <v>-172</v>
+      </c>
+      <c r="H52" s="2">
+        <v>-3186.3580041599998</v>
+      </c>
+      <c r="I52" s="10">
+        <v>-344.92</v>
+      </c>
+      <c r="J52" s="2">
+        <v>-3195.5057152726622</v>
+      </c>
+      <c r="K52" s="10">
+        <v>-832.15</v>
+      </c>
+      <c r="L52" s="2">
+        <v>-3204.6796885374406</v>
+      </c>
+      <c r="M52" s="10">
+        <v>-570.89</v>
+      </c>
+      <c r="N52" s="2">
+        <v>-3213.8799993503139</v>
+      </c>
       <c r="O52" s="10"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
-      <c r="AB52" s="2"/>
-      <c r="AC52" s="2"/>
-      <c r="AD52" s="2"/>
-      <c r="AE52" s="2"/>
-      <c r="AF52" s="2"/>
-      <c r="AG52" s="2"/>
-      <c r="AH52" s="2"/>
-      <c r="AI52" s="2"/>
-      <c r="AJ52" s="2"/>
-      <c r="AK52" s="2"/>
-      <c r="AL52" s="2"/>
-      <c r="AM52" s="2"/>
-      <c r="AN52" s="2"/>
-      <c r="AO52" s="2"/>
-      <c r="AP52" s="2"/>
-      <c r="AQ52" s="2"/>
-      <c r="AR52" s="2"/>
-      <c r="AS52" s="2"/>
-      <c r="AT52" s="2"/>
-      <c r="AU52" s="2"/>
-      <c r="AV52" s="2"/>
-      <c r="AW52" s="2"/>
-      <c r="AX52" s="2"/>
-      <c r="AY52" s="2"/>
-      <c r="AZ52" s="2"/>
-      <c r="BA52" s="2"/>
-      <c r="BB52" s="2"/>
-      <c r="BC52" s="2"/>
-      <c r="BD52" s="2"/>
-      <c r="BE52" s="2"/>
-      <c r="BF52" s="2"/>
-      <c r="BG52" s="2"/>
-      <c r="BH52" s="2"/>
-      <c r="BI52" s="2"/>
-      <c r="BJ52" s="2"/>
-      <c r="BK52" s="2"/>
-      <c r="BL52" s="2"/>
-      <c r="BM52" s="2"/>
-      <c r="BN52" s="2"/>
-      <c r="BO52" s="2"/>
-      <c r="BP52" s="2"/>
-      <c r="BQ52" s="2"/>
-      <c r="BR52" s="2"/>
-      <c r="BS52" s="2"/>
-      <c r="BT52" s="2"/>
-      <c r="BU52" s="2"/>
+      <c r="P52" s="2">
+        <v>-3223.106723323715</v>
+      </c>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="2">
+        <v>-3232.3599362871523</v>
+      </c>
+      <c r="S52" s="10">
+        <v>-1136.57</v>
+      </c>
+      <c r="T52" s="2">
+        <v>-3241.6397142878341</v>
+      </c>
+      <c r="U52" s="10">
+        <v>-2722.04</v>
+      </c>
+      <c r="V52" s="2">
+        <v>-3250.9461335912911</v>
+      </c>
+      <c r="W52" s="10"/>
+      <c r="X52" s="2">
+        <v>-3260.2792706820051</v>
+      </c>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="2">
+        <v>-3288.4397568199856</v>
+      </c>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="2">
+        <v>-3297.8805343056015</v>
+      </c>
+      <c r="AC52" s="2">
+        <v>-3307.3484153072072</v>
+      </c>
+      <c r="AD52" s="2">
+        <v>-3316.8434776362528</v>
+      </c>
+      <c r="AE52" s="2">
+        <v>-3326.365799327576</v>
+      </c>
+      <c r="AF52" s="2">
+        <v>-3335.9154586400459</v>
+      </c>
+      <c r="AG52" s="2">
+        <v>-3345.4925340572045</v>
+      </c>
+      <c r="AH52" s="2">
+        <v>-3355.0971042879096</v>
+      </c>
+      <c r="AI52" s="2">
+        <v>-3364.7292482669877</v>
+      </c>
+      <c r="AJ52" s="2">
+        <v>-3374.3890451558768</v>
+      </c>
+      <c r="AK52" s="2">
+        <v>-3384.0765743432812</v>
+      </c>
+      <c r="AL52" s="2">
+        <v>-3393.7919154458209</v>
+      </c>
+      <c r="AM52" s="2">
+        <v>-3403.535148308687</v>
+      </c>
+      <c r="AN52" s="2">
+        <v>-3413.3063530062987</v>
+      </c>
+      <c r="AO52" s="2">
+        <v>-3423.1056098429603</v>
+      </c>
+      <c r="AP52" s="2">
+        <v>-3432.9329993535216</v>
+      </c>
+      <c r="AQ52" s="2">
+        <v>-3442.7886023040419</v>
+      </c>
+      <c r="AR52" s="2">
+        <v>-3452.6724996924481</v>
+      </c>
+      <c r="AS52" s="2">
+        <v>-3462.5847727492064</v>
+      </c>
+      <c r="AT52" s="2">
+        <v>-3472.5255029379864</v>
+      </c>
+      <c r="AU52" s="2">
+        <v>-3482.494771956332</v>
+      </c>
+      <c r="AV52" s="2">
+        <v>-3492.4926617363326</v>
+      </c>
+      <c r="AW52" s="2">
+        <v>-3502.5192544452957</v>
+      </c>
+      <c r="AX52" s="2">
+        <v>-3512.574632486424</v>
+      </c>
+      <c r="AY52" s="2">
+        <v>-3522.658878499491</v>
+      </c>
+      <c r="AZ52" s="2">
+        <v>-3532.7720753615195</v>
+      </c>
+      <c r="BA52" s="2">
+        <v>-3542.9143061874643</v>
+      </c>
+      <c r="BB52" s="2">
+        <v>-3553.0856543308964</v>
+      </c>
+      <c r="BC52" s="2">
+        <v>-3563.2862033846845</v>
+      </c>
+      <c r="BD52" s="2">
+        <v>-3573.5160371816846</v>
+      </c>
+      <c r="BE52" s="2">
+        <v>-3583.7752397954296</v>
+      </c>
+      <c r="BF52" s="2">
+        <v>-3594.0638955408172</v>
+      </c>
+      <c r="BG52" s="2">
+        <v>-3604.3820889748049</v>
+      </c>
+      <c r="BH52" s="2">
+        <v>-3614.7299048971054</v>
+      </c>
+      <c r="BI52" s="2">
+        <v>-3625.1074283508824</v>
+      </c>
+      <c r="BJ52" s="2">
+        <v>-3635.51474462345</v>
+      </c>
+      <c r="BK52" s="2">
+        <v>-3645.9519392469742</v>
+      </c>
+      <c r="BL52" s="2">
+        <v>-3656.4190979991736</v>
+      </c>
+      <c r="BM52" s="2">
+        <v>-3666.9163069040264</v>
+      </c>
+      <c r="BN52" s="2">
+        <v>-3677.4436522324781</v>
+      </c>
+      <c r="BO52" s="2">
+        <v>-3688.0012205031494</v>
+      </c>
+      <c r="BP52" s="2">
+        <v>-3698.5890984830453</v>
+      </c>
+      <c r="BQ52" s="2">
+        <v>-3709.2073731882706</v>
+      </c>
+      <c r="BR52" s="2">
+        <v>-3719.8561318847469</v>
+      </c>
+      <c r="BS52" s="2">
+        <v>-3730.5354620889243</v>
+      </c>
+      <c r="BT52" s="2">
+        <v>-3741.2454515685049</v>
+      </c>
+      <c r="BU52" s="2">
+        <v>-3751.9861883431649</v>
+      </c>
       <c r="BV52" s="2"/>
       <c r="BW52" s="2"/>
     </row>
@@ -8068,78 +8161,153 @@
       <c r="BS53" s="2"/>
       <c r="BT53" s="2"/>
       <c r="BU53" s="2"/>
+      <c r="BV53" s="2"/>
+      <c r="BW53" s="2"/>
     </row>
-    <row r="55" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
+    <row r="54" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="2"/>
+      <c r="AK54" s="2"/>
+      <c r="AL54" s="2"/>
+      <c r="AM54" s="2"/>
+      <c r="AN54" s="2"/>
+      <c r="AO54" s="2"/>
+      <c r="AP54" s="2"/>
+      <c r="AQ54" s="2"/>
+      <c r="AR54" s="2"/>
+      <c r="AS54" s="2"/>
+      <c r="AT54" s="2"/>
+      <c r="AU54" s="2"/>
+      <c r="AV54" s="2"/>
+      <c r="AW54" s="2"/>
+      <c r="AX54" s="2"/>
+      <c r="AY54" s="2"/>
+      <c r="AZ54" s="2"/>
+      <c r="BA54" s="2"/>
+      <c r="BB54" s="2"/>
+      <c r="BC54" s="2"/>
+      <c r="BD54" s="2"/>
+      <c r="BE54" s="2"/>
+      <c r="BF54" s="2"/>
+      <c r="BG54" s="2"/>
+      <c r="BH54" s="2"/>
+      <c r="BI54" s="2"/>
+      <c r="BJ54" s="2"/>
+      <c r="BK54" s="2"/>
+      <c r="BL54" s="2"/>
+      <c r="BM54" s="2"/>
+      <c r="BN54" s="2"/>
+      <c r="BO54" s="2"/>
+      <c r="BP54" s="2"/>
+      <c r="BQ54" s="2"/>
+      <c r="BR54" s="2"/>
+      <c r="BS54" s="2"/>
+      <c r="BT54" s="2"/>
+      <c r="BU54" s="2"/>
+    </row>
+    <row r="56" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A56" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>295</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D56" s="18">
         <v>877</v>
       </c>
-      <c r="E55">
+      <c r="E56">
         <v>272</v>
       </c>
-      <c r="F55">
+      <c r="F56">
         <v>880</v>
       </c>
-      <c r="G55">
+      <c r="G56">
         <v>390</v>
       </c>
-      <c r="H55">
+      <c r="H56">
         <v>880</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
         <v>882</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K56" s="11">
         <v>580</v>
       </c>
-      <c r="L55">
+      <c r="L56">
         <v>885</v>
       </c>
-      <c r="M55">
+      <c r="M56">
         <v>492</v>
       </c>
-      <c r="N55">
+      <c r="N56">
         <v>818</v>
       </c>
-      <c r="O55" s="11">
+      <c r="O56" s="11">
         <v>633</v>
       </c>
-      <c r="Q55">
+      <c r="Q56">
         <v>520</v>
       </c>
-      <c r="S55" s="11">
+      <c r="S56" s="11">
         <v>523</v>
       </c>
-      <c r="U55">
+      <c r="U56">
         <v>468</v>
       </c>
-      <c r="W55" s="11">
+      <c r="W56" s="11">
         <v>299</v>
       </c>
-      <c r="Y55" s="33">
+      <c r="Y56" s="33">
         <f>750-280</f>
         <v>470</v>
       </c>
-      <c r="AA55" s="33">
+      <c r="AA56" s="33">
         <v>280</v>
       </c>
     </row>
-    <row r="56" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="Y56" s="33"/>
-      <c r="AA56" s="33"/>
+    <row r="57" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A57" s="21"/>
+      <c r="Y57" s="33"/>
+      <c r="AA57" s="33"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:BW33">
-    <sortCondition ref="A19:A33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:BW34">
+    <sortCondition ref="A20:A34"/>
   </sortState>
   <conditionalFormatting sqref="Y1:Z1">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>

--- a/Energy - Orçado x Realizado.xlsx
+++ b/Energy - Orçado x Realizado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Modelos IA\Controle Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AA1101-1FCE-48A9-8227-547C9ABBFCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4259076D-A0B2-46B6-9E3A-922F6A44966C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>Receita Bruta</t>
   </si>
@@ -388,7 +388,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -739,13 +759,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E0C361-DC00-4C96-A388-FAD64E248995}">
-  <dimension ref="A1:BW57"/>
+  <dimension ref="A1:BX57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA12" sqref="AA12"/>
+      <selection pane="bottomRight" activeCell="AA12" sqref="AA12:AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -762,10 +782,10 @@
     <col min="13" max="13" width="11.7109375" style="11" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="11.7109375" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="11.7109375" style="11" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="73" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="74" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B1" s="19"/>
       <c r="C1" s="13" t="s">
         <v>22</v>
@@ -842,8 +862,14 @@
       <c r="AA1" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
         <v>44</v>
       </c>
@@ -900,7 +926,7 @@
         <v>245982.34999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:73" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:74" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="31"/>
       <c r="C3" s="30">
@@ -982,142 +1008,145 @@
         <v>46327</v>
       </c>
       <c r="AC3" s="30">
+        <v>46327</v>
+      </c>
+      <c r="AD3" s="30">
         <v>46357</v>
       </c>
-      <c r="AD3" s="30">
+      <c r="AE3" s="30">
         <v>46388</v>
       </c>
-      <c r="AE3" s="30">
+      <c r="AF3" s="30">
         <v>46419</v>
       </c>
-      <c r="AF3" s="30">
+      <c r="AG3" s="30">
         <v>46447</v>
       </c>
-      <c r="AG3" s="30">
+      <c r="AH3" s="30">
         <v>46478</v>
       </c>
-      <c r="AH3" s="30">
+      <c r="AI3" s="30">
         <v>46508</v>
       </c>
-      <c r="AI3" s="30">
+      <c r="AJ3" s="30">
         <v>46539</v>
       </c>
-      <c r="AJ3" s="30">
+      <c r="AK3" s="30">
         <v>46569</v>
       </c>
-      <c r="AK3" s="30">
+      <c r="AL3" s="30">
         <v>46600</v>
       </c>
-      <c r="AL3" s="30">
+      <c r="AM3" s="30">
         <v>46631</v>
       </c>
-      <c r="AM3" s="30">
+      <c r="AN3" s="30">
         <v>46661</v>
       </c>
-      <c r="AN3" s="30">
+      <c r="AO3" s="30">
         <v>46692</v>
       </c>
-      <c r="AO3" s="30">
+      <c r="AP3" s="30">
         <v>46722</v>
       </c>
-      <c r="AP3" s="30">
+      <c r="AQ3" s="30">
         <v>46753</v>
       </c>
-      <c r="AQ3" s="30">
+      <c r="AR3" s="30">
         <v>46784</v>
       </c>
-      <c r="AR3" s="30">
+      <c r="AS3" s="30">
         <v>46813</v>
       </c>
-      <c r="AS3" s="30">
+      <c r="AT3" s="30">
         <v>46844</v>
       </c>
-      <c r="AT3" s="30">
+      <c r="AU3" s="30">
         <v>46874</v>
       </c>
-      <c r="AU3" s="30">
+      <c r="AV3" s="30">
         <v>46905</v>
       </c>
-      <c r="AV3" s="30">
+      <c r="AW3" s="30">
         <v>46935</v>
       </c>
-      <c r="AW3" s="30">
+      <c r="AX3" s="30">
         <v>46966</v>
       </c>
-      <c r="AX3" s="30">
+      <c r="AY3" s="30">
         <v>46997</v>
       </c>
-      <c r="AY3" s="30">
+      <c r="AZ3" s="30">
         <v>47027</v>
       </c>
-      <c r="AZ3" s="30">
+      <c r="BA3" s="30">
         <v>47058</v>
       </c>
-      <c r="BA3" s="30">
+      <c r="BB3" s="30">
         <v>47088</v>
       </c>
-      <c r="BB3" s="30">
+      <c r="BC3" s="30">
         <v>47119</v>
       </c>
-      <c r="BC3" s="30">
+      <c r="BD3" s="30">
         <v>47150</v>
       </c>
-      <c r="BD3" s="30">
+      <c r="BE3" s="30">
         <v>47178</v>
       </c>
-      <c r="BE3" s="30">
+      <c r="BF3" s="30">
         <v>47209</v>
       </c>
-      <c r="BF3" s="30">
+      <c r="BG3" s="30">
         <v>47239</v>
       </c>
-      <c r="BG3" s="30">
+      <c r="BH3" s="30">
         <v>47270</v>
       </c>
-      <c r="BH3" s="30">
+      <c r="BI3" s="30">
         <v>47300</v>
       </c>
-      <c r="BI3" s="30">
+      <c r="BJ3" s="30">
         <v>47331</v>
       </c>
-      <c r="BJ3" s="30">
+      <c r="BK3" s="30">
         <v>47362</v>
       </c>
-      <c r="BK3" s="30">
+      <c r="BL3" s="30">
         <v>47392</v>
       </c>
-      <c r="BL3" s="30">
+      <c r="BM3" s="30">
         <v>47423</v>
       </c>
-      <c r="BM3" s="30">
+      <c r="BN3" s="30">
         <v>47453</v>
       </c>
-      <c r="BN3" s="30">
+      <c r="BO3" s="30">
         <v>47484</v>
       </c>
-      <c r="BO3" s="30">
+      <c r="BP3" s="30">
         <v>47515</v>
       </c>
-      <c r="BP3" s="30">
+      <c r="BQ3" s="30">
         <v>47543</v>
       </c>
-      <c r="BQ3" s="30">
+      <c r="BR3" s="30">
         <v>47574</v>
       </c>
-      <c r="BR3" s="30">
+      <c r="BS3" s="30">
         <v>47604</v>
       </c>
-      <c r="BS3" s="30">
+      <c r="BT3" s="30">
         <v>47635</v>
       </c>
-      <c r="BT3" s="30">
+      <c r="BU3" s="30">
         <v>47665</v>
       </c>
-      <c r="BU3" s="30">
+      <c r="BV3" s="30">
         <v>47696</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
@@ -1126,7 +1155,7 @@
         <v>2007193.96</v>
       </c>
       <c r="C4" s="15">
-        <f t="shared" ref="C4:AG4" si="0">C5+C8</f>
+        <f t="shared" ref="C4:AH4" si="0">C5+C8</f>
         <v>65100</v>
       </c>
       <c r="D4" s="5">
@@ -1230,187 +1259,191 @@
         <v>112955.55421269746</v>
       </c>
       <c r="AC4" s="5">
+        <f t="shared" ref="AC4" si="2">AC5+AC8</f>
+        <v>-188037.23</v>
+      </c>
+      <c r="AD4" s="5">
         <f t="shared" si="0"/>
         <v>113488.68408053627</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AE4" s="5">
         <f t="shared" si="0"/>
         <v>114022.34594505926</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AF4" s="5">
         <f t="shared" si="0"/>
         <v>114557.3798253882</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AG4" s="5">
         <f t="shared" si="0"/>
         <v>115093.79314638168</v>
       </c>
-      <c r="AG4" s="5">
+      <c r="AH4" s="5">
         <f t="shared" si="0"/>
         <v>115631.58971258732</v>
       </c>
-      <c r="AH4" s="5">
-        <f t="shared" ref="AH4:BM4" si="2">AH5+AH8</f>
+      <c r="AI4" s="5">
+        <f t="shared" ref="AI4:BN4" si="3">AI5+AI8</f>
         <v>116170.77332340677</v>
       </c>
-      <c r="AI4" s="5">
-        <f t="shared" si="2"/>
+      <c r="AJ4" s="5">
+        <f t="shared" si="3"/>
         <v>116711.34778889181</v>
       </c>
-      <c r="AJ4" s="5">
-        <f t="shared" si="2"/>
+      <c r="AK4" s="5">
+        <f t="shared" si="3"/>
         <v>117253.31692984366</v>
       </c>
-      <c r="AK4" s="5">
-        <f t="shared" si="2"/>
+      <c r="AL4" s="5">
+        <f t="shared" si="3"/>
         <v>117796.68457784381</v>
       </c>
-      <c r="AL4" s="5">
-        <f t="shared" si="2"/>
+      <c r="AM4" s="5">
+        <f t="shared" si="3"/>
         <v>118295.08799702271</v>
       </c>
-      <c r="AM4" s="5">
-        <f t="shared" si="2"/>
+      <c r="AN4" s="5">
+        <f t="shared" si="3"/>
         <v>118841.05812756054</v>
       </c>
-      <c r="AN4" s="5">
-        <f t="shared" si="2"/>
+      <c r="AO4" s="5">
+        <f t="shared" si="3"/>
         <v>119388.63976029815</v>
       </c>
-      <c r="AO4" s="5">
-        <f t="shared" si="2"/>
+      <c r="AP4" s="5">
+        <f t="shared" si="3"/>
         <v>119937.6363443998</v>
       </c>
-      <c r="AP4" s="5">
-        <f t="shared" si="2"/>
+      <c r="AQ4" s="5">
+        <f t="shared" si="3"/>
         <v>120488.05089229152</v>
       </c>
-      <c r="AQ4" s="5">
-        <f t="shared" si="2"/>
+      <c r="AR4" s="5">
+        <f t="shared" si="3"/>
         <v>121039.88729760991</v>
       </c>
-      <c r="AR4" s="5">
-        <f t="shared" si="2"/>
+      <c r="AS4" s="5">
+        <f t="shared" si="3"/>
         <v>121593.14946878582</v>
       </c>
-      <c r="AS4" s="5">
-        <f t="shared" si="2"/>
+      <c r="AT4" s="5">
+        <f t="shared" si="3"/>
         <v>122147.84132529711</v>
       </c>
-      <c r="AT4" s="5">
-        <f t="shared" si="2"/>
+      <c r="AU4" s="5">
+        <f t="shared" si="3"/>
         <v>122703.96679768368</v>
       </c>
-      <c r="AU4" s="5">
-        <f t="shared" si="2"/>
+      <c r="AV4" s="5">
+        <f t="shared" si="3"/>
         <v>123261.52982757895</v>
       </c>
-      <c r="AV4" s="5">
-        <f t="shared" si="2"/>
+      <c r="AW4" s="5">
+        <f t="shared" si="3"/>
         <v>123820.53436774146</v>
       </c>
-      <c r="AW4" s="5">
-        <f t="shared" si="2"/>
+      <c r="AX4" s="5">
+        <f t="shared" si="3"/>
         <v>124380.98438208665</v>
       </c>
-      <c r="AX4" s="5">
-        <f t="shared" si="2"/>
+      <c r="AY4" s="5">
+        <f t="shared" si="3"/>
         <v>124894.89443721721</v>
       </c>
-      <c r="AY4" s="5">
-        <f t="shared" si="2"/>
+      <c r="AZ4" s="5">
+        <f t="shared" si="3"/>
         <v>125458.03405444659</v>
       </c>
-      <c r="AZ4" s="5">
-        <f t="shared" si="2"/>
+      <c r="BA4" s="5">
+        <f t="shared" si="3"/>
         <v>126022.83959052119</v>
       </c>
-      <c r="BA4" s="5">
-        <f t="shared" si="2"/>
+      <c r="BB4" s="5">
+        <f t="shared" si="3"/>
         <v>126589.10761355137</v>
       </c>
-      <c r="BB4" s="5">
-        <f t="shared" si="2"/>
+      <c r="BC4" s="5">
+        <f t="shared" si="3"/>
         <v>127156.84123962262</v>
       </c>
-      <c r="BC4" s="5">
-        <f t="shared" si="2"/>
+      <c r="BD4" s="5">
+        <f t="shared" si="3"/>
         <v>127726.04449687258</v>
       </c>
-      <c r="BD4" s="5">
-        <f t="shared" si="2"/>
+      <c r="BE4" s="5">
+        <f t="shared" si="3"/>
         <v>128296.72142875013</v>
       </c>
-      <c r="BE4" s="5">
-        <f t="shared" si="2"/>
+      <c r="BF4" s="5">
+        <f t="shared" si="3"/>
         <v>128868.87609013708</v>
       </c>
-      <c r="BF4" s="5">
-        <f t="shared" si="2"/>
+      <c r="BG4" s="5">
+        <f t="shared" si="3"/>
         <v>129442.51254736367</v>
       </c>
-      <c r="BG4" s="5">
-        <f t="shared" si="2"/>
+      <c r="BH4" s="5">
+        <f t="shared" si="3"/>
         <v>129968.9979181941</v>
       </c>
-      <c r="BH4" s="5">
-        <f t="shared" si="2"/>
+      <c r="BI4" s="5">
+        <f t="shared" si="3"/>
         <v>130478.76360789448</v>
       </c>
-      <c r="BI4" s="5">
-        <f t="shared" si="2"/>
+      <c r="BJ4" s="5">
+        <f t="shared" si="3"/>
         <v>130989.42291756609</v>
       </c>
-      <c r="BJ4" s="5">
-        <f t="shared" si="2"/>
+      <c r="BK4" s="5">
+        <f t="shared" si="3"/>
         <v>131501.07479386276</v>
       </c>
-      <c r="BK4" s="5">
-        <f t="shared" si="2"/>
+      <c r="BL4" s="5">
+        <f t="shared" si="3"/>
         <v>132013.72261231358</v>
       </c>
-      <c r="BL4" s="5">
-        <f t="shared" si="2"/>
+      <c r="BM4" s="5">
+        <f t="shared" si="3"/>
         <v>132527.36923503783</v>
       </c>
-      <c r="BM4" s="5">
-        <f t="shared" si="2"/>
+      <c r="BN4" s="5">
+        <f t="shared" si="3"/>
         <v>133042.01752951712</v>
       </c>
-      <c r="BN4" s="5">
-        <f t="shared" ref="BN4:BU4" si="3">BN5+BN8</f>
+      <c r="BO4" s="5">
+        <f t="shared" ref="BO4:BV4" si="4">BO5+BO8</f>
         <v>133557.67037144973</v>
       </c>
-      <c r="BO4" s="5">
-        <f t="shared" si="3"/>
+      <c r="BP4" s="5">
+        <f t="shared" si="4"/>
         <v>134074.33064478962</v>
       </c>
-      <c r="BP4" s="5">
-        <f t="shared" si="3"/>
+      <c r="BQ4" s="5">
+        <f t="shared" si="4"/>
         <v>134592.00124177034</v>
       </c>
-      <c r="BQ4" s="5">
-        <f t="shared" si="3"/>
+      <c r="BR4" s="5">
+        <f t="shared" si="4"/>
         <v>135110.68506292874</v>
       </c>
-      <c r="BR4" s="5">
-        <f t="shared" si="3"/>
+      <c r="BS4" s="5">
+        <f t="shared" si="4"/>
         <v>135630.38501712884</v>
       </c>
-      <c r="BS4" s="5">
-        <f t="shared" si="3"/>
+      <c r="BT4" s="5">
+        <f t="shared" si="4"/>
         <v>136151.1040215856</v>
       </c>
-      <c r="BT4" s="5">
-        <f t="shared" si="3"/>
+      <c r="BU4" s="5">
+        <f t="shared" si="4"/>
         <v>136672.84500188916</v>
       </c>
-      <c r="BU4" s="5">
-        <f t="shared" si="3"/>
+      <c r="BV4" s="5">
+        <f t="shared" si="4"/>
         <v>125066.2062781055</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>37</v>
       </c>
@@ -1423,283 +1456,287 @@
         <v>106615.54357770366</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:BP5" si="4">SUM(E6:E7)</f>
+        <f t="shared" ref="E5:BQ5" si="5">SUM(E6:E7)</f>
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106615.54357770366</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16396.690000000002</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106593.93710049389</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106899.95749797703</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20916.34</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>107206.85644902731</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18116.34</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>107514.63647588308</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29064.35</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>107823.30010802369</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>108132.84988219042</v>
       </c>
       <c r="S5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89978.67</v>
       </c>
       <c r="T5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>108842.82003705943</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51312.25</v>
       </c>
       <c r="V5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>109556.97743247374</v>
       </c>
       <c r="W5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68758.320000000007</v>
       </c>
       <c r="X5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>110275.34581702357</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" ref="Y5:AA5" si="5">SUM(Y6:Y7)</f>
+        <f t="shared" ref="Y5:AA5" si="6">SUM(Y6:Y7)</f>
         <v>0</v>
       </c>
       <c r="Z5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>112231.19461044938</v>
       </c>
       <c r="AA5" s="5">
+        <f t="shared" si="6"/>
+        <v>76268.36</v>
+      </c>
+      <c r="AB5" s="5">
         <f t="shared" si="5"/>
-        <v>76268.36</v>
-      </c>
-      <c r="AB5" s="5">
-        <f t="shared" si="4"/>
         <v>112955.55421269746</v>
       </c>
       <c r="AC5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AC5" si="7">SUM(AC6:AC7)</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="5">
+        <f t="shared" si="5"/>
         <v>113488.68408053627</v>
       </c>
-      <c r="AD5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AE5" s="5">
+        <f t="shared" si="5"/>
         <v>114022.34594505926</v>
       </c>
-      <c r="AE5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AF5" s="5">
+        <f t="shared" si="5"/>
         <v>114557.3798253882</v>
       </c>
-      <c r="AF5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AG5" s="5">
+        <f t="shared" si="5"/>
         <v>115093.79314638168</v>
       </c>
-      <c r="AG5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AH5" s="5">
+        <f t="shared" si="5"/>
         <v>115631.58971258732</v>
       </c>
-      <c r="AH5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AI5" s="5">
+        <f t="shared" si="5"/>
         <v>116170.77332340677</v>
       </c>
-      <c r="AI5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AJ5" s="5">
+        <f t="shared" si="5"/>
         <v>116711.34778889181</v>
       </c>
-      <c r="AJ5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AK5" s="5">
+        <f t="shared" si="5"/>
         <v>117253.31692984366</v>
       </c>
-      <c r="AK5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AL5" s="5">
+        <f t="shared" si="5"/>
         <v>117796.68457784381</v>
       </c>
-      <c r="AL5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AM5" s="5">
+        <f t="shared" si="5"/>
         <v>118295.08799702271</v>
       </c>
-      <c r="AM5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AN5" s="5">
+        <f t="shared" si="5"/>
         <v>118841.05812756054</v>
       </c>
-      <c r="AN5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AO5" s="5">
+        <f t="shared" si="5"/>
         <v>119388.63976029815</v>
       </c>
-      <c r="AO5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AP5" s="5">
+        <f t="shared" si="5"/>
         <v>119937.6363443998</v>
       </c>
-      <c r="AP5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AQ5" s="5">
+        <f t="shared" si="5"/>
         <v>120488.05089229152</v>
       </c>
-      <c r="AQ5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AR5" s="5">
+        <f t="shared" si="5"/>
         <v>121039.88729760991</v>
       </c>
-      <c r="AR5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AS5" s="5">
+        <f t="shared" si="5"/>
         <v>121593.14946878582</v>
       </c>
-      <c r="AS5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AT5" s="5">
+        <f t="shared" si="5"/>
         <v>122147.84132529711</v>
       </c>
-      <c r="AT5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AU5" s="5">
+        <f t="shared" si="5"/>
         <v>122703.96679768368</v>
       </c>
-      <c r="AU5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AV5" s="5">
+        <f t="shared" si="5"/>
         <v>123261.52982757895</v>
       </c>
-      <c r="AV5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AW5" s="5">
+        <f t="shared" si="5"/>
         <v>123820.53436774146</v>
       </c>
-      <c r="AW5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AX5" s="5">
+        <f t="shared" si="5"/>
         <v>124380.98438208665</v>
       </c>
-      <c r="AX5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AY5" s="5">
+        <f t="shared" si="5"/>
         <v>124894.89443721721</v>
       </c>
-      <c r="AY5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AZ5" s="5">
+        <f t="shared" si="5"/>
         <v>125458.03405444659</v>
       </c>
-      <c r="AZ5" s="5">
-        <f t="shared" si="4"/>
+      <c r="BA5" s="5">
+        <f t="shared" si="5"/>
         <v>126022.83959052119</v>
       </c>
-      <c r="BA5" s="5">
-        <f t="shared" si="4"/>
+      <c r="BB5" s="5">
+        <f t="shared" si="5"/>
         <v>126589.10761355137</v>
       </c>
-      <c r="BB5" s="5">
-        <f t="shared" si="4"/>
+      <c r="BC5" s="5">
+        <f t="shared" si="5"/>
         <v>127156.84123962262</v>
       </c>
-      <c r="BC5" s="5">
-        <f t="shared" si="4"/>
+      <c r="BD5" s="5">
+        <f t="shared" si="5"/>
         <v>127726.04449687258</v>
       </c>
-      <c r="BD5" s="5">
-        <f t="shared" si="4"/>
+      <c r="BE5" s="5">
+        <f t="shared" si="5"/>
         <v>128296.72142875013</v>
       </c>
-      <c r="BE5" s="5">
-        <f t="shared" si="4"/>
+      <c r="BF5" s="5">
+        <f t="shared" si="5"/>
         <v>128868.87609013708</v>
       </c>
-      <c r="BF5" s="5">
-        <f t="shared" si="4"/>
+      <c r="BG5" s="5">
+        <f t="shared" si="5"/>
         <v>129442.51254736367</v>
       </c>
-      <c r="BG5" s="5">
-        <f t="shared" si="4"/>
+      <c r="BH5" s="5">
+        <f t="shared" si="5"/>
         <v>129968.9979181941</v>
       </c>
-      <c r="BH5" s="5">
-        <f t="shared" si="4"/>
+      <c r="BI5" s="5">
+        <f t="shared" si="5"/>
         <v>130478.76360789448</v>
       </c>
-      <c r="BI5" s="5">
-        <f t="shared" si="4"/>
+      <c r="BJ5" s="5">
+        <f t="shared" si="5"/>
         <v>130989.42291756609</v>
       </c>
-      <c r="BJ5" s="5">
-        <f t="shared" si="4"/>
+      <c r="BK5" s="5">
+        <f t="shared" si="5"/>
         <v>131501.07479386276</v>
       </c>
-      <c r="BK5" s="5">
-        <f t="shared" si="4"/>
+      <c r="BL5" s="5">
+        <f t="shared" si="5"/>
         <v>132013.72261231358</v>
       </c>
-      <c r="BL5" s="5">
-        <f t="shared" si="4"/>
+      <c r="BM5" s="5">
+        <f t="shared" si="5"/>
         <v>132527.36923503783</v>
       </c>
-      <c r="BM5" s="5">
-        <f t="shared" si="4"/>
+      <c r="BN5" s="5">
+        <f t="shared" si="5"/>
         <v>133042.01752951712</v>
       </c>
-      <c r="BN5" s="5">
-        <f t="shared" si="4"/>
+      <c r="BO5" s="5">
+        <f t="shared" si="5"/>
         <v>133557.67037144973</v>
       </c>
-      <c r="BO5" s="5">
-        <f t="shared" si="4"/>
+      <c r="BP5" s="5">
+        <f t="shared" si="5"/>
         <v>134074.33064478962</v>
       </c>
-      <c r="BP5" s="5">
-        <f t="shared" si="4"/>
+      <c r="BQ5" s="5">
+        <f t="shared" si="5"/>
         <v>134592.00124177034</v>
       </c>
-      <c r="BQ5" s="5">
-        <f t="shared" ref="BQ5:BU5" si="6">SUM(BQ6:BQ7)</f>
+      <c r="BR5" s="5">
+        <f t="shared" ref="BR5:BV5" si="8">SUM(BR6:BR7)</f>
         <v>135110.68506292874</v>
       </c>
-      <c r="BR5" s="5">
-        <f t="shared" si="6"/>
+      <c r="BS5" s="5">
+        <f t="shared" si="8"/>
         <v>135630.38501712884</v>
       </c>
-      <c r="BS5" s="5">
-        <f t="shared" si="6"/>
+      <c r="BT5" s="5">
+        <f t="shared" si="8"/>
         <v>136151.1040215856</v>
       </c>
-      <c r="BT5" s="5">
-        <f t="shared" si="6"/>
+      <c r="BU5" s="5">
+        <f t="shared" si="8"/>
         <v>136672.84500188916</v>
       </c>
-      <c r="BU5" s="5">
-        <f t="shared" si="6"/>
+      <c r="BV5" s="5">
+        <f t="shared" si="8"/>
         <v>125066.2062781055</v>
       </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>0</v>
       </c>
@@ -1773,143 +1810,144 @@
       <c r="AB6" s="2">
         <v>109929.35114352005</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2">
         <v>110244.94717690691</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AE6" s="2">
         <v>110561.44925454176</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AF6" s="2">
         <v>110878.85997758587</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AG6" s="2">
         <v>111197.18195466821</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AH6" s="2">
         <v>111516.41780190682</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AI6" s="2">
         <v>111836.57014293033</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AJ6" s="2">
         <v>112157.64160889959</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AK6" s="2">
         <v>112479.63483852924</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AL6" s="2">
         <v>112802.55247810938</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AM6" s="2">
         <v>113126.39718152737</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AN6" s="2">
         <v>113451.17161028957</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AO6" s="2">
         <v>113776.87843354329</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AP6" s="2">
         <v>114103.52032809868</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="AQ6" s="2">
         <v>114431.09997845073</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="AR6" s="2">
         <v>114759.6200768014</v>
       </c>
-      <c r="AR6" s="2">
+      <c r="AS6" s="2">
         <v>115089.08332308161</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AT6" s="2">
         <v>115419.49242497355</v>
       </c>
-      <c r="AT6" s="2">
+      <c r="AU6" s="2">
         <v>115750.85009793288</v>
       </c>
-      <c r="AU6" s="2">
+      <c r="AV6" s="2">
         <v>116083.15906521108</v>
       </c>
-      <c r="AV6" s="2">
+      <c r="AW6" s="2">
         <v>116416.42205787776</v>
       </c>
-      <c r="AW6" s="2">
+      <c r="AX6" s="2">
         <v>116750.6418148432</v>
       </c>
-      <c r="AX6" s="2">
+      <c r="AY6" s="2">
         <v>117085.82108288081</v>
       </c>
-      <c r="AY6" s="2">
+      <c r="AZ6" s="2">
         <v>117421.9626166497</v>
       </c>
-      <c r="AZ6" s="2">
+      <c r="BA6" s="2">
         <v>117759.06917871731</v>
       </c>
-      <c r="BA6" s="2">
+      <c r="BB6" s="2">
         <v>118097.14353958215</v>
       </c>
-      <c r="BB6" s="2">
+      <c r="BC6" s="2">
         <v>118436.18847769655</v>
       </c>
-      <c r="BC6" s="2">
+      <c r="BD6" s="2">
         <v>118776.20677948948</v>
       </c>
-      <c r="BD6" s="2">
+      <c r="BE6" s="2">
         <v>119117.2012393895</v>
       </c>
-      <c r="BE6" s="2">
+      <c r="BF6" s="2">
         <v>119459.17465984766</v>
       </c>
-      <c r="BF6" s="2">
+      <c r="BG6" s="2">
         <v>119802.12985136057</v>
       </c>
-      <c r="BG6" s="2">
+      <c r="BH6" s="2">
         <v>120146.0696324935</v>
       </c>
-      <c r="BH6" s="2">
+      <c r="BI6" s="2">
         <v>120490.99682990351</v>
       </c>
-      <c r="BI6" s="2">
+      <c r="BJ6" s="2">
         <v>120836.91427836275</v>
       </c>
-      <c r="BJ6" s="2">
+      <c r="BK6" s="2">
         <v>121183.82482078168</v>
       </c>
-      <c r="BK6" s="2">
+      <c r="BL6" s="2">
         <v>121531.73130823248</v>
       </c>
-      <c r="BL6" s="2">
+      <c r="BM6" s="2">
         <v>121880.63659997245</v>
       </c>
-      <c r="BM6" s="2">
+      <c r="BN6" s="2">
         <v>122230.54356346755</v>
       </c>
-      <c r="BN6" s="2">
+      <c r="BO6" s="2">
         <v>122581.45507441595</v>
       </c>
-      <c r="BO6" s="2">
+      <c r="BP6" s="2">
         <v>122933.37401677165</v>
       </c>
-      <c r="BP6" s="2">
+      <c r="BQ6" s="2">
         <v>123286.30328276817</v>
       </c>
-      <c r="BQ6" s="2">
+      <c r="BR6" s="2">
         <v>123640.24577294236</v>
       </c>
-      <c r="BR6" s="2">
+      <c r="BS6" s="2">
         <v>123995.20439615824</v>
       </c>
-      <c r="BS6" s="2">
+      <c r="BT6" s="2">
         <v>124351.18206963081</v>
       </c>
-      <c r="BT6" s="2">
+      <c r="BU6" s="2">
         <v>124708.18171895017</v>
       </c>
-      <c r="BU6" s="2">
+      <c r="BV6" s="2">
         <v>125066.2062781055</v>
       </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
@@ -1964,143 +2002,144 @@
       <c r="AB7" s="2">
         <v>3026.2030691774053</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2">
         <v>3243.736903629368</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>3460.8966905174989</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>3678.5198478023194</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AG7" s="2">
         <v>3896.6111917134726</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AH7" s="2">
         <v>4115.1719106805022</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AI7" s="2">
         <v>4334.2031804764392</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AJ7" s="2">
         <v>4553.7061799922249</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AK7" s="2">
         <v>4773.6820913144138</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AL7" s="2">
         <v>4994.1320997344374</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AM7" s="2">
         <v>5168.6908154953417</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AN7" s="2">
         <v>5389.8865172709584</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AO7" s="2">
         <v>5611.7613267548541</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AP7" s="2">
         <v>5834.1160163011245</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="AQ7" s="2">
         <v>6056.9509138407848</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="AR7" s="2">
         <v>6280.2672208085205</v>
       </c>
-      <c r="AR7" s="2">
+      <c r="AS7" s="2">
         <v>6504.0661457042106</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AT7" s="2">
         <v>6728.3489003235554</v>
       </c>
-      <c r="AT7" s="2">
+      <c r="AU7" s="2">
         <v>6953.1166997507917</v>
       </c>
-      <c r="AU7" s="2">
+      <c r="AV7" s="2">
         <v>7178.3707623678711</v>
       </c>
-      <c r="AV7" s="2">
+      <c r="AW7" s="2">
         <v>7404.1123098637072</v>
       </c>
-      <c r="AW7" s="2">
+      <c r="AX7" s="2">
         <v>7630.3425672434551</v>
       </c>
-      <c r="AX7" s="2">
+      <c r="AY7" s="2">
         <v>7809.0733543363986</v>
       </c>
-      <c r="AY7" s="2">
+      <c r="AZ7" s="2">
         <v>8036.0714377968825</v>
       </c>
-      <c r="AZ7" s="2">
+      <c r="BA7" s="2">
         <v>8263.7704118038819</v>
       </c>
-      <c r="BA7" s="2">
+      <c r="BB7" s="2">
         <v>8491.9640739692313</v>
       </c>
-      <c r="BB7" s="2">
+      <c r="BC7" s="2">
         <v>8720.6527619260814</v>
       </c>
-      <c r="BC7" s="2">
+      <c r="BD7" s="2">
         <v>8949.8377173830977</v>
       </c>
-      <c r="BD7" s="2">
+      <c r="BE7" s="2">
         <v>9179.5201893606336</v>
       </c>
-      <c r="BE7" s="2">
+      <c r="BF7" s="2">
         <v>9409.7014302894295</v>
       </c>
-      <c r="BF7" s="2">
+      <c r="BG7" s="2">
         <v>9640.3826960030947</v>
       </c>
-      <c r="BG7" s="2">
+      <c r="BH7" s="2">
         <v>9822.9282857006074</v>
       </c>
-      <c r="BH7" s="2">
+      <c r="BI7" s="2">
         <v>9987.766777990968</v>
       </c>
-      <c r="BI7" s="2">
+      <c r="BJ7" s="2">
         <v>10152.508639203334</v>
       </c>
-      <c r="BJ7" s="2">
+      <c r="BK7" s="2">
         <v>10317.249973081094</v>
       </c>
-      <c r="BK7" s="2">
+      <c r="BL7" s="2">
         <v>10481.991304081086</v>
       </c>
-      <c r="BL7" s="2">
+      <c r="BM7" s="2">
         <v>10646.732635065375</v>
       </c>
-      <c r="BM7" s="2">
+      <c r="BN7" s="2">
         <v>10811.473966049576</v>
       </c>
-      <c r="BN7" s="2">
+      <c r="BO7" s="2">
         <v>10976.215297033777</v>
       </c>
-      <c r="BO7" s="2">
+      <c r="BP7" s="2">
         <v>11140.956628017979</v>
       </c>
-      <c r="BP7" s="2">
+      <c r="BQ7" s="2">
         <v>11305.69795900218</v>
       </c>
-      <c r="BQ7" s="2">
+      <c r="BR7" s="2">
         <v>11470.439289986381</v>
       </c>
-      <c r="BR7" s="2">
+      <c r="BS7" s="2">
         <v>11635.180620970583</v>
       </c>
-      <c r="BS7" s="2">
+      <c r="BT7" s="2">
         <v>11799.921951954784</v>
       </c>
-      <c r="BT7" s="2">
+      <c r="BU7" s="2">
         <v>11964.663282938986</v>
       </c>
-      <c r="BU7" s="2">
+      <c r="BV7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>38</v>
       </c>
@@ -2109,99 +2148,99 @@
         <v>1712651</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ref="C8:AG8" si="7">SUM(C9:C12)</f>
+        <f t="shared" ref="C8:AH8" si="9">SUM(C9:C12)</f>
         <v>65100</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1900000</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>70001</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>150000</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>107225</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10000</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>125634.4</v>
       </c>
       <c r="N8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>320000</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>180000</v>
       </c>
       <c r="R8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>37807</v>
       </c>
       <c r="V8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>646883.6</v>
       </c>
       <c r="X8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA8" s="5">
@@ -2209,196 +2248,200 @@
         <v>356588.14</v>
       </c>
       <c r="AB8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC8" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="AC8" si="10">SUM(AC9:AC12)</f>
+        <v>-188037.23</v>
       </c>
       <c r="AD8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH8" s="5">
-        <f t="shared" ref="AH8:BM8" si="8">SUM(AH9:AH12)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AI8:BN8" si="11">SUM(AI9:AI12)</f>
         <v>0</v>
       </c>
       <c r="AJ8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AM8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AO8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AP8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AR8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AS8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AT8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AU8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AV8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AX8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AY8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AZ8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BA8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BB8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BC8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BD8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BE8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BF8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BG8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BH8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BI8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BJ8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BK8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BL8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BM8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BN8" s="5">
-        <f t="shared" ref="BN8:BU8" si="9">SUM(BN9:BN12)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BO8" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="BO8:BV8" si="12">SUM(BO9:BO12)</f>
         <v>0</v>
       </c>
       <c r="BP8" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BQ8" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BR8" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BS8" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BT8" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BU8" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BV8" s="5">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="7">
-        <f t="shared" ref="B9:B16" si="10">C9+E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9</f>
+        <f t="shared" ref="B9:B16" si="13">C9+E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9</f>
         <v>380651</v>
       </c>
       <c r="C9" s="2">
@@ -2495,13 +2538,14 @@
       <c r="BS9" s="2"/>
       <c r="BT9" s="2"/>
       <c r="BU9" s="2"/>
+      <c r="BV9" s="2"/>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="7">
-        <f t="shared" ref="B10" si="11">C10+E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10</f>
+        <f t="shared" ref="B10" si="14">C10+E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10</f>
         <v>497000</v>
       </c>
       <c r="C10" s="2"/>
@@ -2581,13 +2625,14 @@
       <c r="BS10" s="2"/>
       <c r="BT10" s="2"/>
       <c r="BU10" s="2"/>
+      <c r="BV10" s="2"/>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>991000</v>
       </c>
       <c r="C11" s="2"/>
@@ -2680,13 +2725,14 @@
       <c r="BS11" s="2"/>
       <c r="BT11" s="2"/>
       <c r="BU11" s="2"/>
+      <c r="BV11" s="2"/>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-156000</v>
       </c>
       <c r="C12" s="2"/>
@@ -2718,7 +2764,9 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
+      <c r="AC12" s="10">
+        <v>-188037.23</v>
+      </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -2763,13 +2811,14 @@
       <c r="BS12" s="2"/>
       <c r="BT12" s="2"/>
       <c r="BU12" s="2"/>
+      <c r="BV12" s="2"/>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="7">
-        <f t="shared" ref="B13" si="12">C13+E13+G13+I13+K13+M13+O13+Q13+S13+U13+W13+Y13</f>
+        <f t="shared" ref="B13" si="15">C13+E13+G13+I13+K13+M13+O13+Q13+S13+U13+W13+Y13</f>
         <v>0</v>
       </c>
       <c r="C13" s="2"/>
@@ -2798,7 +2847,9 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
+      <c r="AC13" s="10">
+        <v>-23794.62</v>
+      </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -2843,8 +2894,9 @@
       <c r="BS13" s="2"/>
       <c r="BT13" s="2"/>
       <c r="BU13" s="2"/>
+      <c r="BV13" s="2"/>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
       <c r="B14" s="7"/>
       <c r="C14" s="2"/>
@@ -2918,13 +2970,14 @@
       <c r="BS14" s="2"/>
       <c r="BT14" s="2"/>
       <c r="BU14" s="2"/>
+      <c r="BV14" s="2"/>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-1988221.31</v>
       </c>
       <c r="C15" s="10">
@@ -2940,7 +2993,7 @@
         <v>-54706.32</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" ref="F15:J15" si="13">F16+F40+F48</f>
+        <f t="shared" ref="F15:J15" si="16">F16+F40+F48</f>
         <v>-408527.40230918775</v>
       </c>
       <c r="G15" s="10">
@@ -2948,7 +3001,7 @@
         <v>-175296.1</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-409516.0182064494</v>
       </c>
       <c r="I15" s="10">
@@ -2956,7 +3009,7 @@
         <v>-126600.84</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-305118.589039805</v>
       </c>
       <c r="K15" s="10">
@@ -2964,7 +3017,7 @@
         <v>-7684.3</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" ref="L15:AB15" si="14">L16+L40+L48</f>
+        <f t="shared" ref="L15:AB15" si="17">L16+L40+L48</f>
         <v>-305163.02165031742</v>
       </c>
       <c r="M15" s="10">
@@ -2972,7 +3025,7 @@
         <v>-157263.75000000003</v>
       </c>
       <c r="N15" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-305207.5818223544</v>
       </c>
       <c r="O15" s="10">
@@ -2980,7 +3033,7 @@
         <v>-325460.69999999995</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-282184.56565269525</v>
       </c>
       <c r="Q15" s="10">
@@ -2988,7 +3041,7 @@
         <v>-186366.61</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-13655.396624750776</v>
       </c>
       <c r="S15" s="10">
@@ -2996,7 +3049,7 @@
         <v>-13708.77</v>
       </c>
       <c r="T15" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-13700.341682867411</v>
       </c>
       <c r="U15" s="10">
@@ -3004,7 +3057,7 @@
         <v>-143558.44999999998</v>
       </c>
       <c r="V15" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-13745.41577369382</v>
       </c>
       <c r="W15" s="10">
@@ -3012,7 +3065,7 @@
         <v>-592353.26</v>
       </c>
       <c r="X15" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-13790.619267669847</v>
       </c>
       <c r="Y15" s="10">
@@ -3020,7 +3073,7 @@
         <v>-153165.56</v>
       </c>
       <c r="Z15" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-13927.009888864799</v>
       </c>
       <c r="AA15" s="10">
@@ -3028,196 +3081,200 @@
         <v>-205846.8</v>
       </c>
       <c r="AB15" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-13972.734721153462</v>
       </c>
       <c r="AC15" s="5">
-        <f t="shared" ref="AC15:BU15" si="15">AC16-AC40-AC48</f>
+        <f t="shared" ref="AC15" si="18">AC16+AC40+AC48</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="5">
+        <f t="shared" ref="AD15:BV15" si="19">AD16-AD40-AD48</f>
         <v>14018.590824804574</v>
       </c>
-      <c r="AD15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AE15" s="5">
+        <f t="shared" si="19"/>
         <v>14064.578576684915</v>
       </c>
-      <c r="AE15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AF15" s="5">
+        <f t="shared" si="19"/>
         <v>14110.698354743226</v>
       </c>
-      <c r="AF15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AG15" s="5">
+        <f t="shared" si="19"/>
         <v>14156.95053801329</v>
       </c>
-      <c r="AG15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AH15" s="5">
+        <f t="shared" si="19"/>
         <v>14203.335506617061</v>
       </c>
-      <c r="AH15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AI15" s="5">
+        <f t="shared" si="19"/>
         <v>14249.853641767777</v>
       </c>
-      <c r="AI15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AJ15" s="5">
+        <f t="shared" si="19"/>
         <v>14296.505325773111</v>
       </c>
-      <c r="AJ15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AK15" s="5">
+        <f t="shared" si="19"/>
         <v>14343.290942038298</v>
       </c>
-      <c r="AK15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AL15" s="5">
+        <f t="shared" si="19"/>
         <v>14390.210875069293</v>
       </c>
-      <c r="AL15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AM15" s="5">
+        <f t="shared" si="19"/>
         <v>14437.265510475925</v>
       </c>
-      <c r="AM15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AN15" s="5">
+        <f t="shared" si="19"/>
         <v>14484.455234975074</v>
       </c>
-      <c r="AN15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AO15" s="5">
+        <f t="shared" si="19"/>
         <v>14531.780436393839</v>
       </c>
-      <c r="AO15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AP15" s="5">
+        <f t="shared" si="19"/>
         <v>14579.241503672736</v>
       </c>
-      <c r="AP15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AQ15" s="5">
+        <f t="shared" si="19"/>
         <v>14626.838826868892</v>
       </c>
-      <c r="AQ15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AR15" s="5">
+        <f t="shared" si="19"/>
         <v>14674.572797159242</v>
       </c>
-      <c r="AR15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AS15" s="5">
+        <f t="shared" si="19"/>
         <v>14722.443806843758</v>
       </c>
-      <c r="AS15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AT15" s="5">
+        <f t="shared" si="19"/>
         <v>14770.452249348658</v>
       </c>
-      <c r="AT15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AU15" s="5">
+        <f t="shared" si="19"/>
         <v>14818.598519229647</v>
       </c>
-      <c r="AU15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AV15" s="5">
+        <f t="shared" si="19"/>
         <v>14866.883012175169</v>
       </c>
-      <c r="AV15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AW15" s="5">
+        <f t="shared" si="19"/>
         <v>14915.306125009638</v>
       </c>
-      <c r="AW15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AX15" s="5">
+        <f t="shared" si="19"/>
         <v>14963.868255696718</v>
       </c>
-      <c r="AX15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AY15" s="5">
+        <f t="shared" si="19"/>
         <v>15012.56980334258</v>
       </c>
-      <c r="AY15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AZ15" s="5">
+        <f t="shared" si="19"/>
         <v>15061.411168199204</v>
       </c>
-      <c r="AZ15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BA15" s="5">
+        <f t="shared" si="19"/>
         <v>15110.392751667627</v>
       </c>
-      <c r="BA15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BB15" s="5">
+        <f t="shared" si="19"/>
         <v>15159.514956301286</v>
       </c>
-      <c r="BB15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BC15" s="5">
+        <f t="shared" si="19"/>
         <v>15208.778185809309</v>
       </c>
-      <c r="BC15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BD15" s="5">
+        <f t="shared" si="19"/>
         <v>15258.182845059824</v>
       </c>
-      <c r="BD15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BE15" s="5">
+        <f t="shared" si="19"/>
         <v>15307.729340083293</v>
       </c>
-      <c r="BE15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BF15" s="5">
+        <f t="shared" si="19"/>
         <v>15357.418078075865</v>
       </c>
-      <c r="BF15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BG15" s="5">
+        <f t="shared" si="19"/>
         <v>15407.249467402691</v>
       </c>
-      <c r="BG15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BH15" s="5">
+        <f t="shared" si="19"/>
         <v>15457.223917601306</v>
       </c>
-      <c r="BH15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BI15" s="5">
+        <f t="shared" si="19"/>
         <v>15507.341839384981</v>
       </c>
-      <c r="BI15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BJ15" s="5">
+        <f t="shared" si="19"/>
         <v>15557.603644646108</v>
       </c>
-      <c r="BJ15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BK15" s="5">
+        <f t="shared" si="19"/>
         <v>15608.009746459578</v>
       </c>
-      <c r="BK15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BL15" s="5">
+        <f t="shared" si="19"/>
         <v>15658.560559086181</v>
       </c>
-      <c r="BL15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BM15" s="5">
+        <f t="shared" si="19"/>
         <v>15709.256497975995</v>
       </c>
-      <c r="BM15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BN15" s="5">
+        <f t="shared" si="19"/>
         <v>15760.097979771836</v>
       </c>
-      <c r="BN15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BO15" s="5">
+        <f t="shared" si="19"/>
         <v>15811.085422312635</v>
       </c>
-      <c r="BO15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BP15" s="5">
+        <f t="shared" si="19"/>
         <v>15862.219244636921</v>
       </c>
-      <c r="BP15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BQ15" s="5">
+        <f t="shared" si="19"/>
         <v>15913.499866986218</v>
       </c>
-      <c r="BQ15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BR15" s="5">
+        <f t="shared" si="19"/>
         <v>15964.927710808526</v>
       </c>
-      <c r="BR15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BS15" s="5">
+        <f t="shared" si="19"/>
         <v>16016.503198761791</v>
       </c>
-      <c r="BS15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BT15" s="5">
+        <f t="shared" si="19"/>
         <v>16068.226754717358</v>
       </c>
-      <c r="BT15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BU15" s="5">
+        <f t="shared" si="19"/>
         <v>16120.09880376346</v>
       </c>
-      <c r="BU15" s="5">
-        <f t="shared" si="15"/>
+      <c r="BV15" s="5">
+        <f t="shared" si="19"/>
         <v>16172.119772208731</v>
       </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-41829.279999999999</v>
       </c>
       <c r="C16" s="10">
@@ -3225,287 +3282,291 @@
         <v>-67</v>
       </c>
       <c r="D16" s="10">
-        <f t="shared" ref="D16:BO16" si="16">SUM(D17:D24)</f>
+        <f t="shared" ref="D16:BP16" si="20">SUM(D17:D24)</f>
         <v>-104441.73458080005</v>
       </c>
       <c r="E16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-1852.12</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-104441.73458080005</v>
       </c>
       <c r="G16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-4563.88</v>
       </c>
       <c r="H16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-104441.73458080005</v>
       </c>
       <c r="I16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-4543.79</v>
       </c>
       <c r="J16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-3569.94</v>
       </c>
       <c r="L16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-3672.54</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-3497.54</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-3695.1800000000003</v>
       </c>
       <c r="R16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-3889.4</v>
       </c>
       <c r="T16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-4751.5199999999995</v>
       </c>
       <c r="V16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-3917.34</v>
       </c>
       <c r="X16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-3809.03</v>
       </c>
       <c r="Z16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AA16" s="10">
-        <f t="shared" ref="AA16" si="17">SUM(AA17:AA24)</f>
+        <f t="shared" ref="AA16" si="21">SUM(AA17:AA24)</f>
         <v>-3532.46</v>
       </c>
       <c r="AB16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AC16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="AC16" si="22">SUM(AC17:AC24)</f>
         <v>0</v>
       </c>
       <c r="AD16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AE16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AG16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AH16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AI16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AJ16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AM16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AN16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AO16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AP16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AQ16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AR16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AS16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AT16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AV16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AW16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AX16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AY16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AZ16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BA16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BB16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BC16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BD16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BE16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BF16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BG16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BH16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BI16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BJ16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BK16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BL16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BM16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BN16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BO16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BP16" s="10">
-        <f t="shared" ref="BP16:BU16" si="18">SUM(BP17:BP24)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BQ16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="BQ16:BV16" si="23">SUM(BQ17:BQ24)</f>
         <v>0</v>
       </c>
       <c r="BR16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BS16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BT16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BU16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BV16" s="10">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>1</v>
       </c>
@@ -3711,8 +3772,11 @@
       <c r="BU17" s="2">
         <v>0</v>
       </c>
+      <c r="BV17" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>11</v>
       </c>
@@ -3813,8 +3877,9 @@
       <c r="BS18" s="10"/>
       <c r="BT18" s="10"/>
       <c r="BU18" s="10"/>
+      <c r="BV18" s="10"/>
     </row>
-    <row r="19" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>12</v>
       </c>
@@ -3890,8 +3955,9 @@
       <c r="BS19" s="10"/>
       <c r="BT19" s="10"/>
       <c r="BU19" s="10"/>
+      <c r="BV19" s="10"/>
     </row>
-    <row r="20" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>30</v>
       </c>
@@ -3974,8 +4040,9 @@
       <c r="BS20" s="10"/>
       <c r="BT20" s="10"/>
       <c r="BU20" s="10"/>
+      <c r="BV20" s="10"/>
     </row>
-    <row r="21" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>14</v>
       </c>
@@ -4070,8 +4137,9 @@
       <c r="BS21" s="10"/>
       <c r="BT21" s="10"/>
       <c r="BU21" s="10"/>
+      <c r="BV21" s="10"/>
     </row>
-    <row r="22" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>13</v>
       </c>
@@ -4174,8 +4242,9 @@
       <c r="BS22" s="10"/>
       <c r="BT22" s="10"/>
       <c r="BU22" s="10"/>
+      <c r="BV22" s="10"/>
     </row>
-    <row r="23" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>29</v>
       </c>
@@ -4261,8 +4330,9 @@
       <c r="BS23" s="10"/>
       <c r="BT23" s="10"/>
       <c r="BU23" s="10"/>
+      <c r="BV23" s="10"/>
     </row>
-    <row r="24" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>16</v>
       </c>
@@ -4372,8 +4442,9 @@
       <c r="BS24" s="10"/>
       <c r="BT24" s="10"/>
       <c r="BU24" s="10"/>
+      <c r="BV24" s="10"/>
     </row>
-    <row r="25" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
@@ -4447,13 +4518,14 @@
       <c r="BS25" s="10"/>
       <c r="BT25" s="10"/>
       <c r="BU25" s="10"/>
+      <c r="BV25" s="10"/>
     </row>
-    <row r="26" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="7">
-        <f t="shared" ref="B26" si="19">C26+E26+G26+I26+K26+M26+O26+Q26+S26+U26+W26+Y26</f>
+        <f t="shared" ref="B26" si="24">C26+E26+G26+I26+K26+M26+O26+Q26+S26+U26+W26+Y26</f>
         <v>-509306.81</v>
       </c>
       <c r="C26" s="10">
@@ -4465,7 +4537,7 @@
         <v>-65653.507640750671</v>
       </c>
       <c r="E26" s="10">
-        <f t="shared" ref="E26:U26" si="20">SUM(E27:E34)</f>
+        <f t="shared" ref="E26:U26" si="25">SUM(E27:E34)</f>
         <v>-262.55</v>
       </c>
       <c r="F26" s="10">
@@ -4473,7 +4545,7 @@
         <v>-65876.818891229414</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>-45200</v>
       </c>
       <c r="H26" s="10">
@@ -4481,7 +4553,7 @@
         <v>-65876.818891229414</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J26" s="10">
@@ -4489,7 +4561,7 @@
         <v>-66065.944566201084</v>
       </c>
       <c r="K26" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>-1900</v>
       </c>
       <c r="L26" s="10">
@@ -4497,7 +4569,7 @@
         <v>-66255.613201830784</v>
       </c>
       <c r="M26" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N26" s="10">
@@ -4505,7 +4577,7 @@
         <v>-61190.224272176725</v>
       </c>
       <c r="O26" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P26" s="10">
@@ -4513,7 +4585,7 @@
         <v>-21001.377400679175</v>
       </c>
       <c r="Q26" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R26" s="10">
@@ -4521,7 +4593,7 @@
         <v>-21061.670228157629</v>
       </c>
       <c r="S26" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>-1900</v>
       </c>
       <c r="T26" s="10">
@@ -4529,7 +4601,7 @@
         <v>-21122.136150237264</v>
       </c>
       <c r="U26" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V26" s="10">
@@ -4549,7 +4621,7 @@
         <v>-2100</v>
       </c>
       <c r="Z26" s="10">
-        <f t="shared" ref="Z26:BU26" si="21">SUM(Z36:Z38)</f>
+        <f t="shared" ref="Z26:BV26" si="26">SUM(Z36:Z38)</f>
         <v>-21343.696035109606</v>
       </c>
       <c r="AA26" s="10">
@@ -4557,191 +4629,195 @@
         <v>0</v>
       </c>
       <c r="AB26" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-21404.971624717167</v>
       </c>
       <c r="AC26" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="AC26" si="27">SUM(AC36:AC38)</f>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="10">
+        <f t="shared" si="26"/>
         <v>-21466.423130336439</v>
       </c>
-      <c r="AD26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AE26" s="10">
+        <f t="shared" si="26"/>
         <v>-21528.051057004479</v>
       </c>
-      <c r="AE26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AF26" s="10">
+        <f t="shared" si="26"/>
         <v>-21589.855911208251</v>
       </c>
-      <c r="AF26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AG26" s="10">
+        <f t="shared" si="26"/>
         <v>-21651.838200888789</v>
       </c>
-      <c r="AG26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AH26" s="10">
+        <f t="shared" si="26"/>
         <v>-21713.998435445377</v>
       </c>
-      <c r="AH26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AI26" s="10">
+        <f t="shared" si="26"/>
         <v>-21776.337125739727</v>
       </c>
-      <c r="AI26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AJ26" s="10">
+        <f t="shared" si="26"/>
         <v>-21838.854784100196</v>
       </c>
-      <c r="AJ26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AK26" s="10">
+        <f t="shared" si="26"/>
         <v>-21901.55192432597</v>
       </c>
-      <c r="AK26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AL26" s="10">
+        <f t="shared" si="26"/>
         <v>-64446.492532590026</v>
       </c>
-      <c r="AL26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AM26" s="10">
+        <f t="shared" si="26"/>
         <v>-21984.459234025133</v>
       </c>
-      <c r="AM26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AN26" s="10">
+        <f t="shared" si="26"/>
         <v>-22047.574389879686</v>
       </c>
-      <c r="AN26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AO26" s="10">
+        <f t="shared" si="26"/>
         <v>-22110.870742954336</v>
       </c>
-      <c r="AO26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AP26" s="10">
+        <f t="shared" si="26"/>
         <v>-22174.348813447948</v>
       </c>
-      <c r="AP26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AQ26" s="10">
+        <f t="shared" si="26"/>
         <v>-22238.009123052834</v>
       </c>
-      <c r="AQ26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AR26" s="10">
+        <f t="shared" si="26"/>
         <v>-22301.852194959021</v>
       </c>
-      <c r="AR26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AS26" s="10">
+        <f t="shared" si="26"/>
         <v>-22365.878553858565</v>
       </c>
-      <c r="AS26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AT26" s="10">
+        <f t="shared" si="26"/>
         <v>-22430.088725949863</v>
       </c>
-      <c r="AT26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AU26" s="10">
+        <f t="shared" si="26"/>
         <v>-22494.483238941968</v>
       </c>
-      <c r="AU26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AV26" s="10">
+        <f t="shared" si="26"/>
         <v>-22559.06262205894</v>
       </c>
-      <c r="AV26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AW26" s="10">
+        <f t="shared" si="26"/>
         <v>-22623.827406044176</v>
       </c>
-      <c r="AW26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AX26" s="10">
+        <f t="shared" si="26"/>
         <v>-66657.713815544965</v>
       </c>
-      <c r="AX26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AY26" s="10">
+        <f t="shared" si="26"/>
         <v>-22709.381866529005</v>
       </c>
-      <c r="AY26" s="10">
-        <f t="shared" si="21"/>
+      <c r="AZ26" s="10">
+        <f t="shared" si="26"/>
         <v>-22774.578201840646</v>
       </c>
-      <c r="AZ26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BA26" s="10">
+        <f t="shared" si="26"/>
         <v>-22839.961709227824</v>
       </c>
-      <c r="BA26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BB26" s="10">
+        <f t="shared" si="26"/>
         <v>-22905.532926042604</v>
       </c>
-      <c r="BB26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BC26" s="10">
+        <f t="shared" si="26"/>
         <v>-22971.292391179752</v>
       </c>
-      <c r="BC26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BD26" s="10">
+        <f t="shared" si="26"/>
         <v>-23037.240645081121</v>
       </c>
-      <c r="BD26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BE26" s="10">
+        <f t="shared" si="26"/>
         <v>-23103.378229740149</v>
       </c>
-      <c r="BE26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BF26" s="10">
+        <f t="shared" si="26"/>
         <v>-23169.70568870625</v>
       </c>
-      <c r="BF26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BG26" s="10">
+        <f t="shared" si="26"/>
         <v>-23236.223567089342</v>
       </c>
-      <c r="BG26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BH26" s="10">
+        <f t="shared" si="26"/>
         <v>-23302.932411564278</v>
       </c>
-      <c r="BH26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BI26" s="10">
+        <f t="shared" si="26"/>
         <v>-23369.832770375368</v>
       </c>
-      <c r="BI26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BJ26" s="10">
+        <f t="shared" si="26"/>
         <v>-68944.773634954356</v>
       </c>
-      <c r="BJ26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BK26" s="10">
+        <f t="shared" si="26"/>
         <v>-23458.118120746487</v>
       </c>
-      <c r="BK26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BL26" s="10">
+        <f t="shared" si="26"/>
         <v>-23525.464002011286</v>
       </c>
-      <c r="BL26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BM26" s="10">
+        <f t="shared" si="26"/>
         <v>-23593.003226480341</v>
       </c>
-      <c r="BM26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BN26" s="10">
+        <f t="shared" si="26"/>
         <v>-23660.736349222414</v>
       </c>
-      <c r="BN26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BO26" s="10">
+        <f t="shared" si="26"/>
         <v>-23728.663926899808</v>
       </c>
-      <c r="BO26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BP26" s="10">
+        <f t="shared" si="26"/>
         <v>-23796.786517772947</v>
       </c>
-      <c r="BP26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BQ26" s="10">
+        <f t="shared" si="26"/>
         <v>-23865.104681704961</v>
       </c>
-      <c r="BQ26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BR26" s="10">
+        <f t="shared" si="26"/>
         <v>-23933.618980166299</v>
       </c>
-      <c r="BR26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BS26" s="10">
+        <f t="shared" si="26"/>
         <v>-24002.329976239329</v>
       </c>
-      <c r="BS26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BT26" s="10">
+        <f t="shared" si="26"/>
         <v>-24071.238234622968</v>
       </c>
-      <c r="BT26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BU26" s="10">
+        <f t="shared" si="26"/>
         <v>-24140.344321637334</v>
       </c>
-      <c r="BU26" s="10">
-        <f t="shared" si="21"/>
+      <c r="BV26" s="10">
+        <f t="shared" si="26"/>
         <v>-71310.271942298365</v>
       </c>
     </row>
-    <row r="27" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>21</v>
       </c>
@@ -4817,8 +4893,9 @@
       <c r="BS27" s="10"/>
       <c r="BT27" s="10"/>
       <c r="BU27" s="10"/>
+      <c r="BV27" s="10"/>
     </row>
-    <row r="28" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>15</v>
       </c>
@@ -4894,8 +4971,9 @@
       <c r="BS28" s="10"/>
       <c r="BT28" s="10"/>
       <c r="BU28" s="10"/>
+      <c r="BV28" s="10"/>
     </row>
-    <row r="29" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>35</v>
       </c>
@@ -4973,8 +5051,9 @@
       <c r="BS29" s="10"/>
       <c r="BT29" s="10"/>
       <c r="BU29" s="10"/>
+      <c r="BV29" s="10"/>
     </row>
-    <row r="30" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>36</v>
       </c>
@@ -5056,8 +5135,9 @@
       <c r="BS30" s="10"/>
       <c r="BT30" s="10"/>
       <c r="BU30" s="10"/>
+      <c r="BV30" s="10"/>
     </row>
-    <row r="31" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>18</v>
       </c>
@@ -5135,8 +5215,9 @@
       <c r="BS31" s="10"/>
       <c r="BT31" s="10"/>
       <c r="BU31" s="10"/>
+      <c r="BV31" s="10"/>
     </row>
-    <row r="32" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>31</v>
       </c>
@@ -5213,8 +5294,9 @@
       <c r="BS32" s="10"/>
       <c r="BT32" s="10"/>
       <c r="BU32" s="10"/>
+      <c r="BV32" s="10"/>
     </row>
-    <row r="33" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>17</v>
       </c>
@@ -5293,8 +5375,9 @@
       <c r="BS33" s="10"/>
       <c r="BT33" s="10"/>
       <c r="BU33" s="10"/>
+      <c r="BV33" s="10"/>
     </row>
-    <row r="34" spans="1:73" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
@@ -5368,8 +5451,9 @@
       <c r="BS34" s="10"/>
       <c r="BT34" s="10"/>
       <c r="BU34" s="10"/>
+      <c r="BV34" s="10"/>
     </row>
-    <row r="35" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="8"/>
       <c r="C35" s="2"/>
@@ -5443,8 +5527,9 @@
       <c r="BS35" s="2"/>
       <c r="BT35" s="2"/>
       <c r="BU35" s="2"/>
+      <c r="BV35" s="2"/>
     </row>
-    <row r="36" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>2</v>
       </c>
@@ -5501,143 +5586,144 @@
       <c r="AB36" s="2">
         <v>-1170.7216247171586</v>
       </c>
-      <c r="AC36" s="2">
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2">
         <v>-1174.0826479299544</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AE36" s="2">
         <v>-1177.4533202999867</v>
       </c>
-      <c r="AE36" s="2">
+      <c r="AF36" s="2">
         <v>-1180.8336695290086</v>
       </c>
-      <c r="AF36" s="2">
+      <c r="AG36" s="2">
         <v>-1184.2237233983019</v>
       </c>
-      <c r="AG36" s="2">
+      <c r="AH36" s="2">
         <v>-1187.6235097689064</v>
       </c>
-      <c r="AH36" s="2">
+      <c r="AI36" s="2">
         <v>-1191.0330565818472</v>
       </c>
-      <c r="AI36" s="2">
+      <c r="AJ36" s="2">
         <v>-1194.4523918583661</v>
       </c>
-      <c r="AJ36" s="2">
+      <c r="AK36" s="2">
         <v>-1197.8815437001504</v>
       </c>
-      <c r="AK36" s="2">
+      <c r="AL36" s="2">
         <v>-1201.3205402895646</v>
       </c>
-      <c r="AL36" s="2">
+      <c r="AM36" s="2">
         <v>-1161.7419309652439</v>
       </c>
-      <c r="AM36" s="2">
+      <c r="AN36" s="2">
         <v>-1165.0771743867494</v>
       </c>
-      <c r="AN36" s="2">
+      <c r="AO36" s="2">
         <v>-1168.4219929543217</v>
       </c>
-      <c r="AO36" s="2">
+      <c r="AP36" s="2">
         <v>-1171.7764141572352</v>
       </c>
-      <c r="AP36" s="2">
+      <c r="AQ36" s="2">
         <v>-1175.1404655636834</v>
       </c>
-      <c r="AQ36" s="2">
+      <c r="AR36" s="2">
         <v>-1178.5141748210051</v>
       </c>
-      <c r="AR36" s="2">
+      <c r="AS36" s="2">
         <v>-1181.8975696559123</v>
       </c>
-      <c r="AS36" s="2">
+      <c r="AT36" s="2">
         <v>-1185.2906778747174</v>
       </c>
-      <c r="AT36" s="2">
+      <c r="AU36" s="2">
         <v>-1188.6935273635615</v>
       </c>
-      <c r="AU36" s="2">
+      <c r="AV36" s="2">
         <v>-1192.1061460886442</v>
       </c>
-      <c r="AV36" s="2">
+      <c r="AW36" s="2">
         <v>-1195.5285620964537</v>
       </c>
-      <c r="AW36" s="2">
+      <c r="AX36" s="2">
         <v>-1198.9608035139959</v>
       </c>
-      <c r="AX36" s="2">
+      <c r="AY36" s="2">
         <v>-1157.8694578620261</v>
       </c>
-      <c r="AY36" s="2">
+      <c r="AZ36" s="2">
         <v>-1161.1935838054603</v>
       </c>
-      <c r="AZ36" s="2">
+      <c r="BA36" s="2">
         <v>-1164.5272529778074</v>
       </c>
-      <c r="BA36" s="2">
+      <c r="BB36" s="2">
         <v>-1167.8704927767112</v>
       </c>
-      <c r="BB36" s="2">
+      <c r="BC36" s="2">
         <v>-1171.2233306784713</v>
       </c>
-      <c r="BC36" s="2">
+      <c r="BD36" s="2">
         <v>-1174.5857942382688</v>
       </c>
-      <c r="BD36" s="2">
+      <c r="BE36" s="2">
         <v>-1177.9579110903931</v>
       </c>
-      <c r="BE36" s="2">
+      <c r="BF36" s="2">
         <v>-1181.3397089484688</v>
       </c>
-      <c r="BF36" s="2">
+      <c r="BG36" s="2">
         <v>-1184.7312156056832</v>
       </c>
-      <c r="BG36" s="2">
+      <c r="BH36" s="2">
         <v>-1188.1324589350158</v>
       </c>
-      <c r="BH36" s="2">
+      <c r="BI36" s="2">
         <v>-1191.5434668894657</v>
       </c>
-      <c r="BI36" s="2">
+      <c r="BJ36" s="2">
         <v>-1194.9642675022828</v>
       </c>
-      <c r="BJ36" s="2">
+      <c r="BK36" s="2">
         <v>-1152.3027777761515</v>
       </c>
-      <c r="BK36" s="2">
+      <c r="BL36" s="2">
         <v>-1155.6109223448575</v>
       </c>
-      <c r="BL36" s="2">
+      <c r="BM36" s="2">
         <v>-1158.9285642615682</v>
       </c>
-      <c r="BM36" s="2">
+      <c r="BN36" s="2">
         <v>-1162.2557307922082</v>
       </c>
-      <c r="BN36" s="2">
+      <c r="BO36" s="2">
         <v>-1165.5924492809788</v>
       </c>
-      <c r="BO36" s="2">
+      <c r="BP36" s="2">
         <v>-1168.9387471505852</v>
       </c>
-      <c r="BP36" s="2">
+      <c r="BQ36" s="2">
         <v>-1172.2946519024588</v>
       </c>
-      <c r="BQ36" s="2">
+      <c r="BR36" s="2">
         <v>-1175.660191116986</v>
       </c>
-      <c r="BR36" s="2">
+      <c r="BS36" s="2">
         <v>-1179.0353924537333</v>
       </c>
-      <c r="BS36" s="2">
+      <c r="BT36" s="2">
         <v>-1182.4202836516747</v>
       </c>
-      <c r="BT36" s="2">
+      <c r="BU36" s="2">
         <v>-1185.8148925294206</v>
       </c>
-      <c r="BU36" s="2">
+      <c r="BV36" s="2">
         <v>-1189.2192469854454</v>
       </c>
     </row>
-    <row r="37" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>3</v>
       </c>
@@ -5707,143 +5793,144 @@
       <c r="AB37" s="2">
         <v>-20234.250000000007</v>
       </c>
-      <c r="AC37" s="2">
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2">
         <v>-20292.340482406486</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AE37" s="2">
         <v>-20350.597736704491</v>
       </c>
-      <c r="AE37" s="2">
+      <c r="AF37" s="2">
         <v>-20409.022241679242</v>
       </c>
-      <c r="AF37" s="2">
+      <c r="AG37" s="2">
         <v>-20467.614477490486</v>
       </c>
-      <c r="AG37" s="2">
+      <c r="AH37" s="2">
         <v>-20526.374925676471</v>
       </c>
-      <c r="AH37" s="2">
+      <c r="AI37" s="2">
         <v>-20585.304069157879</v>
       </c>
-      <c r="AI37" s="2">
+      <c r="AJ37" s="2">
         <v>-20644.402392241831</v>
       </c>
-      <c r="AJ37" s="2">
+      <c r="AK37" s="2">
         <v>-20703.670380625819</v>
       </c>
-      <c r="AK37" s="2">
+      <c r="AL37" s="2">
         <v>-20763.108521401744</v>
       </c>
-      <c r="AL37" s="2">
+      <c r="AM37" s="2">
         <v>-20822.71730305989</v>
       </c>
-      <c r="AM37" s="2">
+      <c r="AN37" s="2">
         <v>-20882.497215492938</v>
       </c>
-      <c r="AN37" s="2">
+      <c r="AO37" s="2">
         <v>-20942.448750000014</v>
       </c>
-      <c r="AO37" s="2">
+      <c r="AP37" s="2">
         <v>-21002.572399290715</v>
       </c>
-      <c r="AP37" s="2">
+      <c r="AQ37" s="2">
         <v>-21062.868657489151</v>
       </c>
-      <c r="AQ37" s="2">
+      <c r="AR37" s="2">
         <v>-21123.338020138017</v>
       </c>
-      <c r="AR37" s="2">
+      <c r="AS37" s="2">
         <v>-21183.980984202652</v>
       </c>
-      <c r="AS37" s="2">
+      <c r="AT37" s="2">
         <v>-21244.798048075147</v>
       </c>
-      <c r="AT37" s="2">
+      <c r="AU37" s="2">
         <v>-21305.789711578407</v>
       </c>
-      <c r="AU37" s="2">
+      <c r="AV37" s="2">
         <v>-21366.956475970295</v>
       </c>
-      <c r="AV37" s="2">
+      <c r="AW37" s="2">
         <v>-21428.298843947723</v>
       </c>
-      <c r="AW37" s="2">
+      <c r="AX37" s="2">
         <v>-21489.817319650803</v>
       </c>
-      <c r="AX37" s="2">
+      <c r="AY37" s="2">
         <v>-21551.512408666978</v>
       </c>
-      <c r="AY37" s="2">
+      <c r="AZ37" s="2">
         <v>-21613.384618035187</v>
       </c>
-      <c r="AZ37" s="2">
+      <c r="BA37" s="2">
         <v>-21675.434456250016</v>
       </c>
-      <c r="BA37" s="2">
+      <c r="BB37" s="2">
         <v>-21737.662433265894</v>
       </c>
-      <c r="BB37" s="2">
+      <c r="BC37" s="2">
         <v>-21800.069060501279</v>
       </c>
-      <c r="BC37" s="2">
+      <c r="BD37" s="2">
         <v>-21862.654850842853</v>
       </c>
-      <c r="BD37" s="2">
+      <c r="BE37" s="2">
         <v>-21925.420318649754</v>
       </c>
-      <c r="BE37" s="2">
+      <c r="BF37" s="2">
         <v>-21988.365979757782</v>
       </c>
-      <c r="BF37" s="2">
+      <c r="BG37" s="2">
         <v>-22051.492351483659</v>
       </c>
-      <c r="BG37" s="2">
+      <c r="BH37" s="2">
         <v>-22114.799952629262</v>
       </c>
-      <c r="BH37" s="2">
+      <c r="BI37" s="2">
         <v>-22178.289303485901</v>
       </c>
-      <c r="BI37" s="2">
+      <c r="BJ37" s="2">
         <v>-22241.96092583859</v>
       </c>
-      <c r="BJ37" s="2">
+      <c r="BK37" s="2">
         <v>-22305.815342970334</v>
       </c>
-      <c r="BK37" s="2">
+      <c r="BL37" s="2">
         <v>-22369.853079666427</v>
       </c>
-      <c r="BL37" s="2">
+      <c r="BM37" s="2">
         <v>-22434.074662218773</v>
       </c>
-      <c r="BM37" s="2">
+      <c r="BN37" s="2">
         <v>-22498.480618430207</v>
       </c>
-      <c r="BN37" s="2">
+      <c r="BO37" s="2">
         <v>-22563.071477618829</v>
       </c>
-      <c r="BO37" s="2">
+      <c r="BP37" s="2">
         <v>-22627.84777062236</v>
       </c>
-      <c r="BP37" s="2">
+      <c r="BQ37" s="2">
         <v>-22692.810029802502</v>
       </c>
-      <c r="BQ37" s="2">
+      <c r="BR37" s="2">
         <v>-22757.958789049313</v>
       </c>
-      <c r="BR37" s="2">
+      <c r="BS37" s="2">
         <v>-22823.294583785595</v>
       </c>
-      <c r="BS37" s="2">
+      <c r="BT37" s="2">
         <v>-22888.817950971294</v>
       </c>
-      <c r="BT37" s="2">
+      <c r="BU37" s="2">
         <v>-22954.529429107915</v>
       </c>
-      <c r="BU37" s="2">
+      <c r="BV37" s="2">
         <v>-23020.429558242948</v>
       </c>
     </row>
-    <row r="38" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>4</v>
       </c>
@@ -5947,11 +6034,11 @@
         <v>0</v>
       </c>
       <c r="AK38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="2">
         <v>-42482.063470898713</v>
       </c>
-      <c r="AL38" s="2">
-        <v>0</v>
-      </c>
       <c r="AM38" s="2">
         <v>0</v>
       </c>
@@ -5983,11 +6070,11 @@
         <v>0</v>
       </c>
       <c r="AW38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX38" s="2">
         <v>-43968.935692380161</v>
       </c>
-      <c r="AX38" s="2">
-        <v>0</v>
-      </c>
       <c r="AY38" s="2">
         <v>0</v>
       </c>
@@ -6019,11 +6106,11 @@
         <v>0</v>
       </c>
       <c r="BI38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ38" s="2">
         <v>-45507.848441613482</v>
       </c>
-      <c r="BJ38" s="2">
-        <v>0</v>
-      </c>
       <c r="BK38" s="2">
         <v>0</v>
       </c>
@@ -6055,10 +6142,13 @@
         <v>0</v>
       </c>
       <c r="BU38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV38" s="2">
         <v>-47100.623137069968</v>
       </c>
     </row>
-    <row r="39" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
@@ -6132,13 +6222,14 @@
       <c r="BS39" s="2"/>
       <c r="BT39" s="2"/>
       <c r="BU39" s="2"/>
+      <c r="BV39" s="2"/>
     </row>
-    <row r="40" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="7">
-        <f t="shared" ref="B40" si="22">C40+E40+G40+I40+K40+M40+O40+Q40+S40+U40+W40+Y40</f>
+        <f t="shared" ref="B40" si="28">C40+E40+G40+I40+K40+M40+O40+Q40+S40+U40+W40+Y40</f>
         <v>-1411922.6900000002</v>
       </c>
       <c r="C40" s="2">
@@ -6365,8 +6456,11 @@
       <c r="BU40" s="2">
         <v>0</v>
       </c>
+      <c r="BV40" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>24</v>
       </c>
@@ -6475,8 +6569,9 @@
       <c r="BS41" s="2"/>
       <c r="BT41" s="2"/>
       <c r="BU41" s="2"/>
+      <c r="BV41" s="2"/>
     </row>
-    <row r="42" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>32</v>
       </c>
@@ -6562,8 +6657,9 @@
       <c r="BS42" s="2"/>
       <c r="BT42" s="2"/>
       <c r="BU42" s="2"/>
+      <c r="BV42" s="2"/>
     </row>
-    <row r="43" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>20</v>
       </c>
@@ -6639,8 +6735,9 @@
       <c r="BS43" s="2"/>
       <c r="BT43" s="2"/>
       <c r="BU43" s="2"/>
+      <c r="BV43" s="2"/>
     </row>
-    <row r="44" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>45</v>
       </c>
@@ -6719,8 +6816,9 @@
       <c r="BS44" s="2"/>
       <c r="BT44" s="2"/>
       <c r="BU44" s="2"/>
+      <c r="BV44" s="2"/>
     </row>
-    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>34</v>
       </c>
@@ -6806,8 +6904,9 @@
       <c r="BS45" s="2"/>
       <c r="BT45" s="2"/>
       <c r="BU45" s="2"/>
+      <c r="BV45" s="2"/>
     </row>
-    <row r="46" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>19</v>
       </c>
@@ -6893,8 +6992,9 @@
       <c r="BS46" s="2"/>
       <c r="BT46" s="2"/>
       <c r="BU46" s="2"/>
+      <c r="BV46" s="2"/>
     </row>
-    <row r="47" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
@@ -6968,13 +7068,14 @@
       <c r="BS47" s="2"/>
       <c r="BT47" s="2"/>
       <c r="BU47" s="2"/>
+      <c r="BV47" s="2"/>
     </row>
-    <row r="48" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B48" s="32">
-        <f t="shared" ref="B48" si="23">C48+E48+G48+I48+K48+M48+O48+Q48+S48+U48+W48+Y48</f>
+        <f t="shared" ref="B48" si="29">C48+E48+G48+I48+K48+M48+O48+Q48+S48+U48+W48+Y48</f>
         <v>-25162.53</v>
       </c>
       <c r="C48" s="5">
@@ -6988,279 +7089,283 @@
         <v>0</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" ref="F48:BU48" si="24">SUM(F49:F52)</f>
+        <f t="shared" ref="F48:BV48" si="30">SUM(F49:F52)</f>
         <v>-13432.593933481601</v>
       </c>
       <c r="G48" s="14">
-        <f t="shared" ref="G48" si="25">SUM(G49:G52)</f>
+        <f t="shared" ref="G48" si="31">SUM(G49:G52)</f>
         <v>-209.22</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-13432.593933481601</v>
       </c>
       <c r="I48" s="14">
-        <f t="shared" ref="I48:K48" si="26">SUM(I49:I52)</f>
+        <f t="shared" ref="I48:K48" si="32">SUM(I49:I52)</f>
         <v>-915.68000000000006</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-13476.899347637262</v>
       </c>
       <c r="K48" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-2214.36</v>
       </c>
       <c r="L48" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-13521.331958149671</v>
       </c>
       <c r="M48" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-1460.26</v>
       </c>
       <c r="N48" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-13565.892130186689</v>
       </c>
       <c r="O48" s="14">
-        <f t="shared" ref="O48" si="27">SUM(O49:O52)</f>
+        <f t="shared" ref="O48" si="33">SUM(O49:O52)</f>
         <v>-1975.37</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-13610.580229964526</v>
       </c>
       <c r="Q48" s="5">
-        <f t="shared" ref="Q48" si="28">SUM(Q49:Q52)</f>
+        <f t="shared" ref="Q48" si="34">SUM(Q49:Q52)</f>
         <v>-2142.41</v>
       </c>
       <c r="R48" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-13655.396624750776</v>
       </c>
       <c r="S48" s="5">
-        <f t="shared" ref="S48" si="29">SUM(S49:S52)</f>
+        <f t="shared" ref="S48" si="35">SUM(S49:S52)</f>
         <v>-4482.87</v>
       </c>
       <c r="T48" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-13700.341682867411</v>
       </c>
       <c r="U48" s="5">
-        <f t="shared" ref="U48:Y48" si="30">SUM(U49:U52)</f>
+        <f t="shared" ref="U48:Y48" si="36">SUM(U49:U52)</f>
         <v>-6171.85</v>
       </c>
       <c r="V48" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-13745.41577369382</v>
       </c>
       <c r="W48" s="5">
+        <f t="shared" si="36"/>
+        <v>-1967.33</v>
+      </c>
+      <c r="X48" s="5">
         <f t="shared" si="30"/>
-        <v>-1967.33</v>
-      </c>
-      <c r="X48" s="5">
-        <f t="shared" si="24"/>
         <v>-13790.619267669847</v>
       </c>
       <c r="Y48" s="5">
+        <f t="shared" si="36"/>
+        <v>-3623.1800000000003</v>
+      </c>
+      <c r="Z48" s="5">
         <f t="shared" si="30"/>
-        <v>-3623.1800000000003</v>
-      </c>
-      <c r="Z48" s="5">
-        <f t="shared" si="24"/>
         <v>-13927.009888864799</v>
       </c>
       <c r="AA48" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-4853.5</v>
       </c>
       <c r="AB48" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-13972.734721153462</v>
       </c>
       <c r="AC48" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="AC48" si="37">SUM(AC49:AC52)</f>
+        <v>0</v>
+      </c>
+      <c r="AD48" s="5">
+        <f t="shared" si="30"/>
         <v>-14018.590824804574</v>
       </c>
-      <c r="AD48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AE48" s="5">
+        <f t="shared" si="30"/>
         <v>-14064.578576684915</v>
       </c>
-      <c r="AE48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AF48" s="5">
+        <f t="shared" si="30"/>
         <v>-14110.698354743226</v>
       </c>
-      <c r="AF48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AG48" s="5">
+        <f t="shared" si="30"/>
         <v>-14156.95053801329</v>
       </c>
-      <c r="AG48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AH48" s="5">
+        <f t="shared" si="30"/>
         <v>-14203.335506617061</v>
       </c>
-      <c r="AH48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AI48" s="5">
+        <f t="shared" si="30"/>
         <v>-14249.853641767777</v>
       </c>
-      <c r="AI48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AJ48" s="5">
+        <f t="shared" si="30"/>
         <v>-14296.505325773111</v>
       </c>
-      <c r="AJ48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AK48" s="5">
+        <f t="shared" si="30"/>
         <v>-14343.290942038298</v>
       </c>
-      <c r="AK48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AL48" s="5">
+        <f t="shared" si="30"/>
         <v>-14390.210875069293</v>
       </c>
-      <c r="AL48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AM48" s="5">
+        <f t="shared" si="30"/>
         <v>-14437.265510475925</v>
       </c>
-      <c r="AM48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AN48" s="5">
+        <f t="shared" si="30"/>
         <v>-14484.455234975074</v>
       </c>
-      <c r="AN48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AO48" s="5">
+        <f t="shared" si="30"/>
         <v>-14531.780436393839</v>
       </c>
-      <c r="AO48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AP48" s="5">
+        <f t="shared" si="30"/>
         <v>-14579.241503672736</v>
       </c>
-      <c r="AP48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AQ48" s="5">
+        <f t="shared" si="30"/>
         <v>-14626.838826868892</v>
       </c>
-      <c r="AQ48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AR48" s="5">
+        <f t="shared" si="30"/>
         <v>-14674.572797159242</v>
       </c>
-      <c r="AR48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AS48" s="5">
+        <f t="shared" si="30"/>
         <v>-14722.443806843758</v>
       </c>
-      <c r="AS48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AT48" s="5">
+        <f t="shared" si="30"/>
         <v>-14770.452249348658</v>
       </c>
-      <c r="AT48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AU48" s="5">
+        <f t="shared" si="30"/>
         <v>-14818.598519229647</v>
       </c>
-      <c r="AU48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AV48" s="5">
+        <f t="shared" si="30"/>
         <v>-14866.883012175169</v>
       </c>
-      <c r="AV48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AW48" s="5">
+        <f t="shared" si="30"/>
         <v>-14915.306125009638</v>
       </c>
-      <c r="AW48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AX48" s="5">
+        <f t="shared" si="30"/>
         <v>-14963.868255696718</v>
       </c>
-      <c r="AX48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AY48" s="5">
+        <f t="shared" si="30"/>
         <v>-15012.56980334258</v>
       </c>
-      <c r="AY48" s="5">
-        <f t="shared" si="24"/>
+      <c r="AZ48" s="5">
+        <f t="shared" si="30"/>
         <v>-15061.411168199204</v>
       </c>
-      <c r="AZ48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BA48" s="5">
+        <f t="shared" si="30"/>
         <v>-15110.392751667627</v>
       </c>
-      <c r="BA48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BB48" s="5">
+        <f t="shared" si="30"/>
         <v>-15159.514956301286</v>
       </c>
-      <c r="BB48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BC48" s="5">
+        <f t="shared" si="30"/>
         <v>-15208.778185809309</v>
       </c>
-      <c r="BC48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BD48" s="5">
+        <f t="shared" si="30"/>
         <v>-15258.182845059824</v>
       </c>
-      <c r="BD48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BE48" s="5">
+        <f t="shared" si="30"/>
         <v>-15307.729340083293</v>
       </c>
-      <c r="BE48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BF48" s="5">
+        <f t="shared" si="30"/>
         <v>-15357.418078075865</v>
       </c>
-      <c r="BF48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BG48" s="5">
+        <f t="shared" si="30"/>
         <v>-15407.249467402691</v>
       </c>
-      <c r="BG48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BH48" s="5">
+        <f t="shared" si="30"/>
         <v>-15457.223917601306</v>
       </c>
-      <c r="BH48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BI48" s="5">
+        <f t="shared" si="30"/>
         <v>-15507.341839384981</v>
       </c>
-      <c r="BI48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BJ48" s="5">
+        <f t="shared" si="30"/>
         <v>-15557.603644646108</v>
       </c>
-      <c r="BJ48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BK48" s="5">
+        <f t="shared" si="30"/>
         <v>-15608.009746459578</v>
       </c>
-      <c r="BK48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BL48" s="5">
+        <f t="shared" si="30"/>
         <v>-15658.560559086181</v>
       </c>
-      <c r="BL48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BM48" s="5">
+        <f t="shared" si="30"/>
         <v>-15709.256497975995</v>
       </c>
-      <c r="BM48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BN48" s="5">
+        <f t="shared" si="30"/>
         <v>-15760.097979771836</v>
       </c>
-      <c r="BN48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BO48" s="5">
+        <f t="shared" si="30"/>
         <v>-15811.085422312635</v>
       </c>
-      <c r="BO48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BP48" s="5">
+        <f t="shared" si="30"/>
         <v>-15862.219244636921</v>
       </c>
-      <c r="BP48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BQ48" s="5">
+        <f t="shared" si="30"/>
         <v>-15913.499866986218</v>
       </c>
-      <c r="BQ48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BR48" s="5">
+        <f t="shared" si="30"/>
         <v>-15964.927710808526</v>
       </c>
-      <c r="BR48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BS48" s="5">
+        <f t="shared" si="30"/>
         <v>-16016.503198761791</v>
       </c>
-      <c r="BS48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BT48" s="5">
+        <f t="shared" si="30"/>
         <v>-16068.226754717358</v>
       </c>
-      <c r="BT48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BU48" s="5">
+        <f t="shared" si="30"/>
         <v>-16120.09880376346</v>
       </c>
-      <c r="BU48" s="5">
-        <f t="shared" si="24"/>
+      <c r="BV48" s="5">
+        <f t="shared" si="30"/>
         <v>-16172.119772208731</v>
       </c>
     </row>
-    <row r="49" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>28</v>
       </c>
@@ -7332,143 +7437,144 @@
       <c r="AB49" s="2">
         <v>-3165.9653129333774</v>
       </c>
-      <c r="AC49" s="2">
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2">
         <v>-3175.054478694919</v>
       </c>
-      <c r="AD49" s="2">
+      <c r="AE49" s="2">
         <v>-3184.1697385308025</v>
       </c>
-      <c r="AE49" s="2">
+      <c r="AF49" s="2">
         <v>-3193.3111673544731</v>
       </c>
-      <c r="AF49" s="2">
+      <c r="AG49" s="2">
         <v>-3202.4788402944446</v>
       </c>
-      <c r="AG49" s="2">
+      <c r="AH49" s="2">
         <v>-3211.6728326949165</v>
       </c>
-      <c r="AH49" s="2">
+      <c r="AI49" s="2">
         <v>-3220.8932201163934</v>
       </c>
-      <c r="AI49" s="2">
+      <c r="AJ49" s="2">
         <v>-3230.1400783363083</v>
       </c>
-      <c r="AJ49" s="2">
+      <c r="AK49" s="2">
         <v>-3239.4134833496423</v>
       </c>
-      <c r="AK49" s="2">
+      <c r="AL49" s="2">
         <v>-3248.7135113695504</v>
       </c>
-      <c r="AL49" s="2">
+      <c r="AM49" s="2">
         <v>-3258.0402388279881</v>
       </c>
-      <c r="AM49" s="2">
+      <c r="AN49" s="2">
         <v>-3267.3937423763396</v>
       </c>
-      <c r="AN49" s="2">
+      <c r="AO49" s="2">
         <v>-3276.7740988860464</v>
       </c>
-      <c r="AO49" s="2">
+      <c r="AP49" s="2">
         <v>-3286.1813854492416</v>
       </c>
-      <c r="AP49" s="2">
+      <c r="AQ49" s="2">
         <v>-3295.6156793793812</v>
       </c>
-      <c r="AQ49" s="2">
+      <c r="AR49" s="2">
         <v>-3305.0770582118798</v>
       </c>
-      <c r="AR49" s="2">
+      <c r="AS49" s="2">
         <v>-3314.5655997047502</v>
       </c>
-      <c r="AS49" s="2">
+      <c r="AT49" s="2">
         <v>-3324.0813818392385</v>
       </c>
-      <c r="AT49" s="2">
+      <c r="AU49" s="2">
         <v>-3333.6244828204667</v>
       </c>
-      <c r="AU49" s="2">
+      <c r="AV49" s="2">
         <v>-3343.1949810780793</v>
       </c>
-      <c r="AV49" s="2">
+      <c r="AW49" s="2">
         <v>-3352.7929552668793</v>
       </c>
-      <c r="AW49" s="2">
+      <c r="AX49" s="2">
         <v>-3362.418484267484</v>
       </c>
-      <c r="AX49" s="2">
+      <c r="AY49" s="2">
         <v>-3372.0716471869673</v>
       </c>
-      <c r="AY49" s="2">
+      <c r="AZ49" s="2">
         <v>-3381.7525233595115</v>
       </c>
-      <c r="AZ49" s="2">
+      <c r="BA49" s="2">
         <v>-3391.4611923470588</v>
       </c>
-      <c r="BA49" s="2">
+      <c r="BB49" s="2">
         <v>-3401.1977339399659</v>
       </c>
-      <c r="BB49" s="2">
+      <c r="BC49" s="2">
         <v>-3410.9622281576608</v>
       </c>
-      <c r="BC49" s="2">
+      <c r="BD49" s="2">
         <v>-3420.754755249297</v>
       </c>
-      <c r="BD49" s="2">
+      <c r="BE49" s="2">
         <v>-3430.5753956944177</v>
       </c>
-      <c r="BE49" s="2">
+      <c r="BF49" s="2">
         <v>-3440.4242302036128</v>
       </c>
-      <c r="BF49" s="2">
+      <c r="BG49" s="2">
         <v>-3450.3013397191839</v>
       </c>
-      <c r="BG49" s="2">
+      <c r="BH49" s="2">
         <v>-3460.2068054158126</v>
       </c>
-      <c r="BH49" s="2">
+      <c r="BI49" s="2">
         <v>-3470.1407087012212</v>
       </c>
-      <c r="BI49" s="2">
+      <c r="BJ49" s="2">
         <v>-3480.103131216847</v>
       </c>
-      <c r="BJ49" s="2">
+      <c r="BK49" s="2">
         <v>-3490.0941548385122</v>
       </c>
-      <c r="BK49" s="2">
+      <c r="BL49" s="2">
         <v>-3500.1138616770959</v>
       </c>
-      <c r="BL49" s="2">
+      <c r="BM49" s="2">
         <v>-3510.1623340792062</v>
       </c>
-      <c r="BM49" s="2">
+      <c r="BN49" s="2">
         <v>-3520.2396546278655</v>
       </c>
-      <c r="BN49" s="2">
+      <c r="BO49" s="2">
         <v>-3530.3459061431795</v>
       </c>
-      <c r="BO49" s="2">
+      <c r="BP49" s="2">
         <v>-3540.4811716830236</v>
       </c>
-      <c r="BP49" s="2">
+      <c r="BQ49" s="2">
         <v>-3550.6455345437234</v>
       </c>
-      <c r="BQ49" s="2">
+      <c r="BR49" s="2">
         <v>-3560.8390782607403</v>
       </c>
-      <c r="BR49" s="2">
+      <c r="BS49" s="2">
         <v>-3571.0618866093573</v>
       </c>
-      <c r="BS49" s="2">
+      <c r="BT49" s="2">
         <v>-3581.3140436053673</v>
       </c>
-      <c r="BT49" s="2">
+      <c r="BU49" s="2">
         <v>-3591.5956335057654</v>
       </c>
-      <c r="BU49" s="2">
+      <c r="BV49" s="2">
         <v>-3601.9067408094384</v>
       </c>
     </row>
-    <row r="50" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>6</v>
       </c>
@@ -7538,143 +7644,144 @@
       <c r="AB50" s="2">
         <v>-6794.3480914816046</v>
       </c>
-      <c r="AC50" s="2">
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2">
         <v>-6819.5957741525526</v>
       </c>
-      <c r="AD50" s="2">
+      <c r="AE50" s="2">
         <v>-6844.9159403633403</v>
       </c>
-      <c r="AE50" s="2">
+      <c r="AF50" s="2">
         <v>-6870.3087982068701</v>
       </c>
-      <c r="AF50" s="2">
+      <c r="AG50" s="2">
         <v>-6895.774556373457</v>
       </c>
-      <c r="AG50" s="2">
+      <c r="AH50" s="2">
         <v>-6921.3134241525458</v>
       </c>
-      <c r="AH50" s="2">
+      <c r="AI50" s="2">
         <v>-6946.9256114344262</v>
       </c>
-      <c r="AI50" s="2">
+      <c r="AJ50" s="2">
         <v>-6972.6113287119679</v>
       </c>
-      <c r="AJ50" s="2">
+      <c r="AK50" s="2">
         <v>-6998.37078708234</v>
       </c>
-      <c r="AK50" s="2">
+      <c r="AL50" s="2">
         <v>-7024.2041982487517</v>
       </c>
-      <c r="AL50" s="2">
+      <c r="AM50" s="2">
         <v>-7050.1117745221891</v>
       </c>
-      <c r="AM50" s="2">
+      <c r="AN50" s="2">
         <v>-7076.0937288231653</v>
       </c>
-      <c r="AN50" s="2">
+      <c r="AO50" s="2">
         <v>-7102.1502746834631</v>
       </c>
-      <c r="AO50" s="2">
+      <c r="AP50" s="2">
         <v>-7128.2816262478937</v>
       </c>
-      <c r="AP50" s="2">
+      <c r="AQ50" s="2">
         <v>-7154.4879982760594</v>
       </c>
-      <c r="AQ50" s="2">
+      <c r="AR50" s="2">
         <v>-7180.7696061441111</v>
       </c>
-      <c r="AR50" s="2">
+      <c r="AS50" s="2">
         <v>-7207.1266658465283</v>
       </c>
-      <c r="AS50" s="2">
+      <c r="AT50" s="2">
         <v>-7233.5593939978844</v>
       </c>
-      <c r="AT50" s="2">
+      <c r="AU50" s="2">
         <v>-7260.0680078346304</v>
       </c>
-      <c r="AU50" s="2">
+      <c r="AV50" s="2">
         <v>-7286.6527252168871</v>
       </c>
-      <c r="AV50" s="2">
+      <c r="AW50" s="2">
         <v>-7313.3137646302202</v>
       </c>
-      <c r="AW50" s="2">
+      <c r="AX50" s="2">
         <v>-7340.0513451874558</v>
       </c>
-      <c r="AX50" s="2">
+      <c r="AY50" s="2">
         <v>-7366.8656866304646</v>
       </c>
-      <c r="AY50" s="2">
+      <c r="AZ50" s="2">
         <v>-7393.7570093319773</v>
       </c>
-      <c r="AZ50" s="2">
+      <c r="BA50" s="2">
         <v>-7420.7255342973858</v>
       </c>
-      <c r="BA50" s="2">
+      <c r="BB50" s="2">
         <v>-7447.7714831665726</v>
       </c>
-      <c r="BB50" s="2">
+      <c r="BC50" s="2">
         <v>-7474.8950782157244</v>
       </c>
-      <c r="BC50" s="2">
+      <c r="BD50" s="2">
         <v>-7502.0965423591588</v>
       </c>
-      <c r="BD50" s="2">
+      <c r="BE50" s="2">
         <v>-7529.3760991511608</v>
       </c>
-      <c r="BE50" s="2">
+      <c r="BF50" s="2">
         <v>-7556.7339727878134</v>
       </c>
-      <c r="BF50" s="2">
+      <c r="BG50" s="2">
         <v>-7584.1703881088451</v>
       </c>
-      <c r="BG50" s="2">
+      <c r="BH50" s="2">
         <v>-7611.6855705994803</v>
       </c>
-      <c r="BH50" s="2">
+      <c r="BI50" s="2">
         <v>-7639.2797463922816</v>
       </c>
-      <c r="BI50" s="2">
+      <c r="BJ50" s="2">
         <v>-7666.9531422690197</v>
       </c>
-      <c r="BJ50" s="2">
+      <c r="BK50" s="2">
         <v>-7694.7059856625347</v>
       </c>
-      <c r="BK50" s="2">
+      <c r="BL50" s="2">
         <v>-7722.5385046585998</v>
       </c>
-      <c r="BL50" s="2">
+      <c r="BM50" s="2">
         <v>-7750.4509279977956</v>
       </c>
-      <c r="BM50" s="2">
+      <c r="BN50" s="2">
         <v>-7778.4434850774051</v>
       </c>
-      <c r="BN50" s="2">
+      <c r="BO50" s="2">
         <v>-7806.5164059532763</v>
       </c>
-      <c r="BO50" s="2">
+      <c r="BP50" s="2">
         <v>-7834.6699213417323</v>
       </c>
-      <c r="BP50" s="2">
+      <c r="BQ50" s="2">
         <v>-7862.9042626214541</v>
       </c>
-      <c r="BQ50" s="2">
+      <c r="BR50" s="2">
         <v>-7891.2196618353901</v>
       </c>
-      <c r="BR50" s="2">
+      <c r="BS50" s="2">
         <v>-7919.616351692659</v>
       </c>
-      <c r="BS50" s="2">
+      <c r="BT50" s="2">
         <v>-7948.0945655704654</v>
       </c>
-      <c r="BT50" s="2">
+      <c r="BU50" s="2">
         <v>-7976.6545375160149</v>
       </c>
-      <c r="BU50" s="2">
+      <c r="BV50" s="2">
         <v>-8005.2965022484404</v>
       </c>
     </row>
-    <row r="51" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>26</v>
       </c>
@@ -7746,143 +7853,144 @@
       <c r="AB51" s="2">
         <v>-714.54078243288029</v>
       </c>
-      <c r="AC51" s="2">
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2">
         <v>-716.59215664989483</v>
       </c>
-      <c r="AD51" s="2">
+      <c r="AE51" s="2">
         <v>-718.64942015452141</v>
       </c>
-      <c r="AE51" s="2">
+      <c r="AF51" s="2">
         <v>-720.71258985430813</v>
       </c>
-      <c r="AF51" s="2">
+      <c r="AG51" s="2">
         <v>-722.78168270534331</v>
       </c>
-      <c r="AG51" s="2">
+      <c r="AH51" s="2">
         <v>-724.85671571239425</v>
       </c>
-      <c r="AH51" s="2">
+      <c r="AI51" s="2">
         <v>-726.93770592904707</v>
       </c>
-      <c r="AI51" s="2">
+      <c r="AJ51" s="2">
         <v>-729.02467045784726</v>
       </c>
-      <c r="AJ51" s="2">
+      <c r="AK51" s="2">
         <v>-731.11762645043996</v>
       </c>
-      <c r="AK51" s="2">
+      <c r="AL51" s="2">
         <v>-733.216591107711</v>
       </c>
-      <c r="AL51" s="2">
+      <c r="AM51" s="2">
         <v>-735.32158167992782</v>
       </c>
-      <c r="AM51" s="2">
+      <c r="AN51" s="2">
         <v>-737.43261546688223</v>
       </c>
-      <c r="AN51" s="2">
+      <c r="AO51" s="2">
         <v>-739.54970981803137</v>
       </c>
-      <c r="AO51" s="2">
+      <c r="AP51" s="2">
         <v>-741.67288213264135</v>
       </c>
-      <c r="AP51" s="2">
+      <c r="AQ51" s="2">
         <v>-743.80214985992973</v>
       </c>
-      <c r="AQ51" s="2">
+      <c r="AR51" s="2">
         <v>-745.93753049920906</v>
       </c>
-      <c r="AR51" s="2">
+      <c r="AS51" s="2">
         <v>-748.07904160003045</v>
       </c>
-      <c r="AS51" s="2">
+      <c r="AT51" s="2">
         <v>-750.22670076232805</v>
       </c>
-      <c r="AT51" s="2">
+      <c r="AU51" s="2">
         <v>-752.38052563656368</v>
       </c>
-      <c r="AU51" s="2">
+      <c r="AV51" s="2">
         <v>-754.54053392387198</v>
       </c>
-      <c r="AV51" s="2">
+      <c r="AW51" s="2">
         <v>-756.7067433762054</v>
       </c>
-      <c r="AW51" s="2">
+      <c r="AX51" s="2">
         <v>-758.8791717964807</v>
       </c>
-      <c r="AX51" s="2">
+      <c r="AY51" s="2">
         <v>-761.05783703872521</v>
       </c>
-      <c r="AY51" s="2">
+      <c r="AZ51" s="2">
         <v>-763.24275700822307</v>
       </c>
-      <c r="AZ51" s="2">
+      <c r="BA51" s="2">
         <v>-765.4339496616625</v>
       </c>
-      <c r="BA51" s="2">
+      <c r="BB51" s="2">
         <v>-767.63143300728393</v>
       </c>
-      <c r="BB51" s="2">
+      <c r="BC51" s="2">
         <v>-769.83522510502746</v>
       </c>
-      <c r="BC51" s="2">
+      <c r="BD51" s="2">
         <v>-772.04534406668165</v>
       </c>
-      <c r="BD51" s="2">
+      <c r="BE51" s="2">
         <v>-774.26180805603167</v>
       </c>
-      <c r="BE51" s="2">
+      <c r="BF51" s="2">
         <v>-776.4846352890097</v>
       </c>
-      <c r="BF51" s="2">
+      <c r="BG51" s="2">
         <v>-778.71384403384366</v>
       </c>
-      <c r="BG51" s="2">
+      <c r="BH51" s="2">
         <v>-780.94945261120768</v>
       </c>
-      <c r="BH51" s="2">
+      <c r="BI51" s="2">
         <v>-783.19147939437278</v>
       </c>
-      <c r="BI51" s="2">
+      <c r="BJ51" s="2">
         <v>-785.43994280935783</v>
       </c>
-      <c r="BJ51" s="2">
+      <c r="BK51" s="2">
         <v>-787.69486133508087</v>
       </c>
-      <c r="BK51" s="2">
+      <c r="BL51" s="2">
         <v>-789.95625350351111</v>
       </c>
-      <c r="BL51" s="2">
+      <c r="BM51" s="2">
         <v>-792.2241378998209</v>
       </c>
-      <c r="BM51" s="2">
+      <c r="BN51" s="2">
         <v>-794.49853316253905</v>
       </c>
-      <c r="BN51" s="2">
+      <c r="BO51" s="2">
         <v>-796.77945798370365</v>
       </c>
-      <c r="BO51" s="2">
+      <c r="BP51" s="2">
         <v>-799.06693110901563</v>
       </c>
-      <c r="BP51" s="2">
+      <c r="BQ51" s="2">
         <v>-801.36097133799308</v>
       </c>
-      <c r="BQ51" s="2">
+      <c r="BR51" s="2">
         <v>-803.66159752412534</v>
       </c>
-      <c r="BR51" s="2">
+      <c r="BS51" s="2">
         <v>-805.96882857502851</v>
       </c>
-      <c r="BS51" s="2">
+      <c r="BT51" s="2">
         <v>-808.28268345260028</v>
       </c>
-      <c r="BT51" s="2">
+      <c r="BU51" s="2">
         <v>-810.60318117317604</v>
       </c>
-      <c r="BU51" s="2">
+      <c r="BV51" s="2">
         <v>-812.93034080768575</v>
       </c>
     </row>
-    <row r="52" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>27</v>
       </c>
@@ -7951,145 +8059,146 @@
       <c r="AB52" s="2">
         <v>-3297.8805343056015</v>
       </c>
-      <c r="AC52" s="2">
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2">
         <v>-3307.3484153072072</v>
       </c>
-      <c r="AD52" s="2">
+      <c r="AE52" s="2">
         <v>-3316.8434776362528</v>
       </c>
-      <c r="AE52" s="2">
+      <c r="AF52" s="2">
         <v>-3326.365799327576</v>
       </c>
-      <c r="AF52" s="2">
+      <c r="AG52" s="2">
         <v>-3335.9154586400459</v>
       </c>
-      <c r="AG52" s="2">
+      <c r="AH52" s="2">
         <v>-3345.4925340572045</v>
       </c>
-      <c r="AH52" s="2">
+      <c r="AI52" s="2">
         <v>-3355.0971042879096</v>
       </c>
-      <c r="AI52" s="2">
+      <c r="AJ52" s="2">
         <v>-3364.7292482669877</v>
       </c>
-      <c r="AJ52" s="2">
+      <c r="AK52" s="2">
         <v>-3374.3890451558768</v>
       </c>
-      <c r="AK52" s="2">
+      <c r="AL52" s="2">
         <v>-3384.0765743432812</v>
       </c>
-      <c r="AL52" s="2">
+      <c r="AM52" s="2">
         <v>-3393.7919154458209</v>
       </c>
-      <c r="AM52" s="2">
+      <c r="AN52" s="2">
         <v>-3403.535148308687</v>
       </c>
-      <c r="AN52" s="2">
+      <c r="AO52" s="2">
         <v>-3413.3063530062987</v>
       </c>
-      <c r="AO52" s="2">
+      <c r="AP52" s="2">
         <v>-3423.1056098429603</v>
       </c>
-      <c r="AP52" s="2">
+      <c r="AQ52" s="2">
         <v>-3432.9329993535216</v>
       </c>
-      <c r="AQ52" s="2">
+      <c r="AR52" s="2">
         <v>-3442.7886023040419</v>
       </c>
-      <c r="AR52" s="2">
+      <c r="AS52" s="2">
         <v>-3452.6724996924481</v>
       </c>
-      <c r="AS52" s="2">
+      <c r="AT52" s="2">
         <v>-3462.5847727492064</v>
       </c>
-      <c r="AT52" s="2">
+      <c r="AU52" s="2">
         <v>-3472.5255029379864</v>
       </c>
-      <c r="AU52" s="2">
+      <c r="AV52" s="2">
         <v>-3482.494771956332</v>
       </c>
-      <c r="AV52" s="2">
+      <c r="AW52" s="2">
         <v>-3492.4926617363326</v>
       </c>
-      <c r="AW52" s="2">
+      <c r="AX52" s="2">
         <v>-3502.5192544452957</v>
       </c>
-      <c r="AX52" s="2">
+      <c r="AY52" s="2">
         <v>-3512.574632486424</v>
       </c>
-      <c r="AY52" s="2">
+      <c r="AZ52" s="2">
         <v>-3522.658878499491</v>
       </c>
-      <c r="AZ52" s="2">
+      <c r="BA52" s="2">
         <v>-3532.7720753615195</v>
       </c>
-      <c r="BA52" s="2">
+      <c r="BB52" s="2">
         <v>-3542.9143061874643</v>
       </c>
-      <c r="BB52" s="2">
+      <c r="BC52" s="2">
         <v>-3553.0856543308964</v>
       </c>
-      <c r="BC52" s="2">
+      <c r="BD52" s="2">
         <v>-3563.2862033846845</v>
       </c>
-      <c r="BD52" s="2">
+      <c r="BE52" s="2">
         <v>-3573.5160371816846</v>
       </c>
-      <c r="BE52" s="2">
+      <c r="BF52" s="2">
         <v>-3583.7752397954296</v>
       </c>
-      <c r="BF52" s="2">
+      <c r="BG52" s="2">
         <v>-3594.0638955408172</v>
       </c>
-      <c r="BG52" s="2">
+      <c r="BH52" s="2">
         <v>-3604.3820889748049</v>
       </c>
-      <c r="BH52" s="2">
+      <c r="BI52" s="2">
         <v>-3614.7299048971054</v>
       </c>
-      <c r="BI52" s="2">
+      <c r="BJ52" s="2">
         <v>-3625.1074283508824</v>
       </c>
-      <c r="BJ52" s="2">
+      <c r="BK52" s="2">
         <v>-3635.51474462345</v>
       </c>
-      <c r="BK52" s="2">
+      <c r="BL52" s="2">
         <v>-3645.9519392469742</v>
       </c>
-      <c r="BL52" s="2">
+      <c r="BM52" s="2">
         <v>-3656.4190979991736</v>
       </c>
-      <c r="BM52" s="2">
+      <c r="BN52" s="2">
         <v>-3666.9163069040264</v>
       </c>
-      <c r="BN52" s="2">
+      <c r="BO52" s="2">
         <v>-3677.4436522324781</v>
       </c>
-      <c r="BO52" s="2">
+      <c r="BP52" s="2">
         <v>-3688.0012205031494</v>
       </c>
-      <c r="BP52" s="2">
+      <c r="BQ52" s="2">
         <v>-3698.5890984830453</v>
       </c>
-      <c r="BQ52" s="2">
+      <c r="BR52" s="2">
         <v>-3709.2073731882706</v>
       </c>
-      <c r="BR52" s="2">
+      <c r="BS52" s="2">
         <v>-3719.8561318847469</v>
       </c>
-      <c r="BS52" s="2">
+      <c r="BT52" s="2">
         <v>-3730.5354620889243</v>
       </c>
-      <c r="BT52" s="2">
+      <c r="BU52" s="2">
         <v>-3741.2454515685049</v>
       </c>
-      <c r="BU52" s="2">
+      <c r="BV52" s="2">
         <v>-3751.9861883431649</v>
       </c>
-      <c r="BV52" s="2"/>
       <c r="BW52" s="2"/>
+      <c r="BX52" s="2"/>
     </row>
-    <row r="53" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:76" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -8163,8 +8272,9 @@
       <c r="BU53" s="2"/>
       <c r="BV53" s="2"/>
       <c r="BW53" s="2"/>
+      <c r="BX53" s="2"/>
     </row>
-    <row r="54" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:76" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -8236,8 +8346,9 @@
       <c r="BS54" s="2"/>
       <c r="BT54" s="2"/>
       <c r="BU54" s="2"/>
+      <c r="BV54" s="2"/>
     </row>
-    <row r="56" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>41</v>
       </c>
@@ -8300,19 +8411,25 @@
         <v>280</v>
       </c>
     </row>
-    <row r="57" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="Y57" s="33"/>
       <c r="AA57" s="33"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:BW34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:BX34">
     <sortCondition ref="A20:A34"/>
   </sortState>
   <conditionalFormatting sqref="Y1:Z1">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA1">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB1">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA1">
+  <conditionalFormatting sqref="AC1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Energy - Orçado x Realizado.xlsx
+++ b/Energy - Orçado x Realizado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Modelos IA\Controle Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4259076D-A0B2-46B6-9E3A-922F6A44966C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9C03A6-F87E-4926-B7FE-158975914658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>Receita Bruta</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Reembolso Aporte a Maior Brumat</t>
+  </si>
+  <si>
+    <t>Pintura Galpão</t>
   </si>
 </sst>
 </file>
@@ -759,13 +762,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E0C361-DC00-4C96-A388-FAD64E248995}">
-  <dimension ref="A1:BX57"/>
+  <dimension ref="A1:BX58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="P16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA12" sqref="AA12:AA13"/>
+      <selection pane="bottomRight" activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -923,7 +926,11 @@
       </c>
       <c r="AA2" s="2">
         <f>Y2+AA4+AA15</f>
-        <v>245982.34999999998</v>
+        <v>239443.05999999997</v>
+      </c>
+      <c r="AC2" s="2">
+        <f>AA2+AC4+AC15</f>
+        <v>152208.09999999998</v>
       </c>
     </row>
     <row r="3" spans="1:74" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -1260,7 +1267,7 @@
       </c>
       <c r="AC4" s="5">
         <f t="shared" ref="AC4" si="2">AC5+AC8</f>
-        <v>-188037.23</v>
+        <v>-19033.080000000002</v>
       </c>
       <c r="AD4" s="5">
         <f t="shared" si="0"/>
@@ -1553,7 +1560,7 @@
       </c>
       <c r="AC5" s="5">
         <f t="shared" ref="AC5" si="7">SUM(AC6:AC7)</f>
-        <v>0</v>
+        <v>100941.54</v>
       </c>
       <c r="AD5" s="5">
         <f t="shared" si="5"/>
@@ -1810,7 +1817,9 @@
       <c r="AB6" s="2">
         <v>109929.35114352005</v>
       </c>
-      <c r="AC6" s="2"/>
+      <c r="AC6" s="2">
+        <v>100941.54</v>
+      </c>
       <c r="AD6" s="2">
         <v>110244.94717690691</v>
       </c>
@@ -2252,8 +2261,8 @@
         <v>0</v>
       </c>
       <c r="AC8" s="5">
-        <f t="shared" ref="AC8" si="10">SUM(AC9:AC12)</f>
-        <v>-188037.23</v>
+        <f>SUM(AC9:AC13)</f>
+        <v>-119974.62</v>
       </c>
       <c r="AD8" s="5">
         <f t="shared" si="9"/>
@@ -2276,163 +2285,163 @@
         <v>0</v>
       </c>
       <c r="AI8" s="5">
-        <f t="shared" ref="AI8:BN8" si="11">SUM(AI9:AI12)</f>
+        <f t="shared" ref="AI8:BN8" si="10">SUM(AI9:AI12)</f>
         <v>0</v>
       </c>
       <c r="AJ8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AP8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AS8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AT8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AU8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AV8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BA8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BB8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BC8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BD8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BE8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BF8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BG8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BH8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BI8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BK8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BL8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BM8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BN8" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BO8" s="5">
+        <f t="shared" ref="BO8:BV8" si="11">SUM(BO9:BO12)</f>
+        <v>0</v>
+      </c>
+      <c r="BP8" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AK8" s="5">
+      <c r="BQ8" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AL8" s="5">
+      <c r="BR8" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AM8" s="5">
+      <c r="BS8" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AN8" s="5">
+      <c r="BT8" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AO8" s="5">
+      <c r="BU8" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AP8" s="5">
+      <c r="BV8" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AR8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AS8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AT8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AU8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AV8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AW8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AX8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AY8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BA8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BB8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BC8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BD8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BE8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BF8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BG8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BH8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BI8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BK8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BL8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BM8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BN8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BO8" s="5">
-        <f t="shared" ref="BO8:BV8" si="12">SUM(BO9:BO12)</f>
-        <v>0</v>
-      </c>
-      <c r="BP8" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BR8" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BS8" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BT8" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BU8" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BV8" s="5">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -2441,7 +2450,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="7">
-        <f t="shared" ref="B9:B16" si="13">C9+E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9</f>
+        <f t="shared" ref="B9:B16" si="12">C9+E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9</f>
         <v>380651</v>
       </c>
       <c r="C9" s="2">
@@ -2545,7 +2554,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="7">
-        <f t="shared" ref="B10" si="14">C10+E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10</f>
+        <f t="shared" ref="B10" si="13">C10+E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10</f>
         <v>497000</v>
       </c>
       <c r="C10" s="2"/>
@@ -2632,7 +2641,7 @@
         <v>42</v>
       </c>
       <c r="B11" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>991000</v>
       </c>
       <c r="C11" s="2"/>
@@ -2732,7 +2741,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-156000</v>
       </c>
       <c r="C12" s="2"/>
@@ -2765,7 +2774,7 @@
       <c r="AA12" s="10"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="10">
-        <v>-188037.23</v>
+        <v>-96000</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -2818,7 +2827,7 @@
         <v>46</v>
       </c>
       <c r="B13" s="7">
-        <f t="shared" ref="B13" si="15">C13+E13+G13+I13+K13+M13+O13+Q13+S13+U13+W13+Y13</f>
+        <f t="shared" ref="B13" si="14">C13+E13+G13+I13+K13+M13+O13+Q13+S13+U13+W13+Y13</f>
         <v>0</v>
       </c>
       <c r="C13" s="2"/>
@@ -2848,7 +2857,7 @@
       <c r="AA13" s="10"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="10">
-        <v>-23794.62</v>
+        <v>-23974.62</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
@@ -2977,295 +2986,295 @@
         <v>10</v>
       </c>
       <c r="B15" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-1988221.31</v>
       </c>
       <c r="C15" s="10">
-        <f>C16+C40+C48+C26</f>
+        <f>C16+C41+C49+C26</f>
         <v>-52056.649999999994</v>
       </c>
       <c r="D15" s="5">
-        <f>D16-D40-D48</f>
+        <f>D16-D41-D49</f>
         <v>-91009.140647318447</v>
       </c>
       <c r="E15" s="10">
-        <f>E16+E40+E48+E26</f>
+        <f>E16+E41+E49+E26</f>
         <v>-54706.32</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" ref="F15:J15" si="16">F16+F40+F48</f>
+        <f t="shared" ref="F15:J15" si="15">F16+F41+F49</f>
         <v>-408527.40230918775</v>
       </c>
       <c r="G15" s="10">
-        <f>G16+G40+G48+G26</f>
+        <f>G16+G41+G49+G26</f>
         <v>-175296.1</v>
       </c>
       <c r="H15" s="5">
+        <f t="shared" si="15"/>
+        <v>-409516.0182064494</v>
+      </c>
+      <c r="I15" s="10">
+        <f>I16+I41+I49+I26</f>
+        <v>-126600.84</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="15"/>
+        <v>-305118.589039805</v>
+      </c>
+      <c r="K15" s="10">
+        <f>K16+K41+K49+K26</f>
+        <v>-7684.3</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" ref="L15:AB15" si="16">L16+L41+L49</f>
+        <v>-305163.02165031742</v>
+      </c>
+      <c r="M15" s="10">
+        <f>M16+M41+M49+M26</f>
+        <v>-157263.75000000003</v>
+      </c>
+      <c r="N15" s="5">
         <f t="shared" si="16"/>
-        <v>-409516.0182064494</v>
-      </c>
-      <c r="I15" s="10">
-        <f>I16+I40+I48+I26</f>
-        <v>-126600.84</v>
-      </c>
-      <c r="J15" s="5">
+        <v>-305207.5818223544</v>
+      </c>
+      <c r="O15" s="10">
+        <f>O16+O41+O49+O26</f>
+        <v>-325460.69999999995</v>
+      </c>
+      <c r="P15" s="5">
         <f t="shared" si="16"/>
-        <v>-305118.589039805</v>
-      </c>
-      <c r="K15" s="10">
-        <f>K16+K40+K48+K26</f>
-        <v>-7684.3</v>
-      </c>
-      <c r="L15" s="5">
-        <f t="shared" ref="L15:AB15" si="17">L16+L40+L48</f>
-        <v>-305163.02165031742</v>
-      </c>
-      <c r="M15" s="10">
-        <f>M16+M40+M48+M26</f>
-        <v>-157263.75000000003</v>
-      </c>
-      <c r="N15" s="5">
+        <v>-282184.56565269525</v>
+      </c>
+      <c r="Q15" s="10">
+        <f>Q16+Q41+Q49+Q26</f>
+        <v>-186366.61</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" si="16"/>
+        <v>-13655.396624750776</v>
+      </c>
+      <c r="S15" s="10">
+        <f>S16+S41+S49+S26</f>
+        <v>-13708.77</v>
+      </c>
+      <c r="T15" s="5">
+        <f t="shared" si="16"/>
+        <v>-13700.341682867411</v>
+      </c>
+      <c r="U15" s="10">
+        <f>U16+U41+U49+U26</f>
+        <v>-143558.44999999998</v>
+      </c>
+      <c r="V15" s="5">
+        <f t="shared" si="16"/>
+        <v>-13745.41577369382</v>
+      </c>
+      <c r="W15" s="10">
+        <f>W16+W41+W49+W26</f>
+        <v>-592353.26</v>
+      </c>
+      <c r="X15" s="5">
+        <f t="shared" si="16"/>
+        <v>-13790.619267669847</v>
+      </c>
+      <c r="Y15" s="10">
+        <f>Y16+Y41+Y49+Y26</f>
+        <v>-153165.56</v>
+      </c>
+      <c r="Z15" s="5">
+        <f t="shared" si="16"/>
+        <v>-13927.009888864799</v>
+      </c>
+      <c r="AA15" s="10">
+        <f>AA16+AA41+AA49+AA26</f>
+        <v>-212386.09</v>
+      </c>
+      <c r="AB15" s="5">
+        <f t="shared" si="16"/>
+        <v>-13972.734721153462</v>
+      </c>
+      <c r="AC15" s="5">
+        <f>AC16+AC41+AC49+AC26</f>
+        <v>-68201.87999999999</v>
+      </c>
+      <c r="AD15" s="5">
+        <f t="shared" ref="AD15:BV15" si="17">AD16-AD41-AD49</f>
+        <v>14018.590824804574</v>
+      </c>
+      <c r="AE15" s="5">
         <f t="shared" si="17"/>
-        <v>-305207.5818223544</v>
-      </c>
-      <c r="O15" s="10">
-        <f>O16+O40+O48+O26</f>
-        <v>-325460.69999999995</v>
-      </c>
-      <c r="P15" s="5">
+        <v>14064.578576684915</v>
+      </c>
+      <c r="AF15" s="5">
         <f t="shared" si="17"/>
-        <v>-282184.56565269525</v>
-      </c>
-      <c r="Q15" s="10">
-        <f>Q16+Q40+Q48+Q26</f>
-        <v>-186366.61</v>
-      </c>
-      <c r="R15" s="5">
+        <v>14110.698354743226</v>
+      </c>
+      <c r="AG15" s="5">
         <f t="shared" si="17"/>
-        <v>-13655.396624750776</v>
-      </c>
-      <c r="S15" s="10">
-        <f>S16+S40+S48+S26</f>
-        <v>-13708.77</v>
-      </c>
-      <c r="T15" s="5">
+        <v>14156.95053801329</v>
+      </c>
+      <c r="AH15" s="5">
         <f t="shared" si="17"/>
-        <v>-13700.341682867411</v>
-      </c>
-      <c r="U15" s="10">
-        <f>U16+U40+U48+U26</f>
-        <v>-143558.44999999998</v>
-      </c>
-      <c r="V15" s="5">
+        <v>14203.335506617061</v>
+      </c>
+      <c r="AI15" s="5">
         <f t="shared" si="17"/>
-        <v>-13745.41577369382</v>
-      </c>
-      <c r="W15" s="10">
-        <f>W16+W40+W48+W26</f>
-        <v>-592353.26</v>
-      </c>
-      <c r="X15" s="5">
+        <v>14249.853641767777</v>
+      </c>
+      <c r="AJ15" s="5">
         <f t="shared" si="17"/>
-        <v>-13790.619267669847</v>
-      </c>
-      <c r="Y15" s="10">
-        <f>Y16+Y40+Y48+Y26</f>
-        <v>-153165.56</v>
-      </c>
-      <c r="Z15" s="5">
+        <v>14296.505325773111</v>
+      </c>
+      <c r="AK15" s="5">
         <f t="shared" si="17"/>
-        <v>-13927.009888864799</v>
-      </c>
-      <c r="AA15" s="10">
-        <f>AA16+AA40+AA48+AA26</f>
-        <v>-205846.8</v>
-      </c>
-      <c r="AB15" s="5">
+        <v>14343.290942038298</v>
+      </c>
+      <c r="AL15" s="5">
         <f t="shared" si="17"/>
-        <v>-13972.734721153462</v>
-      </c>
-      <c r="AC15" s="5">
-        <f t="shared" ref="AC15" si="18">AC16+AC40+AC48</f>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="5">
-        <f t="shared" ref="AD15:BV15" si="19">AD16-AD40-AD48</f>
-        <v>14018.590824804574</v>
-      </c>
-      <c r="AE15" s="5">
-        <f t="shared" si="19"/>
-        <v>14064.578576684915</v>
-      </c>
-      <c r="AF15" s="5">
-        <f t="shared" si="19"/>
-        <v>14110.698354743226</v>
-      </c>
-      <c r="AG15" s="5">
-        <f t="shared" si="19"/>
-        <v>14156.95053801329</v>
-      </c>
-      <c r="AH15" s="5">
-        <f t="shared" si="19"/>
-        <v>14203.335506617061</v>
-      </c>
-      <c r="AI15" s="5">
-        <f t="shared" si="19"/>
-        <v>14249.853641767777</v>
-      </c>
-      <c r="AJ15" s="5">
-        <f t="shared" si="19"/>
-        <v>14296.505325773111</v>
-      </c>
-      <c r="AK15" s="5">
-        <f t="shared" si="19"/>
-        <v>14343.290942038298</v>
-      </c>
-      <c r="AL15" s="5">
-        <f t="shared" si="19"/>
         <v>14390.210875069293</v>
       </c>
       <c r="AM15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>14437.265510475925</v>
       </c>
       <c r="AN15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>14484.455234975074</v>
       </c>
       <c r="AO15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>14531.780436393839</v>
       </c>
       <c r="AP15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>14579.241503672736</v>
       </c>
       <c r="AQ15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>14626.838826868892</v>
       </c>
       <c r="AR15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>14674.572797159242</v>
       </c>
       <c r="AS15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>14722.443806843758</v>
       </c>
       <c r="AT15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>14770.452249348658</v>
       </c>
       <c r="AU15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>14818.598519229647</v>
       </c>
       <c r="AV15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>14866.883012175169</v>
       </c>
       <c r="AW15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>14915.306125009638</v>
       </c>
       <c r="AX15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>14963.868255696718</v>
       </c>
       <c r="AY15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>15012.56980334258</v>
       </c>
       <c r="AZ15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>15061.411168199204</v>
       </c>
       <c r="BA15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>15110.392751667627</v>
       </c>
       <c r="BB15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>15159.514956301286</v>
       </c>
       <c r="BC15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>15208.778185809309</v>
       </c>
       <c r="BD15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>15258.182845059824</v>
       </c>
       <c r="BE15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>15307.729340083293</v>
       </c>
       <c r="BF15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>15357.418078075865</v>
       </c>
       <c r="BG15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>15407.249467402691</v>
       </c>
       <c r="BH15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>15457.223917601306</v>
       </c>
       <c r="BI15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>15507.341839384981</v>
       </c>
       <c r="BJ15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>15557.603644646108</v>
       </c>
       <c r="BK15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>15608.009746459578</v>
       </c>
       <c r="BL15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>15658.560559086181</v>
       </c>
       <c r="BM15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>15709.256497975995</v>
       </c>
       <c r="BN15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>15760.097979771836</v>
       </c>
       <c r="BO15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>15811.085422312635</v>
       </c>
       <c r="BP15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>15862.219244636921</v>
       </c>
       <c r="BQ15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>15913.499866986218</v>
       </c>
       <c r="BR15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>15964.927710808526</v>
       </c>
       <c r="BS15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>16016.503198761791</v>
       </c>
       <c r="BT15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>16068.226754717358</v>
       </c>
       <c r="BU15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>16120.09880376346</v>
       </c>
       <c r="BV15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>16172.119772208731</v>
       </c>
     </row>
@@ -3274,7 +3283,7 @@
         <v>39</v>
       </c>
       <c r="B16" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-41829.279999999999</v>
       </c>
       <c r="C16" s="10">
@@ -3282,287 +3291,287 @@
         <v>-67</v>
       </c>
       <c r="D16" s="10">
-        <f t="shared" ref="D16:BP16" si="20">SUM(D17:D24)</f>
+        <f t="shared" ref="D16:BP16" si="18">SUM(D17:D24)</f>
         <v>-104441.73458080005</v>
       </c>
       <c r="E16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-1852.12</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-104441.73458080005</v>
       </c>
       <c r="G16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-4563.88</v>
       </c>
       <c r="H16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-104441.73458080005</v>
       </c>
       <c r="I16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-4543.79</v>
       </c>
       <c r="J16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-3569.94</v>
       </c>
       <c r="L16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-3672.54</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-3497.54</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-3695.1800000000003</v>
       </c>
       <c r="R16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-3889.4</v>
       </c>
       <c r="T16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-4751.5199999999995</v>
       </c>
       <c r="V16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-3917.34</v>
       </c>
       <c r="X16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-3809.03</v>
       </c>
       <c r="Z16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AA16" s="10">
-        <f t="shared" ref="AA16" si="21">SUM(AA17:AA24)</f>
+        <f t="shared" ref="AA16" si="19">SUM(AA17:AA24)</f>
         <v>-3532.46</v>
       </c>
       <c r="AB16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC16" s="10">
-        <f t="shared" ref="AC16" si="22">SUM(AC17:AC24)</f>
-        <v>0</v>
+        <f t="shared" ref="AC16" si="20">SUM(AC17:AC24)</f>
+        <v>-4082.84</v>
       </c>
       <c r="AD16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AG16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AI16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AK16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AL16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AM16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AN16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AO16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AP16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AQ16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AR16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AT16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AU16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AV16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AW16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AX16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AY16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BA16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BB16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BC16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BD16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BE16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BG16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BH16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BI16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BJ16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BK16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BL16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BM16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BN16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BO16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BP16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BQ16" s="10">
-        <f t="shared" ref="BQ16:BV16" si="23">SUM(BQ17:BQ24)</f>
+        <f t="shared" ref="BQ16:BV16" si="21">SUM(BQ17:BQ24)</f>
         <v>0</v>
       </c>
       <c r="BR16" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BS16" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BT16" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BU16" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BV16" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -3832,7 +3841,9 @@
         <v>-2961.86</v>
       </c>
       <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
+      <c r="AC18" s="10">
+        <v>-2962</v>
+      </c>
       <c r="AD18" s="10"/>
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
@@ -3995,7 +4006,9 @@
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
+      <c r="AC20" s="10">
+        <v>-101.27</v>
+      </c>
       <c r="AD20" s="10"/>
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
@@ -4197,7 +4210,9 @@
         <v>-500</v>
       </c>
       <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
+      <c r="AC22" s="10">
+        <v>-500</v>
+      </c>
       <c r="AD22" s="10"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
@@ -4285,7 +4300,9 @@
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
+      <c r="AC23" s="10">
+        <v>-419.07</v>
+      </c>
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
@@ -4397,7 +4414,9 @@
         <v>-70.599999999999994</v>
       </c>
       <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
+      <c r="AC24" s="10">
+        <v>-100.5</v>
+      </c>
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
@@ -4525,295 +4544,295 @@
         <v>40</v>
       </c>
       <c r="B26" s="7">
-        <f t="shared" ref="B26" si="24">C26+E26+G26+I26+K26+M26+O26+Q26+S26+U26+W26+Y26</f>
+        <f t="shared" ref="B26" si="22">C26+E26+G26+I26+K26+M26+O26+Q26+S26+U26+W26+Y26</f>
         <v>-509306.81</v>
       </c>
       <c r="C26" s="10">
-        <f>SUM(C27:C34)</f>
+        <f>SUM(C27:C35)</f>
         <v>-3584.26</v>
       </c>
       <c r="D26" s="10">
-        <f>D36</f>
+        <f>D37</f>
         <v>-65653.507640750671</v>
       </c>
       <c r="E26" s="10">
-        <f t="shared" ref="E26:U26" si="25">SUM(E27:E34)</f>
+        <f t="shared" ref="E26:U26" si="23">SUM(E27:E35)</f>
         <v>-262.55</v>
       </c>
       <c r="F26" s="10">
-        <f>F36</f>
+        <f>F37</f>
         <v>-65876.818891229414</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>-45200</v>
       </c>
       <c r="H26" s="10">
-        <f>H36</f>
+        <f>H37</f>
         <v>-65876.818891229414</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J26" s="10">
-        <f>J36</f>
+        <f>J37</f>
         <v>-66065.944566201084</v>
       </c>
       <c r="K26" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>-1900</v>
       </c>
       <c r="L26" s="10">
-        <f>L36</f>
+        <f>L37</f>
         <v>-66255.613201830784</v>
       </c>
       <c r="M26" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N26" s="10">
-        <f>N36</f>
+        <f>N37</f>
         <v>-61190.224272176725</v>
       </c>
       <c r="O26" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P26" s="10">
-        <f>SUM(P36:P38)</f>
+        <f>SUM(P37:P39)</f>
         <v>-21001.377400679175</v>
       </c>
       <c r="Q26" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R26" s="10">
-        <f>SUM(R36:R38)</f>
+        <f>SUM(R37:R39)</f>
         <v>-21061.670228157629</v>
       </c>
       <c r="S26" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>-1900</v>
       </c>
       <c r="T26" s="10">
-        <f>SUM(T36:T38)</f>
+        <f>SUM(T37:T39)</f>
         <v>-21122.136150237264</v>
       </c>
       <c r="U26" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V26" s="10">
-        <f>SUM(V36:V38)</f>
+        <f>SUM(V37:V39)</f>
         <v>-21182.775663855144</v>
       </c>
       <c r="W26" s="10">
-        <f>SUM(W27:W38)</f>
+        <f>SUM(W27:W39)</f>
         <v>-454360</v>
       </c>
       <c r="X26" s="10">
-        <f>SUM(X36:X38)</f>
+        <f>SUM(X37:X39)</f>
         <v>-21243.589267374988</v>
       </c>
       <c r="Y26" s="10">
-        <f>SUM(Y27:Y38)</f>
+        <f>SUM(Y27:Y39)</f>
         <v>-2100</v>
       </c>
       <c r="Z26" s="10">
-        <f t="shared" ref="Z26:BV26" si="26">SUM(Z36:Z38)</f>
+        <f t="shared" ref="Z26:BV26" si="24">SUM(Z37:Z39)</f>
         <v>-21343.696035109606</v>
       </c>
       <c r="AA26" s="10">
-        <f>SUM(AA27:AA38)</f>
+        <f>SUM(AA27:AA39)</f>
         <v>0</v>
       </c>
       <c r="AB26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-21404.971624717167</v>
       </c>
       <c r="AC26" s="10">
-        <f t="shared" ref="AC26" si="27">SUM(AC36:AC38)</f>
-        <v>0</v>
+        <f>SUM(AC27:AC39)</f>
+        <v>-2650</v>
       </c>
       <c r="AD26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-21466.423130336439</v>
       </c>
       <c r="AE26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-21528.051057004479</v>
       </c>
       <c r="AF26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-21589.855911208251</v>
       </c>
       <c r="AG26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-21651.838200888789</v>
       </c>
       <c r="AH26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-21713.998435445377</v>
       </c>
       <c r="AI26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-21776.337125739727</v>
       </c>
       <c r="AJ26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-21838.854784100196</v>
       </c>
       <c r="AK26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-21901.55192432597</v>
       </c>
       <c r="AL26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-64446.492532590026</v>
       </c>
       <c r="AM26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-21984.459234025133</v>
       </c>
       <c r="AN26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-22047.574389879686</v>
       </c>
       <c r="AO26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-22110.870742954336</v>
       </c>
       <c r="AP26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-22174.348813447948</v>
       </c>
       <c r="AQ26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-22238.009123052834</v>
       </c>
       <c r="AR26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-22301.852194959021</v>
       </c>
       <c r="AS26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-22365.878553858565</v>
       </c>
       <c r="AT26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-22430.088725949863</v>
       </c>
       <c r="AU26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-22494.483238941968</v>
       </c>
       <c r="AV26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-22559.06262205894</v>
       </c>
       <c r="AW26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-22623.827406044176</v>
       </c>
       <c r="AX26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-66657.713815544965</v>
       </c>
       <c r="AY26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-22709.381866529005</v>
       </c>
       <c r="AZ26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-22774.578201840646</v>
       </c>
       <c r="BA26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-22839.961709227824</v>
       </c>
       <c r="BB26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-22905.532926042604</v>
       </c>
       <c r="BC26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-22971.292391179752</v>
       </c>
       <c r="BD26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-23037.240645081121</v>
       </c>
       <c r="BE26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-23103.378229740149</v>
       </c>
       <c r="BF26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-23169.70568870625</v>
       </c>
       <c r="BG26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-23236.223567089342</v>
       </c>
       <c r="BH26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-23302.932411564278</v>
       </c>
       <c r="BI26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-23369.832770375368</v>
       </c>
       <c r="BJ26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-68944.773634954356</v>
       </c>
       <c r="BK26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-23458.118120746487</v>
       </c>
       <c r="BL26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-23525.464002011286</v>
       </c>
       <c r="BM26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-23593.003226480341</v>
       </c>
       <c r="BN26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-23660.736349222414</v>
       </c>
       <c r="BO26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-23728.663926899808</v>
       </c>
       <c r="BP26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-23796.786517772947</v>
       </c>
       <c r="BQ26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-23865.104681704961</v>
       </c>
       <c r="BR26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-23933.618980166299</v>
       </c>
       <c r="BS26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-24002.329976239329</v>
       </c>
       <c r="BT26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-24071.238234622968</v>
       </c>
       <c r="BU26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-24140.344321637334</v>
       </c>
       <c r="BV26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-71310.271942298365</v>
       </c>
     </row>
@@ -5298,16 +5317,8 @@
     </row>
     <row r="33" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="10">
-        <f>-262.55</f>
-        <v>-262.55</v>
-      </c>
-      <c r="F33" s="10"/>
+        <v>47</v>
+      </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -5330,7 +5341,9 @@
       <c r="Z33" s="10"/>
       <c r="AA33" s="10"/>
       <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
+      <c r="AC33" s="10">
+        <v>-2650</v>
+      </c>
       <c r="AD33" s="10"/>
       <c r="AE33" s="10"/>
       <c r="AF33" s="10"/>
@@ -5378,11 +5391,16 @@
       <c r="BV33" s="10"/>
     </row>
     <row r="34" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
+      <c r="A34" s="25" t="s">
+        <v>17</v>
+      </c>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="10">
+        <f>-262.55</f>
+        <v>-262.55</v>
+      </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -5400,11 +5418,11 @@
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
-      <c r="W34" s="17"/>
+      <c r="W34" s="10"/>
       <c r="X34" s="10"/>
-      <c r="Y34" s="17"/>
+      <c r="Y34" s="10"/>
       <c r="Z34" s="10"/>
-      <c r="AA34" s="17"/>
+      <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
       <c r="AD34" s="10"/>
@@ -5453,486 +5471,355 @@
       <c r="BU34" s="10"/>
       <c r="BV34" s="10"/>
     </row>
-    <row r="35" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+    <row r="35" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="2"/>
+      <c r="H35" s="10"/>
       <c r="I35" s="10"/>
-      <c r="J35" s="2"/>
+      <c r="J35" s="10"/>
       <c r="K35" s="10"/>
-      <c r="L35" s="2"/>
+      <c r="L35" s="10"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="2"/>
+      <c r="N35" s="10"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
-      <c r="AG35" s="2"/>
-      <c r="AH35" s="2"/>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="2"/>
-      <c r="AK35" s="2"/>
-      <c r="AL35" s="2"/>
-      <c r="AM35" s="2"/>
-      <c r="AN35" s="2"/>
-      <c r="AO35" s="2"/>
-      <c r="AP35" s="2"/>
-      <c r="AQ35" s="2"/>
-      <c r="AR35" s="2"/>
-      <c r="AS35" s="2"/>
-      <c r="AT35" s="2"/>
-      <c r="AU35" s="2"/>
-      <c r="AV35" s="2"/>
-      <c r="AW35" s="2"/>
-      <c r="AX35" s="2"/>
-      <c r="AY35" s="2"/>
-      <c r="AZ35" s="2"/>
-      <c r="BA35" s="2"/>
-      <c r="BB35" s="2"/>
-      <c r="BC35" s="2"/>
-      <c r="BD35" s="2"/>
-      <c r="BE35" s="2"/>
-      <c r="BF35" s="2"/>
-      <c r="BG35" s="2"/>
-      <c r="BH35" s="2"/>
-      <c r="BI35" s="2"/>
-      <c r="BJ35" s="2"/>
-      <c r="BK35" s="2"/>
-      <c r="BL35" s="2"/>
-      <c r="BM35" s="2"/>
-      <c r="BN35" s="2"/>
-      <c r="BO35" s="2"/>
-      <c r="BP35" s="2"/>
-      <c r="BQ35" s="2"/>
-      <c r="BR35" s="2"/>
-      <c r="BS35" s="2"/>
-      <c r="BT35" s="2"/>
-      <c r="BU35" s="2"/>
-      <c r="BV35" s="2"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="10"/>
+      <c r="AP35" s="10"/>
+      <c r="AQ35" s="10"/>
+      <c r="AR35" s="10"/>
+      <c r="AS35" s="10"/>
+      <c r="AT35" s="10"/>
+      <c r="AU35" s="10"/>
+      <c r="AV35" s="10"/>
+      <c r="AW35" s="10"/>
+      <c r="AX35" s="10"/>
+      <c r="AY35" s="10"/>
+      <c r="AZ35" s="10"/>
+      <c r="BA35" s="10"/>
+      <c r="BB35" s="10"/>
+      <c r="BC35" s="10"/>
+      <c r="BD35" s="10"/>
+      <c r="BE35" s="10"/>
+      <c r="BF35" s="10"/>
+      <c r="BG35" s="10"/>
+      <c r="BH35" s="10"/>
+      <c r="BI35" s="10"/>
+      <c r="BJ35" s="10"/>
+      <c r="BK35" s="10"/>
+      <c r="BL35" s="10"/>
+      <c r="BM35" s="10"/>
+      <c r="BN35" s="10"/>
+      <c r="BO35" s="10"/>
+      <c r="BP35" s="10"/>
+      <c r="BQ35" s="10"/>
+      <c r="BR35" s="10"/>
+      <c r="BS35" s="10"/>
+      <c r="BT35" s="10"/>
+      <c r="BU35" s="10"/>
+      <c r="BV35" s="10"/>
     </row>
     <row r="36" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="4"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2">
-        <v>-65653.507640750671</v>
-      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2">
-        <v>-65876.818891229414</v>
-      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="2">
-        <v>-65876.818891229414</v>
-      </c>
+      <c r="H36" s="2"/>
       <c r="I36" s="10"/>
-      <c r="J36" s="2">
-        <v>-66065.944566201084</v>
-      </c>
+      <c r="J36" s="2"/>
       <c r="K36" s="10"/>
-      <c r="L36" s="2">
-        <v>-66255.613201830784</v>
-      </c>
+      <c r="L36" s="2"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="2">
-        <v>-61190.224272176725</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="10"/>
-      <c r="P36" s="2">
-        <v>-1225.9044755676</v>
-      </c>
+      <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="2">
-        <v>-1229.4239231562174</v>
-      </c>
+      <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-      <c r="T36" s="2">
-        <v>-1232.9534747224088</v>
-      </c>
+      <c r="T36" s="2"/>
       <c r="U36" s="2"/>
-      <c r="V36" s="2">
-        <v>-1236.4931592736705</v>
-      </c>
+      <c r="V36" s="2"/>
       <c r="W36" s="2"/>
-      <c r="X36" s="2">
-        <v>-1240.0430059007761</v>
-      </c>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2">
-        <v>-1167.3702230391473</v>
-      </c>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2">
-        <v>-1170.7216247171586</v>
-      </c>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
-      <c r="AD36" s="2">
-        <v>-1174.0826479299544</v>
-      </c>
-      <c r="AE36" s="2">
-        <v>-1177.4533202999867</v>
-      </c>
-      <c r="AF36" s="2">
-        <v>-1180.8336695290086</v>
-      </c>
-      <c r="AG36" s="2">
-        <v>-1184.2237233983019</v>
-      </c>
-      <c r="AH36" s="2">
-        <v>-1187.6235097689064</v>
-      </c>
-      <c r="AI36" s="2">
-        <v>-1191.0330565818472</v>
-      </c>
-      <c r="AJ36" s="2">
-        <v>-1194.4523918583661</v>
-      </c>
-      <c r="AK36" s="2">
-        <v>-1197.8815437001504</v>
-      </c>
-      <c r="AL36" s="2">
-        <v>-1201.3205402895646</v>
-      </c>
-      <c r="AM36" s="2">
-        <v>-1161.7419309652439</v>
-      </c>
-      <c r="AN36" s="2">
-        <v>-1165.0771743867494</v>
-      </c>
-      <c r="AO36" s="2">
-        <v>-1168.4219929543217</v>
-      </c>
-      <c r="AP36" s="2">
-        <v>-1171.7764141572352</v>
-      </c>
-      <c r="AQ36" s="2">
-        <v>-1175.1404655636834</v>
-      </c>
-      <c r="AR36" s="2">
-        <v>-1178.5141748210051</v>
-      </c>
-      <c r="AS36" s="2">
-        <v>-1181.8975696559123</v>
-      </c>
-      <c r="AT36" s="2">
-        <v>-1185.2906778747174</v>
-      </c>
-      <c r="AU36" s="2">
-        <v>-1188.6935273635615</v>
-      </c>
-      <c r="AV36" s="2">
-        <v>-1192.1061460886442</v>
-      </c>
-      <c r="AW36" s="2">
-        <v>-1195.5285620964537</v>
-      </c>
-      <c r="AX36" s="2">
-        <v>-1198.9608035139959</v>
-      </c>
-      <c r="AY36" s="2">
-        <v>-1157.8694578620261</v>
-      </c>
-      <c r="AZ36" s="2">
-        <v>-1161.1935838054603</v>
-      </c>
-      <c r="BA36" s="2">
-        <v>-1164.5272529778074</v>
-      </c>
-      <c r="BB36" s="2">
-        <v>-1167.8704927767112</v>
-      </c>
-      <c r="BC36" s="2">
-        <v>-1171.2233306784713</v>
-      </c>
-      <c r="BD36" s="2">
-        <v>-1174.5857942382688</v>
-      </c>
-      <c r="BE36" s="2">
-        <v>-1177.9579110903931</v>
-      </c>
-      <c r="BF36" s="2">
-        <v>-1181.3397089484688</v>
-      </c>
-      <c r="BG36" s="2">
-        <v>-1184.7312156056832</v>
-      </c>
-      <c r="BH36" s="2">
-        <v>-1188.1324589350158</v>
-      </c>
-      <c r="BI36" s="2">
-        <v>-1191.5434668894657</v>
-      </c>
-      <c r="BJ36" s="2">
-        <v>-1194.9642675022828</v>
-      </c>
-      <c r="BK36" s="2">
-        <v>-1152.3027777761515</v>
-      </c>
-      <c r="BL36" s="2">
-        <v>-1155.6109223448575</v>
-      </c>
-      <c r="BM36" s="2">
-        <v>-1158.9285642615682</v>
-      </c>
-      <c r="BN36" s="2">
-        <v>-1162.2557307922082</v>
-      </c>
-      <c r="BO36" s="2">
-        <v>-1165.5924492809788</v>
-      </c>
-      <c r="BP36" s="2">
-        <v>-1168.9387471505852</v>
-      </c>
-      <c r="BQ36" s="2">
-        <v>-1172.2946519024588</v>
-      </c>
-      <c r="BR36" s="2">
-        <v>-1175.660191116986</v>
-      </c>
-      <c r="BS36" s="2">
-        <v>-1179.0353924537333</v>
-      </c>
-      <c r="BT36" s="2">
-        <v>-1182.4202836516747</v>
-      </c>
-      <c r="BU36" s="2">
-        <v>-1185.8148925294206</v>
-      </c>
-      <c r="BV36" s="2">
-        <v>-1189.2192469854454</v>
-      </c>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="2"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36" s="2"/>
+      <c r="AP36" s="2"/>
+      <c r="AQ36" s="2"/>
+      <c r="AR36" s="2"/>
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="2"/>
+      <c r="AU36" s="2"/>
+      <c r="AV36" s="2"/>
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2"/>
+      <c r="AZ36" s="2"/>
+      <c r="BA36" s="2"/>
+      <c r="BB36" s="2"/>
+      <c r="BC36" s="2"/>
+      <c r="BD36" s="2"/>
+      <c r="BE36" s="2"/>
+      <c r="BF36" s="2"/>
+      <c r="BG36" s="2"/>
+      <c r="BH36" s="2"/>
+      <c r="BI36" s="2"/>
+      <c r="BJ36" s="2"/>
+      <c r="BK36" s="2"/>
+      <c r="BL36" s="2"/>
+      <c r="BM36" s="2"/>
+      <c r="BN36" s="2"/>
+      <c r="BO36" s="2"/>
+      <c r="BP36" s="2"/>
+      <c r="BQ36" s="2"/>
+      <c r="BR36" s="2"/>
+      <c r="BS36" s="2"/>
+      <c r="BT36" s="2"/>
+      <c r="BU36" s="2"/>
+      <c r="BV36" s="2"/>
     </row>
     <row r="37" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2">
-        <v>0</v>
+        <v>-65653.507640750671</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="10">
-        <v>0</v>
-      </c>
+        <v>-65876.818891229414</v>
+      </c>
+      <c r="G37" s="10"/>
       <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="10">
-        <v>0</v>
-      </c>
+        <v>-65876.818891229414</v>
+      </c>
+      <c r="I37" s="10"/>
       <c r="J37" s="2">
-        <v>0</v>
-      </c>
-      <c r="K37" s="10">
-        <v>0</v>
-      </c>
+        <v>-66065.944566201084</v>
+      </c>
+      <c r="K37" s="10"/>
       <c r="L37" s="2">
-        <v>0</v>
-      </c>
-      <c r="M37" s="10">
-        <v>0</v>
-      </c>
+        <v>-66255.613201830784</v>
+      </c>
+      <c r="M37" s="10"/>
       <c r="N37" s="2">
-        <v>0</v>
-      </c>
-      <c r="O37" s="10">
-        <v>0</v>
-      </c>
+        <v>-61190.224272176725</v>
+      </c>
+      <c r="O37" s="10"/>
       <c r="P37" s="2">
-        <v>-19775.472925111575</v>
+        <v>-1225.9044755676</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2">
-        <v>-19832.246305001412</v>
+        <v>-1229.4239231562174</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="2">
-        <v>-19889.182675514854</v>
+        <v>-1232.9534747224088</v>
       </c>
       <c r="U37" s="2"/>
       <c r="V37" s="2">
-        <v>-19946.282504581472</v>
-      </c>
-      <c r="W37" s="2">
-        <f>-(150000+67360)</f>
-        <v>-217360</v>
-      </c>
+        <v>-1236.4931592736705</v>
+      </c>
+      <c r="W37" s="2"/>
       <c r="X37" s="2">
-        <v>-20003.54626147421</v>
+        <v>-1240.0430059007761</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2">
-        <v>-20176.32581207046</v>
+        <v>-1167.3702230391473</v>
       </c>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2">
-        <v>-20234.250000000007</v>
+        <v>-1170.7216247171586</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2">
-        <v>-20292.340482406486</v>
+        <v>-1174.0826479299544</v>
       </c>
       <c r="AE37" s="2">
-        <v>-20350.597736704491</v>
+        <v>-1177.4533202999867</v>
       </c>
       <c r="AF37" s="2">
-        <v>-20409.022241679242</v>
+        <v>-1180.8336695290086</v>
       </c>
       <c r="AG37" s="2">
-        <v>-20467.614477490486</v>
+        <v>-1184.2237233983019</v>
       </c>
       <c r="AH37" s="2">
-        <v>-20526.374925676471</v>
+        <v>-1187.6235097689064</v>
       </c>
       <c r="AI37" s="2">
-        <v>-20585.304069157879</v>
+        <v>-1191.0330565818472</v>
       </c>
       <c r="AJ37" s="2">
-        <v>-20644.402392241831</v>
+        <v>-1194.4523918583661</v>
       </c>
       <c r="AK37" s="2">
-        <v>-20703.670380625819</v>
+        <v>-1197.8815437001504</v>
       </c>
       <c r="AL37" s="2">
-        <v>-20763.108521401744</v>
+        <v>-1201.3205402895646</v>
       </c>
       <c r="AM37" s="2">
-        <v>-20822.71730305989</v>
+        <v>-1161.7419309652439</v>
       </c>
       <c r="AN37" s="2">
-        <v>-20882.497215492938</v>
+        <v>-1165.0771743867494</v>
       </c>
       <c r="AO37" s="2">
-        <v>-20942.448750000014</v>
+        <v>-1168.4219929543217</v>
       </c>
       <c r="AP37" s="2">
-        <v>-21002.572399290715</v>
+        <v>-1171.7764141572352</v>
       </c>
       <c r="AQ37" s="2">
-        <v>-21062.868657489151</v>
+        <v>-1175.1404655636834</v>
       </c>
       <c r="AR37" s="2">
-        <v>-21123.338020138017</v>
+        <v>-1178.5141748210051</v>
       </c>
       <c r="AS37" s="2">
-        <v>-21183.980984202652</v>
+        <v>-1181.8975696559123</v>
       </c>
       <c r="AT37" s="2">
-        <v>-21244.798048075147</v>
+        <v>-1185.2906778747174</v>
       </c>
       <c r="AU37" s="2">
-        <v>-21305.789711578407</v>
+        <v>-1188.6935273635615</v>
       </c>
       <c r="AV37" s="2">
-        <v>-21366.956475970295</v>
+        <v>-1192.1061460886442</v>
       </c>
       <c r="AW37" s="2">
-        <v>-21428.298843947723</v>
+        <v>-1195.5285620964537</v>
       </c>
       <c r="AX37" s="2">
-        <v>-21489.817319650803</v>
+        <v>-1198.9608035139959</v>
       </c>
       <c r="AY37" s="2">
-        <v>-21551.512408666978</v>
+        <v>-1157.8694578620261</v>
       </c>
       <c r="AZ37" s="2">
-        <v>-21613.384618035187</v>
+        <v>-1161.1935838054603</v>
       </c>
       <c r="BA37" s="2">
-        <v>-21675.434456250016</v>
+        <v>-1164.5272529778074</v>
       </c>
       <c r="BB37" s="2">
-        <v>-21737.662433265894</v>
+        <v>-1167.8704927767112</v>
       </c>
       <c r="BC37" s="2">
-        <v>-21800.069060501279</v>
+        <v>-1171.2233306784713</v>
       </c>
       <c r="BD37" s="2">
-        <v>-21862.654850842853</v>
+        <v>-1174.5857942382688</v>
       </c>
       <c r="BE37" s="2">
-        <v>-21925.420318649754</v>
+        <v>-1177.9579110903931</v>
       </c>
       <c r="BF37" s="2">
-        <v>-21988.365979757782</v>
+        <v>-1181.3397089484688</v>
       </c>
       <c r="BG37" s="2">
-        <v>-22051.492351483659</v>
+        <v>-1184.7312156056832</v>
       </c>
       <c r="BH37" s="2">
-        <v>-22114.799952629262</v>
+        <v>-1188.1324589350158</v>
       </c>
       <c r="BI37" s="2">
-        <v>-22178.289303485901</v>
+        <v>-1191.5434668894657</v>
       </c>
       <c r="BJ37" s="2">
-        <v>-22241.96092583859</v>
+        <v>-1194.9642675022828</v>
       </c>
       <c r="BK37" s="2">
-        <v>-22305.815342970334</v>
+        <v>-1152.3027777761515</v>
       </c>
       <c r="BL37" s="2">
-        <v>-22369.853079666427</v>
+        <v>-1155.6109223448575</v>
       </c>
       <c r="BM37" s="2">
-        <v>-22434.074662218773</v>
+        <v>-1158.9285642615682</v>
       </c>
       <c r="BN37" s="2">
-        <v>-22498.480618430207</v>
+        <v>-1162.2557307922082</v>
       </c>
       <c r="BO37" s="2">
-        <v>-22563.071477618829</v>
+        <v>-1165.5924492809788</v>
       </c>
       <c r="BP37" s="2">
-        <v>-22627.84777062236</v>
+        <v>-1168.9387471505852</v>
       </c>
       <c r="BQ37" s="2">
-        <v>-22692.810029802502</v>
+        <v>-1172.2946519024588</v>
       </c>
       <c r="BR37" s="2">
-        <v>-22757.958789049313</v>
+        <v>-1175.660191116986</v>
       </c>
       <c r="BS37" s="2">
-        <v>-22823.294583785595</v>
+        <v>-1179.0353924537333</v>
       </c>
       <c r="BT37" s="2">
-        <v>-22888.817950971294</v>
+        <v>-1182.4202836516747</v>
       </c>
       <c r="BU37" s="2">
-        <v>-22954.529429107915</v>
+        <v>-1185.8148925294206</v>
       </c>
       <c r="BV37" s="2">
-        <v>-23020.429558242948</v>
+        <v>-1189.2192469854454</v>
       </c>
     </row>
     <row r="38" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="2"/>
@@ -5971,648 +5858,771 @@
         <v>0</v>
       </c>
       <c r="P38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>0</v>
-      </c>
+        <v>-19775.472925111575</v>
+      </c>
+      <c r="Q38" s="2"/>
       <c r="R38" s="2">
-        <v>0</v>
-      </c>
-      <c r="S38" s="2">
-        <v>0</v>
-      </c>
+        <v>-19832.246305001412</v>
+      </c>
+      <c r="S38" s="2"/>
       <c r="T38" s="2">
-        <v>0</v>
-      </c>
-      <c r="U38" s="2">
-        <v>0</v>
-      </c>
+        <v>-19889.182675514854</v>
+      </c>
+      <c r="U38" s="2"/>
       <c r="V38" s="2">
-        <v>0</v>
+        <v>-19946.282504581472</v>
       </c>
       <c r="W38" s="2">
-        <v>0</v>
+        <f>-(150000+67360)</f>
+        <v>-217360</v>
       </c>
       <c r="X38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="2">
-        <v>0</v>
-      </c>
+        <v>-20003.54626147421</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="2">
-        <v>0</v>
-      </c>
+        <v>-20176.32581207046</v>
+      </c>
+      <c r="AA38" s="2"/>
       <c r="AB38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="2">
-        <v>0</v>
-      </c>
+        <v>-20234.250000000007</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" s="2">
-        <v>0</v>
+        <v>-20292.340482406486</v>
       </c>
       <c r="AE38" s="2">
-        <v>0</v>
+        <v>-20350.597736704491</v>
       </c>
       <c r="AF38" s="2">
-        <v>0</v>
+        <v>-20409.022241679242</v>
       </c>
       <c r="AG38" s="2">
-        <v>0</v>
+        <v>-20467.614477490486</v>
       </c>
       <c r="AH38" s="2">
-        <v>0</v>
+        <v>-20526.374925676471</v>
       </c>
       <c r="AI38" s="2">
-        <v>0</v>
+        <v>-20585.304069157879</v>
       </c>
       <c r="AJ38" s="2">
-        <v>0</v>
+        <v>-20644.402392241831</v>
       </c>
       <c r="AK38" s="2">
-        <v>0</v>
+        <v>-20703.670380625819</v>
       </c>
       <c r="AL38" s="2">
-        <v>-42482.063470898713</v>
+        <v>-20763.108521401744</v>
       </c>
       <c r="AM38" s="2">
-        <v>0</v>
+        <v>-20822.71730305989</v>
       </c>
       <c r="AN38" s="2">
-        <v>0</v>
+        <v>-20882.497215492938</v>
       </c>
       <c r="AO38" s="2">
-        <v>0</v>
+        <v>-20942.448750000014</v>
       </c>
       <c r="AP38" s="2">
-        <v>0</v>
+        <v>-21002.572399290715</v>
       </c>
       <c r="AQ38" s="2">
-        <v>0</v>
+        <v>-21062.868657489151</v>
       </c>
       <c r="AR38" s="2">
-        <v>0</v>
+        <v>-21123.338020138017</v>
       </c>
       <c r="AS38" s="2">
-        <v>0</v>
+        <v>-21183.980984202652</v>
       </c>
       <c r="AT38" s="2">
-        <v>0</v>
+        <v>-21244.798048075147</v>
       </c>
       <c r="AU38" s="2">
-        <v>0</v>
+        <v>-21305.789711578407</v>
       </c>
       <c r="AV38" s="2">
-        <v>0</v>
+        <v>-21366.956475970295</v>
       </c>
       <c r="AW38" s="2">
-        <v>0</v>
+        <v>-21428.298843947723</v>
       </c>
       <c r="AX38" s="2">
-        <v>-43968.935692380161</v>
+        <v>-21489.817319650803</v>
       </c>
       <c r="AY38" s="2">
-        <v>0</v>
+        <v>-21551.512408666978</v>
       </c>
       <c r="AZ38" s="2">
-        <v>0</v>
+        <v>-21613.384618035187</v>
       </c>
       <c r="BA38" s="2">
-        <v>0</v>
+        <v>-21675.434456250016</v>
       </c>
       <c r="BB38" s="2">
-        <v>0</v>
+        <v>-21737.662433265894</v>
       </c>
       <c r="BC38" s="2">
-        <v>0</v>
+        <v>-21800.069060501279</v>
       </c>
       <c r="BD38" s="2">
-        <v>0</v>
+        <v>-21862.654850842853</v>
       </c>
       <c r="BE38" s="2">
-        <v>0</v>
+        <v>-21925.420318649754</v>
       </c>
       <c r="BF38" s="2">
-        <v>0</v>
+        <v>-21988.365979757782</v>
       </c>
       <c r="BG38" s="2">
-        <v>0</v>
+        <v>-22051.492351483659</v>
       </c>
       <c r="BH38" s="2">
-        <v>0</v>
+        <v>-22114.799952629262</v>
       </c>
       <c r="BI38" s="2">
-        <v>0</v>
+        <v>-22178.289303485901</v>
       </c>
       <c r="BJ38" s="2">
-        <v>-45507.848441613482</v>
+        <v>-22241.96092583859</v>
       </c>
       <c r="BK38" s="2">
-        <v>0</v>
+        <v>-22305.815342970334</v>
       </c>
       <c r="BL38" s="2">
-        <v>0</v>
+        <v>-22369.853079666427</v>
       </c>
       <c r="BM38" s="2">
-        <v>0</v>
+        <v>-22434.074662218773</v>
       </c>
       <c r="BN38" s="2">
-        <v>0</v>
+        <v>-22498.480618430207</v>
       </c>
       <c r="BO38" s="2">
-        <v>0</v>
+        <v>-22563.071477618829</v>
       </c>
       <c r="BP38" s="2">
-        <v>0</v>
+        <v>-22627.84777062236</v>
       </c>
       <c r="BQ38" s="2">
-        <v>0</v>
+        <v>-22692.810029802502</v>
       </c>
       <c r="BR38" s="2">
-        <v>0</v>
+        <v>-22757.958789049313</v>
       </c>
       <c r="BS38" s="2">
-        <v>0</v>
+        <v>-22823.294583785595</v>
       </c>
       <c r="BT38" s="2">
-        <v>0</v>
+        <v>-22888.817950971294</v>
       </c>
       <c r="BU38" s="2">
-        <v>0</v>
+        <v>-22954.529429107915</v>
       </c>
       <c r="BV38" s="2">
-        <v>-47100.623137069968</v>
+        <v>-23020.429558242948</v>
       </c>
     </row>
     <row r="39" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="4"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="2"/>
-      <c r="AK39" s="2"/>
-      <c r="AL39" s="2"/>
-      <c r="AM39" s="2"/>
-      <c r="AN39" s="2"/>
-      <c r="AO39" s="2"/>
-      <c r="AP39" s="2"/>
-      <c r="AQ39" s="2"/>
-      <c r="AR39" s="2"/>
-      <c r="AS39" s="2"/>
-      <c r="AT39" s="2"/>
-      <c r="AU39" s="2"/>
-      <c r="AV39" s="2"/>
-      <c r="AW39" s="2"/>
-      <c r="AX39" s="2"/>
-      <c r="AY39" s="2"/>
-      <c r="AZ39" s="2"/>
-      <c r="BA39" s="2"/>
-      <c r="BB39" s="2"/>
-      <c r="BC39" s="2"/>
-      <c r="BD39" s="2"/>
-      <c r="BE39" s="2"/>
-      <c r="BF39" s="2"/>
-      <c r="BG39" s="2"/>
-      <c r="BH39" s="2"/>
-      <c r="BI39" s="2"/>
-      <c r="BJ39" s="2"/>
-      <c r="BK39" s="2"/>
-      <c r="BL39" s="2"/>
-      <c r="BM39" s="2"/>
-      <c r="BN39" s="2"/>
-      <c r="BO39" s="2"/>
-      <c r="BP39" s="2"/>
-      <c r="BQ39" s="2"/>
-      <c r="BR39" s="2"/>
-      <c r="BS39" s="2"/>
-      <c r="BT39" s="2"/>
-      <c r="BU39" s="2"/>
-      <c r="BV39" s="2"/>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="10">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="10">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="10">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="R39" s="2">
+        <v>0</v>
+      </c>
+      <c r="S39" s="2">
+        <v>0</v>
+      </c>
+      <c r="T39" s="2">
+        <v>0</v>
+      </c>
+      <c r="U39" s="2">
+        <v>0</v>
+      </c>
+      <c r="V39" s="2">
+        <v>0</v>
+      </c>
+      <c r="W39" s="2">
+        <v>0</v>
+      </c>
+      <c r="X39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="2">
+        <v>-42482.063470898713</v>
+      </c>
+      <c r="AM39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="2">
+        <v>-43968.935692380161</v>
+      </c>
+      <c r="AY39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ39" s="2">
+        <v>-45507.848441613482</v>
+      </c>
+      <c r="BK39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV39" s="2">
+        <v>-47100.623137069968</v>
+      </c>
     </row>
     <row r="40" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="7">
-        <f t="shared" ref="B40" si="28">C40+E40+G40+I40+K40+M40+O40+Q40+S40+U40+W40+Y40</f>
-        <v>-1411922.6900000002</v>
-      </c>
-      <c r="C40" s="2">
-        <f>SUM(C41:C46)</f>
-        <v>-48405.389999999992</v>
-      </c>
+      <c r="A40" s="28"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2">
-        <f>SUM(E41:E46)</f>
-        <v>-52591.649999999994</v>
-      </c>
-      <c r="F40" s="2">
-        <v>-290653.07379490609</v>
-      </c>
-      <c r="G40" s="10">
-        <f>SUM(G41:G46)</f>
-        <v>-125323</v>
-      </c>
-      <c r="H40" s="2">
-        <v>-291641.68969216774</v>
-      </c>
-      <c r="I40" s="10">
-        <f>SUM(I41:I46)</f>
-        <v>-121141.37000000001</v>
-      </c>
-      <c r="J40" s="2">
-        <v>-291641.68969216774</v>
-      </c>
-      <c r="K40" s="10">
-        <f>SUM(K41:K46)</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="2">
-        <v>-291641.68969216774</v>
-      </c>
-      <c r="M40" s="10">
-        <f>SUM(M41:M46)</f>
-        <v>-152130.95000000001</v>
-      </c>
-      <c r="N40" s="2">
-        <v>-291641.68969216774</v>
-      </c>
-      <c r="O40" s="10">
-        <f>SUM(O41:O46)</f>
-        <v>-319987.78999999998</v>
-      </c>
-      <c r="P40" s="2">
-        <v>-268573.98542273074</v>
-      </c>
-      <c r="Q40" s="10">
-        <f>SUM(Q41:Q46)</f>
-        <v>-180529.02</v>
-      </c>
-      <c r="R40" s="2">
-        <v>0</v>
-      </c>
-      <c r="S40" s="10">
-        <f>SUM(S41:S46)</f>
-        <v>-3436.5</v>
-      </c>
-      <c r="T40" s="2">
-        <v>0</v>
-      </c>
-      <c r="U40" s="10">
-        <f>SUM(U41:U46)</f>
-        <v>-132635.07999999999</v>
-      </c>
-      <c r="V40" s="2">
-        <v>0</v>
-      </c>
-      <c r="W40" s="10">
-        <f>SUM(W41:W46)</f>
-        <v>-132108.59</v>
-      </c>
-      <c r="X40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="10">
-        <f>SUM(Y41:Y46)</f>
-        <v>-143633.35</v>
-      </c>
-      <c r="Z40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="10">
-        <f>SUM(AA41:AA46)</f>
-        <v>-197460.84</v>
-      </c>
-      <c r="AB40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BS40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU40" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV40" s="2">
-        <v>0</v>
-      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="2"/>
+      <c r="AN40" s="2"/>
+      <c r="AO40" s="2"/>
+      <c r="AP40" s="2"/>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="2"/>
+      <c r="AV40" s="2"/>
+      <c r="AW40" s="2"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="2"/>
+      <c r="AZ40" s="2"/>
+      <c r="BA40" s="2"/>
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="2"/>
+      <c r="BD40" s="2"/>
+      <c r="BE40" s="2"/>
+      <c r="BF40" s="2"/>
+      <c r="BG40" s="2"/>
+      <c r="BH40" s="2"/>
+      <c r="BI40" s="2"/>
+      <c r="BJ40" s="2"/>
+      <c r="BK40" s="2"/>
+      <c r="BL40" s="2"/>
+      <c r="BM40" s="2"/>
+      <c r="BN40" s="2"/>
+      <c r="BO40" s="2"/>
+      <c r="BP40" s="2"/>
+      <c r="BQ40" s="2"/>
+      <c r="BR40" s="2"/>
+      <c r="BS40" s="2"/>
+      <c r="BT40" s="2"/>
+      <c r="BU40" s="2"/>
+      <c r="BV40" s="2"/>
     </row>
     <row r="41" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10">
-        <f>-(5745.31+35690.7)</f>
-        <v>-41436.009999999995</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10">
-        <f>-(5745.31+35690.7)</f>
-        <v>-41436.009999999995</v>
-      </c>
-      <c r="F41" s="10"/>
+      <c r="A41" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="7">
+        <f t="shared" ref="B41" si="25">C41+E41+G41+I41+K41+M41+O41+Q41+S41+U41+W41+Y41</f>
+        <v>-1411922.6900000002</v>
+      </c>
+      <c r="C41" s="2">
+        <f>SUM(C42:C47)</f>
+        <v>-48405.389999999992</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
+        <f>SUM(E42:E47)</f>
+        <v>-52591.649999999994</v>
+      </c>
+      <c r="F41" s="2">
+        <v>-290653.07379490609</v>
+      </c>
       <c r="G41" s="10">
-        <f>-(104346.46+16794.92)</f>
-        <v>-121141.38</v>
-      </c>
-      <c r="H41" s="10"/>
+        <f>SUM(G42:G47)</f>
+        <v>-125323</v>
+      </c>
+      <c r="H41" s="2">
+        <v>-291641.68969216774</v>
+      </c>
       <c r="I41" s="10">
-        <f>-(104346.46+16794.91)</f>
+        <f>SUM(I42:I47)</f>
         <v>-121141.37000000001</v>
       </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="2"/>
+      <c r="J41" s="2">
+        <v>-291641.68969216774</v>
+      </c>
+      <c r="K41" s="10">
+        <f>SUM(K42:K47)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>-291641.68969216774</v>
+      </c>
       <c r="M41" s="10">
-        <f>-(116631.88+18772.57)</f>
-        <v>-135404.45000000001</v>
-      </c>
-      <c r="N41" s="2"/>
+        <f>SUM(M42:M47)</f>
+        <v>-152130.95000000001</v>
+      </c>
+      <c r="N41" s="2">
+        <v>-291641.68969216774</v>
+      </c>
       <c r="O41" s="10">
-        <f>-(24467.06+152007.6+18772.56+116631.87)</f>
-        <v>-311879.08999999997</v>
-      </c>
-      <c r="P41" s="2"/>
+        <f>SUM(O42:O47)</f>
+        <v>-319987.78999999998</v>
+      </c>
+      <c r="P41" s="2">
+        <v>-268573.98542273074</v>
+      </c>
       <c r="Q41" s="10">
-        <f>-(152007.6+24467.06)</f>
-        <v>-176474.66</v>
-      </c>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="16"/>
+        <f>SUM(Q42:Q47)</f>
+        <v>-180529.02</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0</v>
+      </c>
+      <c r="S41" s="10">
+        <f>SUM(S42:S47)</f>
+        <v>-3436.5</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0</v>
+      </c>
       <c r="U41" s="10">
-        <f>-110449.55-17777.79</f>
-        <v>-128227.34</v>
-      </c>
-      <c r="V41" s="2"/>
+        <f>SUM(U42:U47)</f>
+        <v>-132635.07999999999</v>
+      </c>
+      <c r="V41" s="2">
+        <v>0</v>
+      </c>
       <c r="W41" s="10">
-        <f>-(17777.79+110449.55)</f>
-        <v>-128227.34</v>
-      </c>
-      <c r="X41" s="2"/>
+        <f>SUM(W42:W47)</f>
+        <v>-132108.59</v>
+      </c>
+      <c r="X41" s="2">
+        <v>0</v>
+      </c>
       <c r="Y41" s="10">
-        <f>-(110449.55+17777.79)</f>
-        <v>-128227.34</v>
-      </c>
-      <c r="Z41" s="2"/>
+        <f>SUM(Y42:Y47)</f>
+        <v>-143633.35</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>0</v>
+      </c>
       <c r="AA41" s="10">
-        <f>-(17777.79+110449.55+49781.78+8012.68)</f>
-        <v>-186021.8</v>
-      </c>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="2"/>
-      <c r="AF41" s="2"/>
-      <c r="AG41" s="2"/>
-      <c r="AH41" s="2"/>
-      <c r="AI41" s="2"/>
-      <c r="AJ41" s="2"/>
-      <c r="AK41" s="2"/>
-      <c r="AL41" s="2"/>
-      <c r="AM41" s="2"/>
-      <c r="AN41" s="2"/>
-      <c r="AO41" s="2"/>
-      <c r="AP41" s="2"/>
-      <c r="AQ41" s="2"/>
-      <c r="AR41" s="2"/>
-      <c r="AS41" s="2"/>
-      <c r="AT41" s="2"/>
-      <c r="AU41" s="2"/>
-      <c r="AV41" s="2"/>
-      <c r="AW41" s="2"/>
-      <c r="AX41" s="2"/>
-      <c r="AY41" s="2"/>
-      <c r="AZ41" s="2"/>
-      <c r="BA41" s="2"/>
-      <c r="BB41" s="2"/>
-      <c r="BC41" s="2"/>
-      <c r="BD41" s="2"/>
-      <c r="BE41" s="2"/>
-      <c r="BF41" s="2"/>
-      <c r="BG41" s="2"/>
-      <c r="BH41" s="2"/>
-      <c r="BI41" s="2"/>
-      <c r="BJ41" s="2"/>
-      <c r="BK41" s="2"/>
-      <c r="BL41" s="2"/>
-      <c r="BM41" s="2"/>
-      <c r="BN41" s="2"/>
-      <c r="BO41" s="2"/>
-      <c r="BP41" s="2"/>
-      <c r="BQ41" s="2"/>
-      <c r="BR41" s="2"/>
-      <c r="BS41" s="2"/>
-      <c r="BT41" s="2"/>
-      <c r="BU41" s="2"/>
-      <c r="BV41" s="2"/>
+        <f>SUM(AA42:AA47)</f>
+        <v>-197460.84</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="10">
+        <f>SUM(AC42:AC47)</f>
+        <v>-61385.09</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV41" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
+      <c r="C42" s="10">
+        <f>-(5745.31+35690.7)</f>
+        <v>-41436.009999999995</v>
+      </c>
       <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="E42" s="10">
+        <f>-(5745.31+35690.7)</f>
+        <v>-41436.009999999995</v>
+      </c>
       <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="10"/>
+      <c r="G42" s="10">
+        <f>-(104346.46+16794.92)</f>
+        <v>-121141.38</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10">
+        <f>-(104346.46+16794.91)</f>
+        <v>-121141.37000000001</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="10"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="10"/>
+      <c r="M42" s="10">
+        <f>-(116631.88+18772.57)</f>
+        <v>-135404.45000000001</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" s="10">
-        <f>-(4054.35+4054.35)</f>
-        <v>-8108.7</v>
+        <f>-(24467.06+152007.6+18772.56+116631.87)</f>
+        <v>-311879.08999999997</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="10">
-        <v>-4054.36</v>
+        <f>-(152007.6+24467.06)</f>
+        <v>-176474.66</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="10"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="10">
+        <f>-110449.55-17777.79</f>
+        <v>-128227.34</v>
+      </c>
       <c r="V42" s="2"/>
-      <c r="W42" s="10"/>
+      <c r="W42" s="10">
+        <f>-(17777.79+110449.55)</f>
+        <v>-128227.34</v>
+      </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="10">
-        <f>-(3967.07+3967.07)</f>
-        <v>-7934.14</v>
+        <f>-(110449.55+17777.79)</f>
+        <v>-128227.34</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="10">
-        <v>-3967.17</v>
+        <f>-(17777.79+110449.55+49781.78+8012.68)</f>
+        <v>-186021.8</v>
       </c>
       <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
+      <c r="AC42" s="2">
+        <f>-(49781.78+8012.68)</f>
+        <v>-57794.46</v>
+      </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
@@ -6661,13 +6671,13 @@
     </row>
     <row r="43" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="2"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="2"/>
       <c r="I43" s="10"/>
@@ -6676,19 +6686,29 @@
       <c r="L43" s="2"/>
       <c r="M43" s="10"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="10"/>
+      <c r="O43" s="10">
+        <f>-(4054.35+4054.35)</f>
+        <v>-8108.7</v>
+      </c>
       <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
+      <c r="Q43" s="10">
+        <v>-4054.36</v>
+      </c>
       <c r="R43" s="2"/>
-      <c r="S43" s="10"/>
+      <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="10"/>
       <c r="V43" s="2"/>
       <c r="W43" s="10"/>
       <c r="X43" s="2"/>
-      <c r="Y43" s="10"/>
+      <c r="Y43" s="10">
+        <f>-(3967.07+3967.07)</f>
+        <v>-7934.14</v>
+      </c>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="10"/>
+      <c r="AA43" s="10">
+        <v>-3967.17</v>
+      </c>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
@@ -6739,7 +6759,7 @@
     </row>
     <row r="44" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
@@ -6758,10 +6778,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="10">
-        <f>-(687.3*5)</f>
-        <v>-3436.5</v>
-      </c>
+      <c r="S44" s="10"/>
       <c r="T44" s="2"/>
       <c r="U44" s="10"/>
       <c r="V44" s="2"/>
@@ -6820,7 +6837,7 @@
     </row>
     <row r="45" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
@@ -6839,25 +6856,18 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="10"/>
+      <c r="S45" s="10">
+        <f>-(687.3*5)</f>
+        <v>-3436.5</v>
+      </c>
       <c r="T45" s="2"/>
-      <c r="U45" s="10">
-        <v>-4407.74</v>
-      </c>
+      <c r="U45" s="10"/>
       <c r="V45" s="2"/>
-      <c r="W45" s="10">
-        <v>-3881.25</v>
-      </c>
+      <c r="W45" s="10"/>
       <c r="X45" s="2"/>
-      <c r="Y45" s="10">
-        <f>-(3590.62+3881.25)</f>
-        <v>-7471.87</v>
-      </c>
+      <c r="Y45" s="10"/>
       <c r="Z45" s="2"/>
-      <c r="AA45" s="10">
-        <f>-(3590.62+3881.25)</f>
-        <v>-7471.87</v>
-      </c>
+      <c r="AA45" s="10"/>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
@@ -6908,30 +6918,20 @@
     </row>
     <row r="46" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="10">
-        <v>-6969.38</v>
-      </c>
+      <c r="C46" s="10"/>
       <c r="D46" s="10"/>
-      <c r="E46" s="10">
-        <f>-(4181.63+6974.01)</f>
-        <v>-11155.64</v>
-      </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10">
-        <v>-4181.62</v>
-      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="10"/>
       <c r="H46" s="2"/>
       <c r="I46" s="10"/>
       <c r="J46" s="2"/>
       <c r="K46" s="10"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="10">
-        <f>-(8363.25+8363.25)</f>
-        <v>-16726.5</v>
-      </c>
+      <c r="M46" s="10"/>
       <c r="N46" s="2"/>
       <c r="O46" s="10"/>
       <c r="P46" s="2"/>
@@ -6939,15 +6939,27 @@
       <c r="R46" s="2"/>
       <c r="S46" s="10"/>
       <c r="T46" s="2"/>
-      <c r="U46" s="10"/>
+      <c r="U46" s="10">
+        <v>-4407.74</v>
+      </c>
       <c r="V46" s="2"/>
-      <c r="W46" s="10"/>
+      <c r="W46" s="10">
+        <v>-3881.25</v>
+      </c>
       <c r="X46" s="2"/>
-      <c r="Y46" s="10"/>
+      <c r="Y46" s="10">
+        <f>-(3590.62+3881.25)</f>
+        <v>-7471.87</v>
+      </c>
       <c r="Z46" s="2"/>
-      <c r="AA46" s="10"/>
+      <c r="AA46" s="10">
+        <f>-(3590.62+3881.25)</f>
+        <v>-7471.87</v>
+      </c>
       <c r="AB46" s="2"/>
-      <c r="AC46" s="2"/>
+      <c r="AC46" s="2">
+        <v>-3590.63</v>
+      </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
@@ -6995,33 +7007,45 @@
       <c r="BV46" s="2"/>
     </row>
     <row r="47" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="10"/>
+      <c r="A47" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10">
+        <v>-6969.38</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10">
+        <f>-(4181.63+6974.01)</f>
+        <v>-11155.64</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10">
+        <v>-4181.62</v>
+      </c>
       <c r="H47" s="2"/>
       <c r="I47" s="10"/>
       <c r="J47" s="2"/>
       <c r="K47" s="10"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="10"/>
+      <c r="M47" s="10">
+        <f>-(8363.25+8363.25)</f>
+        <v>-16726.5</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" s="10"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
+      <c r="S47" s="10"/>
       <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
+      <c r="U47" s="10"/>
       <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
+      <c r="W47" s="10"/>
       <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
+      <c r="Y47" s="10"/>
       <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
+      <c r="AA47" s="10"/>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
@@ -7071,1206 +7095,1210 @@
       <c r="BV47" s="2"/>
     </row>
     <row r="48" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="32">
-        <f t="shared" ref="B48" si="29">C48+E48+G48+I48+K48+M48+O48+Q48+S48+U48+W48+Y48</f>
-        <v>-25162.53</v>
-      </c>
-      <c r="C48" s="5">
-        <v>0</v>
-      </c>
-      <c r="D48" s="5">
-        <f>SUM(D49:D52)</f>
-        <v>-13432.593933481601</v>
-      </c>
-      <c r="E48" s="5">
-        <v>0</v>
-      </c>
-      <c r="F48" s="5">
-        <f t="shared" ref="F48:BV48" si="30">SUM(F49:F52)</f>
-        <v>-13432.593933481601</v>
-      </c>
-      <c r="G48" s="14">
-        <f t="shared" ref="G48" si="31">SUM(G49:G52)</f>
-        <v>-209.22</v>
-      </c>
-      <c r="H48" s="5">
-        <f t="shared" si="30"/>
-        <v>-13432.593933481601</v>
-      </c>
-      <c r="I48" s="14">
-        <f t="shared" ref="I48:K48" si="32">SUM(I49:I52)</f>
-        <v>-915.68000000000006</v>
-      </c>
-      <c r="J48" s="5">
-        <f t="shared" si="30"/>
-        <v>-13476.899347637262</v>
-      </c>
-      <c r="K48" s="14">
-        <f t="shared" si="32"/>
-        <v>-2214.36</v>
-      </c>
-      <c r="L48" s="5">
-        <f t="shared" si="30"/>
-        <v>-13521.331958149671</v>
-      </c>
-      <c r="M48" s="14">
-        <f t="shared" si="30"/>
-        <v>-1460.26</v>
-      </c>
-      <c r="N48" s="5">
-        <f t="shared" si="30"/>
-        <v>-13565.892130186689</v>
-      </c>
-      <c r="O48" s="14">
-        <f t="shared" ref="O48" si="33">SUM(O49:O52)</f>
-        <v>-1975.37</v>
-      </c>
-      <c r="P48" s="5">
-        <f t="shared" si="30"/>
-        <v>-13610.580229964526</v>
-      </c>
-      <c r="Q48" s="5">
-        <f t="shared" ref="Q48" si="34">SUM(Q49:Q52)</f>
-        <v>-2142.41</v>
-      </c>
-      <c r="R48" s="5">
-        <f t="shared" si="30"/>
-        <v>-13655.396624750776</v>
-      </c>
-      <c r="S48" s="5">
-        <f t="shared" ref="S48" si="35">SUM(S49:S52)</f>
-        <v>-4482.87</v>
-      </c>
-      <c r="T48" s="5">
-        <f t="shared" si="30"/>
-        <v>-13700.341682867411</v>
-      </c>
-      <c r="U48" s="5">
-        <f t="shared" ref="U48:Y48" si="36">SUM(U49:U52)</f>
-        <v>-6171.85</v>
-      </c>
-      <c r="V48" s="5">
-        <f t="shared" si="30"/>
-        <v>-13745.41577369382</v>
-      </c>
-      <c r="W48" s="5">
-        <f t="shared" si="36"/>
-        <v>-1967.33</v>
-      </c>
-      <c r="X48" s="5">
-        <f t="shared" si="30"/>
-        <v>-13790.619267669847</v>
-      </c>
-      <c r="Y48" s="5">
-        <f t="shared" si="36"/>
-        <v>-3623.1800000000003</v>
-      </c>
-      <c r="Z48" s="5">
-        <f t="shared" si="30"/>
-        <v>-13927.009888864799</v>
-      </c>
-      <c r="AA48" s="5">
-        <f t="shared" si="30"/>
-        <v>-4853.5</v>
-      </c>
-      <c r="AB48" s="5">
-        <f t="shared" si="30"/>
-        <v>-13972.734721153462</v>
-      </c>
-      <c r="AC48" s="5">
-        <f t="shared" ref="AC48" si="37">SUM(AC49:AC52)</f>
-        <v>0</v>
-      </c>
-      <c r="AD48" s="5">
-        <f t="shared" si="30"/>
-        <v>-14018.590824804574</v>
-      </c>
-      <c r="AE48" s="5">
-        <f t="shared" si="30"/>
-        <v>-14064.578576684915</v>
-      </c>
-      <c r="AF48" s="5">
-        <f t="shared" si="30"/>
-        <v>-14110.698354743226</v>
-      </c>
-      <c r="AG48" s="5">
-        <f t="shared" si="30"/>
-        <v>-14156.95053801329</v>
-      </c>
-      <c r="AH48" s="5">
-        <f t="shared" si="30"/>
-        <v>-14203.335506617061</v>
-      </c>
-      <c r="AI48" s="5">
-        <f t="shared" si="30"/>
-        <v>-14249.853641767777</v>
-      </c>
-      <c r="AJ48" s="5">
-        <f t="shared" si="30"/>
-        <v>-14296.505325773111</v>
-      </c>
-      <c r="AK48" s="5">
-        <f t="shared" si="30"/>
-        <v>-14343.290942038298</v>
-      </c>
-      <c r="AL48" s="5">
-        <f t="shared" si="30"/>
-        <v>-14390.210875069293</v>
-      </c>
-      <c r="AM48" s="5">
-        <f t="shared" si="30"/>
-        <v>-14437.265510475925</v>
-      </c>
-      <c r="AN48" s="5">
-        <f t="shared" si="30"/>
-        <v>-14484.455234975074</v>
-      </c>
-      <c r="AO48" s="5">
-        <f t="shared" si="30"/>
-        <v>-14531.780436393839</v>
-      </c>
-      <c r="AP48" s="5">
-        <f t="shared" si="30"/>
-        <v>-14579.241503672736</v>
-      </c>
-      <c r="AQ48" s="5">
-        <f t="shared" si="30"/>
-        <v>-14626.838826868892</v>
-      </c>
-      <c r="AR48" s="5">
-        <f t="shared" si="30"/>
-        <v>-14674.572797159242</v>
-      </c>
-      <c r="AS48" s="5">
-        <f t="shared" si="30"/>
-        <v>-14722.443806843758</v>
-      </c>
-      <c r="AT48" s="5">
-        <f t="shared" si="30"/>
-        <v>-14770.452249348658</v>
-      </c>
-      <c r="AU48" s="5">
-        <f t="shared" si="30"/>
-        <v>-14818.598519229647</v>
-      </c>
-      <c r="AV48" s="5">
-        <f t="shared" si="30"/>
-        <v>-14866.883012175169</v>
-      </c>
-      <c r="AW48" s="5">
-        <f t="shared" si="30"/>
-        <v>-14915.306125009638</v>
-      </c>
-      <c r="AX48" s="5">
-        <f t="shared" si="30"/>
-        <v>-14963.868255696718</v>
-      </c>
-      <c r="AY48" s="5">
-        <f t="shared" si="30"/>
-        <v>-15012.56980334258</v>
-      </c>
-      <c r="AZ48" s="5">
-        <f t="shared" si="30"/>
-        <v>-15061.411168199204</v>
-      </c>
-      <c r="BA48" s="5">
-        <f t="shared" si="30"/>
-        <v>-15110.392751667627</v>
-      </c>
-      <c r="BB48" s="5">
-        <f t="shared" si="30"/>
-        <v>-15159.514956301286</v>
-      </c>
-      <c r="BC48" s="5">
-        <f t="shared" si="30"/>
-        <v>-15208.778185809309</v>
-      </c>
-      <c r="BD48" s="5">
-        <f t="shared" si="30"/>
-        <v>-15258.182845059824</v>
-      </c>
-      <c r="BE48" s="5">
-        <f t="shared" si="30"/>
-        <v>-15307.729340083293</v>
-      </c>
-      <c r="BF48" s="5">
-        <f t="shared" si="30"/>
-        <v>-15357.418078075865</v>
-      </c>
-      <c r="BG48" s="5">
-        <f t="shared" si="30"/>
-        <v>-15407.249467402691</v>
-      </c>
-      <c r="BH48" s="5">
-        <f t="shared" si="30"/>
-        <v>-15457.223917601306</v>
-      </c>
-      <c r="BI48" s="5">
-        <f t="shared" si="30"/>
-        <v>-15507.341839384981</v>
-      </c>
-      <c r="BJ48" s="5">
-        <f t="shared" si="30"/>
-        <v>-15557.603644646108</v>
-      </c>
-      <c r="BK48" s="5">
-        <f t="shared" si="30"/>
-        <v>-15608.009746459578</v>
-      </c>
-      <c r="BL48" s="5">
-        <f t="shared" si="30"/>
-        <v>-15658.560559086181</v>
-      </c>
-      <c r="BM48" s="5">
-        <f t="shared" si="30"/>
-        <v>-15709.256497975995</v>
-      </c>
-      <c r="BN48" s="5">
-        <f t="shared" si="30"/>
-        <v>-15760.097979771836</v>
-      </c>
-      <c r="BO48" s="5">
-        <f t="shared" si="30"/>
-        <v>-15811.085422312635</v>
-      </c>
-      <c r="BP48" s="5">
-        <f t="shared" si="30"/>
-        <v>-15862.219244636921</v>
-      </c>
-      <c r="BQ48" s="5">
-        <f t="shared" si="30"/>
-        <v>-15913.499866986218</v>
-      </c>
-      <c r="BR48" s="5">
-        <f t="shared" si="30"/>
-        <v>-15964.927710808526</v>
-      </c>
-      <c r="BS48" s="5">
-        <f t="shared" si="30"/>
-        <v>-16016.503198761791</v>
-      </c>
-      <c r="BT48" s="5">
-        <f t="shared" si="30"/>
-        <v>-16068.226754717358</v>
-      </c>
-      <c r="BU48" s="5">
-        <f t="shared" si="30"/>
-        <v>-16120.09880376346</v>
-      </c>
-      <c r="BV48" s="5">
-        <f t="shared" si="30"/>
-        <v>-16172.119772208731</v>
-      </c>
+      <c r="A48" s="28"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
+      <c r="AK48" s="2"/>
+      <c r="AL48" s="2"/>
+      <c r="AM48" s="2"/>
+      <c r="AN48" s="2"/>
+      <c r="AO48" s="2"/>
+      <c r="AP48" s="2"/>
+      <c r="AQ48" s="2"/>
+      <c r="AR48" s="2"/>
+      <c r="AS48" s="2"/>
+      <c r="AT48" s="2"/>
+      <c r="AU48" s="2"/>
+      <c r="AV48" s="2"/>
+      <c r="AW48" s="2"/>
+      <c r="AX48" s="2"/>
+      <c r="AY48" s="2"/>
+      <c r="AZ48" s="2"/>
+      <c r="BA48" s="2"/>
+      <c r="BB48" s="2"/>
+      <c r="BC48" s="2"/>
+      <c r="BD48" s="2"/>
+      <c r="BE48" s="2"/>
+      <c r="BF48" s="2"/>
+      <c r="BG48" s="2"/>
+      <c r="BH48" s="2"/>
+      <c r="BI48" s="2"/>
+      <c r="BJ48" s="2"/>
+      <c r="BK48" s="2"/>
+      <c r="BL48" s="2"/>
+      <c r="BM48" s="2"/>
+      <c r="BN48" s="2"/>
+      <c r="BO48" s="2"/>
+      <c r="BP48" s="2"/>
+      <c r="BQ48" s="2"/>
+      <c r="BR48" s="2"/>
+      <c r="BS48" s="2"/>
+      <c r="BT48" s="2"/>
+      <c r="BU48" s="2"/>
+      <c r="BV48" s="2"/>
     </row>
     <row r="49" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="2">
-        <v>-3058.9036839936002</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2">
-        <v>-3058.9036839936002</v>
-      </c>
-      <c r="G49" s="10"/>
-      <c r="H49" s="2">
-        <v>-3058.9036839936002</v>
-      </c>
-      <c r="I49" s="10">
-        <v>-496.03</v>
-      </c>
-      <c r="J49" s="2">
-        <v>-3067.6854866617559</v>
-      </c>
-      <c r="K49" s="10">
-        <v>-1382.21</v>
-      </c>
-      <c r="L49" s="2">
-        <v>-3076.4925009959429</v>
-      </c>
-      <c r="M49" s="10"/>
-      <c r="N49" s="2">
-        <v>-3085.3247993763016</v>
-      </c>
-      <c r="O49" s="10">
+      <c r="A49" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="32">
+        <f t="shared" ref="B49" si="26">C49+E49+G49+I49+K49+M49+O49+Q49+S49+U49+W49+Y49</f>
+        <v>-25162.53</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+      <c r="D49" s="5">
+        <f>SUM(D50:D53)</f>
+        <v>-13432.593933481601</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" ref="F49:BV49" si="27">SUM(F50:F53)</f>
+        <v>-13432.593933481601</v>
+      </c>
+      <c r="G49" s="14">
+        <f t="shared" ref="G49" si="28">SUM(G50:G53)</f>
+        <v>-209.22</v>
+      </c>
+      <c r="H49" s="5">
+        <f t="shared" si="27"/>
+        <v>-13432.593933481601</v>
+      </c>
+      <c r="I49" s="14">
+        <f t="shared" ref="I49:K49" si="29">SUM(I50:I53)</f>
+        <v>-915.68000000000006</v>
+      </c>
+      <c r="J49" s="5">
+        <f t="shared" si="27"/>
+        <v>-13476.899347637262</v>
+      </c>
+      <c r="K49" s="14">
+        <f t="shared" si="29"/>
+        <v>-2214.36</v>
+      </c>
+      <c r="L49" s="5">
+        <f t="shared" si="27"/>
+        <v>-13521.331958149671</v>
+      </c>
+      <c r="M49" s="14">
+        <f t="shared" si="27"/>
+        <v>-1460.26</v>
+      </c>
+      <c r="N49" s="5">
+        <f t="shared" si="27"/>
+        <v>-13565.892130186689</v>
+      </c>
+      <c r="O49" s="14">
+        <f t="shared" ref="O49" si="30">SUM(O50:O53)</f>
         <v>-1975.37</v>
       </c>
-      <c r="P49" s="2">
-        <v>-3094.1824543907665</v>
-      </c>
-      <c r="Q49" s="10">
+      <c r="P49" s="5">
+        <f t="shared" si="27"/>
+        <v>-13610.580229964526</v>
+      </c>
+      <c r="Q49" s="5">
+        <f t="shared" ref="Q49" si="31">SUM(Q50:Q53)</f>
         <v>-2142.41</v>
       </c>
-      <c r="R49" s="2">
-        <v>-3103.0655388356668</v>
-      </c>
-      <c r="S49" s="10">
-        <v>-1407.76</v>
-      </c>
-      <c r="T49" s="2">
-        <v>-3111.9741257163209</v>
-      </c>
-      <c r="U49" s="10"/>
-      <c r="V49" s="2">
-        <v>-3120.9082882476396</v>
-      </c>
-      <c r="W49" s="10"/>
-      <c r="X49" s="2">
-        <v>-3129.8680998547252</v>
-      </c>
-      <c r="Y49" s="10">
-        <v>-2166.75</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>-3156.9021665471864</v>
-      </c>
-      <c r="AA49" s="10">
-        <f>-(520.74+558.59+478.3)</f>
-        <v>-1557.6299999999999</v>
-      </c>
-      <c r="AB49" s="2">
-        <v>-3165.9653129333774</v>
-      </c>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2">
-        <v>-3175.054478694919</v>
-      </c>
-      <c r="AE49" s="2">
-        <v>-3184.1697385308025</v>
-      </c>
-      <c r="AF49" s="2">
-        <v>-3193.3111673544731</v>
-      </c>
-      <c r="AG49" s="2">
-        <v>-3202.4788402944446</v>
-      </c>
-      <c r="AH49" s="2">
-        <v>-3211.6728326949165</v>
-      </c>
-      <c r="AI49" s="2">
-        <v>-3220.8932201163934</v>
-      </c>
-      <c r="AJ49" s="2">
-        <v>-3230.1400783363083</v>
-      </c>
-      <c r="AK49" s="2">
-        <v>-3239.4134833496423</v>
-      </c>
-      <c r="AL49" s="2">
-        <v>-3248.7135113695504</v>
-      </c>
-      <c r="AM49" s="2">
-        <v>-3258.0402388279881</v>
-      </c>
-      <c r="AN49" s="2">
-        <v>-3267.3937423763396</v>
-      </c>
-      <c r="AO49" s="2">
-        <v>-3276.7740988860464</v>
-      </c>
-      <c r="AP49" s="2">
-        <v>-3286.1813854492416</v>
-      </c>
-      <c r="AQ49" s="2">
-        <v>-3295.6156793793812</v>
-      </c>
-      <c r="AR49" s="2">
-        <v>-3305.0770582118798</v>
-      </c>
-      <c r="AS49" s="2">
-        <v>-3314.5655997047502</v>
-      </c>
-      <c r="AT49" s="2">
-        <v>-3324.0813818392385</v>
-      </c>
-      <c r="AU49" s="2">
-        <v>-3333.6244828204667</v>
-      </c>
-      <c r="AV49" s="2">
-        <v>-3343.1949810780793</v>
-      </c>
-      <c r="AW49" s="2">
-        <v>-3352.7929552668793</v>
-      </c>
-      <c r="AX49" s="2">
-        <v>-3362.418484267484</v>
-      </c>
-      <c r="AY49" s="2">
-        <v>-3372.0716471869673</v>
-      </c>
-      <c r="AZ49" s="2">
-        <v>-3381.7525233595115</v>
-      </c>
-      <c r="BA49" s="2">
-        <v>-3391.4611923470588</v>
-      </c>
-      <c r="BB49" s="2">
-        <v>-3401.1977339399659</v>
-      </c>
-      <c r="BC49" s="2">
-        <v>-3410.9622281576608</v>
-      </c>
-      <c r="BD49" s="2">
-        <v>-3420.754755249297</v>
-      </c>
-      <c r="BE49" s="2">
-        <v>-3430.5753956944177</v>
-      </c>
-      <c r="BF49" s="2">
-        <v>-3440.4242302036128</v>
-      </c>
-      <c r="BG49" s="2">
-        <v>-3450.3013397191839</v>
-      </c>
-      <c r="BH49" s="2">
-        <v>-3460.2068054158126</v>
-      </c>
-      <c r="BI49" s="2">
-        <v>-3470.1407087012212</v>
-      </c>
-      <c r="BJ49" s="2">
-        <v>-3480.103131216847</v>
-      </c>
-      <c r="BK49" s="2">
-        <v>-3490.0941548385122</v>
-      </c>
-      <c r="BL49" s="2">
-        <v>-3500.1138616770959</v>
-      </c>
-      <c r="BM49" s="2">
-        <v>-3510.1623340792062</v>
-      </c>
-      <c r="BN49" s="2">
-        <v>-3520.2396546278655</v>
-      </c>
-      <c r="BO49" s="2">
-        <v>-3530.3459061431795</v>
-      </c>
-      <c r="BP49" s="2">
-        <v>-3540.4811716830236</v>
-      </c>
-      <c r="BQ49" s="2">
-        <v>-3550.6455345437234</v>
-      </c>
-      <c r="BR49" s="2">
-        <v>-3560.8390782607403</v>
-      </c>
-      <c r="BS49" s="2">
-        <v>-3571.0618866093573</v>
-      </c>
-      <c r="BT49" s="2">
-        <v>-3581.3140436053673</v>
-      </c>
-      <c r="BU49" s="2">
-        <v>-3591.5956335057654</v>
-      </c>
-      <c r="BV49" s="2">
-        <v>-3601.9067408094384</v>
+      <c r="R49" s="5">
+        <f t="shared" si="27"/>
+        <v>-13655.396624750776</v>
+      </c>
+      <c r="S49" s="5">
+        <f t="shared" ref="S49" si="32">SUM(S50:S53)</f>
+        <v>-4482.87</v>
+      </c>
+      <c r="T49" s="5">
+        <f t="shared" si="27"/>
+        <v>-13700.341682867411</v>
+      </c>
+      <c r="U49" s="5">
+        <f t="shared" ref="U49:Y49" si="33">SUM(U50:U53)</f>
+        <v>-6171.85</v>
+      </c>
+      <c r="V49" s="5">
+        <f t="shared" si="27"/>
+        <v>-13745.41577369382</v>
+      </c>
+      <c r="W49" s="5">
+        <f t="shared" si="33"/>
+        <v>-1967.33</v>
+      </c>
+      <c r="X49" s="5">
+        <f t="shared" si="27"/>
+        <v>-13790.619267669847</v>
+      </c>
+      <c r="Y49" s="5">
+        <f t="shared" si="33"/>
+        <v>-3623.1800000000003</v>
+      </c>
+      <c r="Z49" s="5">
+        <f t="shared" si="27"/>
+        <v>-13927.009888864799</v>
+      </c>
+      <c r="AA49" s="5">
+        <f t="shared" si="27"/>
+        <v>-11392.79</v>
+      </c>
+      <c r="AB49" s="5">
+        <f t="shared" si="27"/>
+        <v>-13972.734721153462</v>
+      </c>
+      <c r="AC49" s="5">
+        <f t="shared" ref="AC49" si="34">SUM(AC50:AC53)</f>
+        <v>-83.95</v>
+      </c>
+      <c r="AD49" s="5">
+        <f t="shared" si="27"/>
+        <v>-14018.590824804574</v>
+      </c>
+      <c r="AE49" s="5">
+        <f t="shared" si="27"/>
+        <v>-14064.578576684915</v>
+      </c>
+      <c r="AF49" s="5">
+        <f t="shared" si="27"/>
+        <v>-14110.698354743226</v>
+      </c>
+      <c r="AG49" s="5">
+        <f t="shared" si="27"/>
+        <v>-14156.95053801329</v>
+      </c>
+      <c r="AH49" s="5">
+        <f t="shared" si="27"/>
+        <v>-14203.335506617061</v>
+      </c>
+      <c r="AI49" s="5">
+        <f t="shared" si="27"/>
+        <v>-14249.853641767777</v>
+      </c>
+      <c r="AJ49" s="5">
+        <f t="shared" si="27"/>
+        <v>-14296.505325773111</v>
+      </c>
+      <c r="AK49" s="5">
+        <f t="shared" si="27"/>
+        <v>-14343.290942038298</v>
+      </c>
+      <c r="AL49" s="5">
+        <f t="shared" si="27"/>
+        <v>-14390.210875069293</v>
+      </c>
+      <c r="AM49" s="5">
+        <f t="shared" si="27"/>
+        <v>-14437.265510475925</v>
+      </c>
+      <c r="AN49" s="5">
+        <f t="shared" si="27"/>
+        <v>-14484.455234975074</v>
+      </c>
+      <c r="AO49" s="5">
+        <f t="shared" si="27"/>
+        <v>-14531.780436393839</v>
+      </c>
+      <c r="AP49" s="5">
+        <f t="shared" si="27"/>
+        <v>-14579.241503672736</v>
+      </c>
+      <c r="AQ49" s="5">
+        <f t="shared" si="27"/>
+        <v>-14626.838826868892</v>
+      </c>
+      <c r="AR49" s="5">
+        <f t="shared" si="27"/>
+        <v>-14674.572797159242</v>
+      </c>
+      <c r="AS49" s="5">
+        <f t="shared" si="27"/>
+        <v>-14722.443806843758</v>
+      </c>
+      <c r="AT49" s="5">
+        <f t="shared" si="27"/>
+        <v>-14770.452249348658</v>
+      </c>
+      <c r="AU49" s="5">
+        <f t="shared" si="27"/>
+        <v>-14818.598519229647</v>
+      </c>
+      <c r="AV49" s="5">
+        <f t="shared" si="27"/>
+        <v>-14866.883012175169</v>
+      </c>
+      <c r="AW49" s="5">
+        <f t="shared" si="27"/>
+        <v>-14915.306125009638</v>
+      </c>
+      <c r="AX49" s="5">
+        <f t="shared" si="27"/>
+        <v>-14963.868255696718</v>
+      </c>
+      <c r="AY49" s="5">
+        <f t="shared" si="27"/>
+        <v>-15012.56980334258</v>
+      </c>
+      <c r="AZ49" s="5">
+        <f t="shared" si="27"/>
+        <v>-15061.411168199204</v>
+      </c>
+      <c r="BA49" s="5">
+        <f t="shared" si="27"/>
+        <v>-15110.392751667627</v>
+      </c>
+      <c r="BB49" s="5">
+        <f t="shared" si="27"/>
+        <v>-15159.514956301286</v>
+      </c>
+      <c r="BC49" s="5">
+        <f t="shared" si="27"/>
+        <v>-15208.778185809309</v>
+      </c>
+      <c r="BD49" s="5">
+        <f t="shared" si="27"/>
+        <v>-15258.182845059824</v>
+      </c>
+      <c r="BE49" s="5">
+        <f t="shared" si="27"/>
+        <v>-15307.729340083293</v>
+      </c>
+      <c r="BF49" s="5">
+        <f t="shared" si="27"/>
+        <v>-15357.418078075865</v>
+      </c>
+      <c r="BG49" s="5">
+        <f t="shared" si="27"/>
+        <v>-15407.249467402691</v>
+      </c>
+      <c r="BH49" s="5">
+        <f t="shared" si="27"/>
+        <v>-15457.223917601306</v>
+      </c>
+      <c r="BI49" s="5">
+        <f t="shared" si="27"/>
+        <v>-15507.341839384981</v>
+      </c>
+      <c r="BJ49" s="5">
+        <f t="shared" si="27"/>
+        <v>-15557.603644646108</v>
+      </c>
+      <c r="BK49" s="5">
+        <f t="shared" si="27"/>
+        <v>-15608.009746459578</v>
+      </c>
+      <c r="BL49" s="5">
+        <f t="shared" si="27"/>
+        <v>-15658.560559086181</v>
+      </c>
+      <c r="BM49" s="5">
+        <f t="shared" si="27"/>
+        <v>-15709.256497975995</v>
+      </c>
+      <c r="BN49" s="5">
+        <f t="shared" si="27"/>
+        <v>-15760.097979771836</v>
+      </c>
+      <c r="BO49" s="5">
+        <f t="shared" si="27"/>
+        <v>-15811.085422312635</v>
+      </c>
+      <c r="BP49" s="5">
+        <f t="shared" si="27"/>
+        <v>-15862.219244636921</v>
+      </c>
+      <c r="BQ49" s="5">
+        <f t="shared" si="27"/>
+        <v>-15913.499866986218</v>
+      </c>
+      <c r="BR49" s="5">
+        <f t="shared" si="27"/>
+        <v>-15964.927710808526</v>
+      </c>
+      <c r="BS49" s="5">
+        <f t="shared" si="27"/>
+        <v>-16016.503198761791</v>
+      </c>
+      <c r="BT49" s="5">
+        <f t="shared" si="27"/>
+        <v>-16068.226754717358</v>
+      </c>
+      <c r="BU49" s="5">
+        <f t="shared" si="27"/>
+        <v>-16120.09880376346</v>
+      </c>
+      <c r="BV49" s="5">
+        <f t="shared" si="27"/>
+        <v>-16172.119772208731</v>
       </c>
     </row>
     <row r="50" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="2"/>
+      <c r="C50" s="16"/>
       <c r="D50" s="2">
-        <v>-6496.9546777600008</v>
+        <v>-3058.9036839936002</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2">
-        <v>-6496.9546777600008</v>
+        <v>-3058.9036839936002</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="2">
-        <v>-6496.9546777600008</v>
-      </c>
-      <c r="I50" s="10"/>
+        <v>-3058.9036839936002</v>
+      </c>
+      <c r="I50" s="10">
+        <v>-496.03</v>
+      </c>
       <c r="J50" s="2">
-        <v>-6521.3485740604337</v>
-      </c>
-      <c r="K50" s="10"/>
+        <v>-3067.6854866617559</v>
+      </c>
+      <c r="K50" s="10">
+        <v>-1382.21</v>
+      </c>
       <c r="L50" s="2">
-        <v>-6545.8125027665083</v>
-      </c>
-      <c r="M50" s="10">
-        <f>-(136.34+123.69)</f>
-        <v>-260.02999999999997</v>
-      </c>
+        <v>-3076.4925009959429</v>
+      </c>
+      <c r="M50" s="10"/>
       <c r="N50" s="2">
-        <v>-6570.3466649341717</v>
-      </c>
-      <c r="O50" s="10"/>
+        <v>-3085.3247993763016</v>
+      </c>
+      <c r="O50" s="10">
+        <v>-1975.37</v>
+      </c>
       <c r="P50" s="2">
-        <v>-6594.9512621965732</v>
-      </c>
-      <c r="Q50" s="10"/>
+        <v>-3094.1824543907665</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>-2142.41</v>
+      </c>
       <c r="R50" s="2">
-        <v>-6619.6264967657407</v>
+        <v>-3103.0655388356668</v>
       </c>
       <c r="S50" s="10">
-        <v>-1938.54</v>
+        <v>-1407.76</v>
       </c>
       <c r="T50" s="2">
-        <v>-6644.3725714342254</v>
-      </c>
-      <c r="U50" s="10">
-        <v>-2835.46</v>
-      </c>
+        <v>-3111.9741257163209</v>
+      </c>
+      <c r="U50" s="10"/>
       <c r="V50" s="2">
-        <v>-6669.1896895767768</v>
-      </c>
-      <c r="W50" s="10">
-        <v>-1616.98</v>
-      </c>
+        <v>-3120.9082882476396</v>
+      </c>
+      <c r="W50" s="10"/>
       <c r="X50" s="2">
-        <v>-6694.0780551520147</v>
+        <v>-3129.8680998547252</v>
       </c>
       <c r="Y50" s="10">
-        <v>-880.84</v>
+        <v>-2166.75</v>
       </c>
       <c r="Z50" s="2">
-        <v>-6769.1726848532962</v>
+        <v>-3156.9021665471864</v>
       </c>
       <c r="AA50" s="10">
-        <v>-2403.41</v>
+        <f>-(520.74+558.59+478.3+5939.67)</f>
+        <v>-7497.3</v>
       </c>
       <c r="AB50" s="2">
-        <v>-6794.3480914816046</v>
+        <v>-3165.9653129333774</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2">
-        <v>-6819.5957741525526</v>
+        <v>-3175.054478694919</v>
       </c>
       <c r="AE50" s="2">
-        <v>-6844.9159403633403</v>
+        <v>-3184.1697385308025</v>
       </c>
       <c r="AF50" s="2">
-        <v>-6870.3087982068701</v>
+        <v>-3193.3111673544731</v>
       </c>
       <c r="AG50" s="2">
-        <v>-6895.774556373457</v>
+        <v>-3202.4788402944446</v>
       </c>
       <c r="AH50" s="2">
-        <v>-6921.3134241525458</v>
+        <v>-3211.6728326949165</v>
       </c>
       <c r="AI50" s="2">
-        <v>-6946.9256114344262</v>
+        <v>-3220.8932201163934</v>
       </c>
       <c r="AJ50" s="2">
-        <v>-6972.6113287119679</v>
+        <v>-3230.1400783363083</v>
       </c>
       <c r="AK50" s="2">
-        <v>-6998.37078708234</v>
+        <v>-3239.4134833496423</v>
       </c>
       <c r="AL50" s="2">
-        <v>-7024.2041982487517</v>
+        <v>-3248.7135113695504</v>
       </c>
       <c r="AM50" s="2">
-        <v>-7050.1117745221891</v>
+        <v>-3258.0402388279881</v>
       </c>
       <c r="AN50" s="2">
-        <v>-7076.0937288231653</v>
+        <v>-3267.3937423763396</v>
       </c>
       <c r="AO50" s="2">
-        <v>-7102.1502746834631</v>
+        <v>-3276.7740988860464</v>
       </c>
       <c r="AP50" s="2">
-        <v>-7128.2816262478937</v>
+        <v>-3286.1813854492416</v>
       </c>
       <c r="AQ50" s="2">
-        <v>-7154.4879982760594</v>
+        <v>-3295.6156793793812</v>
       </c>
       <c r="AR50" s="2">
-        <v>-7180.7696061441111</v>
+        <v>-3305.0770582118798</v>
       </c>
       <c r="AS50" s="2">
-        <v>-7207.1266658465283</v>
+        <v>-3314.5655997047502</v>
       </c>
       <c r="AT50" s="2">
-        <v>-7233.5593939978844</v>
+        <v>-3324.0813818392385</v>
       </c>
       <c r="AU50" s="2">
-        <v>-7260.0680078346304</v>
+        <v>-3333.6244828204667</v>
       </c>
       <c r="AV50" s="2">
-        <v>-7286.6527252168871</v>
+        <v>-3343.1949810780793</v>
       </c>
       <c r="AW50" s="2">
-        <v>-7313.3137646302202</v>
+        <v>-3352.7929552668793</v>
       </c>
       <c r="AX50" s="2">
-        <v>-7340.0513451874558</v>
+        <v>-3362.418484267484</v>
       </c>
       <c r="AY50" s="2">
-        <v>-7366.8656866304646</v>
+        <v>-3372.0716471869673</v>
       </c>
       <c r="AZ50" s="2">
-        <v>-7393.7570093319773</v>
+        <v>-3381.7525233595115</v>
       </c>
       <c r="BA50" s="2">
-        <v>-7420.7255342973858</v>
+        <v>-3391.4611923470588</v>
       </c>
       <c r="BB50" s="2">
-        <v>-7447.7714831665726</v>
+        <v>-3401.1977339399659</v>
       </c>
       <c r="BC50" s="2">
-        <v>-7474.8950782157244</v>
+        <v>-3410.9622281576608</v>
       </c>
       <c r="BD50" s="2">
-        <v>-7502.0965423591588</v>
+        <v>-3420.754755249297</v>
       </c>
       <c r="BE50" s="2">
-        <v>-7529.3760991511608</v>
+        <v>-3430.5753956944177</v>
       </c>
       <c r="BF50" s="2">
-        <v>-7556.7339727878134</v>
+        <v>-3440.4242302036128</v>
       </c>
       <c r="BG50" s="2">
-        <v>-7584.1703881088451</v>
+        <v>-3450.3013397191839</v>
       </c>
       <c r="BH50" s="2">
-        <v>-7611.6855705994803</v>
+        <v>-3460.2068054158126</v>
       </c>
       <c r="BI50" s="2">
-        <v>-7639.2797463922816</v>
+        <v>-3470.1407087012212</v>
       </c>
       <c r="BJ50" s="2">
-        <v>-7666.9531422690197</v>
+        <v>-3480.103131216847</v>
       </c>
       <c r="BK50" s="2">
-        <v>-7694.7059856625347</v>
+        <v>-3490.0941548385122</v>
       </c>
       <c r="BL50" s="2">
-        <v>-7722.5385046585998</v>
+        <v>-3500.1138616770959</v>
       </c>
       <c r="BM50" s="2">
-        <v>-7750.4509279977956</v>
+        <v>-3510.1623340792062</v>
       </c>
       <c r="BN50" s="2">
-        <v>-7778.4434850774051</v>
+        <v>-3520.2396546278655</v>
       </c>
       <c r="BO50" s="2">
-        <v>-7806.5164059532763</v>
+        <v>-3530.3459061431795</v>
       </c>
       <c r="BP50" s="2">
-        <v>-7834.6699213417323</v>
+        <v>-3540.4811716830236</v>
       </c>
       <c r="BQ50" s="2">
-        <v>-7862.9042626214541</v>
+        <v>-3550.6455345437234</v>
       </c>
       <c r="BR50" s="2">
-        <v>-7891.2196618353901</v>
+        <v>-3560.8390782607403</v>
       </c>
       <c r="BS50" s="2">
-        <v>-7919.616351692659</v>
+        <v>-3571.0618866093573</v>
       </c>
       <c r="BT50" s="2">
-        <v>-7948.0945655704654</v>
+        <v>-3581.3140436053673</v>
       </c>
       <c r="BU50" s="2">
-        <v>-7976.6545375160149</v>
+        <v>-3591.5956335057654</v>
       </c>
       <c r="BV50" s="2">
-        <v>-8005.2965022484404</v>
+        <v>-3601.9067408094384</v>
       </c>
     </row>
     <row r="51" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2">
-        <v>-690.37756756800002</v>
+        <v>-6496.9546777600008</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2">
-        <v>-690.37756756800002</v>
-      </c>
-      <c r="G51" s="10">
-        <v>-37.22</v>
-      </c>
+        <v>-6496.9546777600008</v>
+      </c>
+      <c r="G51" s="10"/>
       <c r="H51" s="2">
-        <v>-690.37756756800002</v>
-      </c>
-      <c r="I51" s="10">
-        <v>-74.73</v>
-      </c>
+        <v>-6496.9546777600008</v>
+      </c>
+      <c r="I51" s="10"/>
       <c r="J51" s="2">
-        <v>-692.35957164241017</v>
+        <v>-6521.3485740604337</v>
       </c>
       <c r="K51" s="10"/>
       <c r="L51" s="2">
-        <v>-694.34726584977886</v>
+        <v>-6545.8125027665083</v>
       </c>
       <c r="M51" s="10">
-        <v>-629.34</v>
+        <f>-(136.34+123.69)</f>
+        <v>-260.02999999999997</v>
       </c>
       <c r="N51" s="2">
-        <v>-696.34066652590138</v>
+        <v>-6570.3466649341717</v>
       </c>
       <c r="O51" s="10"/>
       <c r="P51" s="2">
-        <v>-698.33979005347157</v>
+        <v>-6594.9512621965732</v>
       </c>
       <c r="Q51" s="10"/>
       <c r="R51" s="2">
-        <v>-700.34465286221644</v>
-      </c>
-      <c r="S51" s="10"/>
+        <v>-6619.6264967657407</v>
+      </c>
+      <c r="S51" s="10">
+        <v>-1938.54</v>
+      </c>
       <c r="T51" s="2">
-        <v>-702.35527142903072</v>
+        <v>-6644.3725714342254</v>
       </c>
       <c r="U51" s="10">
-        <v>-614.35</v>
+        <v>-2835.46</v>
       </c>
       <c r="V51" s="2">
-        <v>-704.37166227811304</v>
+        <v>-6669.1896895767768</v>
       </c>
       <c r="W51" s="10">
-        <v>-350.35</v>
+        <v>-1616.98</v>
       </c>
       <c r="X51" s="2">
-        <v>-706.3938419811011</v>
+        <v>-6694.0780551520147</v>
       </c>
       <c r="Y51" s="10">
-        <f>-(106.13+469.46)</f>
-        <v>-575.58999999999992</v>
+        <v>-880.84</v>
       </c>
       <c r="Z51" s="2">
-        <v>-712.49528064433025</v>
+        <v>-6769.1726848532962</v>
       </c>
       <c r="AA51" s="10">
-        <v>-892.46</v>
+        <f>-(2403.41+599.62)</f>
+        <v>-3003.0299999999997</v>
       </c>
       <c r="AB51" s="2">
-        <v>-714.54078243288029</v>
+        <v>-6794.3480914816046</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" s="2">
-        <v>-716.59215664989483</v>
+        <v>-6819.5957741525526</v>
       </c>
       <c r="AE51" s="2">
-        <v>-718.64942015452141</v>
+        <v>-6844.9159403633403</v>
       </c>
       <c r="AF51" s="2">
-        <v>-720.71258985430813</v>
+        <v>-6870.3087982068701</v>
       </c>
       <c r="AG51" s="2">
-        <v>-722.78168270534331</v>
+        <v>-6895.774556373457</v>
       </c>
       <c r="AH51" s="2">
-        <v>-724.85671571239425</v>
+        <v>-6921.3134241525458</v>
       </c>
       <c r="AI51" s="2">
-        <v>-726.93770592904707</v>
+        <v>-6946.9256114344262</v>
       </c>
       <c r="AJ51" s="2">
-        <v>-729.02467045784726</v>
+        <v>-6972.6113287119679</v>
       </c>
       <c r="AK51" s="2">
-        <v>-731.11762645043996</v>
+        <v>-6998.37078708234</v>
       </c>
       <c r="AL51" s="2">
-        <v>-733.216591107711</v>
+        <v>-7024.2041982487517</v>
       </c>
       <c r="AM51" s="2">
-        <v>-735.32158167992782</v>
+        <v>-7050.1117745221891</v>
       </c>
       <c r="AN51" s="2">
-        <v>-737.43261546688223</v>
+        <v>-7076.0937288231653</v>
       </c>
       <c r="AO51" s="2">
-        <v>-739.54970981803137</v>
+        <v>-7102.1502746834631</v>
       </c>
       <c r="AP51" s="2">
-        <v>-741.67288213264135</v>
+        <v>-7128.2816262478937</v>
       </c>
       <c r="AQ51" s="2">
-        <v>-743.80214985992973</v>
+        <v>-7154.4879982760594</v>
       </c>
       <c r="AR51" s="2">
-        <v>-745.93753049920906</v>
+        <v>-7180.7696061441111</v>
       </c>
       <c r="AS51" s="2">
-        <v>-748.07904160003045</v>
+        <v>-7207.1266658465283</v>
       </c>
       <c r="AT51" s="2">
-        <v>-750.22670076232805</v>
+        <v>-7233.5593939978844</v>
       </c>
       <c r="AU51" s="2">
-        <v>-752.38052563656368</v>
+        <v>-7260.0680078346304</v>
       </c>
       <c r="AV51" s="2">
-        <v>-754.54053392387198</v>
+        <v>-7286.6527252168871</v>
       </c>
       <c r="AW51" s="2">
-        <v>-756.7067433762054</v>
+        <v>-7313.3137646302202</v>
       </c>
       <c r="AX51" s="2">
-        <v>-758.8791717964807</v>
+        <v>-7340.0513451874558</v>
       </c>
       <c r="AY51" s="2">
-        <v>-761.05783703872521</v>
+        <v>-7366.8656866304646</v>
       </c>
       <c r="AZ51" s="2">
-        <v>-763.24275700822307</v>
+        <v>-7393.7570093319773</v>
       </c>
       <c r="BA51" s="2">
-        <v>-765.4339496616625</v>
+        <v>-7420.7255342973858</v>
       </c>
       <c r="BB51" s="2">
-        <v>-767.63143300728393</v>
+        <v>-7447.7714831665726</v>
       </c>
       <c r="BC51" s="2">
-        <v>-769.83522510502746</v>
+        <v>-7474.8950782157244</v>
       </c>
       <c r="BD51" s="2">
-        <v>-772.04534406668165</v>
+        <v>-7502.0965423591588</v>
       </c>
       <c r="BE51" s="2">
-        <v>-774.26180805603167</v>
+        <v>-7529.3760991511608</v>
       </c>
       <c r="BF51" s="2">
-        <v>-776.4846352890097</v>
+        <v>-7556.7339727878134</v>
       </c>
       <c r="BG51" s="2">
-        <v>-778.71384403384366</v>
+        <v>-7584.1703881088451</v>
       </c>
       <c r="BH51" s="2">
-        <v>-780.94945261120768</v>
+        <v>-7611.6855705994803</v>
       </c>
       <c r="BI51" s="2">
-        <v>-783.19147939437278</v>
+        <v>-7639.2797463922816</v>
       </c>
       <c r="BJ51" s="2">
-        <v>-785.43994280935783</v>
+        <v>-7666.9531422690197</v>
       </c>
       <c r="BK51" s="2">
-        <v>-787.69486133508087</v>
+        <v>-7694.7059856625347</v>
       </c>
       <c r="BL51" s="2">
-        <v>-789.95625350351111</v>
+        <v>-7722.5385046585998</v>
       </c>
       <c r="BM51" s="2">
-        <v>-792.2241378998209</v>
+        <v>-7750.4509279977956</v>
       </c>
       <c r="BN51" s="2">
-        <v>-794.49853316253905</v>
+        <v>-7778.4434850774051</v>
       </c>
       <c r="BO51" s="2">
-        <v>-796.77945798370365</v>
+        <v>-7806.5164059532763</v>
       </c>
       <c r="BP51" s="2">
-        <v>-799.06693110901563</v>
+        <v>-7834.6699213417323</v>
       </c>
       <c r="BQ51" s="2">
-        <v>-801.36097133799308</v>
+        <v>-7862.9042626214541</v>
       </c>
       <c r="BR51" s="2">
-        <v>-803.66159752412534</v>
+        <v>-7891.2196618353901</v>
       </c>
       <c r="BS51" s="2">
-        <v>-805.96882857502851</v>
+        <v>-7919.616351692659</v>
       </c>
       <c r="BT51" s="2">
-        <v>-808.28268345260028</v>
+        <v>-7948.0945655704654</v>
       </c>
       <c r="BU51" s="2">
-        <v>-810.60318117317604</v>
+        <v>-7976.6545375160149</v>
       </c>
       <c r="BV51" s="2">
-        <v>-812.93034080768575</v>
+        <v>-8005.2965022484404</v>
       </c>
     </row>
     <row r="52" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2">
-        <v>-3186.3580041599998</v>
+        <v>-690.37756756800002</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2">
-        <v>-3186.3580041599998</v>
+        <v>-690.37756756800002</v>
       </c>
       <c r="G52" s="10">
-        <v>-172</v>
+        <v>-37.22</v>
       </c>
       <c r="H52" s="2">
-        <v>-3186.3580041599998</v>
+        <v>-690.37756756800002</v>
       </c>
       <c r="I52" s="10">
-        <v>-344.92</v>
+        <v>-74.73</v>
       </c>
       <c r="J52" s="2">
-        <v>-3195.5057152726622</v>
-      </c>
-      <c r="K52" s="10">
-        <v>-832.15</v>
-      </c>
+        <v>-692.35957164241017</v>
+      </c>
+      <c r="K52" s="10"/>
       <c r="L52" s="2">
-        <v>-3204.6796885374406</v>
+        <v>-694.34726584977886</v>
       </c>
       <c r="M52" s="10">
-        <v>-570.89</v>
+        <v>-629.34</v>
       </c>
       <c r="N52" s="2">
-        <v>-3213.8799993503139</v>
+        <v>-696.34066652590138</v>
       </c>
       <c r="O52" s="10"/>
       <c r="P52" s="2">
-        <v>-3223.106723323715</v>
+        <v>-698.33979005347157</v>
       </c>
       <c r="Q52" s="10"/>
       <c r="R52" s="2">
-        <v>-3232.3599362871523</v>
-      </c>
-      <c r="S52" s="10">
-        <v>-1136.57</v>
-      </c>
+        <v>-700.34465286221644</v>
+      </c>
+      <c r="S52" s="10"/>
       <c r="T52" s="2">
-        <v>-3241.6397142878341</v>
+        <v>-702.35527142903072</v>
       </c>
       <c r="U52" s="10">
-        <v>-2722.04</v>
+        <v>-614.35</v>
       </c>
       <c r="V52" s="2">
-        <v>-3250.9461335912911</v>
-      </c>
-      <c r="W52" s="10"/>
+        <v>-704.37166227811304</v>
+      </c>
+      <c r="W52" s="10">
+        <v>-350.35</v>
+      </c>
       <c r="X52" s="2">
-        <v>-3260.2792706820051</v>
-      </c>
-      <c r="Y52" s="10"/>
+        <v>-706.3938419811011</v>
+      </c>
+      <c r="Y52" s="10">
+        <f>-(106.13+469.46)</f>
+        <v>-575.58999999999992</v>
+      </c>
       <c r="Z52" s="2">
-        <v>-3288.4397568199856</v>
-      </c>
-      <c r="AA52" s="10"/>
+        <v>-712.49528064433025</v>
+      </c>
+      <c r="AA52" s="10">
+        <v>-892.46</v>
+      </c>
       <c r="AB52" s="2">
-        <v>-3297.8805343056015</v>
-      </c>
-      <c r="AC52" s="2"/>
+        <v>-714.54078243288029</v>
+      </c>
+      <c r="AC52" s="2">
+        <f>-(42.31+41.64)</f>
+        <v>-83.95</v>
+      </c>
       <c r="AD52" s="2">
-        <v>-3307.3484153072072</v>
+        <v>-716.59215664989483</v>
       </c>
       <c r="AE52" s="2">
-        <v>-3316.8434776362528</v>
+        <v>-718.64942015452141</v>
       </c>
       <c r="AF52" s="2">
-        <v>-3326.365799327576</v>
+        <v>-720.71258985430813</v>
       </c>
       <c r="AG52" s="2">
-        <v>-3335.9154586400459</v>
+        <v>-722.78168270534331</v>
       </c>
       <c r="AH52" s="2">
-        <v>-3345.4925340572045</v>
+        <v>-724.85671571239425</v>
       </c>
       <c r="AI52" s="2">
-        <v>-3355.0971042879096</v>
+        <v>-726.93770592904707</v>
       </c>
       <c r="AJ52" s="2">
-        <v>-3364.7292482669877</v>
+        <v>-729.02467045784726</v>
       </c>
       <c r="AK52" s="2">
-        <v>-3374.3890451558768</v>
+        <v>-731.11762645043996</v>
       </c>
       <c r="AL52" s="2">
-        <v>-3384.0765743432812</v>
+        <v>-733.216591107711</v>
       </c>
       <c r="AM52" s="2">
-        <v>-3393.7919154458209</v>
+        <v>-735.32158167992782</v>
       </c>
       <c r="AN52" s="2">
-        <v>-3403.535148308687</v>
+        <v>-737.43261546688223</v>
       </c>
       <c r="AO52" s="2">
-        <v>-3413.3063530062987</v>
+        <v>-739.54970981803137</v>
       </c>
       <c r="AP52" s="2">
-        <v>-3423.1056098429603</v>
+        <v>-741.67288213264135</v>
       </c>
       <c r="AQ52" s="2">
-        <v>-3432.9329993535216</v>
+        <v>-743.80214985992973</v>
       </c>
       <c r="AR52" s="2">
-        <v>-3442.7886023040419</v>
+        <v>-745.93753049920906</v>
       </c>
       <c r="AS52" s="2">
-        <v>-3452.6724996924481</v>
+        <v>-748.07904160003045</v>
       </c>
       <c r="AT52" s="2">
-        <v>-3462.5847727492064</v>
+        <v>-750.22670076232805</v>
       </c>
       <c r="AU52" s="2">
-        <v>-3472.5255029379864</v>
+        <v>-752.38052563656368</v>
       </c>
       <c r="AV52" s="2">
-        <v>-3482.494771956332</v>
+        <v>-754.54053392387198</v>
       </c>
       <c r="AW52" s="2">
-        <v>-3492.4926617363326</v>
+        <v>-756.7067433762054</v>
       </c>
       <c r="AX52" s="2">
-        <v>-3502.5192544452957</v>
+        <v>-758.8791717964807</v>
       </c>
       <c r="AY52" s="2">
-        <v>-3512.574632486424</v>
+        <v>-761.05783703872521</v>
       </c>
       <c r="AZ52" s="2">
-        <v>-3522.658878499491</v>
+        <v>-763.24275700822307</v>
       </c>
       <c r="BA52" s="2">
-        <v>-3532.7720753615195</v>
+        <v>-765.4339496616625</v>
       </c>
       <c r="BB52" s="2">
-        <v>-3542.9143061874643</v>
+        <v>-767.63143300728393</v>
       </c>
       <c r="BC52" s="2">
-        <v>-3553.0856543308964</v>
+        <v>-769.83522510502746</v>
       </c>
       <c r="BD52" s="2">
-        <v>-3563.2862033846845</v>
+        <v>-772.04534406668165</v>
       </c>
       <c r="BE52" s="2">
-        <v>-3573.5160371816846</v>
+        <v>-774.26180805603167</v>
       </c>
       <c r="BF52" s="2">
-        <v>-3583.7752397954296</v>
+        <v>-776.4846352890097</v>
       </c>
       <c r="BG52" s="2">
-        <v>-3594.0638955408172</v>
+        <v>-778.71384403384366</v>
       </c>
       <c r="BH52" s="2">
-        <v>-3604.3820889748049</v>
+        <v>-780.94945261120768</v>
       </c>
       <c r="BI52" s="2">
-        <v>-3614.7299048971054</v>
+        <v>-783.19147939437278</v>
       </c>
       <c r="BJ52" s="2">
-        <v>-3625.1074283508824</v>
+        <v>-785.43994280935783</v>
       </c>
       <c r="BK52" s="2">
-        <v>-3635.51474462345</v>
+        <v>-787.69486133508087</v>
       </c>
       <c r="BL52" s="2">
-        <v>-3645.9519392469742</v>
+        <v>-789.95625350351111</v>
       </c>
       <c r="BM52" s="2">
-        <v>-3656.4190979991736</v>
+        <v>-792.2241378998209</v>
       </c>
       <c r="BN52" s="2">
-        <v>-3666.9163069040264</v>
+        <v>-794.49853316253905</v>
       </c>
       <c r="BO52" s="2">
-        <v>-3677.4436522324781</v>
+        <v>-796.77945798370365</v>
       </c>
       <c r="BP52" s="2">
-        <v>-3688.0012205031494</v>
+        <v>-799.06693110901563</v>
       </c>
       <c r="BQ52" s="2">
-        <v>-3698.5890984830453</v>
+        <v>-801.36097133799308</v>
       </c>
       <c r="BR52" s="2">
-        <v>-3709.2073731882706</v>
+        <v>-803.66159752412534</v>
       </c>
       <c r="BS52" s="2">
-        <v>-3719.8561318847469</v>
+        <v>-805.96882857502851</v>
       </c>
       <c r="BT52" s="2">
-        <v>-3730.5354620889243</v>
+        <v>-808.28268345260028</v>
       </c>
       <c r="BU52" s="2">
-        <v>-3741.2454515685049</v>
+        <v>-810.60318117317604</v>
       </c>
       <c r="BV52" s="2">
-        <v>-3751.9861883431649</v>
-      </c>
-      <c r="BW52" s="2"/>
-      <c r="BX52" s="2"/>
+        <v>-812.93034080768575</v>
+      </c>
     </row>
     <row r="53" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="4"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="2">
+        <v>-3186.3580041599998</v>
+      </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="2"/>
+      <c r="F53" s="2">
+        <v>-3186.3580041599998</v>
+      </c>
+      <c r="G53" s="10">
+        <v>-172</v>
+      </c>
+      <c r="H53" s="2">
+        <v>-3186.3580041599998</v>
+      </c>
+      <c r="I53" s="10">
+        <v>-344.92</v>
+      </c>
+      <c r="J53" s="2">
+        <v>-3195.5057152726622</v>
+      </c>
+      <c r="K53" s="10">
+        <v>-832.15</v>
+      </c>
+      <c r="L53" s="2">
+        <v>-3204.6796885374406</v>
+      </c>
+      <c r="M53" s="10">
+        <v>-570.89</v>
+      </c>
+      <c r="N53" s="2">
+        <v>-3213.8799993503139</v>
+      </c>
       <c r="O53" s="10"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
+      <c r="P53" s="2">
+        <v>-3223.106723323715</v>
+      </c>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="2">
+        <v>-3232.3599362871523</v>
+      </c>
+      <c r="S53" s="10">
+        <v>-1136.57</v>
+      </c>
+      <c r="T53" s="2">
+        <v>-3241.6397142878341</v>
+      </c>
+      <c r="U53" s="10">
+        <v>-2722.04</v>
+      </c>
+      <c r="V53" s="2">
+        <v>-3250.9461335912911</v>
+      </c>
+      <c r="W53" s="10"/>
+      <c r="X53" s="2">
+        <v>-3260.2792706820051</v>
+      </c>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="2">
+        <v>-3288.4397568199856</v>
+      </c>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="2">
+        <v>-3297.8805343056015</v>
+      </c>
       <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
-      <c r="AF53" s="2"/>
-      <c r="AG53" s="2"/>
-      <c r="AH53" s="2"/>
-      <c r="AI53" s="2"/>
-      <c r="AJ53" s="2"/>
-      <c r="AK53" s="2"/>
-      <c r="AL53" s="2"/>
-      <c r="AM53" s="2"/>
-      <c r="AN53" s="2"/>
-      <c r="AO53" s="2"/>
-      <c r="AP53" s="2"/>
-      <c r="AQ53" s="2"/>
-      <c r="AR53" s="2"/>
-      <c r="AS53" s="2"/>
-      <c r="AT53" s="2"/>
-      <c r="AU53" s="2"/>
-      <c r="AV53" s="2"/>
-      <c r="AW53" s="2"/>
-      <c r="AX53" s="2"/>
-      <c r="AY53" s="2"/>
-      <c r="AZ53" s="2"/>
-      <c r="BA53" s="2"/>
-      <c r="BB53" s="2"/>
-      <c r="BC53" s="2"/>
-      <c r="BD53" s="2"/>
-      <c r="BE53" s="2"/>
-      <c r="BF53" s="2"/>
-      <c r="BG53" s="2"/>
-      <c r="BH53" s="2"/>
-      <c r="BI53" s="2"/>
-      <c r="BJ53" s="2"/>
-      <c r="BK53" s="2"/>
-      <c r="BL53" s="2"/>
-      <c r="BM53" s="2"/>
-      <c r="BN53" s="2"/>
-      <c r="BO53" s="2"/>
-      <c r="BP53" s="2"/>
-      <c r="BQ53" s="2"/>
-      <c r="BR53" s="2"/>
-      <c r="BS53" s="2"/>
-      <c r="BT53" s="2"/>
-      <c r="BU53" s="2"/>
-      <c r="BV53" s="2"/>
+      <c r="AD53" s="2">
+        <v>-3307.3484153072072</v>
+      </c>
+      <c r="AE53" s="2">
+        <v>-3316.8434776362528</v>
+      </c>
+      <c r="AF53" s="2">
+        <v>-3326.365799327576</v>
+      </c>
+      <c r="AG53" s="2">
+        <v>-3335.9154586400459</v>
+      </c>
+      <c r="AH53" s="2">
+        <v>-3345.4925340572045</v>
+      </c>
+      <c r="AI53" s="2">
+        <v>-3355.0971042879096</v>
+      </c>
+      <c r="AJ53" s="2">
+        <v>-3364.7292482669877</v>
+      </c>
+      <c r="AK53" s="2">
+        <v>-3374.3890451558768</v>
+      </c>
+      <c r="AL53" s="2">
+        <v>-3384.0765743432812</v>
+      </c>
+      <c r="AM53" s="2">
+        <v>-3393.7919154458209</v>
+      </c>
+      <c r="AN53" s="2">
+        <v>-3403.535148308687</v>
+      </c>
+      <c r="AO53" s="2">
+        <v>-3413.3063530062987</v>
+      </c>
+      <c r="AP53" s="2">
+        <v>-3423.1056098429603</v>
+      </c>
+      <c r="AQ53" s="2">
+        <v>-3432.9329993535216</v>
+      </c>
+      <c r="AR53" s="2">
+        <v>-3442.7886023040419</v>
+      </c>
+      <c r="AS53" s="2">
+        <v>-3452.6724996924481</v>
+      </c>
+      <c r="AT53" s="2">
+        <v>-3462.5847727492064</v>
+      </c>
+      <c r="AU53" s="2">
+        <v>-3472.5255029379864</v>
+      </c>
+      <c r="AV53" s="2">
+        <v>-3482.494771956332</v>
+      </c>
+      <c r="AW53" s="2">
+        <v>-3492.4926617363326</v>
+      </c>
+      <c r="AX53" s="2">
+        <v>-3502.5192544452957</v>
+      </c>
+      <c r="AY53" s="2">
+        <v>-3512.574632486424</v>
+      </c>
+      <c r="AZ53" s="2">
+        <v>-3522.658878499491</v>
+      </c>
+      <c r="BA53" s="2">
+        <v>-3532.7720753615195</v>
+      </c>
+      <c r="BB53" s="2">
+        <v>-3542.9143061874643</v>
+      </c>
+      <c r="BC53" s="2">
+        <v>-3553.0856543308964</v>
+      </c>
+      <c r="BD53" s="2">
+        <v>-3563.2862033846845</v>
+      </c>
+      <c r="BE53" s="2">
+        <v>-3573.5160371816846</v>
+      </c>
+      <c r="BF53" s="2">
+        <v>-3583.7752397954296</v>
+      </c>
+      <c r="BG53" s="2">
+        <v>-3594.0638955408172</v>
+      </c>
+      <c r="BH53" s="2">
+        <v>-3604.3820889748049</v>
+      </c>
+      <c r="BI53" s="2">
+        <v>-3614.7299048971054</v>
+      </c>
+      <c r="BJ53" s="2">
+        <v>-3625.1074283508824</v>
+      </c>
+      <c r="BK53" s="2">
+        <v>-3635.51474462345</v>
+      </c>
+      <c r="BL53" s="2">
+        <v>-3645.9519392469742</v>
+      </c>
+      <c r="BM53" s="2">
+        <v>-3656.4190979991736</v>
+      </c>
+      <c r="BN53" s="2">
+        <v>-3666.9163069040264</v>
+      </c>
+      <c r="BO53" s="2">
+        <v>-3677.4436522324781</v>
+      </c>
+      <c r="BP53" s="2">
+        <v>-3688.0012205031494</v>
+      </c>
+      <c r="BQ53" s="2">
+        <v>-3698.5890984830453</v>
+      </c>
+      <c r="BR53" s="2">
+        <v>-3709.2073731882706</v>
+      </c>
+      <c r="BS53" s="2">
+        <v>-3719.8561318847469</v>
+      </c>
+      <c r="BT53" s="2">
+        <v>-3730.5354620889243</v>
+      </c>
+      <c r="BU53" s="2">
+        <v>-3741.2454515685049</v>
+      </c>
+      <c r="BV53" s="2">
+        <v>-3751.9861883431649</v>
+      </c>
       <c r="BW53" s="2"/>
       <c r="BX53" s="2"/>
     </row>
@@ -8347,78 +8375,154 @@
       <c r="BT54" s="2"/>
       <c r="BU54" s="2"/>
       <c r="BV54" s="2"/>
+      <c r="BW54" s="2"/>
+      <c r="BX54" s="2"/>
     </row>
-    <row r="56" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
+    <row r="55" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="2"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="2"/>
+      <c r="AK55" s="2"/>
+      <c r="AL55" s="2"/>
+      <c r="AM55" s="2"/>
+      <c r="AN55" s="2"/>
+      <c r="AO55" s="2"/>
+      <c r="AP55" s="2"/>
+      <c r="AQ55" s="2"/>
+      <c r="AR55" s="2"/>
+      <c r="AS55" s="2"/>
+      <c r="AT55" s="2"/>
+      <c r="AU55" s="2"/>
+      <c r="AV55" s="2"/>
+      <c r="AW55" s="2"/>
+      <c r="AX55" s="2"/>
+      <c r="AY55" s="2"/>
+      <c r="AZ55" s="2"/>
+      <c r="BA55" s="2"/>
+      <c r="BB55" s="2"/>
+      <c r="BC55" s="2"/>
+      <c r="BD55" s="2"/>
+      <c r="BE55" s="2"/>
+      <c r="BF55" s="2"/>
+      <c r="BG55" s="2"/>
+      <c r="BH55" s="2"/>
+      <c r="BI55" s="2"/>
+      <c r="BJ55" s="2"/>
+      <c r="BK55" s="2"/>
+      <c r="BL55" s="2"/>
+      <c r="BM55" s="2"/>
+      <c r="BN55" s="2"/>
+      <c r="BO55" s="2"/>
+      <c r="BP55" s="2"/>
+      <c r="BQ55" s="2"/>
+      <c r="BR55" s="2"/>
+      <c r="BS55" s="2"/>
+      <c r="BT55" s="2"/>
+      <c r="BU55" s="2"/>
+      <c r="BV55" s="2"/>
+    </row>
+    <row r="57" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A57" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>295</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D57" s="18">
         <v>877</v>
       </c>
-      <c r="E56">
+      <c r="E57">
         <v>272</v>
       </c>
-      <c r="F56">
+      <c r="F57">
         <v>880</v>
       </c>
-      <c r="G56">
+      <c r="G57">
         <v>390</v>
       </c>
-      <c r="H56">
+      <c r="H57">
         <v>880</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
         <v>882</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K57" s="11">
         <v>580</v>
       </c>
-      <c r="L56">
+      <c r="L57">
         <v>885</v>
       </c>
-      <c r="M56">
+      <c r="M57">
         <v>492</v>
       </c>
-      <c r="N56">
+      <c r="N57">
         <v>818</v>
       </c>
-      <c r="O56" s="11">
+      <c r="O57" s="11">
         <v>633</v>
       </c>
-      <c r="Q56">
+      <c r="Q57">
         <v>520</v>
       </c>
-      <c r="S56" s="11">
+      <c r="S57" s="11">
         <v>523</v>
       </c>
-      <c r="U56">
+      <c r="U57">
         <v>468</v>
       </c>
-      <c r="W56" s="11">
+      <c r="W57" s="11">
         <v>299</v>
       </c>
-      <c r="Y56" s="33">
+      <c r="Y57" s="33">
         <f>750-280</f>
         <v>470</v>
       </c>
-      <c r="AA56" s="33">
+      <c r="AA57" s="33">
         <v>280</v>
       </c>
     </row>
-    <row r="57" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="Y57" s="33"/>
-      <c r="AA57" s="33"/>
+    <row r="58" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A58" s="21"/>
+      <c r="Y58" s="33"/>
+      <c r="AA58" s="33"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:BX34">
-    <sortCondition ref="A20:A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:BX35">
+    <sortCondition ref="A20:A35"/>
   </sortState>
   <conditionalFormatting sqref="Y1:Z1">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>

--- a/Energy - Orçado x Realizado.xlsx
+++ b/Energy - Orçado x Realizado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Modelos IA\Controle Energy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iori\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9C03A6-F87E-4926-B7FE-158975914658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239E0EFF-4B71-4B31-8C3F-C8B114EE0955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>Receita Bruta</t>
   </si>
@@ -193,7 +193,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,8 +278,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +305,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -312,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,12 +399,47 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -762,13 +810,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E0C361-DC00-4C96-A388-FAD64E248995}">
-  <dimension ref="A1:BX58"/>
+  <dimension ref="A1:BY58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="P16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="Y4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC16" sqref="AC16"/>
+      <selection pane="bottomRight" activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -785,10 +833,12 @@
     <col min="13" max="13" width="11.7109375" style="11" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="11.7109375" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="11.7109375" style="11" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="74" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="30" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="32" max="75" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
       <c r="B1" s="19"/>
       <c r="C1" s="13" t="s">
         <v>22</v>
@@ -871,8 +921,14 @@
       <c r="AC1" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
         <v>44</v>
       </c>
@@ -930,10 +986,14 @@
       </c>
       <c r="AC2" s="2">
         <f>AA2+AC4+AC15</f>
-        <v>152208.09999999998</v>
+        <v>152004.88</v>
+      </c>
+      <c r="AE2" s="2">
+        <f>AC2+AE4+AE15</f>
+        <v>173485.20999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:74" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="31"/>
       <c r="C3" s="30">
@@ -1021,139 +1081,142 @@
         <v>46357</v>
       </c>
       <c r="AE3" s="30">
+        <v>46357</v>
+      </c>
+      <c r="AF3" s="30">
         <v>46388</v>
       </c>
-      <c r="AF3" s="30">
+      <c r="AG3" s="30">
         <v>46419</v>
       </c>
-      <c r="AG3" s="30">
+      <c r="AH3" s="30">
         <v>46447</v>
       </c>
-      <c r="AH3" s="30">
+      <c r="AI3" s="30">
         <v>46478</v>
       </c>
-      <c r="AI3" s="30">
+      <c r="AJ3" s="30">
         <v>46508</v>
       </c>
-      <c r="AJ3" s="30">
+      <c r="AK3" s="30">
         <v>46539</v>
       </c>
-      <c r="AK3" s="30">
+      <c r="AL3" s="30">
         <v>46569</v>
       </c>
-      <c r="AL3" s="30">
+      <c r="AM3" s="30">
         <v>46600</v>
       </c>
-      <c r="AM3" s="30">
+      <c r="AN3" s="30">
         <v>46631</v>
       </c>
-      <c r="AN3" s="30">
+      <c r="AO3" s="30">
         <v>46661</v>
       </c>
-      <c r="AO3" s="30">
+      <c r="AP3" s="30">
         <v>46692</v>
       </c>
-      <c r="AP3" s="30">
+      <c r="AQ3" s="30">
         <v>46722</v>
       </c>
-      <c r="AQ3" s="30">
+      <c r="AR3" s="30">
         <v>46753</v>
       </c>
-      <c r="AR3" s="30">
+      <c r="AS3" s="30">
         <v>46784</v>
       </c>
-      <c r="AS3" s="30">
+      <c r="AT3" s="30">
         <v>46813</v>
       </c>
-      <c r="AT3" s="30">
+      <c r="AU3" s="30">
         <v>46844</v>
       </c>
-      <c r="AU3" s="30">
+      <c r="AV3" s="30">
         <v>46874</v>
       </c>
-      <c r="AV3" s="30">
+      <c r="AW3" s="30">
         <v>46905</v>
       </c>
-      <c r="AW3" s="30">
+      <c r="AX3" s="30">
         <v>46935</v>
       </c>
-      <c r="AX3" s="30">
+      <c r="AY3" s="30">
         <v>46966</v>
       </c>
-      <c r="AY3" s="30">
+      <c r="AZ3" s="30">
         <v>46997</v>
       </c>
-      <c r="AZ3" s="30">
+      <c r="BA3" s="30">
         <v>47027</v>
       </c>
-      <c r="BA3" s="30">
+      <c r="BB3" s="30">
         <v>47058</v>
       </c>
-      <c r="BB3" s="30">
+      <c r="BC3" s="30">
         <v>47088</v>
       </c>
-      <c r="BC3" s="30">
+      <c r="BD3" s="30">
         <v>47119</v>
       </c>
-      <c r="BD3" s="30">
+      <c r="BE3" s="30">
         <v>47150</v>
       </c>
-      <c r="BE3" s="30">
+      <c r="BF3" s="30">
         <v>47178</v>
       </c>
-      <c r="BF3" s="30">
+      <c r="BG3" s="30">
         <v>47209</v>
       </c>
-      <c r="BG3" s="30">
+      <c r="BH3" s="30">
         <v>47239</v>
       </c>
-      <c r="BH3" s="30">
+      <c r="BI3" s="30">
         <v>47270</v>
       </c>
-      <c r="BI3" s="30">
+      <c r="BJ3" s="30">
         <v>47300</v>
       </c>
-      <c r="BJ3" s="30">
+      <c r="BK3" s="30">
         <v>47331</v>
       </c>
-      <c r="BK3" s="30">
+      <c r="BL3" s="30">
         <v>47362</v>
       </c>
-      <c r="BL3" s="30">
+      <c r="BM3" s="30">
         <v>47392</v>
       </c>
-      <c r="BM3" s="30">
+      <c r="BN3" s="30">
         <v>47423</v>
       </c>
-      <c r="BN3" s="30">
+      <c r="BO3" s="30">
         <v>47453</v>
       </c>
-      <c r="BO3" s="30">
+      <c r="BP3" s="30">
         <v>47484</v>
       </c>
-      <c r="BP3" s="30">
+      <c r="BQ3" s="30">
         <v>47515</v>
       </c>
-      <c r="BQ3" s="30">
+      <c r="BR3" s="30">
         <v>47543</v>
       </c>
-      <c r="BR3" s="30">
+      <c r="BS3" s="30">
         <v>47574</v>
       </c>
-      <c r="BS3" s="30">
+      <c r="BT3" s="30">
         <v>47604</v>
       </c>
-      <c r="BT3" s="30">
+      <c r="BU3" s="30">
         <v>47635</v>
       </c>
-      <c r="BU3" s="30">
+      <c r="BV3" s="30">
         <v>47665</v>
       </c>
-      <c r="BV3" s="30">
+      <c r="BW3" s="30">
         <v>47696</v>
       </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
@@ -1162,7 +1225,7 @@
         <v>2007193.96</v>
       </c>
       <c r="C4" s="15">
-        <f t="shared" ref="C4:AH4" si="0">C5+C8</f>
+        <f t="shared" ref="C4:AI4" si="0">C5+C8</f>
         <v>65100</v>
       </c>
       <c r="D4" s="5">
@@ -1266,191 +1329,195 @@
         <v>112955.55421269746</v>
       </c>
       <c r="AC4" s="5">
-        <f t="shared" ref="AC4" si="2">AC5+AC8</f>
+        <f t="shared" ref="AC4:AE4" si="2">AC5+AC8</f>
         <v>-19033.080000000002</v>
       </c>
       <c r="AD4" s="5">
         <f t="shared" si="0"/>
         <v>113488.68408053627</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AE4" s="36">
+        <f t="shared" si="2"/>
+        <v>100941.54</v>
+      </c>
+      <c r="AF4" s="5">
         <f t="shared" si="0"/>
         <v>114022.34594505926</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AG4" s="5">
         <f t="shared" si="0"/>
         <v>114557.3798253882</v>
       </c>
-      <c r="AG4" s="5">
+      <c r="AH4" s="5">
         <f t="shared" si="0"/>
         <v>115093.79314638168</v>
       </c>
-      <c r="AH4" s="5">
+      <c r="AI4" s="5">
         <f t="shared" si="0"/>
         <v>115631.58971258732</v>
       </c>
-      <c r="AI4" s="5">
-        <f t="shared" ref="AI4:BN4" si="3">AI5+AI8</f>
+      <c r="AJ4" s="5">
+        <f t="shared" ref="AJ4:BO4" si="3">AJ5+AJ8</f>
         <v>116170.77332340677</v>
       </c>
-      <c r="AJ4" s="5">
+      <c r="AK4" s="5">
         <f t="shared" si="3"/>
         <v>116711.34778889181</v>
       </c>
-      <c r="AK4" s="5">
+      <c r="AL4" s="5">
         <f t="shared" si="3"/>
         <v>117253.31692984366</v>
       </c>
-      <c r="AL4" s="5">
+      <c r="AM4" s="5">
         <f t="shared" si="3"/>
         <v>117796.68457784381</v>
       </c>
-      <c r="AM4" s="5">
+      <c r="AN4" s="5">
         <f t="shared" si="3"/>
         <v>118295.08799702271</v>
       </c>
-      <c r="AN4" s="5">
+      <c r="AO4" s="5">
         <f t="shared" si="3"/>
         <v>118841.05812756054</v>
       </c>
-      <c r="AO4" s="5">
+      <c r="AP4" s="5">
         <f t="shared" si="3"/>
         <v>119388.63976029815</v>
       </c>
-      <c r="AP4" s="5">
+      <c r="AQ4" s="5">
         <f t="shared" si="3"/>
         <v>119937.6363443998</v>
       </c>
-      <c r="AQ4" s="5">
+      <c r="AR4" s="5">
         <f t="shared" si="3"/>
         <v>120488.05089229152</v>
       </c>
-      <c r="AR4" s="5">
+      <c r="AS4" s="5">
         <f t="shared" si="3"/>
         <v>121039.88729760991</v>
       </c>
-      <c r="AS4" s="5">
+      <c r="AT4" s="5">
         <f t="shared" si="3"/>
         <v>121593.14946878582</v>
       </c>
-      <c r="AT4" s="5">
+      <c r="AU4" s="5">
         <f t="shared" si="3"/>
         <v>122147.84132529711</v>
       </c>
-      <c r="AU4" s="5">
+      <c r="AV4" s="5">
         <f t="shared" si="3"/>
         <v>122703.96679768368</v>
       </c>
-      <c r="AV4" s="5">
+      <c r="AW4" s="5">
         <f t="shared" si="3"/>
         <v>123261.52982757895</v>
       </c>
-      <c r="AW4" s="5">
+      <c r="AX4" s="5">
         <f t="shared" si="3"/>
         <v>123820.53436774146</v>
       </c>
-      <c r="AX4" s="5">
+      <c r="AY4" s="5">
         <f t="shared" si="3"/>
         <v>124380.98438208665</v>
       </c>
-      <c r="AY4" s="5">
+      <c r="AZ4" s="5">
         <f t="shared" si="3"/>
         <v>124894.89443721721</v>
       </c>
-      <c r="AZ4" s="5">
+      <c r="BA4" s="5">
         <f t="shared" si="3"/>
         <v>125458.03405444659</v>
       </c>
-      <c r="BA4" s="5">
+      <c r="BB4" s="5">
         <f t="shared" si="3"/>
         <v>126022.83959052119</v>
       </c>
-      <c r="BB4" s="5">
+      <c r="BC4" s="5">
         <f t="shared" si="3"/>
         <v>126589.10761355137</v>
       </c>
-      <c r="BC4" s="5">
+      <c r="BD4" s="5">
         <f t="shared" si="3"/>
         <v>127156.84123962262</v>
       </c>
-      <c r="BD4" s="5">
+      <c r="BE4" s="5">
         <f t="shared" si="3"/>
         <v>127726.04449687258</v>
       </c>
-      <c r="BE4" s="5">
+      <c r="BF4" s="5">
         <f t="shared" si="3"/>
         <v>128296.72142875013</v>
       </c>
-      <c r="BF4" s="5">
+      <c r="BG4" s="5">
         <f t="shared" si="3"/>
         <v>128868.87609013708</v>
       </c>
-      <c r="BG4" s="5">
+      <c r="BH4" s="5">
         <f t="shared" si="3"/>
         <v>129442.51254736367</v>
       </c>
-      <c r="BH4" s="5">
+      <c r="BI4" s="5">
         <f t="shared" si="3"/>
         <v>129968.9979181941</v>
       </c>
-      <c r="BI4" s="5">
+      <c r="BJ4" s="5">
         <f t="shared" si="3"/>
         <v>130478.76360789448</v>
       </c>
-      <c r="BJ4" s="5">
+      <c r="BK4" s="5">
         <f t="shared" si="3"/>
         <v>130989.42291756609</v>
       </c>
-      <c r="BK4" s="5">
+      <c r="BL4" s="5">
         <f t="shared" si="3"/>
         <v>131501.07479386276</v>
       </c>
-      <c r="BL4" s="5">
+      <c r="BM4" s="5">
         <f t="shared" si="3"/>
         <v>132013.72261231358</v>
       </c>
-      <c r="BM4" s="5">
+      <c r="BN4" s="5">
         <f t="shared" si="3"/>
         <v>132527.36923503783</v>
       </c>
-      <c r="BN4" s="5">
+      <c r="BO4" s="5">
         <f t="shared" si="3"/>
         <v>133042.01752951712</v>
       </c>
-      <c r="BO4" s="5">
-        <f t="shared" ref="BO4:BV4" si="4">BO5+BO8</f>
+      <c r="BP4" s="5">
+        <f t="shared" ref="BP4:BW4" si="4">BP5+BP8</f>
         <v>133557.67037144973</v>
       </c>
-      <c r="BP4" s="5">
+      <c r="BQ4" s="5">
         <f t="shared" si="4"/>
         <v>134074.33064478962</v>
       </c>
-      <c r="BQ4" s="5">
+      <c r="BR4" s="5">
         <f t="shared" si="4"/>
         <v>134592.00124177034</v>
       </c>
-      <c r="BR4" s="5">
+      <c r="BS4" s="5">
         <f t="shared" si="4"/>
         <v>135110.68506292874</v>
       </c>
-      <c r="BS4" s="5">
+      <c r="BT4" s="5">
         <f t="shared" si="4"/>
         <v>135630.38501712884</v>
       </c>
-      <c r="BT4" s="5">
+      <c r="BU4" s="5">
         <f t="shared" si="4"/>
         <v>136151.1040215856</v>
       </c>
-      <c r="BU4" s="5">
+      <c r="BV4" s="5">
         <f t="shared" si="4"/>
         <v>136672.84500188916</v>
       </c>
-      <c r="BV4" s="5">
+      <c r="BW4" s="5">
         <f t="shared" si="4"/>
         <v>125066.2062781055</v>
       </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>37</v>
       </c>
@@ -1463,7 +1530,7 @@
         <v>106615.54357770366</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:BQ5" si="5">SUM(E6:E7)</f>
+        <f t="shared" ref="E5:BR5" si="5">SUM(E6:E7)</f>
         <v>0</v>
       </c>
       <c r="F5" s="5">
@@ -1559,191 +1626,195 @@
         <v>112955.55421269746</v>
       </c>
       <c r="AC5" s="5">
-        <f t="shared" ref="AC5" si="7">SUM(AC6:AC7)</f>
+        <f t="shared" ref="AC5:AE5" si="7">SUM(AC6:AC7)</f>
         <v>100941.54</v>
       </c>
       <c r="AD5" s="5">
         <f t="shared" si="5"/>
         <v>113488.68408053627</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AE5" s="36">
+        <f t="shared" si="7"/>
+        <v>100941.54</v>
+      </c>
+      <c r="AF5" s="5">
         <f t="shared" si="5"/>
         <v>114022.34594505926</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AG5" s="5">
         <f t="shared" si="5"/>
         <v>114557.3798253882</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AH5" s="5">
         <f t="shared" si="5"/>
         <v>115093.79314638168</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AI5" s="5">
         <f t="shared" si="5"/>
         <v>115631.58971258732</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AJ5" s="5">
         <f t="shared" si="5"/>
         <v>116170.77332340677</v>
       </c>
-      <c r="AJ5" s="5">
+      <c r="AK5" s="5">
         <f t="shared" si="5"/>
         <v>116711.34778889181</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AL5" s="5">
         <f t="shared" si="5"/>
         <v>117253.31692984366</v>
       </c>
-      <c r="AL5" s="5">
+      <c r="AM5" s="5">
         <f t="shared" si="5"/>
         <v>117796.68457784381</v>
       </c>
-      <c r="AM5" s="5">
+      <c r="AN5" s="5">
         <f t="shared" si="5"/>
         <v>118295.08799702271</v>
       </c>
-      <c r="AN5" s="5">
+      <c r="AO5" s="5">
         <f t="shared" si="5"/>
         <v>118841.05812756054</v>
       </c>
-      <c r="AO5" s="5">
+      <c r="AP5" s="5">
         <f t="shared" si="5"/>
         <v>119388.63976029815</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AQ5" s="5">
         <f t="shared" si="5"/>
         <v>119937.6363443998</v>
       </c>
-      <c r="AQ5" s="5">
+      <c r="AR5" s="5">
         <f t="shared" si="5"/>
         <v>120488.05089229152</v>
       </c>
-      <c r="AR5" s="5">
+      <c r="AS5" s="5">
         <f t="shared" si="5"/>
         <v>121039.88729760991</v>
       </c>
-      <c r="AS5" s="5">
+      <c r="AT5" s="5">
         <f t="shared" si="5"/>
         <v>121593.14946878582</v>
       </c>
-      <c r="AT5" s="5">
+      <c r="AU5" s="5">
         <f t="shared" si="5"/>
         <v>122147.84132529711</v>
       </c>
-      <c r="AU5" s="5">
+      <c r="AV5" s="5">
         <f t="shared" si="5"/>
         <v>122703.96679768368</v>
       </c>
-      <c r="AV5" s="5">
+      <c r="AW5" s="5">
         <f t="shared" si="5"/>
         <v>123261.52982757895</v>
       </c>
-      <c r="AW5" s="5">
+      <c r="AX5" s="5">
         <f t="shared" si="5"/>
         <v>123820.53436774146</v>
       </c>
-      <c r="AX5" s="5">
+      <c r="AY5" s="5">
         <f t="shared" si="5"/>
         <v>124380.98438208665</v>
       </c>
-      <c r="AY5" s="5">
+      <c r="AZ5" s="5">
         <f t="shared" si="5"/>
         <v>124894.89443721721</v>
       </c>
-      <c r="AZ5" s="5">
+      <c r="BA5" s="5">
         <f t="shared" si="5"/>
         <v>125458.03405444659</v>
       </c>
-      <c r="BA5" s="5">
+      <c r="BB5" s="5">
         <f t="shared" si="5"/>
         <v>126022.83959052119</v>
       </c>
-      <c r="BB5" s="5">
+      <c r="BC5" s="5">
         <f t="shared" si="5"/>
         <v>126589.10761355137</v>
       </c>
-      <c r="BC5" s="5">
+      <c r="BD5" s="5">
         <f t="shared" si="5"/>
         <v>127156.84123962262</v>
       </c>
-      <c r="BD5" s="5">
+      <c r="BE5" s="5">
         <f t="shared" si="5"/>
         <v>127726.04449687258</v>
       </c>
-      <c r="BE5" s="5">
+      <c r="BF5" s="5">
         <f t="shared" si="5"/>
         <v>128296.72142875013</v>
       </c>
-      <c r="BF5" s="5">
+      <c r="BG5" s="5">
         <f t="shared" si="5"/>
         <v>128868.87609013708</v>
       </c>
-      <c r="BG5" s="5">
+      <c r="BH5" s="5">
         <f t="shared" si="5"/>
         <v>129442.51254736367</v>
       </c>
-      <c r="BH5" s="5">
+      <c r="BI5" s="5">
         <f t="shared" si="5"/>
         <v>129968.9979181941</v>
       </c>
-      <c r="BI5" s="5">
+      <c r="BJ5" s="5">
         <f t="shared" si="5"/>
         <v>130478.76360789448</v>
       </c>
-      <c r="BJ5" s="5">
+      <c r="BK5" s="5">
         <f t="shared" si="5"/>
         <v>130989.42291756609</v>
       </c>
-      <c r="BK5" s="5">
+      <c r="BL5" s="5">
         <f t="shared" si="5"/>
         <v>131501.07479386276</v>
       </c>
-      <c r="BL5" s="5">
+      <c r="BM5" s="5">
         <f t="shared" si="5"/>
         <v>132013.72261231358</v>
       </c>
-      <c r="BM5" s="5">
+      <c r="BN5" s="5">
         <f t="shared" si="5"/>
         <v>132527.36923503783</v>
       </c>
-      <c r="BN5" s="5">
+      <c r="BO5" s="5">
         <f t="shared" si="5"/>
         <v>133042.01752951712</v>
       </c>
-      <c r="BO5" s="5">
+      <c r="BP5" s="5">
         <f t="shared" si="5"/>
         <v>133557.67037144973</v>
       </c>
-      <c r="BP5" s="5">
+      <c r="BQ5" s="5">
         <f t="shared" si="5"/>
         <v>134074.33064478962</v>
       </c>
-      <c r="BQ5" s="5">
+      <c r="BR5" s="5">
         <f t="shared" si="5"/>
         <v>134592.00124177034</v>
       </c>
-      <c r="BR5" s="5">
-        <f t="shared" ref="BR5:BV5" si="8">SUM(BR6:BR7)</f>
+      <c r="BS5" s="5">
+        <f t="shared" ref="BS5:BW5" si="8">SUM(BS6:BS7)</f>
         <v>135110.68506292874</v>
       </c>
-      <c r="BS5" s="5">
+      <c r="BT5" s="5">
         <f t="shared" si="8"/>
         <v>135630.38501712884</v>
       </c>
-      <c r="BT5" s="5">
+      <c r="BU5" s="5">
         <f t="shared" si="8"/>
         <v>136151.1040215856</v>
       </c>
-      <c r="BU5" s="5">
+      <c r="BV5" s="5">
         <f t="shared" si="8"/>
         <v>136672.84500188916</v>
       </c>
-      <c r="BV5" s="5">
+      <c r="BW5" s="5">
         <f t="shared" si="8"/>
         <v>125066.2062781055</v>
       </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>0</v>
       </c>
@@ -1823,140 +1894,143 @@
       <c r="AD6" s="2">
         <v>110244.94717690691</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AE6" s="37">
+        <v>100941.54</v>
+      </c>
+      <c r="AF6" s="2">
         <v>110561.44925454176</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AG6" s="2">
         <v>110878.85997758587</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AH6" s="2">
         <v>111197.18195466821</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AI6" s="2">
         <v>111516.41780190682</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AJ6" s="2">
         <v>111836.57014293033</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AK6" s="2">
         <v>112157.64160889959</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AL6" s="2">
         <v>112479.63483852924</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AM6" s="2">
         <v>112802.55247810938</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AN6" s="2">
         <v>113126.39718152737</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AO6" s="2">
         <v>113451.17161028957</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AP6" s="2">
         <v>113776.87843354329</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="AQ6" s="2">
         <v>114103.52032809868</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="AR6" s="2">
         <v>114431.09997845073</v>
       </c>
-      <c r="AR6" s="2">
+      <c r="AS6" s="2">
         <v>114759.6200768014</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AT6" s="2">
         <v>115089.08332308161</v>
       </c>
-      <c r="AT6" s="2">
+      <c r="AU6" s="2">
         <v>115419.49242497355</v>
       </c>
-      <c r="AU6" s="2">
+      <c r="AV6" s="2">
         <v>115750.85009793288</v>
       </c>
-      <c r="AV6" s="2">
+      <c r="AW6" s="2">
         <v>116083.15906521108</v>
       </c>
-      <c r="AW6" s="2">
+      <c r="AX6" s="2">
         <v>116416.42205787776</v>
       </c>
-      <c r="AX6" s="2">
+      <c r="AY6" s="2">
         <v>116750.6418148432</v>
       </c>
-      <c r="AY6" s="2">
+      <c r="AZ6" s="2">
         <v>117085.82108288081</v>
       </c>
-      <c r="AZ6" s="2">
+      <c r="BA6" s="2">
         <v>117421.9626166497</v>
       </c>
-      <c r="BA6" s="2">
+      <c r="BB6" s="2">
         <v>117759.06917871731</v>
       </c>
-      <c r="BB6" s="2">
+      <c r="BC6" s="2">
         <v>118097.14353958215</v>
       </c>
-      <c r="BC6" s="2">
+      <c r="BD6" s="2">
         <v>118436.18847769655</v>
       </c>
-      <c r="BD6" s="2">
+      <c r="BE6" s="2">
         <v>118776.20677948948</v>
       </c>
-      <c r="BE6" s="2">
+      <c r="BF6" s="2">
         <v>119117.2012393895</v>
       </c>
-      <c r="BF6" s="2">
+      <c r="BG6" s="2">
         <v>119459.17465984766</v>
       </c>
-      <c r="BG6" s="2">
+      <c r="BH6" s="2">
         <v>119802.12985136057</v>
       </c>
-      <c r="BH6" s="2">
+      <c r="BI6" s="2">
         <v>120146.0696324935</v>
       </c>
-      <c r="BI6" s="2">
+      <c r="BJ6" s="2">
         <v>120490.99682990351</v>
       </c>
-      <c r="BJ6" s="2">
+      <c r="BK6" s="2">
         <v>120836.91427836275</v>
       </c>
-      <c r="BK6" s="2">
+      <c r="BL6" s="2">
         <v>121183.82482078168</v>
       </c>
-      <c r="BL6" s="2">
+      <c r="BM6" s="2">
         <v>121531.73130823248</v>
       </c>
-      <c r="BM6" s="2">
+      <c r="BN6" s="2">
         <v>121880.63659997245</v>
       </c>
-      <c r="BN6" s="2">
+      <c r="BO6" s="2">
         <v>122230.54356346755</v>
       </c>
-      <c r="BO6" s="2">
+      <c r="BP6" s="2">
         <v>122581.45507441595</v>
       </c>
-      <c r="BP6" s="2">
+      <c r="BQ6" s="2">
         <v>122933.37401677165</v>
       </c>
-      <c r="BQ6" s="2">
+      <c r="BR6" s="2">
         <v>123286.30328276817</v>
       </c>
-      <c r="BR6" s="2">
+      <c r="BS6" s="2">
         <v>123640.24577294236</v>
       </c>
-      <c r="BS6" s="2">
+      <c r="BT6" s="2">
         <v>123995.20439615824</v>
       </c>
-      <c r="BT6" s="2">
+      <c r="BU6" s="2">
         <v>124351.18206963081</v>
       </c>
-      <c r="BU6" s="2">
+      <c r="BV6" s="2">
         <v>124708.18171895017</v>
       </c>
-      <c r="BV6" s="2">
+      <c r="BW6" s="2">
         <v>125066.2062781055</v>
       </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
@@ -2015,140 +2089,141 @@
       <c r="AD7" s="2">
         <v>3243.736903629368</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="2">
         <v>3460.8966905174989</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AG7" s="2">
         <v>3678.5198478023194</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AH7" s="2">
         <v>3896.6111917134726</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AI7" s="2">
         <v>4115.1719106805022</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AJ7" s="2">
         <v>4334.2031804764392</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AK7" s="2">
         <v>4553.7061799922249</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AL7" s="2">
         <v>4773.6820913144138</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AM7" s="2">
         <v>4994.1320997344374</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AN7" s="2">
         <v>5168.6908154953417</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AO7" s="2">
         <v>5389.8865172709584</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AP7" s="2">
         <v>5611.7613267548541</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="AQ7" s="2">
         <v>5834.1160163011245</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="AR7" s="2">
         <v>6056.9509138407848</v>
       </c>
-      <c r="AR7" s="2">
+      <c r="AS7" s="2">
         <v>6280.2672208085205</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AT7" s="2">
         <v>6504.0661457042106</v>
       </c>
-      <c r="AT7" s="2">
+      <c r="AU7" s="2">
         <v>6728.3489003235554</v>
       </c>
-      <c r="AU7" s="2">
+      <c r="AV7" s="2">
         <v>6953.1166997507917</v>
       </c>
-      <c r="AV7" s="2">
+      <c r="AW7" s="2">
         <v>7178.3707623678711</v>
       </c>
-      <c r="AW7" s="2">
+      <c r="AX7" s="2">
         <v>7404.1123098637072</v>
       </c>
-      <c r="AX7" s="2">
+      <c r="AY7" s="2">
         <v>7630.3425672434551</v>
       </c>
-      <c r="AY7" s="2">
+      <c r="AZ7" s="2">
         <v>7809.0733543363986</v>
       </c>
-      <c r="AZ7" s="2">
+      <c r="BA7" s="2">
         <v>8036.0714377968825</v>
       </c>
-      <c r="BA7" s="2">
+      <c r="BB7" s="2">
         <v>8263.7704118038819</v>
       </c>
-      <c r="BB7" s="2">
+      <c r="BC7" s="2">
         <v>8491.9640739692313</v>
       </c>
-      <c r="BC7" s="2">
+      <c r="BD7" s="2">
         <v>8720.6527619260814</v>
       </c>
-      <c r="BD7" s="2">
+      <c r="BE7" s="2">
         <v>8949.8377173830977</v>
       </c>
-      <c r="BE7" s="2">
+      <c r="BF7" s="2">
         <v>9179.5201893606336</v>
       </c>
-      <c r="BF7" s="2">
+      <c r="BG7" s="2">
         <v>9409.7014302894295</v>
       </c>
-      <c r="BG7" s="2">
+      <c r="BH7" s="2">
         <v>9640.3826960030947</v>
       </c>
-      <c r="BH7" s="2">
+      <c r="BI7" s="2">
         <v>9822.9282857006074</v>
       </c>
-      <c r="BI7" s="2">
+      <c r="BJ7" s="2">
         <v>9987.766777990968</v>
       </c>
-      <c r="BJ7" s="2">
+      <c r="BK7" s="2">
         <v>10152.508639203334</v>
       </c>
-      <c r="BK7" s="2">
+      <c r="BL7" s="2">
         <v>10317.249973081094</v>
       </c>
-      <c r="BL7" s="2">
+      <c r="BM7" s="2">
         <v>10481.991304081086</v>
       </c>
-      <c r="BM7" s="2">
+      <c r="BN7" s="2">
         <v>10646.732635065375</v>
       </c>
-      <c r="BN7" s="2">
+      <c r="BO7" s="2">
         <v>10811.473966049576</v>
       </c>
-      <c r="BO7" s="2">
+      <c r="BP7" s="2">
         <v>10976.215297033777</v>
       </c>
-      <c r="BP7" s="2">
+      <c r="BQ7" s="2">
         <v>11140.956628017979</v>
       </c>
-      <c r="BQ7" s="2">
+      <c r="BR7" s="2">
         <v>11305.69795900218</v>
       </c>
-      <c r="BR7" s="2">
+      <c r="BS7" s="2">
         <v>11470.439289986381</v>
       </c>
-      <c r="BS7" s="2">
+      <c r="BT7" s="2">
         <v>11635.180620970583</v>
       </c>
-      <c r="BT7" s="2">
+      <c r="BU7" s="2">
         <v>11799.921951954784</v>
       </c>
-      <c r="BU7" s="2">
+      <c r="BV7" s="2">
         <v>11964.663282938986</v>
       </c>
-      <c r="BV7" s="2">
+      <c r="BW7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>38</v>
       </c>
@@ -2157,7 +2232,7 @@
         <v>1712651</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ref="C8:AH8" si="9">SUM(C9:C12)</f>
+        <f t="shared" ref="C8:AI8" si="9">SUM(C9:C12)</f>
         <v>65100</v>
       </c>
       <c r="D8" s="5">
@@ -2268,8 +2343,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="5">
-        <f t="shared" si="9"/>
+      <c r="AE8" s="36">
+        <f>SUM(AE9:AE13)</f>
         <v>0</v>
       </c>
       <c r="AF8" s="5">
@@ -2285,11 +2360,11 @@
         <v>0</v>
       </c>
       <c r="AI8" s="5">
-        <f t="shared" ref="AI8:BN8" si="10">SUM(AI9:AI12)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ8" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AJ8:BO8" si="10">SUM(AJ9:AJ12)</f>
         <v>0</v>
       </c>
       <c r="AK8" s="5">
@@ -2413,11 +2488,11 @@
         <v>0</v>
       </c>
       <c r="BO8" s="5">
-        <f t="shared" ref="BO8:BV8" si="11">SUM(BO9:BO12)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BP8" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="BP8:BW8" si="11">SUM(BP9:BP12)</f>
         <v>0</v>
       </c>
       <c r="BQ8" s="5">
@@ -2444,8 +2519,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="BW8" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>25</v>
       </c>
@@ -2504,7 +2583,7 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
+      <c r="AE9" s="37"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
@@ -2548,8 +2627,9 @@
       <c r="BT9" s="2"/>
       <c r="BU9" s="2"/>
       <c r="BV9" s="2"/>
+      <c r="BW9" s="2"/>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>33</v>
       </c>
@@ -2591,7 +2671,7 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
+      <c r="AE10" s="37"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -2635,8 +2715,9 @@
       <c r="BT10" s="2"/>
       <c r="BU10" s="2"/>
       <c r="BV10" s="2"/>
+      <c r="BW10" s="2"/>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>42</v>
       </c>
@@ -2691,7 +2772,7 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
+      <c r="AE11" s="37"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -2735,14 +2816,15 @@
       <c r="BT11" s="2"/>
       <c r="BU11" s="2"/>
       <c r="BV11" s="2"/>
+      <c r="BW11" s="2"/>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="7">
-        <f t="shared" si="12"/>
-        <v>-156000</v>
+        <f>C12+E12+G12+I12+K12+M12+O12+Q12+S12+U12+W12+Y12+AA12+AC12</f>
+        <v>-252000</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2773,11 +2855,11 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="2"/>
-      <c r="AC12" s="10">
+      <c r="AC12" s="38">
         <v>-96000</v>
       </c>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
+      <c r="AE12" s="38"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
@@ -2821,14 +2903,15 @@
       <c r="BT12" s="2"/>
       <c r="BU12" s="2"/>
       <c r="BV12" s="2"/>
+      <c r="BW12" s="2"/>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="7">
-        <f t="shared" ref="B13" si="14">C13+E13+G13+I13+K13+M13+O13+Q13+S13+U13+W13+Y13</f>
-        <v>0</v>
+        <f>C13+E13+G13+I13+K13+M13+O13+Q13+S13+U13+W13+Y13+AA13+AC13</f>
+        <v>-23974.62</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2856,11 +2939,11 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="2"/>
-      <c r="AC13" s="10">
+      <c r="AC13" s="38">
         <v>-23974.62</v>
       </c>
       <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
+      <c r="AE13" s="38"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
@@ -2904,8 +2987,9 @@
       <c r="BT13" s="2"/>
       <c r="BU13" s="2"/>
       <c r="BV13" s="2"/>
+      <c r="BW13" s="2"/>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
       <c r="B14" s="7"/>
       <c r="C14" s="2"/>
@@ -2936,7 +3020,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
+      <c r="AE14" s="37"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
@@ -2980,8 +3064,9 @@
       <c r="BT14" s="2"/>
       <c r="BU14" s="2"/>
       <c r="BV14" s="2"/>
+      <c r="BW14" s="2"/>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>10</v>
       </c>
@@ -3002,7 +3087,7 @@
         <v>-54706.32</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" ref="F15:J15" si="15">F16+F41+F49</f>
+        <f t="shared" ref="F15:J15" si="14">F16+F41+F49</f>
         <v>-408527.40230918775</v>
       </c>
       <c r="G15" s="10">
@@ -3010,7 +3095,7 @@
         <v>-175296.1</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-409516.0182064494</v>
       </c>
       <c r="I15" s="10">
@@ -3018,7 +3103,7 @@
         <v>-126600.84</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-305118.589039805</v>
       </c>
       <c r="K15" s="10">
@@ -3026,7 +3111,7 @@
         <v>-7684.3</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" ref="L15:AB15" si="16">L16+L41+L49</f>
+        <f t="shared" ref="L15:AB15" si="15">L16+L41+L49</f>
         <v>-305163.02165031742</v>
       </c>
       <c r="M15" s="10">
@@ -3034,7 +3119,7 @@
         <v>-157263.75000000003</v>
       </c>
       <c r="N15" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-305207.5818223544</v>
       </c>
       <c r="O15" s="10">
@@ -3042,7 +3127,7 @@
         <v>-325460.69999999995</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-282184.56565269525</v>
       </c>
       <c r="Q15" s="10">
@@ -3050,7 +3135,7 @@
         <v>-186366.61</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-13655.396624750776</v>
       </c>
       <c r="S15" s="10">
@@ -3058,7 +3143,7 @@
         <v>-13708.77</v>
       </c>
       <c r="T15" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-13700.341682867411</v>
       </c>
       <c r="U15" s="10">
@@ -3066,7 +3151,7 @@
         <v>-143558.44999999998</v>
       </c>
       <c r="V15" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-13745.41577369382</v>
       </c>
       <c r="W15" s="10">
@@ -3074,7 +3159,7 @@
         <v>-592353.26</v>
       </c>
       <c r="X15" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-13790.619267669847</v>
       </c>
       <c r="Y15" s="10">
@@ -3082,7 +3167,7 @@
         <v>-153165.56</v>
       </c>
       <c r="Z15" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-13927.009888864799</v>
       </c>
       <c r="AA15" s="10">
@@ -3090,195 +3175,199 @@
         <v>-212386.09</v>
       </c>
       <c r="AB15" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-13972.734721153462</v>
       </c>
       <c r="AC15" s="5">
         <f>AC16+AC41+AC49+AC26</f>
-        <v>-68201.87999999999</v>
+        <v>-68405.099999999991</v>
       </c>
       <c r="AD15" s="5">
-        <f t="shared" ref="AD15:BV15" si="17">AD16-AD41-AD49</f>
+        <f t="shared" ref="AD15:BW15" si="16">AD16-AD41-AD49</f>
         <v>14018.590824804574</v>
       </c>
-      <c r="AE15" s="5">
-        <f t="shared" si="17"/>
+      <c r="AE15" s="36">
+        <f>AE16+AE41+AE49+AE26</f>
+        <v>-79461.210000000006</v>
+      </c>
+      <c r="AF15" s="5">
+        <f t="shared" si="16"/>
         <v>14064.578576684915</v>
       </c>
-      <c r="AF15" s="5">
-        <f t="shared" si="17"/>
+      <c r="AG15" s="5">
+        <f t="shared" si="16"/>
         <v>14110.698354743226</v>
       </c>
-      <c r="AG15" s="5">
-        <f t="shared" si="17"/>
+      <c r="AH15" s="5">
+        <f t="shared" si="16"/>
         <v>14156.95053801329</v>
       </c>
-      <c r="AH15" s="5">
-        <f t="shared" si="17"/>
+      <c r="AI15" s="5">
+        <f t="shared" si="16"/>
         <v>14203.335506617061</v>
       </c>
-      <c r="AI15" s="5">
-        <f t="shared" si="17"/>
+      <c r="AJ15" s="5">
+        <f t="shared" si="16"/>
         <v>14249.853641767777</v>
       </c>
-      <c r="AJ15" s="5">
-        <f t="shared" si="17"/>
+      <c r="AK15" s="5">
+        <f t="shared" si="16"/>
         <v>14296.505325773111</v>
       </c>
-      <c r="AK15" s="5">
-        <f t="shared" si="17"/>
+      <c r="AL15" s="5">
+        <f t="shared" si="16"/>
         <v>14343.290942038298</v>
       </c>
-      <c r="AL15" s="5">
-        <f t="shared" si="17"/>
+      <c r="AM15" s="5">
+        <f t="shared" si="16"/>
         <v>14390.210875069293</v>
       </c>
-      <c r="AM15" s="5">
-        <f t="shared" si="17"/>
+      <c r="AN15" s="5">
+        <f t="shared" si="16"/>
         <v>14437.265510475925</v>
       </c>
-      <c r="AN15" s="5">
-        <f t="shared" si="17"/>
+      <c r="AO15" s="5">
+        <f t="shared" si="16"/>
         <v>14484.455234975074</v>
       </c>
-      <c r="AO15" s="5">
-        <f t="shared" si="17"/>
+      <c r="AP15" s="5">
+        <f t="shared" si="16"/>
         <v>14531.780436393839</v>
       </c>
-      <c r="AP15" s="5">
-        <f t="shared" si="17"/>
+      <c r="AQ15" s="5">
+        <f t="shared" si="16"/>
         <v>14579.241503672736</v>
       </c>
-      <c r="AQ15" s="5">
-        <f t="shared" si="17"/>
+      <c r="AR15" s="5">
+        <f t="shared" si="16"/>
         <v>14626.838826868892</v>
       </c>
-      <c r="AR15" s="5">
-        <f t="shared" si="17"/>
+      <c r="AS15" s="5">
+        <f t="shared" si="16"/>
         <v>14674.572797159242</v>
       </c>
-      <c r="AS15" s="5">
-        <f t="shared" si="17"/>
+      <c r="AT15" s="5">
+        <f t="shared" si="16"/>
         <v>14722.443806843758</v>
       </c>
-      <c r="AT15" s="5">
-        <f t="shared" si="17"/>
+      <c r="AU15" s="5">
+        <f t="shared" si="16"/>
         <v>14770.452249348658</v>
       </c>
-      <c r="AU15" s="5">
-        <f t="shared" si="17"/>
+      <c r="AV15" s="5">
+        <f t="shared" si="16"/>
         <v>14818.598519229647</v>
       </c>
-      <c r="AV15" s="5">
-        <f t="shared" si="17"/>
+      <c r="AW15" s="5">
+        <f t="shared" si="16"/>
         <v>14866.883012175169</v>
       </c>
-      <c r="AW15" s="5">
-        <f t="shared" si="17"/>
+      <c r="AX15" s="5">
+        <f t="shared" si="16"/>
         <v>14915.306125009638</v>
       </c>
-      <c r="AX15" s="5">
-        <f t="shared" si="17"/>
+      <c r="AY15" s="5">
+        <f t="shared" si="16"/>
         <v>14963.868255696718</v>
       </c>
-      <c r="AY15" s="5">
-        <f t="shared" si="17"/>
+      <c r="AZ15" s="5">
+        <f t="shared" si="16"/>
         <v>15012.56980334258</v>
       </c>
-      <c r="AZ15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BA15" s="5">
+        <f t="shared" si="16"/>
         <v>15061.411168199204</v>
       </c>
-      <c r="BA15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BB15" s="5">
+        <f t="shared" si="16"/>
         <v>15110.392751667627</v>
       </c>
-      <c r="BB15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BC15" s="5">
+        <f t="shared" si="16"/>
         <v>15159.514956301286</v>
       </c>
-      <c r="BC15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BD15" s="5">
+        <f t="shared" si="16"/>
         <v>15208.778185809309</v>
       </c>
-      <c r="BD15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BE15" s="5">
+        <f t="shared" si="16"/>
         <v>15258.182845059824</v>
       </c>
-      <c r="BE15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BF15" s="5">
+        <f t="shared" si="16"/>
         <v>15307.729340083293</v>
       </c>
-      <c r="BF15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BG15" s="5">
+        <f t="shared" si="16"/>
         <v>15357.418078075865</v>
       </c>
-      <c r="BG15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BH15" s="5">
+        <f t="shared" si="16"/>
         <v>15407.249467402691</v>
       </c>
-      <c r="BH15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BI15" s="5">
+        <f t="shared" si="16"/>
         <v>15457.223917601306</v>
       </c>
-      <c r="BI15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BJ15" s="5">
+        <f t="shared" si="16"/>
         <v>15507.341839384981</v>
       </c>
-      <c r="BJ15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BK15" s="5">
+        <f t="shared" si="16"/>
         <v>15557.603644646108</v>
       </c>
-      <c r="BK15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BL15" s="5">
+        <f t="shared" si="16"/>
         <v>15608.009746459578</v>
       </c>
-      <c r="BL15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BM15" s="5">
+        <f t="shared" si="16"/>
         <v>15658.560559086181</v>
       </c>
-      <c r="BM15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BN15" s="5">
+        <f t="shared" si="16"/>
         <v>15709.256497975995</v>
       </c>
-      <c r="BN15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BO15" s="5">
+        <f t="shared" si="16"/>
         <v>15760.097979771836</v>
       </c>
-      <c r="BO15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BP15" s="5">
+        <f t="shared" si="16"/>
         <v>15811.085422312635</v>
       </c>
-      <c r="BP15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BQ15" s="5">
+        <f t="shared" si="16"/>
         <v>15862.219244636921</v>
       </c>
-      <c r="BQ15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BR15" s="5">
+        <f t="shared" si="16"/>
         <v>15913.499866986218</v>
       </c>
-      <c r="BR15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BS15" s="5">
+        <f t="shared" si="16"/>
         <v>15964.927710808526</v>
       </c>
-      <c r="BS15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BT15" s="5">
+        <f t="shared" si="16"/>
         <v>16016.503198761791</v>
       </c>
-      <c r="BT15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BU15" s="5">
+        <f t="shared" si="16"/>
         <v>16068.226754717358</v>
       </c>
-      <c r="BU15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BV15" s="5">
+        <f t="shared" si="16"/>
         <v>16120.09880376346</v>
       </c>
-      <c r="BV15" s="5">
-        <f t="shared" si="17"/>
+      <c r="BW15" s="5">
+        <f t="shared" si="16"/>
         <v>16172.119772208731</v>
       </c>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>39</v>
       </c>
@@ -3291,291 +3380,295 @@
         <v>-67</v>
       </c>
       <c r="D16" s="10">
-        <f t="shared" ref="D16:BP16" si="18">SUM(D17:D24)</f>
+        <f t="shared" ref="D16:BQ16" si="17">SUM(D17:D24)</f>
         <v>-104441.73458080005</v>
       </c>
       <c r="E16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-1852.12</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-104441.73458080005</v>
       </c>
       <c r="G16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-4563.88</v>
       </c>
       <c r="H16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-104441.73458080005</v>
       </c>
       <c r="I16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-4543.79</v>
       </c>
       <c r="J16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-3569.94</v>
       </c>
       <c r="L16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-3672.54</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-3497.54</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-3695.1800000000003</v>
       </c>
       <c r="R16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-3889.4</v>
       </c>
       <c r="T16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-4751.5199999999995</v>
       </c>
       <c r="V16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-3917.34</v>
       </c>
       <c r="X16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-3809.03</v>
       </c>
       <c r="Z16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA16" s="10">
-        <f t="shared" ref="AA16" si="19">SUM(AA17:AA24)</f>
+        <f t="shared" ref="AA16" si="18">SUM(AA17:AA24)</f>
         <v>-3532.46</v>
       </c>
       <c r="AB16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC16" s="10">
-        <f t="shared" ref="AC16" si="20">SUM(AC17:AC24)</f>
-        <v>-4082.84</v>
+        <f t="shared" ref="AC16:AE16" si="19">SUM(AC17:AC24)</f>
+        <v>-4286.0599999999995</v>
       </c>
       <c r="AD16" s="10">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="10">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="38">
+        <f t="shared" si="19"/>
+        <v>-1440.6</v>
       </c>
       <c r="AF16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AG16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AH16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AJ16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AK16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AL16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AM16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AN16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AO16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AP16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AQ16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AR16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AS16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AT16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AU16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AV16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AW16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AX16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AY16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AZ16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BA16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BB16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BD16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BE16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BG16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BH16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BI16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BJ16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BK16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BL16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BM16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BN16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BO16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BP16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BQ16" s="10">
-        <f t="shared" ref="BQ16:BV16" si="21">SUM(BQ17:BQ24)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BR16" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="BR16:BW16" si="20">SUM(BR17:BR24)</f>
         <v>0</v>
       </c>
       <c r="BS16" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BT16" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BU16" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BV16" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BW16" s="10">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>1</v>
       </c>
@@ -3652,7 +3745,7 @@
       <c r="AD17" s="2">
         <v>0</v>
       </c>
-      <c r="AE17" s="2">
+      <c r="AE17" s="37">
         <v>0</v>
       </c>
       <c r="AF17" s="2">
@@ -3784,8 +3877,11 @@
       <c r="BV17" s="2">
         <v>0</v>
       </c>
+      <c r="BW17" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>11</v>
       </c>
@@ -3845,7 +3941,9 @@
         <v>-2962</v>
       </c>
       <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
+      <c r="AE18" s="39">
+        <v>-870</v>
+      </c>
       <c r="AF18" s="10"/>
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
@@ -3889,8 +3987,9 @@
       <c r="BT18" s="10"/>
       <c r="BU18" s="10"/>
       <c r="BV18" s="10"/>
+      <c r="BW18" s="10"/>
     </row>
-    <row r="19" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>12</v>
       </c>
@@ -3923,7 +4022,7 @@
       <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
+      <c r="AE19" s="38"/>
       <c r="AF19" s="10"/>
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
@@ -3967,8 +4066,9 @@
       <c r="BT19" s="10"/>
       <c r="BU19" s="10"/>
       <c r="BV19" s="10"/>
+      <c r="BW19" s="10"/>
     </row>
-    <row r="20" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>30</v>
       </c>
@@ -4007,10 +4107,11 @@
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10">
-        <v>-101.27</v>
+        <f>-(101.27+104.69+98.53)</f>
+        <v>-304.49</v>
       </c>
       <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
+      <c r="AE20" s="38"/>
       <c r="AF20" s="10"/>
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
@@ -4054,8 +4155,9 @@
       <c r="BT20" s="10"/>
       <c r="BU20" s="10"/>
       <c r="BV20" s="10"/>
+      <c r="BW20" s="10"/>
     </row>
-    <row r="21" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>14</v>
       </c>
@@ -4107,7 +4209,7 @@
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
+      <c r="AE21" s="38"/>
       <c r="AF21" s="10"/>
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
@@ -4151,8 +4253,9 @@
       <c r="BT21" s="10"/>
       <c r="BU21" s="10"/>
       <c r="BV21" s="10"/>
+      <c r="BW21" s="10"/>
     </row>
-    <row r="22" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>13</v>
       </c>
@@ -4214,7 +4317,9 @@
         <v>-500</v>
       </c>
       <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
+      <c r="AE22" s="39">
+        <v>-500</v>
+      </c>
       <c r="AF22" s="10"/>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
@@ -4258,8 +4363,9 @@
       <c r="BT22" s="10"/>
       <c r="BU22" s="10"/>
       <c r="BV22" s="10"/>
+      <c r="BW22" s="10"/>
     </row>
-    <row r="23" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>29</v>
       </c>
@@ -4304,7 +4410,7 @@
         <v>-419.07</v>
       </c>
       <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
+      <c r="AE23" s="38"/>
       <c r="AF23" s="10"/>
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
@@ -4348,8 +4454,9 @@
       <c r="BT23" s="10"/>
       <c r="BU23" s="10"/>
       <c r="BV23" s="10"/>
+      <c r="BW23" s="10"/>
     </row>
-    <row r="24" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>16</v>
       </c>
@@ -4418,7 +4525,9 @@
         <v>-100.5</v>
       </c>
       <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
+      <c r="AE24" s="39">
+        <v>-70.599999999999994</v>
+      </c>
       <c r="AF24" s="10"/>
       <c r="AG24" s="10"/>
       <c r="AH24" s="10"/>
@@ -4462,8 +4571,9 @@
       <c r="BT24" s="10"/>
       <c r="BU24" s="10"/>
       <c r="BV24" s="10"/>
+      <c r="BW24" s="10"/>
     </row>
-    <row r="25" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
@@ -4494,7 +4604,7 @@
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
+      <c r="AE25" s="38"/>
       <c r="AF25" s="10"/>
       <c r="AG25" s="10"/>
       <c r="AH25" s="10"/>
@@ -4538,13 +4648,14 @@
       <c r="BT25" s="10"/>
       <c r="BU25" s="10"/>
       <c r="BV25" s="10"/>
+      <c r="BW25" s="10"/>
     </row>
-    <row r="26" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="7">
-        <f t="shared" ref="B26" si="22">C26+E26+G26+I26+K26+M26+O26+Q26+S26+U26+W26+Y26</f>
+        <f t="shared" ref="B26" si="21">C26+E26+G26+I26+K26+M26+O26+Q26+S26+U26+W26+Y26</f>
         <v>-509306.81</v>
       </c>
       <c r="C26" s="10">
@@ -4556,7 +4667,7 @@
         <v>-65653.507640750671</v>
       </c>
       <c r="E26" s="10">
-        <f t="shared" ref="E26:U26" si="23">SUM(E27:E35)</f>
+        <f t="shared" ref="E26:U26" si="22">SUM(E27:E35)</f>
         <v>-262.55</v>
       </c>
       <c r="F26" s="10">
@@ -4564,7 +4675,7 @@
         <v>-65876.818891229414</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-45200</v>
       </c>
       <c r="H26" s="10">
@@ -4572,7 +4683,7 @@
         <v>-65876.818891229414</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J26" s="10">
@@ -4580,7 +4691,7 @@
         <v>-66065.944566201084</v>
       </c>
       <c r="K26" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-1900</v>
       </c>
       <c r="L26" s="10">
@@ -4588,7 +4699,7 @@
         <v>-66255.613201830784</v>
       </c>
       <c r="M26" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N26" s="10">
@@ -4596,7 +4707,7 @@
         <v>-61190.224272176725</v>
       </c>
       <c r="O26" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P26" s="10">
@@ -4604,7 +4715,7 @@
         <v>-21001.377400679175</v>
       </c>
       <c r="Q26" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R26" s="10">
@@ -4612,7 +4723,7 @@
         <v>-21061.670228157629</v>
       </c>
       <c r="S26" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-1900</v>
       </c>
       <c r="T26" s="10">
@@ -4620,7 +4731,7 @@
         <v>-21122.136150237264</v>
       </c>
       <c r="U26" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V26" s="10">
@@ -4640,7 +4751,7 @@
         <v>-2100</v>
       </c>
       <c r="Z26" s="10">
-        <f t="shared" ref="Z26:BV26" si="24">SUM(Z37:Z39)</f>
+        <f t="shared" ref="Z26:BW26" si="23">SUM(Z37:Z39)</f>
         <v>-21343.696035109606</v>
       </c>
       <c r="AA26" s="10">
@@ -4648,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>-21404.971624717167</v>
       </c>
       <c r="AC26" s="10">
@@ -4656,187 +4767,191 @@
         <v>-2650</v>
       </c>
       <c r="AD26" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>-21466.423130336439</v>
       </c>
-      <c r="AE26" s="10">
-        <f t="shared" si="24"/>
+      <c r="AE26" s="38">
+        <f>SUM(AE27:AE39)</f>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="10">
+        <f t="shared" si="23"/>
         <v>-21528.051057004479</v>
       </c>
-      <c r="AF26" s="10">
-        <f t="shared" si="24"/>
+      <c r="AG26" s="10">
+        <f t="shared" si="23"/>
         <v>-21589.855911208251</v>
       </c>
-      <c r="AG26" s="10">
-        <f t="shared" si="24"/>
+      <c r="AH26" s="10">
+        <f t="shared" si="23"/>
         <v>-21651.838200888789</v>
       </c>
-      <c r="AH26" s="10">
-        <f t="shared" si="24"/>
+      <c r="AI26" s="10">
+        <f t="shared" si="23"/>
         <v>-21713.998435445377</v>
       </c>
-      <c r="AI26" s="10">
-        <f t="shared" si="24"/>
+      <c r="AJ26" s="10">
+        <f t="shared" si="23"/>
         <v>-21776.337125739727</v>
       </c>
-      <c r="AJ26" s="10">
-        <f t="shared" si="24"/>
+      <c r="AK26" s="10">
+        <f t="shared" si="23"/>
         <v>-21838.854784100196</v>
       </c>
-      <c r="AK26" s="10">
-        <f t="shared" si="24"/>
+      <c r="AL26" s="10">
+        <f t="shared" si="23"/>
         <v>-21901.55192432597</v>
       </c>
-      <c r="AL26" s="10">
-        <f t="shared" si="24"/>
+      <c r="AM26" s="10">
+        <f t="shared" si="23"/>
         <v>-64446.492532590026</v>
       </c>
-      <c r="AM26" s="10">
-        <f t="shared" si="24"/>
+      <c r="AN26" s="10">
+        <f t="shared" si="23"/>
         <v>-21984.459234025133</v>
       </c>
-      <c r="AN26" s="10">
-        <f t="shared" si="24"/>
+      <c r="AO26" s="10">
+        <f t="shared" si="23"/>
         <v>-22047.574389879686</v>
       </c>
-      <c r="AO26" s="10">
-        <f t="shared" si="24"/>
+      <c r="AP26" s="10">
+        <f t="shared" si="23"/>
         <v>-22110.870742954336</v>
       </c>
-      <c r="AP26" s="10">
-        <f t="shared" si="24"/>
+      <c r="AQ26" s="10">
+        <f t="shared" si="23"/>
         <v>-22174.348813447948</v>
       </c>
-      <c r="AQ26" s="10">
-        <f t="shared" si="24"/>
+      <c r="AR26" s="10">
+        <f t="shared" si="23"/>
         <v>-22238.009123052834</v>
       </c>
-      <c r="AR26" s="10">
-        <f t="shared" si="24"/>
+      <c r="AS26" s="10">
+        <f t="shared" si="23"/>
         <v>-22301.852194959021</v>
       </c>
-      <c r="AS26" s="10">
-        <f t="shared" si="24"/>
+      <c r="AT26" s="10">
+        <f t="shared" si="23"/>
         <v>-22365.878553858565</v>
       </c>
-      <c r="AT26" s="10">
-        <f t="shared" si="24"/>
+      <c r="AU26" s="10">
+        <f t="shared" si="23"/>
         <v>-22430.088725949863</v>
       </c>
-      <c r="AU26" s="10">
-        <f t="shared" si="24"/>
+      <c r="AV26" s="10">
+        <f t="shared" si="23"/>
         <v>-22494.483238941968</v>
       </c>
-      <c r="AV26" s="10">
-        <f t="shared" si="24"/>
+      <c r="AW26" s="10">
+        <f t="shared" si="23"/>
         <v>-22559.06262205894</v>
       </c>
-      <c r="AW26" s="10">
-        <f t="shared" si="24"/>
+      <c r="AX26" s="10">
+        <f t="shared" si="23"/>
         <v>-22623.827406044176</v>
       </c>
-      <c r="AX26" s="10">
-        <f t="shared" si="24"/>
+      <c r="AY26" s="10">
+        <f t="shared" si="23"/>
         <v>-66657.713815544965</v>
       </c>
-      <c r="AY26" s="10">
-        <f t="shared" si="24"/>
+      <c r="AZ26" s="10">
+        <f t="shared" si="23"/>
         <v>-22709.381866529005</v>
       </c>
-      <c r="AZ26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BA26" s="10">
+        <f t="shared" si="23"/>
         <v>-22774.578201840646</v>
       </c>
-      <c r="BA26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BB26" s="10">
+        <f t="shared" si="23"/>
         <v>-22839.961709227824</v>
       </c>
-      <c r="BB26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BC26" s="10">
+        <f t="shared" si="23"/>
         <v>-22905.532926042604</v>
       </c>
-      <c r="BC26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BD26" s="10">
+        <f t="shared" si="23"/>
         <v>-22971.292391179752</v>
       </c>
-      <c r="BD26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BE26" s="10">
+        <f t="shared" si="23"/>
         <v>-23037.240645081121</v>
       </c>
-      <c r="BE26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BF26" s="10">
+        <f t="shared" si="23"/>
         <v>-23103.378229740149</v>
       </c>
-      <c r="BF26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BG26" s="10">
+        <f t="shared" si="23"/>
         <v>-23169.70568870625</v>
       </c>
-      <c r="BG26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BH26" s="10">
+        <f t="shared" si="23"/>
         <v>-23236.223567089342</v>
       </c>
-      <c r="BH26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BI26" s="10">
+        <f t="shared" si="23"/>
         <v>-23302.932411564278</v>
       </c>
-      <c r="BI26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BJ26" s="10">
+        <f t="shared" si="23"/>
         <v>-23369.832770375368</v>
       </c>
-      <c r="BJ26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BK26" s="10">
+        <f t="shared" si="23"/>
         <v>-68944.773634954356</v>
       </c>
-      <c r="BK26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BL26" s="10">
+        <f t="shared" si="23"/>
         <v>-23458.118120746487</v>
       </c>
-      <c r="BL26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BM26" s="10">
+        <f t="shared" si="23"/>
         <v>-23525.464002011286</v>
       </c>
-      <c r="BM26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BN26" s="10">
+        <f t="shared" si="23"/>
         <v>-23593.003226480341</v>
       </c>
-      <c r="BN26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BO26" s="10">
+        <f t="shared" si="23"/>
         <v>-23660.736349222414</v>
       </c>
-      <c r="BO26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BP26" s="10">
+        <f t="shared" si="23"/>
         <v>-23728.663926899808</v>
       </c>
-      <c r="BP26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BQ26" s="10">
+        <f t="shared" si="23"/>
         <v>-23796.786517772947</v>
       </c>
-      <c r="BQ26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BR26" s="10">
+        <f t="shared" si="23"/>
         <v>-23865.104681704961</v>
       </c>
-      <c r="BR26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BS26" s="10">
+        <f t="shared" si="23"/>
         <v>-23933.618980166299</v>
       </c>
-      <c r="BS26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BT26" s="10">
+        <f t="shared" si="23"/>
         <v>-24002.329976239329</v>
       </c>
-      <c r="BT26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BU26" s="10">
+        <f t="shared" si="23"/>
         <v>-24071.238234622968</v>
       </c>
-      <c r="BU26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BV26" s="10">
+        <f t="shared" si="23"/>
         <v>-24140.344321637334</v>
       </c>
-      <c r="BV26" s="10">
-        <f t="shared" si="24"/>
+      <c r="BW26" s="10">
+        <f t="shared" si="23"/>
         <v>-71310.271942298365</v>
       </c>
     </row>
-    <row r="27" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>21</v>
       </c>
@@ -4869,7 +4984,7 @@
       <c r="AB27" s="10"/>
       <c r="AC27" s="10"/>
       <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
+      <c r="AE27" s="38"/>
       <c r="AF27" s="10"/>
       <c r="AG27" s="10"/>
       <c r="AH27" s="10"/>
@@ -4913,8 +5028,9 @@
       <c r="BT27" s="10"/>
       <c r="BU27" s="10"/>
       <c r="BV27" s="10"/>
+      <c r="BW27" s="10"/>
     </row>
-    <row r="28" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>15</v>
       </c>
@@ -4947,7 +5063,7 @@
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
+      <c r="AE28" s="38"/>
       <c r="AF28" s="10"/>
       <c r="AG28" s="10"/>
       <c r="AH28" s="10"/>
@@ -4991,8 +5107,9 @@
       <c r="BT28" s="10"/>
       <c r="BU28" s="10"/>
       <c r="BV28" s="10"/>
+      <c r="BW28" s="10"/>
     </row>
-    <row r="29" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>35</v>
       </c>
@@ -5027,7 +5144,7 @@
       <c r="AB29" s="10"/>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
+      <c r="AE29" s="38"/>
       <c r="AF29" s="10"/>
       <c r="AG29" s="10"/>
       <c r="AH29" s="10"/>
@@ -5071,8 +5188,9 @@
       <c r="BT29" s="10"/>
       <c r="BU29" s="10"/>
       <c r="BV29" s="10"/>
+      <c r="BW29" s="10"/>
     </row>
-    <row r="30" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>36</v>
       </c>
@@ -5111,7 +5229,7 @@
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
       <c r="AD30" s="10"/>
-      <c r="AE30" s="10"/>
+      <c r="AE30" s="38"/>
       <c r="AF30" s="10"/>
       <c r="AG30" s="10"/>
       <c r="AH30" s="10"/>
@@ -5155,8 +5273,9 @@
       <c r="BT30" s="10"/>
       <c r="BU30" s="10"/>
       <c r="BV30" s="10"/>
+      <c r="BW30" s="10"/>
     </row>
-    <row r="31" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>18</v>
       </c>
@@ -5191,7 +5310,7 @@
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
       <c r="AD31" s="10"/>
-      <c r="AE31" s="10"/>
+      <c r="AE31" s="38"/>
       <c r="AF31" s="10"/>
       <c r="AG31" s="10"/>
       <c r="AH31" s="10"/>
@@ -5235,8 +5354,9 @@
       <c r="BT31" s="10"/>
       <c r="BU31" s="10"/>
       <c r="BV31" s="10"/>
+      <c r="BW31" s="10"/>
     </row>
-    <row r="32" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>31</v>
       </c>
@@ -5270,7 +5390,7 @@
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
-      <c r="AE32" s="10"/>
+      <c r="AE32" s="38"/>
       <c r="AF32" s="10"/>
       <c r="AG32" s="10"/>
       <c r="AH32" s="10"/>
@@ -5314,8 +5434,9 @@
       <c r="BT32" s="10"/>
       <c r="BU32" s="10"/>
       <c r="BV32" s="10"/>
+      <c r="BW32" s="10"/>
     </row>
-    <row r="33" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>47</v>
       </c>
@@ -5345,7 +5466,7 @@
         <v>-2650</v>
       </c>
       <c r="AD33" s="10"/>
-      <c r="AE33" s="10"/>
+      <c r="AE33" s="38"/>
       <c r="AF33" s="10"/>
       <c r="AG33" s="10"/>
       <c r="AH33" s="10"/>
@@ -5389,8 +5510,9 @@
       <c r="BT33" s="10"/>
       <c r="BU33" s="10"/>
       <c r="BV33" s="10"/>
+      <c r="BW33" s="10"/>
     </row>
-    <row r="34" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>17</v>
       </c>
@@ -5426,7 +5548,7 @@
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
       <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
+      <c r="AE34" s="38"/>
       <c r="AF34" s="10"/>
       <c r="AG34" s="10"/>
       <c r="AH34" s="10"/>
@@ -5470,8 +5592,9 @@
       <c r="BT34" s="10"/>
       <c r="BU34" s="10"/>
       <c r="BV34" s="10"/>
+      <c r="BW34" s="10"/>
     </row>
-    <row r="35" spans="1:74" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="9"/>
       <c r="C35" s="10"/>
@@ -5502,7 +5625,7 @@
       <c r="AB35" s="10"/>
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
-      <c r="AE35" s="10"/>
+      <c r="AE35" s="38"/>
       <c r="AF35" s="10"/>
       <c r="AG35" s="10"/>
       <c r="AH35" s="10"/>
@@ -5546,8 +5669,9 @@
       <c r="BT35" s="10"/>
       <c r="BU35" s="10"/>
       <c r="BV35" s="10"/>
+      <c r="BW35" s="10"/>
     </row>
-    <row r="36" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="8"/>
       <c r="C36" s="2"/>
@@ -5578,7 +5702,7 @@
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
+      <c r="AE36" s="37"/>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
@@ -5622,8 +5746,9 @@
       <c r="BT36" s="2"/>
       <c r="BU36" s="2"/>
       <c r="BV36" s="2"/>
+      <c r="BW36" s="2"/>
     </row>
-    <row r="37" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>2</v>
       </c>
@@ -5684,140 +5809,141 @@
       <c r="AD37" s="2">
         <v>-1174.0826479299544</v>
       </c>
-      <c r="AE37" s="2">
+      <c r="AE37" s="37"/>
+      <c r="AF37" s="2">
         <v>-1177.4533202999867</v>
       </c>
-      <c r="AF37" s="2">
+      <c r="AG37" s="2">
         <v>-1180.8336695290086</v>
       </c>
-      <c r="AG37" s="2">
+      <c r="AH37" s="2">
         <v>-1184.2237233983019</v>
       </c>
-      <c r="AH37" s="2">
+      <c r="AI37" s="2">
         <v>-1187.6235097689064</v>
       </c>
-      <c r="AI37" s="2">
+      <c r="AJ37" s="2">
         <v>-1191.0330565818472</v>
       </c>
-      <c r="AJ37" s="2">
+      <c r="AK37" s="2">
         <v>-1194.4523918583661</v>
       </c>
-      <c r="AK37" s="2">
+      <c r="AL37" s="2">
         <v>-1197.8815437001504</v>
       </c>
-      <c r="AL37" s="2">
+      <c r="AM37" s="2">
         <v>-1201.3205402895646</v>
       </c>
-      <c r="AM37" s="2">
+      <c r="AN37" s="2">
         <v>-1161.7419309652439</v>
       </c>
-      <c r="AN37" s="2">
+      <c r="AO37" s="2">
         <v>-1165.0771743867494</v>
       </c>
-      <c r="AO37" s="2">
+      <c r="AP37" s="2">
         <v>-1168.4219929543217</v>
       </c>
-      <c r="AP37" s="2">
+      <c r="AQ37" s="2">
         <v>-1171.7764141572352</v>
       </c>
-      <c r="AQ37" s="2">
+      <c r="AR37" s="2">
         <v>-1175.1404655636834</v>
       </c>
-      <c r="AR37" s="2">
+      <c r="AS37" s="2">
         <v>-1178.5141748210051</v>
       </c>
-      <c r="AS37" s="2">
+      <c r="AT37" s="2">
         <v>-1181.8975696559123</v>
       </c>
-      <c r="AT37" s="2">
+      <c r="AU37" s="2">
         <v>-1185.2906778747174</v>
       </c>
-      <c r="AU37" s="2">
+      <c r="AV37" s="2">
         <v>-1188.6935273635615</v>
       </c>
-      <c r="AV37" s="2">
+      <c r="AW37" s="2">
         <v>-1192.1061460886442</v>
       </c>
-      <c r="AW37" s="2">
+      <c r="AX37" s="2">
         <v>-1195.5285620964537</v>
       </c>
-      <c r="AX37" s="2">
+      <c r="AY37" s="2">
         <v>-1198.9608035139959</v>
       </c>
-      <c r="AY37" s="2">
+      <c r="AZ37" s="2">
         <v>-1157.8694578620261</v>
       </c>
-      <c r="AZ37" s="2">
+      <c r="BA37" s="2">
         <v>-1161.1935838054603</v>
       </c>
-      <c r="BA37" s="2">
+      <c r="BB37" s="2">
         <v>-1164.5272529778074</v>
       </c>
-      <c r="BB37" s="2">
+      <c r="BC37" s="2">
         <v>-1167.8704927767112</v>
       </c>
-      <c r="BC37" s="2">
+      <c r="BD37" s="2">
         <v>-1171.2233306784713</v>
       </c>
-      <c r="BD37" s="2">
+      <c r="BE37" s="2">
         <v>-1174.5857942382688</v>
       </c>
-      <c r="BE37" s="2">
+      <c r="BF37" s="2">
         <v>-1177.9579110903931</v>
       </c>
-      <c r="BF37" s="2">
+      <c r="BG37" s="2">
         <v>-1181.3397089484688</v>
       </c>
-      <c r="BG37" s="2">
+      <c r="BH37" s="2">
         <v>-1184.7312156056832</v>
       </c>
-      <c r="BH37" s="2">
+      <c r="BI37" s="2">
         <v>-1188.1324589350158</v>
       </c>
-      <c r="BI37" s="2">
+      <c r="BJ37" s="2">
         <v>-1191.5434668894657</v>
       </c>
-      <c r="BJ37" s="2">
+      <c r="BK37" s="2">
         <v>-1194.9642675022828</v>
       </c>
-      <c r="BK37" s="2">
+      <c r="BL37" s="2">
         <v>-1152.3027777761515</v>
       </c>
-      <c r="BL37" s="2">
+      <c r="BM37" s="2">
         <v>-1155.6109223448575</v>
       </c>
-      <c r="BM37" s="2">
+      <c r="BN37" s="2">
         <v>-1158.9285642615682</v>
       </c>
-      <c r="BN37" s="2">
+      <c r="BO37" s="2">
         <v>-1162.2557307922082</v>
       </c>
-      <c r="BO37" s="2">
+      <c r="BP37" s="2">
         <v>-1165.5924492809788</v>
       </c>
-      <c r="BP37" s="2">
+      <c r="BQ37" s="2">
         <v>-1168.9387471505852</v>
       </c>
-      <c r="BQ37" s="2">
+      <c r="BR37" s="2">
         <v>-1172.2946519024588</v>
       </c>
-      <c r="BR37" s="2">
+      <c r="BS37" s="2">
         <v>-1175.660191116986</v>
       </c>
-      <c r="BS37" s="2">
+      <c r="BT37" s="2">
         <v>-1179.0353924537333</v>
       </c>
-      <c r="BT37" s="2">
+      <c r="BU37" s="2">
         <v>-1182.4202836516747</v>
       </c>
-      <c r="BU37" s="2">
+      <c r="BV37" s="2">
         <v>-1185.8148925294206</v>
       </c>
-      <c r="BV37" s="2">
+      <c r="BW37" s="2">
         <v>-1189.2192469854454</v>
       </c>
     </row>
-    <row r="38" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>3</v>
       </c>
@@ -5891,140 +6017,141 @@
       <c r="AD38" s="2">
         <v>-20292.340482406486</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AE38" s="37"/>
+      <c r="AF38" s="2">
         <v>-20350.597736704491</v>
       </c>
-      <c r="AF38" s="2">
+      <c r="AG38" s="2">
         <v>-20409.022241679242</v>
       </c>
-      <c r="AG38" s="2">
+      <c r="AH38" s="2">
         <v>-20467.614477490486</v>
       </c>
-      <c r="AH38" s="2">
+      <c r="AI38" s="2">
         <v>-20526.374925676471</v>
       </c>
-      <c r="AI38" s="2">
+      <c r="AJ38" s="2">
         <v>-20585.304069157879</v>
       </c>
-      <c r="AJ38" s="2">
+      <c r="AK38" s="2">
         <v>-20644.402392241831</v>
       </c>
-      <c r="AK38" s="2">
+      <c r="AL38" s="2">
         <v>-20703.670380625819</v>
       </c>
-      <c r="AL38" s="2">
+      <c r="AM38" s="2">
         <v>-20763.108521401744</v>
       </c>
-      <c r="AM38" s="2">
+      <c r="AN38" s="2">
         <v>-20822.71730305989</v>
       </c>
-      <c r="AN38" s="2">
+      <c r="AO38" s="2">
         <v>-20882.497215492938</v>
       </c>
-      <c r="AO38" s="2">
+      <c r="AP38" s="2">
         <v>-20942.448750000014</v>
       </c>
-      <c r="AP38" s="2">
+      <c r="AQ38" s="2">
         <v>-21002.572399290715</v>
       </c>
-      <c r="AQ38" s="2">
+      <c r="AR38" s="2">
         <v>-21062.868657489151</v>
       </c>
-      <c r="AR38" s="2">
+      <c r="AS38" s="2">
         <v>-21123.338020138017</v>
       </c>
-      <c r="AS38" s="2">
+      <c r="AT38" s="2">
         <v>-21183.980984202652</v>
       </c>
-      <c r="AT38" s="2">
+      <c r="AU38" s="2">
         <v>-21244.798048075147</v>
       </c>
-      <c r="AU38" s="2">
+      <c r="AV38" s="2">
         <v>-21305.789711578407</v>
       </c>
-      <c r="AV38" s="2">
+      <c r="AW38" s="2">
         <v>-21366.956475970295</v>
       </c>
-      <c r="AW38" s="2">
+      <c r="AX38" s="2">
         <v>-21428.298843947723</v>
       </c>
-      <c r="AX38" s="2">
+      <c r="AY38" s="2">
         <v>-21489.817319650803</v>
       </c>
-      <c r="AY38" s="2">
+      <c r="AZ38" s="2">
         <v>-21551.512408666978</v>
       </c>
-      <c r="AZ38" s="2">
+      <c r="BA38" s="2">
         <v>-21613.384618035187</v>
       </c>
-      <c r="BA38" s="2">
+      <c r="BB38" s="2">
         <v>-21675.434456250016</v>
       </c>
-      <c r="BB38" s="2">
+      <c r="BC38" s="2">
         <v>-21737.662433265894</v>
       </c>
-      <c r="BC38" s="2">
+      <c r="BD38" s="2">
         <v>-21800.069060501279</v>
       </c>
-      <c r="BD38" s="2">
+      <c r="BE38" s="2">
         <v>-21862.654850842853</v>
       </c>
-      <c r="BE38" s="2">
+      <c r="BF38" s="2">
         <v>-21925.420318649754</v>
       </c>
-      <c r="BF38" s="2">
+      <c r="BG38" s="2">
         <v>-21988.365979757782</v>
       </c>
-      <c r="BG38" s="2">
+      <c r="BH38" s="2">
         <v>-22051.492351483659</v>
       </c>
-      <c r="BH38" s="2">
+      <c r="BI38" s="2">
         <v>-22114.799952629262</v>
       </c>
-      <c r="BI38" s="2">
+      <c r="BJ38" s="2">
         <v>-22178.289303485901</v>
       </c>
-      <c r="BJ38" s="2">
+      <c r="BK38" s="2">
         <v>-22241.96092583859</v>
       </c>
-      <c r="BK38" s="2">
+      <c r="BL38" s="2">
         <v>-22305.815342970334</v>
       </c>
-      <c r="BL38" s="2">
+      <c r="BM38" s="2">
         <v>-22369.853079666427</v>
       </c>
-      <c r="BM38" s="2">
+      <c r="BN38" s="2">
         <v>-22434.074662218773</v>
       </c>
-      <c r="BN38" s="2">
+      <c r="BO38" s="2">
         <v>-22498.480618430207</v>
       </c>
-      <c r="BO38" s="2">
+      <c r="BP38" s="2">
         <v>-22563.071477618829</v>
       </c>
-      <c r="BP38" s="2">
+      <c r="BQ38" s="2">
         <v>-22627.84777062236</v>
       </c>
-      <c r="BQ38" s="2">
+      <c r="BR38" s="2">
         <v>-22692.810029802502</v>
       </c>
-      <c r="BR38" s="2">
+      <c r="BS38" s="2">
         <v>-22757.958789049313</v>
       </c>
-      <c r="BS38" s="2">
+      <c r="BT38" s="2">
         <v>-22823.294583785595</v>
       </c>
-      <c r="BT38" s="2">
+      <c r="BU38" s="2">
         <v>-22888.817950971294</v>
       </c>
-      <c r="BU38" s="2">
+      <c r="BV38" s="2">
         <v>-22954.529429107915</v>
       </c>
-      <c r="BV38" s="2">
+      <c r="BW38" s="2">
         <v>-23020.429558242948</v>
       </c>
     </row>
-    <row r="39" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>4</v>
       </c>
@@ -6109,7 +6236,7 @@
       <c r="AD39" s="2">
         <v>0</v>
       </c>
-      <c r="AE39" s="2">
+      <c r="AE39" s="37">
         <v>0</v>
       </c>
       <c r="AF39" s="2">
@@ -6131,11 +6258,11 @@
         <v>0</v>
       </c>
       <c r="AL39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="2">
         <v>-42482.063470898713</v>
       </c>
-      <c r="AM39" s="2">
-        <v>0</v>
-      </c>
       <c r="AN39" s="2">
         <v>0</v>
       </c>
@@ -6167,11 +6294,11 @@
         <v>0</v>
       </c>
       <c r="AX39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="2">
         <v>-43968.935692380161</v>
       </c>
-      <c r="AY39" s="2">
-        <v>0</v>
-      </c>
       <c r="AZ39" s="2">
         <v>0</v>
       </c>
@@ -6203,11 +6330,11 @@
         <v>0</v>
       </c>
       <c r="BJ39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK39" s="2">
         <v>-45507.848441613482</v>
       </c>
-      <c r="BK39" s="2">
-        <v>0</v>
-      </c>
       <c r="BL39" s="2">
         <v>0</v>
       </c>
@@ -6239,10 +6366,13 @@
         <v>0</v>
       </c>
       <c r="BV39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW39" s="2">
         <v>-47100.623137069968</v>
       </c>
     </row>
-    <row r="40" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
@@ -6273,7 +6403,7 @@
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
+      <c r="AE40" s="37"/>
       <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
@@ -6317,13 +6447,14 @@
       <c r="BT40" s="2"/>
       <c r="BU40" s="2"/>
       <c r="BV40" s="2"/>
+      <c r="BW40" s="2"/>
     </row>
-    <row r="41" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="7">
-        <f t="shared" ref="B41" si="25">C41+E41+G41+I41+K41+M41+O41+Q41+S41+U41+W41+Y41</f>
+        <f t="shared" ref="B41" si="24">C41+E41+G41+I41+K41+M41+O41+Q41+S41+U41+W41+Y41</f>
         <v>-1411922.6900000002</v>
       </c>
       <c r="C41" s="2">
@@ -6422,8 +6553,9 @@
       <c r="AD41" s="2">
         <v>0</v>
       </c>
-      <c r="AE41" s="2">
-        <v>0</v>
+      <c r="AE41" s="38">
+        <f>SUM(AE42:AE47)</f>
+        <v>-73507.72</v>
       </c>
       <c r="AF41" s="2">
         <v>0</v>
@@ -6554,8 +6686,11 @@
       <c r="BV41" s="2">
         <v>0</v>
       </c>
+      <c r="BW41" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>24</v>
       </c>
@@ -6624,7 +6759,10 @@
         <v>-57794.46</v>
       </c>
       <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
+      <c r="AE42" s="39">
+        <f>-(49781.78+8012.68+13534.74+2178.52)</f>
+        <v>-73507.72</v>
+      </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
@@ -6668,8 +6806,9 @@
       <c r="BT42" s="2"/>
       <c r="BU42" s="2"/>
       <c r="BV42" s="2"/>
+      <c r="BW42" s="2"/>
     </row>
-    <row r="43" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>32</v>
       </c>
@@ -6712,7 +6851,7 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
-      <c r="AE43" s="2"/>
+      <c r="AE43" s="37"/>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
@@ -6756,8 +6895,9 @@
       <c r="BT43" s="2"/>
       <c r="BU43" s="2"/>
       <c r="BV43" s="2"/>
+      <c r="BW43" s="2"/>
     </row>
-    <row r="44" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>20</v>
       </c>
@@ -6790,7 +6930,7 @@
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
+      <c r="AE44" s="37"/>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
@@ -6834,8 +6974,9 @@
       <c r="BT44" s="2"/>
       <c r="BU44" s="2"/>
       <c r="BV44" s="2"/>
+      <c r="BW44" s="2"/>
     </row>
-    <row r="45" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>45</v>
       </c>
@@ -6871,7 +7012,7 @@
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
-      <c r="AE45" s="2"/>
+      <c r="AE45" s="37"/>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
@@ -6915,8 +7056,9 @@
       <c r="BT45" s="2"/>
       <c r="BU45" s="2"/>
       <c r="BV45" s="2"/>
+      <c r="BW45" s="2"/>
     </row>
-    <row r="46" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>34</v>
       </c>
@@ -6961,7 +7103,7 @@
         <v>-3590.63</v>
       </c>
       <c r="AD46" s="2"/>
-      <c r="AE46" s="2"/>
+      <c r="AE46" s="37"/>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
@@ -7005,8 +7147,9 @@
       <c r="BT46" s="2"/>
       <c r="BU46" s="2"/>
       <c r="BV46" s="2"/>
+      <c r="BW46" s="2"/>
     </row>
-    <row r="47" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>19</v>
       </c>
@@ -7049,7 +7192,7 @@
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
+      <c r="AE47" s="37"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
@@ -7093,8 +7236,9 @@
       <c r="BT47" s="2"/>
       <c r="BU47" s="2"/>
       <c r="BV47" s="2"/>
+      <c r="BW47" s="2"/>
     </row>
-    <row r="48" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -7125,7 +7269,7 @@
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
-      <c r="AE48" s="2"/>
+      <c r="AE48" s="37"/>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
@@ -7169,13 +7313,14 @@
       <c r="BT48" s="2"/>
       <c r="BU48" s="2"/>
       <c r="BV48" s="2"/>
+      <c r="BW48" s="2"/>
     </row>
-    <row r="49" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B49" s="32">
-        <f t="shared" ref="B49" si="26">C49+E49+G49+I49+K49+M49+O49+Q49+S49+U49+W49+Y49</f>
+        <f t="shared" ref="B49" si="25">C49+E49+G49+I49+K49+M49+O49+Q49+S49+U49+W49+Y49</f>
         <v>-25162.53</v>
       </c>
       <c r="C49" s="5">
@@ -7189,283 +7334,287 @@
         <v>0</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" ref="F49:BV49" si="27">SUM(F50:F53)</f>
+        <f t="shared" ref="F49:BW49" si="26">SUM(F50:F53)</f>
         <v>-13432.593933481601</v>
       </c>
       <c r="G49" s="14">
-        <f t="shared" ref="G49" si="28">SUM(G50:G53)</f>
+        <f t="shared" ref="G49" si="27">SUM(G50:G53)</f>
         <v>-209.22</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>-13432.593933481601</v>
       </c>
       <c r="I49" s="14">
-        <f t="shared" ref="I49:K49" si="29">SUM(I50:I53)</f>
+        <f t="shared" ref="I49:K49" si="28">SUM(I50:I53)</f>
         <v>-915.68000000000006</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>-13476.899347637262</v>
       </c>
       <c r="K49" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>-2214.36</v>
       </c>
       <c r="L49" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>-13521.331958149671</v>
       </c>
       <c r="M49" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>-1460.26</v>
       </c>
       <c r="N49" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>-13565.892130186689</v>
       </c>
       <c r="O49" s="14">
-        <f t="shared" ref="O49" si="30">SUM(O50:O53)</f>
+        <f t="shared" ref="O49" si="29">SUM(O50:O53)</f>
         <v>-1975.37</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>-13610.580229964526</v>
       </c>
       <c r="Q49" s="5">
-        <f t="shared" ref="Q49" si="31">SUM(Q50:Q53)</f>
+        <f t="shared" ref="Q49" si="30">SUM(Q50:Q53)</f>
         <v>-2142.41</v>
       </c>
       <c r="R49" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>-13655.396624750776</v>
       </c>
       <c r="S49" s="5">
-        <f t="shared" ref="S49" si="32">SUM(S50:S53)</f>
+        <f t="shared" ref="S49" si="31">SUM(S50:S53)</f>
         <v>-4482.87</v>
       </c>
       <c r="T49" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>-13700.341682867411</v>
       </c>
       <c r="U49" s="5">
-        <f t="shared" ref="U49:Y49" si="33">SUM(U50:U53)</f>
+        <f t="shared" ref="U49:Y49" si="32">SUM(U50:U53)</f>
         <v>-6171.85</v>
       </c>
       <c r="V49" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>-13745.41577369382</v>
       </c>
       <c r="W49" s="5">
+        <f t="shared" si="32"/>
+        <v>-1967.33</v>
+      </c>
+      <c r="X49" s="5">
+        <f t="shared" si="26"/>
+        <v>-13790.619267669847</v>
+      </c>
+      <c r="Y49" s="5">
+        <f t="shared" si="32"/>
+        <v>-3623.1800000000003</v>
+      </c>
+      <c r="Z49" s="5">
+        <f t="shared" si="26"/>
+        <v>-13927.009888864799</v>
+      </c>
+      <c r="AA49" s="5">
+        <f t="shared" si="26"/>
+        <v>-11392.79</v>
+      </c>
+      <c r="AB49" s="5">
+        <f t="shared" si="26"/>
+        <v>-13972.734721153462</v>
+      </c>
+      <c r="AC49" s="5">
+        <f t="shared" ref="AC49:AE49" si="33">SUM(AC50:AC53)</f>
+        <v>-83.95</v>
+      </c>
+      <c r="AD49" s="5">
+        <f t="shared" si="26"/>
+        <v>-14018.590824804574</v>
+      </c>
+      <c r="AE49" s="36">
         <f t="shared" si="33"/>
-        <v>-1967.33</v>
-      </c>
-      <c r="X49" s="5">
-        <f t="shared" si="27"/>
-        <v>-13790.619267669847</v>
-      </c>
-      <c r="Y49" s="5">
-        <f t="shared" si="33"/>
-        <v>-3623.1800000000003</v>
-      </c>
-      <c r="Z49" s="5">
-        <f t="shared" si="27"/>
-        <v>-13927.009888864799</v>
-      </c>
-      <c r="AA49" s="5">
-        <f t="shared" si="27"/>
-        <v>-11392.79</v>
-      </c>
-      <c r="AB49" s="5">
-        <f t="shared" si="27"/>
-        <v>-13972.734721153462</v>
-      </c>
-      <c r="AC49" s="5">
-        <f t="shared" ref="AC49" si="34">SUM(AC50:AC53)</f>
-        <v>-83.95</v>
-      </c>
-      <c r="AD49" s="5">
-        <f t="shared" si="27"/>
-        <v>-14018.590824804574</v>
-      </c>
-      <c r="AE49" s="5">
-        <f t="shared" si="27"/>
+        <v>-4512.8899999999994</v>
+      </c>
+      <c r="AF49" s="5">
+        <f t="shared" si="26"/>
         <v>-14064.578576684915</v>
       </c>
-      <c r="AF49" s="5">
-        <f t="shared" si="27"/>
+      <c r="AG49" s="5">
+        <f t="shared" si="26"/>
         <v>-14110.698354743226</v>
       </c>
-      <c r="AG49" s="5">
-        <f t="shared" si="27"/>
+      <c r="AH49" s="5">
+        <f t="shared" si="26"/>
         <v>-14156.95053801329</v>
       </c>
-      <c r="AH49" s="5">
-        <f t="shared" si="27"/>
+      <c r="AI49" s="5">
+        <f t="shared" si="26"/>
         <v>-14203.335506617061</v>
       </c>
-      <c r="AI49" s="5">
-        <f t="shared" si="27"/>
+      <c r="AJ49" s="5">
+        <f t="shared" si="26"/>
         <v>-14249.853641767777</v>
       </c>
-      <c r="AJ49" s="5">
-        <f t="shared" si="27"/>
+      <c r="AK49" s="5">
+        <f t="shared" si="26"/>
         <v>-14296.505325773111</v>
       </c>
-      <c r="AK49" s="5">
-        <f t="shared" si="27"/>
+      <c r="AL49" s="5">
+        <f t="shared" si="26"/>
         <v>-14343.290942038298</v>
       </c>
-      <c r="AL49" s="5">
-        <f t="shared" si="27"/>
+      <c r="AM49" s="5">
+        <f t="shared" si="26"/>
         <v>-14390.210875069293</v>
       </c>
-      <c r="AM49" s="5">
-        <f t="shared" si="27"/>
+      <c r="AN49" s="5">
+        <f t="shared" si="26"/>
         <v>-14437.265510475925</v>
       </c>
-      <c r="AN49" s="5">
-        <f t="shared" si="27"/>
+      <c r="AO49" s="5">
+        <f t="shared" si="26"/>
         <v>-14484.455234975074</v>
       </c>
-      <c r="AO49" s="5">
-        <f t="shared" si="27"/>
+      <c r="AP49" s="5">
+        <f t="shared" si="26"/>
         <v>-14531.780436393839</v>
       </c>
-      <c r="AP49" s="5">
-        <f t="shared" si="27"/>
+      <c r="AQ49" s="5">
+        <f t="shared" si="26"/>
         <v>-14579.241503672736</v>
       </c>
-      <c r="AQ49" s="5">
-        <f t="shared" si="27"/>
+      <c r="AR49" s="5">
+        <f t="shared" si="26"/>
         <v>-14626.838826868892</v>
       </c>
-      <c r="AR49" s="5">
-        <f t="shared" si="27"/>
+      <c r="AS49" s="5">
+        <f t="shared" si="26"/>
         <v>-14674.572797159242</v>
       </c>
-      <c r="AS49" s="5">
-        <f t="shared" si="27"/>
+      <c r="AT49" s="5">
+        <f t="shared" si="26"/>
         <v>-14722.443806843758</v>
       </c>
-      <c r="AT49" s="5">
-        <f t="shared" si="27"/>
+      <c r="AU49" s="5">
+        <f t="shared" si="26"/>
         <v>-14770.452249348658</v>
       </c>
-      <c r="AU49" s="5">
-        <f t="shared" si="27"/>
+      <c r="AV49" s="5">
+        <f t="shared" si="26"/>
         <v>-14818.598519229647</v>
       </c>
-      <c r="AV49" s="5">
-        <f t="shared" si="27"/>
+      <c r="AW49" s="5">
+        <f t="shared" si="26"/>
         <v>-14866.883012175169</v>
       </c>
-      <c r="AW49" s="5">
-        <f t="shared" si="27"/>
+      <c r="AX49" s="5">
+        <f t="shared" si="26"/>
         <v>-14915.306125009638</v>
       </c>
-      <c r="AX49" s="5">
-        <f t="shared" si="27"/>
+      <c r="AY49" s="5">
+        <f t="shared" si="26"/>
         <v>-14963.868255696718</v>
       </c>
-      <c r="AY49" s="5">
-        <f t="shared" si="27"/>
+      <c r="AZ49" s="5">
+        <f t="shared" si="26"/>
         <v>-15012.56980334258</v>
       </c>
-      <c r="AZ49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BA49" s="5">
+        <f t="shared" si="26"/>
         <v>-15061.411168199204</v>
       </c>
-      <c r="BA49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BB49" s="5">
+        <f t="shared" si="26"/>
         <v>-15110.392751667627</v>
       </c>
-      <c r="BB49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BC49" s="5">
+        <f t="shared" si="26"/>
         <v>-15159.514956301286</v>
       </c>
-      <c r="BC49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BD49" s="5">
+        <f t="shared" si="26"/>
         <v>-15208.778185809309</v>
       </c>
-      <c r="BD49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BE49" s="5">
+        <f t="shared" si="26"/>
         <v>-15258.182845059824</v>
       </c>
-      <c r="BE49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BF49" s="5">
+        <f t="shared" si="26"/>
         <v>-15307.729340083293</v>
       </c>
-      <c r="BF49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BG49" s="5">
+        <f t="shared" si="26"/>
         <v>-15357.418078075865</v>
       </c>
-      <c r="BG49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BH49" s="5">
+        <f t="shared" si="26"/>
         <v>-15407.249467402691</v>
       </c>
-      <c r="BH49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BI49" s="5">
+        <f t="shared" si="26"/>
         <v>-15457.223917601306</v>
       </c>
-      <c r="BI49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BJ49" s="5">
+        <f t="shared" si="26"/>
         <v>-15507.341839384981</v>
       </c>
-      <c r="BJ49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BK49" s="5">
+        <f t="shared" si="26"/>
         <v>-15557.603644646108</v>
       </c>
-      <c r="BK49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BL49" s="5">
+        <f t="shared" si="26"/>
         <v>-15608.009746459578</v>
       </c>
-      <c r="BL49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BM49" s="5">
+        <f t="shared" si="26"/>
         <v>-15658.560559086181</v>
       </c>
-      <c r="BM49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BN49" s="5">
+        <f t="shared" si="26"/>
         <v>-15709.256497975995</v>
       </c>
-      <c r="BN49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BO49" s="5">
+        <f t="shared" si="26"/>
         <v>-15760.097979771836</v>
       </c>
-      <c r="BO49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BP49" s="5">
+        <f t="shared" si="26"/>
         <v>-15811.085422312635</v>
       </c>
-      <c r="BP49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BQ49" s="5">
+        <f t="shared" si="26"/>
         <v>-15862.219244636921</v>
       </c>
-      <c r="BQ49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BR49" s="5">
+        <f t="shared" si="26"/>
         <v>-15913.499866986218</v>
       </c>
-      <c r="BR49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BS49" s="5">
+        <f t="shared" si="26"/>
         <v>-15964.927710808526</v>
       </c>
-      <c r="BS49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BT49" s="5">
+        <f t="shared" si="26"/>
         <v>-16016.503198761791</v>
       </c>
-      <c r="BT49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BU49" s="5">
+        <f t="shared" si="26"/>
         <v>-16068.226754717358</v>
       </c>
-      <c r="BU49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BV49" s="5">
+        <f t="shared" si="26"/>
         <v>-16120.09880376346</v>
       </c>
-      <c r="BV49" s="5">
-        <f t="shared" si="27"/>
+      <c r="BW49" s="5">
+        <f t="shared" si="26"/>
         <v>-16172.119772208731</v>
       </c>
     </row>
-    <row r="50" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>28</v>
       </c>
@@ -7541,140 +7690,144 @@
       <c r="AD50" s="2">
         <v>-3175.054478694919</v>
       </c>
-      <c r="AE50" s="2">
+      <c r="AE50" s="37">
+        <f>-(689.2+40.84)</f>
+        <v>-730.04000000000008</v>
+      </c>
+      <c r="AF50" s="2">
         <v>-3184.1697385308025</v>
       </c>
-      <c r="AF50" s="2">
+      <c r="AG50" s="2">
         <v>-3193.3111673544731</v>
       </c>
-      <c r="AG50" s="2">
+      <c r="AH50" s="2">
         <v>-3202.4788402944446</v>
       </c>
-      <c r="AH50" s="2">
+      <c r="AI50" s="2">
         <v>-3211.6728326949165</v>
       </c>
-      <c r="AI50" s="2">
+      <c r="AJ50" s="2">
         <v>-3220.8932201163934</v>
       </c>
-      <c r="AJ50" s="2">
+      <c r="AK50" s="2">
         <v>-3230.1400783363083</v>
       </c>
-      <c r="AK50" s="2">
+      <c r="AL50" s="2">
         <v>-3239.4134833496423</v>
       </c>
-      <c r="AL50" s="2">
+      <c r="AM50" s="2">
         <v>-3248.7135113695504</v>
       </c>
-      <c r="AM50" s="2">
+      <c r="AN50" s="2">
         <v>-3258.0402388279881</v>
       </c>
-      <c r="AN50" s="2">
+      <c r="AO50" s="2">
         <v>-3267.3937423763396</v>
       </c>
-      <c r="AO50" s="2">
+      <c r="AP50" s="2">
         <v>-3276.7740988860464</v>
       </c>
-      <c r="AP50" s="2">
+      <c r="AQ50" s="2">
         <v>-3286.1813854492416</v>
       </c>
-      <c r="AQ50" s="2">
+      <c r="AR50" s="2">
         <v>-3295.6156793793812</v>
       </c>
-      <c r="AR50" s="2">
+      <c r="AS50" s="2">
         <v>-3305.0770582118798</v>
       </c>
-      <c r="AS50" s="2">
+      <c r="AT50" s="2">
         <v>-3314.5655997047502</v>
       </c>
-      <c r="AT50" s="2">
+      <c r="AU50" s="2">
         <v>-3324.0813818392385</v>
       </c>
-      <c r="AU50" s="2">
+      <c r="AV50" s="2">
         <v>-3333.6244828204667</v>
       </c>
-      <c r="AV50" s="2">
+      <c r="AW50" s="2">
         <v>-3343.1949810780793</v>
       </c>
-      <c r="AW50" s="2">
+      <c r="AX50" s="2">
         <v>-3352.7929552668793</v>
       </c>
-      <c r="AX50" s="2">
+      <c r="AY50" s="2">
         <v>-3362.418484267484</v>
       </c>
-      <c r="AY50" s="2">
+      <c r="AZ50" s="2">
         <v>-3372.0716471869673</v>
       </c>
-      <c r="AZ50" s="2">
+      <c r="BA50" s="2">
         <v>-3381.7525233595115</v>
       </c>
-      <c r="BA50" s="2">
+      <c r="BB50" s="2">
         <v>-3391.4611923470588</v>
       </c>
-      <c r="BB50" s="2">
+      <c r="BC50" s="2">
         <v>-3401.1977339399659</v>
       </c>
-      <c r="BC50" s="2">
+      <c r="BD50" s="2">
         <v>-3410.9622281576608</v>
       </c>
-      <c r="BD50" s="2">
+      <c r="BE50" s="2">
         <v>-3420.754755249297</v>
       </c>
-      <c r="BE50" s="2">
+      <c r="BF50" s="2">
         <v>-3430.5753956944177</v>
       </c>
-      <c r="BF50" s="2">
+      <c r="BG50" s="2">
         <v>-3440.4242302036128</v>
       </c>
-      <c r="BG50" s="2">
+      <c r="BH50" s="2">
         <v>-3450.3013397191839</v>
       </c>
-      <c r="BH50" s="2">
+      <c r="BI50" s="2">
         <v>-3460.2068054158126</v>
       </c>
-      <c r="BI50" s="2">
+      <c r="BJ50" s="2">
         <v>-3470.1407087012212</v>
       </c>
-      <c r="BJ50" s="2">
+      <c r="BK50" s="2">
         <v>-3480.103131216847</v>
       </c>
-      <c r="BK50" s="2">
+      <c r="BL50" s="2">
         <v>-3490.0941548385122</v>
       </c>
-      <c r="BL50" s="2">
+      <c r="BM50" s="2">
         <v>-3500.1138616770959</v>
       </c>
-      <c r="BM50" s="2">
+      <c r="BN50" s="2">
         <v>-3510.1623340792062</v>
       </c>
-      <c r="BN50" s="2">
+      <c r="BO50" s="2">
         <v>-3520.2396546278655</v>
       </c>
-      <c r="BO50" s="2">
+      <c r="BP50" s="2">
         <v>-3530.3459061431795</v>
       </c>
-      <c r="BP50" s="2">
+      <c r="BQ50" s="2">
         <v>-3540.4811716830236</v>
       </c>
-      <c r="BQ50" s="2">
+      <c r="BR50" s="2">
         <v>-3550.6455345437234</v>
       </c>
-      <c r="BR50" s="2">
+      <c r="BS50" s="2">
         <v>-3560.8390782607403</v>
       </c>
-      <c r="BS50" s="2">
+      <c r="BT50" s="2">
         <v>-3571.0618866093573</v>
       </c>
-      <c r="BT50" s="2">
+      <c r="BU50" s="2">
         <v>-3581.3140436053673</v>
       </c>
-      <c r="BU50" s="2">
+      <c r="BV50" s="2">
         <v>-3591.5956335057654</v>
       </c>
-      <c r="BV50" s="2">
+      <c r="BW50" s="2">
         <v>-3601.9067408094384</v>
       </c>
     </row>
-    <row r="51" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>6</v>
       </c>
@@ -7749,140 +7902,144 @@
       <c r="AD51" s="2">
         <v>-6819.5957741525526</v>
       </c>
-      <c r="AE51" s="2">
+      <c r="AE51" s="37">
+        <f>-(3180.93)</f>
+        <v>-3180.93</v>
+      </c>
+      <c r="AF51" s="2">
         <v>-6844.9159403633403</v>
       </c>
-      <c r="AF51" s="2">
+      <c r="AG51" s="2">
         <v>-6870.3087982068701</v>
       </c>
-      <c r="AG51" s="2">
+      <c r="AH51" s="2">
         <v>-6895.774556373457</v>
       </c>
-      <c r="AH51" s="2">
+      <c r="AI51" s="2">
         <v>-6921.3134241525458</v>
       </c>
-      <c r="AI51" s="2">
+      <c r="AJ51" s="2">
         <v>-6946.9256114344262</v>
       </c>
-      <c r="AJ51" s="2">
+      <c r="AK51" s="2">
         <v>-6972.6113287119679</v>
       </c>
-      <c r="AK51" s="2">
+      <c r="AL51" s="2">
         <v>-6998.37078708234</v>
       </c>
-      <c r="AL51" s="2">
+      <c r="AM51" s="2">
         <v>-7024.2041982487517</v>
       </c>
-      <c r="AM51" s="2">
+      <c r="AN51" s="2">
         <v>-7050.1117745221891</v>
       </c>
-      <c r="AN51" s="2">
+      <c r="AO51" s="2">
         <v>-7076.0937288231653</v>
       </c>
-      <c r="AO51" s="2">
+      <c r="AP51" s="2">
         <v>-7102.1502746834631</v>
       </c>
-      <c r="AP51" s="2">
+      <c r="AQ51" s="2">
         <v>-7128.2816262478937</v>
       </c>
-      <c r="AQ51" s="2">
+      <c r="AR51" s="2">
         <v>-7154.4879982760594</v>
       </c>
-      <c r="AR51" s="2">
+      <c r="AS51" s="2">
         <v>-7180.7696061441111</v>
       </c>
-      <c r="AS51" s="2">
+      <c r="AT51" s="2">
         <v>-7207.1266658465283</v>
       </c>
-      <c r="AT51" s="2">
+      <c r="AU51" s="2">
         <v>-7233.5593939978844</v>
       </c>
-      <c r="AU51" s="2">
+      <c r="AV51" s="2">
         <v>-7260.0680078346304</v>
       </c>
-      <c r="AV51" s="2">
+      <c r="AW51" s="2">
         <v>-7286.6527252168871</v>
       </c>
-      <c r="AW51" s="2">
+      <c r="AX51" s="2">
         <v>-7313.3137646302202</v>
       </c>
-      <c r="AX51" s="2">
+      <c r="AY51" s="2">
         <v>-7340.0513451874558</v>
       </c>
-      <c r="AY51" s="2">
+      <c r="AZ51" s="2">
         <v>-7366.8656866304646</v>
       </c>
-      <c r="AZ51" s="2">
+      <c r="BA51" s="2">
         <v>-7393.7570093319773</v>
       </c>
-      <c r="BA51" s="2">
+      <c r="BB51" s="2">
         <v>-7420.7255342973858</v>
       </c>
-      <c r="BB51" s="2">
+      <c r="BC51" s="2">
         <v>-7447.7714831665726</v>
       </c>
-      <c r="BC51" s="2">
+      <c r="BD51" s="2">
         <v>-7474.8950782157244</v>
       </c>
-      <c r="BD51" s="2">
+      <c r="BE51" s="2">
         <v>-7502.0965423591588</v>
       </c>
-      <c r="BE51" s="2">
+      <c r="BF51" s="2">
         <v>-7529.3760991511608</v>
       </c>
-      <c r="BF51" s="2">
+      <c r="BG51" s="2">
         <v>-7556.7339727878134</v>
       </c>
-      <c r="BG51" s="2">
+      <c r="BH51" s="2">
         <v>-7584.1703881088451</v>
       </c>
-      <c r="BH51" s="2">
+      <c r="BI51" s="2">
         <v>-7611.6855705994803</v>
       </c>
-      <c r="BI51" s="2">
+      <c r="BJ51" s="2">
         <v>-7639.2797463922816</v>
       </c>
-      <c r="BJ51" s="2">
+      <c r="BK51" s="2">
         <v>-7666.9531422690197</v>
       </c>
-      <c r="BK51" s="2">
+      <c r="BL51" s="2">
         <v>-7694.7059856625347</v>
       </c>
-      <c r="BL51" s="2">
+      <c r="BM51" s="2">
         <v>-7722.5385046585998</v>
       </c>
-      <c r="BM51" s="2">
+      <c r="BN51" s="2">
         <v>-7750.4509279977956</v>
       </c>
-      <c r="BN51" s="2">
+      <c r="BO51" s="2">
         <v>-7778.4434850774051</v>
       </c>
-      <c r="BO51" s="2">
+      <c r="BP51" s="2">
         <v>-7806.5164059532763</v>
       </c>
-      <c r="BP51" s="2">
+      <c r="BQ51" s="2">
         <v>-7834.6699213417323</v>
       </c>
-      <c r="BQ51" s="2">
+      <c r="BR51" s="2">
         <v>-7862.9042626214541</v>
       </c>
-      <c r="BR51" s="2">
+      <c r="BS51" s="2">
         <v>-7891.2196618353901</v>
       </c>
-      <c r="BS51" s="2">
+      <c r="BT51" s="2">
         <v>-7919.616351692659</v>
       </c>
-      <c r="BT51" s="2">
+      <c r="BU51" s="2">
         <v>-7948.0945655704654</v>
       </c>
-      <c r="BU51" s="2">
+      <c r="BV51" s="2">
         <v>-7976.6545375160149</v>
       </c>
-      <c r="BV51" s="2">
+      <c r="BW51" s="2">
         <v>-8005.2965022484404</v>
       </c>
     </row>
-    <row r="52" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>26</v>
       </c>
@@ -7961,140 +8118,141 @@
       <c r="AD52" s="2">
         <v>-716.59215664989483</v>
       </c>
-      <c r="AE52" s="2">
+      <c r="AE52" s="37"/>
+      <c r="AF52" s="2">
         <v>-718.64942015452141</v>
       </c>
-      <c r="AF52" s="2">
+      <c r="AG52" s="2">
         <v>-720.71258985430813</v>
       </c>
-      <c r="AG52" s="2">
+      <c r="AH52" s="2">
         <v>-722.78168270534331</v>
       </c>
-      <c r="AH52" s="2">
+      <c r="AI52" s="2">
         <v>-724.85671571239425</v>
       </c>
-      <c r="AI52" s="2">
+      <c r="AJ52" s="2">
         <v>-726.93770592904707</v>
       </c>
-      <c r="AJ52" s="2">
+      <c r="AK52" s="2">
         <v>-729.02467045784726</v>
       </c>
-      <c r="AK52" s="2">
+      <c r="AL52" s="2">
         <v>-731.11762645043996</v>
       </c>
-      <c r="AL52" s="2">
+      <c r="AM52" s="2">
         <v>-733.216591107711</v>
       </c>
-      <c r="AM52" s="2">
+      <c r="AN52" s="2">
         <v>-735.32158167992782</v>
       </c>
-      <c r="AN52" s="2">
+      <c r="AO52" s="2">
         <v>-737.43261546688223</v>
       </c>
-      <c r="AO52" s="2">
+      <c r="AP52" s="2">
         <v>-739.54970981803137</v>
       </c>
-      <c r="AP52" s="2">
+      <c r="AQ52" s="2">
         <v>-741.67288213264135</v>
       </c>
-      <c r="AQ52" s="2">
+      <c r="AR52" s="2">
         <v>-743.80214985992973</v>
       </c>
-      <c r="AR52" s="2">
+      <c r="AS52" s="2">
         <v>-745.93753049920906</v>
       </c>
-      <c r="AS52" s="2">
+      <c r="AT52" s="2">
         <v>-748.07904160003045</v>
       </c>
-      <c r="AT52" s="2">
+      <c r="AU52" s="2">
         <v>-750.22670076232805</v>
       </c>
-      <c r="AU52" s="2">
+      <c r="AV52" s="2">
         <v>-752.38052563656368</v>
       </c>
-      <c r="AV52" s="2">
+      <c r="AW52" s="2">
         <v>-754.54053392387198</v>
       </c>
-      <c r="AW52" s="2">
+      <c r="AX52" s="2">
         <v>-756.7067433762054</v>
       </c>
-      <c r="AX52" s="2">
+      <c r="AY52" s="2">
         <v>-758.8791717964807</v>
       </c>
-      <c r="AY52" s="2">
+      <c r="AZ52" s="2">
         <v>-761.05783703872521</v>
       </c>
-      <c r="AZ52" s="2">
+      <c r="BA52" s="2">
         <v>-763.24275700822307</v>
       </c>
-      <c r="BA52" s="2">
+      <c r="BB52" s="2">
         <v>-765.4339496616625</v>
       </c>
-      <c r="BB52" s="2">
+      <c r="BC52" s="2">
         <v>-767.63143300728393</v>
       </c>
-      <c r="BC52" s="2">
+      <c r="BD52" s="2">
         <v>-769.83522510502746</v>
       </c>
-      <c r="BD52" s="2">
+      <c r="BE52" s="2">
         <v>-772.04534406668165</v>
       </c>
-      <c r="BE52" s="2">
+      <c r="BF52" s="2">
         <v>-774.26180805603167</v>
       </c>
-      <c r="BF52" s="2">
+      <c r="BG52" s="2">
         <v>-776.4846352890097</v>
       </c>
-      <c r="BG52" s="2">
+      <c r="BH52" s="2">
         <v>-778.71384403384366</v>
       </c>
-      <c r="BH52" s="2">
+      <c r="BI52" s="2">
         <v>-780.94945261120768</v>
       </c>
-      <c r="BI52" s="2">
+      <c r="BJ52" s="2">
         <v>-783.19147939437278</v>
       </c>
-      <c r="BJ52" s="2">
+      <c r="BK52" s="2">
         <v>-785.43994280935783</v>
       </c>
-      <c r="BK52" s="2">
+      <c r="BL52" s="2">
         <v>-787.69486133508087</v>
       </c>
-      <c r="BL52" s="2">
+      <c r="BM52" s="2">
         <v>-789.95625350351111</v>
       </c>
-      <c r="BM52" s="2">
+      <c r="BN52" s="2">
         <v>-792.2241378998209</v>
       </c>
-      <c r="BN52" s="2">
+      <c r="BO52" s="2">
         <v>-794.49853316253905</v>
       </c>
-      <c r="BO52" s="2">
+      <c r="BP52" s="2">
         <v>-796.77945798370365</v>
       </c>
-      <c r="BP52" s="2">
+      <c r="BQ52" s="2">
         <v>-799.06693110901563</v>
       </c>
-      <c r="BQ52" s="2">
+      <c r="BR52" s="2">
         <v>-801.36097133799308</v>
       </c>
-      <c r="BR52" s="2">
+      <c r="BS52" s="2">
         <v>-803.66159752412534</v>
       </c>
-      <c r="BS52" s="2">
+      <c r="BT52" s="2">
         <v>-805.96882857502851</v>
       </c>
-      <c r="BT52" s="2">
+      <c r="BU52" s="2">
         <v>-808.28268345260028</v>
       </c>
-      <c r="BU52" s="2">
+      <c r="BV52" s="2">
         <v>-810.60318117317604</v>
       </c>
-      <c r="BV52" s="2">
+      <c r="BW52" s="2">
         <v>-812.93034080768575</v>
       </c>
     </row>
-    <row r="53" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
         <v>27</v>
       </c>
@@ -8167,142 +8325,146 @@
       <c r="AD53" s="2">
         <v>-3307.3484153072072</v>
       </c>
-      <c r="AE53" s="2">
+      <c r="AE53" s="37">
+        <f>-(48.84+50.35+51.85+68.6+69.21+69.78+70.29+70.82+51.33+50.85)</f>
+        <v>-601.92000000000007</v>
+      </c>
+      <c r="AF53" s="2">
         <v>-3316.8434776362528</v>
       </c>
-      <c r="AF53" s="2">
+      <c r="AG53" s="2">
         <v>-3326.365799327576</v>
       </c>
-      <c r="AG53" s="2">
+      <c r="AH53" s="2">
         <v>-3335.9154586400459</v>
       </c>
-      <c r="AH53" s="2">
+      <c r="AI53" s="2">
         <v>-3345.4925340572045</v>
       </c>
-      <c r="AI53" s="2">
+      <c r="AJ53" s="2">
         <v>-3355.0971042879096</v>
       </c>
-      <c r="AJ53" s="2">
+      <c r="AK53" s="2">
         <v>-3364.7292482669877</v>
       </c>
-      <c r="AK53" s="2">
+      <c r="AL53" s="2">
         <v>-3374.3890451558768</v>
       </c>
-      <c r="AL53" s="2">
+      <c r="AM53" s="2">
         <v>-3384.0765743432812</v>
       </c>
-      <c r="AM53" s="2">
+      <c r="AN53" s="2">
         <v>-3393.7919154458209</v>
       </c>
-      <c r="AN53" s="2">
+      <c r="AO53" s="2">
         <v>-3403.535148308687</v>
       </c>
-      <c r="AO53" s="2">
+      <c r="AP53" s="2">
         <v>-3413.3063530062987</v>
       </c>
-      <c r="AP53" s="2">
+      <c r="AQ53" s="2">
         <v>-3423.1056098429603</v>
       </c>
-      <c r="AQ53" s="2">
+      <c r="AR53" s="2">
         <v>-3432.9329993535216</v>
       </c>
-      <c r="AR53" s="2">
+      <c r="AS53" s="2">
         <v>-3442.7886023040419</v>
       </c>
-      <c r="AS53" s="2">
+      <c r="AT53" s="2">
         <v>-3452.6724996924481</v>
       </c>
-      <c r="AT53" s="2">
+      <c r="AU53" s="2">
         <v>-3462.5847727492064</v>
       </c>
-      <c r="AU53" s="2">
+      <c r="AV53" s="2">
         <v>-3472.5255029379864</v>
       </c>
-      <c r="AV53" s="2">
+      <c r="AW53" s="2">
         <v>-3482.494771956332</v>
       </c>
-      <c r="AW53" s="2">
+      <c r="AX53" s="2">
         <v>-3492.4926617363326</v>
       </c>
-      <c r="AX53" s="2">
+      <c r="AY53" s="2">
         <v>-3502.5192544452957</v>
       </c>
-      <c r="AY53" s="2">
+      <c r="AZ53" s="2">
         <v>-3512.574632486424</v>
       </c>
-      <c r="AZ53" s="2">
+      <c r="BA53" s="2">
         <v>-3522.658878499491</v>
       </c>
-      <c r="BA53" s="2">
+      <c r="BB53" s="2">
         <v>-3532.7720753615195</v>
       </c>
-      <c r="BB53" s="2">
+      <c r="BC53" s="2">
         <v>-3542.9143061874643</v>
       </c>
-      <c r="BC53" s="2">
+      <c r="BD53" s="2">
         <v>-3553.0856543308964</v>
       </c>
-      <c r="BD53" s="2">
+      <c r="BE53" s="2">
         <v>-3563.2862033846845</v>
       </c>
-      <c r="BE53" s="2">
+      <c r="BF53" s="2">
         <v>-3573.5160371816846</v>
       </c>
-      <c r="BF53" s="2">
+      <c r="BG53" s="2">
         <v>-3583.7752397954296</v>
       </c>
-      <c r="BG53" s="2">
+      <c r="BH53" s="2">
         <v>-3594.0638955408172</v>
       </c>
-      <c r="BH53" s="2">
+      <c r="BI53" s="2">
         <v>-3604.3820889748049</v>
       </c>
-      <c r="BI53" s="2">
+      <c r="BJ53" s="2">
         <v>-3614.7299048971054</v>
       </c>
-      <c r="BJ53" s="2">
+      <c r="BK53" s="2">
         <v>-3625.1074283508824</v>
       </c>
-      <c r="BK53" s="2">
+      <c r="BL53" s="2">
         <v>-3635.51474462345</v>
       </c>
-      <c r="BL53" s="2">
+      <c r="BM53" s="2">
         <v>-3645.9519392469742</v>
       </c>
-      <c r="BM53" s="2">
+      <c r="BN53" s="2">
         <v>-3656.4190979991736</v>
       </c>
-      <c r="BN53" s="2">
+      <c r="BO53" s="2">
         <v>-3666.9163069040264</v>
       </c>
-      <c r="BO53" s="2">
+      <c r="BP53" s="2">
         <v>-3677.4436522324781</v>
       </c>
-      <c r="BP53" s="2">
+      <c r="BQ53" s="2">
         <v>-3688.0012205031494</v>
       </c>
-      <c r="BQ53" s="2">
+      <c r="BR53" s="2">
         <v>-3698.5890984830453</v>
       </c>
-      <c r="BR53" s="2">
+      <c r="BS53" s="2">
         <v>-3709.2073731882706</v>
       </c>
-      <c r="BS53" s="2">
+      <c r="BT53" s="2">
         <v>-3719.8561318847469</v>
       </c>
-      <c r="BT53" s="2">
+      <c r="BU53" s="2">
         <v>-3730.5354620889243</v>
       </c>
-      <c r="BU53" s="2">
+      <c r="BV53" s="2">
         <v>-3741.2454515685049</v>
       </c>
-      <c r="BV53" s="2">
+      <c r="BW53" s="2">
         <v>-3751.9861883431649</v>
       </c>
-      <c r="BW53" s="2"/>
       <c r="BX53" s="2"/>
+      <c r="BY53" s="2"/>
     </row>
-    <row r="54" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:77" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -8331,7 +8493,7 @@
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
-      <c r="AE54" s="2"/>
+      <c r="AE54" s="37"/>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
@@ -8377,8 +8539,9 @@
       <c r="BV54" s="2"/>
       <c r="BW54" s="2"/>
       <c r="BX54" s="2"/>
+      <c r="BY54" s="2"/>
     </row>
-    <row r="55" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:77" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -8407,7 +8570,7 @@
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
-      <c r="AE55" s="2"/>
+      <c r="AE55" s="37"/>
       <c r="AF55" s="2"/>
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
@@ -8451,8 +8614,9 @@
       <c r="BT55" s="2"/>
       <c r="BU55" s="2"/>
       <c r="BV55" s="2"/>
+      <c r="BW55" s="2"/>
     </row>
-    <row r="57" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>41</v>
       </c>
@@ -8515,27 +8679,34 @@
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="Y58" s="33"/>
       <c r="AA58" s="33"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:BX35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:BY35">
     <sortCondition ref="A20:A35"/>
   </sortState>
   <conditionalFormatting sqref="Y1:Z1">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA1">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB1">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC1">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA1">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB1">
+  <conditionalFormatting sqref="AD1">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC1">
+  <conditionalFormatting sqref="AE1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Energy - Orçado x Realizado.xlsx
+++ b/Energy - Orçado x Realizado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iori\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239E0EFF-4B71-4B31-8C3F-C8B114EE0955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F8E57A-E82F-4621-A827-F32E524B88CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{992959B5-2BA1-4252-B8F6-E12D45987B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>Receita Bruta</t>
   </si>
@@ -409,7 +409,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -810,13 +820,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E0C361-DC00-4C96-A388-FAD64E248995}">
-  <dimension ref="A1:BY58"/>
+  <dimension ref="A1:BZ58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="Y4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="V7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AE2" sqref="AE2"/>
+      <selection pane="bottomRight" activeCell="AG51" sqref="AG51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -835,10 +845,12 @@
     <col min="15" max="15" width="11.7109375" style="11" customWidth="1" outlineLevel="1"/>
     <col min="16" max="30" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="32" max="75" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="34" max="76" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B1" s="19"/>
       <c r="C1" s="13" t="s">
         <v>22</v>
@@ -927,8 +939,14 @@
       <c r="AE1" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
         <v>44</v>
       </c>
@@ -992,8 +1010,12 @@
         <f>AC2+AE4+AE15</f>
         <v>173485.20999999996</v>
       </c>
+      <c r="AG2" s="2">
+        <f>AE2+AG4+AG15</f>
+        <v>205298.80999999994</v>
+      </c>
     </row>
-    <row r="3" spans="1:75" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:76" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="31"/>
       <c r="C3" s="30">
@@ -1072,151 +1094,154 @@
         <v>45931</v>
       </c>
       <c r="AB3" s="30">
-        <v>46327</v>
+        <v>45962</v>
       </c>
       <c r="AC3" s="30">
-        <v>46327</v>
+        <v>45963</v>
       </c>
       <c r="AD3" s="30">
-        <v>46357</v>
+        <v>45992</v>
       </c>
       <c r="AE3" s="30">
-        <v>46357</v>
+        <v>45993</v>
       </c>
       <c r="AF3" s="30">
-        <v>46388</v>
+        <v>46023</v>
       </c>
       <c r="AG3" s="30">
+        <v>46023</v>
+      </c>
+      <c r="AH3" s="30">
         <v>46419</v>
       </c>
-      <c r="AH3" s="30">
+      <c r="AI3" s="30">
         <v>46447</v>
       </c>
-      <c r="AI3" s="30">
+      <c r="AJ3" s="30">
         <v>46478</v>
       </c>
-      <c r="AJ3" s="30">
+      <c r="AK3" s="30">
         <v>46508</v>
       </c>
-      <c r="AK3" s="30">
+      <c r="AL3" s="30">
         <v>46539</v>
       </c>
-      <c r="AL3" s="30">
+      <c r="AM3" s="30">
         <v>46569</v>
       </c>
-      <c r="AM3" s="30">
+      <c r="AN3" s="30">
         <v>46600</v>
       </c>
-      <c r="AN3" s="30">
+      <c r="AO3" s="30">
         <v>46631</v>
       </c>
-      <c r="AO3" s="30">
+      <c r="AP3" s="30">
         <v>46661</v>
       </c>
-      <c r="AP3" s="30">
+      <c r="AQ3" s="30">
         <v>46692</v>
       </c>
-      <c r="AQ3" s="30">
+      <c r="AR3" s="30">
         <v>46722</v>
       </c>
-      <c r="AR3" s="30">
+      <c r="AS3" s="30">
         <v>46753</v>
       </c>
-      <c r="AS3" s="30">
+      <c r="AT3" s="30">
         <v>46784</v>
       </c>
-      <c r="AT3" s="30">
+      <c r="AU3" s="30">
         <v>46813</v>
       </c>
-      <c r="AU3" s="30">
+      <c r="AV3" s="30">
         <v>46844</v>
       </c>
-      <c r="AV3" s="30">
+      <c r="AW3" s="30">
         <v>46874</v>
       </c>
-      <c r="AW3" s="30">
+      <c r="AX3" s="30">
         <v>46905</v>
       </c>
-      <c r="AX3" s="30">
+      <c r="AY3" s="30">
         <v>46935</v>
       </c>
-      <c r="AY3" s="30">
+      <c r="AZ3" s="30">
         <v>46966</v>
       </c>
-      <c r="AZ3" s="30">
+      <c r="BA3" s="30">
         <v>46997</v>
       </c>
-      <c r="BA3" s="30">
+      <c r="BB3" s="30">
         <v>47027</v>
       </c>
-      <c r="BB3" s="30">
+      <c r="BC3" s="30">
         <v>47058</v>
       </c>
-      <c r="BC3" s="30">
+      <c r="BD3" s="30">
         <v>47088</v>
       </c>
-      <c r="BD3" s="30">
+      <c r="BE3" s="30">
         <v>47119</v>
       </c>
-      <c r="BE3" s="30">
+      <c r="BF3" s="30">
         <v>47150</v>
       </c>
-      <c r="BF3" s="30">
+      <c r="BG3" s="30">
         <v>47178</v>
       </c>
-      <c r="BG3" s="30">
+      <c r="BH3" s="30">
         <v>47209</v>
       </c>
-      <c r="BH3" s="30">
+      <c r="BI3" s="30">
         <v>47239</v>
       </c>
-      <c r="BI3" s="30">
+      <c r="BJ3" s="30">
         <v>47270</v>
       </c>
-      <c r="BJ3" s="30">
+      <c r="BK3" s="30">
         <v>47300</v>
       </c>
-      <c r="BK3" s="30">
+      <c r="BL3" s="30">
         <v>47331</v>
       </c>
-      <c r="BL3" s="30">
+      <c r="BM3" s="30">
         <v>47362</v>
       </c>
-      <c r="BM3" s="30">
+      <c r="BN3" s="30">
         <v>47392</v>
       </c>
-      <c r="BN3" s="30">
+      <c r="BO3" s="30">
         <v>47423</v>
       </c>
-      <c r="BO3" s="30">
+      <c r="BP3" s="30">
         <v>47453</v>
       </c>
-      <c r="BP3" s="30">
+      <c r="BQ3" s="30">
         <v>47484</v>
       </c>
-      <c r="BQ3" s="30">
+      <c r="BR3" s="30">
         <v>47515</v>
       </c>
-      <c r="BR3" s="30">
+      <c r="BS3" s="30">
         <v>47543</v>
       </c>
-      <c r="BS3" s="30">
+      <c r="BT3" s="30">
         <v>47574</v>
       </c>
-      <c r="BT3" s="30">
+      <c r="BU3" s="30">
         <v>47604</v>
       </c>
-      <c r="BU3" s="30">
+      <c r="BV3" s="30">
         <v>47635</v>
       </c>
-      <c r="BV3" s="30">
+      <c r="BW3" s="30">
         <v>47665</v>
       </c>
-      <c r="BW3" s="30">
+      <c r="BX3" s="30">
         <v>47696</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
@@ -1225,7 +1250,7 @@
         <v>2007193.96</v>
       </c>
       <c r="C4" s="15">
-        <f t="shared" ref="C4:AI4" si="0">C5+C8</f>
+        <f t="shared" ref="C4:AJ4" si="0">C5+C8</f>
         <v>65100</v>
       </c>
       <c r="D4" s="5">
@@ -1344,180 +1369,184 @@
         <f t="shared" si="0"/>
         <v>114022.34594505926</v>
       </c>
-      <c r="AG4" s="5">
+      <c r="AG4" s="36">
+        <f t="shared" si="0"/>
+        <v>100941.54</v>
+      </c>
+      <c r="AH4" s="5">
         <f t="shared" si="0"/>
         <v>114557.3798253882</v>
       </c>
-      <c r="AH4" s="5">
+      <c r="AI4" s="5">
         <f t="shared" si="0"/>
         <v>115093.79314638168</v>
       </c>
-      <c r="AI4" s="5">
+      <c r="AJ4" s="5">
         <f t="shared" si="0"/>
         <v>115631.58971258732</v>
       </c>
-      <c r="AJ4" s="5">
-        <f t="shared" ref="AJ4:BO4" si="3">AJ5+AJ8</f>
+      <c r="AK4" s="5">
+        <f t="shared" ref="AK4:BP4" si="3">AK5+AK8</f>
         <v>116170.77332340677</v>
       </c>
-      <c r="AK4" s="5">
+      <c r="AL4" s="5">
         <f t="shared" si="3"/>
         <v>116711.34778889181</v>
       </c>
-      <c r="AL4" s="5">
+      <c r="AM4" s="5">
         <f t="shared" si="3"/>
         <v>117253.31692984366</v>
       </c>
-      <c r="AM4" s="5">
+      <c r="AN4" s="5">
         <f t="shared" si="3"/>
         <v>117796.68457784381</v>
       </c>
-      <c r="AN4" s="5">
+      <c r="AO4" s="5">
         <f t="shared" si="3"/>
         <v>118295.08799702271</v>
       </c>
-      <c r="AO4" s="5">
+      <c r="AP4" s="5">
         <f t="shared" si="3"/>
         <v>118841.05812756054</v>
       </c>
-      <c r="AP4" s="5">
+      <c r="AQ4" s="5">
         <f t="shared" si="3"/>
         <v>119388.63976029815</v>
       </c>
-      <c r="AQ4" s="5">
+      <c r="AR4" s="5">
         <f t="shared" si="3"/>
         <v>119937.6363443998</v>
       </c>
-      <c r="AR4" s="5">
+      <c r="AS4" s="5">
         <f t="shared" si="3"/>
         <v>120488.05089229152</v>
       </c>
-      <c r="AS4" s="5">
+      <c r="AT4" s="5">
         <f t="shared" si="3"/>
         <v>121039.88729760991</v>
       </c>
-      <c r="AT4" s="5">
+      <c r="AU4" s="5">
         <f t="shared" si="3"/>
         <v>121593.14946878582</v>
       </c>
-      <c r="AU4" s="5">
+      <c r="AV4" s="5">
         <f t="shared" si="3"/>
         <v>122147.84132529711</v>
       </c>
-      <c r="AV4" s="5">
+      <c r="AW4" s="5">
         <f t="shared" si="3"/>
         <v>122703.96679768368</v>
       </c>
-      <c r="AW4" s="5">
+      <c r="AX4" s="5">
         <f t="shared" si="3"/>
         <v>123261.52982757895</v>
       </c>
-      <c r="AX4" s="5">
+      <c r="AY4" s="5">
         <f t="shared" si="3"/>
         <v>123820.53436774146</v>
       </c>
-      <c r="AY4" s="5">
+      <c r="AZ4" s="5">
         <f t="shared" si="3"/>
         <v>124380.98438208665</v>
       </c>
-      <c r="AZ4" s="5">
+      <c r="BA4" s="5">
         <f t="shared" si="3"/>
         <v>124894.89443721721</v>
       </c>
-      <c r="BA4" s="5">
+      <c r="BB4" s="5">
         <f t="shared" si="3"/>
         <v>125458.03405444659</v>
       </c>
-      <c r="BB4" s="5">
+      <c r="BC4" s="5">
         <f t="shared" si="3"/>
         <v>126022.83959052119</v>
       </c>
-      <c r="BC4" s="5">
+      <c r="BD4" s="5">
         <f t="shared" si="3"/>
         <v>126589.10761355137</v>
       </c>
-      <c r="BD4" s="5">
+      <c r="BE4" s="5">
         <f t="shared" si="3"/>
         <v>127156.84123962262</v>
       </c>
-      <c r="BE4" s="5">
+      <c r="BF4" s="5">
         <f t="shared" si="3"/>
         <v>127726.04449687258</v>
       </c>
-      <c r="BF4" s="5">
+      <c r="BG4" s="5">
         <f t="shared" si="3"/>
         <v>128296.72142875013</v>
       </c>
-      <c r="BG4" s="5">
+      <c r="BH4" s="5">
         <f t="shared" si="3"/>
         <v>128868.87609013708</v>
       </c>
-      <c r="BH4" s="5">
+      <c r="BI4" s="5">
         <f t="shared" si="3"/>
         <v>129442.51254736367</v>
       </c>
-      <c r="BI4" s="5">
+      <c r="BJ4" s="5">
         <f t="shared" si="3"/>
         <v>129968.9979181941</v>
       </c>
-      <c r="BJ4" s="5">
+      <c r="BK4" s="5">
         <f t="shared" si="3"/>
         <v>130478.76360789448</v>
       </c>
-      <c r="BK4" s="5">
+      <c r="BL4" s="5">
         <f t="shared" si="3"/>
         <v>130989.42291756609</v>
       </c>
-      <c r="BL4" s="5">
+      <c r="BM4" s="5">
         <f t="shared" si="3"/>
         <v>131501.07479386276</v>
       </c>
-      <c r="BM4" s="5">
+      <c r="BN4" s="5">
         <f t="shared" si="3"/>
         <v>132013.72261231358</v>
       </c>
-      <c r="BN4" s="5">
+      <c r="BO4" s="5">
         <f t="shared" si="3"/>
         <v>132527.36923503783</v>
       </c>
-      <c r="BO4" s="5">
+      <c r="BP4" s="5">
         <f t="shared" si="3"/>
         <v>133042.01752951712</v>
       </c>
-      <c r="BP4" s="5">
-        <f t="shared" ref="BP4:BW4" si="4">BP5+BP8</f>
+      <c r="BQ4" s="5">
+        <f t="shared" ref="BQ4:BX4" si="4">BQ5+BQ8</f>
         <v>133557.67037144973</v>
       </c>
-      <c r="BQ4" s="5">
+      <c r="BR4" s="5">
         <f t="shared" si="4"/>
         <v>134074.33064478962</v>
       </c>
-      <c r="BR4" s="5">
+      <c r="BS4" s="5">
         <f t="shared" si="4"/>
         <v>134592.00124177034</v>
       </c>
-      <c r="BS4" s="5">
+      <c r="BT4" s="5">
         <f t="shared" si="4"/>
         <v>135110.68506292874</v>
       </c>
-      <c r="BT4" s="5">
+      <c r="BU4" s="5">
         <f t="shared" si="4"/>
         <v>135630.38501712884</v>
       </c>
-      <c r="BU4" s="5">
+      <c r="BV4" s="5">
         <f t="shared" si="4"/>
         <v>136151.1040215856</v>
       </c>
-      <c r="BV4" s="5">
+      <c r="BW4" s="5">
         <f t="shared" si="4"/>
         <v>136672.84500188916</v>
       </c>
-      <c r="BW4" s="5">
+      <c r="BX4" s="5">
         <f t="shared" si="4"/>
         <v>125066.2062781055</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>37</v>
       </c>
@@ -1530,7 +1559,7 @@
         <v>106615.54357770366</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:BR5" si="5">SUM(E6:E7)</f>
+        <f t="shared" ref="E5:BS5" si="5">SUM(E6:E7)</f>
         <v>0</v>
       </c>
       <c r="F5" s="5">
@@ -1641,180 +1670,184 @@
         <f t="shared" si="5"/>
         <v>114022.34594505926</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AG5" s="36">
+        <f t="shared" si="5"/>
+        <v>100941.54</v>
+      </c>
+      <c r="AH5" s="5">
         <f t="shared" si="5"/>
         <v>114557.3798253882</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AI5" s="5">
         <f t="shared" si="5"/>
         <v>115093.79314638168</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AJ5" s="5">
         <f t="shared" si="5"/>
         <v>115631.58971258732</v>
       </c>
-      <c r="AJ5" s="5">
+      <c r="AK5" s="5">
         <f t="shared" si="5"/>
         <v>116170.77332340677</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AL5" s="5">
         <f t="shared" si="5"/>
         <v>116711.34778889181</v>
       </c>
-      <c r="AL5" s="5">
+      <c r="AM5" s="5">
         <f t="shared" si="5"/>
         <v>117253.31692984366</v>
       </c>
-      <c r="AM5" s="5">
+      <c r="AN5" s="5">
         <f t="shared" si="5"/>
         <v>117796.68457784381</v>
       </c>
-      <c r="AN5" s="5">
+      <c r="AO5" s="5">
         <f t="shared" si="5"/>
         <v>118295.08799702271</v>
       </c>
-      <c r="AO5" s="5">
+      <c r="AP5" s="5">
         <f t="shared" si="5"/>
         <v>118841.05812756054</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AQ5" s="5">
         <f t="shared" si="5"/>
         <v>119388.63976029815</v>
       </c>
-      <c r="AQ5" s="5">
+      <c r="AR5" s="5">
         <f t="shared" si="5"/>
         <v>119937.6363443998</v>
       </c>
-      <c r="AR5" s="5">
+      <c r="AS5" s="5">
         <f t="shared" si="5"/>
         <v>120488.05089229152</v>
       </c>
-      <c r="AS5" s="5">
+      <c r="AT5" s="5">
         <f t="shared" si="5"/>
         <v>121039.88729760991</v>
       </c>
-      <c r="AT5" s="5">
+      <c r="AU5" s="5">
         <f t="shared" si="5"/>
         <v>121593.14946878582</v>
       </c>
-      <c r="AU5" s="5">
+      <c r="AV5" s="5">
         <f t="shared" si="5"/>
         <v>122147.84132529711</v>
       </c>
-      <c r="AV5" s="5">
+      <c r="AW5" s="5">
         <f t="shared" si="5"/>
         <v>122703.96679768368</v>
       </c>
-      <c r="AW5" s="5">
+      <c r="AX5" s="5">
         <f t="shared" si="5"/>
         <v>123261.52982757895</v>
       </c>
-      <c r="AX5" s="5">
+      <c r="AY5" s="5">
         <f t="shared" si="5"/>
         <v>123820.53436774146</v>
       </c>
-      <c r="AY5" s="5">
+      <c r="AZ5" s="5">
         <f t="shared" si="5"/>
         <v>124380.98438208665</v>
       </c>
-      <c r="AZ5" s="5">
+      <c r="BA5" s="5">
         <f t="shared" si="5"/>
         <v>124894.89443721721</v>
       </c>
-      <c r="BA5" s="5">
+      <c r="BB5" s="5">
         <f t="shared" si="5"/>
         <v>125458.03405444659</v>
       </c>
-      <c r="BB5" s="5">
+      <c r="BC5" s="5">
         <f t="shared" si="5"/>
         <v>126022.83959052119</v>
       </c>
-      <c r="BC5" s="5">
+      <c r="BD5" s="5">
         <f t="shared" si="5"/>
         <v>126589.10761355137</v>
       </c>
-      <c r="BD5" s="5">
+      <c r="BE5" s="5">
         <f t="shared" si="5"/>
         <v>127156.84123962262</v>
       </c>
-      <c r="BE5" s="5">
+      <c r="BF5" s="5">
         <f t="shared" si="5"/>
         <v>127726.04449687258</v>
       </c>
-      <c r="BF5" s="5">
+      <c r="BG5" s="5">
         <f t="shared" si="5"/>
         <v>128296.72142875013</v>
       </c>
-      <c r="BG5" s="5">
+      <c r="BH5" s="5">
         <f t="shared" si="5"/>
         <v>128868.87609013708</v>
       </c>
-      <c r="BH5" s="5">
+      <c r="BI5" s="5">
         <f t="shared" si="5"/>
         <v>129442.51254736367</v>
       </c>
-      <c r="BI5" s="5">
+      <c r="BJ5" s="5">
         <f t="shared" si="5"/>
         <v>129968.9979181941</v>
       </c>
-      <c r="BJ5" s="5">
+      <c r="BK5" s="5">
         <f t="shared" si="5"/>
         <v>130478.76360789448</v>
       </c>
-      <c r="BK5" s="5">
+      <c r="BL5" s="5">
         <f t="shared" si="5"/>
         <v>130989.42291756609</v>
       </c>
-      <c r="BL5" s="5">
+      <c r="BM5" s="5">
         <f t="shared" si="5"/>
         <v>131501.07479386276</v>
       </c>
-      <c r="BM5" s="5">
+      <c r="BN5" s="5">
         <f t="shared" si="5"/>
         <v>132013.72261231358</v>
       </c>
-      <c r="BN5" s="5">
+      <c r="BO5" s="5">
         <f t="shared" si="5"/>
         <v>132527.36923503783</v>
       </c>
-      <c r="BO5" s="5">
+      <c r="BP5" s="5">
         <f t="shared" si="5"/>
         <v>133042.01752951712</v>
       </c>
-      <c r="BP5" s="5">
+      <c r="BQ5" s="5">
         <f t="shared" si="5"/>
         <v>133557.67037144973</v>
       </c>
-      <c r="BQ5" s="5">
+      <c r="BR5" s="5">
         <f t="shared" si="5"/>
         <v>134074.33064478962</v>
       </c>
-      <c r="BR5" s="5">
+      <c r="BS5" s="5">
         <f t="shared" si="5"/>
         <v>134592.00124177034</v>
       </c>
-      <c r="BS5" s="5">
-        <f t="shared" ref="BS5:BW5" si="8">SUM(BS6:BS7)</f>
+      <c r="BT5" s="5">
+        <f t="shared" ref="BT5:BX5" si="8">SUM(BT6:BT7)</f>
         <v>135110.68506292874</v>
       </c>
-      <c r="BT5" s="5">
+      <c r="BU5" s="5">
         <f t="shared" si="8"/>
         <v>135630.38501712884</v>
       </c>
-      <c r="BU5" s="5">
+      <c r="BV5" s="5">
         <f t="shared" si="8"/>
         <v>136151.1040215856</v>
       </c>
-      <c r="BV5" s="5">
+      <c r="BW5" s="5">
         <f t="shared" si="8"/>
         <v>136672.84500188916</v>
       </c>
-      <c r="BW5" s="5">
+      <c r="BX5" s="5">
         <f t="shared" si="8"/>
         <v>125066.2062781055</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>0</v>
       </c>
@@ -1900,137 +1933,140 @@
       <c r="AF6" s="2">
         <v>110561.44925454176</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AG6" s="37">
+        <v>100941.54</v>
+      </c>
+      <c r="AH6" s="2">
         <v>110878.85997758587</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AI6" s="2">
         <v>111197.18195466821</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AJ6" s="2">
         <v>111516.41780190682</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AK6" s="2">
         <v>111836.57014293033</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AL6" s="2">
         <v>112157.64160889959</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AM6" s="2">
         <v>112479.63483852924</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AN6" s="2">
         <v>112802.55247810938</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AO6" s="2">
         <v>113126.39718152737</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AP6" s="2">
         <v>113451.17161028957</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="AQ6" s="2">
         <v>113776.87843354329</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="AR6" s="2">
         <v>114103.52032809868</v>
       </c>
-      <c r="AR6" s="2">
+      <c r="AS6" s="2">
         <v>114431.09997845073</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AT6" s="2">
         <v>114759.6200768014</v>
       </c>
-      <c r="AT6" s="2">
+      <c r="AU6" s="2">
         <v>115089.08332308161</v>
       </c>
-      <c r="AU6" s="2">
+      <c r="AV6" s="2">
         <v>115419.49242497355</v>
       </c>
-      <c r="AV6" s="2">
+      <c r="AW6" s="2">
         <v>115750.85009793288</v>
       </c>
-      <c r="AW6" s="2">
+      <c r="AX6" s="2">
         <v>116083.15906521108</v>
       </c>
-      <c r="AX6" s="2">
+      <c r="AY6" s="2">
         <v>116416.42205787776</v>
       </c>
-      <c r="AY6" s="2">
+      <c r="AZ6" s="2">
         <v>116750.6418148432</v>
       </c>
-      <c r="AZ6" s="2">
+      <c r="BA6" s="2">
         <v>117085.82108288081</v>
       </c>
-      <c r="BA6" s="2">
+      <c r="BB6" s="2">
         <v>117421.9626166497</v>
       </c>
-      <c r="BB6" s="2">
+      <c r="BC6" s="2">
         <v>117759.06917871731</v>
       </c>
-      <c r="BC6" s="2">
+      <c r="BD6" s="2">
         <v>118097.14353958215</v>
       </c>
-      <c r="BD6" s="2">
+      <c r="BE6" s="2">
         <v>118436.18847769655</v>
       </c>
-      <c r="BE6" s="2">
+      <c r="BF6" s="2">
         <v>118776.20677948948</v>
       </c>
-      <c r="BF6" s="2">
+      <c r="BG6" s="2">
         <v>119117.2012393895</v>
       </c>
-      <c r="BG6" s="2">
+      <c r="BH6" s="2">
         <v>119459.17465984766</v>
       </c>
-      <c r="BH6" s="2">
+      <c r="BI6" s="2">
         <v>119802.12985136057</v>
       </c>
-      <c r="BI6" s="2">
+      <c r="BJ6" s="2">
         <v>120146.0696324935</v>
       </c>
-      <c r="BJ6" s="2">
+      <c r="BK6" s="2">
         <v>120490.99682990351</v>
       </c>
-      <c r="BK6" s="2">
+      <c r="BL6" s="2">
         <v>120836.91427836275</v>
       </c>
-      <c r="BL6" s="2">
+      <c r="BM6" s="2">
         <v>121183.82482078168</v>
       </c>
-      <c r="BM6" s="2">
+      <c r="BN6" s="2">
         <v>121531.73130823248</v>
       </c>
-      <c r="BN6" s="2">
+      <c r="BO6" s="2">
         <v>121880.63659997245</v>
       </c>
-      <c r="BO6" s="2">
+      <c r="BP6" s="2">
         <v>122230.54356346755</v>
       </c>
-      <c r="BP6" s="2">
+      <c r="BQ6" s="2">
         <v>122581.45507441595</v>
       </c>
-      <c r="BQ6" s="2">
+      <c r="BR6" s="2">
         <v>122933.37401677165</v>
       </c>
-      <c r="BR6" s="2">
+      <c r="BS6" s="2">
         <v>123286.30328276817</v>
       </c>
-      <c r="BS6" s="2">
+      <c r="BT6" s="2">
         <v>123640.24577294236</v>
       </c>
-      <c r="BT6" s="2">
+      <c r="BU6" s="2">
         <v>123995.20439615824</v>
       </c>
-      <c r="BU6" s="2">
+      <c r="BV6" s="2">
         <v>124351.18206963081</v>
       </c>
-      <c r="BV6" s="2">
+      <c r="BW6" s="2">
         <v>124708.18171895017</v>
       </c>
-      <c r="BW6" s="2">
+      <c r="BX6" s="2">
         <v>125066.2062781055</v>
       </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
@@ -2093,137 +2129,138 @@
       <c r="AF7" s="2">
         <v>3460.8966905174989</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="2">
         <v>3678.5198478023194</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AI7" s="2">
         <v>3896.6111917134726</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AJ7" s="2">
         <v>4115.1719106805022</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AK7" s="2">
         <v>4334.2031804764392</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AL7" s="2">
         <v>4553.7061799922249</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AM7" s="2">
         <v>4773.6820913144138</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AN7" s="2">
         <v>4994.1320997344374</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AO7" s="2">
         <v>5168.6908154953417</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AP7" s="2">
         <v>5389.8865172709584</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="AQ7" s="2">
         <v>5611.7613267548541</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="AR7" s="2">
         <v>5834.1160163011245</v>
       </c>
-      <c r="AR7" s="2">
+      <c r="AS7" s="2">
         <v>6056.9509138407848</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AT7" s="2">
         <v>6280.2672208085205</v>
       </c>
-      <c r="AT7" s="2">
+      <c r="AU7" s="2">
         <v>6504.0661457042106</v>
       </c>
-      <c r="AU7" s="2">
+      <c r="AV7" s="2">
         <v>6728.3489003235554</v>
       </c>
-      <c r="AV7" s="2">
+      <c r="AW7" s="2">
         <v>6953.1166997507917</v>
       </c>
-      <c r="AW7" s="2">
+      <c r="AX7" s="2">
         <v>7178.3707623678711</v>
       </c>
-      <c r="AX7" s="2">
+      <c r="AY7" s="2">
         <v>7404.1123098637072</v>
       </c>
-      <c r="AY7" s="2">
+      <c r="AZ7" s="2">
         <v>7630.3425672434551</v>
       </c>
-      <c r="AZ7" s="2">
+      <c r="BA7" s="2">
         <v>7809.0733543363986</v>
       </c>
-      <c r="BA7" s="2">
+      <c r="BB7" s="2">
         <v>8036.0714377968825</v>
       </c>
-      <c r="BB7" s="2">
+      <c r="BC7" s="2">
         <v>8263.7704118038819</v>
       </c>
-      <c r="BC7" s="2">
+      <c r="BD7" s="2">
         <v>8491.9640739692313</v>
       </c>
-      <c r="BD7" s="2">
+      <c r="BE7" s="2">
         <v>8720.6527619260814</v>
       </c>
-      <c r="BE7" s="2">
+      <c r="BF7" s="2">
         <v>8949.8377173830977</v>
       </c>
-      <c r="BF7" s="2">
+      <c r="BG7" s="2">
         <v>9179.5201893606336</v>
       </c>
-      <c r="BG7" s="2">
+      <c r="BH7" s="2">
         <v>9409.7014302894295</v>
       </c>
-      <c r="BH7" s="2">
+      <c r="BI7" s="2">
         <v>9640.3826960030947</v>
       </c>
-      <c r="BI7" s="2">
+      <c r="BJ7" s="2">
         <v>9822.9282857006074</v>
       </c>
-      <c r="BJ7" s="2">
+      <c r="BK7" s="2">
         <v>9987.766777990968</v>
       </c>
-      <c r="BK7" s="2">
+      <c r="BL7" s="2">
         <v>10152.508639203334</v>
       </c>
-      <c r="BL7" s="2">
+      <c r="BM7" s="2">
         <v>10317.249973081094</v>
       </c>
-      <c r="BM7" s="2">
+      <c r="BN7" s="2">
         <v>10481.991304081086</v>
       </c>
-      <c r="BN7" s="2">
+      <c r="BO7" s="2">
         <v>10646.732635065375</v>
       </c>
-      <c r="BO7" s="2">
+      <c r="BP7" s="2">
         <v>10811.473966049576</v>
       </c>
-      <c r="BP7" s="2">
+      <c r="BQ7" s="2">
         <v>10976.215297033777</v>
       </c>
-      <c r="BQ7" s="2">
+      <c r="BR7" s="2">
         <v>11140.956628017979</v>
       </c>
-      <c r="BR7" s="2">
+      <c r="BS7" s="2">
         <v>11305.69795900218</v>
       </c>
-      <c r="BS7" s="2">
+      <c r="BT7" s="2">
         <v>11470.439289986381</v>
       </c>
-      <c r="BT7" s="2">
+      <c r="BU7" s="2">
         <v>11635.180620970583</v>
       </c>
-      <c r="BU7" s="2">
+      <c r="BV7" s="2">
         <v>11799.921951954784</v>
       </c>
-      <c r="BV7" s="2">
+      <c r="BW7" s="2">
         <v>11964.663282938986</v>
       </c>
-      <c r="BW7" s="2">
+      <c r="BX7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>38</v>
       </c>
@@ -2232,7 +2269,7 @@
         <v>1712651</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ref="C8:AI8" si="9">SUM(C9:C12)</f>
+        <f t="shared" ref="C8:AJ8" si="9">SUM(C9:C12)</f>
         <v>65100</v>
       </c>
       <c r="D8" s="5">
@@ -2351,8 +2388,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="5">
-        <f t="shared" si="9"/>
+      <c r="AG8" s="36">
+        <f>SUM(AG9:AG13)</f>
         <v>0</v>
       </c>
       <c r="AH8" s="5">
@@ -2364,11 +2401,11 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="5">
-        <f t="shared" ref="AJ8:BO8" si="10">SUM(AJ9:AJ12)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK8" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AK8:BP8" si="10">SUM(AK9:AK12)</f>
         <v>0</v>
       </c>
       <c r="AL8" s="5">
@@ -2492,11 +2529,11 @@
         <v>0</v>
       </c>
       <c r="BP8" s="5">
-        <f t="shared" ref="BP8:BW8" si="11">SUM(BP9:BP12)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BQ8" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="BQ8:BX8" si="11">SUM(BQ9:BQ12)</f>
         <v>0</v>
       </c>
       <c r="BR8" s="5">
@@ -2523,8 +2560,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="BX8" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>25</v>
       </c>
@@ -2585,7 +2626,7 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="37"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
+      <c r="AG9" s="37"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
@@ -2628,8 +2669,9 @@
       <c r="BU9" s="2"/>
       <c r="BV9" s="2"/>
       <c r="BW9" s="2"/>
+      <c r="BX9" s="2"/>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>33</v>
       </c>
@@ -2673,7 +2715,7 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="37"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
+      <c r="AG10" s="37"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
@@ -2716,8 +2758,9 @@
       <c r="BU10" s="2"/>
       <c r="BV10" s="2"/>
       <c r="BW10" s="2"/>
+      <c r="BX10" s="2"/>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>42</v>
       </c>
@@ -2774,7 +2817,7 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="37"/>
       <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
+      <c r="AG11" s="37"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
@@ -2817,8 +2860,9 @@
       <c r="BU11" s="2"/>
       <c r="BV11" s="2"/>
       <c r="BW11" s="2"/>
+      <c r="BX11" s="2"/>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>43</v>
       </c>
@@ -2861,7 +2905,7 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="38"/>
       <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
+      <c r="AG12" s="38"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
@@ -2904,8 +2948,9 @@
       <c r="BU12" s="2"/>
       <c r="BV12" s="2"/>
       <c r="BW12" s="2"/>
+      <c r="BX12" s="2"/>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>46</v>
       </c>
@@ -2945,7 +2990,7 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="38"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
+      <c r="AG13" s="38"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
@@ -2988,8 +3033,9 @@
       <c r="BU13" s="2"/>
       <c r="BV13" s="2"/>
       <c r="BW13" s="2"/>
+      <c r="BX13" s="2"/>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
       <c r="B14" s="7"/>
       <c r="C14" s="2"/>
@@ -3022,7 +3068,7 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="37"/>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
+      <c r="AG14" s="37"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
@@ -3065,8 +3111,9 @@
       <c r="BU14" s="2"/>
       <c r="BV14" s="2"/>
       <c r="BW14" s="2"/>
+      <c r="BX14" s="2"/>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>10</v>
       </c>
@@ -3183,7 +3230,7 @@
         <v>-68405.099999999991</v>
       </c>
       <c r="AD15" s="5">
-        <f t="shared" ref="AD15:BW15" si="16">AD16-AD41-AD49</f>
+        <f t="shared" ref="AD15:BX15" si="16">AD16-AD41-AD49</f>
         <v>14018.590824804574</v>
       </c>
       <c r="AE15" s="36">
@@ -3194,180 +3241,184 @@
         <f t="shared" si="16"/>
         <v>14064.578576684915</v>
       </c>
-      <c r="AG15" s="5">
+      <c r="AG15" s="36">
+        <f>AG16+AG41+AG49+AG26</f>
+        <v>-69127.939999999988</v>
+      </c>
+      <c r="AH15" s="5">
         <f t="shared" si="16"/>
         <v>14110.698354743226</v>
       </c>
-      <c r="AH15" s="5">
+      <c r="AI15" s="5">
         <f t="shared" si="16"/>
         <v>14156.95053801329</v>
       </c>
-      <c r="AI15" s="5">
+      <c r="AJ15" s="5">
         <f t="shared" si="16"/>
         <v>14203.335506617061</v>
       </c>
-      <c r="AJ15" s="5">
+      <c r="AK15" s="5">
         <f t="shared" si="16"/>
         <v>14249.853641767777</v>
       </c>
-      <c r="AK15" s="5">
+      <c r="AL15" s="5">
         <f t="shared" si="16"/>
         <v>14296.505325773111</v>
       </c>
-      <c r="AL15" s="5">
+      <c r="AM15" s="5">
         <f t="shared" si="16"/>
         <v>14343.290942038298</v>
       </c>
-      <c r="AM15" s="5">
+      <c r="AN15" s="5">
         <f t="shared" si="16"/>
         <v>14390.210875069293</v>
       </c>
-      <c r="AN15" s="5">
+      <c r="AO15" s="5">
         <f t="shared" si="16"/>
         <v>14437.265510475925</v>
       </c>
-      <c r="AO15" s="5">
+      <c r="AP15" s="5">
         <f t="shared" si="16"/>
         <v>14484.455234975074</v>
       </c>
-      <c r="AP15" s="5">
+      <c r="AQ15" s="5">
         <f t="shared" si="16"/>
         <v>14531.780436393839</v>
       </c>
-      <c r="AQ15" s="5">
+      <c r="AR15" s="5">
         <f t="shared" si="16"/>
         <v>14579.241503672736</v>
       </c>
-      <c r="AR15" s="5">
+      <c r="AS15" s="5">
         <f t="shared" si="16"/>
         <v>14626.838826868892</v>
       </c>
-      <c r="AS15" s="5">
+      <c r="AT15" s="5">
         <f t="shared" si="16"/>
         <v>14674.572797159242</v>
       </c>
-      <c r="AT15" s="5">
+      <c r="AU15" s="5">
         <f t="shared" si="16"/>
         <v>14722.443806843758</v>
       </c>
-      <c r="AU15" s="5">
+      <c r="AV15" s="5">
         <f t="shared" si="16"/>
         <v>14770.452249348658</v>
       </c>
-      <c r="AV15" s="5">
+      <c r="AW15" s="5">
         <f t="shared" si="16"/>
         <v>14818.598519229647</v>
       </c>
-      <c r="AW15" s="5">
+      <c r="AX15" s="5">
         <f t="shared" si="16"/>
         <v>14866.883012175169</v>
       </c>
-      <c r="AX15" s="5">
+      <c r="AY15" s="5">
         <f t="shared" si="16"/>
         <v>14915.306125009638</v>
       </c>
-      <c r="AY15" s="5">
+      <c r="AZ15" s="5">
         <f t="shared" si="16"/>
         <v>14963.868255696718</v>
       </c>
-      <c r="AZ15" s="5">
+      <c r="BA15" s="5">
         <f t="shared" si="16"/>
         <v>15012.56980334258</v>
       </c>
-      <c r="BA15" s="5">
+      <c r="BB15" s="5">
         <f t="shared" si="16"/>
         <v>15061.411168199204</v>
       </c>
-      <c r="BB15" s="5">
+      <c r="BC15" s="5">
         <f t="shared" si="16"/>
         <v>15110.392751667627</v>
       </c>
-      <c r="BC15" s="5">
+      <c r="BD15" s="5">
         <f t="shared" si="16"/>
         <v>15159.514956301286</v>
       </c>
-      <c r="BD15" s="5">
+      <c r="BE15" s="5">
         <f t="shared" si="16"/>
         <v>15208.778185809309</v>
       </c>
-      <c r="BE15" s="5">
+      <c r="BF15" s="5">
         <f t="shared" si="16"/>
         <v>15258.182845059824</v>
       </c>
-      <c r="BF15" s="5">
+      <c r="BG15" s="5">
         <f t="shared" si="16"/>
         <v>15307.729340083293</v>
       </c>
-      <c r="BG15" s="5">
+      <c r="BH15" s="5">
         <f t="shared" si="16"/>
         <v>15357.418078075865</v>
       </c>
-      <c r="BH15" s="5">
+      <c r="BI15" s="5">
         <f t="shared" si="16"/>
         <v>15407.249467402691</v>
       </c>
-      <c r="BI15" s="5">
+      <c r="BJ15" s="5">
         <f t="shared" si="16"/>
         <v>15457.223917601306</v>
       </c>
-      <c r="BJ15" s="5">
+      <c r="BK15" s="5">
         <f t="shared" si="16"/>
         <v>15507.341839384981</v>
       </c>
-      <c r="BK15" s="5">
+      <c r="BL15" s="5">
         <f t="shared" si="16"/>
         <v>15557.603644646108</v>
       </c>
-      <c r="BL15" s="5">
+      <c r="BM15" s="5">
         <f t="shared" si="16"/>
         <v>15608.009746459578</v>
       </c>
-      <c r="BM15" s="5">
+      <c r="BN15" s="5">
         <f t="shared" si="16"/>
         <v>15658.560559086181</v>
       </c>
-      <c r="BN15" s="5">
+      <c r="BO15" s="5">
         <f t="shared" si="16"/>
         <v>15709.256497975995</v>
       </c>
-      <c r="BO15" s="5">
+      <c r="BP15" s="5">
         <f t="shared" si="16"/>
         <v>15760.097979771836</v>
       </c>
-      <c r="BP15" s="5">
+      <c r="BQ15" s="5">
         <f t="shared" si="16"/>
         <v>15811.085422312635</v>
       </c>
-      <c r="BQ15" s="5">
+      <c r="BR15" s="5">
         <f t="shared" si="16"/>
         <v>15862.219244636921</v>
       </c>
-      <c r="BR15" s="5">
+      <c r="BS15" s="5">
         <f t="shared" si="16"/>
         <v>15913.499866986218</v>
       </c>
-      <c r="BS15" s="5">
+      <c r="BT15" s="5">
         <f t="shared" si="16"/>
         <v>15964.927710808526</v>
       </c>
-      <c r="BT15" s="5">
+      <c r="BU15" s="5">
         <f t="shared" si="16"/>
         <v>16016.503198761791</v>
       </c>
-      <c r="BU15" s="5">
+      <c r="BV15" s="5">
         <f t="shared" si="16"/>
         <v>16068.226754717358</v>
       </c>
-      <c r="BV15" s="5">
+      <c r="BW15" s="5">
         <f t="shared" si="16"/>
         <v>16120.09880376346</v>
       </c>
-      <c r="BW15" s="5">
+      <c r="BX15" s="5">
         <f t="shared" si="16"/>
         <v>16172.119772208731</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>39</v>
       </c>
@@ -3380,7 +3431,7 @@
         <v>-67</v>
       </c>
       <c r="D16" s="10">
-        <f t="shared" ref="D16:BQ16" si="17">SUM(D17:D24)</f>
+        <f t="shared" ref="D16:BR16" si="17">SUM(D17:D24)</f>
         <v>-104441.73458080005</v>
       </c>
       <c r="E16" s="10">
@@ -3495,9 +3546,9 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="10">
+      <c r="AG16" s="38">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-570</v>
       </c>
       <c r="AH16" s="10">
         <f t="shared" si="17"/>
@@ -3644,11 +3695,11 @@
         <v>0</v>
       </c>
       <c r="BR16" s="10">
-        <f t="shared" ref="BR16:BW16" si="20">SUM(BR17:BR24)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BS16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="BS16:BX16" si="20">SUM(BS17:BS24)</f>
         <v>0</v>
       </c>
       <c r="BT16" s="10">
@@ -3667,8 +3718,12 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
+      <c r="BX16" s="10">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>1</v>
       </c>
@@ -3751,7 +3806,7 @@
       <c r="AF17" s="2">
         <v>0</v>
       </c>
-      <c r="AG17" s="2">
+      <c r="AG17" s="37">
         <v>0</v>
       </c>
       <c r="AH17" s="2">
@@ -3880,8 +3935,11 @@
       <c r="BW17" s="2">
         <v>0</v>
       </c>
+      <c r="BX17" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:76" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>11</v>
       </c>
@@ -3945,7 +4003,7 @@
         <v>-870</v>
       </c>
       <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
+      <c r="AG18" s="39"/>
       <c r="AH18" s="10"/>
       <c r="AI18" s="10"/>
       <c r="AJ18" s="10"/>
@@ -3988,8 +4046,9 @@
       <c r="BU18" s="10"/>
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
+      <c r="BX18" s="10"/>
     </row>
-    <row r="19" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:76" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>12</v>
       </c>
@@ -4024,7 +4083,7 @@
       <c r="AD19" s="10"/>
       <c r="AE19" s="38"/>
       <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
+      <c r="AG19" s="38"/>
       <c r="AH19" s="10"/>
       <c r="AI19" s="10"/>
       <c r="AJ19" s="10"/>
@@ -4067,8 +4126,9 @@
       <c r="BU19" s="10"/>
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
+      <c r="BX19" s="10"/>
     </row>
-    <row r="20" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:76" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>30</v>
       </c>
@@ -4113,7 +4173,7 @@
       <c r="AD20" s="10"/>
       <c r="AE20" s="38"/>
       <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
+      <c r="AG20" s="38"/>
       <c r="AH20" s="10"/>
       <c r="AI20" s="10"/>
       <c r="AJ20" s="10"/>
@@ -4156,8 +4216,9 @@
       <c r="BU20" s="10"/>
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
+      <c r="BX20" s="10"/>
     </row>
-    <row r="21" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:76" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>14</v>
       </c>
@@ -4211,7 +4272,7 @@
       <c r="AD21" s="10"/>
       <c r="AE21" s="38"/>
       <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
+      <c r="AG21" s="38"/>
       <c r="AH21" s="10"/>
       <c r="AI21" s="10"/>
       <c r="AJ21" s="10"/>
@@ -4254,8 +4315,9 @@
       <c r="BU21" s="10"/>
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
+      <c r="BX21" s="10"/>
     </row>
-    <row r="22" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:76" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>13</v>
       </c>
@@ -4321,7 +4383,9 @@
         <v>-500</v>
       </c>
       <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
+      <c r="AG22" s="39">
+        <v>-500</v>
+      </c>
       <c r="AH22" s="10"/>
       <c r="AI22" s="10"/>
       <c r="AJ22" s="10"/>
@@ -4364,8 +4428,9 @@
       <c r="BU22" s="10"/>
       <c r="BV22" s="10"/>
       <c r="BW22" s="10"/>
+      <c r="BX22" s="10"/>
     </row>
-    <row r="23" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:76" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>29</v>
       </c>
@@ -4412,7 +4477,7 @@
       <c r="AD23" s="10"/>
       <c r="AE23" s="38"/>
       <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
+      <c r="AG23" s="38"/>
       <c r="AH23" s="10"/>
       <c r="AI23" s="10"/>
       <c r="AJ23" s="10"/>
@@ -4455,8 +4520,9 @@
       <c r="BU23" s="10"/>
       <c r="BV23" s="10"/>
       <c r="BW23" s="10"/>
+      <c r="BX23" s="10"/>
     </row>
-    <row r="24" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:76" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>16</v>
       </c>
@@ -4529,7 +4595,9 @@
         <v>-70.599999999999994</v>
       </c>
       <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
+      <c r="AG24" s="39">
+        <v>-70</v>
+      </c>
       <c r="AH24" s="10"/>
       <c r="AI24" s="10"/>
       <c r="AJ24" s="10"/>
@@ -4572,8 +4640,9 @@
       <c r="BU24" s="10"/>
       <c r="BV24" s="10"/>
       <c r="BW24" s="10"/>
+      <c r="BX24" s="10"/>
     </row>
-    <row r="25" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:76" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
@@ -4606,7 +4675,7 @@
       <c r="AD25" s="10"/>
       <c r="AE25" s="38"/>
       <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
+      <c r="AG25" s="38"/>
       <c r="AH25" s="10"/>
       <c r="AI25" s="10"/>
       <c r="AJ25" s="10"/>
@@ -4649,8 +4718,9 @@
       <c r="BU25" s="10"/>
       <c r="BV25" s="10"/>
       <c r="BW25" s="10"/>
+      <c r="BX25" s="10"/>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>40</v>
       </c>
@@ -4751,7 +4821,7 @@
         <v>-2100</v>
       </c>
       <c r="Z26" s="10">
-        <f t="shared" ref="Z26:BW26" si="23">SUM(Z37:Z39)</f>
+        <f t="shared" ref="Z26:BX26" si="23">SUM(Z37:Z39)</f>
         <v>-21343.696035109606</v>
       </c>
       <c r="AA26" s="10">
@@ -4778,180 +4848,184 @@
         <f t="shared" si="23"/>
         <v>-21528.051057004479</v>
       </c>
-      <c r="AG26" s="10">
+      <c r="AG26" s="38">
+        <f>SUM(AG27:AG39)</f>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="10">
         <f t="shared" si="23"/>
         <v>-21589.855911208251</v>
       </c>
-      <c r="AH26" s="10">
+      <c r="AI26" s="10">
         <f t="shared" si="23"/>
         <v>-21651.838200888789</v>
       </c>
-      <c r="AI26" s="10">
+      <c r="AJ26" s="10">
         <f t="shared" si="23"/>
         <v>-21713.998435445377</v>
       </c>
-      <c r="AJ26" s="10">
+      <c r="AK26" s="10">
         <f t="shared" si="23"/>
         <v>-21776.337125739727</v>
       </c>
-      <c r="AK26" s="10">
+      <c r="AL26" s="10">
         <f t="shared" si="23"/>
         <v>-21838.854784100196</v>
       </c>
-      <c r="AL26" s="10">
+      <c r="AM26" s="10">
         <f t="shared" si="23"/>
         <v>-21901.55192432597</v>
       </c>
-      <c r="AM26" s="10">
+      <c r="AN26" s="10">
         <f t="shared" si="23"/>
         <v>-64446.492532590026</v>
       </c>
-      <c r="AN26" s="10">
+      <c r="AO26" s="10">
         <f t="shared" si="23"/>
         <v>-21984.459234025133</v>
       </c>
-      <c r="AO26" s="10">
+      <c r="AP26" s="10">
         <f t="shared" si="23"/>
         <v>-22047.574389879686</v>
       </c>
-      <c r="AP26" s="10">
+      <c r="AQ26" s="10">
         <f t="shared" si="23"/>
         <v>-22110.870742954336</v>
       </c>
-      <c r="AQ26" s="10">
+      <c r="AR26" s="10">
         <f t="shared" si="23"/>
         <v>-22174.348813447948</v>
       </c>
-      <c r="AR26" s="10">
+      <c r="AS26" s="10">
         <f t="shared" si="23"/>
         <v>-22238.009123052834</v>
       </c>
-      <c r="AS26" s="10">
+      <c r="AT26" s="10">
         <f t="shared" si="23"/>
         <v>-22301.852194959021</v>
       </c>
-      <c r="AT26" s="10">
+      <c r="AU26" s="10">
         <f t="shared" si="23"/>
         <v>-22365.878553858565</v>
       </c>
-      <c r="AU26" s="10">
+      <c r="AV26" s="10">
         <f t="shared" si="23"/>
         <v>-22430.088725949863</v>
       </c>
-      <c r="AV26" s="10">
+      <c r="AW26" s="10">
         <f t="shared" si="23"/>
         <v>-22494.483238941968</v>
       </c>
-      <c r="AW26" s="10">
+      <c r="AX26" s="10">
         <f t="shared" si="23"/>
         <v>-22559.06262205894</v>
       </c>
-      <c r="AX26" s="10">
+      <c r="AY26" s="10">
         <f t="shared" si="23"/>
         <v>-22623.827406044176</v>
       </c>
-      <c r="AY26" s="10">
+      <c r="AZ26" s="10">
         <f t="shared" si="23"/>
         <v>-66657.713815544965</v>
       </c>
-      <c r="AZ26" s="10">
+      <c r="BA26" s="10">
         <f t="shared" si="23"/>
         <v>-22709.381866529005</v>
       </c>
-      <c r="BA26" s="10">
+      <c r="BB26" s="10">
         <f t="shared" si="23"/>
         <v>-22774.578201840646</v>
       </c>
-      <c r="BB26" s="10">
+      <c r="BC26" s="10">
         <f t="shared" si="23"/>
         <v>-22839.961709227824</v>
       </c>
-      <c r="BC26" s="10">
+      <c r="BD26" s="10">
         <f t="shared" si="23"/>
         <v>-22905.532926042604</v>
       </c>
-      <c r="BD26" s="10">
+      <c r="BE26" s="10">
         <f t="shared" si="23"/>
         <v>-22971.292391179752</v>
       </c>
-      <c r="BE26" s="10">
+      <c r="BF26" s="10">
         <f t="shared" si="23"/>
         <v>-23037.240645081121</v>
       </c>
-      <c r="BF26" s="10">
+      <c r="BG26" s="10">
         <f t="shared" si="23"/>
         <v>-23103.378229740149</v>
       </c>
-      <c r="BG26" s="10">
+      <c r="BH26" s="10">
         <f t="shared" si="23"/>
         <v>-23169.70568870625</v>
       </c>
-      <c r="BH26" s="10">
+      <c r="BI26" s="10">
         <f t="shared" si="23"/>
         <v>-23236.223567089342</v>
       </c>
-      <c r="BI26" s="10">
+      <c r="BJ26" s="10">
         <f t="shared" si="23"/>
         <v>-23302.932411564278</v>
       </c>
-      <c r="BJ26" s="10">
+      <c r="BK26" s="10">
         <f t="shared" si="23"/>
         <v>-23369.832770375368</v>
       </c>
-      <c r="BK26" s="10">
+      <c r="BL26" s="10">
         <f t="shared" si="23"/>
         <v>-68944.773634954356</v>
       </c>
-      <c r="BL26" s="10">
+      <c r="BM26" s="10">
         <f t="shared" si="23"/>
         <v>-23458.118120746487</v>
       </c>
-      <c r="BM26" s="10">
+      <c r="BN26" s="10">
         <f t="shared" si="23"/>
         <v>-23525.464002011286</v>
       </c>
-      <c r="BN26" s="10">
+      <c r="BO26" s="10">
         <f t="shared" si="23"/>
         <v>-23593.003226480341</v>
       </c>
-      <c r="BO26" s="10">
+      <c r="BP26" s="10">
         <f t="shared" si="23"/>
         <v>-23660.736349222414</v>
       </c>
-      <c r="BP26" s="10">
+      <c r="BQ26" s="10">
         <f t="shared" si="23"/>
         <v>-23728.663926899808</v>
       </c>
-      <c r="BQ26" s="10">
+      <c r="BR26" s="10">
         <f t="shared" si="23"/>
         <v>-23796.786517772947</v>
       </c>
-      <c r="BR26" s="10">
+      <c r="BS26" s="10">
         <f t="shared" si="23"/>
         <v>-23865.104681704961</v>
       </c>
-      <c r="BS26" s="10">
+      <c r="BT26" s="10">
         <f t="shared" si="23"/>
         <v>-23933.618980166299</v>
       </c>
-      <c r="BT26" s="10">
+      <c r="BU26" s="10">
         <f t="shared" si="23"/>
         <v>-24002.329976239329</v>
       </c>
-      <c r="BU26" s="10">
+      <c r="BV26" s="10">
         <f t="shared" si="23"/>
         <v>-24071.238234622968</v>
       </c>
-      <c r="BV26" s="10">
+      <c r="BW26" s="10">
         <f t="shared" si="23"/>
         <v>-24140.344321637334</v>
       </c>
-      <c r="BW26" s="10">
+      <c r="BX26" s="10">
         <f t="shared" si="23"/>
         <v>-71310.271942298365</v>
       </c>
     </row>
-    <row r="27" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:76" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>21</v>
       </c>
@@ -4986,7 +5060,7 @@
       <c r="AD27" s="10"/>
       <c r="AE27" s="38"/>
       <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
+      <c r="AG27" s="38"/>
       <c r="AH27" s="10"/>
       <c r="AI27" s="10"/>
       <c r="AJ27" s="10"/>
@@ -5029,8 +5103,9 @@
       <c r="BU27" s="10"/>
       <c r="BV27" s="10"/>
       <c r="BW27" s="10"/>
+      <c r="BX27" s="10"/>
     </row>
-    <row r="28" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:76" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>15</v>
       </c>
@@ -5065,7 +5140,7 @@
       <c r="AD28" s="10"/>
       <c r="AE28" s="38"/>
       <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
+      <c r="AG28" s="38"/>
       <c r="AH28" s="10"/>
       <c r="AI28" s="10"/>
       <c r="AJ28" s="10"/>
@@ -5108,8 +5183,9 @@
       <c r="BU28" s="10"/>
       <c r="BV28" s="10"/>
       <c r="BW28" s="10"/>
+      <c r="BX28" s="10"/>
     </row>
-    <row r="29" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:76" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>35</v>
       </c>
@@ -5146,7 +5222,7 @@
       <c r="AD29" s="10"/>
       <c r="AE29" s="38"/>
       <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
+      <c r="AG29" s="38"/>
       <c r="AH29" s="10"/>
       <c r="AI29" s="10"/>
       <c r="AJ29" s="10"/>
@@ -5189,8 +5265,9 @@
       <c r="BU29" s="10"/>
       <c r="BV29" s="10"/>
       <c r="BW29" s="10"/>
+      <c r="BX29" s="10"/>
     </row>
-    <row r="30" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:76" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>36</v>
       </c>
@@ -5231,7 +5308,7 @@
       <c r="AD30" s="10"/>
       <c r="AE30" s="38"/>
       <c r="AF30" s="10"/>
-      <c r="AG30" s="10"/>
+      <c r="AG30" s="38"/>
       <c r="AH30" s="10"/>
       <c r="AI30" s="10"/>
       <c r="AJ30" s="10"/>
@@ -5274,8 +5351,9 @@
       <c r="BU30" s="10"/>
       <c r="BV30" s="10"/>
       <c r="BW30" s="10"/>
+      <c r="BX30" s="10"/>
     </row>
-    <row r="31" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:76" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>18</v>
       </c>
@@ -5312,7 +5390,7 @@
       <c r="AD31" s="10"/>
       <c r="AE31" s="38"/>
       <c r="AF31" s="10"/>
-      <c r="AG31" s="10"/>
+      <c r="AG31" s="38"/>
       <c r="AH31" s="10"/>
       <c r="AI31" s="10"/>
       <c r="AJ31" s="10"/>
@@ -5355,8 +5433,9 @@
       <c r="BU31" s="10"/>
       <c r="BV31" s="10"/>
       <c r="BW31" s="10"/>
+      <c r="BX31" s="10"/>
     </row>
-    <row r="32" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:76" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>31</v>
       </c>
@@ -5392,7 +5471,7 @@
       <c r="AD32" s="10"/>
       <c r="AE32" s="38"/>
       <c r="AF32" s="10"/>
-      <c r="AG32" s="10"/>
+      <c r="AG32" s="38"/>
       <c r="AH32" s="10"/>
       <c r="AI32" s="10"/>
       <c r="AJ32" s="10"/>
@@ -5435,8 +5514,9 @@
       <c r="BU32" s="10"/>
       <c r="BV32" s="10"/>
       <c r="BW32" s="10"/>
+      <c r="BX32" s="10"/>
     </row>
-    <row r="33" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:76" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>47</v>
       </c>
@@ -5468,7 +5548,7 @@
       <c r="AD33" s="10"/>
       <c r="AE33" s="38"/>
       <c r="AF33" s="10"/>
-      <c r="AG33" s="10"/>
+      <c r="AG33" s="38"/>
       <c r="AH33" s="10"/>
       <c r="AI33" s="10"/>
       <c r="AJ33" s="10"/>
@@ -5511,8 +5591,9 @@
       <c r="BU33" s="10"/>
       <c r="BV33" s="10"/>
       <c r="BW33" s="10"/>
+      <c r="BX33" s="10"/>
     </row>
-    <row r="34" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:76" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>17</v>
       </c>
@@ -5550,7 +5631,7 @@
       <c r="AD34" s="10"/>
       <c r="AE34" s="38"/>
       <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
+      <c r="AG34" s="38"/>
       <c r="AH34" s="10"/>
       <c r="AI34" s="10"/>
       <c r="AJ34" s="10"/>
@@ -5593,8 +5674,9 @@
       <c r="BU34" s="10"/>
       <c r="BV34" s="10"/>
       <c r="BW34" s="10"/>
+      <c r="BX34" s="10"/>
     </row>
-    <row r="35" spans="1:75" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:76" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="9"/>
       <c r="C35" s="10"/>
@@ -5627,7 +5709,7 @@
       <c r="AD35" s="10"/>
       <c r="AE35" s="38"/>
       <c r="AF35" s="10"/>
-      <c r="AG35" s="10"/>
+      <c r="AG35" s="38"/>
       <c r="AH35" s="10"/>
       <c r="AI35" s="10"/>
       <c r="AJ35" s="10"/>
@@ -5670,8 +5752,9 @@
       <c r="BU35" s="10"/>
       <c r="BV35" s="10"/>
       <c r="BW35" s="10"/>
+      <c r="BX35" s="10"/>
     </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="8"/>
       <c r="C36" s="2"/>
@@ -5704,7 +5787,7 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="37"/>
       <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
+      <c r="AG36" s="37"/>
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
@@ -5747,8 +5830,9 @@
       <c r="BU36" s="2"/>
       <c r="BV36" s="2"/>
       <c r="BW36" s="2"/>
+      <c r="BX36" s="2"/>
     </row>
-    <row r="37" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>2</v>
       </c>
@@ -5813,137 +5897,138 @@
       <c r="AF37" s="2">
         <v>-1177.4533202999867</v>
       </c>
-      <c r="AG37" s="2">
+      <c r="AG37" s="37"/>
+      <c r="AH37" s="2">
         <v>-1180.8336695290086</v>
       </c>
-      <c r="AH37" s="2">
+      <c r="AI37" s="2">
         <v>-1184.2237233983019</v>
       </c>
-      <c r="AI37" s="2">
+      <c r="AJ37" s="2">
         <v>-1187.6235097689064</v>
       </c>
-      <c r="AJ37" s="2">
+      <c r="AK37" s="2">
         <v>-1191.0330565818472</v>
       </c>
-      <c r="AK37" s="2">
+      <c r="AL37" s="2">
         <v>-1194.4523918583661</v>
       </c>
-      <c r="AL37" s="2">
+      <c r="AM37" s="2">
         <v>-1197.8815437001504</v>
       </c>
-      <c r="AM37" s="2">
+      <c r="AN37" s="2">
         <v>-1201.3205402895646</v>
       </c>
-      <c r="AN37" s="2">
+      <c r="AO37" s="2">
         <v>-1161.7419309652439</v>
       </c>
-      <c r="AO37" s="2">
+      <c r="AP37" s="2">
         <v>-1165.0771743867494</v>
       </c>
-      <c r="AP37" s="2">
+      <c r="AQ37" s="2">
         <v>-1168.4219929543217</v>
       </c>
-      <c r="AQ37" s="2">
+      <c r="AR37" s="2">
         <v>-1171.7764141572352</v>
       </c>
-      <c r="AR37" s="2">
+      <c r="AS37" s="2">
         <v>-1175.1404655636834</v>
       </c>
-      <c r="AS37" s="2">
+      <c r="AT37" s="2">
         <v>-1178.5141748210051</v>
       </c>
-      <c r="AT37" s="2">
+      <c r="AU37" s="2">
         <v>-1181.8975696559123</v>
       </c>
-      <c r="AU37" s="2">
+      <c r="AV37" s="2">
         <v>-1185.2906778747174</v>
       </c>
-      <c r="AV37" s="2">
+      <c r="AW37" s="2">
         <v>-1188.6935273635615</v>
       </c>
-      <c r="AW37" s="2">
+      <c r="AX37" s="2">
         <v>-1192.1061460886442</v>
       </c>
-      <c r="AX37" s="2">
+      <c r="AY37" s="2">
         <v>-1195.5285620964537</v>
       </c>
-      <c r="AY37" s="2">
+      <c r="AZ37" s="2">
         <v>-1198.9608035139959</v>
       </c>
-      <c r="AZ37" s="2">
+      <c r="BA37" s="2">
         <v>-1157.8694578620261</v>
       </c>
-      <c r="BA37" s="2">
+      <c r="BB37" s="2">
         <v>-1161.1935838054603</v>
       </c>
-      <c r="BB37" s="2">
+      <c r="BC37" s="2">
         <v>-1164.5272529778074</v>
       </c>
-      <c r="BC37" s="2">
+      <c r="BD37" s="2">
         <v>-1167.8704927767112</v>
       </c>
-      <c r="BD37" s="2">
+      <c r="BE37" s="2">
         <v>-1171.2233306784713</v>
       </c>
-      <c r="BE37" s="2">
+      <c r="BF37" s="2">
         <v>-1174.5857942382688</v>
       </c>
-      <c r="BF37" s="2">
+      <c r="BG37" s="2">
         <v>-1177.9579110903931</v>
       </c>
-      <c r="BG37" s="2">
+      <c r="BH37" s="2">
         <v>-1181.3397089484688</v>
       </c>
-      <c r="BH37" s="2">
+      <c r="BI37" s="2">
         <v>-1184.7312156056832</v>
       </c>
-      <c r="BI37" s="2">
+      <c r="BJ37" s="2">
         <v>-1188.1324589350158</v>
       </c>
-      <c r="BJ37" s="2">
+      <c r="BK37" s="2">
         <v>-1191.5434668894657</v>
       </c>
-      <c r="BK37" s="2">
+      <c r="BL37" s="2">
         <v>-1194.9642675022828</v>
       </c>
-      <c r="BL37" s="2">
+      <c r="BM37" s="2">
         <v>-1152.3027777761515</v>
       </c>
-      <c r="BM37" s="2">
+      <c r="BN37" s="2">
         <v>-1155.6109223448575</v>
       </c>
-      <c r="BN37" s="2">
+      <c r="BO37" s="2">
         <v>-1158.9285642615682</v>
       </c>
-      <c r="BO37" s="2">
+      <c r="BP37" s="2">
         <v>-1162.2557307922082</v>
       </c>
-      <c r="BP37" s="2">
+      <c r="BQ37" s="2">
         <v>-1165.5924492809788</v>
       </c>
-      <c r="BQ37" s="2">
+      <c r="BR37" s="2">
         <v>-1168.9387471505852</v>
       </c>
-      <c r="BR37" s="2">
+      <c r="BS37" s="2">
         <v>-1172.2946519024588</v>
       </c>
-      <c r="BS37" s="2">
+      <c r="BT37" s="2">
         <v>-1175.660191116986</v>
       </c>
-      <c r="BT37" s="2">
+      <c r="BU37" s="2">
         <v>-1179.0353924537333</v>
       </c>
-      <c r="BU37" s="2">
+      <c r="BV37" s="2">
         <v>-1182.4202836516747</v>
       </c>
-      <c r="BV37" s="2">
+      <c r="BW37" s="2">
         <v>-1185.8148925294206</v>
       </c>
-      <c r="BW37" s="2">
+      <c r="BX37" s="2">
         <v>-1189.2192469854454</v>
       </c>
     </row>
-    <row r="38" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>3</v>
       </c>
@@ -6021,137 +6106,138 @@
       <c r="AF38" s="2">
         <v>-20350.597736704491</v>
       </c>
-      <c r="AG38" s="2">
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="2">
         <v>-20409.022241679242</v>
       </c>
-      <c r="AH38" s="2">
+      <c r="AI38" s="2">
         <v>-20467.614477490486</v>
       </c>
-      <c r="AI38" s="2">
+      <c r="AJ38" s="2">
         <v>-20526.374925676471</v>
       </c>
-      <c r="AJ38" s="2">
+      <c r="AK38" s="2">
         <v>-20585.304069157879</v>
       </c>
-      <c r="AK38" s="2">
+      <c r="AL38" s="2">
         <v>-20644.402392241831</v>
       </c>
-      <c r="AL38" s="2">
+      <c r="AM38" s="2">
         <v>-20703.670380625819</v>
       </c>
-      <c r="AM38" s="2">
+      <c r="AN38" s="2">
         <v>-20763.108521401744</v>
       </c>
-      <c r="AN38" s="2">
+      <c r="AO38" s="2">
         <v>-20822.71730305989</v>
       </c>
-      <c r="AO38" s="2">
+      <c r="AP38" s="2">
         <v>-20882.497215492938</v>
       </c>
-      <c r="AP38" s="2">
+      <c r="AQ38" s="2">
         <v>-20942.448750000014</v>
       </c>
-      <c r="AQ38" s="2">
+      <c r="AR38" s="2">
         <v>-21002.572399290715</v>
       </c>
-      <c r="AR38" s="2">
+      <c r="AS38" s="2">
         <v>-21062.868657489151</v>
       </c>
-      <c r="AS38" s="2">
+      <c r="AT38" s="2">
         <v>-21123.338020138017</v>
       </c>
-      <c r="AT38" s="2">
+      <c r="AU38" s="2">
         <v>-21183.980984202652</v>
       </c>
-      <c r="AU38" s="2">
+      <c r="AV38" s="2">
         <v>-21244.798048075147</v>
       </c>
-      <c r="AV38" s="2">
+      <c r="AW38" s="2">
         <v>-21305.789711578407</v>
       </c>
-      <c r="AW38" s="2">
+      <c r="AX38" s="2">
         <v>-21366.956475970295</v>
       </c>
-      <c r="AX38" s="2">
+      <c r="AY38" s="2">
         <v>-21428.298843947723</v>
       </c>
-      <c r="AY38" s="2">
+      <c r="AZ38" s="2">
         <v>-21489.817319650803</v>
       </c>
-      <c r="AZ38" s="2">
+      <c r="BA38" s="2">
         <v>-21551.512408666978</v>
       </c>
-      <c r="BA38" s="2">
+      <c r="BB38" s="2">
         <v>-21613.384618035187</v>
       </c>
-      <c r="BB38" s="2">
+      <c r="BC38" s="2">
         <v>-21675.434456250016</v>
       </c>
-      <c r="BC38" s="2">
+      <c r="BD38" s="2">
         <v>-21737.662433265894</v>
       </c>
-      <c r="BD38" s="2">
+      <c r="BE38" s="2">
         <v>-21800.069060501279</v>
       </c>
-      <c r="BE38" s="2">
+      <c r="BF38" s="2">
         <v>-21862.654850842853</v>
       </c>
-      <c r="BF38" s="2">
+      <c r="BG38" s="2">
         <v>-21925.420318649754</v>
       </c>
-      <c r="BG38" s="2">
+      <c r="BH38" s="2">
         <v>-21988.365979757782</v>
       </c>
-      <c r="BH38" s="2">
+      <c r="BI38" s="2">
         <v>-22051.492351483659</v>
       </c>
-      <c r="BI38" s="2">
+      <c r="BJ38" s="2">
         <v>-22114.799952629262</v>
       </c>
-      <c r="BJ38" s="2">
+      <c r="BK38" s="2">
         <v>-22178.289303485901</v>
       </c>
-      <c r="BK38" s="2">
+      <c r="BL38" s="2">
         <v>-22241.96092583859</v>
       </c>
-      <c r="BL38" s="2">
+      <c r="BM38" s="2">
         <v>-22305.815342970334</v>
       </c>
-      <c r="BM38" s="2">
+      <c r="BN38" s="2">
         <v>-22369.853079666427</v>
       </c>
-      <c r="BN38" s="2">
+      <c r="BO38" s="2">
         <v>-22434.074662218773</v>
       </c>
-      <c r="BO38" s="2">
+      <c r="BP38" s="2">
         <v>-22498.480618430207</v>
       </c>
-      <c r="BP38" s="2">
+      <c r="BQ38" s="2">
         <v>-22563.071477618829</v>
       </c>
-      <c r="BQ38" s="2">
+      <c r="BR38" s="2">
         <v>-22627.84777062236</v>
       </c>
-      <c r="BR38" s="2">
+      <c r="BS38" s="2">
         <v>-22692.810029802502</v>
       </c>
-      <c r="BS38" s="2">
+      <c r="BT38" s="2">
         <v>-22757.958789049313</v>
       </c>
-      <c r="BT38" s="2">
+      <c r="BU38" s="2">
         <v>-22823.294583785595</v>
       </c>
-      <c r="BU38" s="2">
+      <c r="BV38" s="2">
         <v>-22888.817950971294</v>
       </c>
-      <c r="BV38" s="2">
+      <c r="BW38" s="2">
         <v>-22954.529429107915</v>
       </c>
-      <c r="BW38" s="2">
+      <c r="BX38" s="2">
         <v>-23020.429558242948</v>
       </c>
     </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>4</v>
       </c>
@@ -6242,7 +6328,7 @@
       <c r="AF39" s="2">
         <v>0</v>
       </c>
-      <c r="AG39" s="2">
+      <c r="AG39" s="37">
         <v>0</v>
       </c>
       <c r="AH39" s="2">
@@ -6261,11 +6347,11 @@
         <v>0</v>
       </c>
       <c r="AM39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="2">
         <v>-42482.063470898713</v>
       </c>
-      <c r="AN39" s="2">
-        <v>0</v>
-      </c>
       <c r="AO39" s="2">
         <v>0</v>
       </c>
@@ -6297,11 +6383,11 @@
         <v>0</v>
       </c>
       <c r="AY39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="2">
         <v>-43968.935692380161</v>
       </c>
-      <c r="AZ39" s="2">
-        <v>0</v>
-      </c>
       <c r="BA39" s="2">
         <v>0</v>
       </c>
@@ -6333,11 +6419,11 @@
         <v>0</v>
       </c>
       <c r="BK39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL39" s="2">
         <v>-45507.848441613482</v>
       </c>
-      <c r="BL39" s="2">
-        <v>0</v>
-      </c>
       <c r="BM39" s="2">
         <v>0</v>
       </c>
@@ -6369,10 +6455,13 @@
         <v>0</v>
       </c>
       <c r="BW39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX39" s="2">
         <v>-47100.623137069968</v>
       </c>
     </row>
-    <row r="40" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
@@ -6405,7 +6494,7 @@
       <c r="AD40" s="2"/>
       <c r="AE40" s="37"/>
       <c r="AF40" s="2"/>
-      <c r="AG40" s="2"/>
+      <c r="AG40" s="37"/>
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
       <c r="AJ40" s="2"/>
@@ -6448,8 +6537,9 @@
       <c r="BU40" s="2"/>
       <c r="BV40" s="2"/>
       <c r="BW40" s="2"/>
+      <c r="BX40" s="2"/>
     </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>7</v>
       </c>
@@ -6560,8 +6650,9 @@
       <c r="AF41" s="2">
         <v>0</v>
       </c>
-      <c r="AG41" s="2">
-        <v>0</v>
+      <c r="AG41" s="38">
+        <f>SUM(AG42:AG47)</f>
+        <v>-57794.429999999993</v>
       </c>
       <c r="AH41" s="2">
         <v>0</v>
@@ -6689,8 +6780,11 @@
       <c r="BW41" s="2">
         <v>0</v>
       </c>
+      <c r="BX41" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>24</v>
       </c>
@@ -6764,7 +6858,10 @@
         <v>-73507.72</v>
       </c>
       <c r="AF42" s="2"/>
-      <c r="AG42" s="2"/>
+      <c r="AG42" s="39">
+        <f>-(49781.77+8012.66)</f>
+        <v>-57794.429999999993</v>
+      </c>
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
       <c r="AJ42" s="2"/>
@@ -6807,8 +6904,9 @@
       <c r="BU42" s="2"/>
       <c r="BV42" s="2"/>
       <c r="BW42" s="2"/>
+      <c r="BX42" s="2"/>
     </row>
-    <row r="43" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>32</v>
       </c>
@@ -6853,7 +6951,7 @@
       <c r="AD43" s="2"/>
       <c r="AE43" s="37"/>
       <c r="AF43" s="2"/>
-      <c r="AG43" s="2"/>
+      <c r="AG43" s="37"/>
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
@@ -6896,8 +6994,9 @@
       <c r="BU43" s="2"/>
       <c r="BV43" s="2"/>
       <c r="BW43" s="2"/>
+      <c r="BX43" s="2"/>
     </row>
-    <row r="44" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>20</v>
       </c>
@@ -6932,7 +7031,7 @@
       <c r="AD44" s="2"/>
       <c r="AE44" s="37"/>
       <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
+      <c r="AG44" s="37"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
       <c r="AJ44" s="2"/>
@@ -6975,8 +7074,9 @@
       <c r="BU44" s="2"/>
       <c r="BV44" s="2"/>
       <c r="BW44" s="2"/>
+      <c r="BX44" s="2"/>
     </row>
-    <row r="45" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>45</v>
       </c>
@@ -7014,7 +7114,7 @@
       <c r="AD45" s="2"/>
       <c r="AE45" s="37"/>
       <c r="AF45" s="2"/>
-      <c r="AG45" s="2"/>
+      <c r="AG45" s="37"/>
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
       <c r="AJ45" s="2"/>
@@ -7057,8 +7157,9 @@
       <c r="BU45" s="2"/>
       <c r="BV45" s="2"/>
       <c r="BW45" s="2"/>
+      <c r="BX45" s="2"/>
     </row>
-    <row r="46" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>34</v>
       </c>
@@ -7105,7 +7206,7 @@
       <c r="AD46" s="2"/>
       <c r="AE46" s="37"/>
       <c r="AF46" s="2"/>
-      <c r="AG46" s="2"/>
+      <c r="AG46" s="37"/>
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
       <c r="AJ46" s="2"/>
@@ -7148,8 +7249,9 @@
       <c r="BU46" s="2"/>
       <c r="BV46" s="2"/>
       <c r="BW46" s="2"/>
+      <c r="BX46" s="2"/>
     </row>
-    <row r="47" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>19</v>
       </c>
@@ -7194,7 +7296,7 @@
       <c r="AD47" s="2"/>
       <c r="AE47" s="37"/>
       <c r="AF47" s="2"/>
-      <c r="AG47" s="2"/>
+      <c r="AG47" s="37"/>
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
       <c r="AJ47" s="2"/>
@@ -7237,8 +7339,9 @@
       <c r="BU47" s="2"/>
       <c r="BV47" s="2"/>
       <c r="BW47" s="2"/>
+      <c r="BX47" s="2"/>
     </row>
-    <row r="48" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -7271,7 +7374,7 @@
       <c r="AD48" s="2"/>
       <c r="AE48" s="37"/>
       <c r="AF48" s="2"/>
-      <c r="AG48" s="2"/>
+      <c r="AG48" s="37"/>
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
       <c r="AJ48" s="2"/>
@@ -7314,8 +7417,9 @@
       <c r="BU48" s="2"/>
       <c r="BV48" s="2"/>
       <c r="BW48" s="2"/>
+      <c r="BX48" s="2"/>
     </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
         <v>9</v>
       </c>
@@ -7334,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" ref="F49:BW49" si="26">SUM(F50:F53)</f>
+        <f t="shared" ref="F49:BX49" si="26">SUM(F50:F53)</f>
         <v>-13432.593933481601</v>
       </c>
       <c r="G49" s="14">
@@ -7441,180 +7545,184 @@
         <f t="shared" si="26"/>
         <v>-14064.578576684915</v>
       </c>
-      <c r="AG49" s="5">
+      <c r="AG49" s="36">
+        <f t="shared" si="26"/>
+        <v>-10763.51</v>
+      </c>
+      <c r="AH49" s="5">
         <f t="shared" si="26"/>
         <v>-14110.698354743226</v>
       </c>
-      <c r="AH49" s="5">
+      <c r="AI49" s="5">
         <f t="shared" si="26"/>
         <v>-14156.95053801329</v>
       </c>
-      <c r="AI49" s="5">
+      <c r="AJ49" s="5">
         <f t="shared" si="26"/>
         <v>-14203.335506617061</v>
       </c>
-      <c r="AJ49" s="5">
+      <c r="AK49" s="5">
         <f t="shared" si="26"/>
         <v>-14249.853641767777</v>
       </c>
-      <c r="AK49" s="5">
+      <c r="AL49" s="5">
         <f t="shared" si="26"/>
         <v>-14296.505325773111</v>
       </c>
-      <c r="AL49" s="5">
+      <c r="AM49" s="5">
         <f t="shared" si="26"/>
         <v>-14343.290942038298</v>
       </c>
-      <c r="AM49" s="5">
+      <c r="AN49" s="5">
         <f t="shared" si="26"/>
         <v>-14390.210875069293</v>
       </c>
-      <c r="AN49" s="5">
+      <c r="AO49" s="5">
         <f t="shared" si="26"/>
         <v>-14437.265510475925</v>
       </c>
-      <c r="AO49" s="5">
+      <c r="AP49" s="5">
         <f t="shared" si="26"/>
         <v>-14484.455234975074</v>
       </c>
-      <c r="AP49" s="5">
+      <c r="AQ49" s="5">
         <f t="shared" si="26"/>
         <v>-14531.780436393839</v>
       </c>
-      <c r="AQ49" s="5">
+      <c r="AR49" s="5">
         <f t="shared" si="26"/>
         <v>-14579.241503672736</v>
       </c>
-      <c r="AR49" s="5">
+      <c r="AS49" s="5">
         <f t="shared" si="26"/>
         <v>-14626.838826868892</v>
       </c>
-      <c r="AS49" s="5">
+      <c r="AT49" s="5">
         <f t="shared" si="26"/>
         <v>-14674.572797159242</v>
       </c>
-      <c r="AT49" s="5">
+      <c r="AU49" s="5">
         <f t="shared" si="26"/>
         <v>-14722.443806843758</v>
       </c>
-      <c r="AU49" s="5">
+      <c r="AV49" s="5">
         <f t="shared" si="26"/>
         <v>-14770.452249348658</v>
       </c>
-      <c r="AV49" s="5">
+      <c r="AW49" s="5">
         <f t="shared" si="26"/>
         <v>-14818.598519229647</v>
       </c>
-      <c r="AW49" s="5">
+      <c r="AX49" s="5">
         <f t="shared" si="26"/>
         <v>-14866.883012175169</v>
       </c>
-      <c r="AX49" s="5">
+      <c r="AY49" s="5">
         <f t="shared" si="26"/>
         <v>-14915.306125009638</v>
       </c>
-      <c r="AY49" s="5">
+      <c r="AZ49" s="5">
         <f t="shared" si="26"/>
         <v>-14963.868255696718</v>
       </c>
-      <c r="AZ49" s="5">
+      <c r="BA49" s="5">
         <f t="shared" si="26"/>
         <v>-15012.56980334258</v>
       </c>
-      <c r="BA49" s="5">
+      <c r="BB49" s="5">
         <f t="shared" si="26"/>
         <v>-15061.411168199204</v>
       </c>
-      <c r="BB49" s="5">
+      <c r="BC49" s="5">
         <f t="shared" si="26"/>
         <v>-15110.392751667627</v>
       </c>
-      <c r="BC49" s="5">
+      <c r="BD49" s="5">
         <f t="shared" si="26"/>
         <v>-15159.514956301286</v>
       </c>
-      <c r="BD49" s="5">
+      <c r="BE49" s="5">
         <f t="shared" si="26"/>
         <v>-15208.778185809309</v>
       </c>
-      <c r="BE49" s="5">
+      <c r="BF49" s="5">
         <f t="shared" si="26"/>
         <v>-15258.182845059824</v>
       </c>
-      <c r="BF49" s="5">
+      <c r="BG49" s="5">
         <f t="shared" si="26"/>
         <v>-15307.729340083293</v>
       </c>
-      <c r="BG49" s="5">
+      <c r="BH49" s="5">
         <f t="shared" si="26"/>
         <v>-15357.418078075865</v>
       </c>
-      <c r="BH49" s="5">
+      <c r="BI49" s="5">
         <f t="shared" si="26"/>
         <v>-15407.249467402691</v>
       </c>
-      <c r="BI49" s="5">
+      <c r="BJ49" s="5">
         <f t="shared" si="26"/>
         <v>-15457.223917601306</v>
       </c>
-      <c r="BJ49" s="5">
+      <c r="BK49" s="5">
         <f t="shared" si="26"/>
         <v>-15507.341839384981</v>
       </c>
-      <c r="BK49" s="5">
+      <c r="BL49" s="5">
         <f t="shared" si="26"/>
         <v>-15557.603644646108</v>
       </c>
-      <c r="BL49" s="5">
+      <c r="BM49" s="5">
         <f t="shared" si="26"/>
         <v>-15608.009746459578</v>
       </c>
-      <c r="BM49" s="5">
+      <c r="BN49" s="5">
         <f t="shared" si="26"/>
         <v>-15658.560559086181</v>
       </c>
-      <c r="BN49" s="5">
+      <c r="BO49" s="5">
         <f t="shared" si="26"/>
         <v>-15709.256497975995</v>
       </c>
-      <c r="BO49" s="5">
+      <c r="BP49" s="5">
         <f t="shared" si="26"/>
         <v>-15760.097979771836</v>
       </c>
-      <c r="BP49" s="5">
+      <c r="BQ49" s="5">
         <f t="shared" si="26"/>
         <v>-15811.085422312635</v>
       </c>
-      <c r="BQ49" s="5">
+      <c r="BR49" s="5">
         <f t="shared" si="26"/>
         <v>-15862.219244636921</v>
       </c>
-      <c r="BR49" s="5">
+      <c r="BS49" s="5">
         <f t="shared" si="26"/>
         <v>-15913.499866986218</v>
       </c>
-      <c r="BS49" s="5">
+      <c r="BT49" s="5">
         <f t="shared" si="26"/>
         <v>-15964.927710808526</v>
       </c>
-      <c r="BT49" s="5">
+      <c r="BU49" s="5">
         <f t="shared" si="26"/>
         <v>-16016.503198761791</v>
       </c>
-      <c r="BU49" s="5">
+      <c r="BV49" s="5">
         <f t="shared" si="26"/>
         <v>-16068.226754717358</v>
       </c>
-      <c r="BV49" s="5">
+      <c r="BW49" s="5">
         <f t="shared" si="26"/>
         <v>-16120.09880376346</v>
       </c>
-      <c r="BW49" s="5">
+      <c r="BX49" s="5">
         <f t="shared" si="26"/>
         <v>-16172.119772208731</v>
       </c>
     </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>28</v>
       </c>
@@ -7697,137 +7805,140 @@
       <c r="AF50" s="2">
         <v>-3184.1697385308025</v>
       </c>
-      <c r="AG50" s="2">
+      <c r="AG50" s="37">
+        <v>-689.2</v>
+      </c>
+      <c r="AH50" s="2">
         <v>-3193.3111673544731</v>
       </c>
-      <c r="AH50" s="2">
+      <c r="AI50" s="2">
         <v>-3202.4788402944446</v>
       </c>
-      <c r="AI50" s="2">
+      <c r="AJ50" s="2">
         <v>-3211.6728326949165</v>
       </c>
-      <c r="AJ50" s="2">
+      <c r="AK50" s="2">
         <v>-3220.8932201163934</v>
       </c>
-      <c r="AK50" s="2">
+      <c r="AL50" s="2">
         <v>-3230.1400783363083</v>
       </c>
-      <c r="AL50" s="2">
+      <c r="AM50" s="2">
         <v>-3239.4134833496423</v>
       </c>
-      <c r="AM50" s="2">
+      <c r="AN50" s="2">
         <v>-3248.7135113695504</v>
       </c>
-      <c r="AN50" s="2">
+      <c r="AO50" s="2">
         <v>-3258.0402388279881</v>
       </c>
-      <c r="AO50" s="2">
+      <c r="AP50" s="2">
         <v>-3267.3937423763396</v>
       </c>
-      <c r="AP50" s="2">
+      <c r="AQ50" s="2">
         <v>-3276.7740988860464</v>
       </c>
-      <c r="AQ50" s="2">
+      <c r="AR50" s="2">
         <v>-3286.1813854492416</v>
       </c>
-      <c r="AR50" s="2">
+      <c r="AS50" s="2">
         <v>-3295.6156793793812</v>
       </c>
-      <c r="AS50" s="2">
+      <c r="AT50" s="2">
         <v>-3305.0770582118798</v>
       </c>
-      <c r="AT50" s="2">
+      <c r="AU50" s="2">
         <v>-3314.5655997047502</v>
       </c>
-      <c r="AU50" s="2">
+      <c r="AV50" s="2">
         <v>-3324.0813818392385</v>
       </c>
-      <c r="AV50" s="2">
+      <c r="AW50" s="2">
         <v>-3333.6244828204667</v>
       </c>
-      <c r="AW50" s="2">
+      <c r="AX50" s="2">
         <v>-3343.1949810780793</v>
       </c>
-      <c r="AX50" s="2">
+      <c r="AY50" s="2">
         <v>-3352.7929552668793</v>
       </c>
-      <c r="AY50" s="2">
+      <c r="AZ50" s="2">
         <v>-3362.418484267484</v>
       </c>
-      <c r="AZ50" s="2">
+      <c r="BA50" s="2">
         <v>-3372.0716471869673</v>
       </c>
-      <c r="BA50" s="2">
+      <c r="BB50" s="2">
         <v>-3381.7525233595115</v>
       </c>
-      <c r="BB50" s="2">
+      <c r="BC50" s="2">
         <v>-3391.4611923470588</v>
       </c>
-      <c r="BC50" s="2">
+      <c r="BD50" s="2">
         <v>-3401.1977339399659</v>
       </c>
-      <c r="BD50" s="2">
+      <c r="BE50" s="2">
         <v>-3410.9622281576608</v>
       </c>
-      <c r="BE50" s="2">
+      <c r="BF50" s="2">
         <v>-3420.754755249297</v>
       </c>
-      <c r="BF50" s="2">
+      <c r="BG50" s="2">
         <v>-3430.5753956944177</v>
       </c>
-      <c r="BG50" s="2">
+      <c r="BH50" s="2">
         <v>-3440.4242302036128</v>
       </c>
-      <c r="BH50" s="2">
+      <c r="BI50" s="2">
         <v>-3450.3013397191839</v>
       </c>
-      <c r="BI50" s="2">
+      <c r="BJ50" s="2">
         <v>-3460.2068054158126</v>
       </c>
-      <c r="BJ50" s="2">
+      <c r="BK50" s="2">
         <v>-3470.1407087012212</v>
       </c>
-      <c r="BK50" s="2">
+      <c r="BL50" s="2">
         <v>-3480.103131216847</v>
       </c>
-      <c r="BL50" s="2">
+      <c r="BM50" s="2">
         <v>-3490.0941548385122</v>
       </c>
-      <c r="BM50" s="2">
+      <c r="BN50" s="2">
         <v>-3500.1138616770959</v>
       </c>
-      <c r="BN50" s="2">
+      <c r="BO50" s="2">
         <v>-3510.1623340792062</v>
       </c>
-      <c r="BO50" s="2">
+      <c r="BP50" s="2">
         <v>-3520.2396546278655</v>
       </c>
-      <c r="BP50" s="2">
+      <c r="BQ50" s="2">
         <v>-3530.3459061431795</v>
       </c>
-      <c r="BQ50" s="2">
+      <c r="BR50" s="2">
         <v>-3540.4811716830236</v>
       </c>
-      <c r="BR50" s="2">
+      <c r="BS50" s="2">
         <v>-3550.6455345437234</v>
       </c>
-      <c r="BS50" s="2">
+      <c r="BT50" s="2">
         <v>-3560.8390782607403</v>
       </c>
-      <c r="BT50" s="2">
+      <c r="BU50" s="2">
         <v>-3571.0618866093573</v>
       </c>
-      <c r="BU50" s="2">
+      <c r="BV50" s="2">
         <v>-3581.3140436053673</v>
       </c>
-      <c r="BV50" s="2">
+      <c r="BW50" s="2">
         <v>-3591.5956335057654</v>
       </c>
-      <c r="BW50" s="2">
+      <c r="BX50" s="2">
         <v>-3601.9067408094384</v>
       </c>
     </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>6</v>
       </c>
@@ -7909,137 +8020,140 @@
       <c r="AF51" s="2">
         <v>-6844.9159403633403</v>
       </c>
-      <c r="AG51" s="2">
+      <c r="AG51" s="37">
+        <v>-6107.39</v>
+      </c>
+      <c r="AH51" s="2">
         <v>-6870.3087982068701</v>
       </c>
-      <c r="AH51" s="2">
+      <c r="AI51" s="2">
         <v>-6895.774556373457</v>
       </c>
-      <c r="AI51" s="2">
+      <c r="AJ51" s="2">
         <v>-6921.3134241525458</v>
       </c>
-      <c r="AJ51" s="2">
+      <c r="AK51" s="2">
         <v>-6946.9256114344262</v>
       </c>
-      <c r="AK51" s="2">
+      <c r="AL51" s="2">
         <v>-6972.6113287119679</v>
       </c>
-      <c r="AL51" s="2">
+      <c r="AM51" s="2">
         <v>-6998.37078708234</v>
       </c>
-      <c r="AM51" s="2">
+      <c r="AN51" s="2">
         <v>-7024.2041982487517</v>
       </c>
-      <c r="AN51" s="2">
+      <c r="AO51" s="2">
         <v>-7050.1117745221891</v>
       </c>
-      <c r="AO51" s="2">
+      <c r="AP51" s="2">
         <v>-7076.0937288231653</v>
       </c>
-      <c r="AP51" s="2">
+      <c r="AQ51" s="2">
         <v>-7102.1502746834631</v>
       </c>
-      <c r="AQ51" s="2">
+      <c r="AR51" s="2">
         <v>-7128.2816262478937</v>
       </c>
-      <c r="AR51" s="2">
+      <c r="AS51" s="2">
         <v>-7154.4879982760594</v>
       </c>
-      <c r="AS51" s="2">
+      <c r="AT51" s="2">
         <v>-7180.7696061441111</v>
       </c>
-      <c r="AT51" s="2">
+      <c r="AU51" s="2">
         <v>-7207.1266658465283</v>
       </c>
-      <c r="AU51" s="2">
+      <c r="AV51" s="2">
         <v>-7233.5593939978844</v>
       </c>
-      <c r="AV51" s="2">
+      <c r="AW51" s="2">
         <v>-7260.0680078346304</v>
       </c>
-      <c r="AW51" s="2">
+      <c r="AX51" s="2">
         <v>-7286.6527252168871</v>
       </c>
-      <c r="AX51" s="2">
+      <c r="AY51" s="2">
         <v>-7313.3137646302202</v>
       </c>
-      <c r="AY51" s="2">
+      <c r="AZ51" s="2">
         <v>-7340.0513451874558</v>
       </c>
-      <c r="AZ51" s="2">
+      <c r="BA51" s="2">
         <v>-7366.8656866304646</v>
       </c>
-      <c r="BA51" s="2">
+      <c r="BB51" s="2">
         <v>-7393.7570093319773</v>
       </c>
-      <c r="BB51" s="2">
+      <c r="BC51" s="2">
         <v>-7420.7255342973858</v>
       </c>
-      <c r="BC51" s="2">
+      <c r="BD51" s="2">
         <v>-7447.7714831665726</v>
       </c>
-      <c r="BD51" s="2">
+      <c r="BE51" s="2">
         <v>-7474.8950782157244</v>
       </c>
-      <c r="BE51" s="2">
+      <c r="BF51" s="2">
         <v>-7502.0965423591588</v>
       </c>
-      <c r="BF51" s="2">
+      <c r="BG51" s="2">
         <v>-7529.3760991511608</v>
       </c>
-      <c r="BG51" s="2">
+      <c r="BH51" s="2">
         <v>-7556.7339727878134</v>
       </c>
-      <c r="BH51" s="2">
+      <c r="BI51" s="2">
         <v>-7584.1703881088451</v>
       </c>
-      <c r="BI51" s="2">
+      <c r="BJ51" s="2">
         <v>-7611.6855705994803</v>
       </c>
-      <c r="BJ51" s="2">
+      <c r="BK51" s="2">
         <v>-7639.2797463922816</v>
       </c>
-      <c r="BK51" s="2">
+      <c r="BL51" s="2">
         <v>-7666.9531422690197</v>
       </c>
-      <c r="BL51" s="2">
+      <c r="BM51" s="2">
         <v>-7694.7059856625347</v>
       </c>
-      <c r="BM51" s="2">
+      <c r="BN51" s="2">
         <v>-7722.5385046585998</v>
       </c>
-      <c r="BN51" s="2">
+      <c r="BO51" s="2">
         <v>-7750.4509279977956</v>
       </c>
-      <c r="BO51" s="2">
+      <c r="BP51" s="2">
         <v>-7778.4434850774051</v>
       </c>
-      <c r="BP51" s="2">
+      <c r="BQ51" s="2">
         <v>-7806.5164059532763</v>
       </c>
-      <c r="BQ51" s="2">
+      <c r="BR51" s="2">
         <v>-7834.6699213417323</v>
       </c>
-      <c r="BR51" s="2">
+      <c r="BS51" s="2">
         <v>-7862.9042626214541</v>
       </c>
-      <c r="BS51" s="2">
+      <c r="BT51" s="2">
         <v>-7891.2196618353901</v>
       </c>
-      <c r="BT51" s="2">
+      <c r="BU51" s="2">
         <v>-7919.616351692659</v>
       </c>
-      <c r="BU51" s="2">
+      <c r="BV51" s="2">
         <v>-7948.0945655704654</v>
       </c>
-      <c r="BV51" s="2">
+      <c r="BW51" s="2">
         <v>-7976.6545375160149</v>
       </c>
-      <c r="BW51" s="2">
+      <c r="BX51" s="2">
         <v>-8005.2965022484404</v>
       </c>
     </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>26</v>
       </c>
@@ -8122,137 +8236,140 @@
       <c r="AF52" s="2">
         <v>-718.64942015452141</v>
       </c>
-      <c r="AG52" s="2">
+      <c r="AG52" s="37">
+        <v>-785.99</v>
+      </c>
+      <c r="AH52" s="2">
         <v>-720.71258985430813</v>
       </c>
-      <c r="AH52" s="2">
+      <c r="AI52" s="2">
         <v>-722.78168270534331</v>
       </c>
-      <c r="AI52" s="2">
+      <c r="AJ52" s="2">
         <v>-724.85671571239425</v>
       </c>
-      <c r="AJ52" s="2">
+      <c r="AK52" s="2">
         <v>-726.93770592904707</v>
       </c>
-      <c r="AK52" s="2">
+      <c r="AL52" s="2">
         <v>-729.02467045784726</v>
       </c>
-      <c r="AL52" s="2">
+      <c r="AM52" s="2">
         <v>-731.11762645043996</v>
       </c>
-      <c r="AM52" s="2">
+      <c r="AN52" s="2">
         <v>-733.216591107711</v>
       </c>
-      <c r="AN52" s="2">
+      <c r="AO52" s="2">
         <v>-735.32158167992782</v>
       </c>
-      <c r="AO52" s="2">
+      <c r="AP52" s="2">
         <v>-737.43261546688223</v>
       </c>
-      <c r="AP52" s="2">
+      <c r="AQ52" s="2">
         <v>-739.54970981803137</v>
       </c>
-      <c r="AQ52" s="2">
+      <c r="AR52" s="2">
         <v>-741.67288213264135</v>
       </c>
-      <c r="AR52" s="2">
+      <c r="AS52" s="2">
         <v>-743.80214985992973</v>
       </c>
-      <c r="AS52" s="2">
+      <c r="AT52" s="2">
         <v>-745.93753049920906</v>
       </c>
-      <c r="AT52" s="2">
+      <c r="AU52" s="2">
         <v>-748.07904160003045</v>
       </c>
-      <c r="AU52" s="2">
+      <c r="AV52" s="2">
         <v>-750.22670076232805</v>
       </c>
-      <c r="AV52" s="2">
+      <c r="AW52" s="2">
         <v>-752.38052563656368</v>
       </c>
-      <c r="AW52" s="2">
+      <c r="AX52" s="2">
         <v>-754.54053392387198</v>
       </c>
-      <c r="AX52" s="2">
+      <c r="AY52" s="2">
         <v>-756.7067433762054</v>
       </c>
-      <c r="AY52" s="2">
+      <c r="AZ52" s="2">
         <v>-758.8791717964807</v>
       </c>
-      <c r="AZ52" s="2">
+      <c r="BA52" s="2">
         <v>-761.05783703872521</v>
       </c>
-      <c r="BA52" s="2">
+      <c r="BB52" s="2">
         <v>-763.24275700822307</v>
       </c>
-      <c r="BB52" s="2">
+      <c r="BC52" s="2">
         <v>-765.4339496616625</v>
       </c>
-      <c r="BC52" s="2">
+      <c r="BD52" s="2">
         <v>-767.63143300728393</v>
       </c>
-      <c r="BD52" s="2">
+      <c r="BE52" s="2">
         <v>-769.83522510502746</v>
       </c>
-      <c r="BE52" s="2">
+      <c r="BF52" s="2">
         <v>-772.04534406668165</v>
       </c>
-      <c r="BF52" s="2">
+      <c r="BG52" s="2">
         <v>-774.26180805603167</v>
       </c>
-      <c r="BG52" s="2">
+      <c r="BH52" s="2">
         <v>-776.4846352890097</v>
       </c>
-      <c r="BH52" s="2">
+      <c r="BI52" s="2">
         <v>-778.71384403384366</v>
       </c>
-      <c r="BI52" s="2">
+      <c r="BJ52" s="2">
         <v>-780.94945261120768</v>
       </c>
-      <c r="BJ52" s="2">
+      <c r="BK52" s="2">
         <v>-783.19147939437278</v>
       </c>
-      <c r="BK52" s="2">
+      <c r="BL52" s="2">
         <v>-785.43994280935783</v>
       </c>
-      <c r="BL52" s="2">
+      <c r="BM52" s="2">
         <v>-787.69486133508087</v>
       </c>
-      <c r="BM52" s="2">
+      <c r="BN52" s="2">
         <v>-789.95625350351111</v>
       </c>
-      <c r="BN52" s="2">
+      <c r="BO52" s="2">
         <v>-792.2241378998209</v>
       </c>
-      <c r="BO52" s="2">
+      <c r="BP52" s="2">
         <v>-794.49853316253905</v>
       </c>
-      <c r="BP52" s="2">
+      <c r="BQ52" s="2">
         <v>-796.77945798370365</v>
       </c>
-      <c r="BQ52" s="2">
+      <c r="BR52" s="2">
         <v>-799.06693110901563</v>
       </c>
-      <c r="BR52" s="2">
+      <c r="BS52" s="2">
         <v>-801.36097133799308</v>
       </c>
-      <c r="BS52" s="2">
+      <c r="BT52" s="2">
         <v>-803.66159752412534</v>
       </c>
-      <c r="BT52" s="2">
+      <c r="BU52" s="2">
         <v>-805.96882857502851</v>
       </c>
-      <c r="BU52" s="2">
+      <c r="BV52" s="2">
         <v>-808.28268345260028</v>
       </c>
-      <c r="BV52" s="2">
+      <c r="BW52" s="2">
         <v>-810.60318117317604</v>
       </c>
-      <c r="BW52" s="2">
+      <c r="BX52" s="2">
         <v>-812.93034080768575</v>
       </c>
     </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
         <v>27</v>
       </c>
@@ -8332,139 +8449,142 @@
       <c r="AF53" s="2">
         <v>-3316.8434776362528</v>
       </c>
-      <c r="AG53" s="2">
+      <c r="AG53" s="37">
+        <v>-3180.93</v>
+      </c>
+      <c r="AH53" s="2">
         <v>-3326.365799327576</v>
       </c>
-      <c r="AH53" s="2">
+      <c r="AI53" s="2">
         <v>-3335.9154586400459</v>
       </c>
-      <c r="AI53" s="2">
+      <c r="AJ53" s="2">
         <v>-3345.4925340572045</v>
       </c>
-      <c r="AJ53" s="2">
+      <c r="AK53" s="2">
         <v>-3355.0971042879096</v>
       </c>
-      <c r="AK53" s="2">
+      <c r="AL53" s="2">
         <v>-3364.7292482669877</v>
       </c>
-      <c r="AL53" s="2">
+      <c r="AM53" s="2">
         <v>-3374.3890451558768</v>
       </c>
-      <c r="AM53" s="2">
+      <c r="AN53" s="2">
         <v>-3384.0765743432812</v>
       </c>
-      <c r="AN53" s="2">
+      <c r="AO53" s="2">
         <v>-3393.7919154458209</v>
       </c>
-      <c r="AO53" s="2">
+      <c r="AP53" s="2">
         <v>-3403.535148308687</v>
       </c>
-      <c r="AP53" s="2">
+      <c r="AQ53" s="2">
         <v>-3413.3063530062987</v>
       </c>
-      <c r="AQ53" s="2">
+      <c r="AR53" s="2">
         <v>-3423.1056098429603</v>
       </c>
-      <c r="AR53" s="2">
+      <c r="AS53" s="2">
         <v>-3432.9329993535216</v>
       </c>
-      <c r="AS53" s="2">
+      <c r="AT53" s="2">
         <v>-3442.7886023040419</v>
       </c>
-      <c r="AT53" s="2">
+      <c r="AU53" s="2">
         <v>-3452.6724996924481</v>
       </c>
-      <c r="AU53" s="2">
+      <c r="AV53" s="2">
         <v>-3462.5847727492064</v>
       </c>
-      <c r="AV53" s="2">
+      <c r="AW53" s="2">
         <v>-3472.5255029379864</v>
       </c>
-      <c r="AW53" s="2">
+      <c r="AX53" s="2">
         <v>-3482.494771956332</v>
       </c>
-      <c r="AX53" s="2">
+      <c r="AY53" s="2">
         <v>-3492.4926617363326</v>
       </c>
-      <c r="AY53" s="2">
+      <c r="AZ53" s="2">
         <v>-3502.5192544452957</v>
       </c>
-      <c r="AZ53" s="2">
+      <c r="BA53" s="2">
         <v>-3512.574632486424</v>
       </c>
-      <c r="BA53" s="2">
+      <c r="BB53" s="2">
         <v>-3522.658878499491</v>
       </c>
-      <c r="BB53" s="2">
+      <c r="BC53" s="2">
         <v>-3532.7720753615195</v>
       </c>
-      <c r="BC53" s="2">
+      <c r="BD53" s="2">
         <v>-3542.9143061874643</v>
       </c>
-      <c r="BD53" s="2">
+      <c r="BE53" s="2">
         <v>-3553.0856543308964</v>
       </c>
-      <c r="BE53" s="2">
+      <c r="BF53" s="2">
         <v>-3563.2862033846845</v>
       </c>
-      <c r="BF53" s="2">
+      <c r="BG53" s="2">
         <v>-3573.5160371816846</v>
       </c>
-      <c r="BG53" s="2">
+      <c r="BH53" s="2">
         <v>-3583.7752397954296</v>
       </c>
-      <c r="BH53" s="2">
+      <c r="BI53" s="2">
         <v>-3594.0638955408172</v>
       </c>
-      <c r="BI53" s="2">
+      <c r="BJ53" s="2">
         <v>-3604.3820889748049</v>
       </c>
-      <c r="BJ53" s="2">
+      <c r="BK53" s="2">
         <v>-3614.7299048971054</v>
       </c>
-      <c r="BK53" s="2">
+      <c r="BL53" s="2">
         <v>-3625.1074283508824</v>
       </c>
-      <c r="BL53" s="2">
+      <c r="BM53" s="2">
         <v>-3635.51474462345</v>
       </c>
-      <c r="BM53" s="2">
+      <c r="BN53" s="2">
         <v>-3645.9519392469742</v>
       </c>
-      <c r="BN53" s="2">
+      <c r="BO53" s="2">
         <v>-3656.4190979991736</v>
       </c>
-      <c r="BO53" s="2">
+      <c r="BP53" s="2">
         <v>-3666.9163069040264</v>
       </c>
-      <c r="BP53" s="2">
+      <c r="BQ53" s="2">
         <v>-3677.4436522324781</v>
       </c>
-      <c r="BQ53" s="2">
+      <c r="BR53" s="2">
         <v>-3688.0012205031494</v>
       </c>
-      <c r="BR53" s="2">
+      <c r="BS53" s="2">
         <v>-3698.5890984830453</v>
       </c>
-      <c r="BS53" s="2">
+      <c r="BT53" s="2">
         <v>-3709.2073731882706</v>
       </c>
-      <c r="BT53" s="2">
+      <c r="BU53" s="2">
         <v>-3719.8561318847469</v>
       </c>
-      <c r="BU53" s="2">
+      <c r="BV53" s="2">
         <v>-3730.5354620889243</v>
       </c>
-      <c r="BV53" s="2">
+      <c r="BW53" s="2">
         <v>-3741.2454515685049</v>
       </c>
-      <c r="BW53" s="2">
+      <c r="BX53" s="2">
         <v>-3751.9861883431649</v>
       </c>
-      <c r="BX53" s="2"/>
       <c r="BY53" s="2"/>
+      <c r="BZ53" s="2"/>
     </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:78" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -8495,7 +8615,7 @@
       <c r="AD54" s="2"/>
       <c r="AE54" s="37"/>
       <c r="AF54" s="2"/>
-      <c r="AG54" s="2"/>
+      <c r="AG54" s="37"/>
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
       <c r="AJ54" s="2"/>
@@ -8540,8 +8660,9 @@
       <c r="BW54" s="2"/>
       <c r="BX54" s="2"/>
       <c r="BY54" s="2"/>
+      <c r="BZ54" s="2"/>
     </row>
-    <row r="55" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:78" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -8572,7 +8693,7 @@
       <c r="AD55" s="2"/>
       <c r="AE55" s="37"/>
       <c r="AF55" s="2"/>
-      <c r="AG55" s="2"/>
+      <c r="AG55" s="37"/>
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
       <c r="AJ55" s="2"/>
@@ -8615,8 +8736,9 @@
       <c r="BU55" s="2"/>
       <c r="BV55" s="2"/>
       <c r="BW55" s="2"/>
+      <c r="BX55" s="2"/>
     </row>
-    <row r="57" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>41</v>
       </c>
@@ -8679,31 +8801,37 @@
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="Y58" s="33"/>
       <c r="AA58" s="33"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:BY35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:BZ35">
     <sortCondition ref="A20:A35"/>
   </sortState>
   <conditionalFormatting sqref="Y1:Z1">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1">
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD1">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD1">
+  <conditionalFormatting sqref="AE1">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG1">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1">
+  <conditionalFormatting sqref="AF1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
